--- a/curation_of_classes/cell_classes.xlsx
+++ b/curation_of_classes/cell_classes.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1128" uniqueCount="685">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1101" uniqueCount="676">
   <si>
     <t>label</t>
   </si>
@@ -38,58 +38,13 @@
     <t>instance of</t>
   </si>
   <si>
-    <t>reserve stem cell</t>
-  </si>
-  <si>
-    <t>stem cell</t>
-  </si>
-  <si>
-    <t>Q90284294</t>
-  </si>
-  <si>
-    <t xml:space="preserve">intestinal reserve stem cell </t>
-  </si>
-  <si>
-    <t>mouse revival stem cells</t>
-  </si>
-  <si>
-    <t>revSCs |  CLU+ revSCs</t>
-  </si>
-  <si>
-    <t>mouse crypt-base columnar cell</t>
-  </si>
-  <si>
-    <t>Q101062506</t>
-  </si>
-  <si>
-    <t>CVO neuron</t>
-  </si>
-  <si>
-    <t>neuron</t>
+    <t>mouse lamina terminalis Plvap+ endothelial cell</t>
+  </si>
+  <si>
+    <t>mouse endothelial cell</t>
   </si>
   <si>
     <t>Q100560052</t>
-  </si>
-  <si>
-    <t>Q205925</t>
-  </si>
-  <si>
-    <t>mouse lamina terminalis Ucma+ astrocyte</t>
-  </si>
-  <si>
-    <t>mouse astrocyte</t>
-  </si>
-  <si>
-    <t>dehydration-sensitive neuron</t>
-  </si>
-  <si>
-    <t>mouse dehydration-sensitive neuron</t>
-  </si>
-  <si>
-    <t>mouse lamina terminalis Plvap+ endothelial cell</t>
-  </si>
-  <si>
-    <t>mouce endothelial cell</t>
   </si>
   <si>
     <t xml:space="preserve">mouse PDYN+ neurons </t>
@@ -444,6 +399,9 @@
     <t>spiral ganglion neuron</t>
   </si>
   <si>
+    <t>neuron</t>
+  </si>
+  <si>
     <t>Q107332851</t>
   </si>
   <si>
@@ -1810,19 +1768,34 @@
     <t>"MafB, a marker for adult microglia"</t>
   </si>
   <si>
+    <t>mouse revival stem cells</t>
+  </si>
+  <si>
     <t>clusterin</t>
   </si>
   <si>
+    <t>Q90284294</t>
+  </si>
+  <si>
     <t>"revSCs are marked by high clusterin expression"</t>
   </si>
   <si>
+    <t>mouse crypt-base columnar cell</t>
+  </si>
+  <si>
     <t>Lgr5</t>
   </si>
   <si>
+    <t>mouse lamina terminalis Ucma+ astrocyte</t>
+  </si>
+  <si>
     <t>Ucma+</t>
   </si>
   <si>
     <t>" both CVOs contain a specialized LT astrocyte class labelled by Ucma "</t>
+  </si>
+  <si>
+    <t>mouse dehydration-sensitive neuron</t>
   </si>
   <si>
     <t>Etv1</t>
@@ -2083,7 +2056,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="42">
+  <fonts count="38">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -2100,18 +2073,17 @@
     </font>
     <font>
       <sz val="11.0"/>
-      <color rgb="FFCE9178"/>
-      <name val="&quot;Droid Sans Mono&quot;"/>
-    </font>
-    <font>
-      <sz val="11.0"/>
-      <color rgb="FFD4D4D4"/>
-      <name val="&quot;Droid Sans Mono&quot;"/>
+      <color rgb="FF000000"/>
+      <name val="&quot;Arial&quot;"/>
     </font>
     <font>
       <sz val="11.0"/>
       <color rgb="FF000000"/>
-      <name val="&quot;Arial&quot;"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <color rgb="FFCE9178"/>
+      <name val="&quot;Droid Sans Mono&quot;"/>
     </font>
     <font>
       <b/>
@@ -2140,6 +2112,11 @@
       <sz val="11.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <color rgb="FFD4D4D4"/>
+      <name val="&quot;Droid Sans Mono&quot;"/>
     </font>
     <font>
       <b/>
@@ -2181,22 +2158,8 @@
       <name val="Serif"/>
     </font>
     <font>
-      <color rgb="FF000000"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="24.0"/>
-    </font>
-    <font>
-      <sz val="11.0"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="14.0"/>
-      <name val="Arial"/>
-    </font>
-    <font>
       <sz val="17.0"/>
+      <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
@@ -2206,6 +2169,7 @@
     </font>
     <font>
       <sz val="20.0"/>
+      <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
@@ -2215,6 +2179,7 @@
     </font>
     <font>
       <sz val="20.0"/>
+      <color theme="1"/>
       <name val="Serif"/>
     </font>
     <font>
@@ -2273,11 +2238,6 @@
       <name val="Serif"/>
     </font>
     <font>
-      <sz val="17.0"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-    </font>
-    <font>
       <sz val="13.0"/>
       <color theme="1"/>
       <name val="Arial"/>
@@ -2314,7 +2274,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="45">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -2322,16 +2282,16 @@
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
@@ -2345,19 +2305,19 @@
     <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -2396,32 +2356,31 @@
     <xf borderId="0" fillId="0" fontId="25" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="26" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="27" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf borderId="0" fillId="3" fontId="26" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="19" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="3" fontId="27" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="28" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
+    <xf borderId="0" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="29" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
+    <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="30" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
+    <xf borderId="0" fillId="0" fontId="29" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="30" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="31" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="32" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -2429,6 +2388,9 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="33" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="34" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
@@ -2439,22 +2401,7 @@
     <xf borderId="0" fillId="0" fontId="36" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
     <xf borderId="0" fillId="0" fontId="37" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="38" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="39" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="40" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="41" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -2729,20 +2676,20 @@
       <c r="X1" s="2"/>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
@@ -2765,16 +2712,18 @@
         <v>11</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
@@ -2794,23 +2743,21 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>10</v>
-      </c>
+      <c r="D4" s="6"/>
       <c r="E4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
+        <v>15</v>
+      </c>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
@@ -2830,19 +2777,19 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
+        <v>17</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
@@ -2861,22 +2808,22 @@
       <c r="X5" s="2"/>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
@@ -2896,19 +2843,21 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H7" s="6"/>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
@@ -2927,20 +2876,22 @@
       <c r="X7" s="2"/>
     </row>
     <row r="8">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
+      <c r="B8" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
@@ -2960,19 +2911,21 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
+      <c r="C9" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
@@ -2991,20 +2944,22 @@
       <c r="X9" s="2"/>
     </row>
     <row r="10">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
@@ -3024,21 +2979,21 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D11" s="4"/>
-      <c r="E11" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
+        <v>22</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
@@ -3057,22 +3012,24 @@
       <c r="X11" s="2"/>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D12" s="4"/>
-      <c r="E12" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
+      <c r="A12" s="8" t="str">
+        <f t="shared" ref="A12:A15" si="1">CONCATENATE("mouse ",A8)</f>
+        <v>mouse ganglionic eminence cell</v>
+      </c>
+      <c r="B12" s="6" t="str">
+        <f t="shared" ref="B12:B15" si="2">A8</f>
+        <v>ganglionic eminence cell</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
@@ -3091,20 +3048,24 @@
       <c r="X12" s="2"/>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
+      <c r="A13" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>mouse lateral ganglionic eminence cell</v>
+      </c>
+      <c r="B13" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>lateral ganglionic eminence cell</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
@@ -3123,22 +3084,24 @@
       <c r="X13" s="2"/>
     </row>
     <row r="14">
-      <c r="A14" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D14" s="4"/>
-      <c r="E14" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
+      <c r="A14" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>mouse caudal ganglionic eminence cell</v>
+      </c>
+      <c r="B14" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>caudal ganglionic eminence cell</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
@@ -3157,22 +3120,24 @@
       <c r="X14" s="2"/>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B15" s="1" t="s">
+      <c r="A15" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>mouse medial ganglionic eminence cell</v>
+      </c>
+      <c r="B15" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>medial ganglionic eminence cell</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C15" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="H15" s="4"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
@@ -3191,22 +3156,20 @@
       <c r="X15" s="2"/>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
+      <c r="A16" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
@@ -3225,22 +3188,20 @@
       <c r="X16" s="2"/>
     </row>
     <row r="17">
-      <c r="A17" s="1" t="s">
-        <v>41</v>
+      <c r="A17" s="9" t="s">
+        <v>33</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
+        <v>22</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
@@ -3260,21 +3221,19 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
+        <v>34</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
@@ -3294,21 +3253,21 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C19" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D19" s="6"/>
+      <c r="E19" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
@@ -3327,24 +3286,22 @@
       <c r="X19" s="2"/>
     </row>
     <row r="20">
-      <c r="A20" s="8" t="str">
-        <f t="shared" ref="A20:A23" si="1">CONCATENATE("mouse ",A16)</f>
-        <v>mouse ganglionic eminence cell</v>
-      </c>
-      <c r="B20" s="4" t="str">
-        <f t="shared" ref="B20:B23" si="2">A16</f>
-        <v>ganglionic eminence cell</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="1" t="s">
+      <c r="A20" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
+      <c r="B20" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D20" s="6"/>
+      <c r="E20" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
@@ -3363,24 +3320,20 @@
       <c r="X20" s="2"/>
     </row>
     <row r="21">
-      <c r="A21" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>mouse lateral ganglionic eminence cell</v>
-      </c>
-      <c r="B21" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>lateral ganglionic eminence cell</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="1" t="s">
+      <c r="A21" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
+      <c r="B21" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
@@ -3399,24 +3352,22 @@
       <c r="X21" s="2"/>
     </row>
     <row r="22">
-      <c r="A22" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>mouse caudal ganglionic eminence cell</v>
-      </c>
-      <c r="B22" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>caudal ganglionic eminence cell</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="1" t="s">
+      <c r="A22" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
+      <c r="B22" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D22" s="6"/>
+      <c r="E22" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
@@ -3435,24 +3386,22 @@
       <c r="X22" s="2"/>
     </row>
     <row r="23">
-      <c r="A23" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>mouse medial ganglionic eminence cell</v>
-      </c>
-      <c r="B23" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>medial ganglionic eminence cell</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
+      <c r="A23" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D23" s="6"/>
+      <c r="E23" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
@@ -3471,20 +3420,26 @@
       <c r="X23" s="2"/>
     </row>
     <row r="24">
-      <c r="A24" s="9" t="s">
-        <v>47</v>
+      <c r="A24" s="12" t="s">
+        <v>52</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
+        <v>45</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D24" s="6"/>
+      <c r="E24" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F24" s="6"/>
+      <c r="G24" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>55</v>
+      </c>
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
@@ -3503,20 +3458,20 @@
       <c r="X24" s="2"/>
     </row>
     <row r="25">
-      <c r="A25" s="9" t="s">
-        <v>48</v>
+      <c r="A25" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="4"/>
+        <v>52</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
@@ -3536,19 +3491,19 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B26" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="4"/>
+        <v>57</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
@@ -3568,21 +3523,21 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D27" s="4"/>
-      <c r="E27" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
-      <c r="H27" s="4"/>
+        <v>61</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>
@@ -3602,21 +3557,21 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D28" s="4"/>
-      <c r="E28" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
-      <c r="H28" s="4"/>
+        <v>60</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6"/>
       <c r="I28" s="2"/>
       <c r="J28" s="2"/>
       <c r="K28" s="2"/>
@@ -3636,19 +3591,21 @@
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="4"/>
-      <c r="H29" s="4"/>
+        <v>61</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
       <c r="K29" s="2"/>
@@ -3667,22 +3624,22 @@
       <c r="X29" s="2"/>
     </row>
     <row r="30">
-      <c r="A30" s="11" t="s">
-        <v>59</v>
+      <c r="A30" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C30" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="D30" s="4"/>
-      <c r="E30" s="1" t="s">
+      <c r="C30" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="F30" s="4"/>
-      <c r="G30" s="4"/>
-      <c r="H30" s="4"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
       <c r="I30" s="2"/>
       <c r="J30" s="2"/>
       <c r="K30" s="2"/>
@@ -3702,21 +3659,21 @@
     </row>
     <row r="31">
       <c r="A31" s="1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="D31" s="4"/>
-      <c r="E31" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="F31" s="4"/>
-      <c r="G31" s="4"/>
-      <c r="H31" s="4"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="6"/>
       <c r="I31" s="2"/>
       <c r="J31" s="2"/>
       <c r="K31" s="2"/>
@@ -3735,26 +3692,22 @@
       <c r="X31" s="2"/>
     </row>
     <row r="32">
-      <c r="A32" s="5" t="s">
+      <c r="A32" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B32" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="D32" s="4"/>
-      <c r="E32" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="F32" s="4"/>
-      <c r="G32" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="H32" s="1" t="s">
-        <v>70</v>
-      </c>
+      <c r="C32" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G32" s="6"/>
+      <c r="H32" s="6"/>
       <c r="I32" s="2"/>
       <c r="J32" s="2"/>
       <c r="K32" s="2"/>
@@ -3774,19 +3727,23 @@
     </row>
     <row r="33">
       <c r="A33" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D33" s="6"/>
+      <c r="E33" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B33" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="D33" s="4"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="4"/>
-      <c r="G33" s="4"/>
-      <c r="H33" s="4"/>
+      <c r="F33" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G33" s="6"/>
+      <c r="H33" s="6"/>
       <c r="I33" s="2"/>
       <c r="J33" s="2"/>
       <c r="K33" s="2"/>
@@ -3809,16 +3766,20 @@
         <v>72</v>
       </c>
       <c r="B34" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D34" s="6"/>
+      <c r="E34" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C34" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="D34" s="4"/>
-      <c r="E34" s="4"/>
-      <c r="F34" s="10"/>
-      <c r="G34" s="4"/>
-      <c r="H34" s="4"/>
+      <c r="F34" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G34" s="6"/>
+      <c r="H34" s="6"/>
       <c r="I34" s="2"/>
       <c r="J34" s="2"/>
       <c r="K34" s="2"/>
@@ -3838,21 +3799,23 @@
     </row>
     <row r="35">
       <c r="A35" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D35" s="6"/>
+      <c r="E35" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B35" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="D35" s="4"/>
-      <c r="E35" s="4"/>
-      <c r="F35" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="G35" s="4"/>
-      <c r="H35" s="4"/>
+      <c r="F35" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G35" s="6"/>
+      <c r="H35" s="6"/>
       <c r="I35" s="2"/>
       <c r="J35" s="2"/>
       <c r="K35" s="2"/>
@@ -3872,21 +3835,21 @@
     </row>
     <row r="36">
       <c r="A36" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="D36" s="4"/>
-      <c r="E36" s="4"/>
-      <c r="F36" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="G36" s="4"/>
-      <c r="H36" s="4"/>
+        <v>69</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D36" s="6"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G36" s="6"/>
+      <c r="H36" s="6"/>
       <c r="I36" s="2"/>
       <c r="J36" s="2"/>
       <c r="K36" s="2"/>
@@ -3905,22 +3868,22 @@
       <c r="X36" s="2"/>
     </row>
     <row r="37">
-      <c r="A37" s="1" t="s">
-        <v>80</v>
+      <c r="A37" s="3" t="s">
+        <v>77</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="D37" s="4"/>
-      <c r="E37" s="4"/>
+        <v>69</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D37" s="6"/>
+      <c r="E37" s="6"/>
       <c r="F37" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="G37" s="4"/>
-      <c r="H37" s="4"/>
+        <v>66</v>
+      </c>
+      <c r="G37" s="6"/>
+      <c r="H37" s="6"/>
       <c r="I37" s="2"/>
       <c r="J37" s="2"/>
       <c r="K37" s="2"/>
@@ -3940,21 +3903,19 @@
     </row>
     <row r="38">
       <c r="A38" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="D38" s="4"/>
-      <c r="E38" s="4"/>
-      <c r="F38" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="G38" s="4"/>
-      <c r="H38" s="4"/>
+        <v>79</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D38" s="6"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="6"/>
+      <c r="G38" s="6"/>
+      <c r="H38" s="6"/>
       <c r="I38" s="2"/>
       <c r="J38" s="2"/>
       <c r="K38" s="2"/>
@@ -3974,21 +3935,21 @@
     </row>
     <row r="39">
       <c r="A39" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B39" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D39" s="6"/>
+      <c r="E39" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="C39" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="D39" s="4"/>
-      <c r="E39" s="4"/>
-      <c r="F39" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="G39" s="4"/>
-      <c r="H39" s="4"/>
+      <c r="F39" s="6"/>
+      <c r="G39" s="6"/>
+      <c r="H39" s="6"/>
       <c r="I39" s="2"/>
       <c r="J39" s="2"/>
       <c r="K39" s="2"/>
@@ -4008,21 +3969,19 @@
     </row>
     <row r="40">
       <c r="A40" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="D40" s="4"/>
-      <c r="E40" s="4"/>
-      <c r="F40" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="G40" s="4"/>
-      <c r="H40" s="4"/>
+        <v>78</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D40" s="6"/>
+      <c r="E40" s="6"/>
+      <c r="F40" s="6"/>
+      <c r="G40" s="6"/>
+      <c r="H40" s="6"/>
       <c r="I40" s="2"/>
       <c r="J40" s="2"/>
       <c r="K40" s="2"/>
@@ -4042,23 +4001,19 @@
     </row>
     <row r="41">
       <c r="A41" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B41" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B41" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="D41" s="4"/>
-      <c r="E41" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="G41" s="4"/>
-      <c r="H41" s="4"/>
+      <c r="C41" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D41" s="6"/>
+      <c r="E41" s="6"/>
+      <c r="F41" s="6"/>
+      <c r="G41" s="6"/>
+      <c r="H41" s="6"/>
       <c r="I41" s="2"/>
       <c r="J41" s="2"/>
       <c r="K41" s="2"/>
@@ -4078,23 +4033,23 @@
     </row>
     <row r="42">
       <c r="A42" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B42" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B42" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="D42" s="4"/>
+      <c r="C42" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>88</v>
+      </c>
       <c r="E42" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="G42" s="4"/>
-      <c r="H42" s="4"/>
+        <v>89</v>
+      </c>
+      <c r="F42" s="6"/>
+      <c r="G42" s="6"/>
+      <c r="H42" s="6"/>
       <c r="I42" s="2"/>
       <c r="J42" s="2"/>
       <c r="K42" s="2"/>
@@ -4114,23 +4069,23 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="D43" s="4"/>
+        <v>90</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>88</v>
+      </c>
       <c r="E43" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="G43" s="4"/>
-      <c r="H43" s="4"/>
+        <v>91</v>
+      </c>
+      <c r="F43" s="6"/>
+      <c r="G43" s="6"/>
+      <c r="H43" s="6"/>
       <c r="I43" s="2"/>
       <c r="J43" s="2"/>
       <c r="K43" s="2"/>
@@ -4150,21 +4105,23 @@
     </row>
     <row r="44">
       <c r="A44" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="D44" s="4"/>
-      <c r="E44" s="4"/>
-      <c r="F44" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="G44" s="4"/>
-      <c r="H44" s="4"/>
+        <v>92</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F44" s="6"/>
+      <c r="G44" s="6"/>
+      <c r="H44" s="6"/>
       <c r="I44" s="2"/>
       <c r="J44" s="2"/>
       <c r="K44" s="2"/>
@@ -4183,22 +4140,20 @@
       <c r="X44" s="2"/>
     </row>
     <row r="45">
-      <c r="A45" s="6" t="s">
-        <v>92</v>
+      <c r="A45" s="1" t="s">
+        <v>94</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="D45" s="4"/>
-      <c r="E45" s="4"/>
-      <c r="F45" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="G45" s="4"/>
-      <c r="H45" s="4"/>
+        <v>95</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="D45" s="6"/>
+      <c r="E45" s="6"/>
+      <c r="F45" s="6"/>
+      <c r="G45" s="6"/>
+      <c r="H45" s="6"/>
       <c r="I45" s="2"/>
       <c r="J45" s="2"/>
       <c r="K45" s="2"/>
@@ -4218,19 +4173,23 @@
     </row>
     <row r="46">
       <c r="A46" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="D46" s="4"/>
-      <c r="E46" s="4"/>
-      <c r="F46" s="4"/>
-      <c r="G46" s="4"/>
-      <c r="H46" s="4"/>
+        <v>97</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="D46" s="6"/>
+      <c r="E46" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="G46" s="6"/>
+      <c r="H46" s="6"/>
       <c r="I46" s="2"/>
       <c r="J46" s="2"/>
       <c r="K46" s="2"/>
@@ -4250,21 +4209,25 @@
     </row>
     <row r="47">
       <c r="A47" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C47" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="B47" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="D47" s="4"/>
+      <c r="D47" s="5" t="s">
+        <v>96</v>
+      </c>
       <c r="E47" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="F47" s="4"/>
-      <c r="G47" s="4"/>
-      <c r="H47" s="4"/>
+        <v>102</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="G47" s="6"/>
+      <c r="H47" s="6"/>
       <c r="I47" s="2"/>
       <c r="J47" s="2"/>
       <c r="K47" s="2"/>
@@ -4284,19 +4247,23 @@
     </row>
     <row r="48">
       <c r="A48" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B48" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="B48" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C48" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="D48" s="4"/>
-      <c r="E48" s="4"/>
-      <c r="F48" s="4"/>
-      <c r="G48" s="4"/>
-      <c r="H48" s="4"/>
+      <c r="C48" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="D48" s="6"/>
+      <c r="E48" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="G48" s="6"/>
+      <c r="H48" s="6"/>
       <c r="I48" s="2"/>
       <c r="J48" s="2"/>
       <c r="K48" s="2"/>
@@ -4316,19 +4283,25 @@
     </row>
     <row r="49">
       <c r="A49" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="D49" s="4"/>
-      <c r="E49" s="4"/>
-      <c r="F49" s="4"/>
-      <c r="G49" s="4"/>
-      <c r="H49" s="4"/>
+        <v>106</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="G49" s="6"/>
+      <c r="H49" s="6"/>
       <c r="I49" s="2"/>
       <c r="J49" s="2"/>
       <c r="K49" s="2"/>
@@ -4348,23 +4321,23 @@
     </row>
     <row r="50">
       <c r="A50" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="D50" s="3" t="s">
-        <v>103</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="D50" s="6"/>
       <c r="E50" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F50" s="4"/>
-      <c r="G50" s="4"/>
-      <c r="H50" s="4"/>
+        <v>109</v>
+      </c>
+      <c r="F50" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="G50" s="6"/>
+      <c r="H50" s="6"/>
       <c r="I50" s="2"/>
       <c r="J50" s="2"/>
       <c r="K50" s="2"/>
@@ -4384,23 +4357,25 @@
     </row>
     <row r="51">
       <c r="A51" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B51" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="C51" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="D51" s="3" t="s">
-        <v>103</v>
+        <v>111</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="D51" s="5" t="s">
+        <v>96</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="F51" s="4"/>
-      <c r="G51" s="4"/>
-      <c r="H51" s="4"/>
+        <v>112</v>
+      </c>
+      <c r="F51" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="G51" s="6"/>
+      <c r="H51" s="6"/>
       <c r="I51" s="2"/>
       <c r="J51" s="2"/>
       <c r="K51" s="2"/>
@@ -4420,23 +4395,21 @@
     </row>
     <row r="52">
       <c r="A52" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="B52" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="C52" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="D52" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="F52" s="4"/>
-      <c r="G52" s="4"/>
-      <c r="H52" s="4"/>
+        <v>113</v>
+      </c>
+      <c r="B52" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="D52" s="6"/>
+      <c r="E52" s="6"/>
+      <c r="F52" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="G52" s="6"/>
+      <c r="H52" s="6"/>
       <c r="I52" s="2"/>
       <c r="J52" s="2"/>
       <c r="K52" s="2"/>
@@ -4456,19 +4429,23 @@
     </row>
     <row r="53">
       <c r="A53" s="1" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C53" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="D53" s="4"/>
-      <c r="E53" s="4"/>
-      <c r="F53" s="4"/>
-      <c r="G53" s="4"/>
-      <c r="H53" s="4"/>
+        <v>113</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="D53" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="E53" s="6"/>
+      <c r="F53" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="G53" s="6"/>
+      <c r="H53" s="6"/>
       <c r="I53" s="2"/>
       <c r="J53" s="2"/>
       <c r="K53" s="2"/>
@@ -4488,23 +4465,21 @@
     </row>
     <row r="54">
       <c r="A54" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="B54" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="C54" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="D54" s="4"/>
-      <c r="E54" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B54" s="10" t="s">
         <v>114</v>
       </c>
+      <c r="C54" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="D54" s="6"/>
+      <c r="E54" s="6"/>
       <c r="F54" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="G54" s="4"/>
-      <c r="H54" s="4"/>
+        <v>118</v>
+      </c>
+      <c r="G54" s="6"/>
+      <c r="H54" s="6"/>
       <c r="I54" s="2"/>
       <c r="J54" s="2"/>
       <c r="K54" s="2"/>
@@ -4524,25 +4499,23 @@
     </row>
     <row r="55">
       <c r="A55" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="C55" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="D55" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="E55" s="1" t="s">
         <v>117</v>
       </c>
+      <c r="C55" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="D55" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="E55" s="6"/>
       <c r="F55" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="G55" s="4"/>
-      <c r="H55" s="4"/>
+        <v>118</v>
+      </c>
+      <c r="G55" s="6"/>
+      <c r="H55" s="6"/>
       <c r="I55" s="2"/>
       <c r="J55" s="2"/>
       <c r="K55" s="2"/>
@@ -4562,23 +4535,21 @@
     </row>
     <row r="56">
       <c r="A56" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="B56" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="C56" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="D56" s="4"/>
-      <c r="E56" s="1" t="s">
-        <v>119</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="D56" s="6"/>
+      <c r="E56" s="6"/>
       <c r="F56" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="G56" s="4"/>
-      <c r="H56" s="4"/>
+        <v>115</v>
+      </c>
+      <c r="G56" s="6"/>
+      <c r="H56" s="6"/>
       <c r="I56" s="2"/>
       <c r="J56" s="2"/>
       <c r="K56" s="2"/>
@@ -4597,26 +4568,22 @@
       <c r="X56" s="2"/>
     </row>
     <row r="57">
-      <c r="A57" s="1" t="s">
+      <c r="A57" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="B57" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="C57" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="D57" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="E57" s="1" t="s">
-        <v>122</v>
-      </c>
+      <c r="B57" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="D57" s="6"/>
+      <c r="E57" s="6"/>
       <c r="F57" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="G57" s="4"/>
-      <c r="H57" s="4"/>
+        <v>115</v>
+      </c>
+      <c r="G57" s="6"/>
+      <c r="H57" s="6"/>
       <c r="I57" s="2"/>
       <c r="J57" s="2"/>
       <c r="K57" s="2"/>
@@ -4636,23 +4603,23 @@
     </row>
     <row r="58">
       <c r="A58" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="B58" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="C58" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="D58" s="4"/>
-      <c r="E58" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="F58" s="10" t="s">
-        <v>125</v>
-      </c>
-      <c r="G58" s="4"/>
-      <c r="H58" s="4"/>
+        <v>122</v>
+      </c>
+      <c r="B58" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="D58" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="E58" s="6"/>
+      <c r="F58" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="G58" s="6"/>
+      <c r="H58" s="6"/>
       <c r="I58" s="2"/>
       <c r="J58" s="2"/>
       <c r="K58" s="2"/>
@@ -4672,25 +4639,21 @@
     </row>
     <row r="59">
       <c r="A59" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="B59" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="C59" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="D59" s="3" t="s">
-        <v>111</v>
-      </c>
+      <c r="B59" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="D59" s="6"/>
       <c r="E59" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="F59" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="G59" s="4"/>
-      <c r="H59" s="4"/>
+      <c r="F59" s="6"/>
+      <c r="G59" s="6"/>
+      <c r="H59" s="6"/>
       <c r="I59" s="2"/>
       <c r="J59" s="2"/>
       <c r="K59" s="2"/>
@@ -4710,21 +4673,19 @@
     </row>
     <row r="60">
       <c r="A60" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="B60" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="C60" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="D60" s="4"/>
-      <c r="E60" s="4"/>
-      <c r="F60" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="G60" s="4"/>
-      <c r="H60" s="4"/>
+        <v>126</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="D60" s="6"/>
+      <c r="E60" s="6"/>
+      <c r="F60" s="6"/>
+      <c r="G60" s="6"/>
+      <c r="H60" s="6"/>
       <c r="I60" s="2"/>
       <c r="J60" s="2"/>
       <c r="K60" s="2"/>
@@ -4744,23 +4705,23 @@
     </row>
     <row r="61">
       <c r="A61" s="1" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="C61" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="D61" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="E61" s="4"/>
+      <c r="C61" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="D61" s="6"/>
+      <c r="E61" s="1" t="s">
+        <v>130</v>
+      </c>
       <c r="F61" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="G61" s="4"/>
-      <c r="H61" s="4"/>
+        <v>131</v>
+      </c>
+      <c r="G61" s="6"/>
+      <c r="H61" s="6"/>
       <c r="I61" s="2"/>
       <c r="J61" s="2"/>
       <c r="K61" s="2"/>
@@ -4782,19 +4743,21 @@
       <c r="A62" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="B62" s="10" t="s">
+      <c r="B62" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C62" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="C62" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="D62" s="4"/>
-      <c r="E62" s="4"/>
+      <c r="D62" s="6"/>
+      <c r="E62" s="1" t="s">
+        <v>133</v>
+      </c>
       <c r="F62" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="G62" s="4"/>
-      <c r="H62" s="4"/>
+        <v>134</v>
+      </c>
+      <c r="G62" s="6"/>
+      <c r="H62" s="6"/>
       <c r="I62" s="2"/>
       <c r="J62" s="2"/>
       <c r="K62" s="2"/>
@@ -4814,23 +4777,21 @@
     </row>
     <row r="63">
       <c r="A63" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="C63" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="D63" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="E63" s="4"/>
-      <c r="F63" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="G63" s="4"/>
-      <c r="H63" s="4"/>
+        <v>136</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="D63" s="6"/>
+      <c r="E63" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="F63" s="6"/>
+      <c r="G63" s="6"/>
+      <c r="H63" s="6"/>
       <c r="I63" s="2"/>
       <c r="J63" s="2"/>
       <c r="K63" s="2"/>
@@ -4850,21 +4811,23 @@
     </row>
     <row r="64">
       <c r="A64" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B64" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="B64" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C64" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="D64" s="4"/>
-      <c r="E64" s="4"/>
+      <c r="C64" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="D64" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="E64" s="6"/>
       <c r="F64" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="G64" s="4"/>
-      <c r="H64" s="4"/>
+        <v>139</v>
+      </c>
+      <c r="G64" s="6"/>
+      <c r="H64" s="6"/>
       <c r="I64" s="2"/>
       <c r="J64" s="2"/>
       <c r="K64" s="2"/>
@@ -4883,22 +4846,24 @@
       <c r="X64" s="2"/>
     </row>
     <row r="65">
-      <c r="A65" s="12" t="s">
-        <v>136</v>
-      </c>
-      <c r="B65" s="6" t="s">
+      <c r="A65" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B65" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="C65" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="D65" s="4"/>
-      <c r="E65" s="4"/>
-      <c r="F65" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="G65" s="4"/>
-      <c r="H65" s="4"/>
+      <c r="C65" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="D65" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="E65" s="6"/>
+      <c r="F65" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="G65" s="6"/>
+      <c r="H65" s="6"/>
       <c r="I65" s="2"/>
       <c r="J65" s="2"/>
       <c r="K65" s="2"/>
@@ -4917,24 +4882,22 @@
       <c r="X65" s="2"/>
     </row>
     <row r="66">
-      <c r="A66" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="B66" s="13" t="s">
-        <v>136</v>
-      </c>
-      <c r="C66" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="D66" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="E66" s="4"/>
-      <c r="F66" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="G66" s="4"/>
-      <c r="H66" s="4"/>
+      <c r="A66" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="C66" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="D66" s="6"/>
+      <c r="E66" s="6"/>
+      <c r="F66" s="6"/>
+      <c r="G66" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="H66" s="6"/>
       <c r="I66" s="2"/>
       <c r="J66" s="2"/>
       <c r="K66" s="2"/>
@@ -4954,21 +4917,23 @@
     </row>
     <row r="67">
       <c r="A67" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="B67" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="C67" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="D67" s="4"/>
-      <c r="E67" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="F67" s="4"/>
-      <c r="G67" s="4"/>
-      <c r="H67" s="4"/>
+        <v>143</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C67" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="D67" s="6"/>
+      <c r="E67" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="F67" s="6"/>
+      <c r="G67" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="H67" s="6"/>
       <c r="I67" s="2"/>
       <c r="J67" s="2"/>
       <c r="K67" s="2"/>
@@ -4988,19 +4953,23 @@
     </row>
     <row r="68">
       <c r="A68" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="B68" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="C68" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="D68" s="4"/>
-      <c r="E68" s="4"/>
-      <c r="F68" s="4"/>
-      <c r="G68" s="4"/>
-      <c r="H68" s="4"/>
+        <v>146</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C68" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="D68" s="6"/>
+      <c r="E68" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="F68" s="6"/>
+      <c r="G68" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="H68" s="6"/>
       <c r="I68" s="2"/>
       <c r="J68" s="2"/>
       <c r="K68" s="2"/>
@@ -5020,23 +4989,25 @@
     </row>
     <row r="69">
       <c r="A69" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B69" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="B69" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C69" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="D69" s="4"/>
-      <c r="E69" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="F69" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="G69" s="4"/>
-      <c r="H69" s="4"/>
+      <c r="C69" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="D69" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="E69" s="6"/>
+      <c r="F69" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="G69" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="H69" s="6"/>
       <c r="I69" s="2"/>
       <c r="J69" s="2"/>
       <c r="K69" s="2"/>
@@ -5055,24 +5026,26 @@
       <c r="X69" s="2"/>
     </row>
     <row r="70">
-      <c r="A70" s="1" t="s">
-        <v>146</v>
+      <c r="A70" s="3" t="s">
+        <v>149</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C70" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="D70" s="4"/>
-      <c r="E70" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="F70" s="1" t="s">
+      <c r="C70" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="D70" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="E70" s="6"/>
+      <c r="F70" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="G70" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="G70" s="4"/>
-      <c r="H70" s="4"/>
+      <c r="H70" s="6"/>
       <c r="I70" s="2"/>
       <c r="J70" s="2"/>
       <c r="K70" s="2"/>
@@ -5091,22 +5064,26 @@
       <c r="X70" s="2"/>
     </row>
     <row r="71">
-      <c r="A71" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="B71" s="1" t="s">
+      <c r="A71" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="C71" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="D71" s="4"/>
-      <c r="E71" s="14" t="s">
-        <v>151</v>
-      </c>
-      <c r="F71" s="4"/>
-      <c r="G71" s="4"/>
-      <c r="H71" s="4"/>
+      <c r="B71" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="C71" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="D71" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="E71" s="6"/>
+      <c r="F71" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="G71" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="H71" s="6"/>
       <c r="I71" s="2"/>
       <c r="J71" s="2"/>
       <c r="K71" s="2"/>
@@ -5125,24 +5102,26 @@
       <c r="X71" s="2"/>
     </row>
     <row r="72">
-      <c r="A72" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="B72" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="C72" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="D72" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="E72" s="4"/>
+      <c r="A72" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="B72" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="C72" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="D72" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="E72" s="6"/>
       <c r="F72" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="G72" s="4"/>
-      <c r="H72" s="4"/>
+        <v>139</v>
+      </c>
+      <c r="G72" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="H72" s="6"/>
       <c r="I72" s="2"/>
       <c r="J72" s="2"/>
       <c r="K72" s="2"/>
@@ -5161,24 +5140,26 @@
       <c r="X72" s="2"/>
     </row>
     <row r="73">
-      <c r="A73" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="B73" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="C73" s="3" t="s">
+      <c r="A73" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="B73" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="D73" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="E73" s="4"/>
-      <c r="F73" s="14" t="s">
-        <v>155</v>
-      </c>
-      <c r="G73" s="4"/>
-      <c r="H73" s="4"/>
+      <c r="C73" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="D73" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="E73" s="6"/>
+      <c r="F73" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="G73" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="H73" s="6"/>
       <c r="I73" s="2"/>
       <c r="J73" s="2"/>
       <c r="K73" s="2"/>
@@ -5197,22 +5178,26 @@
       <c r="X73" s="2"/>
     </row>
     <row r="74">
-      <c r="A74" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="B74" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="C74" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="D74" s="4"/>
-      <c r="E74" s="4"/>
-      <c r="F74" s="4"/>
-      <c r="G74" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="H74" s="4"/>
+      <c r="A74" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="C74" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="D74" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="E74" s="6"/>
+      <c r="F74" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="G74" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="H74" s="6"/>
       <c r="I74" s="2"/>
       <c r="J74" s="2"/>
       <c r="K74" s="2"/>
@@ -5231,24 +5216,20 @@
       <c r="X74" s="2"/>
     </row>
     <row r="75">
-      <c r="A75" s="1" t="s">
-        <v>157</v>
+      <c r="A75" s="9" t="s">
+        <v>154</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="C75" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="D75" s="4"/>
-      <c r="E75" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="F75" s="4"/>
-      <c r="G75" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="H75" s="4"/>
+        <v>155</v>
+      </c>
+      <c r="C75" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="D75" s="6"/>
+      <c r="E75" s="6"/>
+      <c r="F75" s="3"/>
+      <c r="G75" s="6"/>
+      <c r="H75" s="6"/>
       <c r="I75" s="2"/>
       <c r="J75" s="2"/>
       <c r="K75" s="2"/>
@@ -5267,24 +5248,20 @@
       <c r="X75" s="2"/>
     </row>
     <row r="76">
-      <c r="A76" s="1" t="s">
-        <v>160</v>
+      <c r="A76" s="3" t="s">
+        <v>156</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="C76" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="D76" s="4"/>
-      <c r="E76" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="F76" s="4"/>
-      <c r="G76" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="H76" s="4"/>
+        <v>155</v>
+      </c>
+      <c r="C76" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="D76" s="6"/>
+      <c r="E76" s="6"/>
+      <c r="F76" s="6"/>
+      <c r="G76" s="6"/>
+      <c r="H76" s="6"/>
       <c r="I76" s="2"/>
       <c r="J76" s="2"/>
       <c r="K76" s="2"/>
@@ -5303,26 +5280,24 @@
       <c r="X76" s="2"/>
     </row>
     <row r="77">
-      <c r="A77" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="B77" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="C77" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="D77" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="E77" s="4"/>
-      <c r="F77" s="14" t="s">
-        <v>155</v>
-      </c>
-      <c r="G77" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="H77" s="4"/>
+      <c r="A77" s="6" t="str">
+        <f t="shared" ref="A77:A90" si="3">CONCAT("mouse ", A61)</f>
+        <v>mouse spiral ganglion neuron</v>
+      </c>
+      <c r="B77" s="6" t="str">
+        <f t="shared" ref="B77:B90" si="4">A61</f>
+        <v>spiral ganglion neuron</v>
+      </c>
+      <c r="C77" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="D77" s="6"/>
+      <c r="E77" s="6"/>
+      <c r="F77" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="G77" s="6"/>
+      <c r="H77" s="6"/>
       <c r="I77" s="2"/>
       <c r="J77" s="2"/>
       <c r="K77" s="2"/>
@@ -5341,26 +5316,24 @@
       <c r="X77" s="2"/>
     </row>
     <row r="78">
-      <c r="A78" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="B78" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="C78" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="D78" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="E78" s="4"/>
-      <c r="F78" s="14" t="s">
-        <v>155</v>
-      </c>
-      <c r="G78" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="H78" s="4"/>
+      <c r="A78" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>mouse dorsal root ganglia neuron</v>
+      </c>
+      <c r="B78" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>dorsal root ganglia neuron</v>
+      </c>
+      <c r="C78" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="D78" s="6"/>
+      <c r="E78" s="6"/>
+      <c r="F78" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="G78" s="6"/>
+      <c r="H78" s="6"/>
       <c r="I78" s="2"/>
       <c r="J78" s="2"/>
       <c r="K78" s="2"/>
@@ -5379,26 +5352,22 @@
       <c r="X78" s="2"/>
     </row>
     <row r="79">
-      <c r="A79" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="B79" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="C79" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="D79" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="E79" s="4"/>
-      <c r="F79" s="14" t="s">
-        <v>155</v>
-      </c>
-      <c r="G79" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="H79" s="4"/>
+      <c r="A79" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>mouse glial precursor</v>
+      </c>
+      <c r="B79" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>glial precursor</v>
+      </c>
+      <c r="C79" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="D79" s="6"/>
+      <c r="E79" s="6"/>
+      <c r="F79" s="6"/>
+      <c r="G79" s="6"/>
+      <c r="H79" s="6"/>
       <c r="I79" s="2"/>
       <c r="J79" s="2"/>
       <c r="K79" s="2"/>
@@ -5417,26 +5386,26 @@
       <c r="X79" s="2"/>
     </row>
     <row r="80">
-      <c r="A80" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="B80" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="C80" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="D80" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="E80" s="4"/>
+      <c r="A80" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>mouse dorsal root ganglia glial precursor</v>
+      </c>
+      <c r="B80" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>dorsal root ganglia glial precursor</v>
+      </c>
+      <c r="C80" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="D80" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="E80" s="6"/>
       <c r="F80" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="G80" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="H80" s="4"/>
+        <v>139</v>
+      </c>
+      <c r="G80" s="6"/>
+      <c r="H80" s="6"/>
       <c r="I80" s="2"/>
       <c r="J80" s="2"/>
       <c r="K80" s="2"/>
@@ -5455,26 +5424,26 @@
       <c r="X80" s="2"/>
     </row>
     <row r="81">
-      <c r="A81" s="6" t="s">
-        <v>166</v>
-      </c>
-      <c r="B81" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="C81" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="D81" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="E81" s="4"/>
-      <c r="F81" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="G81" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="H81" s="4"/>
+      <c r="A81" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>mouse cochlear glial precursor</v>
+      </c>
+      <c r="B81" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>cochlear glial precursor</v>
+      </c>
+      <c r="C81" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="D81" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="E81" s="6"/>
+      <c r="F81" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="G81" s="6"/>
+      <c r="H81" s="6"/>
       <c r="I81" s="2"/>
       <c r="J81" s="2"/>
       <c r="K81" s="2"/>
@@ -5493,26 +5462,22 @@
       <c r="X81" s="2"/>
     </row>
     <row r="82">
-      <c r="A82" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="B82" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="C82" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="D82" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="E82" s="4"/>
-      <c r="F82" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="G82" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="H82" s="4"/>
+      <c r="A82" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>mouse immature Schwann cell</v>
+      </c>
+      <c r="B82" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>immature Schwann cell</v>
+      </c>
+      <c r="C82" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="D82" s="6"/>
+      <c r="E82" s="6"/>
+      <c r="F82" s="6"/>
+      <c r="G82" s="6"/>
+      <c r="H82" s="6"/>
       <c r="I82" s="2"/>
       <c r="J82" s="2"/>
       <c r="K82" s="2"/>
@@ -5531,20 +5496,22 @@
       <c r="X82" s="2"/>
     </row>
     <row r="83">
-      <c r="A83" s="9" t="s">
-        <v>168</v>
-      </c>
-      <c r="B83" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="C83" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="D83" s="4"/>
-      <c r="E83" s="4"/>
+      <c r="A83" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>mouse myelinating Schwann cell</v>
+      </c>
+      <c r="B83" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>myelinating Schwann cell</v>
+      </c>
+      <c r="C83" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="D83" s="6"/>
+      <c r="E83" s="6"/>
       <c r="F83" s="6"/>
-      <c r="G83" s="4"/>
-      <c r="H83" s="4"/>
+      <c r="G83" s="6"/>
+      <c r="H83" s="6"/>
       <c r="I83" s="2"/>
       <c r="J83" s="2"/>
       <c r="K83" s="2"/>
@@ -5563,20 +5530,22 @@
       <c r="X83" s="2"/>
     </row>
     <row r="84">
-      <c r="A84" s="6" t="s">
-        <v>170</v>
-      </c>
-      <c r="B84" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="C84" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="D84" s="4"/>
-      <c r="E84" s="4"/>
-      <c r="F84" s="4"/>
-      <c r="G84" s="4"/>
-      <c r="H84" s="4"/>
+      <c r="A84" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>mouse non-myelinating Schwann cell</v>
+      </c>
+      <c r="B84" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>non-myelinating Schwann cell</v>
+      </c>
+      <c r="C84" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="D84" s="6"/>
+      <c r="E84" s="6"/>
+      <c r="F84" s="6"/>
+      <c r="G84" s="6"/>
+      <c r="H84" s="6"/>
       <c r="I84" s="2"/>
       <c r="J84" s="2"/>
       <c r="K84" s="2"/>
@@ -5595,24 +5564,26 @@
       <c r="X84" s="2"/>
     </row>
     <row r="85">
-      <c r="A85" s="4" t="str">
-        <f t="shared" ref="A85:A98" si="3">CONCAT("mouse ", A69)</f>
-        <v>mouse spiral ganglion neuron</v>
-      </c>
-      <c r="B85" s="4" t="str">
-        <f t="shared" ref="B85:B98" si="4">A69</f>
-        <v>spiral ganglion neuron</v>
-      </c>
-      <c r="C85" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="D85" s="4"/>
-      <c r="E85" s="4"/>
-      <c r="F85" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="G85" s="4"/>
-      <c r="H85" s="4"/>
+      <c r="A85" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>mouse cochlear immature Schwann cell</v>
+      </c>
+      <c r="B85" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>cochlear immature Schwann cell</v>
+      </c>
+      <c r="C85" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="D85" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="E85" s="6"/>
+      <c r="F85" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="G85" s="6"/>
+      <c r="H85" s="6"/>
       <c r="I85" s="2"/>
       <c r="J85" s="2"/>
       <c r="K85" s="2"/>
@@ -5631,24 +5602,26 @@
       <c r="X85" s="2"/>
     </row>
     <row r="86">
-      <c r="A86" s="4" t="str">
+      <c r="A86" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>mouse dorsal root ganglia neuron</v>
-      </c>
-      <c r="B86" s="4" t="str">
+        <v>mouse cochlear myelinating Schwann cell</v>
+      </c>
+      <c r="B86" s="6" t="str">
         <f t="shared" si="4"/>
-        <v>dorsal root ganglia neuron</v>
-      </c>
-      <c r="C86" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="D86" s="4"/>
-      <c r="E86" s="4"/>
-      <c r="F86" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="G86" s="4"/>
-      <c r="H86" s="4"/>
+        <v>cochlear myelinating Schwann cell</v>
+      </c>
+      <c r="C86" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="D86" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="E86" s="6"/>
+      <c r="F86" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="G86" s="6"/>
+      <c r="H86" s="6"/>
       <c r="I86" s="2"/>
       <c r="J86" s="2"/>
       <c r="K86" s="2"/>
@@ -5667,22 +5640,26 @@
       <c r="X86" s="2"/>
     </row>
     <row r="87">
-      <c r="A87" s="4" t="str">
+      <c r="A87" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>mouse glial precursor</v>
-      </c>
-      <c r="B87" s="4" t="str">
+        <v>mouse cochlear non-myelinating Schwann cell</v>
+      </c>
+      <c r="B87" s="6" t="str">
         <f t="shared" si="4"/>
-        <v>glial precursor</v>
-      </c>
-      <c r="C87" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="D87" s="4"/>
-      <c r="E87" s="4"/>
-      <c r="F87" s="4"/>
-      <c r="G87" s="4"/>
-      <c r="H87" s="4"/>
+        <v>cochlear non-myelinating Schwann cell</v>
+      </c>
+      <c r="C87" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="D87" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="E87" s="6"/>
+      <c r="F87" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="G87" s="6"/>
+      <c r="H87" s="6"/>
       <c r="I87" s="2"/>
       <c r="J87" s="2"/>
       <c r="K87" s="2"/>
@@ -5701,26 +5678,26 @@
       <c r="X87" s="2"/>
     </row>
     <row r="88">
-      <c r="A88" s="4" t="str">
+      <c r="A88" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>mouse dorsal root ganglia glial precursor</v>
-      </c>
-      <c r="B88" s="4" t="str">
+        <v>mouse dorsal root immature Schwann cell</v>
+      </c>
+      <c r="B88" s="6" t="str">
         <f t="shared" si="4"/>
-        <v>dorsal root ganglia glial precursor</v>
-      </c>
-      <c r="C88" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="D88" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="E88" s="4"/>
+        <v>dorsal root immature Schwann cell</v>
+      </c>
+      <c r="C88" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="D88" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="E88" s="6"/>
       <c r="F88" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="G88" s="4"/>
-      <c r="H88" s="4"/>
+        <v>139</v>
+      </c>
+      <c r="G88" s="6"/>
+      <c r="H88" s="6"/>
       <c r="I88" s="2"/>
       <c r="J88" s="2"/>
       <c r="K88" s="2"/>
@@ -5739,26 +5716,26 @@
       <c r="X88" s="2"/>
     </row>
     <row r="89">
-      <c r="A89" s="4" t="str">
+      <c r="A89" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>mouse cochlear glial precursor</v>
-      </c>
-      <c r="B89" s="4" t="str">
+        <v>mouse dorsal root myelinating Schwann cell</v>
+      </c>
+      <c r="B89" s="6" t="str">
         <f t="shared" si="4"/>
-        <v>cochlear glial precursor</v>
-      </c>
-      <c r="C89" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="D89" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="E89" s="4"/>
-      <c r="F89" s="14" t="s">
-        <v>155</v>
-      </c>
-      <c r="G89" s="4"/>
-      <c r="H89" s="4"/>
+        <v>dorsal root myelinating Schwann cell</v>
+      </c>
+      <c r="C89" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="D89" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="E89" s="6"/>
+      <c r="F89" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="G89" s="6"/>
+      <c r="H89" s="6"/>
       <c r="I89" s="2"/>
       <c r="J89" s="2"/>
       <c r="K89" s="2"/>
@@ -5777,22 +5754,26 @@
       <c r="X89" s="2"/>
     </row>
     <row r="90">
-      <c r="A90" s="4" t="str">
+      <c r="A90" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>mouse immature Schwann cell</v>
-      </c>
-      <c r="B90" s="4" t="str">
+        <v>mouse dorsal root non-myelinating Schwann cell</v>
+      </c>
+      <c r="B90" s="6" t="str">
         <f t="shared" si="4"/>
-        <v>immature Schwann cell</v>
-      </c>
-      <c r="C90" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="D90" s="4"/>
-      <c r="E90" s="4"/>
-      <c r="F90" s="4"/>
-      <c r="G90" s="4"/>
-      <c r="H90" s="4"/>
+        <v>dorsal root non-myelinating Schwann cell</v>
+      </c>
+      <c r="C90" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="D90" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="E90" s="6"/>
+      <c r="F90" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="G90" s="6"/>
+      <c r="H90" s="6"/>
       <c r="I90" s="2"/>
       <c r="J90" s="2"/>
       <c r="K90" s="2"/>
@@ -5811,22 +5792,24 @@
       <c r="X90" s="2"/>
     </row>
     <row r="91">
-      <c r="A91" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>mouse myelinating Schwann cell</v>
-      </c>
-      <c r="B91" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>myelinating Schwann cell</v>
-      </c>
-      <c r="C91" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="D91" s="4"/>
-      <c r="E91" s="4"/>
-      <c r="F91" s="4"/>
-      <c r="G91" s="4"/>
-      <c r="H91" s="4"/>
+      <c r="A91" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C91" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="D91" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="E91" s="15" t="s">
+        <v>159</v>
+      </c>
+      <c r="F91" s="6"/>
+      <c r="G91" s="6"/>
+      <c r="H91" s="6"/>
       <c r="I91" s="2"/>
       <c r="J91" s="2"/>
       <c r="K91" s="2"/>
@@ -5845,22 +5828,24 @@
       <c r="X91" s="2"/>
     </row>
     <row r="92">
-      <c r="A92" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>mouse non-myelinating Schwann cell</v>
-      </c>
-      <c r="B92" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>non-myelinating Schwann cell</v>
-      </c>
-      <c r="C92" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="D92" s="4"/>
-      <c r="E92" s="4"/>
-      <c r="F92" s="4"/>
-      <c r="G92" s="4"/>
-      <c r="H92" s="4"/>
+      <c r="A92" s="16" t="s">
+        <v>160</v>
+      </c>
+      <c r="B92" s="16" t="s">
+        <v>161</v>
+      </c>
+      <c r="C92" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="D92" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="E92" s="2"/>
+      <c r="F92" s="16" t="s">
+        <v>163</v>
+      </c>
+      <c r="G92" s="2"/>
+      <c r="H92" s="2"/>
       <c r="I92" s="2"/>
       <c r="J92" s="2"/>
       <c r="K92" s="2"/>
@@ -5879,26 +5864,22 @@
       <c r="X92" s="2"/>
     </row>
     <row r="93">
-      <c r="A93" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>mouse cochlear immature Schwann cell</v>
-      </c>
-      <c r="B93" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>cochlear immature Schwann cell</v>
-      </c>
-      <c r="C93" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="D93" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="E93" s="4"/>
-      <c r="F93" s="14" t="s">
-        <v>155</v>
-      </c>
-      <c r="G93" s="4"/>
-      <c r="H93" s="4"/>
+      <c r="A93" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="B93" s="16" t="s">
+        <v>165</v>
+      </c>
+      <c r="C93" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="D93" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="E93" s="2"/>
+      <c r="F93" s="2"/>
+      <c r="G93" s="2"/>
+      <c r="H93" s="2"/>
       <c r="I93" s="2"/>
       <c r="J93" s="2"/>
       <c r="K93" s="2"/>
@@ -5917,26 +5898,22 @@
       <c r="X93" s="2"/>
     </row>
     <row r="94">
-      <c r="A94" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>mouse cochlear myelinating Schwann cell</v>
-      </c>
-      <c r="B94" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>cochlear myelinating Schwann cell</v>
-      </c>
-      <c r="C94" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="D94" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="E94" s="4"/>
-      <c r="F94" s="14" t="s">
-        <v>155</v>
-      </c>
-      <c r="G94" s="4"/>
-      <c r="H94" s="4"/>
+      <c r="A94" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="B94" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="C94" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="D94" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="E94" s="2"/>
+      <c r="F94" s="2"/>
+      <c r="G94" s="2"/>
+      <c r="H94" s="2"/>
       <c r="I94" s="2"/>
       <c r="J94" s="2"/>
       <c r="K94" s="2"/>
@@ -5955,26 +5932,22 @@
       <c r="X94" s="2"/>
     </row>
     <row r="95">
-      <c r="A95" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>mouse cochlear non-myelinating Schwann cell</v>
-      </c>
-      <c r="B95" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>cochlear non-myelinating Schwann cell</v>
-      </c>
-      <c r="C95" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="D95" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="E95" s="4"/>
-      <c r="F95" s="14" t="s">
-        <v>155</v>
-      </c>
-      <c r="G95" s="4"/>
-      <c r="H95" s="4"/>
+      <c r="A95" s="17" t="s">
+        <v>169</v>
+      </c>
+      <c r="B95" s="16" t="s">
+        <v>170</v>
+      </c>
+      <c r="C95" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="D95" s="2"/>
+      <c r="E95" s="16" t="s">
+        <v>171</v>
+      </c>
+      <c r="F95" s="2"/>
+      <c r="G95" s="2"/>
+      <c r="H95" s="2"/>
       <c r="I95" s="2"/>
       <c r="J95" s="2"/>
       <c r="K95" s="2"/>
@@ -5993,26 +5966,20 @@
       <c r="X95" s="2"/>
     </row>
     <row r="96">
-      <c r="A96" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>mouse dorsal root immature Schwann cell</v>
-      </c>
-      <c r="B96" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>dorsal root immature Schwann cell</v>
-      </c>
-      <c r="C96" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="D96" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="E96" s="4"/>
-      <c r="F96" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="G96" s="4"/>
-      <c r="H96" s="4"/>
+      <c r="A96" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="B96" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C96" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="D96" s="2"/>
+      <c r="E96" s="18"/>
+      <c r="F96" s="2"/>
+      <c r="G96" s="2"/>
+      <c r="H96" s="2"/>
       <c r="I96" s="2"/>
       <c r="J96" s="2"/>
       <c r="K96" s="2"/>
@@ -6031,26 +5998,24 @@
       <c r="X96" s="2"/>
     </row>
     <row r="97">
-      <c r="A97" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>mouse dorsal root myelinating Schwann cell</v>
-      </c>
-      <c r="B97" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>dorsal root myelinating Schwann cell</v>
-      </c>
-      <c r="C97" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="D97" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="E97" s="4"/>
-      <c r="F97" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="G97" s="4"/>
-      <c r="H97" s="4"/>
+      <c r="A97" s="16" t="s">
+        <v>172</v>
+      </c>
+      <c r="B97" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="C97" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="D97" s="2"/>
+      <c r="E97" s="19" t="s">
+        <v>174</v>
+      </c>
+      <c r="F97" s="16" t="s">
+        <v>175</v>
+      </c>
+      <c r="G97" s="2"/>
+      <c r="H97" s="2"/>
       <c r="I97" s="2"/>
       <c r="J97" s="2"/>
       <c r="K97" s="2"/>
@@ -6069,26 +6034,20 @@
       <c r="X97" s="2"/>
     </row>
     <row r="98">
-      <c r="A98" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>mouse dorsal root non-myelinating Schwann cell</v>
-      </c>
-      <c r="B98" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>dorsal root non-myelinating Schwann cell</v>
-      </c>
-      <c r="C98" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="D98" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="E98" s="4"/>
-      <c r="F98" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="G98" s="4"/>
-      <c r="H98" s="4"/>
+      <c r="A98" s="20" t="s">
+        <v>176</v>
+      </c>
+      <c r="B98" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C98" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="D98" s="2"/>
+      <c r="E98" s="2"/>
+      <c r="F98" s="2"/>
+      <c r="G98" s="2"/>
+      <c r="H98" s="2"/>
       <c r="I98" s="2"/>
       <c r="J98" s="2"/>
       <c r="K98" s="2"/>
@@ -6107,24 +6066,20 @@
       <c r="X98" s="2"/>
     </row>
     <row r="99">
-      <c r="A99" s="9" t="s">
-        <v>171</v>
-      </c>
-      <c r="B99" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C99" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="D99" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="E99" s="14" t="s">
-        <v>173</v>
-      </c>
-      <c r="F99" s="4"/>
-      <c r="G99" s="4"/>
-      <c r="H99" s="4"/>
+      <c r="A99" s="16" t="s">
+        <v>178</v>
+      </c>
+      <c r="B99" s="20" t="s">
+        <v>176</v>
+      </c>
+      <c r="C99" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="D99" s="2"/>
+      <c r="E99" s="2"/>
+      <c r="F99" s="2"/>
+      <c r="G99" s="2"/>
+      <c r="H99" s="2"/>
       <c r="I99" s="2"/>
       <c r="J99" s="2"/>
       <c r="K99" s="2"/>
@@ -6143,22 +6098,18 @@
       <c r="X99" s="2"/>
     </row>
     <row r="100">
-      <c r="A100" s="15" t="s">
-        <v>174</v>
-      </c>
-      <c r="B100" s="15" t="s">
-        <v>175</v>
-      </c>
-      <c r="C100" s="3" t="s">
+      <c r="A100" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="B100" s="20" t="s">
         <v>176</v>
       </c>
-      <c r="D100" s="3" t="s">
-        <v>176</v>
-      </c>
+      <c r="C100" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="D100" s="2"/>
       <c r="E100" s="2"/>
-      <c r="F100" s="15" t="s">
-        <v>177</v>
-      </c>
+      <c r="F100" s="2"/>
       <c r="G100" s="2"/>
       <c r="H100" s="2"/>
       <c r="I100" s="2"/>
@@ -6179,18 +6130,16 @@
       <c r="X100" s="2"/>
     </row>
     <row r="101">
-      <c r="A101" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="B101" s="15" t="s">
-        <v>179</v>
-      </c>
-      <c r="C101" s="3" t="s">
+      <c r="A101" s="20" t="s">
         <v>180</v>
       </c>
-      <c r="D101" s="3" t="s">
-        <v>180</v>
-      </c>
+      <c r="B101" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="C101" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="D101" s="2"/>
       <c r="E101" s="2"/>
       <c r="F101" s="2"/>
       <c r="G101" s="2"/>
@@ -6213,19 +6162,19 @@
       <c r="X101" s="2"/>
     </row>
     <row r="102">
-      <c r="A102" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="B102" s="15" t="s">
+      <c r="A102" s="20" t="s">
         <v>182</v>
       </c>
-      <c r="C102" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="D102" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="E102" s="2"/>
+      <c r="B102" s="16" t="s">
+        <v>183</v>
+      </c>
+      <c r="C102" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="D102" s="2"/>
+      <c r="E102" s="16" t="s">
+        <v>184</v>
+      </c>
       <c r="F102" s="2"/>
       <c r="G102" s="2"/>
       <c r="H102" s="2"/>
@@ -6247,18 +6196,18 @@
       <c r="X102" s="2"/>
     </row>
     <row r="103">
-      <c r="A103" s="16" t="s">
+      <c r="A103" s="20" t="s">
+        <v>185</v>
+      </c>
+      <c r="B103" s="16" t="s">
         <v>183</v>
       </c>
-      <c r="B103" s="15" t="s">
-        <v>184</v>
-      </c>
-      <c r="C103" s="3" t="s">
-        <v>180</v>
+      <c r="C103" s="5" t="s">
+        <v>177</v>
       </c>
       <c r="D103" s="2"/>
-      <c r="E103" s="15" t="s">
-        <v>185</v>
+      <c r="E103" s="16" t="s">
+        <v>186</v>
       </c>
       <c r="F103" s="2"/>
       <c r="G103" s="2"/>
@@ -6281,17 +6230,19 @@
       <c r="X103" s="2"/>
     </row>
     <row r="104">
-      <c r="A104" s="15" t="s">
-        <v>72</v>
+      <c r="A104" s="16" t="s">
+        <v>187</v>
       </c>
       <c r="B104" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="C104" s="3" t="s">
-        <v>180</v>
+        <v>181</v>
+      </c>
+      <c r="C104" s="5" t="s">
+        <v>177</v>
       </c>
       <c r="D104" s="2"/>
-      <c r="E104" s="17"/>
+      <c r="E104" s="16" t="s">
+        <v>188</v>
+      </c>
       <c r="F104" s="2"/>
       <c r="G104" s="2"/>
       <c r="H104" s="2"/>
@@ -6313,22 +6264,18 @@
       <c r="X104" s="2"/>
     </row>
     <row r="105">
-      <c r="A105" s="15" t="s">
-        <v>186</v>
-      </c>
-      <c r="B105" s="6" t="s">
-        <v>187</v>
-      </c>
-      <c r="C105" s="3" t="s">
-        <v>180</v>
+      <c r="A105" s="16" t="s">
+        <v>189</v>
+      </c>
+      <c r="B105" s="16" t="s">
+        <v>190</v>
+      </c>
+      <c r="C105" s="5" t="s">
+        <v>177</v>
       </c>
       <c r="D105" s="2"/>
-      <c r="E105" s="18" t="s">
-        <v>188</v>
-      </c>
-      <c r="F105" s="15" t="s">
-        <v>189</v>
-      </c>
+      <c r="E105" s="2"/>
+      <c r="F105" s="2"/>
       <c r="G105" s="2"/>
       <c r="H105" s="2"/>
       <c r="I105" s="2"/>
@@ -6349,14 +6296,14 @@
       <c r="X105" s="2"/>
     </row>
     <row r="106">
-      <c r="A106" s="19" t="s">
-        <v>190</v>
-      </c>
-      <c r="B106" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="C106" s="3" t="s">
+      <c r="A106" s="20" t="s">
         <v>191</v>
+      </c>
+      <c r="B106" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="C106" s="5" t="s">
+        <v>193</v>
       </c>
       <c r="D106" s="2"/>
       <c r="E106" s="2"/>
@@ -6381,18 +6328,20 @@
       <c r="X106" s="2"/>
     </row>
     <row r="107">
-      <c r="A107" s="15" t="s">
-        <v>192</v>
-      </c>
-      <c r="B107" s="19" t="s">
-        <v>190</v>
-      </c>
-      <c r="C107" s="3" t="s">
-        <v>191</v>
+      <c r="A107" s="16" t="s">
+        <v>194</v>
+      </c>
+      <c r="B107" s="16" t="s">
+        <v>195</v>
+      </c>
+      <c r="C107" s="5" t="s">
+        <v>196</v>
       </c>
       <c r="D107" s="2"/>
       <c r="E107" s="2"/>
-      <c r="F107" s="2"/>
+      <c r="F107" s="16" t="s">
+        <v>197</v>
+      </c>
       <c r="G107" s="2"/>
       <c r="H107" s="2"/>
       <c r="I107" s="2"/>
@@ -6413,18 +6362,20 @@
       <c r="X107" s="2"/>
     </row>
     <row r="108">
-      <c r="A108" s="15" t="s">
-        <v>193</v>
-      </c>
-      <c r="B108" s="19" t="s">
-        <v>190</v>
-      </c>
-      <c r="C108" s="3" t="s">
-        <v>191</v>
+      <c r="A108" s="16" t="s">
+        <v>198</v>
+      </c>
+      <c r="B108" s="16" t="s">
+        <v>195</v>
+      </c>
+      <c r="C108" s="5" t="s">
+        <v>196</v>
       </c>
       <c r="D108" s="2"/>
       <c r="E108" s="2"/>
-      <c r="F108" s="2"/>
+      <c r="F108" s="16" t="s">
+        <v>197</v>
+      </c>
       <c r="G108" s="2"/>
       <c r="H108" s="2"/>
       <c r="I108" s="2"/>
@@ -6445,18 +6396,20 @@
       <c r="X108" s="2"/>
     </row>
     <row r="109">
-      <c r="A109" s="19" t="s">
+      <c r="A109" s="16" t="s">
+        <v>199</v>
+      </c>
+      <c r="B109" s="16" t="s">
         <v>194</v>
       </c>
-      <c r="B109" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="C109" s="3" t="s">
-        <v>191</v>
+      <c r="C109" s="5" t="s">
+        <v>196</v>
       </c>
       <c r="D109" s="2"/>
       <c r="E109" s="2"/>
-      <c r="F109" s="2"/>
+      <c r="F109" s="16" t="s">
+        <v>197</v>
+      </c>
       <c r="G109" s="2"/>
       <c r="H109" s="2"/>
       <c r="I109" s="2"/>
@@ -6477,20 +6430,20 @@
       <c r="X109" s="2"/>
     </row>
     <row r="110">
-      <c r="A110" s="19" t="s">
+      <c r="A110" s="16" t="s">
+        <v>200</v>
+      </c>
+      <c r="B110" s="16" t="s">
+        <v>198</v>
+      </c>
+      <c r="C110" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="B110" s="15" t="s">
+      <c r="D110" s="2"/>
+      <c r="E110" s="2"/>
+      <c r="F110" s="16" t="s">
         <v>197</v>
       </c>
-      <c r="C110" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="D110" s="2"/>
-      <c r="E110" s="15" t="s">
-        <v>198</v>
-      </c>
-      <c r="F110" s="2"/>
       <c r="G110" s="2"/>
       <c r="H110" s="2"/>
       <c r="I110" s="2"/>
@@ -6511,20 +6464,20 @@
       <c r="X110" s="2"/>
     </row>
     <row r="111">
-      <c r="A111" s="19" t="s">
-        <v>199</v>
-      </c>
-      <c r="B111" s="15" t="s">
+      <c r="A111" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="B111" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="C111" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="D111" s="2"/>
+      <c r="E111" s="2"/>
+      <c r="F111" s="16" t="s">
         <v>197</v>
       </c>
-      <c r="C111" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="D111" s="2"/>
-      <c r="E111" s="15" t="s">
-        <v>200</v>
-      </c>
-      <c r="F111" s="2"/>
       <c r="G111" s="2"/>
       <c r="H111" s="2"/>
       <c r="I111" s="2"/>
@@ -6545,20 +6498,20 @@
       <c r="X111" s="2"/>
     </row>
     <row r="112">
-      <c r="A112" s="15" t="s">
+      <c r="A112" s="16" t="s">
+        <v>203</v>
+      </c>
+      <c r="B112" s="19" t="s">
         <v>201</v>
       </c>
-      <c r="B112" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="C112" s="3" t="s">
-        <v>191</v>
+      <c r="C112" s="5" t="s">
+        <v>196</v>
       </c>
       <c r="D112" s="2"/>
-      <c r="E112" s="15" t="s">
-        <v>202</v>
-      </c>
-      <c r="F112" s="2"/>
+      <c r="E112" s="2"/>
+      <c r="F112" s="16" t="s">
+        <v>197</v>
+      </c>
       <c r="G112" s="2"/>
       <c r="H112" s="2"/>
       <c r="I112" s="2"/>
@@ -6579,14 +6532,14 @@
       <c r="X112" s="2"/>
     </row>
     <row r="113">
-      <c r="A113" s="15" t="s">
-        <v>203</v>
-      </c>
-      <c r="B113" s="15" t="s">
+      <c r="A113" s="16" t="s">
         <v>204</v>
       </c>
-      <c r="C113" s="3" t="s">
-        <v>191</v>
+      <c r="B113" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C113" s="5" t="s">
+        <v>205</v>
       </c>
       <c r="D113" s="2"/>
       <c r="E113" s="2"/>
@@ -6611,17 +6564,19 @@
       <c r="X113" s="2"/>
     </row>
     <row r="114">
-      <c r="A114" s="19" t="s">
-        <v>205</v>
-      </c>
-      <c r="B114" s="7" t="s">
+      <c r="A114" s="16" t="s">
         <v>206</v>
       </c>
-      <c r="C114" s="3" t="s">
+      <c r="B114" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C114" s="5" t="s">
         <v>207</v>
       </c>
       <c r="D114" s="2"/>
-      <c r="E114" s="2"/>
+      <c r="E114" s="21" t="s">
+        <v>208</v>
+      </c>
       <c r="F114" s="2"/>
       <c r="G114" s="2"/>
       <c r="H114" s="2"/>
@@ -6643,20 +6598,18 @@
       <c r="X114" s="2"/>
     </row>
     <row r="115">
-      <c r="A115" s="15" t="s">
-        <v>208</v>
-      </c>
-      <c r="B115" s="15" t="s">
+      <c r="A115" s="16" t="s">
         <v>209</v>
       </c>
-      <c r="C115" s="3" t="s">
+      <c r="B115" s="16" t="s">
         <v>210</v>
+      </c>
+      <c r="C115" s="5" t="s">
+        <v>211</v>
       </c>
       <c r="D115" s="2"/>
       <c r="E115" s="2"/>
-      <c r="F115" s="15" t="s">
-        <v>211</v>
-      </c>
+      <c r="F115" s="2"/>
       <c r="G115" s="2"/>
       <c r="H115" s="2"/>
       <c r="I115" s="2"/>
@@ -6677,20 +6630,18 @@
       <c r="X115" s="2"/>
     </row>
     <row r="116">
-      <c r="A116" s="15" t="s">
+      <c r="A116" s="12" t="s">
         <v>212</v>
       </c>
-      <c r="B116" s="15" t="s">
+      <c r="B116" s="16" t="s">
         <v>209</v>
       </c>
-      <c r="C116" s="3" t="s">
-        <v>210</v>
+      <c r="C116" s="5" t="s">
+        <v>211</v>
       </c>
       <c r="D116" s="2"/>
       <c r="E116" s="2"/>
-      <c r="F116" s="15" t="s">
-        <v>211</v>
-      </c>
+      <c r="F116" s="2"/>
       <c r="G116" s="2"/>
       <c r="H116" s="2"/>
       <c r="I116" s="2"/>
@@ -6711,20 +6662,20 @@
       <c r="X116" s="2"/>
     </row>
     <row r="117">
-      <c r="A117" s="15" t="s">
+      <c r="A117" s="16" t="s">
         <v>213</v>
       </c>
-      <c r="B117" s="15" t="s">
-        <v>208</v>
-      </c>
-      <c r="C117" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="D117" s="2"/>
+      <c r="B117" s="16" t="s">
+        <v>209</v>
+      </c>
+      <c r="C117" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="D117" s="5" t="s">
+        <v>211</v>
+      </c>
       <c r="E117" s="2"/>
-      <c r="F117" s="15" t="s">
-        <v>211</v>
-      </c>
+      <c r="F117" s="2"/>
       <c r="G117" s="2"/>
       <c r="H117" s="2"/>
       <c r="I117" s="2"/>
@@ -6745,20 +6696,18 @@
       <c r="X117" s="2"/>
     </row>
     <row r="118">
-      <c r="A118" s="15" t="s">
+      <c r="A118" s="16" t="s">
         <v>214</v>
       </c>
-      <c r="B118" s="15" t="s">
-        <v>212</v>
-      </c>
-      <c r="C118" s="3" t="s">
-        <v>210</v>
+      <c r="B118" s="16" t="s">
+        <v>215</v>
+      </c>
+      <c r="C118" s="5" t="s">
+        <v>211</v>
       </c>
       <c r="D118" s="2"/>
       <c r="E118" s="2"/>
-      <c r="F118" s="15" t="s">
-        <v>211</v>
-      </c>
+      <c r="F118" s="2"/>
       <c r="G118" s="2"/>
       <c r="H118" s="2"/>
       <c r="I118" s="2"/>
@@ -6779,20 +6728,18 @@
       <c r="X118" s="2"/>
     </row>
     <row r="119">
-      <c r="A119" s="19" t="s">
-        <v>215</v>
-      </c>
-      <c r="B119" s="7" t="s">
+      <c r="A119" s="16" t="s">
         <v>216</v>
       </c>
-      <c r="C119" s="3" t="s">
-        <v>210</v>
+      <c r="B119" s="16" t="s">
+        <v>214</v>
+      </c>
+      <c r="C119" s="5" t="s">
+        <v>211</v>
       </c>
       <c r="D119" s="2"/>
       <c r="E119" s="2"/>
-      <c r="F119" s="15" t="s">
-        <v>211</v>
-      </c>
+      <c r="F119" s="2"/>
       <c r="G119" s="2"/>
       <c r="H119" s="2"/>
       <c r="I119" s="2"/>
@@ -6813,20 +6760,20 @@
       <c r="X119" s="2"/>
     </row>
     <row r="120">
-      <c r="A120" s="15" t="s">
+      <c r="A120" s="16" t="s">
         <v>217</v>
       </c>
-      <c r="B120" s="18" t="s">
-        <v>215</v>
-      </c>
-      <c r="C120" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="D120" s="2"/>
+      <c r="B120" s="16" t="s">
+        <v>216</v>
+      </c>
+      <c r="C120" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="D120" s="5" t="s">
+        <v>211</v>
+      </c>
       <c r="E120" s="2"/>
-      <c r="F120" s="15" t="s">
-        <v>211</v>
-      </c>
+      <c r="F120" s="2"/>
       <c r="G120" s="2"/>
       <c r="H120" s="2"/>
       <c r="I120" s="2"/>
@@ -6847,17 +6794,21 @@
       <c r="X120" s="2"/>
     </row>
     <row r="121">
-      <c r="A121" s="15" t="s">
+      <c r="A121" s="16" t="s">
         <v>218</v>
       </c>
-      <c r="B121" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="C121" s="3" t="s">
+      <c r="B121" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="C121" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="D121" s="2"/>
-      <c r="E121" s="2"/>
+      <c r="D121" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="E121" s="16" t="s">
+        <v>220</v>
+      </c>
       <c r="F121" s="2"/>
       <c r="G121" s="2"/>
       <c r="H121" s="2"/>
@@ -6879,19 +6830,17 @@
       <c r="X121" s="2"/>
     </row>
     <row r="122">
-      <c r="A122" s="15" t="s">
-        <v>220</v>
-      </c>
-      <c r="B122" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="C122" s="3" t="s">
+      <c r="A122" s="16" t="s">
         <v>221</v>
       </c>
+      <c r="B122" s="16" t="s">
+        <v>222</v>
+      </c>
+      <c r="C122" s="5" t="s">
+        <v>223</v>
+      </c>
       <c r="D122" s="2"/>
-      <c r="E122" s="20" t="s">
-        <v>222</v>
-      </c>
+      <c r="E122" s="2"/>
       <c r="F122" s="2"/>
       <c r="G122" s="2"/>
       <c r="H122" s="2"/>
@@ -6913,14 +6862,14 @@
       <c r="X122" s="2"/>
     </row>
     <row r="123">
-      <c r="A123" s="15" t="s">
+      <c r="A123" s="16" t="s">
+        <v>224</v>
+      </c>
+      <c r="B123" s="16" t="s">
+        <v>221</v>
+      </c>
+      <c r="C123" s="5" t="s">
         <v>223</v>
-      </c>
-      <c r="B123" s="15" t="s">
-        <v>224</v>
-      </c>
-      <c r="C123" s="3" t="s">
-        <v>225</v>
       </c>
       <c r="D123" s="2"/>
       <c r="E123" s="2"/>
@@ -6945,18 +6894,20 @@
       <c r="X123" s="2"/>
     </row>
     <row r="124">
-      <c r="A124" s="5" t="s">
+      <c r="A124" s="22" t="s">
+        <v>225</v>
+      </c>
+      <c r="B124" s="16" t="s">
         <v>226</v>
       </c>
-      <c r="B124" s="15" t="s">
+      <c r="C124" s="5" t="s">
         <v>223</v>
-      </c>
-      <c r="C124" s="3" t="s">
-        <v>225</v>
       </c>
       <c r="D124" s="2"/>
       <c r="E124" s="2"/>
-      <c r="F124" s="2"/>
+      <c r="F124" s="7" t="s">
+        <v>227</v>
+      </c>
       <c r="G124" s="2"/>
       <c r="H124" s="2"/>
       <c r="I124" s="2"/>
@@ -6977,18 +6928,16 @@
       <c r="X124" s="2"/>
     </row>
     <row r="125">
-      <c r="A125" s="15" t="s">
-        <v>227</v>
-      </c>
-      <c r="B125" s="15" t="s">
+      <c r="A125" s="16" t="s">
+        <v>228</v>
+      </c>
+      <c r="B125" s="16" t="s">
+        <v>229</v>
+      </c>
+      <c r="C125" s="5" t="s">
         <v>223</v>
       </c>
-      <c r="C125" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="D125" s="3" t="s">
-        <v>225</v>
-      </c>
+      <c r="D125" s="2"/>
       <c r="E125" s="2"/>
       <c r="F125" s="2"/>
       <c r="G125" s="2"/>
@@ -7011,14 +6960,14 @@
       <c r="X125" s="2"/>
     </row>
     <row r="126">
-      <c r="A126" s="15" t="s">
+      <c r="A126" s="16" t="s">
+        <v>230</v>
+      </c>
+      <c r="B126" s="19" t="s">
         <v>228</v>
       </c>
-      <c r="B126" s="15" t="s">
-        <v>229</v>
-      </c>
-      <c r="C126" s="3" t="s">
-        <v>225</v>
+      <c r="C126" s="5" t="s">
+        <v>223</v>
       </c>
       <c r="D126" s="2"/>
       <c r="E126" s="2"/>
@@ -7043,17 +6992,19 @@
       <c r="X126" s="2"/>
     </row>
     <row r="127">
-      <c r="A127" s="15" t="s">
-        <v>230</v>
-      </c>
-      <c r="B127" s="15" t="s">
-        <v>228</v>
-      </c>
-      <c r="C127" s="3" t="s">
-        <v>225</v>
+      <c r="A127" s="16" t="s">
+        <v>231</v>
+      </c>
+      <c r="B127" s="20" t="s">
+        <v>232</v>
+      </c>
+      <c r="C127" s="5" t="s">
+        <v>233</v>
       </c>
       <c r="D127" s="2"/>
-      <c r="E127" s="2"/>
+      <c r="E127" s="16" t="s">
+        <v>234</v>
+      </c>
       <c r="F127" s="2"/>
       <c r="G127" s="2"/>
       <c r="H127" s="2"/>
@@ -7075,19 +7026,19 @@
       <c r="X127" s="2"/>
     </row>
     <row r="128">
-      <c r="A128" s="15" t="s">
+      <c r="A128" s="16" t="s">
+        <v>235</v>
+      </c>
+      <c r="B128" s="16" t="s">
         <v>231</v>
       </c>
-      <c r="B128" s="15" t="s">
-        <v>230</v>
-      </c>
-      <c r="C128" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="D128" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="E128" s="2"/>
+      <c r="C128" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="D128" s="2"/>
+      <c r="E128" s="16" t="s">
+        <v>236</v>
+      </c>
       <c r="F128" s="2"/>
       <c r="G128" s="2"/>
       <c r="H128" s="2"/>
@@ -7109,21 +7060,17 @@
       <c r="X128" s="2"/>
     </row>
     <row r="129">
-      <c r="A129" s="15" t="s">
-        <v>232</v>
-      </c>
-      <c r="B129" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="C129" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="D129" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="E129" s="15" t="s">
-        <v>234</v>
-      </c>
+      <c r="A129" s="16" t="s">
+        <v>237</v>
+      </c>
+      <c r="B129" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="C129" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="D129" s="2"/>
+      <c r="E129" s="2"/>
       <c r="F129" s="2"/>
       <c r="G129" s="2"/>
       <c r="H129" s="2"/>
@@ -7145,14 +7092,14 @@
       <c r="X129" s="2"/>
     </row>
     <row r="130">
-      <c r="A130" s="15" t="s">
-        <v>235</v>
-      </c>
-      <c r="B130" s="15" t="s">
-        <v>236</v>
-      </c>
-      <c r="C130" s="3" t="s">
-        <v>237</v>
+      <c r="A130" s="19" t="s">
+        <v>240</v>
+      </c>
+      <c r="B130" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="C130" s="5" t="s">
+        <v>239</v>
       </c>
       <c r="D130" s="2"/>
       <c r="E130" s="2"/>
@@ -7177,14 +7124,14 @@
       <c r="X130" s="2"/>
     </row>
     <row r="131">
-      <c r="A131" s="15" t="s">
-        <v>238</v>
-      </c>
-      <c r="B131" s="15" t="s">
-        <v>235</v>
-      </c>
-      <c r="C131" s="3" t="s">
-        <v>237</v>
+      <c r="A131" s="16" t="s">
+        <v>242</v>
+      </c>
+      <c r="B131" s="16" t="s">
+        <v>243</v>
+      </c>
+      <c r="C131" s="5" t="s">
+        <v>244</v>
       </c>
       <c r="D131" s="2"/>
       <c r="E131" s="2"/>
@@ -7209,20 +7156,18 @@
       <c r="X131" s="2"/>
     </row>
     <row r="132">
-      <c r="A132" s="21" t="s">
-        <v>239</v>
-      </c>
-      <c r="B132" s="15" t="s">
-        <v>240</v>
-      </c>
-      <c r="C132" s="3" t="s">
-        <v>237</v>
+      <c r="A132" s="16" t="s">
+        <v>245</v>
+      </c>
+      <c r="B132" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="C132" s="5" t="s">
+        <v>244</v>
       </c>
       <c r="D132" s="2"/>
       <c r="E132" s="2"/>
-      <c r="F132" s="7" t="s">
-        <v>241</v>
-      </c>
+      <c r="F132" s="2"/>
       <c r="G132" s="2"/>
       <c r="H132" s="2"/>
       <c r="I132" s="2"/>
@@ -7243,14 +7188,14 @@
       <c r="X132" s="2"/>
     </row>
     <row r="133">
-      <c r="A133" s="15" t="s">
-        <v>242</v>
-      </c>
-      <c r="B133" s="15" t="s">
-        <v>243</v>
-      </c>
-      <c r="C133" s="3" t="s">
-        <v>237</v>
+      <c r="A133" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="B133" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="C133" s="5" t="s">
+        <v>244</v>
       </c>
       <c r="D133" s="2"/>
       <c r="E133" s="2"/>
@@ -7275,18 +7220,20 @@
       <c r="X133" s="2"/>
     </row>
     <row r="134">
-      <c r="A134" s="15" t="s">
+      <c r="A134" s="17" t="s">
+        <v>247</v>
+      </c>
+      <c r="B134" s="16" t="s">
+        <v>248</v>
+      </c>
+      <c r="C134" s="5" t="s">
         <v>244</v>
-      </c>
-      <c r="B134" s="18" t="s">
-        <v>242</v>
-      </c>
-      <c r="C134" s="3" t="s">
-        <v>237</v>
       </c>
       <c r="D134" s="2"/>
       <c r="E134" s="2"/>
-      <c r="F134" s="2"/>
+      <c r="F134" s="16" t="s">
+        <v>118</v>
+      </c>
       <c r="G134" s="2"/>
       <c r="H134" s="2"/>
       <c r="I134" s="2"/>
@@ -7307,20 +7254,20 @@
       <c r="X134" s="2"/>
     </row>
     <row r="135">
-      <c r="A135" s="15" t="s">
-        <v>245</v>
-      </c>
-      <c r="B135" s="19" t="s">
-        <v>246</v>
-      </c>
-      <c r="C135" s="3" t="s">
-        <v>247</v>
+      <c r="A135" s="16" t="s">
+        <v>249</v>
+      </c>
+      <c r="B135" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C135" s="5" t="s">
+        <v>250</v>
       </c>
       <c r="D135" s="2"/>
-      <c r="E135" s="22" t="s">
-        <v>248</v>
-      </c>
-      <c r="F135" s="2"/>
+      <c r="E135" s="2"/>
+      <c r="F135" s="16" t="s">
+        <v>251</v>
+      </c>
       <c r="G135" s="2"/>
       <c r="H135" s="2"/>
       <c r="I135" s="2"/>
@@ -7341,18 +7288,18 @@
       <c r="X135" s="2"/>
     </row>
     <row r="136">
-      <c r="A136" s="22" t="s">
-        <v>249</v>
-      </c>
-      <c r="B136" s="22" t="s">
-        <v>245</v>
-      </c>
-      <c r="C136" s="3" t="s">
-        <v>247</v>
+      <c r="A136" s="23" t="s">
+        <v>252</v>
+      </c>
+      <c r="B136" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="C136" s="5" t="s">
+        <v>254</v>
       </c>
       <c r="D136" s="2"/>
-      <c r="E136" s="22" t="s">
-        <v>250</v>
+      <c r="E136" s="24" t="s">
+        <v>255</v>
       </c>
       <c r="F136" s="2"/>
       <c r="G136" s="2"/>
@@ -7375,17 +7322,19 @@
       <c r="X136" s="2"/>
     </row>
     <row r="137">
-      <c r="A137" s="22" t="s">
-        <v>251</v>
-      </c>
-      <c r="B137" s="23" t="s">
-        <v>252</v>
-      </c>
-      <c r="C137" s="3" t="s">
-        <v>253</v>
+      <c r="A137" s="25" t="s">
+        <v>256</v>
+      </c>
+      <c r="B137" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="C137" s="5" t="s">
+        <v>257</v>
       </c>
       <c r="D137" s="2"/>
-      <c r="E137" s="2"/>
+      <c r="E137" s="26" t="s">
+        <v>258</v>
+      </c>
       <c r="F137" s="2"/>
       <c r="G137" s="2"/>
       <c r="H137" s="2"/>
@@ -7407,17 +7356,19 @@
       <c r="X137" s="2"/>
     </row>
     <row r="138">
-      <c r="A138" s="18" t="s">
-        <v>254</v>
-      </c>
-      <c r="B138" s="23" t="s">
-        <v>255</v>
-      </c>
-      <c r="C138" s="3" t="s">
-        <v>253</v>
+      <c r="A138" s="27" t="s">
+        <v>259</v>
+      </c>
+      <c r="B138" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="C138" s="5" t="s">
+        <v>257</v>
       </c>
       <c r="D138" s="2"/>
-      <c r="E138" s="2"/>
+      <c r="E138" s="16" t="s">
+        <v>261</v>
+      </c>
       <c r="F138" s="2"/>
       <c r="G138" s="2"/>
       <c r="H138" s="2"/>
@@ -7439,17 +7390,19 @@
       <c r="X138" s="2"/>
     </row>
     <row r="139">
-      <c r="A139" s="22" t="s">
-        <v>256</v>
-      </c>
-      <c r="B139" s="22" t="s">
+      <c r="A139" s="16" t="s">
+        <v>262</v>
+      </c>
+      <c r="B139" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="C139" s="5" t="s">
         <v>257</v>
       </c>
-      <c r="C139" s="3" t="s">
-        <v>258</v>
-      </c>
       <c r="D139" s="2"/>
-      <c r="E139" s="2"/>
+      <c r="E139" s="16" t="s">
+        <v>264</v>
+      </c>
       <c r="F139" s="2"/>
       <c r="G139" s="2"/>
       <c r="H139" s="2"/>
@@ -7471,17 +7424,19 @@
       <c r="X139" s="2"/>
     </row>
     <row r="140">
-      <c r="A140" s="22" t="s">
-        <v>259</v>
-      </c>
-      <c r="B140" s="23" t="s">
-        <v>182</v>
-      </c>
-      <c r="C140" s="3" t="s">
-        <v>258</v>
+      <c r="A140" s="16" t="s">
+        <v>265</v>
+      </c>
+      <c r="B140" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="C140" s="5" t="s">
+        <v>257</v>
       </c>
       <c r="D140" s="2"/>
-      <c r="E140" s="2"/>
+      <c r="E140" s="27" t="s">
+        <v>266</v>
+      </c>
       <c r="F140" s="2"/>
       <c r="G140" s="2"/>
       <c r="H140" s="2"/>
@@ -7503,14 +7458,14 @@
       <c r="X140" s="2"/>
     </row>
     <row r="141">
-      <c r="A141" s="24" t="s">
-        <v>260</v>
-      </c>
-      <c r="B141" s="23" t="s">
-        <v>182</v>
-      </c>
-      <c r="C141" s="3" t="s">
-        <v>258</v>
+      <c r="A141" s="16" t="s">
+        <v>267</v>
+      </c>
+      <c r="B141" s="16" t="s">
+        <v>265</v>
+      </c>
+      <c r="C141" s="5" t="s">
+        <v>257</v>
       </c>
       <c r="D141" s="2"/>
       <c r="E141" s="2"/>
@@ -7535,20 +7490,20 @@
       <c r="X141" s="2"/>
     </row>
     <row r="142">
-      <c r="A142" s="25" t="s">
-        <v>261</v>
-      </c>
-      <c r="B142" s="22" t="s">
-        <v>262</v>
-      </c>
-      <c r="C142" s="3" t="s">
-        <v>258</v>
+      <c r="A142" s="26" t="s">
+        <v>268</v>
+      </c>
+      <c r="B142" s="16" t="s">
+        <v>269</v>
+      </c>
+      <c r="C142" s="5" t="s">
+        <v>257</v>
       </c>
       <c r="D142" s="2"/>
-      <c r="E142" s="2"/>
-      <c r="F142" s="22" t="s">
-        <v>133</v>
-      </c>
+      <c r="E142" s="25" t="s">
+        <v>270</v>
+      </c>
+      <c r="F142" s="2"/>
       <c r="G142" s="2"/>
       <c r="H142" s="2"/>
       <c r="I142" s="2"/>
@@ -7569,20 +7524,12 @@
       <c r="X142" s="2"/>
     </row>
     <row r="143">
-      <c r="A143" s="22" t="s">
-        <v>263</v>
-      </c>
-      <c r="B143" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="C143" s="3" t="s">
-        <v>264</v>
-      </c>
+      <c r="A143" s="2"/>
+      <c r="B143" s="2"/>
+      <c r="C143" s="2"/>
       <c r="D143" s="2"/>
       <c r="E143" s="2"/>
-      <c r="F143" s="22" t="s">
-        <v>265</v>
-      </c>
+      <c r="F143" s="2"/>
       <c r="G143" s="2"/>
       <c r="H143" s="2"/>
       <c r="I143" s="2"/>
@@ -7603,19 +7550,11 @@
       <c r="X143" s="2"/>
     </row>
     <row r="144">
-      <c r="A144" s="26" t="s">
-        <v>266</v>
-      </c>
-      <c r="B144" s="23" t="s">
-        <v>267</v>
-      </c>
-      <c r="C144" s="3" t="s">
-        <v>268</v>
-      </c>
+      <c r="A144" s="2"/>
+      <c r="B144" s="2"/>
+      <c r="C144" s="2"/>
       <c r="D144" s="2"/>
-      <c r="E144" s="27" t="s">
-        <v>269</v>
-      </c>
+      <c r="E144" s="2"/>
       <c r="F144" s="2"/>
       <c r="G144" s="2"/>
       <c r="H144" s="2"/>
@@ -7637,19 +7576,11 @@
       <c r="X144" s="2"/>
     </row>
     <row r="145">
-      <c r="A145" s="28" t="s">
-        <v>270</v>
-      </c>
-      <c r="B145" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="C145" s="3" t="s">
-        <v>271</v>
-      </c>
+      <c r="A145" s="2"/>
+      <c r="B145" s="2"/>
+      <c r="C145" s="2"/>
       <c r="D145" s="2"/>
-      <c r="E145" s="29" t="s">
-        <v>272</v>
-      </c>
+      <c r="E145" s="2"/>
       <c r="F145" s="2"/>
       <c r="G145" s="2"/>
       <c r="H145" s="2"/>
@@ -7671,19 +7602,11 @@
       <c r="X145" s="2"/>
     </row>
     <row r="146">
-      <c r="A146" s="30" t="s">
-        <v>273</v>
-      </c>
-      <c r="B146" s="23" t="s">
-        <v>274</v>
-      </c>
-      <c r="C146" s="3" t="s">
-        <v>271</v>
-      </c>
+      <c r="A146" s="2"/>
+      <c r="B146" s="2"/>
+      <c r="C146" s="2"/>
       <c r="D146" s="2"/>
-      <c r="E146" s="22" t="s">
-        <v>275</v>
-      </c>
+      <c r="E146" s="2"/>
       <c r="F146" s="2"/>
       <c r="G146" s="2"/>
       <c r="H146" s="2"/>
@@ -7705,19 +7628,11 @@
       <c r="X146" s="2"/>
     </row>
     <row r="147">
-      <c r="A147" s="22" t="s">
-        <v>276</v>
-      </c>
-      <c r="B147" s="23" t="s">
-        <v>277</v>
-      </c>
-      <c r="C147" s="3" t="s">
-        <v>271</v>
-      </c>
+      <c r="A147" s="2"/>
+      <c r="B147" s="2"/>
+      <c r="C147" s="2"/>
       <c r="D147" s="2"/>
-      <c r="E147" s="22" t="s">
-        <v>278</v>
-      </c>
+      <c r="E147" s="2"/>
       <c r="F147" s="2"/>
       <c r="G147" s="2"/>
       <c r="H147" s="2"/>
@@ -7739,19 +7654,11 @@
       <c r="X147" s="2"/>
     </row>
     <row r="148">
-      <c r="A148" s="22" t="s">
-        <v>279</v>
-      </c>
-      <c r="B148" s="22" t="s">
-        <v>60</v>
-      </c>
-      <c r="C148" s="3" t="s">
-        <v>271</v>
-      </c>
+      <c r="A148" s="2"/>
+      <c r="B148" s="2"/>
+      <c r="C148" s="2"/>
       <c r="D148" s="2"/>
-      <c r="E148" s="30" t="s">
-        <v>280</v>
-      </c>
+      <c r="E148" s="2"/>
       <c r="F148" s="2"/>
       <c r="G148" s="2"/>
       <c r="H148" s="2"/>
@@ -7773,15 +7680,9 @@
       <c r="X148" s="2"/>
     </row>
     <row r="149">
-      <c r="A149" s="22" t="s">
-        <v>281</v>
-      </c>
-      <c r="B149" s="22" t="s">
-        <v>279</v>
-      </c>
-      <c r="C149" s="3" t="s">
-        <v>271</v>
-      </c>
+      <c r="A149" s="2"/>
+      <c r="B149" s="2"/>
+      <c r="C149" s="2"/>
       <c r="D149" s="2"/>
       <c r="E149" s="2"/>
       <c r="F149" s="2"/>
@@ -7805,19 +7706,11 @@
       <c r="X149" s="2"/>
     </row>
     <row r="150">
-      <c r="A150" s="29" t="s">
-        <v>282</v>
-      </c>
-      <c r="B150" s="22" t="s">
-        <v>283</v>
-      </c>
-      <c r="C150" s="3" t="s">
-        <v>271</v>
-      </c>
+      <c r="A150" s="2"/>
+      <c r="B150" s="2"/>
+      <c r="C150" s="2"/>
       <c r="D150" s="2"/>
-      <c r="E150" s="28" t="s">
-        <v>284</v>
-      </c>
+      <c r="E150" s="2"/>
       <c r="F150" s="2"/>
       <c r="G150" s="2"/>
       <c r="H150" s="2"/>
@@ -20633,7 +20526,7 @@
     <row r="643">
       <c r="A643" s="2"/>
       <c r="B643" s="2"/>
-      <c r="C643" s="2"/>
+      <c r="C643" s="28"/>
       <c r="D643" s="2"/>
       <c r="E643" s="2"/>
       <c r="F643" s="2"/>
@@ -20656,214 +20549,6 @@
       <c r="W643" s="2"/>
       <c r="X643" s="2"/>
     </row>
-    <row r="644">
-      <c r="A644" s="2"/>
-      <c r="B644" s="2"/>
-      <c r="C644" s="2"/>
-      <c r="D644" s="2"/>
-      <c r="E644" s="2"/>
-      <c r="F644" s="2"/>
-      <c r="G644" s="2"/>
-      <c r="H644" s="2"/>
-      <c r="I644" s="2"/>
-      <c r="J644" s="2"/>
-      <c r="K644" s="2"/>
-      <c r="L644" s="2"/>
-      <c r="M644" s="2"/>
-      <c r="N644" s="2"/>
-      <c r="O644" s="2"/>
-      <c r="P644" s="2"/>
-      <c r="Q644" s="2"/>
-      <c r="R644" s="2"/>
-      <c r="S644" s="2"/>
-      <c r="T644" s="2"/>
-      <c r="U644" s="2"/>
-      <c r="V644" s="2"/>
-      <c r="W644" s="2"/>
-      <c r="X644" s="2"/>
-    </row>
-    <row r="645">
-      <c r="A645" s="2"/>
-      <c r="B645" s="2"/>
-      <c r="C645" s="2"/>
-      <c r="D645" s="2"/>
-      <c r="E645" s="2"/>
-      <c r="F645" s="2"/>
-      <c r="G645" s="2"/>
-      <c r="H645" s="2"/>
-      <c r="I645" s="2"/>
-      <c r="J645" s="2"/>
-      <c r="K645" s="2"/>
-      <c r="L645" s="2"/>
-      <c r="M645" s="2"/>
-      <c r="N645" s="2"/>
-      <c r="O645" s="2"/>
-      <c r="P645" s="2"/>
-      <c r="Q645" s="2"/>
-      <c r="R645" s="2"/>
-      <c r="S645" s="2"/>
-      <c r="T645" s="2"/>
-      <c r="U645" s="2"/>
-      <c r="V645" s="2"/>
-      <c r="W645" s="2"/>
-      <c r="X645" s="2"/>
-    </row>
-    <row r="646">
-      <c r="A646" s="2"/>
-      <c r="B646" s="2"/>
-      <c r="C646" s="2"/>
-      <c r="D646" s="2"/>
-      <c r="E646" s="2"/>
-      <c r="F646" s="2"/>
-      <c r="G646" s="2"/>
-      <c r="H646" s="2"/>
-      <c r="I646" s="2"/>
-      <c r="J646" s="2"/>
-      <c r="K646" s="2"/>
-      <c r="L646" s="2"/>
-      <c r="M646" s="2"/>
-      <c r="N646" s="2"/>
-      <c r="O646" s="2"/>
-      <c r="P646" s="2"/>
-      <c r="Q646" s="2"/>
-      <c r="R646" s="2"/>
-      <c r="S646" s="2"/>
-      <c r="T646" s="2"/>
-      <c r="U646" s="2"/>
-      <c r="V646" s="2"/>
-      <c r="W646" s="2"/>
-      <c r="X646" s="2"/>
-    </row>
-    <row r="647">
-      <c r="A647" s="2"/>
-      <c r="B647" s="2"/>
-      <c r="C647" s="2"/>
-      <c r="D647" s="2"/>
-      <c r="E647" s="2"/>
-      <c r="F647" s="2"/>
-      <c r="G647" s="2"/>
-      <c r="H647" s="2"/>
-      <c r="I647" s="2"/>
-      <c r="J647" s="2"/>
-      <c r="K647" s="2"/>
-      <c r="L647" s="2"/>
-      <c r="M647" s="2"/>
-      <c r="N647" s="2"/>
-      <c r="O647" s="2"/>
-      <c r="P647" s="2"/>
-      <c r="Q647" s="2"/>
-      <c r="R647" s="2"/>
-      <c r="S647" s="2"/>
-      <c r="T647" s="2"/>
-      <c r="U647" s="2"/>
-      <c r="V647" s="2"/>
-      <c r="W647" s="2"/>
-      <c r="X647" s="2"/>
-    </row>
-    <row r="648">
-      <c r="A648" s="2"/>
-      <c r="B648" s="2"/>
-      <c r="C648" s="2"/>
-      <c r="D648" s="2"/>
-      <c r="E648" s="2"/>
-      <c r="F648" s="2"/>
-      <c r="G648" s="2"/>
-      <c r="H648" s="2"/>
-      <c r="I648" s="2"/>
-      <c r="J648" s="2"/>
-      <c r="K648" s="2"/>
-      <c r="L648" s="2"/>
-      <c r="M648" s="2"/>
-      <c r="N648" s="2"/>
-      <c r="O648" s="2"/>
-      <c r="P648" s="2"/>
-      <c r="Q648" s="2"/>
-      <c r="R648" s="2"/>
-      <c r="S648" s="2"/>
-      <c r="T648" s="2"/>
-      <c r="U648" s="2"/>
-      <c r="V648" s="2"/>
-      <c r="W648" s="2"/>
-      <c r="X648" s="2"/>
-    </row>
-    <row r="649">
-      <c r="A649" s="2"/>
-      <c r="B649" s="2"/>
-      <c r="C649" s="2"/>
-      <c r="D649" s="2"/>
-      <c r="E649" s="2"/>
-      <c r="F649" s="2"/>
-      <c r="G649" s="2"/>
-      <c r="H649" s="2"/>
-      <c r="I649" s="2"/>
-      <c r="J649" s="2"/>
-      <c r="K649" s="2"/>
-      <c r="L649" s="2"/>
-      <c r="M649" s="2"/>
-      <c r="N649" s="2"/>
-      <c r="O649" s="2"/>
-      <c r="P649" s="2"/>
-      <c r="Q649" s="2"/>
-      <c r="R649" s="2"/>
-      <c r="S649" s="2"/>
-      <c r="T649" s="2"/>
-      <c r="U649" s="2"/>
-      <c r="V649" s="2"/>
-      <c r="W649" s="2"/>
-      <c r="X649" s="2"/>
-    </row>
-    <row r="650">
-      <c r="A650" s="2"/>
-      <c r="B650" s="2"/>
-      <c r="C650" s="2"/>
-      <c r="D650" s="2"/>
-      <c r="E650" s="2"/>
-      <c r="F650" s="2"/>
-      <c r="G650" s="2"/>
-      <c r="H650" s="2"/>
-      <c r="I650" s="2"/>
-      <c r="J650" s="2"/>
-      <c r="K650" s="2"/>
-      <c r="L650" s="2"/>
-      <c r="M650" s="2"/>
-      <c r="N650" s="2"/>
-      <c r="O650" s="2"/>
-      <c r="P650" s="2"/>
-      <c r="Q650" s="2"/>
-      <c r="R650" s="2"/>
-      <c r="S650" s="2"/>
-      <c r="T650" s="2"/>
-      <c r="U650" s="2"/>
-      <c r="V650" s="2"/>
-      <c r="W650" s="2"/>
-      <c r="X650" s="2"/>
-    </row>
-    <row r="651">
-      <c r="A651" s="2"/>
-      <c r="B651" s="31"/>
-      <c r="C651" s="32"/>
-      <c r="D651" s="2"/>
-      <c r="E651" s="2"/>
-      <c r="F651" s="2"/>
-      <c r="G651" s="2"/>
-      <c r="H651" s="2"/>
-      <c r="I651" s="2"/>
-      <c r="J651" s="2"/>
-      <c r="K651" s="2"/>
-      <c r="L651" s="2"/>
-      <c r="M651" s="2"/>
-      <c r="N651" s="2"/>
-      <c r="O651" s="2"/>
-      <c r="P651" s="2"/>
-      <c r="Q651" s="2"/>
-      <c r="R651" s="2"/>
-      <c r="S651" s="2"/>
-      <c r="T651" s="2"/>
-      <c r="U651" s="2"/>
-      <c r="V651" s="2"/>
-      <c r="W651" s="2"/>
-      <c r="X651" s="2"/>
-    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -20883,1953 +20568,1953 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="20" t="s">
+        <v>271</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>272</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="20" t="s">
+        <v>274</v>
+      </c>
+      <c r="B2" s="29" t="s">
+        <v>275</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>276</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="20" t="s">
+        <v>278</v>
+      </c>
+      <c r="B3" s="30" t="s">
+        <v>279</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>280</v>
+      </c>
+      <c r="D3" s="20" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="20" t="s">
+        <v>278</v>
+      </c>
+      <c r="B4" s="31" t="s">
+        <v>282</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>280</v>
+      </c>
+      <c r="D4" s="20" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="20" t="s">
+        <v>278</v>
+      </c>
+      <c r="B5" s="20" t="s">
+        <v>283</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>280</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="20" t="s">
+        <v>284</v>
+      </c>
+      <c r="B6" s="32" t="s">
         <v>285</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="C6" s="20" t="s">
         <v>286</v>
       </c>
-      <c r="C1" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="19" t="s">
+      <c r="D6" s="20" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="19" t="s">
+    <row r="7">
+      <c r="A7" s="19" t="s">
         <v>288</v>
       </c>
-      <c r="B2" s="33" t="s">
+      <c r="B7" s="19" t="s">
         <v>289</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C7" s="20" t="s">
+        <v>286</v>
+      </c>
+      <c r="D7" s="20" t="s">
         <v>290</v>
       </c>
-      <c r="D2" s="19" t="s">
+    </row>
+    <row r="8">
+      <c r="A8" s="19" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="19" t="s">
+      <c r="B8" s="19" t="s">
         <v>292</v>
       </c>
-      <c r="B3" s="34" t="s">
+      <c r="C8" s="20" t="s">
+        <v>286</v>
+      </c>
+      <c r="D8" s="20" t="s">
         <v>293</v>
       </c>
-      <c r="C3" s="19" t="s">
+    </row>
+    <row r="9">
+      <c r="A9" s="20" t="s">
         <v>294</v>
       </c>
-      <c r="D3" s="19" t="s">
+      <c r="B9" s="20" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="19" t="s">
-        <v>292</v>
-      </c>
-      <c r="B4" s="35" t="s">
+      <c r="C9" s="20" t="s">
+        <v>286</v>
+      </c>
+      <c r="D9" s="20" t="s">
         <v>296</v>
       </c>
-      <c r="C4" s="19" t="s">
+    </row>
+    <row r="10">
+      <c r="A10" s="20" t="s">
         <v>294</v>
       </c>
-      <c r="D4" s="19" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="19" t="s">
-        <v>292</v>
-      </c>
-      <c r="B5" s="19" t="s">
+      <c r="B10" s="20" t="s">
         <v>297</v>
       </c>
-      <c r="C5" s="19" t="s">
-        <v>294</v>
-      </c>
-      <c r="D5" s="19" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="19" t="s">
+      <c r="C10" s="20" t="s">
+        <v>286</v>
+      </c>
+      <c r="D10" s="20" t="s">
         <v>298</v>
       </c>
-      <c r="B6" s="36" t="s">
+    </row>
+    <row r="11">
+      <c r="A11" s="20" t="s">
         <v>299</v>
       </c>
-      <c r="C6" s="19" t="s">
+      <c r="B11" s="19" t="s">
         <v>300</v>
       </c>
-      <c r="D6" s="19" t="s">
+      <c r="C11" s="20" t="s">
+        <v>286</v>
+      </c>
+      <c r="D11" s="20" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="18" t="s">
+    <row r="12">
+      <c r="A12" s="20" t="s">
         <v>302</v>
       </c>
-      <c r="B7" s="18" t="s">
+      <c r="B12" s="20" t="s">
         <v>303</v>
       </c>
-      <c r="C7" s="19" t="s">
-        <v>300</v>
-      </c>
-      <c r="D7" s="19" t="s">
+      <c r="C12" s="33" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="18" t="s">
+      <c r="D12" s="20" t="s">
         <v>305</v>
       </c>
-      <c r="B8" s="18" t="s">
+    </row>
+    <row r="13">
+      <c r="A13" s="20" t="s">
         <v>306</v>
       </c>
-      <c r="C8" s="19" t="s">
-        <v>300</v>
-      </c>
-      <c r="D8" s="19" t="s">
+      <c r="B13" s="20" t="s">
+        <v>303</v>
+      </c>
+      <c r="C13" s="33" t="s">
+        <v>304</v>
+      </c>
+      <c r="D13" s="20" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="20" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="19" t="s">
+      <c r="B14" s="20" t="s">
         <v>308</v>
       </c>
-      <c r="B9" s="19" t="s">
+      <c r="C14" s="33" t="s">
+        <v>304</v>
+      </c>
+      <c r="D14" s="20" t="s">
         <v>309</v>
       </c>
-      <c r="C9" s="19" t="s">
-        <v>300</v>
-      </c>
-      <c r="D9" s="19" t="s">
+    </row>
+    <row r="15">
+      <c r="A15" s="20" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="19" t="s">
-        <v>308</v>
-      </c>
-      <c r="B10" s="19" t="s">
+      <c r="B15" s="20" t="s">
         <v>311</v>
       </c>
-      <c r="C10" s="19" t="s">
-        <v>300</v>
-      </c>
-      <c r="D10" s="19" t="s">
+      <c r="C15" s="33" t="s">
+        <v>304</v>
+      </c>
+      <c r="D15" s="20" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="19" t="s">
+    <row r="16">
+      <c r="A16" s="19" t="s">
         <v>313</v>
       </c>
-      <c r="B11" s="18" t="s">
+      <c r="B16" s="32" t="s">
         <v>314</v>
       </c>
-      <c r="C11" s="19" t="s">
-        <v>300</v>
-      </c>
-      <c r="D11" s="19" t="s">
+      <c r="C16" s="20" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="19" t="s">
+      <c r="D16" s="20" t="s">
         <v>316</v>
       </c>
-      <c r="B12" s="19" t="s">
+    </row>
+    <row r="17">
+      <c r="A17" s="20" t="s">
         <v>317</v>
       </c>
-      <c r="C12" s="37" t="s">
+      <c r="B17" s="20" t="s">
         <v>318</v>
       </c>
-      <c r="D12" s="19" t="s">
+      <c r="C17" s="20" t="s">
+        <v>315</v>
+      </c>
+      <c r="D17" s="20" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="19" t="s">
+    <row r="18">
+      <c r="A18" s="20" t="s">
+        <v>317</v>
+      </c>
+      <c r="B18" s="32" t="s">
         <v>320</v>
       </c>
-      <c r="B13" s="19" t="s">
-        <v>317</v>
-      </c>
-      <c r="C13" s="37" t="s">
-        <v>318</v>
-      </c>
-      <c r="D13" s="19" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="19" t="s">
+      <c r="C18" s="20" t="s">
+        <v>315</v>
+      </c>
+      <c r="D18" s="20" t="s">
         <v>321</v>
       </c>
-      <c r="B14" s="19" t="s">
+    </row>
+    <row r="19">
+      <c r="A19" s="19" t="s">
         <v>322</v>
       </c>
-      <c r="C14" s="37" t="s">
-        <v>318</v>
-      </c>
-      <c r="D14" s="19" t="s">
+      <c r="B19" s="32" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="19" t="s">
+      <c r="C19" s="20" t="s">
+        <v>315</v>
+      </c>
+      <c r="D19" s="20" t="s">
         <v>324</v>
       </c>
-      <c r="B15" s="19" t="s">
+    </row>
+    <row r="20">
+      <c r="A20" s="20" t="s">
         <v>325</v>
       </c>
-      <c r="C15" s="37" t="s">
-        <v>318</v>
-      </c>
-      <c r="D15" s="19" t="s">
+      <c r="B20" s="20" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="18" t="s">
+      <c r="C20" s="20" t="s">
+        <v>315</v>
+      </c>
+      <c r="D20" s="20" t="s">
         <v>327</v>
       </c>
-      <c r="B16" s="36" t="s">
+    </row>
+    <row r="21">
+      <c r="A21" s="20" t="s">
         <v>328</v>
       </c>
-      <c r="C16" s="19" t="s">
+      <c r="B21" s="19" t="s">
         <v>329</v>
       </c>
-      <c r="D16" s="19" t="s">
+      <c r="C21" s="20" t="s">
         <v>330</v>
       </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="19" t="s">
+      <c r="D21" s="20" t="s">
         <v>331</v>
       </c>
-      <c r="B17" s="19" t="s">
+    </row>
+    <row r="22">
+      <c r="A22" s="20" t="s">
         <v>332</v>
       </c>
-      <c r="C17" s="19" t="s">
-        <v>329</v>
-      </c>
-      <c r="D17" s="19" t="s">
+      <c r="B22" s="20" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="19" t="s">
-        <v>331</v>
-      </c>
-      <c r="B18" s="36" t="s">
+      <c r="C22" s="34" t="s">
         <v>334</v>
       </c>
-      <c r="C18" s="19" t="s">
-        <v>329</v>
-      </c>
-      <c r="D18" s="19" t="s">
+      <c r="D22" s="20" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="18" t="s">
+    <row r="23">
+      <c r="A23" s="20" t="s">
         <v>336</v>
       </c>
-      <c r="B19" s="36" t="s">
+      <c r="B23" s="20" t="s">
         <v>337</v>
       </c>
-      <c r="C19" s="19" t="s">
-        <v>329</v>
-      </c>
-      <c r="D19" s="19" t="s">
+      <c r="C23" s="34" t="s">
+        <v>334</v>
+      </c>
+      <c r="D23" s="20" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" s="19" t="s">
+    <row r="24">
+      <c r="A24" s="29" t="s">
         <v>339</v>
       </c>
-      <c r="B20" s="19" t="s">
+      <c r="B24" s="20" t="s">
         <v>340</v>
       </c>
-      <c r="C20" s="19" t="s">
-        <v>329</v>
-      </c>
-      <c r="D20" s="19" t="s">
+      <c r="C24" s="34" t="s">
+        <v>334</v>
+      </c>
+      <c r="D24" s="20" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" s="19" t="s">
+    <row r="25">
+      <c r="A25" s="20" t="s">
         <v>342</v>
       </c>
-      <c r="B21" s="18" t="s">
+      <c r="B25" s="20" t="s">
         <v>343</v>
       </c>
-      <c r="C21" s="19" t="s">
+      <c r="C25" s="34" t="s">
+        <v>334</v>
+      </c>
+      <c r="D25" s="20" t="s">
         <v>344</v>
       </c>
-      <c r="D21" s="19" t="s">
+    </row>
+    <row r="26">
+      <c r="A26" s="29" t="s">
         <v>345</v>
       </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="19" t="s">
+      <c r="B26" s="35" t="s">
         <v>346</v>
       </c>
-      <c r="B22" s="19" t="s">
+      <c r="C26" s="34" t="s">
         <v>347</v>
       </c>
-      <c r="C22" s="38" t="s">
+      <c r="D26" s="20" t="s">
         <v>348</v>
       </c>
-      <c r="D22" s="19" t="s">
+    </row>
+    <row r="27">
+      <c r="A27" s="20" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="19" t="s">
+      <c r="B27" s="35" t="s">
         <v>350</v>
       </c>
-      <c r="B23" s="19" t="s">
+      <c r="C27" s="34" t="s">
+        <v>347</v>
+      </c>
+      <c r="D27" s="20" t="s">
         <v>351</v>
       </c>
-      <c r="C23" s="38" t="s">
-        <v>348</v>
-      </c>
-      <c r="D23" s="19" t="s">
+    </row>
+    <row r="28">
+      <c r="A28" s="20" t="s">
         <v>352</v>
       </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="33" t="s">
+      <c r="B28" s="36" t="s">
         <v>353</v>
       </c>
-      <c r="B24" s="19" t="s">
+      <c r="C28" s="34" t="s">
+        <v>347</v>
+      </c>
+      <c r="D28" s="20" t="s">
         <v>354</v>
       </c>
-      <c r="C24" s="38" t="s">
-        <v>348</v>
-      </c>
-      <c r="D24" s="19" t="s">
+    </row>
+    <row r="29">
+      <c r="A29" s="20" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="19" t="s">
+      <c r="B29" s="37" t="s">
         <v>356</v>
       </c>
-      <c r="B25" s="19" t="s">
+      <c r="D29" s="20" t="s">
         <v>357</v>
       </c>
-      <c r="C25" s="38" t="s">
-        <v>348</v>
-      </c>
-      <c r="D25" s="19" t="s">
+    </row>
+    <row r="30">
+      <c r="A30" s="20" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="33" t="s">
+      <c r="B30" s="20" t="s">
         <v>359</v>
       </c>
-      <c r="B26" s="39" t="s">
+      <c r="C30" s="5" t="s">
         <v>360</v>
       </c>
-      <c r="C26" s="38" t="s">
+      <c r="D30" s="20" t="s">
         <v>361</v>
       </c>
-      <c r="D26" s="19" t="s">
+    </row>
+    <row r="31">
+      <c r="A31" s="20" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="19" t="s">
+      <c r="B31" s="38" t="s">
         <v>363</v>
       </c>
-      <c r="B27" s="39" t="s">
+      <c r="C31" s="5" t="s">
+        <v>360</v>
+      </c>
+      <c r="D31" s="20" t="s">
         <v>364</v>
       </c>
-      <c r="C27" s="38" t="s">
-        <v>361</v>
-      </c>
-      <c r="D27" s="19" t="s">
+    </row>
+    <row r="32">
+      <c r="A32" s="20" t="s">
         <v>365</v>
       </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="19" t="s">
+      <c r="B32" s="38" t="s">
         <v>366</v>
       </c>
-      <c r="B28" s="40" t="s">
+      <c r="C32" s="5" t="s">
+        <v>360</v>
+      </c>
+      <c r="D32" s="20" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="20" t="s">
         <v>367</v>
       </c>
-      <c r="C28" s="38" t="s">
-        <v>361</v>
-      </c>
-      <c r="D28" s="19" t="s">
+      <c r="B33" s="38" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="19" t="s">
+      <c r="C33" s="5" t="s">
+        <v>360</v>
+      </c>
+      <c r="D33" s="20" t="s">
         <v>369</v>
       </c>
-      <c r="B29" s="41" t="s">
+    </row>
+    <row r="34">
+      <c r="A34" s="20" t="s">
         <v>370</v>
       </c>
-      <c r="D29" s="19" t="s">
+      <c r="B34" s="20" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="19" t="s">
+      <c r="C34" s="5" t="s">
+        <v>360</v>
+      </c>
+      <c r="D34" s="20" t="s">
         <v>372</v>
       </c>
-      <c r="B30" s="19" t="s">
+    </row>
+    <row r="35">
+      <c r="A35" s="20" t="s">
         <v>373</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="B35" s="39" t="s">
         <v>374</v>
       </c>
-      <c r="D30" s="19" t="s">
+      <c r="C35" s="5" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="19" t="s">
+      <c r="D35" s="20" t="s">
         <v>376</v>
       </c>
-      <c r="B31" s="42" t="s">
+    </row>
+    <row r="36">
+      <c r="A36" s="19" t="s">
         <v>377</v>
       </c>
-      <c r="C31" s="3" t="s">
-        <v>374</v>
-      </c>
-      <c r="D31" s="19" t="s">
+      <c r="B36" s="20" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="19" t="s">
+      <c r="C36" s="5" t="s">
+        <v>375</v>
+      </c>
+      <c r="D36" s="20" t="s">
         <v>379</v>
       </c>
-      <c r="B32" s="42" t="s">
+    </row>
+    <row r="37">
+      <c r="A37" s="19" t="s">
+        <v>377</v>
+      </c>
+      <c r="B37" s="19" t="s">
         <v>380</v>
       </c>
-      <c r="C32" s="3" t="s">
-        <v>374</v>
-      </c>
-      <c r="D32" s="19" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="19" t="s">
+      <c r="C37" s="5" t="s">
+        <v>375</v>
+      </c>
+      <c r="D37" s="20" t="s">
         <v>381</v>
       </c>
-      <c r="B33" s="42" t="s">
+    </row>
+    <row r="38">
+      <c r="A38" s="20" t="s">
         <v>382</v>
       </c>
-      <c r="C33" s="3" t="s">
-        <v>374</v>
-      </c>
-      <c r="D33" s="19" t="s">
+      <c r="B38" s="20" t="s">
         <v>383</v>
       </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="19" t="s">
+      <c r="C38" s="5" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="20" t="s">
+        <v>373</v>
+      </c>
+      <c r="B39" s="19" t="s">
         <v>384</v>
       </c>
-      <c r="B34" s="19" t="s">
+      <c r="C39" s="5" t="s">
+        <v>375</v>
+      </c>
+      <c r="D39" s="20" t="s">
         <v>385</v>
       </c>
-      <c r="C34" s="3" t="s">
-        <v>374</v>
-      </c>
-      <c r="D34" s="19" t="s">
+    </row>
+    <row r="40">
+      <c r="A40" s="40" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="19" t="s">
+      <c r="B40" s="20" t="s">
         <v>387</v>
       </c>
-      <c r="B35" s="43" t="s">
+      <c r="C40" s="5" t="s">
         <v>388</v>
       </c>
-      <c r="C35" s="3" t="s">
+      <c r="D40" s="20" t="s">
         <v>389</v>
       </c>
-      <c r="D35" s="19" t="s">
+    </row>
+    <row r="41">
+      <c r="A41" s="40" t="s">
+        <v>386</v>
+      </c>
+      <c r="B41" s="20" t="s">
         <v>390</v>
       </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="18" t="s">
+      <c r="C41" s="5" t="s">
+        <v>388</v>
+      </c>
+      <c r="D41" s="20" t="s">
         <v>391</v>
       </c>
-      <c r="B36" s="19" t="s">
+    </row>
+    <row r="42">
+      <c r="A42" s="20" t="s">
         <v>392</v>
       </c>
-      <c r="C36" s="3" t="s">
-        <v>389</v>
-      </c>
-      <c r="D36" s="19" t="s">
+      <c r="B42" s="19" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="18" t="s">
-        <v>391</v>
-      </c>
-      <c r="B37" s="18" t="s">
+      <c r="C42" s="5" t="s">
         <v>394</v>
       </c>
-      <c r="C37" s="3" t="s">
-        <v>389</v>
-      </c>
-      <c r="D37" s="19" t="s">
+      <c r="D42" s="20" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" s="19" t="s">
+    <row r="43">
+      <c r="A43" s="19" t="s">
         <v>396</v>
       </c>
-      <c r="B38" s="19" t="s">
+      <c r="B43" s="20" t="s">
         <v>397</v>
       </c>
-      <c r="C38" s="3" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="19" t="s">
-        <v>387</v>
-      </c>
-      <c r="B39" s="18" t="s">
+      <c r="C43" s="5" t="s">
         <v>398</v>
       </c>
-      <c r="C39" s="3" t="s">
-        <v>389</v>
-      </c>
-      <c r="D39" s="19" t="s">
+      <c r="D43" s="20" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" s="44" t="s">
+    <row r="44">
+      <c r="A44" s="19" t="s">
         <v>400</v>
       </c>
-      <c r="B40" s="19" t="s">
+      <c r="B44" s="20" t="s">
         <v>401</v>
       </c>
-      <c r="C40" s="3" t="s">
+      <c r="C44" s="5" t="s">
+        <v>398</v>
+      </c>
+      <c r="D44" s="20" t="s">
         <v>402</v>
       </c>
-      <c r="D40" s="19" t="s">
+    </row>
+    <row r="45">
+      <c r="A45" s="19" t="s">
         <v>403</v>
       </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="44" t="s">
-        <v>400</v>
-      </c>
-      <c r="B41" s="19" t="s">
+      <c r="B45" s="19" t="s">
         <v>404</v>
       </c>
-      <c r="C41" s="3" t="s">
-        <v>402</v>
-      </c>
-      <c r="D41" s="19" t="s">
+      <c r="C45" s="5" t="s">
+        <v>398</v>
+      </c>
+      <c r="D45" s="20" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" s="19" t="s">
+    <row r="46">
+      <c r="A46" s="19" t="s">
         <v>406</v>
       </c>
-      <c r="B42" s="18" t="s">
+      <c r="B46" s="19" t="s">
         <v>407</v>
       </c>
-      <c r="C42" s="3" t="s">
+      <c r="C46" s="5" t="s">
         <v>408</v>
       </c>
-      <c r="D42" s="19" t="s">
+      <c r="D46" s="20" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" s="18" t="s">
+    <row r="47">
+      <c r="A47" s="20" t="s">
         <v>410</v>
       </c>
-      <c r="B43" s="19" t="s">
+      <c r="B47" s="20" t="s">
         <v>411</v>
       </c>
-      <c r="C43" s="3" t="s">
+      <c r="C47" s="5" t="s">
+        <v>408</v>
+      </c>
+      <c r="D47" s="20" t="s">
         <v>412</v>
       </c>
-      <c r="D43" s="19" t="s">
+    </row>
+    <row r="48">
+      <c r="A48" s="20" t="s">
         <v>413</v>
       </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="18" t="s">
+      <c r="B48" s="9" t="s">
         <v>414</v>
       </c>
-      <c r="B44" s="19" t="s">
+      <c r="C48" s="5" t="s">
+        <v>408</v>
+      </c>
+      <c r="D48" s="20" t="s">
         <v>415</v>
       </c>
-      <c r="C44" s="3" t="s">
-        <v>412</v>
-      </c>
-      <c r="D44" s="19" t="s">
+    </row>
+    <row r="49">
+      <c r="A49" s="20" t="s">
         <v>416</v>
       </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="18" t="s">
+      <c r="B49" s="19" t="s">
         <v>417</v>
       </c>
-      <c r="B45" s="18" t="s">
+      <c r="C49" s="5" t="s">
         <v>418</v>
       </c>
-      <c r="C45" s="3" t="s">
-        <v>412</v>
-      </c>
-      <c r="D45" s="19" t="s">
+      <c r="D49" s="20" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" s="18" t="s">
+    <row r="50">
+      <c r="A50" s="20" t="s">
         <v>420</v>
       </c>
-      <c r="B46" s="18" t="s">
+      <c r="B50" s="19" t="s">
         <v>421</v>
       </c>
-      <c r="C46" s="3" t="s">
+      <c r="C50" s="5" t="s">
+        <v>418</v>
+      </c>
+      <c r="D50" s="20" t="s">
         <v>422</v>
       </c>
-      <c r="D46" s="19" t="s">
+    </row>
+    <row r="51">
+      <c r="A51" s="33" t="s">
+        <v>420</v>
+      </c>
+      <c r="B51" s="12" t="s">
         <v>423</v>
       </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="19" t="s">
+      <c r="C51" s="5" t="s">
+        <v>418</v>
+      </c>
+      <c r="D51" s="20" t="s">
         <v>424</v>
-      </c>
-      <c r="B47" s="19" t="s">
-        <v>425</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>422</v>
-      </c>
-      <c r="D47" s="19" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="19" t="s">
-        <v>427</v>
-      </c>
-      <c r="B48" s="9" t="s">
-        <v>428</v>
-      </c>
-      <c r="C48" s="3" t="s">
-        <v>422</v>
-      </c>
-      <c r="D48" s="19" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="19" t="s">
-        <v>430</v>
-      </c>
-      <c r="B49" s="18" t="s">
-        <v>431</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>432</v>
-      </c>
-      <c r="D49" s="19" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="19" t="s">
-        <v>434</v>
-      </c>
-      <c r="B50" s="18" t="s">
-        <v>435</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>432</v>
-      </c>
-      <c r="D50" s="19" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="37" t="s">
-        <v>434</v>
-      </c>
-      <c r="B51" s="5" t="s">
-        <v>437</v>
-      </c>
-      <c r="C51" s="3" t="s">
-        <v>432</v>
-      </c>
-      <c r="D51" s="19" t="s">
-        <v>438</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="B52" s="19" t="s">
+        <v>426</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>418</v>
+      </c>
+      <c r="D52" s="20" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="20" t="s">
+        <v>428</v>
+      </c>
+      <c r="B53" s="20" t="s">
+        <v>429</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>430</v>
+      </c>
+      <c r="D53" s="20" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="20" t="s">
+        <v>428</v>
+      </c>
+      <c r="B54" s="19" t="s">
+        <v>432</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>430</v>
+      </c>
+      <c r="D54" s="20" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="20" t="s">
+        <v>433</v>
+      </c>
+      <c r="B55" s="19" t="s">
+        <v>434</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>435</v>
+      </c>
+      <c r="D55" s="20" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="20" t="s">
+        <v>437</v>
+      </c>
+      <c r="B56" s="19" t="s">
+        <v>438</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>435</v>
+      </c>
+      <c r="D56" s="20" t="s">
         <v>439</v>
       </c>
-      <c r="B52" s="18" t="s">
+    </row>
+    <row r="57">
+      <c r="A57" s="20" t="s">
         <v>440</v>
       </c>
-      <c r="C52" s="3" t="s">
-        <v>432</v>
-      </c>
-      <c r="D52" s="19" t="s">
+      <c r="B57" s="12" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="19" t="s">
+      <c r="C57" s="5" t="s">
+        <v>435</v>
+      </c>
+      <c r="D57" s="20" t="s">
         <v>442</v>
       </c>
-      <c r="B53" s="19" t="s">
+    </row>
+    <row r="58">
+      <c r="A58" s="20" t="s">
         <v>443</v>
       </c>
-      <c r="C53" s="3" t="s">
+      <c r="B58" s="20" t="s">
         <v>444</v>
       </c>
-      <c r="D53" s="19" t="s">
+      <c r="C58" s="5" t="s">
+        <v>435</v>
+      </c>
+      <c r="D58" s="20" t="s">
         <v>445</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="19" t="s">
-        <v>442</v>
-      </c>
-      <c r="B54" s="18" t="s">
-        <v>446</v>
-      </c>
-      <c r="C54" s="3" t="s">
-        <v>444</v>
-      </c>
-      <c r="D54" s="19" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="19" t="s">
-        <v>447</v>
-      </c>
-      <c r="B55" s="18" t="s">
-        <v>448</v>
-      </c>
-      <c r="C55" s="3" t="s">
-        <v>449</v>
-      </c>
-      <c r="D55" s="19" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="19" t="s">
-        <v>451</v>
-      </c>
-      <c r="B56" s="18" t="s">
-        <v>452</v>
-      </c>
-      <c r="C56" s="3" t="s">
-        <v>449</v>
-      </c>
-      <c r="D56" s="19" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="19" t="s">
-        <v>454</v>
-      </c>
-      <c r="B57" s="5" t="s">
-        <v>455</v>
-      </c>
-      <c r="C57" s="3" t="s">
-        <v>449</v>
-      </c>
-      <c r="D57" s="19" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="19" t="s">
-        <v>457</v>
-      </c>
-      <c r="B58" s="19" t="s">
-        <v>458</v>
-      </c>
-      <c r="C58" s="3" t="s">
-        <v>449</v>
-      </c>
-      <c r="D58" s="19" t="s">
-        <v>459</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="7" t="s">
-        <v>460</v>
-      </c>
-      <c r="B59" s="5" t="s">
-        <v>461</v>
-      </c>
-      <c r="C59" s="3" t="s">
-        <v>449</v>
-      </c>
-      <c r="D59" s="19" t="s">
-        <v>462</v>
+        <v>446</v>
+      </c>
+      <c r="B59" s="12" t="s">
+        <v>447</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>435</v>
+      </c>
+      <c r="D59" s="20" t="s">
+        <v>448</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="7" t="s">
+        <v>449</v>
+      </c>
+      <c r="B60" s="12" t="s">
+        <v>450</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>435</v>
+      </c>
+      <c r="D60" s="19" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="20" t="s">
+        <v>452</v>
+      </c>
+      <c r="B61" s="12" t="s">
+        <v>453</v>
+      </c>
+      <c r="C61" s="20" t="s">
+        <v>454</v>
+      </c>
+      <c r="D61" s="19" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="20" t="s">
+        <v>456</v>
+      </c>
+      <c r="B62" s="19" t="s">
+        <v>457</v>
+      </c>
+      <c r="C62" s="20" t="s">
+        <v>454</v>
+      </c>
+      <c r="D62" s="20" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="20" t="s">
+        <v>459</v>
+      </c>
+      <c r="B63" s="19" t="s">
+        <v>460</v>
+      </c>
+      <c r="C63" s="20" t="s">
+        <v>454</v>
+      </c>
+      <c r="D63" s="19" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="20" t="s">
+        <v>461</v>
+      </c>
+      <c r="B64" s="20" t="s">
+        <v>462</v>
+      </c>
+      <c r="C64" s="20" t="s">
+        <v>454</v>
+      </c>
+      <c r="D64" s="20" t="s">
         <v>463</v>
       </c>
-      <c r="B60" s="5" t="s">
+    </row>
+    <row r="65">
+      <c r="A65" s="20" t="s">
+        <v>440</v>
+      </c>
+      <c r="B65" s="19" t="s">
         <v>464</v>
       </c>
-      <c r="C60" s="3" t="s">
-        <v>449</v>
-      </c>
-      <c r="D60" s="18" t="s">
+      <c r="C65" s="20" t="s">
+        <v>454</v>
+      </c>
+      <c r="D65" s="20" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="61">
-      <c r="A61" s="19" t="s">
+    <row r="66">
+      <c r="A66" s="19" t="s">
         <v>466</v>
       </c>
-      <c r="B61" s="5" t="s">
+      <c r="B66" s="19" t="s">
         <v>467</v>
       </c>
-      <c r="C61" s="19" t="s">
+      <c r="C66" s="20" t="s">
+        <v>454</v>
+      </c>
+      <c r="D66" s="20" t="s">
         <v>468</v>
       </c>
-      <c r="D61" s="18" t="s">
+    </row>
+    <row r="67">
+      <c r="A67" s="20" t="s">
         <v>469</v>
       </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="19" t="s">
+      <c r="B67" s="19" t="s">
         <v>470</v>
       </c>
-      <c r="B62" s="18" t="s">
+      <c r="C67" s="20" t="s">
+        <v>454</v>
+      </c>
+      <c r="D67" s="20" t="s">
         <v>471</v>
       </c>
-      <c r="C62" s="19" t="s">
-        <v>468</v>
-      </c>
-      <c r="D62" s="19" t="s">
+    </row>
+    <row r="68">
+      <c r="A68" s="20" t="s">
+        <v>443</v>
+      </c>
+      <c r="B68" s="20" t="s">
         <v>472</v>
       </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="19" t="s">
+      <c r="C68" s="20" t="s">
+        <v>454</v>
+      </c>
+      <c r="D68" s="20" t="s">
         <v>473</v>
-      </c>
-      <c r="B63" s="18" t="s">
-        <v>474</v>
-      </c>
-      <c r="C63" s="19" t="s">
-        <v>468</v>
-      </c>
-      <c r="D63" s="18" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="19" t="s">
-        <v>475</v>
-      </c>
-      <c r="B64" s="19" t="s">
-        <v>476</v>
-      </c>
-      <c r="C64" s="19" t="s">
-        <v>468</v>
-      </c>
-      <c r="D64" s="19" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="19" t="s">
-        <v>454</v>
-      </c>
-      <c r="B65" s="18" t="s">
-        <v>478</v>
-      </c>
-      <c r="C65" s="19" t="s">
-        <v>468</v>
-      </c>
-      <c r="D65" s="19" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="18" t="s">
-        <v>480</v>
-      </c>
-      <c r="B66" s="18" t="s">
-        <v>481</v>
-      </c>
-      <c r="C66" s="19" t="s">
-        <v>468</v>
-      </c>
-      <c r="D66" s="19" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="19" t="s">
-        <v>483</v>
-      </c>
-      <c r="B67" s="18" t="s">
-        <v>484</v>
-      </c>
-      <c r="C67" s="19" t="s">
-        <v>468</v>
-      </c>
-      <c r="D67" s="19" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="19" t="s">
-        <v>457</v>
-      </c>
-      <c r="B68" s="19" t="s">
-        <v>486</v>
-      </c>
-      <c r="C68" s="19" t="s">
-        <v>468</v>
-      </c>
-      <c r="D68" s="19" t="s">
-        <v>487</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="7" t="s">
+        <v>474</v>
+      </c>
+      <c r="B69" s="20" t="s">
+        <v>472</v>
+      </c>
+      <c r="C69" s="20" t="s">
+        <v>454</v>
+      </c>
+      <c r="D69" s="20" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="20" t="s">
+        <v>475</v>
+      </c>
+      <c r="B70" s="39" t="s">
+        <v>476</v>
+      </c>
+      <c r="C70" s="5" t="s">
+        <v>477</v>
+      </c>
+      <c r="D70" s="20" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="20" t="s">
+        <v>479</v>
+      </c>
+      <c r="B71" s="39" t="s">
+        <v>480</v>
+      </c>
+      <c r="C71" s="5" t="s">
+        <v>477</v>
+      </c>
+      <c r="D71" s="20" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="19" t="s">
+        <v>482</v>
+      </c>
+      <c r="B72" s="19" t="s">
+        <v>483</v>
+      </c>
+      <c r="C72" s="5" t="s">
+        <v>484</v>
+      </c>
+      <c r="D72" s="20" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="16" t="s">
+        <v>486</v>
+      </c>
+      <c r="B73" s="20" t="s">
+        <v>487</v>
+      </c>
+      <c r="C73" s="5" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="16" t="s">
         <v>488</v>
       </c>
-      <c r="B69" s="19" t="s">
-        <v>486</v>
-      </c>
-      <c r="C69" s="19" t="s">
-        <v>468</v>
-      </c>
-      <c r="D69" s="19" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="19" t="s">
+      <c r="B74" s="19" t="s">
         <v>489</v>
       </c>
-      <c r="B70" s="43" t="s">
+      <c r="C74" s="5" t="s">
         <v>490</v>
       </c>
-      <c r="C70" s="3" t="s">
+      <c r="D74" s="19" t="s">
         <v>491</v>
-      </c>
-      <c r="D70" s="19" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="19" t="s">
-        <v>493</v>
-      </c>
-      <c r="B71" s="43" t="s">
-        <v>494</v>
-      </c>
-      <c r="C71" s="3" t="s">
-        <v>491</v>
-      </c>
-      <c r="D71" s="19" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="18" t="s">
-        <v>496</v>
-      </c>
-      <c r="B72" s="18" t="s">
-        <v>497</v>
-      </c>
-      <c r="C72" s="3" t="s">
-        <v>498</v>
-      </c>
-      <c r="D72" s="19" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="15" t="s">
-        <v>500</v>
-      </c>
-      <c r="B73" s="19" t="s">
-        <v>501</v>
-      </c>
-      <c r="C73" s="3" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="15" t="s">
-        <v>502</v>
-      </c>
-      <c r="B74" s="18" t="s">
-        <v>503</v>
-      </c>
-      <c r="C74" s="3" t="s">
-        <v>504</v>
-      </c>
-      <c r="D74" s="18" t="s">
-        <v>505</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="7" t="s">
-        <v>506</v>
-      </c>
-      <c r="B75" s="19" t="s">
-        <v>507</v>
-      </c>
-      <c r="C75" s="3" t="s">
-        <v>508</v>
-      </c>
-      <c r="D75" s="19" t="s">
-        <v>509</v>
+        <v>492</v>
+      </c>
+      <c r="B75" s="20" t="s">
+        <v>493</v>
+      </c>
+      <c r="C75" s="5" t="s">
+        <v>494</v>
+      </c>
+      <c r="D75" s="20" t="s">
+        <v>495</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="7" t="s">
+        <v>496</v>
+      </c>
+      <c r="B76" s="20" t="s">
+        <v>497</v>
+      </c>
+      <c r="C76" s="20" t="s">
+        <v>498</v>
+      </c>
+      <c r="D76" s="20" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="41" t="s">
+        <v>500</v>
+      </c>
+      <c r="B77" s="19" t="s">
+        <v>501</v>
+      </c>
+      <c r="C77" s="20" t="s">
+        <v>498</v>
+      </c>
+      <c r="D77" s="20" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="16" t="s">
+        <v>503</v>
+      </c>
+      <c r="B78" s="20" t="s">
+        <v>504</v>
+      </c>
+      <c r="C78" s="5" t="s">
+        <v>505</v>
+      </c>
+      <c r="D78" s="20" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="20" t="s">
+        <v>507</v>
+      </c>
+      <c r="B79" s="19" t="s">
+        <v>508</v>
+      </c>
+      <c r="C79" s="5" t="s">
+        <v>505</v>
+      </c>
+      <c r="D79" s="19" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="20" t="s">
         <v>510</v>
       </c>
-      <c r="B76" s="19" t="s">
+      <c r="B80" s="20" t="s">
         <v>511</v>
       </c>
-      <c r="C76" s="19" t="s">
+      <c r="C80" s="5" t="s">
         <v>512</v>
       </c>
-      <c r="D76" s="19" t="s">
+      <c r="D80" s="20" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="77">
-      <c r="A77" s="45" t="s">
+    <row r="81">
+      <c r="A81" s="20" t="s">
         <v>514</v>
       </c>
-      <c r="B77" s="18" t="s">
+      <c r="B81" s="20" t="s">
         <v>515</v>
       </c>
-      <c r="C77" s="19" t="s">
+      <c r="C81" s="5" t="s">
         <v>512</v>
       </c>
-      <c r="D77" s="19" t="s">
+      <c r="D81" s="20" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="78">
-      <c r="A78" s="15" t="s">
+    <row r="82">
+      <c r="A82" s="20" t="s">
         <v>517</v>
       </c>
-      <c r="B78" s="19" t="s">
+      <c r="B82" s="19" t="s">
         <v>518</v>
       </c>
-      <c r="C78" s="3" t="s">
+      <c r="C82" s="5" t="s">
+        <v>512</v>
+      </c>
+      <c r="D82" s="20" t="s">
         <v>519</v>
       </c>
-      <c r="D78" s="19" t="s">
+    </row>
+    <row r="83">
+      <c r="A83" s="20" t="s">
         <v>520</v>
       </c>
-    </row>
-    <row r="79">
-      <c r="A79" s="19" t="s">
+      <c r="B83" s="19" t="s">
         <v>521</v>
       </c>
-      <c r="B79" s="18" t="s">
+      <c r="C83" s="5" t="s">
         <v>522</v>
       </c>
-      <c r="C79" s="3" t="s">
-        <v>519</v>
-      </c>
-      <c r="D79" s="18" t="s">
+      <c r="D83" s="20" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="80">
-      <c r="A80" s="19" t="s">
+    <row r="84">
+      <c r="A84" s="20" t="s">
         <v>524</v>
       </c>
-      <c r="B80" s="19" t="s">
+      <c r="B84" s="19" t="s">
         <v>525</v>
       </c>
-      <c r="C80" s="3" t="s">
+      <c r="C84" s="5" t="s">
         <v>526</v>
       </c>
-      <c r="D80" s="19" t="s">
+      <c r="D84" s="20" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="81">
-      <c r="A81" s="19" t="s">
+    <row r="85">
+      <c r="A85" s="20" t="s">
+        <v>524</v>
+      </c>
+      <c r="B85" s="19" t="s">
         <v>528</v>
       </c>
-      <c r="B81" s="19" t="s">
+      <c r="C85" s="5" t="s">
+        <v>526</v>
+      </c>
+      <c r="D85" s="20" t="s">
         <v>529</v>
       </c>
-      <c r="C81" s="3" t="s">
-        <v>526</v>
-      </c>
-      <c r="D81" s="19" t="s">
+    </row>
+    <row r="86">
+      <c r="A86" s="16" t="s">
         <v>530</v>
       </c>
-    </row>
-    <row r="82">
-      <c r="A82" s="19" t="s">
+      <c r="B86" s="19" t="s">
         <v>531</v>
       </c>
-      <c r="B82" s="18" t="s">
+      <c r="C86" s="5" t="s">
         <v>532</v>
       </c>
-      <c r="C82" s="3" t="s">
-        <v>526</v>
-      </c>
-      <c r="D82" s="19" t="s">
+      <c r="D86" s="20" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="83">
-      <c r="A83" s="19" t="s">
+    <row r="87">
+      <c r="A87" s="16" t="s">
+        <v>530</v>
+      </c>
+      <c r="B87" s="20" t="s">
         <v>534</v>
       </c>
-      <c r="B83" s="18" t="s">
+      <c r="C87" s="5" t="s">
+        <v>532</v>
+      </c>
+      <c r="D87" s="20" t="s">
         <v>535</v>
       </c>
-      <c r="C83" s="3" t="s">
+    </row>
+    <row r="88">
+      <c r="A88" s="16" t="s">
         <v>536</v>
       </c>
-      <c r="D83" s="19" t="s">
+      <c r="B88" s="12" t="s">
         <v>537</v>
       </c>
-    </row>
-    <row r="84">
-      <c r="A84" s="19" t="s">
+      <c r="C88" s="5" t="s">
         <v>538</v>
       </c>
-      <c r="B84" s="18" t="s">
+    </row>
+    <row r="89">
+      <c r="A89" s="16" t="s">
         <v>539</v>
       </c>
-      <c r="C84" s="3" t="s">
+      <c r="B89" s="12" t="s">
         <v>540</v>
       </c>
-      <c r="D84" s="19" t="s">
+      <c r="C89" s="5" t="s">
         <v>541</v>
       </c>
-    </row>
-    <row r="85">
-      <c r="A85" s="19" t="s">
-        <v>538</v>
-      </c>
-      <c r="B85" s="18" t="s">
+      <c r="D89" s="20" t="s">
         <v>542</v>
       </c>
-      <c r="C85" s="3" t="s">
-        <v>540</v>
-      </c>
-      <c r="D85" s="19" t="s">
+    </row>
+    <row r="90">
+      <c r="A90" s="20" t="s">
         <v>543</v>
       </c>
-    </row>
-    <row r="86">
-      <c r="A86" s="15" t="s">
+      <c r="B90" s="20" t="s">
         <v>544</v>
       </c>
-      <c r="B86" s="18" t="s">
+      <c r="C90" s="5" t="s">
+        <v>541</v>
+      </c>
+      <c r="D90" s="20" t="s">
         <v>545</v>
       </c>
-      <c r="C86" s="3" t="s">
+    </row>
+    <row r="91">
+      <c r="A91" s="20" t="s">
         <v>546</v>
       </c>
-      <c r="D86" s="19" t="s">
+      <c r="B91" s="20" t="s">
         <v>547</v>
       </c>
-    </row>
-    <row r="87">
-      <c r="A87" s="15" t="s">
-        <v>544</v>
-      </c>
-      <c r="B87" s="19" t="s">
+      <c r="C91" s="20" t="s">
         <v>548</v>
       </c>
-      <c r="C87" s="3" t="s">
-        <v>546</v>
-      </c>
-      <c r="D87" s="19" t="s">
+    </row>
+    <row r="92">
+      <c r="A92" s="16" t="s">
         <v>549</v>
       </c>
-    </row>
-    <row r="88">
-      <c r="A88" s="15" t="s">
+      <c r="B92" s="19" t="s">
         <v>550</v>
       </c>
-      <c r="B88" s="5" t="s">
+      <c r="C92" s="5" t="s">
         <v>551</v>
       </c>
-      <c r="C88" s="3" t="s">
+      <c r="D92" s="20" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="89">
-      <c r="A89" s="15" t="s">
+    <row r="93">
+      <c r="A93" s="20" t="s">
         <v>553</v>
       </c>
-      <c r="B89" s="5" t="s">
+      <c r="B93" s="19" t="s">
         <v>554</v>
       </c>
-      <c r="C89" s="3" t="s">
+      <c r="C93" s="5" t="s">
         <v>555</v>
       </c>
-      <c r="D89" s="19" t="s">
+      <c r="D93" s="20" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="90">
-      <c r="A90" s="19" t="s">
+    <row r="94">
+      <c r="A94" s="16" t="s">
         <v>557</v>
       </c>
-      <c r="B90" s="19" t="s">
+      <c r="B94" s="3" t="s">
         <v>558</v>
       </c>
-      <c r="C90" s="3" t="s">
+      <c r="C94" s="20" t="s">
+        <v>559</v>
+      </c>
+      <c r="D94" s="3" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="16" t="s">
+        <v>561</v>
+      </c>
+      <c r="B95" s="19" t="s">
+        <v>562</v>
+      </c>
+      <c r="C95" s="5" t="s">
         <v>555</v>
       </c>
-      <c r="D90" s="19" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" s="19" t="s">
-        <v>560</v>
-      </c>
-      <c r="B91" s="19" t="s">
-        <v>561</v>
-      </c>
-      <c r="C91" s="19" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" s="15" t="s">
+      <c r="D95" s="20" t="s">
         <v>563</v>
       </c>
-      <c r="B92" s="18" t="s">
+    </row>
+    <row r="96">
+      <c r="A96" s="16" t="s">
         <v>564</v>
       </c>
-      <c r="C92" s="3" t="s">
+      <c r="B96" s="19" t="s">
         <v>565</v>
       </c>
-      <c r="D92" s="19" t="s">
+      <c r="C96" s="5" t="s">
         <v>566</v>
       </c>
-    </row>
-    <row r="93">
-      <c r="A93" s="19" t="s">
+      <c r="D96" s="20" t="s">
         <v>567</v>
       </c>
-      <c r="B93" s="18" t="s">
+    </row>
+    <row r="97">
+      <c r="A97" s="16" t="s">
         <v>568</v>
       </c>
-      <c r="C93" s="3" t="s">
+      <c r="B97" s="19" t="s">
         <v>569</v>
       </c>
-      <c r="D93" s="19" t="s">
+      <c r="C97" s="5" t="s">
         <v>570</v>
       </c>
-    </row>
-    <row r="94">
-      <c r="A94" s="15" t="s">
+      <c r="D97" s="20" t="s">
         <v>571</v>
-      </c>
-      <c r="B94" s="6" t="s">
-        <v>572</v>
-      </c>
-      <c r="C94" s="19" t="s">
-        <v>573</v>
-      </c>
-      <c r="D94" s="6" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" s="15" t="s">
-        <v>575</v>
-      </c>
-      <c r="B95" s="18" t="s">
-        <v>576</v>
-      </c>
-      <c r="C95" s="3" t="s">
-        <v>569</v>
-      </c>
-      <c r="D95" s="19" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" s="15" t="s">
-        <v>578</v>
-      </c>
-      <c r="B96" s="18" t="s">
-        <v>579</v>
-      </c>
-      <c r="C96" s="3" t="s">
-        <v>580</v>
-      </c>
-      <c r="D96" s="19" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" s="15" t="s">
-        <v>582</v>
-      </c>
-      <c r="B97" s="18" t="s">
-        <v>583</v>
-      </c>
-      <c r="C97" s="3" t="s">
-        <v>584</v>
-      </c>
-      <c r="D97" s="19" t="s">
-        <v>585</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="8" t="s">
-        <v>586</v>
-      </c>
-      <c r="B98" s="18" t="s">
-        <v>587</v>
-      </c>
-      <c r="C98" s="3" t="s">
-        <v>588</v>
-      </c>
-      <c r="D98" s="19" t="s">
-        <v>589</v>
+        <v>572</v>
+      </c>
+      <c r="B98" s="19" t="s">
+        <v>573</v>
+      </c>
+      <c r="C98" s="5" t="s">
+        <v>574</v>
+      </c>
+      <c r="D98" s="20" t="s">
+        <v>575</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="8" t="s">
-        <v>590</v>
-      </c>
-      <c r="B99" s="18" t="s">
-        <v>591</v>
-      </c>
-      <c r="C99" s="3" t="s">
-        <v>588</v>
-      </c>
-      <c r="D99" s="19" t="s">
-        <v>592</v>
+        <v>576</v>
+      </c>
+      <c r="B99" s="19" t="s">
+        <v>577</v>
+      </c>
+      <c r="C99" s="5" t="s">
+        <v>574</v>
+      </c>
+      <c r="D99" s="20" t="s">
+        <v>578</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="8" t="s">
+        <v>579</v>
+      </c>
+      <c r="B100" s="19" t="s">
+        <v>580</v>
+      </c>
+      <c r="C100" s="5" t="s">
+        <v>574</v>
+      </c>
+      <c r="D100" s="20" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="20" t="s">
+        <v>582</v>
+      </c>
+      <c r="B101" s="20" t="s">
+        <v>583</v>
+      </c>
+      <c r="C101" s="5" t="s">
+        <v>584</v>
+      </c>
+      <c r="D101" s="20" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="16" t="s">
+        <v>586</v>
+      </c>
+      <c r="B102" s="20" t="s">
+        <v>587</v>
+      </c>
+      <c r="C102" s="5" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="16" t="s">
+        <v>588</v>
+      </c>
+      <c r="B103" s="19" t="s">
+        <v>589</v>
+      </c>
+      <c r="C103" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D103" s="20" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="16" t="s">
+        <v>591</v>
+      </c>
+      <c r="B104" s="12" t="s">
+        <v>592</v>
+      </c>
+      <c r="C104" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D104" s="20" t="s">
         <v>593</v>
       </c>
-      <c r="B100" s="18" t="s">
+    </row>
+    <row r="105">
+      <c r="A105" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B105" s="19" t="s">
         <v>594</v>
       </c>
-      <c r="C100" s="3" t="s">
-        <v>588</v>
-      </c>
-      <c r="D100" s="19" t="s">
+      <c r="C105" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D105" s="20" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="101">
-      <c r="A101" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="B101" s="19" t="s">
+    <row r="106">
+      <c r="A106" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="B106" s="42" t="s">
         <v>596</v>
       </c>
-      <c r="C101" s="3" t="s">
+      <c r="C106" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D101" s="19" t="s">
+    </row>
+    <row r="107">
+      <c r="A107" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B107" s="42" t="s">
         <v>597</v>
       </c>
-    </row>
-    <row r="102">
-      <c r="A102" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="B102" s="19" t="s">
+      <c r="C107" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B108" s="20" t="s">
         <v>598</v>
       </c>
-      <c r="C102" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="B103" s="18" t="s">
+      <c r="C108" s="5" t="s">
         <v>599</v>
       </c>
-      <c r="C103" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D103" s="19" t="s">
+      <c r="D108" s="20" t="s">
         <v>600</v>
       </c>
     </row>
-    <row r="104">
-      <c r="A104" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B104" s="5" t="s">
+    <row r="109">
+      <c r="A109" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B109" s="20" t="s">
         <v>601</v>
       </c>
-      <c r="C104" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D104" s="19" t="s">
+      <c r="C109" s="5" t="s">
+        <v>599</v>
+      </c>
+      <c r="D109" s="20" t="s">
         <v>602</v>
       </c>
     </row>
-    <row r="105">
-      <c r="A105" s="18" t="s">
+    <row r="110">
+      <c r="A110" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="B110" s="20" t="s">
+        <v>603</v>
+      </c>
+      <c r="C110" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B105" s="18" t="s">
-        <v>603</v>
-      </c>
-      <c r="C105" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D105" s="19" t="s">
+      <c r="D110" s="20" t="s">
         <v>604</v>
       </c>
     </row>
-    <row r="106">
-      <c r="A106" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="B106" s="46" t="s">
+    <row r="111">
+      <c r="A111" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="B111" s="20" t="s">
         <v>605</v>
       </c>
-      <c r="C106" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="B107" s="46" t="s">
+      <c r="C111" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D111" s="20" t="s">
         <v>606</v>
       </c>
-      <c r="C107" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" s="18" t="s">
+    </row>
+    <row r="112">
+      <c r="A112" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="B108" s="19" t="s">
+      <c r="B112" s="43" t="s">
         <v>607</v>
       </c>
-      <c r="C108" s="3" t="s">
+      <c r="C112" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D112" s="20" t="s">
         <v>608</v>
       </c>
-      <c r="D108" s="19" t="s">
+    </row>
+    <row r="113">
+      <c r="A113" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="B113" s="20" t="s">
         <v>609</v>
       </c>
-    </row>
-    <row r="109">
-      <c r="A109" s="15" t="s">
+      <c r="C113" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B109" s="19" t="s">
+      <c r="D113" s="20" t="s">
         <v>610</v>
       </c>
-      <c r="C109" s="3" t="s">
-        <v>608</v>
-      </c>
-      <c r="D109" s="19" t="s">
+    </row>
+    <row r="114">
+      <c r="A114" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="B114" s="19" t="s">
         <v>611</v>
       </c>
-    </row>
-    <row r="110">
-      <c r="A110" s="47" t="s">
-        <v>47</v>
-      </c>
-      <c r="B110" s="19" t="s">
+      <c r="C114" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D114" s="20" t="s">
         <v>612</v>
       </c>
-      <c r="C110" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D110" s="19" t="s">
+    </row>
+    <row r="115">
+      <c r="A115" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="B115" s="32" t="s">
         <v>613</v>
       </c>
-    </row>
-    <row r="111">
-      <c r="A111" s="47" t="s">
-        <v>48</v>
-      </c>
-      <c r="B111" s="19" t="s">
+      <c r="C115" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D115" s="20" t="s">
         <v>614</v>
       </c>
-      <c r="C111" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D111" s="19" t="s">
+    </row>
+    <row r="116">
+      <c r="A116" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="B116" s="20" t="s">
         <v>615</v>
       </c>
-    </row>
-    <row r="112">
-      <c r="A112" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="B112" s="48" t="s">
+      <c r="C116" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D116" s="20" t="s">
         <v>616</v>
       </c>
-      <c r="C112" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D112" s="19" t="s">
+    </row>
+    <row r="117">
+      <c r="A117" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="B117" s="43" t="s">
         <v>617</v>
       </c>
-    </row>
-    <row r="113">
-      <c r="A113" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="B113" s="19" t="s">
+      <c r="C117" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D117" s="20" t="s">
         <v>618</v>
       </c>
-      <c r="C113" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D113" s="19" t="s">
+    </row>
+    <row r="118">
+      <c r="A118" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="B118" s="20" t="s">
         <v>619</v>
       </c>
-    </row>
-    <row r="114">
-      <c r="A114" s="18" t="s">
+      <c r="C118" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D118" s="20" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="B119" s="20" t="s">
+        <v>621</v>
+      </c>
+      <c r="C119" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D119" s="20" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="B120" s="20" t="s">
+        <v>623</v>
+      </c>
+      <c r="C120" s="44" t="s">
+        <v>62</v>
+      </c>
+      <c r="D120" s="20" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="B121" s="19" t="s">
+        <v>625</v>
+      </c>
+      <c r="C121" s="44" t="s">
+        <v>62</v>
+      </c>
+      <c r="D121" s="20" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="B122" s="19" t="s">
+        <v>627</v>
+      </c>
+      <c r="C122" s="44" t="s">
+        <v>62</v>
+      </c>
+      <c r="D122" s="20" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="B123" s="19" t="s">
+        <v>629</v>
+      </c>
+      <c r="C123" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D123" s="20" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="B124" s="20" t="s">
+        <v>631</v>
+      </c>
+      <c r="C124" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D124" s="20" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="B125" s="19" t="s">
+        <v>633</v>
+      </c>
+      <c r="C125" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D125" s="20" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="B126" s="20" t="s">
+        <v>635</v>
+      </c>
+      <c r="C126" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D126" s="20" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="B127" s="19" t="s">
+        <v>637</v>
+      </c>
+      <c r="C127" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="D127" s="20" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="20" t="s">
+        <v>639</v>
+      </c>
+      <c r="B128" s="20" t="s">
+        <v>640</v>
+      </c>
+      <c r="C128" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="D128" s="20" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="20" t="s">
+        <v>642</v>
+      </c>
+      <c r="B129" s="19" t="s">
+        <v>643</v>
+      </c>
+      <c r="C129" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="D129" s="20" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="20" t="s">
+        <v>645</v>
+      </c>
+      <c r="B130" s="19" t="s">
+        <v>646</v>
+      </c>
+      <c r="C130" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="D130" s="20" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="20" t="s">
+        <v>648</v>
+      </c>
+      <c r="B131" s="19" t="s">
+        <v>649</v>
+      </c>
+      <c r="C131" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="D131" s="20" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="20" t="s">
+        <v>648</v>
+      </c>
+      <c r="B132" s="20" t="s">
+        <v>651</v>
+      </c>
+      <c r="C132" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="D132" s="20" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="20" t="s">
+        <v>653</v>
+      </c>
+      <c r="B133" s="20" t="s">
+        <v>654</v>
+      </c>
+      <c r="C133" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="D133" s="20" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="20" t="s">
+        <v>656</v>
+      </c>
+      <c r="B134" s="19" t="s">
+        <v>657</v>
+      </c>
+      <c r="C134" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="D134" s="20" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="20" t="s">
+        <v>659</v>
+      </c>
+      <c r="B135" s="19" t="s">
+        <v>660</v>
+      </c>
+      <c r="C135" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="D135" s="20" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="20" t="s">
+        <v>662</v>
+      </c>
+      <c r="B136" s="20" t="s">
+        <v>663</v>
+      </c>
+      <c r="C136" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="D136" s="20" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="20" t="s">
+        <v>665</v>
+      </c>
+      <c r="B137" s="19" t="s">
+        <v>666</v>
+      </c>
+      <c r="C137" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="D137" s="20" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="20" t="s">
+        <v>665</v>
+      </c>
+      <c r="B138" s="20" t="s">
+        <v>668</v>
+      </c>
+      <c r="C138" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="D138" s="20" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="B114" s="18" t="s">
-        <v>620</v>
-      </c>
-      <c r="C114" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D114" s="19" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="B115" s="36" t="s">
-        <v>622</v>
-      </c>
-      <c r="C115" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="D115" s="19" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="B116" s="19" t="s">
-        <v>624</v>
-      </c>
-      <c r="C116" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="D116" s="19" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="B117" s="48" t="s">
-        <v>626</v>
-      </c>
-      <c r="C117" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="D117" s="19" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="B118" s="19" t="s">
-        <v>628</v>
-      </c>
-      <c r="C118" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="D118" s="19" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="B119" s="19" t="s">
-        <v>630</v>
-      </c>
-      <c r="C119" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="D119" s="19" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="B120" s="19" t="s">
-        <v>632</v>
-      </c>
-      <c r="C120" s="49" t="s">
-        <v>77</v>
-      </c>
-      <c r="D120" s="19" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="B121" s="18" t="s">
-        <v>634</v>
-      </c>
-      <c r="C121" s="49" t="s">
-        <v>77</v>
-      </c>
-      <c r="D121" s="19" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="B122" s="18" t="s">
-        <v>636</v>
-      </c>
-      <c r="C122" s="49" t="s">
-        <v>77</v>
-      </c>
-      <c r="D122" s="19" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="B123" s="18" t="s">
-        <v>638</v>
-      </c>
-      <c r="C123" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="D123" s="19" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="B124" s="19" t="s">
-        <v>640</v>
-      </c>
-      <c r="C124" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="D124" s="19" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="B125" s="18" t="s">
-        <v>642</v>
-      </c>
-      <c r="C125" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="D125" s="19" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="B126" s="19" t="s">
-        <v>644</v>
-      </c>
-      <c r="C126" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="D126" s="19" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" s="15" t="s">
-        <v>118</v>
-      </c>
-      <c r="B127" s="18" t="s">
-        <v>646</v>
-      </c>
-      <c r="C127" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="D127" s="19" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" s="19" t="s">
-        <v>648</v>
-      </c>
-      <c r="B128" s="19" t="s">
-        <v>649</v>
-      </c>
-      <c r="C128" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="D128" s="19" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" s="19" t="s">
-        <v>651</v>
-      </c>
-      <c r="B129" s="18" t="s">
-        <v>652</v>
-      </c>
-      <c r="C129" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="D129" s="19" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" s="19" t="s">
-        <v>654</v>
-      </c>
-      <c r="B130" s="18" t="s">
-        <v>655</v>
-      </c>
-      <c r="C130" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="D130" s="19" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" s="19" t="s">
-        <v>657</v>
-      </c>
-      <c r="B131" s="18" t="s">
-        <v>658</v>
-      </c>
-      <c r="C131" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="D131" s="19" t="s">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" s="19" t="s">
-        <v>657</v>
-      </c>
-      <c r="B132" s="19" t="s">
-        <v>660</v>
-      </c>
-      <c r="C132" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="D132" s="19" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" s="19" t="s">
-        <v>662</v>
-      </c>
-      <c r="B133" s="19" t="s">
-        <v>663</v>
-      </c>
-      <c r="C133" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="D133" s="19" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" s="19" t="s">
-        <v>665</v>
-      </c>
-      <c r="B134" s="18" t="s">
-        <v>666</v>
-      </c>
-      <c r="C134" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="D134" s="19" t="s">
-        <v>667</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" s="19" t="s">
-        <v>668</v>
-      </c>
-      <c r="B135" s="18" t="s">
-        <v>669</v>
-      </c>
-      <c r="C135" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="D135" s="19" t="s">
+      <c r="B139" s="20" t="s">
         <v>670</v>
       </c>
-    </row>
-    <row r="136">
-      <c r="A136" s="19" t="s">
+      <c r="C139" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="D139" s="20" t="s">
         <v>671</v>
       </c>
-      <c r="B136" s="19" t="s">
+    </row>
+    <row r="140">
+      <c r="A140" s="16" t="s">
+        <v>172</v>
+      </c>
+      <c r="B140" s="20" t="s">
         <v>672</v>
       </c>
-      <c r="C136" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="D136" s="19" t="s">
+      <c r="C140" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="D140" s="20" t="s">
         <v>673</v>
       </c>
     </row>
-    <row r="137">
-      <c r="A137" s="19" t="s">
+    <row r="141">
+      <c r="A141" s="16" t="s">
+        <v>230</v>
+      </c>
+      <c r="B141" s="12" t="s">
         <v>674</v>
       </c>
-      <c r="B137" s="18" t="s">
+      <c r="C141" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="D141" s="20" t="s">
         <v>675</v>
-      </c>
-      <c r="C137" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="D137" s="19" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" s="19" t="s">
-        <v>674</v>
-      </c>
-      <c r="B138" s="19" t="s">
-        <v>677</v>
-      </c>
-      <c r="C138" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="D138" s="19" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="B139" s="19" t="s">
-        <v>679</v>
-      </c>
-      <c r="C139" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="D139" s="19" t="s">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" s="15" t="s">
-        <v>186</v>
-      </c>
-      <c r="B140" s="19" t="s">
-        <v>681</v>
-      </c>
-      <c r="C140" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="D140" s="19" t="s">
-        <v>682</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" s="15" t="s">
-        <v>244</v>
-      </c>
-      <c r="B141" s="5" t="s">
-        <v>683</v>
-      </c>
-      <c r="C141" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="D141" s="19" t="s">
-        <v>684</v>
       </c>
     </row>
   </sheetData>

--- a/curation_of_classes/cell_classes.xlsx
+++ b/curation_of_classes/cell_classes.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1101" uniqueCount="676">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1106" uniqueCount="692">
   <si>
     <t>label</t>
   </si>
@@ -38,163 +38,7 @@
     <t>instance of</t>
   </si>
   <si>
-    <t>mouse lamina terminalis Plvap+ endothelial cell</t>
-  </si>
-  <si>
-    <t>mouse endothelial cell</t>
-  </si>
-  <si>
-    <t>Q100560052</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mouse PDYN+ neurons </t>
-  </si>
-  <si>
-    <t>mouse neuron</t>
-  </si>
-  <si>
-    <t>mouse PDYN-positive neurons</t>
-  </si>
-  <si>
-    <t>mouse RXFP1+ neurons</t>
-  </si>
-  <si>
-    <t>mouse RXFP1-positive neurons</t>
-  </si>
-  <si>
-    <t>mouse olfactory receptor neuron</t>
-  </si>
-  <si>
-    <t>Q460276</t>
-  </si>
-  <si>
-    <t>Q36439895</t>
-  </si>
-  <si>
-    <t>mouse immature olfactory receptor neuron</t>
-  </si>
-  <si>
-    <t>Immature OSN</t>
-  </si>
-  <si>
-    <t>mouse mature olfactory receptor neuron</t>
-  </si>
-  <si>
-    <t>ganglionic eminence cell</t>
-  </si>
-  <si>
-    <t>cell</t>
-  </si>
-  <si>
-    <t>Q50420532</t>
-  </si>
-  <si>
-    <t>Q4133185</t>
-  </si>
-  <si>
-    <t>lateral ganglionic eminence cell</t>
-  </si>
-  <si>
-    <t>Q107044272</t>
-  </si>
-  <si>
-    <t>caudal ganglionic eminence cell</t>
-  </si>
-  <si>
-    <t>Q107044275</t>
-  </si>
-  <si>
-    <t>medial ganglionic eminence cell</t>
-  </si>
-  <si>
-    <t>Q107044267</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mouse Pvalb- precursor ganglionic eminence cell </t>
-  </si>
-  <si>
-    <t xml:space="preserve">mouse Sst- precursor ganglionic eminence cell </t>
-  </si>
-  <si>
-    <t>human neural progenitor cell</t>
-  </si>
-  <si>
-    <t>Q23008986</t>
-  </si>
-  <si>
-    <t>Q52655768</t>
-  </si>
-  <si>
-    <t>outer radial glial cell</t>
-  </si>
-  <si>
-    <t>Q4387286</t>
-  </si>
-  <si>
-    <t>outer radial glia</t>
-  </si>
-  <si>
-    <t>human outer radial glial cell</t>
-  </si>
-  <si>
-    <t>human outer radial glia</t>
-  </si>
-  <si>
-    <t>human intermediate progenitor cell</t>
-  </si>
-  <si>
-    <t>Q55614525</t>
-  </si>
-  <si>
-    <t>erythro-myeloid progenitor cell</t>
-  </si>
-  <si>
-    <t>progenitor cell</t>
-  </si>
-  <si>
-    <t>Q91763038</t>
-  </si>
-  <si>
-    <t>EMP</t>
-  </si>
-  <si>
-    <t>human CTHRC1+ pathological fibroblast</t>
-  </si>
-  <si>
-    <t xml:space="preserve">human  fibroblast </t>
-  </si>
-  <si>
-    <t>Q107128138</t>
-  </si>
-  <si>
-    <t>pFBs |  CTHRC1+ fibroblast</t>
-  </si>
-  <si>
-    <t>damage-associated transient progenitor</t>
-  </si>
-  <si>
-    <t>DATPs | alveolar differentiation intermediate | ADI | pre-AT1 transitional cell state | PATS</t>
-  </si>
-  <si>
-    <t>alveolar type 2 cell</t>
-  </si>
-  <si>
-    <t>cell state</t>
-  </si>
-  <si>
-    <t>human damage-associated transient progenitor</t>
-  </si>
-  <si>
-    <t>human MAIT cell</t>
-  </si>
-  <si>
-    <t>Q6931258</t>
-  </si>
-  <si>
-    <t>Q107158224</t>
-  </si>
-  <si>
-    <t>seminal vesicle cell</t>
+    <t>prostate luminal cell</t>
   </si>
   <si>
     <t>epithelial cell</t>
@@ -203,19 +47,7 @@
     <t>Q94473592</t>
   </si>
   <si>
-    <t>Q217259</t>
-  </si>
-  <si>
-    <t>mouse seminal vesicle cell</t>
-  </si>
-  <si>
-    <t>prostate basal cell</t>
-  </si>
-  <si>
     <t>Q9625</t>
-  </si>
-  <si>
-    <t>prostate luminal cell</t>
   </si>
   <si>
     <t>mouse prostate luminal cell</t>
@@ -378,6 +210,9 @@
     <t>fibroblast-like cell</t>
   </si>
   <si>
+    <t>cell</t>
+  </si>
+  <si>
     <t>brain fibroblast-like cell</t>
   </si>
   <si>
@@ -385,6 +220,9 @@
   </si>
   <si>
     <t>ventricular radial glia</t>
+  </si>
+  <si>
+    <t>Q4387286</t>
   </si>
   <si>
     <t>Q46852287</t>
@@ -532,6 +370,12 @@
     <t>ABC cells | CD11c+T-bet+  B  cell</t>
   </si>
   <si>
+    <t>human MAIT cell</t>
+  </si>
+  <si>
+    <t>Q6931258</t>
+  </si>
+  <si>
     <t>human ILC3 cell</t>
   </si>
   <si>
@@ -675,6 +519,9 @@
     <t>yolk sac-derived myeloid-biased progenitor</t>
   </si>
   <si>
+    <t>progenitor cell</t>
+  </si>
+  <si>
     <t>Q96136775</t>
   </si>
   <si>
@@ -831,6 +678,90 @@
     <t>LTi-like ILC3</t>
   </si>
   <si>
+    <t>thymus-resident type-2 innate lymphoid cell</t>
+  </si>
+  <si>
+    <t>Q30314227</t>
+  </si>
+  <si>
+    <t>Q59066334</t>
+  </si>
+  <si>
+    <t>thymus</t>
+  </si>
+  <si>
+    <t>mouse medullary thymic epithelial cell</t>
+  </si>
+  <si>
+    <t>Q106355225</t>
+  </si>
+  <si>
+    <t>mouse mTEC</t>
+  </si>
+  <si>
+    <t>mTEC I</t>
+  </si>
+  <si>
+    <t>mTEC II</t>
+  </si>
+  <si>
+    <t>mTEC III</t>
+  </si>
+  <si>
+    <t>mTEC IV</t>
+  </si>
+  <si>
+    <t>tuft-like mTEC</t>
+  </si>
+  <si>
+    <t>mouse tuft-like mTEC</t>
+  </si>
+  <si>
+    <t>renal pericyte</t>
+  </si>
+  <si>
+    <t>pericyte</t>
+  </si>
+  <si>
+    <t>Q59770869</t>
+  </si>
+  <si>
+    <t>kidney</t>
+  </si>
+  <si>
+    <t>medullary collecting duct cell</t>
+  </si>
+  <si>
+    <t>Q11706252</t>
+  </si>
+  <si>
+    <t>paranephric body adipocyte</t>
+  </si>
+  <si>
+    <t>adipocyte</t>
+  </si>
+  <si>
+    <t>PBA</t>
+  </si>
+  <si>
+    <t>Q7135465</t>
+  </si>
+  <si>
+    <t>proximal tubule S1/S2 cell</t>
+  </si>
+  <si>
+    <t>Q101062469</t>
+  </si>
+  <si>
+    <t>Q2916078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">proximal tubule S3 type 1 cell </t>
+  </si>
+  <si>
+    <t>proximal tubule S3 type 2 cell</t>
+  </si>
+  <si>
     <t>cell class</t>
   </si>
   <si>
@@ -1033,9 +964,6 @@
   </si>
   <si>
     <t>"fibroblast type 2 (Fb2) cells (PI16, FN1, FBN1)"</t>
-  </si>
-  <si>
-    <t>mouse tuft-like mTEC</t>
   </si>
   <si>
     <t>DCLK1 or POU2F3,</t>
@@ -1792,6 +1720,9 @@
     <t>Ucma+</t>
   </si>
   <si>
+    <t>Q100560052</t>
+  </si>
+  <si>
     <t>" both CVOs contain a specialized LT astrocyte class labelled by Ucma "</t>
   </si>
   <si>
@@ -1804,16 +1735,28 @@
     <t>"Etv1, a genetic marker that labels dehydration-sensitive neurons"</t>
   </si>
   <si>
+    <t>mouse lamina terminalis Plvap+ endothelial cell</t>
+  </si>
+  <si>
     <t>Plvap</t>
   </si>
   <si>
     <t>"both the SFO and the OVLT harbour a specialized endothelial cell class that is labelled by the expression of Plvap "</t>
   </si>
   <si>
+    <t xml:space="preserve">mouse PDYN+ neurons </t>
+  </si>
+  <si>
     <t>Pdyn</t>
   </si>
   <si>
+    <t>mouse RXFP1+ neurons</t>
+  </si>
+  <si>
     <t>Rxfp1</t>
+  </si>
+  <si>
+    <t>mouse immature olfactory receptor neuron</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -1826,48 +1769,81 @@
     <t>"Immature  OSN,  Gap43  (growth associated   protein   43)   and/or   Gng8 "</t>
   </si>
   <si>
+    <t>mouse mature olfactory receptor neuron</t>
+  </si>
+  <si>
     <t>Omp,  Gnal,  Adcy3,  Cnga2 ,  and  Cnga</t>
   </si>
   <si>
     <t>" Mature  OSN, Omp  and  four  olfactory  sensory  transduction  molecules  downstream of odorant receptors: Gnal,  Adcy3,  Cnga2 ,  and  Cnga"</t>
   </si>
   <si>
+    <t xml:space="preserve">mouse Pvalb- precursor ganglionic eminence cell </t>
+  </si>
+  <si>
     <t>Mef2c, Erbb4, Plcxd3</t>
   </si>
   <si>
+    <t>Q50420532</t>
+  </si>
+  <si>
     <t>"early marker genes for Pvalb neurons: Mef2c, Erbb4, Plcxd3"</t>
   </si>
   <si>
+    <t xml:space="preserve">mouse Sst- precursor ganglionic eminence cell </t>
+  </si>
+  <si>
     <t>Sst, Tspan7, Satb1</t>
   </si>
   <si>
     <t>"early marker genes for Sst neurons: Sst, Tspan7, Satb1;"</t>
   </si>
   <si>
+    <t>human neural progenitor cell</t>
+  </si>
+  <si>
     <t>SFRP1, RBFOX1</t>
   </si>
   <si>
+    <t>Q52655768</t>
+  </si>
+  <si>
     <t>"we identified SFRP1 and RBFOX1 as markers of NPCs and excitatory neurons"</t>
   </si>
   <si>
+    <t>human outer radial glial cell</t>
+  </si>
+  <si>
     <t>HOPX, FAM107A and TNC</t>
   </si>
   <si>
     <t>"HOPX, FAM107A and TNC, which have been identified as markers of outer radial glia (oRG)"</t>
   </si>
   <si>
+    <t>human intermediate progenitor cell</t>
+  </si>
+  <si>
     <t>NHLH2, TP53I11 and PPP1R17</t>
   </si>
   <si>
     <t>"NHLH2, TP53I11 and PPP1R17 (...) identify new markers for IPCs"</t>
   </si>
   <si>
+    <t>human CTHRC1+ pathological fibroblast</t>
+  </si>
+  <si>
     <t>CTHRC1, COL1A1 and COL3A1</t>
   </si>
   <si>
+    <t>Q107128138</t>
+  </si>
+  <si>
     <t>"pFBs strongly expressed CTHRC1 (....) and genes of pathological ECM3, including COL1A1 and COL3A1"</t>
   </si>
   <si>
+    <t>human damage-associated transient progenitor</t>
+  </si>
+  <si>
     <t>KRT8, CLDN4 and CDKN1A</t>
   </si>
   <si>
@@ -1875,6 +1851,9 @@
   </si>
   <si>
     <t>SLCA4A10, KLRB1</t>
+  </si>
+  <si>
+    <t>Q107158224</t>
   </si>
   <si>
     <t>"mucosal-associatedinvariant T cells express the marker genes SLCA4A10 and KLRB170"</t>
@@ -2050,6 +2029,75 @@
   <si>
     <t>" perivascular macrophages (MRC1+, which encodes macrophage-specific mannose 
 receptor CD20634)"</t>
+  </si>
+  <si>
+    <t>mouse mTEC I</t>
+  </si>
+  <si>
+    <t>Itga6 and Sca1</t>
+  </si>
+  <si>
+    <t>" mTEC I is characterized by high expression of Itga6 and Sca1 (also known as Ly6a)"</t>
+  </si>
+  <si>
+    <t>mouse mTEC II</t>
+  </si>
+  <si>
+    <t>Aire, Fezf2, Cd40, H2-Aa or Cd74</t>
+  </si>
+  <si>
+    <t>"mTEC II population is characterized by specific expression of the canonical markers of mature mTECs, including high expression of Aire, Fezf2, Cd40, H2-Aa or Cd74 "</t>
+  </si>
+  <si>
+    <t>mouse mTEC III</t>
+  </si>
+  <si>
+    <t>Pigr, Ly6d, Spink5, Ivl and Krt10</t>
+  </si>
+  <si>
+    <t>"mTEC III represents a heterogeneous population expressing several unique genes (Pigr, Ly6d, Spink5, Ivl and Krt10)"</t>
+  </si>
+  <si>
+    <t>mouse mTEC IV</t>
+  </si>
+  <si>
+    <t>Lrmp, Avil, Trpm5, Dclk1, Gng13, L1cam and Sox9</t>
+  </si>
+  <si>
+    <t>"the mTEC IV population does not express any classical mTEC or cTEC markers, but rather a unique set of genes such as Lrmp, Avil, Trpm5, Dclk1, Gng13, L1cam and Sox9 "</t>
+  </si>
+  <si>
+    <t>mouse proximal tubule S1/S2 cell</t>
+  </si>
+  <si>
+    <t>" S1/S2 cells (Slc5a12+, Gatm+, Alpl+, and Slc34a1+)"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mouse proximal tubule S3 type 1 cell </t>
+  </si>
+  <si>
+    <t>Slc34a1+ and Atp11a+</t>
+  </si>
+  <si>
+    <t>"S3 type 1 cells (Slc34a1+ and Atp11a+)"</t>
+  </si>
+  <si>
+    <t>mouse proximal tubule S3 type 2 cell</t>
+  </si>
+  <si>
+    <t>Atp11a+ and Rnf24+</t>
+  </si>
+  <si>
+    <t>"S3 type 2 cells (Atp11a+ and Rnf 24+)"</t>
+  </si>
+  <si>
+    <t>mouse renal pericyte</t>
+  </si>
+  <si>
+    <t>Daam2</t>
+  </si>
+  <si>
+    <t>"New marker gene s were identified, such as Daam2 for renal pericytes"</t>
   </si>
 </sst>
 </file>
@@ -2073,33 +2121,13 @@
     </font>
     <font>
       <sz val="11.0"/>
-      <color rgb="FF000000"/>
-      <name val="&quot;Arial&quot;"/>
+      <color rgb="FFCE9178"/>
+      <name val="&quot;Droid Sans Mono&quot;"/>
     </font>
     <font>
       <sz val="11.0"/>
       <color rgb="FF000000"/>
-    </font>
-    <font>
-      <sz val="11.0"/>
-      <color rgb="FFCE9178"/>
-      <name val="&quot;Droid Sans Mono&quot;"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="24.0"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="11.0"/>
-      <color rgb="FFF7981D"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="11.0"/>
-      <color theme="1"/>
-      <name val="Arial"/>
+      <name val="&quot;Arial&quot;"/>
     </font>
     <font>
       <b/>
@@ -2114,11 +2142,6 @@
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="11.0"/>
-      <color rgb="FFD4D4D4"/>
-      <name val="&quot;Droid Sans Mono&quot;"/>
-    </font>
-    <font>
       <b/>
       <sz val="11.0"/>
       <color rgb="FF000000"/>
@@ -2130,7 +2153,23 @@
       <name val="Serif"/>
     </font>
     <font>
+      <sz val="11.0"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <color rgb="FFD4D4D4"/>
+      <name val="&quot;Droid Sans Mono&quot;"/>
+    </font>
+    <font>
       <sz val="14.0"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="24.0"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
@@ -2233,6 +2272,11 @@
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="11.0"/>
+      <color rgb="FFF7981D"/>
+      <name val="Arial"/>
+    </font>
+    <font>
       <sz val="12.0"/>
       <color theme="1"/>
       <name val="Serif"/>
@@ -2247,6 +2291,7 @@
       <color rgb="FFCE9178"/>
       <name val="&quot;docs-Droid Sans Mono&quot;"/>
     </font>
+    <font/>
   </fonts>
   <fills count="4">
     <fill>
@@ -2274,7 +2319,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="44">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -2282,42 +2327,41 @@
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -2350,28 +2394,28 @@
     <xf borderId="0" fillId="0" fontId="23" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="24" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="25" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
     <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="26" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="3" fontId="24" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="27" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="3" fontId="25" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="28" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="26" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="27" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="28" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="29" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -2383,15 +2427,13 @@
     <xf borderId="0" fillId="0" fontId="31" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="32" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="33" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
+    <xf borderId="0" fillId="0" fontId="33" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="34" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
@@ -2627,7 +2669,7 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="31.43"/>
+    <col customWidth="1" min="1" max="1" width="43.71"/>
     <col customWidth="1" min="2" max="2" width="29.86"/>
     <col customWidth="1" min="3" max="3" width="12.0"/>
     <col customWidth="1" min="5" max="5" width="19.57"/>
@@ -2676,20 +2718,22 @@
       <c r="X1" s="2"/>
     </row>
     <row r="2">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
@@ -2709,21 +2753,21 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="6"/>
-      <c r="E3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
@@ -2743,21 +2787,21 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
@@ -2777,19 +2821,23 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
+        <v>12</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="4"/>
+      <c r="E5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
@@ -2808,22 +2856,24 @@
       <c r="X5" s="2"/>
     </row>
     <row r="6">
-      <c r="A6" s="3" t="s">
-        <v>19</v>
+      <c r="A6" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
+        <v>12</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="4"/>
+      <c r="E6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
@@ -2843,21 +2893,23 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="4"/>
+      <c r="E7" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H7" s="6"/>
+      <c r="F7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
@@ -2877,21 +2929,21 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
+        <v>20</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
       <c r="F8" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
+        <v>11</v>
+      </c>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
@@ -2910,22 +2962,22 @@
       <c r="X8" s="2"/>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="s">
-        <v>26</v>
+      <c r="A9" s="5" t="s">
+        <v>21</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
+        <v>13</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
       <c r="F9" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
+        <v>11</v>
+      </c>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
@@ -2945,21 +2997,19 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
@@ -2979,21 +3029,21 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
@@ -3012,24 +3062,20 @@
       <c r="X11" s="2"/>
     </row>
     <row r="12">
-      <c r="A12" s="8" t="str">
-        <f t="shared" ref="A12:A15" si="1">CONCATENATE("mouse ",A8)</f>
-        <v>mouse ganglionic eminence cell</v>
-      </c>
-      <c r="B12" s="6" t="str">
-        <f t="shared" ref="B12:B15" si="2">A8</f>
-        <v>ganglionic eminence cell</v>
-      </c>
-      <c r="C12" s="5" t="s">
+      <c r="A12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
@@ -3048,24 +3094,20 @@
       <c r="X12" s="2"/>
     </row>
     <row r="13">
-      <c r="A13" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>mouse lateral ganglionic eminence cell</v>
-      </c>
-      <c r="B13" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>lateral ganglionic eminence cell</v>
-      </c>
-      <c r="C13" s="5" t="s">
+      <c r="A13" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
@@ -3084,24 +3126,24 @@
       <c r="X13" s="2"/>
     </row>
     <row r="14">
-      <c r="A14" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>mouse caudal ganglionic eminence cell</v>
-      </c>
-      <c r="B14" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>caudal ganglionic eminence cell</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
+      <c r="A14" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
@@ -3120,24 +3162,24 @@
       <c r="X14" s="2"/>
     </row>
     <row r="15">
-      <c r="A15" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>mouse medial ganglionic eminence cell</v>
-      </c>
-      <c r="B15" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>medial ganglionic eminence cell</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
+      <c r="A15" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
@@ -3156,20 +3198,24 @@
       <c r="X15" s="2"/>
     </row>
     <row r="16">
-      <c r="A16" s="9" t="s">
+      <c r="A16" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
+      <c r="D16" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
@@ -3188,20 +3234,20 @@
       <c r="X16" s="2"/>
     </row>
     <row r="17">
-      <c r="A17" s="9" t="s">
-        <v>33</v>
+      <c r="A17" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
+        <v>39</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
@@ -3221,19 +3267,23 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B18" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
+        <v>41</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D18" s="4"/>
+      <c r="E18" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
@@ -3253,21 +3303,25 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D19" s="6"/>
-      <c r="E19" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
+        <v>41</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
@@ -3287,21 +3341,23 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D20" s="6"/>
+      <c r="D20" s="4"/>
       <c r="E20" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
+        <v>48</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
@@ -3321,19 +3377,25 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
+        <v>50</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
@@ -3352,22 +3414,24 @@
       <c r="X21" s="2"/>
     </row>
     <row r="22">
-      <c r="A22" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="D22" s="6"/>
+      <c r="A22" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D22" s="4"/>
       <c r="E22" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
+        <v>53</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
@@ -3387,21 +3451,25 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="D23" s="6"/>
-      <c r="E23" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
+        <v>52</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
@@ -3420,26 +3488,22 @@
       <c r="X23" s="2"/>
     </row>
     <row r="24">
-      <c r="A24" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="D24" s="6"/>
-      <c r="E24" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="F24" s="6"/>
-      <c r="G24" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>55</v>
-      </c>
+      <c r="A24" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
@@ -3459,19 +3523,23 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="6"/>
+        <v>57</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E25" s="4"/>
+      <c r="F25" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
@@ -3491,19 +3559,21 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B26" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B26" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="C26" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="10"/>
-      <c r="G26" s="6"/>
-      <c r="H26" s="6"/>
+      <c r="C26" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
@@ -3523,21 +3593,23 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C27" s="5" t="s">
+      <c r="C27" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E27" s="4"/>
+      <c r="F27" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="G27" s="6"/>
-      <c r="H27" s="6"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>
@@ -3560,18 +3632,18 @@
         <v>64</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="G28" s="6"/>
-      <c r="H28" s="6"/>
+        <v>65</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
       <c r="I28" s="2"/>
       <c r="J28" s="2"/>
       <c r="K28" s="2"/>
@@ -3590,22 +3662,22 @@
       <c r="X28" s="2"/>
     </row>
     <row r="29">
-      <c r="A29" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
+      <c r="A29" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
       <c r="F29" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="G29" s="6"/>
-      <c r="H29" s="6"/>
+        <v>59</v>
+      </c>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
       <c r="K29" s="2"/>
@@ -3627,19 +3699,21 @@
       <c r="A30" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B30" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
+      <c r="B30" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E30" s="4"/>
       <c r="F30" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="G30" s="6"/>
-      <c r="H30" s="6"/>
+        <v>59</v>
+      </c>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
       <c r="I30" s="2"/>
       <c r="J30" s="2"/>
       <c r="K30" s="2"/>
@@ -3661,19 +3735,19 @@
       <c r="A31" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B31" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="G31" s="6"/>
-      <c r="H31" s="6"/>
+      <c r="B31" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D31" s="4"/>
+      <c r="E31" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4"/>
       <c r="I31" s="2"/>
       <c r="J31" s="2"/>
       <c r="K31" s="2"/>
@@ -3693,21 +3767,19 @@
     </row>
     <row r="32">
       <c r="A32" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="D32" s="6"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="G32" s="6"/>
-      <c r="H32" s="6"/>
+        <v>72</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
       <c r="I32" s="2"/>
       <c r="J32" s="2"/>
       <c r="K32" s="2"/>
@@ -3727,23 +3799,23 @@
     </row>
     <row r="33">
       <c r="A33" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="D33" s="6"/>
+        <v>74</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D33" s="4"/>
       <c r="E33" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="G33" s="6"/>
-      <c r="H33" s="6"/>
+        <v>77</v>
+      </c>
+      <c r="G33" s="4"/>
+      <c r="H33" s="4"/>
       <c r="I33" s="2"/>
       <c r="J33" s="2"/>
       <c r="K33" s="2"/>
@@ -3763,23 +3835,23 @@
     </row>
     <row r="34">
       <c r="A34" s="1" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="D34" s="6"/>
+        <v>74</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D34" s="4"/>
       <c r="E34" s="1" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="G34" s="6"/>
-      <c r="H34" s="6"/>
+        <v>80</v>
+      </c>
+      <c r="G34" s="4"/>
+      <c r="H34" s="4"/>
       <c r="I34" s="2"/>
       <c r="J34" s="2"/>
       <c r="K34" s="2"/>
@@ -3799,23 +3871,21 @@
     </row>
     <row r="35">
       <c r="A35" s="1" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C35" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="D35" s="6"/>
-      <c r="E35" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C35" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="F35" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="G35" s="6"/>
-      <c r="H35" s="6"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="F35" s="4"/>
+      <c r="G35" s="4"/>
+      <c r="H35" s="4"/>
       <c r="I35" s="2"/>
       <c r="J35" s="2"/>
       <c r="K35" s="2"/>
@@ -3835,21 +3905,23 @@
     </row>
     <row r="36">
       <c r="A36" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="D36" s="6"/>
-      <c r="E36" s="6"/>
+        <v>84</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E36" s="4"/>
       <c r="F36" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="G36" s="6"/>
-      <c r="H36" s="6"/>
+        <v>85</v>
+      </c>
+      <c r="G36" s="4"/>
+      <c r="H36" s="4"/>
       <c r="I36" s="2"/>
       <c r="J36" s="2"/>
       <c r="K36" s="2"/>
@@ -3868,22 +3940,24 @@
       <c r="X36" s="2"/>
     </row>
     <row r="37">
-      <c r="A37" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C37" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="G37" s="6"/>
-      <c r="H37" s="6"/>
+      <c r="A37" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E37" s="4"/>
+      <c r="F37" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="G37" s="4"/>
+      <c r="H37" s="4"/>
       <c r="I37" s="2"/>
       <c r="J37" s="2"/>
       <c r="K37" s="2"/>
@@ -3902,20 +3976,22 @@
       <c r="X37" s="2"/>
     </row>
     <row r="38">
-      <c r="A38" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C38" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="D38" s="6"/>
-      <c r="E38" s="6"/>
-      <c r="F38" s="6"/>
-      <c r="G38" s="6"/>
-      <c r="H38" s="6"/>
+      <c r="A38" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="H38" s="4"/>
       <c r="I38" s="2"/>
       <c r="J38" s="2"/>
       <c r="K38" s="2"/>
@@ -3935,21 +4011,23 @@
     </row>
     <row r="39">
       <c r="A39" s="1" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C39" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="D39" s="6"/>
-      <c r="E39" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="F39" s="6"/>
-      <c r="G39" s="6"/>
-      <c r="H39" s="6"/>
+        <v>90</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D39" s="4"/>
+      <c r="E39" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="F39" s="4"/>
+      <c r="G39" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="H39" s="4"/>
       <c r="I39" s="2"/>
       <c r="J39" s="2"/>
       <c r="K39" s="2"/>
@@ -3969,19 +4047,23 @@
     </row>
     <row r="40">
       <c r="A40" s="1" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C40" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="D40" s="6"/>
-      <c r="E40" s="6"/>
-      <c r="F40" s="6"/>
-      <c r="G40" s="6"/>
-      <c r="H40" s="6"/>
+        <v>90</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D40" s="4"/>
+      <c r="E40" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F40" s="4"/>
+      <c r="G40" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="H40" s="4"/>
       <c r="I40" s="2"/>
       <c r="J40" s="2"/>
       <c r="K40" s="2"/>
@@ -4001,19 +4083,25 @@
     </row>
     <row r="41">
       <c r="A41" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="C41" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="D41" s="6"/>
-      <c r="E41" s="6"/>
-      <c r="F41" s="6"/>
-      <c r="G41" s="6"/>
-      <c r="H41" s="6"/>
+        <v>94</v>
+      </c>
+      <c r="B41" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E41" s="4"/>
+      <c r="F41" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="H41" s="4"/>
       <c r="I41" s="2"/>
       <c r="J41" s="2"/>
       <c r="K41" s="2"/>
@@ -4032,24 +4120,26 @@
       <c r="X41" s="2"/>
     </row>
     <row r="42">
-      <c r="A42" s="1" t="s">
-        <v>86</v>
+      <c r="A42" s="5" t="s">
+        <v>95</v>
       </c>
       <c r="B42" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E42" s="4"/>
+      <c r="F42" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="C42" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="D42" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="F42" s="6"/>
-      <c r="G42" s="6"/>
-      <c r="H42" s="6"/>
+      <c r="G42" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="H42" s="4"/>
       <c r="I42" s="2"/>
       <c r="J42" s="2"/>
       <c r="K42" s="2"/>
@@ -4068,24 +4158,26 @@
       <c r="X42" s="2"/>
     </row>
     <row r="43">
-      <c r="A43" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="C43" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="D43" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="F43" s="6"/>
-      <c r="G43" s="6"/>
-      <c r="H43" s="6"/>
+      <c r="A43" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E43" s="4"/>
+      <c r="F43" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="H43" s="4"/>
       <c r="I43" s="2"/>
       <c r="J43" s="2"/>
       <c r="K43" s="2"/>
@@ -4104,24 +4196,26 @@
       <c r="X43" s="2"/>
     </row>
     <row r="44">
-      <c r="A44" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="C44" s="5" t="s">
+      <c r="A44" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="B44" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="D44" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="F44" s="6"/>
-      <c r="G44" s="6"/>
-      <c r="H44" s="6"/>
+      <c r="C44" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E44" s="4"/>
+      <c r="F44" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="H44" s="4"/>
       <c r="I44" s="2"/>
       <c r="J44" s="2"/>
       <c r="K44" s="2"/>
@@ -4140,20 +4234,26 @@
       <c r="X44" s="2"/>
     </row>
     <row r="45">
-      <c r="A45" s="1" t="s">
-        <v>94</v>
+      <c r="A45" s="5" t="s">
+        <v>98</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="C45" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="D45" s="6"/>
-      <c r="E45" s="6"/>
-      <c r="F45" s="6"/>
-      <c r="G45" s="6"/>
-      <c r="H45" s="6"/>
+        <v>89</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E45" s="4"/>
+      <c r="F45" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="G45" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="H45" s="4"/>
       <c r="I45" s="2"/>
       <c r="J45" s="2"/>
       <c r="K45" s="2"/>
@@ -4172,24 +4272,26 @@
       <c r="X45" s="2"/>
     </row>
     <row r="46">
-      <c r="A46" s="1" t="s">
+      <c r="A46" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E46" s="4"/>
+      <c r="F46" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="G46" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="B46" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="C46" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="D46" s="6"/>
-      <c r="E46" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="F46" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="G46" s="6"/>
-      <c r="H46" s="6"/>
+      <c r="H46" s="4"/>
       <c r="I46" s="2"/>
       <c r="J46" s="2"/>
       <c r="K46" s="2"/>
@@ -4208,26 +4310,20 @@
       <c r="X46" s="2"/>
     </row>
     <row r="47">
-      <c r="A47" s="1" t="s">
+      <c r="A47" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="B47" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="B47" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="C47" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="D47" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="F47" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="G47" s="6"/>
-      <c r="H47" s="6"/>
+      <c r="C47" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D47" s="4"/>
+      <c r="E47" s="4"/>
+      <c r="F47" s="5"/>
+      <c r="G47" s="4"/>
+      <c r="H47" s="4"/>
       <c r="I47" s="2"/>
       <c r="J47" s="2"/>
       <c r="K47" s="2"/>
@@ -4246,24 +4342,20 @@
       <c r="X47" s="2"/>
     </row>
     <row r="48">
-      <c r="A48" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="B48" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="C48" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="D48" s="6"/>
-      <c r="E48" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F48" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="G48" s="6"/>
-      <c r="H48" s="6"/>
+      <c r="A48" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D48" s="4"/>
+      <c r="E48" s="4"/>
+      <c r="F48" s="4"/>
+      <c r="G48" s="4"/>
+      <c r="H48" s="4"/>
       <c r="I48" s="2"/>
       <c r="J48" s="2"/>
       <c r="K48" s="2"/>
@@ -4282,26 +4374,24 @@
       <c r="X48" s="2"/>
     </row>
     <row r="49">
-      <c r="A49" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="B49" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="C49" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="D49" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>107</v>
-      </c>
+      <c r="A49" s="4" t="str">
+        <f t="shared" ref="A49:A62" si="1">CONCAT("mouse ", A33)</f>
+        <v>mouse spiral ganglion neuron</v>
+      </c>
+      <c r="B49" s="4" t="str">
+        <f t="shared" ref="B49:B62" si="2">A33</f>
+        <v>spiral ganglion neuron</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D49" s="4"/>
+      <c r="E49" s="4"/>
       <c r="F49" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="G49" s="6"/>
-      <c r="H49" s="6"/>
+        <v>77</v>
+      </c>
+      <c r="G49" s="4"/>
+      <c r="H49" s="4"/>
       <c r="I49" s="2"/>
       <c r="J49" s="2"/>
       <c r="K49" s="2"/>
@@ -4320,24 +4410,24 @@
       <c r="X49" s="2"/>
     </row>
     <row r="50">
-      <c r="A50" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="C50" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="D50" s="6"/>
-      <c r="E50" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="F50" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="G50" s="6"/>
-      <c r="H50" s="6"/>
+      <c r="A50" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>mouse dorsal root ganglia neuron</v>
+      </c>
+      <c r="B50" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>dorsal root ganglia neuron</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D50" s="4"/>
+      <c r="E50" s="4"/>
+      <c r="F50" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G50" s="4"/>
+      <c r="H50" s="4"/>
       <c r="I50" s="2"/>
       <c r="J50" s="2"/>
       <c r="K50" s="2"/>
@@ -4356,26 +4446,22 @@
       <c r="X50" s="2"/>
     </row>
     <row r="51">
-      <c r="A51" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="C51" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="D51" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="F51" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="G51" s="6"/>
-      <c r="H51" s="6"/>
+      <c r="A51" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>mouse glial precursor</v>
+      </c>
+      <c r="B51" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>glial precursor</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D51" s="4"/>
+      <c r="E51" s="4"/>
+      <c r="F51" s="4"/>
+      <c r="G51" s="4"/>
+      <c r="H51" s="4"/>
       <c r="I51" s="2"/>
       <c r="J51" s="2"/>
       <c r="K51" s="2"/>
@@ -4394,22 +4480,26 @@
       <c r="X51" s="2"/>
     </row>
     <row r="52">
-      <c r="A52" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="B52" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="C52" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="D52" s="6"/>
-      <c r="E52" s="6"/>
+      <c r="A52" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>mouse dorsal root ganglia glial precursor</v>
+      </c>
+      <c r="B52" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>dorsal root ganglia glial precursor</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E52" s="4"/>
       <c r="F52" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="G52" s="6"/>
-      <c r="H52" s="6"/>
+        <v>85</v>
+      </c>
+      <c r="G52" s="4"/>
+      <c r="H52" s="4"/>
       <c r="I52" s="2"/>
       <c r="J52" s="2"/>
       <c r="K52" s="2"/>
@@ -4428,24 +4518,26 @@
       <c r="X52" s="2"/>
     </row>
     <row r="53">
-      <c r="A53" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="C53" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="D53" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="E53" s="6"/>
-      <c r="F53" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="G53" s="6"/>
-      <c r="H53" s="6"/>
+      <c r="A53" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>mouse cochlear glial precursor</v>
+      </c>
+      <c r="B53" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>cochlear glial precursor</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E53" s="4"/>
+      <c r="F53" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="G53" s="4"/>
+      <c r="H53" s="4"/>
       <c r="I53" s="2"/>
       <c r="J53" s="2"/>
       <c r="K53" s="2"/>
@@ -4464,22 +4556,22 @@
       <c r="X53" s="2"/>
     </row>
     <row r="54">
-      <c r="A54" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B54" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="C54" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="D54" s="6"/>
-      <c r="E54" s="6"/>
-      <c r="F54" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="G54" s="6"/>
-      <c r="H54" s="6"/>
+      <c r="A54" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>mouse immature Schwann cell</v>
+      </c>
+      <c r="B54" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>immature Schwann cell</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D54" s="4"/>
+      <c r="E54" s="4"/>
+      <c r="F54" s="4"/>
+      <c r="G54" s="4"/>
+      <c r="H54" s="4"/>
       <c r="I54" s="2"/>
       <c r="J54" s="2"/>
       <c r="K54" s="2"/>
@@ -4498,24 +4590,22 @@
       <c r="X54" s="2"/>
     </row>
     <row r="55">
-      <c r="A55" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="C55" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="D55" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="E55" s="6"/>
-      <c r="F55" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="G55" s="6"/>
-      <c r="H55" s="6"/>
+      <c r="A55" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>mouse myelinating Schwann cell</v>
+      </c>
+      <c r="B55" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>myelinating Schwann cell</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D55" s="4"/>
+      <c r="E55" s="4"/>
+      <c r="F55" s="4"/>
+      <c r="G55" s="4"/>
+      <c r="H55" s="4"/>
       <c r="I55" s="2"/>
       <c r="J55" s="2"/>
       <c r="K55" s="2"/>
@@ -4534,22 +4624,22 @@
       <c r="X55" s="2"/>
     </row>
     <row r="56">
-      <c r="A56" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C56" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="D56" s="6"/>
-      <c r="E56" s="6"/>
-      <c r="F56" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="G56" s="6"/>
-      <c r="H56" s="6"/>
+      <c r="A56" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>mouse non-myelinating Schwann cell</v>
+      </c>
+      <c r="B56" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>non-myelinating Schwann cell</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D56" s="4"/>
+      <c r="E56" s="4"/>
+      <c r="F56" s="4"/>
+      <c r="G56" s="4"/>
+      <c r="H56" s="4"/>
       <c r="I56" s="2"/>
       <c r="J56" s="2"/>
       <c r="K56" s="2"/>
@@ -4568,22 +4658,26 @@
       <c r="X56" s="2"/>
     </row>
     <row r="57">
-      <c r="A57" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="B57" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="C57" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="D57" s="6"/>
-      <c r="E57" s="6"/>
-      <c r="F57" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="G57" s="6"/>
-      <c r="H57" s="6"/>
+      <c r="A57" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>mouse cochlear immature Schwann cell</v>
+      </c>
+      <c r="B57" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>cochlear immature Schwann cell</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E57" s="4"/>
+      <c r="F57" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="G57" s="4"/>
+      <c r="H57" s="4"/>
       <c r="I57" s="2"/>
       <c r="J57" s="2"/>
       <c r="K57" s="2"/>
@@ -4602,24 +4696,26 @@
       <c r="X57" s="2"/>
     </row>
     <row r="58">
-      <c r="A58" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="B58" s="14" t="s">
-        <v>121</v>
-      </c>
-      <c r="C58" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="D58" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="E58" s="6"/>
-      <c r="F58" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="G58" s="6"/>
-      <c r="H58" s="6"/>
+      <c r="A58" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>mouse cochlear myelinating Schwann cell</v>
+      </c>
+      <c r="B58" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>cochlear myelinating Schwann cell</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E58" s="4"/>
+      <c r="F58" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="G58" s="4"/>
+      <c r="H58" s="4"/>
       <c r="I58" s="2"/>
       <c r="J58" s="2"/>
       <c r="K58" s="2"/>
@@ -4638,22 +4734,26 @@
       <c r="X58" s="2"/>
     </row>
     <row r="59">
-      <c r="A59" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="B59" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="C59" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="D59" s="6"/>
-      <c r="E59" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="F59" s="6"/>
-      <c r="G59" s="6"/>
-      <c r="H59" s="6"/>
+      <c r="A59" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>mouse cochlear non-myelinating Schwann cell</v>
+      </c>
+      <c r="B59" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>cochlear non-myelinating Schwann cell</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E59" s="4"/>
+      <c r="F59" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="G59" s="4"/>
+      <c r="H59" s="4"/>
       <c r="I59" s="2"/>
       <c r="J59" s="2"/>
       <c r="K59" s="2"/>
@@ -4672,20 +4772,26 @@
       <c r="X59" s="2"/>
     </row>
     <row r="60">
-      <c r="A60" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="B60" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="C60" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="D60" s="6"/>
-      <c r="E60" s="6"/>
-      <c r="F60" s="6"/>
-      <c r="G60" s="6"/>
-      <c r="H60" s="6"/>
+      <c r="A60" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>mouse dorsal root immature Schwann cell</v>
+      </c>
+      <c r="B60" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>dorsal root immature Schwann cell</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E60" s="4"/>
+      <c r="F60" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G60" s="4"/>
+      <c r="H60" s="4"/>
       <c r="I60" s="2"/>
       <c r="J60" s="2"/>
       <c r="K60" s="2"/>
@@ -4704,24 +4810,26 @@
       <c r="X60" s="2"/>
     </row>
     <row r="61">
-      <c r="A61" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="C61" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="D61" s="6"/>
-      <c r="E61" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="F61" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="G61" s="6"/>
-      <c r="H61" s="6"/>
+      <c r="A61" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>mouse dorsal root myelinating Schwann cell</v>
+      </c>
+      <c r="B61" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>dorsal root myelinating Schwann cell</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E61" s="4"/>
+      <c r="F61" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="G61" s="4"/>
+      <c r="H61" s="4"/>
       <c r="I61" s="2"/>
       <c r="J61" s="2"/>
       <c r="K61" s="2"/>
@@ -4740,24 +4848,26 @@
       <c r="X61" s="2"/>
     </row>
     <row r="62">
-      <c r="A62" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="C62" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="D62" s="6"/>
-      <c r="E62" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="F62" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="G62" s="6"/>
-      <c r="H62" s="6"/>
+      <c r="A62" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>mouse dorsal root non-myelinating Schwann cell</v>
+      </c>
+      <c r="B62" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>dorsal root non-myelinating Schwann cell</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E62" s="4"/>
+      <c r="F62" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="G62" s="4"/>
+      <c r="H62" s="4"/>
       <c r="I62" s="2"/>
       <c r="J62" s="2"/>
       <c r="K62" s="2"/>
@@ -4776,22 +4886,24 @@
       <c r="X62" s="2"/>
     </row>
     <row r="63">
-      <c r="A63" s="1" t="s">
-        <v>135</v>
+      <c r="A63" s="10" t="s">
+        <v>103</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="C63" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="D63" s="6"/>
-      <c r="E63" s="15" t="s">
-        <v>137</v>
-      </c>
-      <c r="F63" s="6"/>
-      <c r="G63" s="6"/>
-      <c r="H63" s="6"/>
+        <v>65</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="E63" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F63" s="4"/>
+      <c r="G63" s="4"/>
+      <c r="H63" s="4"/>
       <c r="I63" s="2"/>
       <c r="J63" s="2"/>
       <c r="K63" s="2"/>
@@ -4810,24 +4922,24 @@
       <c r="X63" s="2"/>
     </row>
     <row r="64">
-      <c r="A64" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="B64" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="C64" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="D64" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="E64" s="6"/>
-      <c r="F64" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="G64" s="6"/>
-      <c r="H64" s="6"/>
+      <c r="A64" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="B64" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E64" s="2"/>
+      <c r="F64" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="G64" s="2"/>
+      <c r="H64" s="2"/>
       <c r="I64" s="2"/>
       <c r="J64" s="2"/>
       <c r="K64" s="2"/>
@@ -4846,24 +4958,22 @@
       <c r="X64" s="2"/>
     </row>
     <row r="65">
-      <c r="A65" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="B65" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="C65" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="D65" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="E65" s="6"/>
-      <c r="F65" s="15" t="s">
-        <v>141</v>
-      </c>
-      <c r="G65" s="6"/>
-      <c r="H65" s="6"/>
+      <c r="A65" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="B65" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="E65" s="2"/>
+      <c r="F65" s="2"/>
+      <c r="G65" s="2"/>
+      <c r="H65" s="2"/>
       <c r="I65" s="2"/>
       <c r="J65" s="2"/>
       <c r="K65" s="2"/>
@@ -4882,22 +4992,22 @@
       <c r="X65" s="2"/>
     </row>
     <row r="66">
-      <c r="A66" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="B66" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="C66" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="D66" s="6"/>
-      <c r="E66" s="6"/>
-      <c r="F66" s="6"/>
-      <c r="G66" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="H66" s="6"/>
+      <c r="A66" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="B66" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="E66" s="2"/>
+      <c r="F66" s="2"/>
+      <c r="G66" s="2"/>
+      <c r="H66" s="2"/>
       <c r="I66" s="2"/>
       <c r="J66" s="2"/>
       <c r="K66" s="2"/>
@@ -4916,24 +5026,22 @@
       <c r="X66" s="2"/>
     </row>
     <row r="67">
-      <c r="A67" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="C67" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="D67" s="6"/>
-      <c r="E67" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="F67" s="6"/>
-      <c r="G67" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="H67" s="6"/>
+      <c r="A67" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="B67" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="D67" s="2"/>
+      <c r="E67" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="F67" s="2"/>
+      <c r="G67" s="2"/>
+      <c r="H67" s="2"/>
       <c r="I67" s="2"/>
       <c r="J67" s="2"/>
       <c r="K67" s="2"/>
@@ -4952,24 +5060,20 @@
       <c r="X67" s="2"/>
     </row>
     <row r="68">
-      <c r="A68" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="C68" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="D68" s="6"/>
-      <c r="E68" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="F68" s="6"/>
-      <c r="G68" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="H68" s="6"/>
+      <c r="A68" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="B68" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="D68" s="2"/>
+      <c r="E68" s="15"/>
+      <c r="F68" s="2"/>
+      <c r="G68" s="2"/>
+      <c r="H68" s="2"/>
       <c r="I68" s="2"/>
       <c r="J68" s="2"/>
       <c r="K68" s="2"/>
@@ -4988,26 +5092,24 @@
       <c r="X68" s="2"/>
     </row>
     <row r="69">
-      <c r="A69" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="B69" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="C69" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="D69" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="E69" s="6"/>
-      <c r="F69" s="15" t="s">
-        <v>141</v>
-      </c>
-      <c r="G69" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="H69" s="6"/>
+      <c r="A69" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="B69" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="D69" s="2"/>
+      <c r="E69" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="F69" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="G69" s="2"/>
+      <c r="H69" s="2"/>
       <c r="I69" s="2"/>
       <c r="J69" s="2"/>
       <c r="K69" s="2"/>
@@ -5026,26 +5128,20 @@
       <c r="X69" s="2"/>
     </row>
     <row r="70">
-      <c r="A70" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="C70" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="D70" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="E70" s="6"/>
-      <c r="F70" s="15" t="s">
-        <v>141</v>
-      </c>
-      <c r="G70" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="H70" s="6"/>
+      <c r="A70" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="B70" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="D70" s="2"/>
+      <c r="E70" s="2"/>
+      <c r="F70" s="2"/>
+      <c r="G70" s="2"/>
+      <c r="H70" s="2"/>
       <c r="I70" s="2"/>
       <c r="J70" s="2"/>
       <c r="K70" s="2"/>
@@ -5064,26 +5160,20 @@
       <c r="X70" s="2"/>
     </row>
     <row r="71">
-      <c r="A71" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="B71" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="C71" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="D71" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="E71" s="6"/>
-      <c r="F71" s="15" t="s">
-        <v>141</v>
-      </c>
-      <c r="G71" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="H71" s="6"/>
+      <c r="A71" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="B71" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="D71" s="2"/>
+      <c r="E71" s="2"/>
+      <c r="F71" s="2"/>
+      <c r="G71" s="2"/>
+      <c r="H71" s="2"/>
       <c r="I71" s="2"/>
       <c r="J71" s="2"/>
       <c r="K71" s="2"/>
@@ -5102,26 +5192,20 @@
       <c r="X71" s="2"/>
     </row>
     <row r="72">
-      <c r="A72" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="B72" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="C72" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="D72" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="E72" s="6"/>
-      <c r="F72" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="G72" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="H72" s="6"/>
+      <c r="A72" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="B72" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="D72" s="2"/>
+      <c r="E72" s="2"/>
+      <c r="F72" s="2"/>
+      <c r="G72" s="2"/>
+      <c r="H72" s="2"/>
       <c r="I72" s="2"/>
       <c r="J72" s="2"/>
       <c r="K72" s="2"/>
@@ -5140,26 +5224,20 @@
       <c r="X72" s="2"/>
     </row>
     <row r="73">
-      <c r="A73" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="B73" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="C73" s="5" t="s">
+      <c r="A73" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="B73" s="14" t="s">
         <v>129</v>
       </c>
-      <c r="D73" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="E73" s="6"/>
-      <c r="F73" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="G73" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="H73" s="6"/>
+      <c r="C73" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="D73" s="2"/>
+      <c r="E73" s="2"/>
+      <c r="F73" s="2"/>
+      <c r="G73" s="2"/>
+      <c r="H73" s="2"/>
       <c r="I73" s="2"/>
       <c r="J73" s="2"/>
       <c r="K73" s="2"/>
@@ -5178,26 +5256,22 @@
       <c r="X73" s="2"/>
     </row>
     <row r="74">
-      <c r="A74" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="B74" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="C74" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="D74" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="E74" s="6"/>
-      <c r="F74" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="G74" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="H74" s="6"/>
+      <c r="A74" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="B74" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="D74" s="2"/>
+      <c r="E74" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="F74" s="2"/>
+      <c r="G74" s="2"/>
+      <c r="H74" s="2"/>
       <c r="I74" s="2"/>
       <c r="J74" s="2"/>
       <c r="K74" s="2"/>
@@ -5216,20 +5290,22 @@
       <c r="X74" s="2"/>
     </row>
     <row r="75">
-      <c r="A75" s="9" t="s">
-        <v>154</v>
-      </c>
-      <c r="B75" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="C75" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="D75" s="6"/>
-      <c r="E75" s="6"/>
-      <c r="F75" s="3"/>
-      <c r="G75" s="6"/>
-      <c r="H75" s="6"/>
+      <c r="A75" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="B75" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="D75" s="2"/>
+      <c r="E75" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="F75" s="2"/>
+      <c r="G75" s="2"/>
+      <c r="H75" s="2"/>
       <c r="I75" s="2"/>
       <c r="J75" s="2"/>
       <c r="K75" s="2"/>
@@ -5248,20 +5324,22 @@
       <c r="X75" s="2"/>
     </row>
     <row r="76">
-      <c r="A76" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="B76" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="C76" s="5" t="s">
+      <c r="A76" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="B76" s="14" t="s">
         <v>129</v>
       </c>
-      <c r="D76" s="6"/>
-      <c r="E76" s="6"/>
-      <c r="F76" s="6"/>
-      <c r="G76" s="6"/>
-      <c r="H76" s="6"/>
+      <c r="C76" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="D76" s="2"/>
+      <c r="E76" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F76" s="2"/>
+      <c r="G76" s="2"/>
+      <c r="H76" s="2"/>
       <c r="I76" s="2"/>
       <c r="J76" s="2"/>
       <c r="K76" s="2"/>
@@ -5280,24 +5358,20 @@
       <c r="X76" s="2"/>
     </row>
     <row r="77">
-      <c r="A77" s="6" t="str">
-        <f t="shared" ref="A77:A90" si="3">CONCAT("mouse ", A61)</f>
-        <v>mouse spiral ganglion neuron</v>
-      </c>
-      <c r="B77" s="6" t="str">
-        <f t="shared" ref="B77:B90" si="4">A61</f>
-        <v>spiral ganglion neuron</v>
-      </c>
-      <c r="C77" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="D77" s="6"/>
-      <c r="E77" s="6"/>
-      <c r="F77" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="G77" s="6"/>
-      <c r="H77" s="6"/>
+      <c r="A77" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="B77" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="D77" s="2"/>
+      <c r="E77" s="2"/>
+      <c r="F77" s="2"/>
+      <c r="G77" s="2"/>
+      <c r="H77" s="2"/>
       <c r="I77" s="2"/>
       <c r="J77" s="2"/>
       <c r="K77" s="2"/>
@@ -5316,24 +5390,20 @@
       <c r="X77" s="2"/>
     </row>
     <row r="78">
-      <c r="A78" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>mouse dorsal root ganglia neuron</v>
-      </c>
-      <c r="B78" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v>dorsal root ganglia neuron</v>
-      </c>
-      <c r="C78" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="D78" s="6"/>
-      <c r="E78" s="6"/>
-      <c r="F78" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="G78" s="6"/>
-      <c r="H78" s="6"/>
+      <c r="A78" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="B78" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="D78" s="2"/>
+      <c r="E78" s="2"/>
+      <c r="F78" s="2"/>
+      <c r="G78" s="2"/>
+      <c r="H78" s="2"/>
       <c r="I78" s="2"/>
       <c r="J78" s="2"/>
       <c r="K78" s="2"/>
@@ -5352,22 +5422,22 @@
       <c r="X78" s="2"/>
     </row>
     <row r="79">
-      <c r="A79" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>mouse glial precursor</v>
-      </c>
-      <c r="B79" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v>glial precursor</v>
-      </c>
-      <c r="C79" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="D79" s="6"/>
-      <c r="E79" s="6"/>
-      <c r="F79" s="6"/>
-      <c r="G79" s="6"/>
-      <c r="H79" s="6"/>
+      <c r="A79" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="B79" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="D79" s="2"/>
+      <c r="E79" s="2"/>
+      <c r="F79" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="G79" s="2"/>
+      <c r="H79" s="2"/>
       <c r="I79" s="2"/>
       <c r="J79" s="2"/>
       <c r="K79" s="2"/>
@@ -5386,26 +5456,22 @@
       <c r="X79" s="2"/>
     </row>
     <row r="80">
-      <c r="A80" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>mouse dorsal root ganglia glial precursor</v>
-      </c>
-      <c r="B80" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v>dorsal root ganglia glial precursor</v>
-      </c>
-      <c r="C80" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="D80" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="E80" s="6"/>
-      <c r="F80" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="G80" s="6"/>
-      <c r="H80" s="6"/>
+      <c r="A80" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="B80" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="D80" s="2"/>
+      <c r="E80" s="2"/>
+      <c r="F80" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="G80" s="2"/>
+      <c r="H80" s="2"/>
       <c r="I80" s="2"/>
       <c r="J80" s="2"/>
       <c r="K80" s="2"/>
@@ -5424,26 +5490,22 @@
       <c r="X80" s="2"/>
     </row>
     <row r="81">
-      <c r="A81" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>mouse cochlear glial precursor</v>
-      </c>
-      <c r="B81" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v>cochlear glial precursor</v>
-      </c>
-      <c r="C81" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="D81" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="E81" s="6"/>
-      <c r="F81" s="15" t="s">
-        <v>141</v>
-      </c>
-      <c r="G81" s="6"/>
-      <c r="H81" s="6"/>
+      <c r="A81" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="B81" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="D81" s="2"/>
+      <c r="E81" s="2"/>
+      <c r="F81" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="G81" s="2"/>
+      <c r="H81" s="2"/>
       <c r="I81" s="2"/>
       <c r="J81" s="2"/>
       <c r="K81" s="2"/>
@@ -5462,22 +5524,22 @@
       <c r="X81" s="2"/>
     </row>
     <row r="82">
-      <c r="A82" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>mouse immature Schwann cell</v>
-      </c>
-      <c r="B82" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v>immature Schwann cell</v>
-      </c>
-      <c r="C82" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="D82" s="6"/>
-      <c r="E82" s="6"/>
-      <c r="F82" s="6"/>
-      <c r="G82" s="6"/>
-      <c r="H82" s="6"/>
+      <c r="A82" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="B82" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="D82" s="2"/>
+      <c r="E82" s="2"/>
+      <c r="F82" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="G82" s="2"/>
+      <c r="H82" s="2"/>
       <c r="I82" s="2"/>
       <c r="J82" s="2"/>
       <c r="K82" s="2"/>
@@ -5496,22 +5558,22 @@
       <c r="X82" s="2"/>
     </row>
     <row r="83">
-      <c r="A83" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>mouse myelinating Schwann cell</v>
-      </c>
-      <c r="B83" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v>myelinating Schwann cell</v>
-      </c>
-      <c r="C83" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="D83" s="6"/>
-      <c r="E83" s="6"/>
-      <c r="F83" s="6"/>
-      <c r="G83" s="6"/>
-      <c r="H83" s="6"/>
+      <c r="A83" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="B83" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="D83" s="2"/>
+      <c r="E83" s="2"/>
+      <c r="F83" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="G83" s="2"/>
+      <c r="H83" s="2"/>
       <c r="I83" s="2"/>
       <c r="J83" s="2"/>
       <c r="K83" s="2"/>
@@ -5530,22 +5592,22 @@
       <c r="X83" s="2"/>
     </row>
     <row r="84">
-      <c r="A84" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>mouse non-myelinating Schwann cell</v>
-      </c>
-      <c r="B84" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v>non-myelinating Schwann cell</v>
-      </c>
-      <c r="C84" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="D84" s="6"/>
-      <c r="E84" s="6"/>
-      <c r="F84" s="6"/>
-      <c r="G84" s="6"/>
-      <c r="H84" s="6"/>
+      <c r="A84" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="B84" s="16" t="s">
+        <v>149</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="D84" s="2"/>
+      <c r="E84" s="2"/>
+      <c r="F84" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="G84" s="2"/>
+      <c r="H84" s="2"/>
       <c r="I84" s="2"/>
       <c r="J84" s="2"/>
       <c r="K84" s="2"/>
@@ -5564,26 +5626,20 @@
       <c r="X84" s="2"/>
     </row>
     <row r="85">
-      <c r="A85" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>mouse cochlear immature Schwann cell</v>
-      </c>
-      <c r="B85" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v>cochlear immature Schwann cell</v>
-      </c>
-      <c r="C85" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="D85" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="E85" s="6"/>
-      <c r="F85" s="15" t="s">
-        <v>141</v>
-      </c>
-      <c r="G85" s="6"/>
-      <c r="H85" s="6"/>
+      <c r="A85" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="B85" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="D85" s="2"/>
+      <c r="E85" s="2"/>
+      <c r="F85" s="2"/>
+      <c r="G85" s="2"/>
+      <c r="H85" s="2"/>
       <c r="I85" s="2"/>
       <c r="J85" s="2"/>
       <c r="K85" s="2"/>
@@ -5602,26 +5658,22 @@
       <c r="X85" s="2"/>
     </row>
     <row r="86">
-      <c r="A86" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>mouse cochlear myelinating Schwann cell</v>
-      </c>
-      <c r="B86" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v>cochlear myelinating Schwann cell</v>
-      </c>
-      <c r="C86" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="D86" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="E86" s="6"/>
-      <c r="F86" s="15" t="s">
-        <v>141</v>
-      </c>
-      <c r="G86" s="6"/>
-      <c r="H86" s="6"/>
+      <c r="A86" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="B86" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="C86" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="D86" s="2"/>
+      <c r="E86" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="F86" s="2"/>
+      <c r="G86" s="2"/>
+      <c r="H86" s="2"/>
       <c r="I86" s="2"/>
       <c r="J86" s="2"/>
       <c r="K86" s="2"/>
@@ -5640,26 +5692,20 @@
       <c r="X86" s="2"/>
     </row>
     <row r="87">
-      <c r="A87" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>mouse cochlear non-myelinating Schwann cell</v>
-      </c>
-      <c r="B87" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v>cochlear non-myelinating Schwann cell</v>
-      </c>
-      <c r="C87" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="D87" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="E87" s="6"/>
-      <c r="F87" s="15" t="s">
-        <v>141</v>
-      </c>
-      <c r="G87" s="6"/>
-      <c r="H87" s="6"/>
+      <c r="A87" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="B87" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="C87" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="D87" s="2"/>
+      <c r="E87" s="2"/>
+      <c r="F87" s="2"/>
+      <c r="G87" s="2"/>
+      <c r="H87" s="2"/>
       <c r="I87" s="2"/>
       <c r="J87" s="2"/>
       <c r="K87" s="2"/>
@@ -5678,26 +5724,20 @@
       <c r="X87" s="2"/>
     </row>
     <row r="88">
-      <c r="A88" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>mouse dorsal root immature Schwann cell</v>
-      </c>
-      <c r="B88" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v>dorsal root immature Schwann cell</v>
-      </c>
-      <c r="C88" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="D88" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="E88" s="6"/>
-      <c r="F88" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="G88" s="6"/>
-      <c r="H88" s="6"/>
+      <c r="A88" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="B88" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="D88" s="2"/>
+      <c r="E88" s="2"/>
+      <c r="F88" s="2"/>
+      <c r="G88" s="2"/>
+      <c r="H88" s="2"/>
       <c r="I88" s="2"/>
       <c r="J88" s="2"/>
       <c r="K88" s="2"/>
@@ -5716,26 +5756,22 @@
       <c r="X88" s="2"/>
     </row>
     <row r="89">
-      <c r="A89" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>mouse dorsal root myelinating Schwann cell</v>
-      </c>
-      <c r="B89" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v>dorsal root myelinating Schwann cell</v>
-      </c>
-      <c r="C89" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="D89" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="E89" s="6"/>
-      <c r="F89" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="G89" s="6"/>
-      <c r="H89" s="6"/>
+      <c r="A89" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="B89" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="C89" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="D89" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="E89" s="2"/>
+      <c r="F89" s="2"/>
+      <c r="G89" s="2"/>
+      <c r="H89" s="2"/>
       <c r="I89" s="2"/>
       <c r="J89" s="2"/>
       <c r="K89" s="2"/>
@@ -5754,26 +5790,20 @@
       <c r="X89" s="2"/>
     </row>
     <row r="90">
-      <c r="A90" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>mouse dorsal root non-myelinating Schwann cell</v>
-      </c>
-      <c r="B90" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v>dorsal root non-myelinating Schwann cell</v>
-      </c>
-      <c r="C90" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="D90" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="E90" s="6"/>
-      <c r="F90" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="G90" s="6"/>
-      <c r="H90" s="6"/>
+      <c r="A90" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="B90" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="D90" s="2"/>
+      <c r="E90" s="2"/>
+      <c r="F90" s="2"/>
+      <c r="G90" s="2"/>
+      <c r="H90" s="2"/>
       <c r="I90" s="2"/>
       <c r="J90" s="2"/>
       <c r="K90" s="2"/>
@@ -5792,24 +5822,20 @@
       <c r="X90" s="2"/>
     </row>
     <row r="91">
-      <c r="A91" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="B91" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C91" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="D91" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="E91" s="15" t="s">
+      <c r="A91" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="B91" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="C91" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="F91" s="6"/>
-      <c r="G91" s="6"/>
-      <c r="H91" s="6"/>
+      <c r="D91" s="2"/>
+      <c r="E91" s="2"/>
+      <c r="F91" s="2"/>
+      <c r="G91" s="2"/>
+      <c r="H91" s="2"/>
       <c r="I91" s="2"/>
       <c r="J91" s="2"/>
       <c r="K91" s="2"/>
@@ -5828,22 +5854,20 @@
       <c r="X91" s="2"/>
     </row>
     <row r="92">
-      <c r="A92" s="16" t="s">
-        <v>160</v>
-      </c>
-      <c r="B92" s="16" t="s">
-        <v>161</v>
-      </c>
-      <c r="C92" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="D92" s="5" t="s">
-        <v>162</v>
+      <c r="A92" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="B92" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="C92" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="D92" s="3" t="s">
+        <v>159</v>
       </c>
       <c r="E92" s="2"/>
-      <c r="F92" s="16" t="s">
-        <v>163</v>
-      </c>
+      <c r="F92" s="2"/>
       <c r="G92" s="2"/>
       <c r="H92" s="2"/>
       <c r="I92" s="2"/>
@@ -5864,19 +5888,21 @@
       <c r="X92" s="2"/>
     </row>
     <row r="93">
-      <c r="A93" s="12" t="s">
-        <v>164</v>
-      </c>
-      <c r="B93" s="16" t="s">
-        <v>165</v>
-      </c>
-      <c r="C93" s="5" t="s">
+      <c r="A93" s="11" t="s">
         <v>166</v>
       </c>
-      <c r="D93" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="E93" s="2"/>
+      <c r="B93" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="C93" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="D93" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="E93" s="11" t="s">
+        <v>169</v>
+      </c>
       <c r="F93" s="2"/>
       <c r="G93" s="2"/>
       <c r="H93" s="2"/>
@@ -5898,18 +5924,16 @@
       <c r="X93" s="2"/>
     </row>
     <row r="94">
-      <c r="A94" s="12" t="s">
-        <v>167</v>
-      </c>
-      <c r="B94" s="16" t="s">
-        <v>168</v>
-      </c>
-      <c r="C94" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="D94" s="5" t="s">
-        <v>166</v>
-      </c>
+      <c r="A94" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="B94" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="C94" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="D94" s="2"/>
       <c r="E94" s="2"/>
       <c r="F94" s="2"/>
       <c r="G94" s="2"/>
@@ -5932,19 +5956,17 @@
       <c r="X94" s="2"/>
     </row>
     <row r="95">
-      <c r="A95" s="17" t="s">
-        <v>169</v>
-      </c>
-      <c r="B95" s="16" t="s">
+      <c r="A95" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="B95" s="11" t="s">
         <v>170</v>
       </c>
-      <c r="C95" s="5" t="s">
-        <v>166</v>
+      <c r="C95" s="3" t="s">
+        <v>172</v>
       </c>
       <c r="D95" s="2"/>
-      <c r="E95" s="16" t="s">
-        <v>171</v>
-      </c>
+      <c r="E95" s="2"/>
       <c r="F95" s="2"/>
       <c r="G95" s="2"/>
       <c r="H95" s="2"/>
@@ -5966,18 +5988,20 @@
       <c r="X95" s="2"/>
     </row>
     <row r="96">
-      <c r="A96" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="B96" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="C96" s="5" t="s">
-        <v>166</v>
+      <c r="A96" s="19" t="s">
+        <v>174</v>
+      </c>
+      <c r="B96" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="C96" s="3" t="s">
+        <v>172</v>
       </c>
       <c r="D96" s="2"/>
-      <c r="E96" s="18"/>
-      <c r="F96" s="2"/>
+      <c r="E96" s="2"/>
+      <c r="F96" s="14" t="s">
+        <v>176</v>
+      </c>
       <c r="G96" s="2"/>
       <c r="H96" s="2"/>
       <c r="I96" s="2"/>
@@ -5998,22 +6022,18 @@
       <c r="X96" s="2"/>
     </row>
     <row r="97">
-      <c r="A97" s="16" t="s">
+      <c r="A97" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="B97" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="C97" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="B97" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="C97" s="5" t="s">
-        <v>166</v>
-      </c>
       <c r="D97" s="2"/>
-      <c r="E97" s="19" t="s">
-        <v>174</v>
-      </c>
-      <c r="F97" s="16" t="s">
-        <v>175</v>
-      </c>
+      <c r="E97" s="2"/>
+      <c r="F97" s="2"/>
       <c r="G97" s="2"/>
       <c r="H97" s="2"/>
       <c r="I97" s="2"/>
@@ -6034,14 +6054,14 @@
       <c r="X97" s="2"/>
     </row>
     <row r="98">
-      <c r="A98" s="20" t="s">
-        <v>176</v>
+      <c r="A98" s="11" t="s">
+        <v>179</v>
       </c>
       <c r="B98" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="C98" s="5" t="s">
         <v>177</v>
+      </c>
+      <c r="C98" s="3" t="s">
+        <v>172</v>
       </c>
       <c r="D98" s="2"/>
       <c r="E98" s="2"/>
@@ -6066,17 +6086,19 @@
       <c r="X98" s="2"/>
     </row>
     <row r="99">
-      <c r="A99" s="16" t="s">
-        <v>178</v>
-      </c>
-      <c r="B99" s="20" t="s">
-        <v>176</v>
-      </c>
-      <c r="C99" s="5" t="s">
-        <v>177</v>
+      <c r="A99" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="B99" s="17" t="s">
+        <v>181</v>
+      </c>
+      <c r="C99" s="3" t="s">
+        <v>182</v>
       </c>
       <c r="D99" s="2"/>
-      <c r="E99" s="2"/>
+      <c r="E99" s="11" t="s">
+        <v>183</v>
+      </c>
       <c r="F99" s="2"/>
       <c r="G99" s="2"/>
       <c r="H99" s="2"/>
@@ -6098,17 +6120,19 @@
       <c r="X99" s="2"/>
     </row>
     <row r="100">
-      <c r="A100" s="16" t="s">
-        <v>179</v>
-      </c>
-      <c r="B100" s="20" t="s">
-        <v>176</v>
-      </c>
-      <c r="C100" s="5" t="s">
-        <v>177</v>
+      <c r="A100" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="B100" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="C100" s="3" t="s">
+        <v>182</v>
       </c>
       <c r="D100" s="2"/>
-      <c r="E100" s="2"/>
+      <c r="E100" s="11" t="s">
+        <v>185</v>
+      </c>
       <c r="F100" s="2"/>
       <c r="G100" s="2"/>
       <c r="H100" s="2"/>
@@ -6130,14 +6154,14 @@
       <c r="X100" s="2"/>
     </row>
     <row r="101">
-      <c r="A101" s="20" t="s">
-        <v>180</v>
-      </c>
-      <c r="B101" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="C101" s="5" t="s">
-        <v>177</v>
+      <c r="A101" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="B101" s="14" t="s">
+        <v>187</v>
+      </c>
+      <c r="C101" s="3" t="s">
+        <v>188</v>
       </c>
       <c r="D101" s="2"/>
       <c r="E101" s="2"/>
@@ -6162,19 +6186,17 @@
       <c r="X101" s="2"/>
     </row>
     <row r="102">
-      <c r="A102" s="20" t="s">
-        <v>182</v>
-      </c>
-      <c r="B102" s="16" t="s">
-        <v>183</v>
-      </c>
-      <c r="C102" s="5" t="s">
-        <v>177</v>
+      <c r="A102" s="16" t="s">
+        <v>189</v>
+      </c>
+      <c r="B102" s="14" t="s">
+        <v>190</v>
+      </c>
+      <c r="C102" s="3" t="s">
+        <v>188</v>
       </c>
       <c r="D102" s="2"/>
-      <c r="E102" s="16" t="s">
-        <v>184</v>
-      </c>
+      <c r="E102" s="2"/>
       <c r="F102" s="2"/>
       <c r="G102" s="2"/>
       <c r="H102" s="2"/>
@@ -6196,19 +6218,17 @@
       <c r="X102" s="2"/>
     </row>
     <row r="103">
-      <c r="A103" s="20" t="s">
-        <v>185</v>
-      </c>
-      <c r="B103" s="16" t="s">
-        <v>183</v>
-      </c>
-      <c r="C103" s="5" t="s">
-        <v>177</v>
+      <c r="A103" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="B103" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="C103" s="3" t="s">
+        <v>193</v>
       </c>
       <c r="D103" s="2"/>
-      <c r="E103" s="16" t="s">
-        <v>186</v>
-      </c>
+      <c r="E103" s="2"/>
       <c r="F103" s="2"/>
       <c r="G103" s="2"/>
       <c r="H103" s="2"/>
@@ -6230,19 +6250,17 @@
       <c r="X103" s="2"/>
     </row>
     <row r="104">
-      <c r="A104" s="16" t="s">
-        <v>187</v>
-      </c>
-      <c r="B104" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="C104" s="5" t="s">
-        <v>177</v>
+      <c r="A104" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="B104" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="C104" s="3" t="s">
+        <v>193</v>
       </c>
       <c r="D104" s="2"/>
-      <c r="E104" s="16" t="s">
-        <v>188</v>
-      </c>
+      <c r="E104" s="2"/>
       <c r="F104" s="2"/>
       <c r="G104" s="2"/>
       <c r="H104" s="2"/>
@@ -6264,14 +6282,14 @@
       <c r="X104" s="2"/>
     </row>
     <row r="105">
-      <c r="A105" s="16" t="s">
-        <v>189</v>
-      </c>
-      <c r="B105" s="16" t="s">
-        <v>190</v>
-      </c>
-      <c r="C105" s="5" t="s">
-        <v>177</v>
+      <c r="A105" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="B105" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="C105" s="3" t="s">
+        <v>193</v>
       </c>
       <c r="D105" s="2"/>
       <c r="E105" s="2"/>
@@ -6296,18 +6314,20 @@
       <c r="X105" s="2"/>
     </row>
     <row r="106">
-      <c r="A106" s="20" t="s">
-        <v>191</v>
-      </c>
-      <c r="B106" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="C106" s="5" t="s">
+      <c r="A106" s="13" t="s">
+        <v>196</v>
+      </c>
+      <c r="B106" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="C106" s="3" t="s">
         <v>193</v>
       </c>
       <c r="D106" s="2"/>
       <c r="E106" s="2"/>
-      <c r="F106" s="2"/>
+      <c r="F106" s="11" t="s">
+        <v>62</v>
+      </c>
       <c r="G106" s="2"/>
       <c r="H106" s="2"/>
       <c r="I106" s="2"/>
@@ -6328,19 +6348,19 @@
       <c r="X106" s="2"/>
     </row>
     <row r="107">
-      <c r="A107" s="16" t="s">
-        <v>194</v>
-      </c>
-      <c r="B107" s="16" t="s">
-        <v>195</v>
-      </c>
-      <c r="C107" s="5" t="s">
-        <v>196</v>
+      <c r="A107" s="11" t="s">
+        <v>198</v>
+      </c>
+      <c r="B107" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="C107" s="3" t="s">
+        <v>199</v>
       </c>
       <c r="D107" s="2"/>
       <c r="E107" s="2"/>
-      <c r="F107" s="16" t="s">
-        <v>197</v>
+      <c r="F107" s="11" t="s">
+        <v>200</v>
       </c>
       <c r="G107" s="2"/>
       <c r="H107" s="2"/>
@@ -6362,20 +6382,20 @@
       <c r="X107" s="2"/>
     </row>
     <row r="108">
-      <c r="A108" s="16" t="s">
-        <v>198</v>
-      </c>
-      <c r="B108" s="16" t="s">
-        <v>195</v>
-      </c>
-      <c r="C108" s="5" t="s">
-        <v>196</v>
+      <c r="A108" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="B108" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="C108" s="3" t="s">
+        <v>203</v>
       </c>
       <c r="D108" s="2"/>
-      <c r="E108" s="2"/>
-      <c r="F108" s="16" t="s">
-        <v>197</v>
-      </c>
+      <c r="E108" s="21" t="s">
+        <v>204</v>
+      </c>
+      <c r="F108" s="2"/>
       <c r="G108" s="2"/>
       <c r="H108" s="2"/>
       <c r="I108" s="2"/>
@@ -6396,20 +6416,20 @@
       <c r="X108" s="2"/>
     </row>
     <row r="109">
-      <c r="A109" s="16" t="s">
-        <v>199</v>
-      </c>
-      <c r="B109" s="16" t="s">
-        <v>194</v>
-      </c>
-      <c r="C109" s="5" t="s">
-        <v>196</v>
+      <c r="A109" s="22" t="s">
+        <v>205</v>
+      </c>
+      <c r="B109" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="C109" s="3" t="s">
+        <v>206</v>
       </c>
       <c r="D109" s="2"/>
-      <c r="E109" s="2"/>
-      <c r="F109" s="16" t="s">
-        <v>197</v>
-      </c>
+      <c r="E109" s="23" t="s">
+        <v>207</v>
+      </c>
+      <c r="F109" s="2"/>
       <c r="G109" s="2"/>
       <c r="H109" s="2"/>
       <c r="I109" s="2"/>
@@ -6430,20 +6450,20 @@
       <c r="X109" s="2"/>
     </row>
     <row r="110">
-      <c r="A110" s="16" t="s">
-        <v>200</v>
-      </c>
-      <c r="B110" s="16" t="s">
-        <v>198</v>
-      </c>
-      <c r="C110" s="5" t="s">
-        <v>196</v>
+      <c r="A110" s="24" t="s">
+        <v>208</v>
+      </c>
+      <c r="B110" s="14" t="s">
+        <v>209</v>
+      </c>
+      <c r="C110" s="3" t="s">
+        <v>206</v>
       </c>
       <c r="D110" s="2"/>
-      <c r="E110" s="2"/>
-      <c r="F110" s="16" t="s">
-        <v>197</v>
-      </c>
+      <c r="E110" s="11" t="s">
+        <v>210</v>
+      </c>
+      <c r="F110" s="2"/>
       <c r="G110" s="2"/>
       <c r="H110" s="2"/>
       <c r="I110" s="2"/>
@@ -6464,20 +6484,20 @@
       <c r="X110" s="2"/>
     </row>
     <row r="111">
-      <c r="A111" s="20" t="s">
-        <v>201</v>
-      </c>
-      <c r="B111" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="C111" s="5" t="s">
-        <v>196</v>
+      <c r="A111" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="B111" s="14" t="s">
+        <v>212</v>
+      </c>
+      <c r="C111" s="3" t="s">
+        <v>206</v>
       </c>
       <c r="D111" s="2"/>
-      <c r="E111" s="2"/>
-      <c r="F111" s="16" t="s">
-        <v>197</v>
-      </c>
+      <c r="E111" s="11" t="s">
+        <v>213</v>
+      </c>
+      <c r="F111" s="2"/>
       <c r="G111" s="2"/>
       <c r="H111" s="2"/>
       <c r="I111" s="2"/>
@@ -6498,20 +6518,20 @@
       <c r="X111" s="2"/>
     </row>
     <row r="112">
-      <c r="A112" s="16" t="s">
-        <v>203</v>
-      </c>
-      <c r="B112" s="19" t="s">
-        <v>201</v>
-      </c>
-      <c r="C112" s="5" t="s">
-        <v>196</v>
+      <c r="A112" s="11" t="s">
+        <v>214</v>
+      </c>
+      <c r="B112" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="C112" s="3" t="s">
+        <v>206</v>
       </c>
       <c r="D112" s="2"/>
-      <c r="E112" s="2"/>
-      <c r="F112" s="16" t="s">
-        <v>197</v>
-      </c>
+      <c r="E112" s="24" t="s">
+        <v>215</v>
+      </c>
+      <c r="F112" s="2"/>
       <c r="G112" s="2"/>
       <c r="H112" s="2"/>
       <c r="I112" s="2"/>
@@ -6532,14 +6552,14 @@
       <c r="X112" s="2"/>
     </row>
     <row r="113">
-      <c r="A113" s="16" t="s">
-        <v>204</v>
-      </c>
-      <c r="B113" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="C113" s="5" t="s">
-        <v>205</v>
+      <c r="A113" s="11" t="s">
+        <v>216</v>
+      </c>
+      <c r="B113" s="11" t="s">
+        <v>214</v>
+      </c>
+      <c r="C113" s="3" t="s">
+        <v>206</v>
       </c>
       <c r="D113" s="2"/>
       <c r="E113" s="2"/>
@@ -6564,18 +6584,18 @@
       <c r="X113" s="2"/>
     </row>
     <row r="114">
-      <c r="A114" s="16" t="s">
+      <c r="A114" s="23" t="s">
+        <v>217</v>
+      </c>
+      <c r="B114" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="C114" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="B114" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="C114" s="5" t="s">
-        <v>207</v>
-      </c>
       <c r="D114" s="2"/>
-      <c r="E114" s="21" t="s">
-        <v>208</v>
+      <c r="E114" s="22" t="s">
+        <v>219</v>
       </c>
       <c r="F114" s="2"/>
       <c r="G114" s="2"/>
@@ -6598,18 +6618,20 @@
       <c r="X114" s="2"/>
     </row>
     <row r="115">
-      <c r="A115" s="16" t="s">
-        <v>209</v>
-      </c>
-      <c r="B115" s="16" t="s">
-        <v>210</v>
-      </c>
-      <c r="C115" s="5" t="s">
-        <v>211</v>
+      <c r="A115" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="B115" s="14" t="s">
+        <v>221</v>
+      </c>
+      <c r="C115" s="3" t="s">
+        <v>222</v>
       </c>
       <c r="D115" s="2"/>
       <c r="E115" s="2"/>
-      <c r="F115" s="2"/>
+      <c r="F115" s="11" t="s">
+        <v>223</v>
+      </c>
       <c r="G115" s="2"/>
       <c r="H115" s="2"/>
       <c r="I115" s="2"/>
@@ -6631,17 +6653,21 @@
     </row>
     <row r="116">
       <c r="A116" s="12" t="s">
-        <v>212</v>
-      </c>
-      <c r="B116" s="16" t="s">
-        <v>209</v>
-      </c>
-      <c r="C116" s="5" t="s">
-        <v>211</v>
+        <v>224</v>
+      </c>
+      <c r="B116" s="11" t="s">
+        <v>225</v>
+      </c>
+      <c r="C116" s="3" t="s">
+        <v>222</v>
       </c>
       <c r="D116" s="2"/>
-      <c r="E116" s="2"/>
-      <c r="F116" s="2"/>
+      <c r="E116" s="11" t="s">
+        <v>226</v>
+      </c>
+      <c r="F116" s="11" t="s">
+        <v>223</v>
+      </c>
       <c r="G116" s="2"/>
       <c r="H116" s="2"/>
       <c r="I116" s="2"/>
@@ -6662,20 +6688,20 @@
       <c r="X116" s="2"/>
     </row>
     <row r="117">
-      <c r="A117" s="16" t="s">
-        <v>213</v>
-      </c>
-      <c r="B117" s="16" t="s">
-        <v>209</v>
-      </c>
-      <c r="C117" s="5" t="s">
-        <v>211</v>
-      </c>
-      <c r="D117" s="5" t="s">
-        <v>211</v>
-      </c>
+      <c r="A117" s="17" t="s">
+        <v>227</v>
+      </c>
+      <c r="B117" s="11" t="s">
+        <v>225</v>
+      </c>
+      <c r="C117" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="D117" s="2"/>
       <c r="E117" s="2"/>
-      <c r="F117" s="2"/>
+      <c r="F117" s="11" t="s">
+        <v>223</v>
+      </c>
       <c r="G117" s="2"/>
       <c r="H117" s="2"/>
       <c r="I117" s="2"/>
@@ -6696,18 +6722,20 @@
       <c r="X117" s="2"/>
     </row>
     <row r="118">
-      <c r="A118" s="16" t="s">
-        <v>214</v>
-      </c>
-      <c r="B118" s="16" t="s">
-        <v>215</v>
-      </c>
-      <c r="C118" s="5" t="s">
-        <v>211</v>
+      <c r="A118" s="11" t="s">
+        <v>228</v>
+      </c>
+      <c r="B118" s="11" t="s">
+        <v>225</v>
+      </c>
+      <c r="C118" s="3" t="s">
+        <v>222</v>
       </c>
       <c r="D118" s="2"/>
       <c r="E118" s="2"/>
-      <c r="F118" s="2"/>
+      <c r="F118" s="11" t="s">
+        <v>223</v>
+      </c>
       <c r="G118" s="2"/>
       <c r="H118" s="2"/>
       <c r="I118" s="2"/>
@@ -6729,17 +6757,19 @@
     </row>
     <row r="119">
       <c r="A119" s="16" t="s">
-        <v>216</v>
-      </c>
-      <c r="B119" s="16" t="s">
-        <v>214</v>
-      </c>
-      <c r="C119" s="5" t="s">
-        <v>211</v>
+        <v>229</v>
+      </c>
+      <c r="B119" s="11" t="s">
+        <v>225</v>
+      </c>
+      <c r="C119" s="3" t="s">
+        <v>222</v>
       </c>
       <c r="D119" s="2"/>
       <c r="E119" s="2"/>
-      <c r="F119" s="2"/>
+      <c r="F119" s="11" t="s">
+        <v>223</v>
+      </c>
       <c r="G119" s="2"/>
       <c r="H119" s="2"/>
       <c r="I119" s="2"/>
@@ -6761,19 +6791,21 @@
     </row>
     <row r="120">
       <c r="A120" s="16" t="s">
-        <v>217</v>
-      </c>
-      <c r="B120" s="16" t="s">
-        <v>216</v>
-      </c>
-      <c r="C120" s="5" t="s">
-        <v>211</v>
-      </c>
-      <c r="D120" s="5" t="s">
-        <v>211</v>
-      </c>
-      <c r="E120" s="2"/>
-      <c r="F120" s="2"/>
+        <v>230</v>
+      </c>
+      <c r="B120" s="11" t="s">
+        <v>225</v>
+      </c>
+      <c r="C120" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="D120" s="2"/>
+      <c r="E120" s="16" t="s">
+        <v>231</v>
+      </c>
+      <c r="F120" s="11" t="s">
+        <v>223</v>
+      </c>
       <c r="G120" s="2"/>
       <c r="H120" s="2"/>
       <c r="I120" s="2"/>
@@ -6794,22 +6826,22 @@
       <c r="X120" s="2"/>
     </row>
     <row r="121">
-      <c r="A121" s="16" t="s">
-        <v>218</v>
-      </c>
-      <c r="B121" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="C121" s="5" t="s">
-        <v>219</v>
-      </c>
-      <c r="D121" s="5" t="s">
-        <v>219</v>
-      </c>
-      <c r="E121" s="16" t="s">
-        <v>220</v>
-      </c>
-      <c r="F121" s="2"/>
+      <c r="A121" s="11" t="str">
+        <f t="shared" ref="A121:A124" si="3">CONCAT("mouse ",A117)</f>
+        <v>mouse mTEC I</v>
+      </c>
+      <c r="B121" s="2" t="str">
+        <f t="shared" ref="B121:B124" si="4">A117</f>
+        <v>mTEC I</v>
+      </c>
+      <c r="C121" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="D121" s="2"/>
+      <c r="E121" s="2"/>
+      <c r="F121" s="11" t="s">
+        <v>223</v>
+      </c>
       <c r="G121" s="2"/>
       <c r="H121" s="2"/>
       <c r="I121" s="2"/>
@@ -6830,18 +6862,22 @@
       <c r="X121" s="2"/>
     </row>
     <row r="122">
-      <c r="A122" s="16" t="s">
-        <v>221</v>
-      </c>
-      <c r="B122" s="16" t="s">
+      <c r="A122" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v>mouse mTEC II</v>
+      </c>
+      <c r="B122" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>mTEC II</v>
+      </c>
+      <c r="C122" s="3" t="s">
         <v>222</v>
-      </c>
-      <c r="C122" s="5" t="s">
-        <v>223</v>
       </c>
       <c r="D122" s="2"/>
       <c r="E122" s="2"/>
-      <c r="F122" s="2"/>
+      <c r="F122" s="11" t="s">
+        <v>223</v>
+      </c>
       <c r="G122" s="2"/>
       <c r="H122" s="2"/>
       <c r="I122" s="2"/>
@@ -6862,18 +6898,22 @@
       <c r="X122" s="2"/>
     </row>
     <row r="123">
-      <c r="A123" s="16" t="s">
-        <v>224</v>
-      </c>
-      <c r="B123" s="16" t="s">
-        <v>221</v>
-      </c>
-      <c r="C123" s="5" t="s">
-        <v>223</v>
+      <c r="A123" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v>mouse mTEC III</v>
+      </c>
+      <c r="B123" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>mTEC III</v>
+      </c>
+      <c r="C123" s="3" t="s">
+        <v>222</v>
       </c>
       <c r="D123" s="2"/>
       <c r="E123" s="2"/>
-      <c r="F123" s="2"/>
+      <c r="F123" s="11" t="s">
+        <v>223</v>
+      </c>
       <c r="G123" s="2"/>
       <c r="H123" s="2"/>
       <c r="I123" s="2"/>
@@ -6894,19 +6934,22 @@
       <c r="X123" s="2"/>
     </row>
     <row r="124">
-      <c r="A124" s="22" t="s">
-        <v>225</v>
-      </c>
-      <c r="B124" s="16" t="s">
-        <v>226</v>
-      </c>
-      <c r="C124" s="5" t="s">
+      <c r="A124" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v>mouse mTEC IV</v>
+      </c>
+      <c r="B124" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>mTEC IV</v>
+      </c>
+      <c r="C124" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="E124" s="11" t="s">
+        <v>232</v>
+      </c>
+      <c r="F124" s="11" t="s">
         <v>223</v>
-      </c>
-      <c r="D124" s="2"/>
-      <c r="E124" s="2"/>
-      <c r="F124" s="7" t="s">
-        <v>227</v>
       </c>
       <c r="G124" s="2"/>
       <c r="H124" s="2"/>
@@ -6928,18 +6971,20 @@
       <c r="X124" s="2"/>
     </row>
     <row r="125">
-      <c r="A125" s="16" t="s">
-        <v>228</v>
-      </c>
-      <c r="B125" s="16" t="s">
-        <v>229</v>
-      </c>
-      <c r="C125" s="5" t="s">
-        <v>223</v>
+      <c r="A125" s="11" t="s">
+        <v>233</v>
+      </c>
+      <c r="B125" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="C125" s="3" t="s">
+        <v>235</v>
       </c>
       <c r="D125" s="2"/>
       <c r="E125" s="2"/>
-      <c r="F125" s="2"/>
+      <c r="F125" s="11" t="s">
+        <v>236</v>
+      </c>
       <c r="G125" s="2"/>
       <c r="H125" s="2"/>
       <c r="I125" s="2"/>
@@ -6960,18 +7005,20 @@
       <c r="X125" s="2"/>
     </row>
     <row r="126">
-      <c r="A126" s="16" t="s">
-        <v>230</v>
-      </c>
-      <c r="B126" s="19" t="s">
-        <v>228</v>
-      </c>
-      <c r="C126" s="5" t="s">
-        <v>223</v>
+      <c r="A126" s="11" t="s">
+        <v>237</v>
+      </c>
+      <c r="B126" s="14" t="s">
+        <v>238</v>
+      </c>
+      <c r="C126" s="3" t="s">
+        <v>235</v>
       </c>
       <c r="D126" s="2"/>
       <c r="E126" s="2"/>
-      <c r="F126" s="2"/>
+      <c r="F126" s="11" t="s">
+        <v>236</v>
+      </c>
       <c r="G126" s="2"/>
       <c r="H126" s="2"/>
       <c r="I126" s="2"/>
@@ -6992,20 +7039,22 @@
       <c r="X126" s="2"/>
     </row>
     <row r="127">
-      <c r="A127" s="16" t="s">
-        <v>231</v>
-      </c>
-      <c r="B127" s="20" t="s">
-        <v>232</v>
-      </c>
-      <c r="C127" s="5" t="s">
-        <v>233</v>
+      <c r="A127" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="B127" s="16" t="s">
+        <v>240</v>
+      </c>
+      <c r="C127" s="3" t="s">
+        <v>235</v>
       </c>
       <c r="D127" s="2"/>
-      <c r="E127" s="16" t="s">
-        <v>234</v>
-      </c>
-      <c r="F127" s="2"/>
+      <c r="E127" s="11" t="s">
+        <v>241</v>
+      </c>
+      <c r="F127" s="14" t="s">
+        <v>242</v>
+      </c>
       <c r="G127" s="2"/>
       <c r="H127" s="2"/>
       <c r="I127" s="2"/>
@@ -7026,20 +7075,20 @@
       <c r="X127" s="2"/>
     </row>
     <row r="128">
-      <c r="A128" s="16" t="s">
+      <c r="A128" s="11" t="s">
+        <v>243</v>
+      </c>
+      <c r="B128" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="C128" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="B128" s="16" t="s">
-        <v>231</v>
-      </c>
-      <c r="C128" s="5" t="s">
-        <v>233</v>
-      </c>
       <c r="D128" s="2"/>
-      <c r="E128" s="16" t="s">
-        <v>236</v>
-      </c>
-      <c r="F128" s="2"/>
+      <c r="E128" s="2"/>
+      <c r="F128" s="11" t="s">
+        <v>245</v>
+      </c>
       <c r="G128" s="2"/>
       <c r="H128" s="2"/>
       <c r="I128" s="2"/>
@@ -7060,18 +7109,20 @@
       <c r="X128" s="2"/>
     </row>
     <row r="129">
-      <c r="A129" s="16" t="s">
-        <v>237</v>
-      </c>
-      <c r="B129" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="C129" s="5" t="s">
-        <v>239</v>
+      <c r="A129" s="11" t="s">
+        <v>246</v>
+      </c>
+      <c r="B129" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="C129" s="3" t="s">
+        <v>235</v>
       </c>
       <c r="D129" s="2"/>
       <c r="E129" s="2"/>
-      <c r="F129" s="2"/>
+      <c r="F129" s="11" t="s">
+        <v>245</v>
+      </c>
       <c r="G129" s="2"/>
       <c r="H129" s="2"/>
       <c r="I129" s="2"/>
@@ -7092,18 +7143,20 @@
       <c r="X129" s="2"/>
     </row>
     <row r="130">
-      <c r="A130" s="19" t="s">
-        <v>240</v>
-      </c>
-      <c r="B130" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="C130" s="5" t="s">
-        <v>239</v>
+      <c r="A130" s="11" t="s">
+        <v>247</v>
+      </c>
+      <c r="B130" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="C130" s="3" t="s">
+        <v>235</v>
       </c>
       <c r="D130" s="2"/>
       <c r="E130" s="2"/>
-      <c r="F130" s="2"/>
+      <c r="F130" s="11" t="s">
+        <v>245</v>
+      </c>
       <c r="G130" s="2"/>
       <c r="H130" s="2"/>
       <c r="I130" s="2"/>
@@ -7124,14 +7177,15 @@
       <c r="X130" s="2"/>
     </row>
     <row r="131">
-      <c r="A131" s="16" t="s">
-        <v>242</v>
-      </c>
-      <c r="B131" s="16" t="s">
-        <v>243</v>
-      </c>
-      <c r="C131" s="5" t="s">
-        <v>244</v>
+      <c r="A131" s="11" t="str">
+        <f t="shared" ref="A131:A136" si="5">CONCAT("mouse ",A125)</f>
+        <v>mouse renal pericyte</v>
+      </c>
+      <c r="B131" s="11" t="s">
+        <v>233</v>
+      </c>
+      <c r="C131" s="3" t="s">
+        <v>235</v>
       </c>
       <c r="D131" s="2"/>
       <c r="E131" s="2"/>
@@ -7156,14 +7210,15 @@
       <c r="X131" s="2"/>
     </row>
     <row r="132">
-      <c r="A132" s="16" t="s">
-        <v>245</v>
-      </c>
-      <c r="B132" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="C132" s="5" t="s">
-        <v>244</v>
+      <c r="A132" s="11" t="str">
+        <f t="shared" si="5"/>
+        <v>mouse medullary collecting duct cell</v>
+      </c>
+      <c r="B132" s="11" t="s">
+        <v>237</v>
+      </c>
+      <c r="C132" s="3" t="s">
+        <v>235</v>
       </c>
       <c r="D132" s="2"/>
       <c r="E132" s="2"/>
@@ -7188,14 +7243,15 @@
       <c r="X132" s="2"/>
     </row>
     <row r="133">
-      <c r="A133" s="9" t="s">
-        <v>246</v>
-      </c>
-      <c r="B133" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="C133" s="5" t="s">
-        <v>244</v>
+      <c r="A133" s="11" t="str">
+        <f t="shared" si="5"/>
+        <v>mouse paranephric body adipocyte</v>
+      </c>
+      <c r="B133" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="C133" s="3" t="s">
+        <v>235</v>
       </c>
       <c r="D133" s="2"/>
       <c r="E133" s="2"/>
@@ -7220,20 +7276,19 @@
       <c r="X133" s="2"/>
     </row>
     <row r="134">
-      <c r="A134" s="17" t="s">
-        <v>247</v>
-      </c>
-      <c r="B134" s="16" t="s">
-        <v>248</v>
-      </c>
-      <c r="C134" s="5" t="s">
-        <v>244</v>
+      <c r="A134" s="11" t="str">
+        <f t="shared" si="5"/>
+        <v>mouse proximal tubule S1/S2 cell</v>
+      </c>
+      <c r="B134" s="11" t="s">
+        <v>243</v>
+      </c>
+      <c r="C134" s="3" t="s">
+        <v>235</v>
       </c>
       <c r="D134" s="2"/>
       <c r="E134" s="2"/>
-      <c r="F134" s="16" t="s">
-        <v>118</v>
-      </c>
+      <c r="F134" s="2"/>
       <c r="G134" s="2"/>
       <c r="H134" s="2"/>
       <c r="I134" s="2"/>
@@ -7254,20 +7309,19 @@
       <c r="X134" s="2"/>
     </row>
     <row r="135">
-      <c r="A135" s="16" t="s">
-        <v>249</v>
-      </c>
-      <c r="B135" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="C135" s="5" t="s">
-        <v>250</v>
+      <c r="A135" s="11" t="str">
+        <f t="shared" si="5"/>
+        <v>mouse proximal tubule S3 type 1 cell </v>
+      </c>
+      <c r="B135" s="11" t="s">
+        <v>246</v>
+      </c>
+      <c r="C135" s="3" t="s">
+        <v>235</v>
       </c>
       <c r="D135" s="2"/>
       <c r="E135" s="2"/>
-      <c r="F135" s="16" t="s">
-        <v>251</v>
-      </c>
+      <c r="F135" s="2"/>
       <c r="G135" s="2"/>
       <c r="H135" s="2"/>
       <c r="I135" s="2"/>
@@ -7288,19 +7342,18 @@
       <c r="X135" s="2"/>
     </row>
     <row r="136">
-      <c r="A136" s="23" t="s">
-        <v>252</v>
-      </c>
-      <c r="B136" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="C136" s="5" t="s">
-        <v>254</v>
+      <c r="A136" s="11" t="str">
+        <f t="shared" si="5"/>
+        <v>mouse proximal tubule S3 type 2 cell</v>
+      </c>
+      <c r="B136" s="11" t="s">
+        <v>247</v>
+      </c>
+      <c r="C136" s="3" t="s">
+        <v>235</v>
       </c>
       <c r="D136" s="2"/>
-      <c r="E136" s="24" t="s">
-        <v>255</v>
-      </c>
+      <c r="E136" s="2"/>
       <c r="F136" s="2"/>
       <c r="G136" s="2"/>
       <c r="H136" s="2"/>
@@ -7322,19 +7375,11 @@
       <c r="X136" s="2"/>
     </row>
     <row r="137">
-      <c r="A137" s="25" t="s">
-        <v>256</v>
-      </c>
-      <c r="B137" s="16" t="s">
-        <v>128</v>
-      </c>
-      <c r="C137" s="5" t="s">
-        <v>257</v>
-      </c>
+      <c r="A137" s="11"/>
+      <c r="B137" s="2"/>
+      <c r="C137" s="2"/>
       <c r="D137" s="2"/>
-      <c r="E137" s="26" t="s">
-        <v>258</v>
-      </c>
+      <c r="E137" s="2"/>
       <c r="F137" s="2"/>
       <c r="G137" s="2"/>
       <c r="H137" s="2"/>
@@ -7356,19 +7401,11 @@
       <c r="X137" s="2"/>
     </row>
     <row r="138">
-      <c r="A138" s="27" t="s">
-        <v>259</v>
-      </c>
-      <c r="B138" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="C138" s="5" t="s">
-        <v>257</v>
-      </c>
+      <c r="A138" s="11"/>
+      <c r="B138" s="2"/>
+      <c r="C138" s="2"/>
       <c r="D138" s="2"/>
-      <c r="E138" s="16" t="s">
-        <v>261</v>
-      </c>
+      <c r="E138" s="2"/>
       <c r="F138" s="2"/>
       <c r="G138" s="2"/>
       <c r="H138" s="2"/>
@@ -7390,19 +7427,11 @@
       <c r="X138" s="2"/>
     </row>
     <row r="139">
-      <c r="A139" s="16" t="s">
-        <v>262</v>
-      </c>
-      <c r="B139" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="C139" s="5" t="s">
-        <v>257</v>
-      </c>
+      <c r="A139" s="11"/>
+      <c r="B139" s="2"/>
+      <c r="C139" s="2"/>
       <c r="D139" s="2"/>
-      <c r="E139" s="16" t="s">
-        <v>264</v>
-      </c>
+      <c r="E139" s="2"/>
       <c r="F139" s="2"/>
       <c r="G139" s="2"/>
       <c r="H139" s="2"/>
@@ -7424,19 +7453,11 @@
       <c r="X139" s="2"/>
     </row>
     <row r="140">
-      <c r="A140" s="16" t="s">
-        <v>265</v>
-      </c>
-      <c r="B140" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="C140" s="5" t="s">
-        <v>257</v>
-      </c>
+      <c r="A140" s="2"/>
+      <c r="B140" s="2"/>
+      <c r="C140" s="2"/>
       <c r="D140" s="2"/>
-      <c r="E140" s="27" t="s">
-        <v>266</v>
-      </c>
+      <c r="E140" s="2"/>
       <c r="F140" s="2"/>
       <c r="G140" s="2"/>
       <c r="H140" s="2"/>
@@ -7458,15 +7479,9 @@
       <c r="X140" s="2"/>
     </row>
     <row r="141">
-      <c r="A141" s="16" t="s">
-        <v>267</v>
-      </c>
-      <c r="B141" s="16" t="s">
-        <v>265</v>
-      </c>
-      <c r="C141" s="5" t="s">
-        <v>257</v>
-      </c>
+      <c r="A141" s="2"/>
+      <c r="B141" s="2"/>
+      <c r="C141" s="2"/>
       <c r="D141" s="2"/>
       <c r="E141" s="2"/>
       <c r="F141" s="2"/>
@@ -7490,19 +7505,11 @@
       <c r="X141" s="2"/>
     </row>
     <row r="142">
-      <c r="A142" s="26" t="s">
-        <v>268</v>
-      </c>
-      <c r="B142" s="16" t="s">
-        <v>269</v>
-      </c>
-      <c r="C142" s="5" t="s">
-        <v>257</v>
-      </c>
+      <c r="A142" s="2"/>
+      <c r="B142" s="2"/>
+      <c r="C142" s="2"/>
       <c r="D142" s="2"/>
-      <c r="E142" s="25" t="s">
-        <v>270</v>
-      </c>
+      <c r="E142" s="2"/>
       <c r="F142" s="2"/>
       <c r="G142" s="2"/>
       <c r="H142" s="2"/>
@@ -19798,7 +19805,7 @@
     <row r="615">
       <c r="A615" s="2"/>
       <c r="B615" s="2"/>
-      <c r="C615" s="2"/>
+      <c r="C615" s="25"/>
       <c r="D615" s="2"/>
       <c r="E615" s="2"/>
       <c r="F615" s="2"/>
@@ -19821,734 +19828,6 @@
       <c r="W615" s="2"/>
       <c r="X615" s="2"/>
     </row>
-    <row r="616">
-      <c r="A616" s="2"/>
-      <c r="B616" s="2"/>
-      <c r="C616" s="2"/>
-      <c r="D616" s="2"/>
-      <c r="E616" s="2"/>
-      <c r="F616" s="2"/>
-      <c r="G616" s="2"/>
-      <c r="H616" s="2"/>
-      <c r="I616" s="2"/>
-      <c r="J616" s="2"/>
-      <c r="K616" s="2"/>
-      <c r="L616" s="2"/>
-      <c r="M616" s="2"/>
-      <c r="N616" s="2"/>
-      <c r="O616" s="2"/>
-      <c r="P616" s="2"/>
-      <c r="Q616" s="2"/>
-      <c r="R616" s="2"/>
-      <c r="S616" s="2"/>
-      <c r="T616" s="2"/>
-      <c r="U616" s="2"/>
-      <c r="V616" s="2"/>
-      <c r="W616" s="2"/>
-      <c r="X616" s="2"/>
-    </row>
-    <row r="617">
-      <c r="A617" s="2"/>
-      <c r="B617" s="2"/>
-      <c r="C617" s="2"/>
-      <c r="D617" s="2"/>
-      <c r="E617" s="2"/>
-      <c r="F617" s="2"/>
-      <c r="G617" s="2"/>
-      <c r="H617" s="2"/>
-      <c r="I617" s="2"/>
-      <c r="J617" s="2"/>
-      <c r="K617" s="2"/>
-      <c r="L617" s="2"/>
-      <c r="M617" s="2"/>
-      <c r="N617" s="2"/>
-      <c r="O617" s="2"/>
-      <c r="P617" s="2"/>
-      <c r="Q617" s="2"/>
-      <c r="R617" s="2"/>
-      <c r="S617" s="2"/>
-      <c r="T617" s="2"/>
-      <c r="U617" s="2"/>
-      <c r="V617" s="2"/>
-      <c r="W617" s="2"/>
-      <c r="X617" s="2"/>
-    </row>
-    <row r="618">
-      <c r="A618" s="2"/>
-      <c r="B618" s="2"/>
-      <c r="C618" s="2"/>
-      <c r="D618" s="2"/>
-      <c r="E618" s="2"/>
-      <c r="F618" s="2"/>
-      <c r="G618" s="2"/>
-      <c r="H618" s="2"/>
-      <c r="I618" s="2"/>
-      <c r="J618" s="2"/>
-      <c r="K618" s="2"/>
-      <c r="L618" s="2"/>
-      <c r="M618" s="2"/>
-      <c r="N618" s="2"/>
-      <c r="O618" s="2"/>
-      <c r="P618" s="2"/>
-      <c r="Q618" s="2"/>
-      <c r="R618" s="2"/>
-      <c r="S618" s="2"/>
-      <c r="T618" s="2"/>
-      <c r="U618" s="2"/>
-      <c r="V618" s="2"/>
-      <c r="W618" s="2"/>
-      <c r="X618" s="2"/>
-    </row>
-    <row r="619">
-      <c r="A619" s="2"/>
-      <c r="B619" s="2"/>
-      <c r="C619" s="2"/>
-      <c r="D619" s="2"/>
-      <c r="E619" s="2"/>
-      <c r="F619" s="2"/>
-      <c r="G619" s="2"/>
-      <c r="H619" s="2"/>
-      <c r="I619" s="2"/>
-      <c r="J619" s="2"/>
-      <c r="K619" s="2"/>
-      <c r="L619" s="2"/>
-      <c r="M619" s="2"/>
-      <c r="N619" s="2"/>
-      <c r="O619" s="2"/>
-      <c r="P619" s="2"/>
-      <c r="Q619" s="2"/>
-      <c r="R619" s="2"/>
-      <c r="S619" s="2"/>
-      <c r="T619" s="2"/>
-      <c r="U619" s="2"/>
-      <c r="V619" s="2"/>
-      <c r="W619" s="2"/>
-      <c r="X619" s="2"/>
-    </row>
-    <row r="620">
-      <c r="A620" s="2"/>
-      <c r="B620" s="2"/>
-      <c r="C620" s="2"/>
-      <c r="D620" s="2"/>
-      <c r="E620" s="2"/>
-      <c r="F620" s="2"/>
-      <c r="G620" s="2"/>
-      <c r="H620" s="2"/>
-      <c r="I620" s="2"/>
-      <c r="J620" s="2"/>
-      <c r="K620" s="2"/>
-      <c r="L620" s="2"/>
-      <c r="M620" s="2"/>
-      <c r="N620" s="2"/>
-      <c r="O620" s="2"/>
-      <c r="P620" s="2"/>
-      <c r="Q620" s="2"/>
-      <c r="R620" s="2"/>
-      <c r="S620" s="2"/>
-      <c r="T620" s="2"/>
-      <c r="U620" s="2"/>
-      <c r="V620" s="2"/>
-      <c r="W620" s="2"/>
-      <c r="X620" s="2"/>
-    </row>
-    <row r="621">
-      <c r="A621" s="2"/>
-      <c r="B621" s="2"/>
-      <c r="C621" s="2"/>
-      <c r="D621" s="2"/>
-      <c r="E621" s="2"/>
-      <c r="F621" s="2"/>
-      <c r="G621" s="2"/>
-      <c r="H621" s="2"/>
-      <c r="I621" s="2"/>
-      <c r="J621" s="2"/>
-      <c r="K621" s="2"/>
-      <c r="L621" s="2"/>
-      <c r="M621" s="2"/>
-      <c r="N621" s="2"/>
-      <c r="O621" s="2"/>
-      <c r="P621" s="2"/>
-      <c r="Q621" s="2"/>
-      <c r="R621" s="2"/>
-      <c r="S621" s="2"/>
-      <c r="T621" s="2"/>
-      <c r="U621" s="2"/>
-      <c r="V621" s="2"/>
-      <c r="W621" s="2"/>
-      <c r="X621" s="2"/>
-    </row>
-    <row r="622">
-      <c r="A622" s="2"/>
-      <c r="B622" s="2"/>
-      <c r="C622" s="2"/>
-      <c r="D622" s="2"/>
-      <c r="E622" s="2"/>
-      <c r="F622" s="2"/>
-      <c r="G622" s="2"/>
-      <c r="H622" s="2"/>
-      <c r="I622" s="2"/>
-      <c r="J622" s="2"/>
-      <c r="K622" s="2"/>
-      <c r="L622" s="2"/>
-      <c r="M622" s="2"/>
-      <c r="N622" s="2"/>
-      <c r="O622" s="2"/>
-      <c r="P622" s="2"/>
-      <c r="Q622" s="2"/>
-      <c r="R622" s="2"/>
-      <c r="S622" s="2"/>
-      <c r="T622" s="2"/>
-      <c r="U622" s="2"/>
-      <c r="V622" s="2"/>
-      <c r="W622" s="2"/>
-      <c r="X622" s="2"/>
-    </row>
-    <row r="623">
-      <c r="A623" s="2"/>
-      <c r="B623" s="2"/>
-      <c r="C623" s="2"/>
-      <c r="D623" s="2"/>
-      <c r="E623" s="2"/>
-      <c r="F623" s="2"/>
-      <c r="G623" s="2"/>
-      <c r="H623" s="2"/>
-      <c r="I623" s="2"/>
-      <c r="J623" s="2"/>
-      <c r="K623" s="2"/>
-      <c r="L623" s="2"/>
-      <c r="M623" s="2"/>
-      <c r="N623" s="2"/>
-      <c r="O623" s="2"/>
-      <c r="P623" s="2"/>
-      <c r="Q623" s="2"/>
-      <c r="R623" s="2"/>
-      <c r="S623" s="2"/>
-      <c r="T623" s="2"/>
-      <c r="U623" s="2"/>
-      <c r="V623" s="2"/>
-      <c r="W623" s="2"/>
-      <c r="X623" s="2"/>
-    </row>
-    <row r="624">
-      <c r="A624" s="2"/>
-      <c r="B624" s="2"/>
-      <c r="C624" s="2"/>
-      <c r="D624" s="2"/>
-      <c r="E624" s="2"/>
-      <c r="F624" s="2"/>
-      <c r="G624" s="2"/>
-      <c r="H624" s="2"/>
-      <c r="I624" s="2"/>
-      <c r="J624" s="2"/>
-      <c r="K624" s="2"/>
-      <c r="L624" s="2"/>
-      <c r="M624" s="2"/>
-      <c r="N624" s="2"/>
-      <c r="O624" s="2"/>
-      <c r="P624" s="2"/>
-      <c r="Q624" s="2"/>
-      <c r="R624" s="2"/>
-      <c r="S624" s="2"/>
-      <c r="T624" s="2"/>
-      <c r="U624" s="2"/>
-      <c r="V624" s="2"/>
-      <c r="W624" s="2"/>
-      <c r="X624" s="2"/>
-    </row>
-    <row r="625">
-      <c r="A625" s="2"/>
-      <c r="B625" s="2"/>
-      <c r="C625" s="2"/>
-      <c r="D625" s="2"/>
-      <c r="E625" s="2"/>
-      <c r="F625" s="2"/>
-      <c r="G625" s="2"/>
-      <c r="H625" s="2"/>
-      <c r="I625" s="2"/>
-      <c r="J625" s="2"/>
-      <c r="K625" s="2"/>
-      <c r="L625" s="2"/>
-      <c r="M625" s="2"/>
-      <c r="N625" s="2"/>
-      <c r="O625" s="2"/>
-      <c r="P625" s="2"/>
-      <c r="Q625" s="2"/>
-      <c r="R625" s="2"/>
-      <c r="S625" s="2"/>
-      <c r="T625" s="2"/>
-      <c r="U625" s="2"/>
-      <c r="V625" s="2"/>
-      <c r="W625" s="2"/>
-      <c r="X625" s="2"/>
-    </row>
-    <row r="626">
-      <c r="A626" s="2"/>
-      <c r="B626" s="2"/>
-      <c r="C626" s="2"/>
-      <c r="D626" s="2"/>
-      <c r="E626" s="2"/>
-      <c r="F626" s="2"/>
-      <c r="G626" s="2"/>
-      <c r="H626" s="2"/>
-      <c r="I626" s="2"/>
-      <c r="J626" s="2"/>
-      <c r="K626" s="2"/>
-      <c r="L626" s="2"/>
-      <c r="M626" s="2"/>
-      <c r="N626" s="2"/>
-      <c r="O626" s="2"/>
-      <c r="P626" s="2"/>
-      <c r="Q626" s="2"/>
-      <c r="R626" s="2"/>
-      <c r="S626" s="2"/>
-      <c r="T626" s="2"/>
-      <c r="U626" s="2"/>
-      <c r="V626" s="2"/>
-      <c r="W626" s="2"/>
-      <c r="X626" s="2"/>
-    </row>
-    <row r="627">
-      <c r="A627" s="2"/>
-      <c r="B627" s="2"/>
-      <c r="C627" s="2"/>
-      <c r="D627" s="2"/>
-      <c r="E627" s="2"/>
-      <c r="F627" s="2"/>
-      <c r="G627" s="2"/>
-      <c r="H627" s="2"/>
-      <c r="I627" s="2"/>
-      <c r="J627" s="2"/>
-      <c r="K627" s="2"/>
-      <c r="L627" s="2"/>
-      <c r="M627" s="2"/>
-      <c r="N627" s="2"/>
-      <c r="O627" s="2"/>
-      <c r="P627" s="2"/>
-      <c r="Q627" s="2"/>
-      <c r="R627" s="2"/>
-      <c r="S627" s="2"/>
-      <c r="T627" s="2"/>
-      <c r="U627" s="2"/>
-      <c r="V627" s="2"/>
-      <c r="W627" s="2"/>
-      <c r="X627" s="2"/>
-    </row>
-    <row r="628">
-      <c r="A628" s="2"/>
-      <c r="B628" s="2"/>
-      <c r="C628" s="2"/>
-      <c r="D628" s="2"/>
-      <c r="E628" s="2"/>
-      <c r="F628" s="2"/>
-      <c r="G628" s="2"/>
-      <c r="H628" s="2"/>
-      <c r="I628" s="2"/>
-      <c r="J628" s="2"/>
-      <c r="K628" s="2"/>
-      <c r="L628" s="2"/>
-      <c r="M628" s="2"/>
-      <c r="N628" s="2"/>
-      <c r="O628" s="2"/>
-      <c r="P628" s="2"/>
-      <c r="Q628" s="2"/>
-      <c r="R628" s="2"/>
-      <c r="S628" s="2"/>
-      <c r="T628" s="2"/>
-      <c r="U628" s="2"/>
-      <c r="V628" s="2"/>
-      <c r="W628" s="2"/>
-      <c r="X628" s="2"/>
-    </row>
-    <row r="629">
-      <c r="A629" s="2"/>
-      <c r="B629" s="2"/>
-      <c r="C629" s="2"/>
-      <c r="D629" s="2"/>
-      <c r="E629" s="2"/>
-      <c r="F629" s="2"/>
-      <c r="G629" s="2"/>
-      <c r="H629" s="2"/>
-      <c r="I629" s="2"/>
-      <c r="J629" s="2"/>
-      <c r="K629" s="2"/>
-      <c r="L629" s="2"/>
-      <c r="M629" s="2"/>
-      <c r="N629" s="2"/>
-      <c r="O629" s="2"/>
-      <c r="P629" s="2"/>
-      <c r="Q629" s="2"/>
-      <c r="R629" s="2"/>
-      <c r="S629" s="2"/>
-      <c r="T629" s="2"/>
-      <c r="U629" s="2"/>
-      <c r="V629" s="2"/>
-      <c r="W629" s="2"/>
-      <c r="X629" s="2"/>
-    </row>
-    <row r="630">
-      <c r="A630" s="2"/>
-      <c r="B630" s="2"/>
-      <c r="C630" s="2"/>
-      <c r="D630" s="2"/>
-      <c r="E630" s="2"/>
-      <c r="F630" s="2"/>
-      <c r="G630" s="2"/>
-      <c r="H630" s="2"/>
-      <c r="I630" s="2"/>
-      <c r="J630" s="2"/>
-      <c r="K630" s="2"/>
-      <c r="L630" s="2"/>
-      <c r="M630" s="2"/>
-      <c r="N630" s="2"/>
-      <c r="O630" s="2"/>
-      <c r="P630" s="2"/>
-      <c r="Q630" s="2"/>
-      <c r="R630" s="2"/>
-      <c r="S630" s="2"/>
-      <c r="T630" s="2"/>
-      <c r="U630" s="2"/>
-      <c r="V630" s="2"/>
-      <c r="W630" s="2"/>
-      <c r="X630" s="2"/>
-    </row>
-    <row r="631">
-      <c r="A631" s="2"/>
-      <c r="B631" s="2"/>
-      <c r="C631" s="2"/>
-      <c r="D631" s="2"/>
-      <c r="E631" s="2"/>
-      <c r="F631" s="2"/>
-      <c r="G631" s="2"/>
-      <c r="H631" s="2"/>
-      <c r="I631" s="2"/>
-      <c r="J631" s="2"/>
-      <c r="K631" s="2"/>
-      <c r="L631" s="2"/>
-      <c r="M631" s="2"/>
-      <c r="N631" s="2"/>
-      <c r="O631" s="2"/>
-      <c r="P631" s="2"/>
-      <c r="Q631" s="2"/>
-      <c r="R631" s="2"/>
-      <c r="S631" s="2"/>
-      <c r="T631" s="2"/>
-      <c r="U631" s="2"/>
-      <c r="V631" s="2"/>
-      <c r="W631" s="2"/>
-      <c r="X631" s="2"/>
-    </row>
-    <row r="632">
-      <c r="A632" s="2"/>
-      <c r="B632" s="2"/>
-      <c r="C632" s="2"/>
-      <c r="D632" s="2"/>
-      <c r="E632" s="2"/>
-      <c r="F632" s="2"/>
-      <c r="G632" s="2"/>
-      <c r="H632" s="2"/>
-      <c r="I632" s="2"/>
-      <c r="J632" s="2"/>
-      <c r="K632" s="2"/>
-      <c r="L632" s="2"/>
-      <c r="M632" s="2"/>
-      <c r="N632" s="2"/>
-      <c r="O632" s="2"/>
-      <c r="P632" s="2"/>
-      <c r="Q632" s="2"/>
-      <c r="R632" s="2"/>
-      <c r="S632" s="2"/>
-      <c r="T632" s="2"/>
-      <c r="U632" s="2"/>
-      <c r="V632" s="2"/>
-      <c r="W632" s="2"/>
-      <c r="X632" s="2"/>
-    </row>
-    <row r="633">
-      <c r="A633" s="2"/>
-      <c r="B633" s="2"/>
-      <c r="C633" s="2"/>
-      <c r="D633" s="2"/>
-      <c r="E633" s="2"/>
-      <c r="F633" s="2"/>
-      <c r="G633" s="2"/>
-      <c r="H633" s="2"/>
-      <c r="I633" s="2"/>
-      <c r="J633" s="2"/>
-      <c r="K633" s="2"/>
-      <c r="L633" s="2"/>
-      <c r="M633" s="2"/>
-      <c r="N633" s="2"/>
-      <c r="O633" s="2"/>
-      <c r="P633" s="2"/>
-      <c r="Q633" s="2"/>
-      <c r="R633" s="2"/>
-      <c r="S633" s="2"/>
-      <c r="T633" s="2"/>
-      <c r="U633" s="2"/>
-      <c r="V633" s="2"/>
-      <c r="W633" s="2"/>
-      <c r="X633" s="2"/>
-    </row>
-    <row r="634">
-      <c r="A634" s="2"/>
-      <c r="B634" s="2"/>
-      <c r="C634" s="2"/>
-      <c r="D634" s="2"/>
-      <c r="E634" s="2"/>
-      <c r="F634" s="2"/>
-      <c r="G634" s="2"/>
-      <c r="H634" s="2"/>
-      <c r="I634" s="2"/>
-      <c r="J634" s="2"/>
-      <c r="K634" s="2"/>
-      <c r="L634" s="2"/>
-      <c r="M634" s="2"/>
-      <c r="N634" s="2"/>
-      <c r="O634" s="2"/>
-      <c r="P634" s="2"/>
-      <c r="Q634" s="2"/>
-      <c r="R634" s="2"/>
-      <c r="S634" s="2"/>
-      <c r="T634" s="2"/>
-      <c r="U634" s="2"/>
-      <c r="V634" s="2"/>
-      <c r="W634" s="2"/>
-      <c r="X634" s="2"/>
-    </row>
-    <row r="635">
-      <c r="A635" s="2"/>
-      <c r="B635" s="2"/>
-      <c r="C635" s="2"/>
-      <c r="D635" s="2"/>
-      <c r="E635" s="2"/>
-      <c r="F635" s="2"/>
-      <c r="G635" s="2"/>
-      <c r="H635" s="2"/>
-      <c r="I635" s="2"/>
-      <c r="J635" s="2"/>
-      <c r="K635" s="2"/>
-      <c r="L635" s="2"/>
-      <c r="M635" s="2"/>
-      <c r="N635" s="2"/>
-      <c r="O635" s="2"/>
-      <c r="P635" s="2"/>
-      <c r="Q635" s="2"/>
-      <c r="R635" s="2"/>
-      <c r="S635" s="2"/>
-      <c r="T635" s="2"/>
-      <c r="U635" s="2"/>
-      <c r="V635" s="2"/>
-      <c r="W635" s="2"/>
-      <c r="X635" s="2"/>
-    </row>
-    <row r="636">
-      <c r="A636" s="2"/>
-      <c r="B636" s="2"/>
-      <c r="C636" s="2"/>
-      <c r="D636" s="2"/>
-      <c r="E636" s="2"/>
-      <c r="F636" s="2"/>
-      <c r="G636" s="2"/>
-      <c r="H636" s="2"/>
-      <c r="I636" s="2"/>
-      <c r="J636" s="2"/>
-      <c r="K636" s="2"/>
-      <c r="L636" s="2"/>
-      <c r="M636" s="2"/>
-      <c r="N636" s="2"/>
-      <c r="O636" s="2"/>
-      <c r="P636" s="2"/>
-      <c r="Q636" s="2"/>
-      <c r="R636" s="2"/>
-      <c r="S636" s="2"/>
-      <c r="T636" s="2"/>
-      <c r="U636" s="2"/>
-      <c r="V636" s="2"/>
-      <c r="W636" s="2"/>
-      <c r="X636" s="2"/>
-    </row>
-    <row r="637">
-      <c r="A637" s="2"/>
-      <c r="B637" s="2"/>
-      <c r="C637" s="2"/>
-      <c r="D637" s="2"/>
-      <c r="E637" s="2"/>
-      <c r="F637" s="2"/>
-      <c r="G637" s="2"/>
-      <c r="H637" s="2"/>
-      <c r="I637" s="2"/>
-      <c r="J637" s="2"/>
-      <c r="K637" s="2"/>
-      <c r="L637" s="2"/>
-      <c r="M637" s="2"/>
-      <c r="N637" s="2"/>
-      <c r="O637" s="2"/>
-      <c r="P637" s="2"/>
-      <c r="Q637" s="2"/>
-      <c r="R637" s="2"/>
-      <c r="S637" s="2"/>
-      <c r="T637" s="2"/>
-      <c r="U637" s="2"/>
-      <c r="V637" s="2"/>
-      <c r="W637" s="2"/>
-      <c r="X637" s="2"/>
-    </row>
-    <row r="638">
-      <c r="A638" s="2"/>
-      <c r="B638" s="2"/>
-      <c r="C638" s="2"/>
-      <c r="D638" s="2"/>
-      <c r="E638" s="2"/>
-      <c r="F638" s="2"/>
-      <c r="G638" s="2"/>
-      <c r="H638" s="2"/>
-      <c r="I638" s="2"/>
-      <c r="J638" s="2"/>
-      <c r="K638" s="2"/>
-      <c r="L638" s="2"/>
-      <c r="M638" s="2"/>
-      <c r="N638" s="2"/>
-      <c r="O638" s="2"/>
-      <c r="P638" s="2"/>
-      <c r="Q638" s="2"/>
-      <c r="R638" s="2"/>
-      <c r="S638" s="2"/>
-      <c r="T638" s="2"/>
-      <c r="U638" s="2"/>
-      <c r="V638" s="2"/>
-      <c r="W638" s="2"/>
-      <c r="X638" s="2"/>
-    </row>
-    <row r="639">
-      <c r="A639" s="2"/>
-      <c r="B639" s="2"/>
-      <c r="C639" s="2"/>
-      <c r="D639" s="2"/>
-      <c r="E639" s="2"/>
-      <c r="F639" s="2"/>
-      <c r="G639" s="2"/>
-      <c r="H639" s="2"/>
-      <c r="I639" s="2"/>
-      <c r="J639" s="2"/>
-      <c r="K639" s="2"/>
-      <c r="L639" s="2"/>
-      <c r="M639" s="2"/>
-      <c r="N639" s="2"/>
-      <c r="O639" s="2"/>
-      <c r="P639" s="2"/>
-      <c r="Q639" s="2"/>
-      <c r="R639" s="2"/>
-      <c r="S639" s="2"/>
-      <c r="T639" s="2"/>
-      <c r="U639" s="2"/>
-      <c r="V639" s="2"/>
-      <c r="W639" s="2"/>
-      <c r="X639" s="2"/>
-    </row>
-    <row r="640">
-      <c r="A640" s="2"/>
-      <c r="B640" s="2"/>
-      <c r="C640" s="2"/>
-      <c r="D640" s="2"/>
-      <c r="E640" s="2"/>
-      <c r="F640" s="2"/>
-      <c r="G640" s="2"/>
-      <c r="H640" s="2"/>
-      <c r="I640" s="2"/>
-      <c r="J640" s="2"/>
-      <c r="K640" s="2"/>
-      <c r="L640" s="2"/>
-      <c r="M640" s="2"/>
-      <c r="N640" s="2"/>
-      <c r="O640" s="2"/>
-      <c r="P640" s="2"/>
-      <c r="Q640" s="2"/>
-      <c r="R640" s="2"/>
-      <c r="S640" s="2"/>
-      <c r="T640" s="2"/>
-      <c r="U640" s="2"/>
-      <c r="V640" s="2"/>
-      <c r="W640" s="2"/>
-      <c r="X640" s="2"/>
-    </row>
-    <row r="641">
-      <c r="A641" s="2"/>
-      <c r="B641" s="2"/>
-      <c r="C641" s="2"/>
-      <c r="D641" s="2"/>
-      <c r="E641" s="2"/>
-      <c r="F641" s="2"/>
-      <c r="G641" s="2"/>
-      <c r="H641" s="2"/>
-      <c r="I641" s="2"/>
-      <c r="J641" s="2"/>
-      <c r="K641" s="2"/>
-      <c r="L641" s="2"/>
-      <c r="M641" s="2"/>
-      <c r="N641" s="2"/>
-      <c r="O641" s="2"/>
-      <c r="P641" s="2"/>
-      <c r="Q641" s="2"/>
-      <c r="R641" s="2"/>
-      <c r="S641" s="2"/>
-      <c r="T641" s="2"/>
-      <c r="U641" s="2"/>
-      <c r="V641" s="2"/>
-      <c r="W641" s="2"/>
-      <c r="X641" s="2"/>
-    </row>
-    <row r="642">
-      <c r="A642" s="2"/>
-      <c r="B642" s="2"/>
-      <c r="C642" s="2"/>
-      <c r="D642" s="2"/>
-      <c r="E642" s="2"/>
-      <c r="F642" s="2"/>
-      <c r="G642" s="2"/>
-      <c r="H642" s="2"/>
-      <c r="I642" s="2"/>
-      <c r="J642" s="2"/>
-      <c r="K642" s="2"/>
-      <c r="L642" s="2"/>
-      <c r="M642" s="2"/>
-      <c r="N642" s="2"/>
-      <c r="O642" s="2"/>
-      <c r="P642" s="2"/>
-      <c r="Q642" s="2"/>
-      <c r="R642" s="2"/>
-      <c r="S642" s="2"/>
-      <c r="T642" s="2"/>
-      <c r="U642" s="2"/>
-      <c r="V642" s="2"/>
-      <c r="W642" s="2"/>
-      <c r="X642" s="2"/>
-    </row>
-    <row r="643">
-      <c r="A643" s="2"/>
-      <c r="B643" s="2"/>
-      <c r="C643" s="28"/>
-      <c r="D643" s="2"/>
-      <c r="E643" s="2"/>
-      <c r="F643" s="2"/>
-      <c r="G643" s="2"/>
-      <c r="H643" s="2"/>
-      <c r="I643" s="2"/>
-      <c r="J643" s="2"/>
-      <c r="K643" s="2"/>
-      <c r="L643" s="2"/>
-      <c r="M643" s="2"/>
-      <c r="N643" s="2"/>
-      <c r="O643" s="2"/>
-      <c r="P643" s="2"/>
-      <c r="Q643" s="2"/>
-      <c r="R643" s="2"/>
-      <c r="S643" s="2"/>
-      <c r="T643" s="2"/>
-      <c r="U643" s="2"/>
-      <c r="V643" s="2"/>
-      <c r="W643" s="2"/>
-      <c r="X643" s="2"/>
-    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -20568,1953 +19847,2062 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="17" t="s">
+        <v>248</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>249</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="17" t="s">
+        <v>251</v>
+      </c>
+      <c r="B2" s="26" t="s">
+        <v>252</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>253</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="17" t="s">
+        <v>255</v>
+      </c>
+      <c r="B3" s="27" t="s">
+        <v>256</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>257</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="17" t="s">
+        <v>255</v>
+      </c>
+      <c r="B4" s="28" t="s">
+        <v>259</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>257</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="17" t="s">
+        <v>255</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>260</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>257</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="17" t="s">
+        <v>261</v>
+      </c>
+      <c r="B6" s="29" t="s">
+        <v>262</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>263</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="16" t="s">
+        <v>265</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>266</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>263</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="16" t="s">
+        <v>268</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>269</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>263</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="17" t="s">
         <v>271</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B9" s="17" t="s">
         <v>272</v>
       </c>
-      <c r="C1" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="20" t="s">
+      <c r="C9" s="17" t="s">
+        <v>263</v>
+      </c>
+      <c r="D9" s="17" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="20" t="s">
+    <row r="10">
+      <c r="A10" s="17" t="s">
+        <v>271</v>
+      </c>
+      <c r="B10" s="17" t="s">
         <v>274</v>
       </c>
-      <c r="B2" s="29" t="s">
+      <c r="C10" s="17" t="s">
+        <v>263</v>
+      </c>
+      <c r="D10" s="17" t="s">
         <v>275</v>
       </c>
-      <c r="C2" s="20" t="s">
+    </row>
+    <row r="11">
+      <c r="A11" s="17" t="s">
         <v>276</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="B11" s="16" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="20" t="s">
+      <c r="C11" s="17" t="s">
+        <v>263</v>
+      </c>
+      <c r="D11" s="17" t="s">
         <v>278</v>
       </c>
-      <c r="B3" s="30" t="s">
+    </row>
+    <row r="12">
+      <c r="A12" s="17" t="s">
         <v>279</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="B12" s="17" t="s">
         <v>280</v>
       </c>
-      <c r="D3" s="20" t="s">
+      <c r="C12" s="30" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="20" t="s">
-        <v>278</v>
-      </c>
-      <c r="B4" s="31" t="s">
+      <c r="D12" s="17" t="s">
         <v>282</v>
       </c>
-      <c r="C4" s="20" t="s">
+    </row>
+    <row r="13">
+      <c r="A13" s="17" t="s">
+        <v>283</v>
+      </c>
+      <c r="B13" s="17" t="s">
         <v>280</v>
       </c>
-      <c r="D4" s="20" t="s">
+      <c r="C13" s="30" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="20" t="s">
-        <v>278</v>
-      </c>
-      <c r="B5" s="20" t="s">
-        <v>283</v>
-      </c>
-      <c r="C5" s="20" t="s">
-        <v>280</v>
-      </c>
-      <c r="D5" s="20" t="s">
+      <c r="D13" s="17" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="17" t="s">
+        <v>284</v>
+      </c>
+      <c r="B14" s="17" t="s">
+        <v>285</v>
+      </c>
+      <c r="C14" s="30" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="20" t="s">
-        <v>284</v>
-      </c>
-      <c r="B6" s="32" t="s">
-        <v>285</v>
-      </c>
-      <c r="C6" s="20" t="s">
+      <c r="D14" s="17" t="s">
         <v>286</v>
       </c>
-      <c r="D6" s="20" t="s">
+    </row>
+    <row r="15">
+      <c r="A15" s="17" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="19" t="s">
+      <c r="B15" s="17" t="s">
         <v>288</v>
       </c>
-      <c r="B7" s="19" t="s">
+      <c r="C15" s="30" t="s">
+        <v>281</v>
+      </c>
+      <c r="D15" s="17" t="s">
         <v>289</v>
       </c>
-      <c r="C7" s="20" t="s">
-        <v>286</v>
-      </c>
-      <c r="D7" s="20" t="s">
+    </row>
+    <row r="16">
+      <c r="A16" s="16" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="19" t="s">
+      <c r="B16" s="29" t="s">
         <v>291</v>
       </c>
-      <c r="B8" s="19" t="s">
+      <c r="C16" s="17" t="s">
         <v>292</v>
       </c>
-      <c r="C8" s="20" t="s">
-        <v>286</v>
-      </c>
-      <c r="D8" s="20" t="s">
+      <c r="D16" s="17" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="20" t="s">
+    <row r="17">
+      <c r="A17" s="17" t="s">
         <v>294</v>
       </c>
-      <c r="B9" s="20" t="s">
+      <c r="B17" s="17" t="s">
         <v>295</v>
       </c>
-      <c r="C9" s="20" t="s">
-        <v>286</v>
-      </c>
-      <c r="D9" s="20" t="s">
+      <c r="C17" s="17" t="s">
+        <v>292</v>
+      </c>
+      <c r="D17" s="17" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="20" t="s">
+    <row r="18">
+      <c r="A18" s="17" t="s">
         <v>294</v>
       </c>
-      <c r="B10" s="20" t="s">
+      <c r="B18" s="29" t="s">
         <v>297</v>
       </c>
-      <c r="C10" s="20" t="s">
-        <v>286</v>
-      </c>
-      <c r="D10" s="20" t="s">
+      <c r="C18" s="17" t="s">
+        <v>292</v>
+      </c>
+      <c r="D18" s="17" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="20" t="s">
+    <row r="19">
+      <c r="A19" s="16" t="s">
         <v>299</v>
       </c>
-      <c r="B11" s="19" t="s">
+      <c r="B19" s="29" t="s">
         <v>300</v>
       </c>
-      <c r="C11" s="20" t="s">
-        <v>286</v>
-      </c>
-      <c r="D11" s="20" t="s">
+      <c r="C19" s="17" t="s">
+        <v>292</v>
+      </c>
+      <c r="D19" s="17" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="20" t="s">
+    <row r="20">
+      <c r="A20" s="17" t="s">
         <v>302</v>
       </c>
-      <c r="B12" s="20" t="s">
+      <c r="B20" s="17" t="s">
         <v>303</v>
       </c>
-      <c r="C12" s="33" t="s">
+      <c r="C20" s="17" t="s">
+        <v>292</v>
+      </c>
+      <c r="D20" s="17" t="s">
         <v>304</v>
       </c>
-      <c r="D12" s="20" t="s">
+    </row>
+    <row r="21">
+      <c r="A21" s="17" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="20" t="s">
+      <c r="B21" s="16" t="s">
         <v>306</v>
       </c>
-      <c r="B13" s="20" t="s">
-        <v>303</v>
-      </c>
-      <c r="C13" s="33" t="s">
-        <v>304</v>
-      </c>
-      <c r="D13" s="20" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="20" t="s">
+      <c r="C21" s="17" t="s">
         <v>307</v>
       </c>
-      <c r="B14" s="20" t="s">
+      <c r="D21" s="17" t="s">
         <v>308</v>
       </c>
-      <c r="C14" s="33" t="s">
-        <v>304</v>
-      </c>
-      <c r="D14" s="20" t="s">
+    </row>
+    <row r="22">
+      <c r="A22" s="17" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="20" t="s">
+      <c r="B22" s="17" t="s">
         <v>310</v>
       </c>
-      <c r="B15" s="20" t="s">
+      <c r="C22" s="31" t="s">
         <v>311</v>
       </c>
-      <c r="C15" s="33" t="s">
-        <v>304</v>
-      </c>
-      <c r="D15" s="20" t="s">
+      <c r="D22" s="17" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="19" t="s">
+    <row r="23">
+      <c r="A23" s="17" t="s">
         <v>313</v>
       </c>
-      <c r="B16" s="32" t="s">
+      <c r="B23" s="17" t="s">
         <v>314</v>
       </c>
-      <c r="C16" s="20" t="s">
+      <c r="C23" s="31" t="s">
+        <v>311</v>
+      </c>
+      <c r="D23" s="17" t="s">
         <v>315</v>
       </c>
-      <c r="D16" s="20" t="s">
+    </row>
+    <row r="24">
+      <c r="A24" s="26" t="s">
+        <v>232</v>
+      </c>
+      <c r="B24" s="17" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="20" t="s">
+      <c r="C24" s="31" t="s">
+        <v>311</v>
+      </c>
+      <c r="D24" s="17" t="s">
         <v>317</v>
       </c>
-      <c r="B17" s="20" t="s">
+    </row>
+    <row r="25">
+      <c r="A25" s="17" t="s">
         <v>318</v>
       </c>
-      <c r="C17" s="20" t="s">
-        <v>315</v>
-      </c>
-      <c r="D17" s="20" t="s">
+      <c r="B25" s="17" t="s">
         <v>319</v>
       </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="20" t="s">
-        <v>317</v>
-      </c>
-      <c r="B18" s="32" t="s">
+      <c r="C25" s="31" t="s">
+        <v>311</v>
+      </c>
+      <c r="D25" s="17" t="s">
         <v>320</v>
       </c>
-      <c r="C18" s="20" t="s">
-        <v>315</v>
-      </c>
-      <c r="D18" s="20" t="s">
+    </row>
+    <row r="26">
+      <c r="A26" s="26" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="19" t="s">
+      <c r="B26" s="32" t="s">
         <v>322</v>
       </c>
-      <c r="B19" s="32" t="s">
+      <c r="C26" s="31" t="s">
         <v>323</v>
       </c>
-      <c r="C19" s="20" t="s">
-        <v>315</v>
-      </c>
-      <c r="D19" s="20" t="s">
+      <c r="D26" s="17" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" s="20" t="s">
+    <row r="27">
+      <c r="A27" s="17" t="s">
         <v>325</v>
       </c>
-      <c r="B20" s="20" t="s">
+      <c r="B27" s="32" t="s">
         <v>326</v>
       </c>
-      <c r="C20" s="20" t="s">
-        <v>315</v>
-      </c>
-      <c r="D20" s="20" t="s">
+      <c r="C27" s="31" t="s">
+        <v>323</v>
+      </c>
+      <c r="D27" s="17" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" s="20" t="s">
+    <row r="28">
+      <c r="A28" s="17" t="s">
         <v>328</v>
       </c>
-      <c r="B21" s="19" t="s">
+      <c r="B28" s="33" t="s">
         <v>329</v>
       </c>
-      <c r="C21" s="20" t="s">
+      <c r="C28" s="31" t="s">
+        <v>323</v>
+      </c>
+      <c r="D28" s="17" t="s">
         <v>330</v>
       </c>
-      <c r="D21" s="20" t="s">
+    </row>
+    <row r="29">
+      <c r="A29" s="17" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="20" t="s">
+      <c r="B29" s="34" t="s">
         <v>332</v>
       </c>
-      <c r="B22" s="20" t="s">
+      <c r="D29" s="17" t="s">
         <v>333</v>
       </c>
-      <c r="C22" s="34" t="s">
+    </row>
+    <row r="30">
+      <c r="A30" s="17" t="s">
         <v>334</v>
       </c>
-      <c r="D22" s="20" t="s">
+      <c r="B30" s="17" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="20" t="s">
+      <c r="C30" s="3" t="s">
         <v>336</v>
       </c>
-      <c r="B23" s="20" t="s">
+      <c r="D30" s="17" t="s">
         <v>337</v>
       </c>
-      <c r="C23" s="34" t="s">
-        <v>334</v>
-      </c>
-      <c r="D23" s="20" t="s">
+    </row>
+    <row r="31">
+      <c r="A31" s="17" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="29" t="s">
+      <c r="B31" s="35" t="s">
         <v>339</v>
       </c>
-      <c r="B24" s="20" t="s">
+      <c r="C31" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="D31" s="17" t="s">
         <v>340</v>
       </c>
-      <c r="C24" s="34" t="s">
-        <v>334</v>
-      </c>
-      <c r="D24" s="20" t="s">
+    </row>
+    <row r="32">
+      <c r="A32" s="17" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="20" t="s">
+      <c r="B32" s="35" t="s">
         <v>342</v>
       </c>
-      <c r="B25" s="20" t="s">
+      <c r="C32" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="D32" s="17" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="17" t="s">
         <v>343</v>
       </c>
-      <c r="C25" s="34" t="s">
-        <v>334</v>
-      </c>
-      <c r="D25" s="20" t="s">
+      <c r="B33" s="35" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="29" t="s">
+      <c r="C33" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="D33" s="17" t="s">
         <v>345</v>
       </c>
-      <c r="B26" s="35" t="s">
+    </row>
+    <row r="34">
+      <c r="A34" s="17" t="s">
         <v>346</v>
       </c>
-      <c r="C26" s="34" t="s">
+      <c r="B34" s="17" t="s">
         <v>347</v>
       </c>
-      <c r="D26" s="20" t="s">
+      <c r="C34" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="D34" s="17" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" s="20" t="s">
+    <row r="35">
+      <c r="A35" s="17" t="s">
         <v>349</v>
       </c>
-      <c r="B27" s="35" t="s">
+      <c r="B35" s="36" t="s">
         <v>350</v>
       </c>
-      <c r="C27" s="34" t="s">
-        <v>347</v>
-      </c>
-      <c r="D27" s="20" t="s">
+      <c r="C35" s="3" t="s">
         <v>351</v>
       </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="20" t="s">
+      <c r="D35" s="17" t="s">
         <v>352</v>
       </c>
-      <c r="B28" s="36" t="s">
+    </row>
+    <row r="36">
+      <c r="A36" s="16" t="s">
         <v>353</v>
       </c>
-      <c r="C28" s="34" t="s">
-        <v>347</v>
-      </c>
-      <c r="D28" s="20" t="s">
+      <c r="B36" s="17" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="20" t="s">
+      <c r="C36" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="D36" s="17" t="s">
         <v>355</v>
       </c>
-      <c r="B29" s="37" t="s">
+    </row>
+    <row r="37">
+      <c r="A37" s="16" t="s">
+        <v>353</v>
+      </c>
+      <c r="B37" s="16" t="s">
         <v>356</v>
       </c>
-      <c r="D29" s="20" t="s">
+      <c r="C37" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="D37" s="17" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" s="20" t="s">
+    <row r="38">
+      <c r="A38" s="17" t="s">
         <v>358</v>
       </c>
-      <c r="B30" s="20" t="s">
+      <c r="B38" s="17" t="s">
         <v>359</v>
       </c>
-      <c r="C30" s="5" t="s">
+      <c r="C38" s="3" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="17" t="s">
+        <v>349</v>
+      </c>
+      <c r="B39" s="16" t="s">
         <v>360</v>
       </c>
-      <c r="D30" s="20" t="s">
+      <c r="C39" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="D39" s="17" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" s="20" t="s">
+    <row r="40">
+      <c r="A40" s="37" t="s">
         <v>362</v>
       </c>
-      <c r="B31" s="38" t="s">
+      <c r="B40" s="17" t="s">
         <v>363</v>
       </c>
-      <c r="C31" s="5" t="s">
-        <v>360</v>
-      </c>
-      <c r="D31" s="20" t="s">
+      <c r="C40" s="3" t="s">
         <v>364</v>
       </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="20" t="s">
+      <c r="D40" s="17" t="s">
         <v>365</v>
       </c>
-      <c r="B32" s="38" t="s">
+    </row>
+    <row r="41">
+      <c r="A41" s="37" t="s">
+        <v>362</v>
+      </c>
+      <c r="B41" s="17" t="s">
         <v>366</v>
       </c>
-      <c r="C32" s="5" t="s">
-        <v>360</v>
-      </c>
-      <c r="D32" s="20" t="s">
+      <c r="C41" s="3" t="s">
         <v>364</v>
       </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="20" t="s">
+      <c r="D41" s="17" t="s">
         <v>367</v>
       </c>
-      <c r="B33" s="38" t="s">
+    </row>
+    <row r="42">
+      <c r="A42" s="17" t="s">
         <v>368</v>
       </c>
-      <c r="C33" s="5" t="s">
-        <v>360</v>
-      </c>
-      <c r="D33" s="20" t="s">
+      <c r="B42" s="16" t="s">
         <v>369</v>
       </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="20" t="s">
+      <c r="C42" s="3" t="s">
         <v>370</v>
       </c>
-      <c r="B34" s="20" t="s">
+      <c r="D42" s="17" t="s">
         <v>371</v>
       </c>
-      <c r="C34" s="5" t="s">
-        <v>360</v>
-      </c>
-      <c r="D34" s="20" t="s">
+    </row>
+    <row r="43">
+      <c r="A43" s="16" t="s">
         <v>372</v>
       </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="20" t="s">
+      <c r="B43" s="17" t="s">
         <v>373</v>
       </c>
-      <c r="B35" s="39" t="s">
+      <c r="C43" s="3" t="s">
         <v>374</v>
       </c>
-      <c r="C35" s="5" t="s">
+      <c r="D43" s="17" t="s">
         <v>375</v>
       </c>
-      <c r="D35" s="20" t="s">
+    </row>
+    <row r="44">
+      <c r="A44" s="16" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="19" t="s">
+      <c r="B44" s="17" t="s">
         <v>377</v>
       </c>
-      <c r="B36" s="20" t="s">
+      <c r="C44" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="D44" s="17" t="s">
         <v>378</v>
       </c>
-      <c r="C36" s="5" t="s">
-        <v>375</v>
-      </c>
-      <c r="D36" s="20" t="s">
+    </row>
+    <row r="45">
+      <c r="A45" s="16" t="s">
         <v>379</v>
       </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="19" t="s">
-        <v>377</v>
-      </c>
-      <c r="B37" s="19" t="s">
+      <c r="B45" s="16" t="s">
         <v>380</v>
       </c>
-      <c r="C37" s="5" t="s">
-        <v>375</v>
-      </c>
-      <c r="D37" s="20" t="s">
+      <c r="C45" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="D45" s="17" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" s="20" t="s">
+    <row r="46">
+      <c r="A46" s="16" t="s">
         <v>382</v>
       </c>
-      <c r="B38" s="20" t="s">
+      <c r="B46" s="16" t="s">
         <v>383</v>
       </c>
-      <c r="C38" s="5" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="20" t="s">
-        <v>373</v>
-      </c>
-      <c r="B39" s="19" t="s">
+      <c r="C46" s="3" t="s">
         <v>384</v>
       </c>
-      <c r="C39" s="5" t="s">
-        <v>375</v>
-      </c>
-      <c r="D39" s="20" t="s">
+      <c r="D46" s="17" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" s="40" t="s">
+    <row r="47">
+      <c r="A47" s="17" t="s">
         <v>386</v>
       </c>
-      <c r="B40" s="20" t="s">
+      <c r="B47" s="17" t="s">
         <v>387</v>
       </c>
-      <c r="C40" s="5" t="s">
+      <c r="C47" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="D47" s="17" t="s">
         <v>388</v>
       </c>
-      <c r="D40" s="20" t="s">
+    </row>
+    <row r="48">
+      <c r="A48" s="17" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="40" t="s">
-        <v>386</v>
-      </c>
-      <c r="B41" s="20" t="s">
+      <c r="B48" s="10" t="s">
         <v>390</v>
       </c>
-      <c r="C41" s="5" t="s">
-        <v>388</v>
-      </c>
-      <c r="D41" s="20" t="s">
+      <c r="C48" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="D48" s="17" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" s="20" t="s">
+    <row r="49">
+      <c r="A49" s="17" t="s">
         <v>392</v>
       </c>
-      <c r="B42" s="19" t="s">
+      <c r="B49" s="16" t="s">
         <v>393</v>
       </c>
-      <c r="C42" s="5" t="s">
+      <c r="C49" s="3" t="s">
         <v>394</v>
       </c>
-      <c r="D42" s="20" t="s">
+      <c r="D49" s="17" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" s="19" t="s">
+    <row r="50">
+      <c r="A50" s="17" t="s">
         <v>396</v>
       </c>
-      <c r="B43" s="20" t="s">
+      <c r="B50" s="16" t="s">
         <v>397</v>
       </c>
-      <c r="C43" s="5" t="s">
+      <c r="C50" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="D50" s="17" t="s">
         <v>398</v>
       </c>
-      <c r="D43" s="20" t="s">
+    </row>
+    <row r="51">
+      <c r="A51" s="30" t="s">
+        <v>396</v>
+      </c>
+      <c r="B51" s="12" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="19" t="s">
+      <c r="C51" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="D51" s="17" t="s">
         <v>400</v>
       </c>
-      <c r="B44" s="20" t="s">
+    </row>
+    <row r="52">
+      <c r="A52" s="14" t="s">
         <v>401</v>
       </c>
-      <c r="C44" s="5" t="s">
-        <v>398</v>
-      </c>
-      <c r="D44" s="20" t="s">
+      <c r="B52" s="16" t="s">
         <v>402</v>
       </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="19" t="s">
+      <c r="C52" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="D52" s="17" t="s">
         <v>403</v>
       </c>
-      <c r="B45" s="19" t="s">
+    </row>
+    <row r="53">
+      <c r="A53" s="17" t="s">
         <v>404</v>
       </c>
-      <c r="C45" s="5" t="s">
-        <v>398</v>
-      </c>
-      <c r="D45" s="20" t="s">
+      <c r="B53" s="17" t="s">
         <v>405</v>
       </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="19" t="s">
+      <c r="C53" s="3" t="s">
         <v>406</v>
       </c>
-      <c r="B46" s="19" t="s">
+      <c r="D53" s="17" t="s">
         <v>407</v>
       </c>
-      <c r="C46" s="5" t="s">
+    </row>
+    <row r="54">
+      <c r="A54" s="17" t="s">
+        <v>404</v>
+      </c>
+      <c r="B54" s="16" t="s">
         <v>408</v>
       </c>
-      <c r="D46" s="20" t="s">
+      <c r="C54" s="3" t="s">
+        <v>406</v>
+      </c>
+      <c r="D54" s="17" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="17" t="s">
         <v>409</v>
       </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="20" t="s">
+      <c r="B55" s="16" t="s">
         <v>410</v>
       </c>
-      <c r="B47" s="20" t="s">
+      <c r="C55" s="3" t="s">
         <v>411</v>
       </c>
-      <c r="C47" s="5" t="s">
-        <v>408</v>
-      </c>
-      <c r="D47" s="20" t="s">
+      <c r="D55" s="17" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" s="20" t="s">
+    <row r="56">
+      <c r="A56" s="17" t="s">
         <v>413</v>
       </c>
-      <c r="B48" s="9" t="s">
+      <c r="B56" s="16" t="s">
         <v>414</v>
       </c>
-      <c r="C48" s="5" t="s">
-        <v>408</v>
-      </c>
-      <c r="D48" s="20" t="s">
+      <c r="C56" s="3" t="s">
+        <v>411</v>
+      </c>
+      <c r="D56" s="17" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" s="20" t="s">
+    <row r="57">
+      <c r="A57" s="17" t="s">
         <v>416</v>
       </c>
-      <c r="B49" s="19" t="s">
+      <c r="B57" s="12" t="s">
         <v>417</v>
       </c>
-      <c r="C49" s="5" t="s">
+      <c r="C57" s="3" t="s">
+        <v>411</v>
+      </c>
+      <c r="D57" s="17" t="s">
         <v>418</v>
       </c>
-      <c r="D49" s="20" t="s">
+    </row>
+    <row r="58">
+      <c r="A58" s="17" t="s">
         <v>419</v>
       </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="20" t="s">
+      <c r="B58" s="17" t="s">
         <v>420</v>
       </c>
-      <c r="B50" s="19" t="s">
+      <c r="C58" s="3" t="s">
+        <v>411</v>
+      </c>
+      <c r="D58" s="17" t="s">
         <v>421</v>
       </c>
-      <c r="C50" s="5" t="s">
-        <v>418</v>
-      </c>
-      <c r="D50" s="20" t="s">
+    </row>
+    <row r="59">
+      <c r="A59" s="14" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="33" t="s">
-        <v>420</v>
-      </c>
-      <c r="B51" s="12" t="s">
+      <c r="B59" s="12" t="s">
         <v>423</v>
       </c>
-      <c r="C51" s="5" t="s">
-        <v>418</v>
-      </c>
-      <c r="D51" s="20" t="s">
+      <c r="C59" s="3" t="s">
+        <v>411</v>
+      </c>
+      <c r="D59" s="17" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" s="7" t="s">
+    <row r="60">
+      <c r="A60" s="14" t="s">
         <v>425</v>
       </c>
-      <c r="B52" s="19" t="s">
+      <c r="B60" s="12" t="s">
         <v>426</v>
       </c>
-      <c r="C52" s="5" t="s">
-        <v>418</v>
-      </c>
-      <c r="D52" s="20" t="s">
+      <c r="C60" s="3" t="s">
+        <v>411</v>
+      </c>
+      <c r="D60" s="16" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="53">
-      <c r="A53" s="20" t="s">
+    <row r="61">
+      <c r="A61" s="17" t="s">
         <v>428</v>
       </c>
-      <c r="B53" s="20" t="s">
+      <c r="B61" s="12" t="s">
         <v>429</v>
       </c>
-      <c r="C53" s="5" t="s">
+      <c r="C61" s="17" t="s">
         <v>430</v>
       </c>
-      <c r="D53" s="20" t="s">
+      <c r="D61" s="16" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="54">
-      <c r="A54" s="20" t="s">
-        <v>428</v>
-      </c>
-      <c r="B54" s="19" t="s">
+    <row r="62">
+      <c r="A62" s="17" t="s">
         <v>432</v>
       </c>
-      <c r="C54" s="5" t="s">
+      <c r="B62" s="16" t="s">
+        <v>433</v>
+      </c>
+      <c r="C62" s="17" t="s">
         <v>430</v>
       </c>
-      <c r="D54" s="20" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="20" t="s">
-        <v>433</v>
-      </c>
-      <c r="B55" s="19" t="s">
+      <c r="D62" s="17" t="s">
         <v>434</v>
       </c>
-      <c r="C55" s="5" t="s">
+    </row>
+    <row r="63">
+      <c r="A63" s="17" t="s">
         <v>435</v>
       </c>
-      <c r="D55" s="20" t="s">
+      <c r="B63" s="16" t="s">
         <v>436</v>
       </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="20" t="s">
+      <c r="C63" s="17" t="s">
+        <v>430</v>
+      </c>
+      <c r="D63" s="16" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="17" t="s">
         <v>437</v>
       </c>
-      <c r="B56" s="19" t="s">
+      <c r="B64" s="17" t="s">
         <v>438</v>
       </c>
-      <c r="C56" s="5" t="s">
-        <v>435</v>
-      </c>
-      <c r="D56" s="20" t="s">
+      <c r="C64" s="17" t="s">
+        <v>430</v>
+      </c>
+      <c r="D64" s="17" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="57">
-      <c r="A57" s="20" t="s">
+    <row r="65">
+      <c r="A65" s="17" t="s">
+        <v>416</v>
+      </c>
+      <c r="B65" s="16" t="s">
         <v>440</v>
       </c>
-      <c r="B57" s="12" t="s">
+      <c r="C65" s="17" t="s">
+        <v>430</v>
+      </c>
+      <c r="D65" s="17" t="s">
         <v>441</v>
       </c>
-      <c r="C57" s="5" t="s">
-        <v>435</v>
-      </c>
-      <c r="D57" s="20" t="s">
+    </row>
+    <row r="66">
+      <c r="A66" s="16" t="s">
         <v>442</v>
       </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="20" t="s">
+      <c r="B66" s="16" t="s">
         <v>443</v>
       </c>
-      <c r="B58" s="20" t="s">
+      <c r="C66" s="17" t="s">
+        <v>430</v>
+      </c>
+      <c r="D66" s="17" t="s">
         <v>444</v>
       </c>
-      <c r="C58" s="5" t="s">
-        <v>435</v>
-      </c>
-      <c r="D58" s="20" t="s">
+    </row>
+    <row r="67">
+      <c r="A67" s="17" t="s">
         <v>445</v>
       </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="7" t="s">
+      <c r="B67" s="16" t="s">
         <v>446</v>
       </c>
-      <c r="B59" s="12" t="s">
+      <c r="C67" s="17" t="s">
+        <v>430</v>
+      </c>
+      <c r="D67" s="17" t="s">
         <v>447</v>
       </c>
-      <c r="C59" s="5" t="s">
-        <v>435</v>
-      </c>
-      <c r="D59" s="20" t="s">
+    </row>
+    <row r="68">
+      <c r="A68" s="17" t="s">
+        <v>419</v>
+      </c>
+      <c r="B68" s="17" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="7" t="s">
+      <c r="C68" s="17" t="s">
+        <v>430</v>
+      </c>
+      <c r="D68" s="17" t="s">
         <v>449</v>
       </c>
-      <c r="B60" s="12" t="s">
+    </row>
+    <row r="69">
+      <c r="A69" s="14" t="s">
         <v>450</v>
       </c>
-      <c r="C60" s="5" t="s">
-        <v>435</v>
-      </c>
-      <c r="D60" s="19" t="s">
+      <c r="B69" s="17" t="s">
+        <v>448</v>
+      </c>
+      <c r="C69" s="17" t="s">
+        <v>430</v>
+      </c>
+      <c r="D69" s="17" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="17" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="20" t="s">
+      <c r="B70" s="36" t="s">
         <v>452</v>
       </c>
-      <c r="B61" s="12" t="s">
+      <c r="C70" s="3" t="s">
         <v>453</v>
       </c>
-      <c r="C61" s="20" t="s">
+      <c r="D70" s="17" t="s">
         <v>454</v>
       </c>
-      <c r="D61" s="19" t="s">
+    </row>
+    <row r="71">
+      <c r="A71" s="17" t="s">
         <v>455</v>
       </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="20" t="s">
+      <c r="B71" s="36" t="s">
         <v>456</v>
       </c>
-      <c r="B62" s="19" t="s">
+      <c r="C71" s="3" t="s">
+        <v>453</v>
+      </c>
+      <c r="D71" s="17" t="s">
         <v>457</v>
       </c>
-      <c r="C62" s="20" t="s">
-        <v>454</v>
-      </c>
-      <c r="D62" s="20" t="s">
+    </row>
+    <row r="72">
+      <c r="A72" s="16" t="s">
         <v>458</v>
       </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="20" t="s">
+      <c r="B72" s="16" t="s">
         <v>459</v>
       </c>
-      <c r="B63" s="19" t="s">
+      <c r="C72" s="3" t="s">
         <v>460</v>
       </c>
-      <c r="C63" s="20" t="s">
-        <v>454</v>
-      </c>
-      <c r="D63" s="19" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="20" t="s">
+      <c r="D72" s="17" t="s">
         <v>461</v>
       </c>
-      <c r="B64" s="20" t="s">
+    </row>
+    <row r="73">
+      <c r="A73" s="11" t="s">
         <v>462</v>
       </c>
-      <c r="C64" s="20" t="s">
-        <v>454</v>
-      </c>
-      <c r="D64" s="20" t="s">
+      <c r="B73" s="17" t="s">
         <v>463</v>
       </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="20" t="s">
-        <v>440</v>
-      </c>
-      <c r="B65" s="19" t="s">
+      <c r="C73" s="3" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="11" t="s">
         <v>464</v>
       </c>
-      <c r="C65" s="20" t="s">
-        <v>454</v>
-      </c>
-      <c r="D65" s="20" t="s">
+      <c r="B74" s="16" t="s">
         <v>465</v>
       </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="19" t="s">
+      <c r="C74" s="3" t="s">
         <v>466</v>
       </c>
-      <c r="B66" s="19" t="s">
+      <c r="D74" s="16" t="s">
         <v>467</v>
       </c>
-      <c r="C66" s="20" t="s">
-        <v>454</v>
-      </c>
-      <c r="D66" s="20" t="s">
+    </row>
+    <row r="75">
+      <c r="A75" s="14" t="s">
         <v>468</v>
       </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="20" t="s">
+      <c r="B75" s="17" t="s">
         <v>469</v>
       </c>
-      <c r="B67" s="19" t="s">
+      <c r="C75" s="3" t="s">
         <v>470</v>
       </c>
-      <c r="C67" s="20" t="s">
-        <v>454</v>
-      </c>
-      <c r="D67" s="20" t="s">
+      <c r="D75" s="17" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="68">
-      <c r="A68" s="20" t="s">
-        <v>443</v>
-      </c>
-      <c r="B68" s="20" t="s">
+    <row r="76">
+      <c r="A76" s="14" t="s">
         <v>472</v>
       </c>
-      <c r="C68" s="20" t="s">
-        <v>454</v>
-      </c>
-      <c r="D68" s="20" t="s">
+      <c r="B76" s="17" t="s">
         <v>473</v>
       </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="7" t="s">
+      <c r="C76" s="17" t="s">
         <v>474</v>
       </c>
-      <c r="B69" s="20" t="s">
-        <v>472</v>
-      </c>
-      <c r="C69" s="20" t="s">
-        <v>454</v>
-      </c>
-      <c r="D69" s="20" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="20" t="s">
+      <c r="D76" s="17" t="s">
         <v>475</v>
       </c>
-      <c r="B70" s="39" t="s">
+    </row>
+    <row r="77">
+      <c r="A77" s="38" t="s">
         <v>476</v>
       </c>
-      <c r="C70" s="5" t="s">
+      <c r="B77" s="16" t="s">
         <v>477</v>
       </c>
-      <c r="D70" s="20" t="s">
+      <c r="C77" s="17" t="s">
+        <v>474</v>
+      </c>
+      <c r="D77" s="17" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="71">
-      <c r="A71" s="20" t="s">
+    <row r="78">
+      <c r="A78" s="11" t="s">
         <v>479</v>
       </c>
-      <c r="B71" s="39" t="s">
+      <c r="B78" s="17" t="s">
         <v>480</v>
       </c>
-      <c r="C71" s="5" t="s">
-        <v>477</v>
-      </c>
-      <c r="D71" s="20" t="s">
+      <c r="C78" s="3" t="s">
         <v>481</v>
       </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="19" t="s">
+      <c r="D78" s="17" t="s">
         <v>482</v>
       </c>
-      <c r="B72" s="19" t="s">
+    </row>
+    <row r="79">
+      <c r="A79" s="17" t="s">
         <v>483</v>
       </c>
-      <c r="C72" s="5" t="s">
+      <c r="B79" s="16" t="s">
         <v>484</v>
       </c>
-      <c r="D72" s="20" t="s">
+      <c r="C79" s="3" t="s">
+        <v>481</v>
+      </c>
+      <c r="D79" s="16" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="73">
-      <c r="A73" s="16" t="s">
+    <row r="80">
+      <c r="A80" s="17" t="s">
         <v>486</v>
       </c>
-      <c r="B73" s="20" t="s">
+      <c r="B80" s="17" t="s">
         <v>487</v>
       </c>
-      <c r="C73" s="5" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="16" t="s">
+      <c r="C80" s="3" t="s">
         <v>488</v>
       </c>
-      <c r="B74" s="19" t="s">
+      <c r="D80" s="17" t="s">
         <v>489</v>
       </c>
-      <c r="C74" s="5" t="s">
+    </row>
+    <row r="81">
+      <c r="A81" s="17" t="s">
         <v>490</v>
       </c>
-      <c r="D74" s="19" t="s">
+      <c r="B81" s="17" t="s">
         <v>491</v>
       </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="7" t="s">
+      <c r="C81" s="3" t="s">
+        <v>488</v>
+      </c>
+      <c r="D81" s="17" t="s">
         <v>492</v>
       </c>
-      <c r="B75" s="20" t="s">
+    </row>
+    <row r="82">
+      <c r="A82" s="17" t="s">
         <v>493</v>
       </c>
-      <c r="C75" s="5" t="s">
+      <c r="B82" s="16" t="s">
         <v>494</v>
       </c>
-      <c r="D75" s="20" t="s">
+      <c r="C82" s="3" t="s">
+        <v>488</v>
+      </c>
+      <c r="D82" s="17" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="76">
-      <c r="A76" s="7" t="s">
+    <row r="83">
+      <c r="A83" s="17" t="s">
         <v>496</v>
       </c>
-      <c r="B76" s="20" t="s">
+      <c r="B83" s="16" t="s">
         <v>497</v>
       </c>
-      <c r="C76" s="20" t="s">
+      <c r="C83" s="3" t="s">
         <v>498</v>
       </c>
-      <c r="D76" s="20" t="s">
+      <c r="D83" s="17" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="77">
-      <c r="A77" s="41" t="s">
+    <row r="84">
+      <c r="A84" s="17" t="s">
         <v>500</v>
       </c>
-      <c r="B77" s="19" t="s">
+      <c r="B84" s="16" t="s">
         <v>501</v>
       </c>
-      <c r="C77" s="20" t="s">
-        <v>498</v>
-      </c>
-      <c r="D77" s="20" t="s">
+      <c r="C84" s="3" t="s">
         <v>502</v>
       </c>
-    </row>
-    <row r="78">
-      <c r="A78" s="16" t="s">
+      <c r="D84" s="17" t="s">
         <v>503</v>
       </c>
-      <c r="B78" s="20" t="s">
+    </row>
+    <row r="85">
+      <c r="A85" s="17" t="s">
+        <v>500</v>
+      </c>
+      <c r="B85" s="16" t="s">
         <v>504</v>
       </c>
-      <c r="C78" s="5" t="s">
+      <c r="C85" s="3" t="s">
+        <v>502</v>
+      </c>
+      <c r="D85" s="17" t="s">
         <v>505</v>
       </c>
-      <c r="D78" s="20" t="s">
+    </row>
+    <row r="86">
+      <c r="A86" s="11" t="s">
         <v>506</v>
       </c>
-    </row>
-    <row r="79">
-      <c r="A79" s="20" t="s">
+      <c r="B86" s="16" t="s">
         <v>507</v>
       </c>
-      <c r="B79" s="19" t="s">
+      <c r="C86" s="3" t="s">
         <v>508</v>
       </c>
-      <c r="C79" s="5" t="s">
-        <v>505</v>
-      </c>
-      <c r="D79" s="19" t="s">
+      <c r="D86" s="17" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="80">
-      <c r="A80" s="20" t="s">
+    <row r="87">
+      <c r="A87" s="11" t="s">
+        <v>506</v>
+      </c>
+      <c r="B87" s="17" t="s">
         <v>510</v>
       </c>
-      <c r="B80" s="20" t="s">
+      <c r="C87" s="3" t="s">
+        <v>508</v>
+      </c>
+      <c r="D87" s="17" t="s">
         <v>511</v>
       </c>
-      <c r="C80" s="5" t="s">
+    </row>
+    <row r="88">
+      <c r="A88" s="11" t="s">
         <v>512</v>
       </c>
-      <c r="D80" s="20" t="s">
+      <c r="B88" s="12" t="s">
         <v>513</v>
       </c>
-    </row>
-    <row r="81">
-      <c r="A81" s="20" t="s">
+      <c r="C88" s="3" t="s">
         <v>514</v>
       </c>
-      <c r="B81" s="20" t="s">
+    </row>
+    <row r="89">
+      <c r="A89" s="11" t="s">
         <v>515</v>
       </c>
-      <c r="C81" s="5" t="s">
-        <v>512</v>
-      </c>
-      <c r="D81" s="20" t="s">
+      <c r="B89" s="12" t="s">
         <v>516</v>
       </c>
-    </row>
-    <row r="82">
-      <c r="A82" s="20" t="s">
+      <c r="C89" s="3" t="s">
         <v>517</v>
       </c>
-      <c r="B82" s="19" t="s">
+      <c r="D89" s="17" t="s">
         <v>518</v>
       </c>
-      <c r="C82" s="5" t="s">
-        <v>512</v>
-      </c>
-      <c r="D82" s="20" t="s">
+    </row>
+    <row r="90">
+      <c r="A90" s="17" t="s">
         <v>519</v>
       </c>
-    </row>
-    <row r="83">
-      <c r="A83" s="20" t="s">
+      <c r="B90" s="17" t="s">
         <v>520</v>
       </c>
-      <c r="B83" s="19" t="s">
+      <c r="C90" s="3" t="s">
+        <v>517</v>
+      </c>
+      <c r="D90" s="17" t="s">
         <v>521</v>
       </c>
-      <c r="C83" s="5" t="s">
+    </row>
+    <row r="91">
+      <c r="A91" s="17" t="s">
         <v>522</v>
       </c>
-      <c r="D83" s="20" t="s">
+      <c r="B91" s="17" t="s">
         <v>523</v>
       </c>
-    </row>
-    <row r="84">
-      <c r="A84" s="20" t="s">
+      <c r="C91" s="17" t="s">
         <v>524</v>
       </c>
-      <c r="B84" s="19" t="s">
+    </row>
+    <row r="92">
+      <c r="A92" s="11" t="s">
         <v>525</v>
       </c>
-      <c r="C84" s="5" t="s">
+      <c r="B92" s="16" t="s">
         <v>526</v>
       </c>
-      <c r="D84" s="20" t="s">
+      <c r="C92" s="3" t="s">
         <v>527</v>
       </c>
-    </row>
-    <row r="85">
-      <c r="A85" s="20" t="s">
-        <v>524</v>
-      </c>
-      <c r="B85" s="19" t="s">
+      <c r="D92" s="17" t="s">
         <v>528</v>
       </c>
-      <c r="C85" s="5" t="s">
-        <v>526</v>
-      </c>
-      <c r="D85" s="20" t="s">
+    </row>
+    <row r="93">
+      <c r="A93" s="17" t="s">
         <v>529</v>
       </c>
-    </row>
-    <row r="86">
-      <c r="A86" s="16" t="s">
+      <c r="B93" s="16" t="s">
         <v>530</v>
       </c>
-      <c r="B86" s="19" t="s">
+      <c r="C93" s="3" t="s">
         <v>531</v>
       </c>
-      <c r="C86" s="5" t="s">
+      <c r="D93" s="17" t="s">
         <v>532</v>
       </c>
-      <c r="D86" s="20" t="s">
+    </row>
+    <row r="94">
+      <c r="A94" s="11" t="s">
         <v>533</v>
       </c>
-    </row>
-    <row r="87">
-      <c r="A87" s="16" t="s">
-        <v>530</v>
-      </c>
-      <c r="B87" s="20" t="s">
+      <c r="B94" s="5" t="s">
         <v>534</v>
       </c>
-      <c r="C87" s="5" t="s">
-        <v>532</v>
-      </c>
-      <c r="D87" s="20" t="s">
+      <c r="C94" s="17" t="s">
         <v>535</v>
       </c>
-    </row>
-    <row r="88">
-      <c r="A88" s="16" t="s">
+      <c r="D94" s="5" t="s">
         <v>536</v>
       </c>
-      <c r="B88" s="12" t="s">
+    </row>
+    <row r="95">
+      <c r="A95" s="11" t="s">
         <v>537</v>
       </c>
-      <c r="C88" s="5" t="s">
+      <c r="B95" s="16" t="s">
         <v>538</v>
       </c>
-    </row>
-    <row r="89">
-      <c r="A89" s="16" t="s">
+      <c r="C95" s="3" t="s">
+        <v>531</v>
+      </c>
+      <c r="D95" s="17" t="s">
         <v>539</v>
       </c>
-      <c r="B89" s="12" t="s">
+    </row>
+    <row r="96">
+      <c r="A96" s="11" t="s">
         <v>540</v>
       </c>
-      <c r="C89" s="5" t="s">
+      <c r="B96" s="16" t="s">
         <v>541</v>
       </c>
-      <c r="D89" s="20" t="s">
+      <c r="C96" s="3" t="s">
         <v>542</v>
       </c>
-    </row>
-    <row r="90">
-      <c r="A90" s="20" t="s">
+      <c r="D96" s="17" t="s">
         <v>543</v>
       </c>
-      <c r="B90" s="20" t="s">
+    </row>
+    <row r="97">
+      <c r="A97" s="11" t="s">
         <v>544</v>
       </c>
-      <c r="C90" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="D90" s="20" t="s">
+      <c r="B97" s="16" t="s">
         <v>545</v>
       </c>
-    </row>
-    <row r="91">
-      <c r="A91" s="20" t="s">
+      <c r="C97" s="3" t="s">
         <v>546</v>
       </c>
-      <c r="B91" s="20" t="s">
+      <c r="D97" s="17" t="s">
         <v>547</v>
       </c>
-      <c r="C91" s="20" t="s">
+    </row>
+    <row r="98">
+      <c r="A98" s="39" t="s">
         <v>548</v>
       </c>
-    </row>
-    <row r="92">
-      <c r="A92" s="16" t="s">
+      <c r="B98" s="16" t="s">
         <v>549</v>
       </c>
-      <c r="B92" s="19" t="s">
+      <c r="C98" s="3" t="s">
         <v>550</v>
       </c>
-      <c r="C92" s="5" t="s">
+      <c r="D98" s="17" t="s">
         <v>551</v>
       </c>
-      <c r="D92" s="20" t="s">
+    </row>
+    <row r="99">
+      <c r="A99" s="39" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="93">
-      <c r="A93" s="20" t="s">
+      <c r="B99" s="16" t="s">
         <v>553</v>
       </c>
-      <c r="B93" s="19" t="s">
+      <c r="C99" s="3" t="s">
+        <v>550</v>
+      </c>
+      <c r="D99" s="17" t="s">
         <v>554</v>
       </c>
-      <c r="C93" s="5" t="s">
+    </row>
+    <row r="100">
+      <c r="A100" s="39" t="s">
         <v>555</v>
       </c>
-      <c r="D93" s="20" t="s">
+      <c r="B100" s="16" t="s">
         <v>556</v>
       </c>
-    </row>
-    <row r="94">
-      <c r="A94" s="16" t="s">
+      <c r="C100" s="3" t="s">
+        <v>550</v>
+      </c>
+      <c r="D100" s="17" t="s">
         <v>557</v>
       </c>
-      <c r="B94" s="3" t="s">
+    </row>
+    <row r="101">
+      <c r="A101" s="17" t="s">
         <v>558</v>
       </c>
-      <c r="C94" s="20" t="s">
+      <c r="B101" s="17" t="s">
         <v>559</v>
       </c>
-      <c r="D94" s="3" t="s">
+      <c r="C101" s="3" t="s">
         <v>560</v>
       </c>
-    </row>
-    <row r="95">
-      <c r="A95" s="16" t="s">
+      <c r="D101" s="17" t="s">
         <v>561</v>
       </c>
-      <c r="B95" s="19" t="s">
+    </row>
+    <row r="102">
+      <c r="A102" s="11" t="s">
         <v>562</v>
       </c>
-      <c r="C95" s="5" t="s">
-        <v>555</v>
-      </c>
-      <c r="D95" s="20" t="s">
+      <c r="B102" s="17" t="s">
         <v>563</v>
       </c>
-    </row>
-    <row r="96">
-      <c r="A96" s="16" t="s">
+      <c r="C102" s="3" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="11" t="s">
         <v>564</v>
       </c>
-      <c r="B96" s="19" t="s">
+      <c r="B103" s="16" t="s">
         <v>565</v>
       </c>
-      <c r="C96" s="5" t="s">
+      <c r="C103" s="3" t="s">
         <v>566</v>
       </c>
-      <c r="D96" s="20" t="s">
+      <c r="D103" s="17" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="97">
-      <c r="A97" s="16" t="s">
+    <row r="104">
+      <c r="A104" s="11" t="s">
         <v>568</v>
       </c>
-      <c r="B97" s="19" t="s">
+      <c r="B104" s="12" t="s">
         <v>569</v>
       </c>
-      <c r="C97" s="5" t="s">
+      <c r="C104" s="3" t="s">
+        <v>566</v>
+      </c>
+      <c r="D104" s="17" t="s">
         <v>570</v>
       </c>
-      <c r="D97" s="20" t="s">
+    </row>
+    <row r="105">
+      <c r="A105" s="16" t="s">
         <v>571</v>
       </c>
-    </row>
-    <row r="98">
-      <c r="A98" s="8" t="s">
+      <c r="B105" s="16" t="s">
         <v>572</v>
       </c>
-      <c r="B98" s="19" t="s">
+      <c r="C105" s="3" t="s">
+        <v>566</v>
+      </c>
+      <c r="D105" s="17" t="s">
         <v>573</v>
       </c>
-      <c r="C98" s="5" t="s">
+    </row>
+    <row r="106">
+      <c r="A106" s="11" t="s">
         <v>574</v>
       </c>
-      <c r="D98" s="20" t="s">
+      <c r="B106" s="40" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="99">
-      <c r="A99" s="8" t="s">
+      <c r="C106" s="3" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="11" t="s">
         <v>576</v>
       </c>
-      <c r="B99" s="19" t="s">
+      <c r="B107" s="40" t="s">
         <v>577</v>
       </c>
-      <c r="C99" s="5" t="s">
-        <v>574</v>
-      </c>
-      <c r="D99" s="20" t="s">
+      <c r="C107" s="3" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="16" t="s">
         <v>578</v>
       </c>
-    </row>
-    <row r="100">
-      <c r="A100" s="8" t="s">
+      <c r="B108" s="17" t="s">
         <v>579</v>
       </c>
-      <c r="B100" s="19" t="s">
+      <c r="C108" s="3" t="s">
         <v>580</v>
       </c>
-      <c r="C100" s="5" t="s">
-        <v>574</v>
-      </c>
-      <c r="D100" s="20" t="s">
+      <c r="D108" s="17" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="101">
-      <c r="A101" s="20" t="s">
+    <row r="109">
+      <c r="A109" s="11" t="s">
         <v>582</v>
       </c>
-      <c r="B101" s="20" t="s">
+      <c r="B109" s="17" t="s">
         <v>583</v>
       </c>
-      <c r="C101" s="5" t="s">
+      <c r="C109" s="3" t="s">
+        <v>580</v>
+      </c>
+      <c r="D109" s="17" t="s">
         <v>584</v>
       </c>
-      <c r="D101" s="20" t="s">
+    </row>
+    <row r="110">
+      <c r="A110" s="20" t="s">
         <v>585</v>
       </c>
-    </row>
-    <row r="102">
-      <c r="A102" s="16" t="s">
+      <c r="B110" s="17" t="s">
         <v>586</v>
       </c>
-      <c r="B102" s="20" t="s">
+      <c r="C110" s="3" t="s">
         <v>587</v>
       </c>
-      <c r="C102" s="5" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" s="16" t="s">
+      <c r="D110" s="17" t="s">
         <v>588</v>
       </c>
-      <c r="B103" s="19" t="s">
+    </row>
+    <row r="111">
+      <c r="A111" s="20" t="s">
         <v>589</v>
       </c>
-      <c r="C103" s="5" t="s">
+      <c r="B111" s="17" t="s">
+        <v>590</v>
+      </c>
+      <c r="C111" s="3" t="s">
+        <v>587</v>
+      </c>
+      <c r="D111" s="17" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="11" t="s">
+        <v>592</v>
+      </c>
+      <c r="B112" s="41" t="s">
+        <v>593</v>
+      </c>
+      <c r="C112" s="3" t="s">
+        <v>594</v>
+      </c>
+      <c r="D112" s="17" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="11" t="s">
+        <v>596</v>
+      </c>
+      <c r="B113" s="17" t="s">
+        <v>597</v>
+      </c>
+      <c r="C113" s="3" t="s">
+        <v>594</v>
+      </c>
+      <c r="D113" s="17" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="16" t="s">
+        <v>599</v>
+      </c>
+      <c r="B114" s="16" t="s">
+        <v>600</v>
+      </c>
+      <c r="C114" s="3" t="s">
+        <v>594</v>
+      </c>
+      <c r="D114" s="17" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="11" t="s">
+        <v>602</v>
+      </c>
+      <c r="B115" s="29" t="s">
+        <v>603</v>
+      </c>
+      <c r="C115" s="3" t="s">
+        <v>604</v>
+      </c>
+      <c r="D115" s="17" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="11" t="s">
+        <v>606</v>
+      </c>
+      <c r="B116" s="17" t="s">
+        <v>607</v>
+      </c>
+      <c r="C116" s="3" t="s">
+        <v>604</v>
+      </c>
+      <c r="D116" s="17" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="B117" s="41" t="s">
+        <v>609</v>
+      </c>
+      <c r="C117" s="3" t="s">
+        <v>610</v>
+      </c>
+      <c r="D117" s="17" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B118" s="17" t="s">
+        <v>612</v>
+      </c>
+      <c r="C118" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D103" s="20" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" s="16" t="s">
-        <v>591</v>
-      </c>
-      <c r="B104" s="12" t="s">
-        <v>592</v>
-      </c>
-      <c r="C104" s="5" t="s">
+      <c r="D118" s="17" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B119" s="17" t="s">
+        <v>614</v>
+      </c>
+      <c r="C119" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D104" s="20" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="B105" s="19" t="s">
-        <v>594</v>
-      </c>
-      <c r="C105" s="5" t="s">
+      <c r="D119" s="17" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B120" s="17" t="s">
+        <v>616</v>
+      </c>
+      <c r="C120" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="D105" s="20" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="B106" s="42" t="s">
-        <v>596</v>
-      </c>
-      <c r="C106" s="5" t="s">
+      <c r="D120" s="17" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B121" s="16" t="s">
+        <v>618</v>
+      </c>
+      <c r="C121" s="42" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="107">
-      <c r="A107" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="B107" s="42" t="s">
-        <v>597</v>
-      </c>
-      <c r="C107" s="5" t="s">
+      <c r="D121" s="17" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B122" s="16" t="s">
+        <v>620</v>
+      </c>
+      <c r="C122" s="42" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="108">
-      <c r="A108" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="B108" s="20" t="s">
-        <v>598</v>
-      </c>
-      <c r="C108" s="5" t="s">
-        <v>599</v>
-      </c>
-      <c r="D108" s="20" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="B109" s="20" t="s">
-        <v>601</v>
-      </c>
-      <c r="C109" s="5" t="s">
-        <v>599</v>
-      </c>
-      <c r="D109" s="20" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="B110" s="20" t="s">
-        <v>603</v>
-      </c>
-      <c r="C110" s="5" t="s">
+      <c r="D122" s="17" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B123" s="16" t="s">
+        <v>622</v>
+      </c>
+      <c r="C123" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D110" s="20" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="B111" s="20" t="s">
-        <v>605</v>
-      </c>
-      <c r="C111" s="5" t="s">
+      <c r="D123" s="17" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B124" s="17" t="s">
+        <v>624</v>
+      </c>
+      <c r="C124" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D111" s="20" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="B112" s="43" t="s">
-        <v>607</v>
-      </c>
-      <c r="C112" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D112" s="20" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" s="16" t="s">
+      <c r="D124" s="17" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B125" s="16" t="s">
+        <v>626</v>
+      </c>
+      <c r="C125" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D125" s="17" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B126" s="17" t="s">
+        <v>628</v>
+      </c>
+      <c r="C126" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D126" s="17" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="B127" s="16" t="s">
+        <v>630</v>
+      </c>
+      <c r="C127" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B113" s="20" t="s">
-        <v>609</v>
-      </c>
-      <c r="C113" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D113" s="20" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="B114" s="19" t="s">
-        <v>611</v>
-      </c>
-      <c r="C114" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D114" s="20" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="B115" s="32" t="s">
-        <v>613</v>
-      </c>
-      <c r="C115" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="D115" s="20" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="B116" s="20" t="s">
-        <v>615</v>
-      </c>
-      <c r="C116" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="D116" s="20" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="B117" s="43" t="s">
-        <v>617</v>
-      </c>
-      <c r="C117" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="D117" s="20" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="B118" s="20" t="s">
-        <v>619</v>
-      </c>
-      <c r="C118" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="D118" s="20" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="B119" s="20" t="s">
-        <v>621</v>
-      </c>
-      <c r="C119" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="D119" s="20" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="B120" s="20" t="s">
-        <v>623</v>
-      </c>
-      <c r="C120" s="44" t="s">
-        <v>62</v>
-      </c>
-      <c r="D120" s="20" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="B121" s="19" t="s">
-        <v>625</v>
-      </c>
-      <c r="C121" s="44" t="s">
-        <v>62</v>
-      </c>
-      <c r="D121" s="20" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="B122" s="19" t="s">
-        <v>627</v>
-      </c>
-      <c r="C122" s="44" t="s">
-        <v>62</v>
-      </c>
-      <c r="D122" s="20" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="B123" s="19" t="s">
-        <v>629</v>
-      </c>
-      <c r="C123" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="D123" s="20" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="B124" s="20" t="s">
+      <c r="D127" s="17" t="s">
         <v>631</v>
       </c>
-      <c r="C124" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="D124" s="20" t="s">
+    </row>
+    <row r="128">
+      <c r="A128" s="17" t="s">
         <v>632</v>
       </c>
-    </row>
-    <row r="125">
-      <c r="A125" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="B125" s="19" t="s">
+      <c r="B128" s="17" t="s">
         <v>633</v>
       </c>
-      <c r="C125" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="D125" s="20" t="s">
+      <c r="C128" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D128" s="17" t="s">
         <v>634</v>
       </c>
     </row>
-    <row r="126">
-      <c r="A126" s="16" t="s">
-        <v>84</v>
-      </c>
-      <c r="B126" s="20" t="s">
+    <row r="129">
+      <c r="A129" s="17" t="s">
         <v>635</v>
       </c>
-      <c r="C126" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="D126" s="20" t="s">
+      <c r="B129" s="16" t="s">
         <v>636</v>
       </c>
-    </row>
-    <row r="127">
-      <c r="A127" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="B127" s="19" t="s">
+      <c r="C129" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D129" s="17" t="s">
         <v>637</v>
       </c>
-      <c r="C127" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="D127" s="20" t="s">
+    </row>
+    <row r="130">
+      <c r="A130" s="17" t="s">
         <v>638</v>
       </c>
-    </row>
-    <row r="128">
-      <c r="A128" s="20" t="s">
+      <c r="B130" s="16" t="s">
         <v>639</v>
       </c>
-      <c r="B128" s="20" t="s">
+      <c r="C130" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D130" s="17" t="s">
         <v>640</v>
       </c>
-      <c r="C128" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="D128" s="20" t="s">
+    </row>
+    <row r="131">
+      <c r="A131" s="17" t="s">
         <v>641</v>
       </c>
-    </row>
-    <row r="129">
-      <c r="A129" s="20" t="s">
+      <c r="B131" s="16" t="s">
         <v>642</v>
       </c>
-      <c r="B129" s="19" t="s">
+      <c r="C131" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D131" s="17" t="s">
         <v>643</v>
       </c>
-      <c r="C129" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="D129" s="20" t="s">
+    </row>
+    <row r="132">
+      <c r="A132" s="17" t="s">
+        <v>641</v>
+      </c>
+      <c r="B132" s="17" t="s">
         <v>644</v>
       </c>
-    </row>
-    <row r="130">
-      <c r="A130" s="20" t="s">
+      <c r="C132" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D132" s="17" t="s">
         <v>645</v>
       </c>
-      <c r="B130" s="19" t="s">
+    </row>
+    <row r="133">
+      <c r="A133" s="17" t="s">
         <v>646</v>
       </c>
-      <c r="C130" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="D130" s="20" t="s">
+      <c r="B133" s="17" t="s">
         <v>647</v>
       </c>
-    </row>
-    <row r="131">
-      <c r="A131" s="20" t="s">
+      <c r="C133" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D133" s="17" t="s">
         <v>648</v>
       </c>
-      <c r="B131" s="19" t="s">
+    </row>
+    <row r="134">
+      <c r="A134" s="17" t="s">
         <v>649</v>
       </c>
-      <c r="C131" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="D131" s="20" t="s">
+      <c r="B134" s="16" t="s">
         <v>650</v>
       </c>
-    </row>
-    <row r="132">
-      <c r="A132" s="20" t="s">
-        <v>648</v>
-      </c>
-      <c r="B132" s="20" t="s">
+      <c r="C134" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D134" s="17" t="s">
         <v>651</v>
       </c>
-      <c r="C132" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="D132" s="20" t="s">
+    </row>
+    <row r="135">
+      <c r="A135" s="17" t="s">
         <v>652</v>
       </c>
-    </row>
-    <row r="133">
-      <c r="A133" s="20" t="s">
+      <c r="B135" s="16" t="s">
         <v>653</v>
       </c>
-      <c r="B133" s="20" t="s">
+      <c r="C135" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D135" s="17" t="s">
         <v>654</v>
       </c>
-      <c r="C133" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="D133" s="20" t="s">
+    </row>
+    <row r="136">
+      <c r="A136" s="17" t="s">
         <v>655</v>
       </c>
-    </row>
-    <row r="134">
-      <c r="A134" s="20" t="s">
+      <c r="B136" s="17" t="s">
         <v>656</v>
       </c>
-      <c r="B134" s="19" t="s">
+      <c r="C136" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D136" s="17" t="s">
         <v>657</v>
       </c>
-      <c r="C134" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="D134" s="20" t="s">
+    </row>
+    <row r="137">
+      <c r="A137" s="17" t="s">
         <v>658</v>
       </c>
-    </row>
-    <row r="135">
-      <c r="A135" s="20" t="s">
+      <c r="B137" s="16" t="s">
         <v>659</v>
       </c>
-      <c r="B135" s="19" t="s">
+      <c r="C137" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D137" s="17" t="s">
         <v>660</v>
       </c>
-      <c r="C135" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="D135" s="20" t="s">
+    </row>
+    <row r="138">
+      <c r="A138" s="17" t="s">
+        <v>658</v>
+      </c>
+      <c r="B138" s="17" t="s">
         <v>661</v>
       </c>
-    </row>
-    <row r="136">
-      <c r="A136" s="20" t="s">
+      <c r="C138" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D138" s="17" t="s">
         <v>662</v>
       </c>
-      <c r="B136" s="20" t="s">
+    </row>
+    <row r="139">
+      <c r="A139" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="B139" s="17" t="s">
         <v>663</v>
       </c>
-      <c r="C136" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="D136" s="20" t="s">
+      <c r="C139" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="D139" s="17" t="s">
         <v>664</v>
       </c>
     </row>
-    <row r="137">
-      <c r="A137" s="20" t="s">
+    <row r="140">
+      <c r="A140" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="B140" s="17" t="s">
         <v>665</v>
       </c>
-      <c r="B137" s="19" t="s">
+      <c r="C140" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="D140" s="17" t="s">
         <v>666</v>
       </c>
-      <c r="C137" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="D137" s="20" t="s">
+    </row>
+    <row r="141">
+      <c r="A141" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="B141" s="12" t="s">
         <v>667</v>
       </c>
-    </row>
-    <row r="138">
-      <c r="A138" s="20" t="s">
-        <v>665</v>
-      </c>
-      <c r="B138" s="20" t="s">
+      <c r="C141" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="D141" s="17" t="s">
         <v>668</v>
       </c>
-      <c r="C138" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="D138" s="20" t="s">
+    </row>
+    <row r="142">
+      <c r="A142" s="11" t="s">
         <v>669</v>
       </c>
-    </row>
-    <row r="139">
-      <c r="A139" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="B139" s="20" t="s">
+      <c r="B142" s="16" t="s">
         <v>670</v>
       </c>
-      <c r="C139" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="D139" s="20" t="s">
+      <c r="C142" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="D142" s="17" t="s">
         <v>671</v>
       </c>
     </row>
-    <row r="140">
-      <c r="A140" s="16" t="s">
-        <v>172</v>
-      </c>
-      <c r="B140" s="20" t="s">
+    <row r="143">
+      <c r="A143" s="30" t="s">
         <v>672</v>
       </c>
-      <c r="C140" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="D140" s="20" t="s">
+      <c r="B143" s="17" t="s">
         <v>673</v>
       </c>
-    </row>
-    <row r="141">
-      <c r="A141" s="16" t="s">
-        <v>230</v>
-      </c>
-      <c r="B141" s="12" t="s">
+      <c r="C143" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="D143" s="17" t="s">
         <v>674</v>
       </c>
-      <c r="C141" s="5" t="s">
-        <v>223</v>
-      </c>
-      <c r="D141" s="20" t="s">
+    </row>
+    <row r="144">
+      <c r="A144" s="30" t="s">
         <v>675</v>
+      </c>
+      <c r="B144" s="17" t="s">
+        <v>676</v>
+      </c>
+      <c r="C144" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="D144" s="17" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="30" t="s">
+        <v>678</v>
+      </c>
+      <c r="B145" s="17" t="s">
+        <v>679</v>
+      </c>
+      <c r="C145" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="D145" s="17" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="30" t="s">
+        <v>681</v>
+      </c>
+      <c r="C146" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="D146" s="17" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="30" t="s">
+        <v>683</v>
+      </c>
+      <c r="B147" s="17" t="s">
+        <v>684</v>
+      </c>
+      <c r="C147" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="D147" s="43" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="30" t="s">
+        <v>686</v>
+      </c>
+      <c r="B148" s="16" t="s">
+        <v>687</v>
+      </c>
+      <c r="C148" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="D148" s="43" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="30" t="s">
+        <v>689</v>
+      </c>
+      <c r="B149" s="17" t="s">
+        <v>690</v>
+      </c>
+      <c r="C149" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="D149" s="43" t="s">
+        <v>691</v>
       </c>
     </row>
   </sheetData>

--- a/curation_of_classes/cell_classes.xlsx
+++ b/curation_of_classes/cell_classes.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1152" uniqueCount="734">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1321" uniqueCount="823">
   <si>
     <t>label</t>
   </si>
@@ -38,271 +38,223 @@
     <t>described by source</t>
   </si>
   <si>
-    <t>SV2C inhibitory neuron</t>
-  </si>
-  <si>
-    <t>inhibitory neuron</t>
-  </si>
-  <si>
-    <t>Q108047027</t>
-  </si>
-  <si>
-    <t>human SV2C inhibitory neuron</t>
-  </si>
-  <si>
-    <t>cortical immune cell</t>
-  </si>
-  <si>
-    <t>immune cell</t>
-  </si>
-  <si>
-    <t>Q75839</t>
-  </si>
-  <si>
-    <t>brain perivascular macrophage</t>
-  </si>
-  <si>
-    <t>macrophage</t>
-  </si>
-  <si>
-    <t>human brain perivascular macrophage</t>
-  </si>
-  <si>
-    <t>cardiofibroblast</t>
+    <t>CD4 tissue-resident memory T cell</t>
+  </si>
+  <si>
+    <t>CD4 T cell</t>
+  </si>
+  <si>
+    <t>Q92691104</t>
+  </si>
+  <si>
+    <t>CD8 tissue-resident memory T cell</t>
+  </si>
+  <si>
+    <t>CD8 T cell</t>
+  </si>
+  <si>
+    <t>non-classical T cell</t>
+  </si>
+  <si>
+    <t>T cell</t>
+  </si>
+  <si>
+    <t>Q92365687</t>
+  </si>
+  <si>
+    <t>Vγ9+ γδ T cell</t>
+  </si>
+  <si>
+    <t>Q3077796</t>
+  </si>
+  <si>
+    <t>Vγ9– γδ T cell</t>
+  </si>
+  <si>
+    <t>lung interstitial CD4 T cell</t>
+  </si>
+  <si>
+    <t>lung</t>
+  </si>
+  <si>
+    <t>ventricular outflow tract cell</t>
+  </si>
+  <si>
+    <t>cell</t>
+  </si>
+  <si>
+    <t>Q92154155</t>
+  </si>
+  <si>
+    <t>Q7920318</t>
+  </si>
+  <si>
+    <t>stem-cell-derived β-cell</t>
+  </si>
+  <si>
+    <t>Q1767180</t>
+  </si>
+  <si>
+    <t>Q91865409</t>
+  </si>
+  <si>
+    <t>SC-βcell</t>
+  </si>
+  <si>
+    <t>intrinsic primary afferent neuron</t>
+  </si>
+  <si>
+    <t>neuron</t>
+  </si>
+  <si>
+    <t>Q108544696</t>
+  </si>
+  <si>
+    <t>intrinsic primary afferent neurons | INPA</t>
+  </si>
+  <si>
+    <t>excitatory motor neuron</t>
+  </si>
+  <si>
+    <t>Q1133903 | Q104519429</t>
+  </si>
+  <si>
+    <t>eMN</t>
+  </si>
+  <si>
+    <t>inhibitory motor neuron</t>
+  </si>
+  <si>
+    <t>Q1133903 | Q104519432</t>
+  </si>
+  <si>
+    <t>iMN</t>
+  </si>
+  <si>
+    <t>Innate lymphoid cell progenitor</t>
+  </si>
+  <si>
+    <t>progenitor cell</t>
+  </si>
+  <si>
+    <t>ILCPs</t>
+  </si>
+  <si>
+    <t>fetal liver ILCPs</t>
+  </si>
+  <si>
+    <t>lymphoid tissue inducer- like type 3 ILC</t>
+  </si>
+  <si>
+    <t>Q13418826</t>
+  </si>
+  <si>
+    <t>LTi-like ILC3</t>
+  </si>
+  <si>
+    <t>thymus-resident type-2 innate lymphoid cell</t>
+  </si>
+  <si>
+    <t>Q30314227</t>
+  </si>
+  <si>
+    <t>Q59066334</t>
+  </si>
+  <si>
+    <t>thymus</t>
+  </si>
+  <si>
+    <t>mouse medullary thymic epithelial cell</t>
+  </si>
+  <si>
+    <t>Q106355225</t>
+  </si>
+  <si>
+    <t>mouse mTEC</t>
+  </si>
+  <si>
+    <t>mTEC I</t>
+  </si>
+  <si>
+    <t>mTEC II</t>
+  </si>
+  <si>
+    <t>mTEC III</t>
+  </si>
+  <si>
+    <t>mTEC IV</t>
+  </si>
+  <si>
+    <t>tuft-like mTEC</t>
+  </si>
+  <si>
+    <t>mouse tuft-like mTEC</t>
+  </si>
+  <si>
+    <t>renal pericyte</t>
+  </si>
+  <si>
+    <t>pericyte</t>
+  </si>
+  <si>
+    <t>Q59770869</t>
+  </si>
+  <si>
+    <t>kidney</t>
+  </si>
+  <si>
+    <t>medullary collecting duct cell</t>
+  </si>
+  <si>
+    <t>Q11706252</t>
+  </si>
+  <si>
+    <t>paranephric body adipocyte</t>
+  </si>
+  <si>
+    <t>adipocyte</t>
+  </si>
+  <si>
+    <t>PBA</t>
+  </si>
+  <si>
+    <t>Q7135465</t>
+  </si>
+  <si>
+    <t>proximal tubule S1/S2 cell</t>
+  </si>
+  <si>
+    <t>Q101062469</t>
+  </si>
+  <si>
+    <t>Q2916078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">proximal tubule S3 type 1 cell </t>
+  </si>
+  <si>
+    <t>proximal tubule S3 type 2 cell</t>
+  </si>
+  <si>
+    <t>excitatory CUX2-expressing projection neuron</t>
+  </si>
+  <si>
+    <t xml:space="preserve">neuron </t>
+  </si>
+  <si>
+    <t>Q91969373</t>
+  </si>
+  <si>
+    <t>stressed CUX2-expressing neuron</t>
+  </si>
+  <si>
+    <t>human stressed CUX2-expressing neuron</t>
+  </si>
+  <si>
+    <t>synovial fibroblast</t>
   </si>
   <si>
     <t>fibroblast</t>
-  </si>
-  <si>
-    <t>Q101226747</t>
-  </si>
-  <si>
-    <t>fibroblast (heart)</t>
-  </si>
-  <si>
-    <t>atrial cardiofibroblast</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ACFs </t>
-  </si>
-  <si>
-    <t>CD4 tissue-resident memory T cell</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> | CD4 T cell</t>
-  </si>
-  <si>
-    <t>Q92691104</t>
-  </si>
-  <si>
-    <t>CD8 tissue-resident memory T cell</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> | CD8 T cell</t>
-  </si>
-  <si>
-    <t>non-classical T cell</t>
-  </si>
-  <si>
-    <t>T cell</t>
-  </si>
-  <si>
-    <t>Q92365687</t>
-  </si>
-  <si>
-    <t>Vγ9+ γδ T cell</t>
-  </si>
-  <si>
-    <t>Q3077796</t>
-  </si>
-  <si>
-    <t>Vγ9– γδ T cell</t>
-  </si>
-  <si>
-    <t>lung interstitial CD4 T cell</t>
-  </si>
-  <si>
-    <t>CD4 T cell</t>
-  </si>
-  <si>
-    <t>lung</t>
-  </si>
-  <si>
-    <t>ventricular outflow tract cell</t>
-  </si>
-  <si>
-    <t>cell</t>
-  </si>
-  <si>
-    <t>Q92154155</t>
-  </si>
-  <si>
-    <t>Q7920318</t>
-  </si>
-  <si>
-    <t>stem-cell-derived β-cell</t>
-  </si>
-  <si>
-    <t>Q1767180</t>
-  </si>
-  <si>
-    <t>Q91865409</t>
-  </si>
-  <si>
-    <t>SC-βcell</t>
-  </si>
-  <si>
-    <t>intrinsic primary afferent neuron</t>
-  </si>
-  <si>
-    <t>neuron</t>
-  </si>
-  <si>
-    <t>Q108544696</t>
-  </si>
-  <si>
-    <t>intrinsic primary afferent neurons | INPA</t>
-  </si>
-  <si>
-    <t>excitatory motor neuron</t>
-  </si>
-  <si>
-    <t>Q1133903 | Q104519429</t>
-  </si>
-  <si>
-    <t>eMN</t>
-  </si>
-  <si>
-    <t>inhibitory motor neuron</t>
-  </si>
-  <si>
-    <t>Q1133903 | Q104519432</t>
-  </si>
-  <si>
-    <t>iMN</t>
-  </si>
-  <si>
-    <t>Innate lymphoid cell progenitor</t>
-  </si>
-  <si>
-    <t>progenitor cell</t>
-  </si>
-  <si>
-    <t>ILCPs</t>
-  </si>
-  <si>
-    <t>fetal liver ILCPs</t>
-  </si>
-  <si>
-    <t>lymphoid tissue inducer- like type 3 ILC</t>
-  </si>
-  <si>
-    <t>Q13418826</t>
-  </si>
-  <si>
-    <t>LTi-like ILC3</t>
-  </si>
-  <si>
-    <t>thymus-resident type-2 innate lymphoid cell</t>
-  </si>
-  <si>
-    <t>Q30314227</t>
-  </si>
-  <si>
-    <t>Q59066334</t>
-  </si>
-  <si>
-    <t>thymus</t>
-  </si>
-  <si>
-    <t>mouse medullary thymic epithelial cell</t>
-  </si>
-  <si>
-    <t>Q106355225</t>
-  </si>
-  <si>
-    <t>mouse mTEC</t>
-  </si>
-  <si>
-    <t>mTEC I</t>
-  </si>
-  <si>
-    <t>mTEC II</t>
-  </si>
-  <si>
-    <t>mTEC III</t>
-  </si>
-  <si>
-    <t>mTEC IV</t>
-  </si>
-  <si>
-    <t>tuft-like mTEC</t>
-  </si>
-  <si>
-    <t>mouse tuft-like mTEC</t>
-  </si>
-  <si>
-    <t>renal pericyte</t>
-  </si>
-  <si>
-    <t>pericyte</t>
-  </si>
-  <si>
-    <t>Q59770869</t>
-  </si>
-  <si>
-    <t>kidney</t>
-  </si>
-  <si>
-    <t>medullary collecting duct cell</t>
-  </si>
-  <si>
-    <t>Q11706252</t>
-  </si>
-  <si>
-    <t>paranephric body adipocyte</t>
-  </si>
-  <si>
-    <t>adipocyte</t>
-  </si>
-  <si>
-    <t>PBA</t>
-  </si>
-  <si>
-    <t>Q7135465</t>
-  </si>
-  <si>
-    <t>proximal tubule S1/S2 cell</t>
-  </si>
-  <si>
-    <t>Q101062469</t>
-  </si>
-  <si>
-    <t>Q2916078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">proximal tubule S3 type 1 cell </t>
-  </si>
-  <si>
-    <t>proximal tubule S3 type 2 cell</t>
-  </si>
-  <si>
-    <t>excitatory CUX2-expressing projection neuron</t>
-  </si>
-  <si>
-    <t xml:space="preserve">neuron </t>
-  </si>
-  <si>
-    <t>Q91969373</t>
-  </si>
-  <si>
-    <t>stressed CUX2-expressing neuron</t>
-  </si>
-  <si>
-    <t>human stressed CUX2-expressing neuron</t>
-  </si>
-  <si>
-    <t>synovial fibroblast</t>
   </si>
   <si>
     <t>Q36433286</t>
@@ -324,6 +276,9 @@
 synovial macrophage</t>
   </si>
   <si>
+    <t>macrophage</t>
+  </si>
+  <si>
     <t>human synovial macrophage</t>
   </si>
   <si>
@@ -664,6 +619,9 @@
     <t>WAT ILCP-like cell</t>
   </si>
   <si>
+    <t>immune cell</t>
+  </si>
+  <si>
     <t>primitive endoderm cell</t>
   </si>
   <si>
@@ -734,6 +692,307 @@
   </si>
   <si>
     <t>siLP LTi cell</t>
+  </si>
+  <si>
+    <t>hypothalamic neuron</t>
+  </si>
+  <si>
+    <t>Q67653684</t>
+  </si>
+  <si>
+    <t>Lateral Hypothalamic Area Glutamatergic Neuron</t>
+  </si>
+  <si>
+    <t>hypothalamic neuron | glutamatergic neuron</t>
+  </si>
+  <si>
+    <t>LHA glutamatergic neuron | Lateral hypothalamic glutamate neurons n</t>
+  </si>
+  <si>
+    <t>Q109324333</t>
+  </si>
+  <si>
+    <t>dura mater immune cell</t>
+  </si>
+  <si>
+    <t>Q109361436</t>
+  </si>
+  <si>
+    <t>immune cells in the dura mater</t>
+  </si>
+  <si>
+    <t>dura mater</t>
+  </si>
+  <si>
+    <t>bone-marrow-derived immune cell</t>
+  </si>
+  <si>
+    <t>dura mater granulocyte</t>
+  </si>
+  <si>
+    <t>granulocyte</t>
+  </si>
+  <si>
+    <t>resident subarachnoid immune cell</t>
+  </si>
+  <si>
+    <t>Q2361541</t>
+  </si>
+  <si>
+    <t>blood-derived immune cell</t>
+  </si>
+  <si>
+    <t>roof-plate cell</t>
+  </si>
+  <si>
+    <t>Q109361717</t>
+  </si>
+  <si>
+    <t>Q109361838</t>
+  </si>
+  <si>
+    <t>rhombencephalic roof-plate cell</t>
+  </si>
+  <si>
+    <t>mesencephalic roof-plate cell</t>
+  </si>
+  <si>
+    <t>cortical hem dorsalizing organizer</t>
+  </si>
+  <si>
+    <t>Q109361923</t>
+  </si>
+  <si>
+    <t>embryonic non-telencephalic glioblast</t>
+  </si>
+  <si>
+    <t>Q3108891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CNS border macrophage </t>
+  </si>
+  <si>
+    <t>border associated macrophage | BAMs</t>
+  </si>
+  <si>
+    <t>axon-tract-associated microglia</t>
+  </si>
+  <si>
+    <t>microglia</t>
+  </si>
+  <si>
+    <t>neoantigen-specific tumor infiltrating lymphocyte</t>
+  </si>
+  <si>
+    <t>Q7852668</t>
+  </si>
+  <si>
+    <t>Q109361945</t>
+  </si>
+  <si>
+    <t>neoantigen-specific TIL</t>
+  </si>
+  <si>
+    <t>mutation-associated neoantigen-specific  tumor infiltrating lymphocyte</t>
+  </si>
+  <si>
+    <t>MANA  tumor infiltrating lymphocyte | MANA-specifc TIL</t>
+  </si>
+  <si>
+    <t>virus-specific TIL</t>
+  </si>
+  <si>
+    <t>infuenza-specific TIL</t>
+  </si>
+  <si>
+    <t>Epstein-Barr specific TIL</t>
+  </si>
+  <si>
+    <t>MANA-specifc CD8 T cell</t>
+  </si>
+  <si>
+    <t>HOBIT-high tissue-resident memory T cell</t>
+  </si>
+  <si>
+    <t>Q56151568</t>
+  </si>
+  <si>
+    <t>Influenza-specific TRM cell</t>
+  </si>
+  <si>
+    <t>limb bud cell</t>
+  </si>
+  <si>
+    <t>Q60341043</t>
+  </si>
+  <si>
+    <t>Q6548937</t>
+  </si>
+  <si>
+    <t>periskeletal cell</t>
+  </si>
+  <si>
+    <t>blastema progenitor</t>
+  </si>
+  <si>
+    <t>uncommitted blastema
+progenitor | blastema progenitor cell</t>
+  </si>
+  <si>
+    <t>mature limb cell</t>
+  </si>
+  <si>
+    <t>ventral telencephalon neuron</t>
+  </si>
+  <si>
+    <t>Q90754750</t>
+  </si>
+  <si>
+    <t>dorsal telencephalon neuron</t>
+  </si>
+  <si>
+    <t>Procr+ pancreatic islet progenitor</t>
+  </si>
+  <si>
+    <t>Q90572524</t>
+  </si>
+  <si>
+    <t>Procr+ islet cell</t>
+  </si>
+  <si>
+    <t>pancreas</t>
+  </si>
+  <si>
+    <t>mouse Procr+ pancreatic islet progenitor</t>
+  </si>
+  <si>
+    <t>embryonic endocrine progenitor</t>
+  </si>
+  <si>
+    <t>virgin β cell</t>
+  </si>
+  <si>
+    <t>spongiotrophoblast</t>
+  </si>
+  <si>
+    <t>Q101212124</t>
+  </si>
+  <si>
+    <t>glycogen cell</t>
+  </si>
+  <si>
+    <t>sinusoidal trophoblast giant cell</t>
+  </si>
+  <si>
+    <t>S-TGC</t>
+  </si>
+  <si>
+    <t>mouse placental cell</t>
+  </si>
+  <si>
+    <t>placenta</t>
+  </si>
+  <si>
+    <t>labyrinth trophoblast progenitor cell</t>
+  </si>
+  <si>
+    <t>LaTP</t>
+  </si>
+  <si>
+    <t>Intestinal stem cell</t>
+  </si>
+  <si>
+    <t>stem cell</t>
+  </si>
+  <si>
+    <t>Q58605173</t>
+  </si>
+  <si>
+    <t>intestine</t>
+  </si>
+  <si>
+    <t>MHCII+ Lgr5+ ISC</t>
+  </si>
+  <si>
+    <t>inner root sheath cell</t>
+  </si>
+  <si>
+    <t>Q100899356</t>
+  </si>
+  <si>
+    <t>Q16968791</t>
+  </si>
+  <si>
+    <t>outer root sheath cell</t>
+  </si>
+  <si>
+    <t>Q7112036</t>
+  </si>
+  <si>
+    <t>hair shaft cell</t>
+  </si>
+  <si>
+    <t>Q66568673</t>
+  </si>
+  <si>
+    <t>alpha-high CD34+ bulge cell</t>
+  </si>
+  <si>
+    <t>alpha-low CD34+ bulge cell</t>
+  </si>
+  <si>
+    <t>hair follicle transit amplifying cell</t>
+  </si>
+  <si>
+    <t>Q106413834</t>
+  </si>
+  <si>
+    <t>bone marrow derived endothelial cell</t>
+  </si>
+  <si>
+    <t>Q92303660</t>
+  </si>
+  <si>
+    <t>BMEC</t>
+  </si>
+  <si>
+    <t>MSC-descendent osteolineage cell</t>
+  </si>
+  <si>
+    <t>OLC | osteolineage cell</t>
+  </si>
+  <si>
+    <t>Lepr+ mesenchymal stromal cell</t>
+  </si>
+  <si>
+    <t>Q1922379</t>
+  </si>
+  <si>
+    <t>Lepr-MSC</t>
+  </si>
+  <si>
+    <t>tenocyte progenitor</t>
+  </si>
+  <si>
+    <t>sinusoidal bone marrow derived endothelial cell</t>
+  </si>
+  <si>
+    <t>sBMECs</t>
+  </si>
+  <si>
+    <t>arteriolar bone marrow derived endothelial cell</t>
+  </si>
+  <si>
+    <t>aBMECs</t>
+  </si>
+  <si>
+    <t>ligamentocyte</t>
+  </si>
+  <si>
+    <t>ligament cell</t>
+  </si>
+  <si>
+    <t>Cxcl12-expressing fibroblast</t>
   </si>
   <si>
     <t>cell class</t>
@@ -2043,7 +2302,13 @@
     <t>"The   ILC3  population,  marked  by   PCDH9  expression,  was  mixed  in  a  cluster  with  NK  cells."</t>
   </si>
   <si>
+    <t>human brain perivascular macrophage</t>
+  </si>
+  <si>
     <t>MRC1</t>
+  </si>
+  <si>
+    <t>Q108047027</t>
   </si>
   <si>
     <t>" perivascular macrophages (MRC1+, which encodes macrophage-specific mannose 
@@ -2241,12 +2506,15 @@
   <si>
     <t>Igtp</t>
   </si>
+  <si>
+    <t>"Here, we describe a previously unidentified protein C receptor positive (Procr+) cell population"</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="36">
+  <fonts count="39">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -2261,20 +2529,15 @@
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="11.0"/>
-      <color rgb="FFCE9178"/>
-      <name val="&quot;Droid Sans Mono&quot;"/>
-    </font>
-    <font>
-      <sz val="17.0"/>
-      <color theme="1"/>
-      <name val="Serif"/>
-    </font>
-    <font>
       <b/>
       <sz val="24.0"/>
       <color theme="1"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <color rgb="FFCE9178"/>
+      <name val="&quot;Droid Sans Mono&quot;"/>
     </font>
     <font>
       <color rgb="FF000000"/>
@@ -2340,14 +2603,33 @@
       <name val="Arial"/>
     </font>
     <font>
-      <color rgb="FF000000"/>
-    </font>
-    <font/>
-    <font>
       <sz val="11.0"/>
       <color rgb="FFD4D4D4"/>
       <name val="&quot;docs-Droid Sans Mono&quot;"/>
     </font>
+    <font>
+      <color rgb="FF000000"/>
+      <name val="&quot;Linux Libertine&quot;"/>
+    </font>
+    <font>
+      <sz val="14.0"/>
+      <color rgb="FF505050"/>
+      <name val="Docs-Helvetica"/>
+    </font>
+    <font>
+      <color rgb="FF000000"/>
+    </font>
+    <font>
+      <sz val="12.0"/>
+      <color rgb="FF212121"/>
+      <name val="&quot;Noto Serif&quot;"/>
+    </font>
+    <font>
+      <b/>
+      <color rgb="FF212121"/>
+      <name val="&quot;Noto Sans&quot;"/>
+    </font>
+    <font/>
     <font>
       <sz val="11.0"/>
       <color rgb="FF000000"/>
@@ -2445,7 +2727,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="47">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -2456,10 +2738,10 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -2486,64 +2768,64 @@
     <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="3" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
+    <xf borderId="0" fillId="2" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="3" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="3" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="3" fontId="23" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
+      <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="24" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="24" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="25" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="26" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf borderId="0" fillId="3" fontId="26" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="27" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="3" fontId="27" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="28" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -2552,23 +2834,32 @@
     <xf borderId="0" fillId="0" fontId="29" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
     <xf borderId="0" fillId="0" fontId="30" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="31" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="32" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="32" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="33" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="34" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="35" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="35" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="36" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="37" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="38" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
@@ -2847,10 +3138,10 @@
       <c r="A2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="5" t="s">
         <v>10</v>
       </c>
       <c r="D2" s="2"/>
@@ -2876,13 +3167,13 @@
       <c r="X2" s="2"/>
     </row>
     <row r="3">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="4" t="s">
+      <c r="B3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>10</v>
       </c>
       <c r="D3" s="2"/>
@@ -2908,19 +3199,17 @@
       <c r="X3" s="2"/>
     </row>
     <row r="4">
-      <c r="A4" s="5" t="s">
-        <v>12</v>
+      <c r="A4" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>10</v>
+        <v>14</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="D4" s="2"/>
-      <c r="E4" s="6" t="s">
-        <v>14</v>
-      </c>
+      <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
@@ -2943,13 +3232,13 @@
     </row>
     <row r="5">
       <c r="A5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>15</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>10</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -2974,14 +3263,14 @@
       <c r="X5" s="2"/>
     </row>
     <row r="6">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="C6" s="5" t="s">
         <v>15</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>10</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -3006,19 +3295,19 @@
       <c r="X6" s="2"/>
     </row>
     <row r="7">
-      <c r="A7" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="1" t="s">
+      <c r="A7" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="B7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
@@ -3041,18 +3330,18 @@
     </row>
     <row r="8">
       <c r="A8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" s="3" t="s">
+      <c r="C8" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
@@ -3074,16 +3363,18 @@
       <c r="X8" s="2"/>
     </row>
     <row r="9">
-      <c r="A9" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9" s="6" t="s">
+      <c r="A9" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="B9" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="2"/>
+      <c r="C9" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>28</v>
+      </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
@@ -3106,16 +3397,18 @@
       <c r="X9" s="2"/>
     </row>
     <row r="10">
-      <c r="A10" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" s="2"/>
+      <c r="A10" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>32</v>
+      </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
@@ -3138,16 +3431,18 @@
       <c r="X10" s="2"/>
     </row>
     <row r="11">
-      <c r="A11" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C11" s="4" t="s">
+      <c r="A11" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D11" s="2"/>
+      <c r="D11" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
@@ -3171,15 +3466,17 @@
     </row>
     <row r="12">
       <c r="A12" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="C12" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D12" s="2"/>
+      <c r="D12" s="3" t="s">
+        <v>38</v>
+      </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
@@ -3202,16 +3499,18 @@
       <c r="X12" s="2"/>
     </row>
     <row r="13">
-      <c r="A13" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="C13" s="4" t="s">
+      <c r="A13" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D13" s="2"/>
+      <c r="D13" s="13" t="s">
+        <v>41</v>
+      </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
@@ -3234,19 +3533,17 @@
       <c r="X13" s="2"/>
     </row>
     <row r="14">
-      <c r="A14" s="9" t="s">
-        <v>35</v>
+      <c r="A14" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C14" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" s="5" t="s">
         <v>31</v>
       </c>
       <c r="D14" s="2"/>
-      <c r="E14" s="3" t="s">
-        <v>37</v>
-      </c>
+      <c r="E14" s="2"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
@@ -3268,19 +3565,19 @@
       <c r="X14" s="2"/>
     </row>
     <row r="15">
-      <c r="A15" s="3" t="s">
-        <v>38</v>
+      <c r="A15" s="12" t="s">
+        <v>43</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D15" s="2"/>
-      <c r="E15" s="3" t="s">
-        <v>41</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
@@ -3302,19 +3599,19 @@
       <c r="X15" s="2"/>
     </row>
     <row r="16">
-      <c r="A16" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D16" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="E16" s="2"/>
+      <c r="A16" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D16" s="2"/>
+      <c r="E16" s="3" t="s">
+        <v>49</v>
+      </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
@@ -3336,19 +3633,21 @@
       <c r="X16" s="2"/>
     </row>
     <row r="17">
-      <c r="A17" s="12" t="s">
-        <v>46</v>
+      <c r="A17" s="14" t="s">
+        <v>50</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C17" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C17" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="D17" s="13" t="s">
+      <c r="D17" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E17" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
@@ -3370,19 +3669,19 @@
       <c r="X17" s="2"/>
     </row>
     <row r="18">
-      <c r="A18" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="B18" s="6" t="s">
+      <c r="A18" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B18" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="E18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="3" t="s">
+        <v>49</v>
+      </c>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
@@ -3405,18 +3704,18 @@
     </row>
     <row r="19">
       <c r="A19" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B19" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="B19" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C19" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="D19" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="E19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="3" t="s">
+        <v>49</v>
+      </c>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
@@ -3438,19 +3737,19 @@
       <c r="X19" s="2"/>
     </row>
     <row r="20">
-      <c r="A20" s="3" t="s">
-        <v>56</v>
+      <c r="A20" s="6" t="s">
+        <v>55</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C20" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C20" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="D20" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="E20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="3" t="s">
+        <v>49</v>
+      </c>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
@@ -3472,17 +3771,21 @@
       <c r="X20" s="2"/>
     </row>
     <row r="21">
-      <c r="A21" s="3" t="s">
-        <v>59</v>
+      <c r="A21" s="6" t="s">
+        <v>56</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C21" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C21" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
+      <c r="D21" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>49</v>
+      </c>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
@@ -3504,19 +3807,21 @@
       <c r="X21" s="2"/>
     </row>
     <row r="22">
-      <c r="A22" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C22" s="4" t="s">
+      <c r="A22" s="3" t="str">
+        <f t="shared" ref="A22:A25" si="1">CONCAT("mouse ",A18)</f>
+        <v>mouse mTEC I</v>
+      </c>
+      <c r="B22" s="2" t="str">
+        <f t="shared" ref="B22:B25" si="2">A18</f>
+        <v>mTEC I</v>
+      </c>
+      <c r="C22" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="D22" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="E22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="3" t="s">
+        <v>49</v>
+      </c>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
@@ -3538,18 +3843,20 @@
       <c r="X22" s="2"/>
     </row>
     <row r="23">
-      <c r="A23" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>65</v>
+      <c r="A23" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>mouse mTEC II</v>
+      </c>
+      <c r="B23" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>mTEC II</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>48</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" s="3" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
@@ -3572,20 +3879,20 @@
       <c r="X23" s="2"/>
     </row>
     <row r="24">
-      <c r="A24" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>69</v>
-      </c>
+      <c r="A24" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>mouse mTEC III</v>
+      </c>
+      <c r="B24" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>mTEC III</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D24" s="2"/>
       <c r="E24" s="3" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
@@ -3608,22 +3915,25 @@
       <c r="X24" s="2"/>
     </row>
     <row r="25">
-      <c r="A25" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="D25" s="2"/>
+      <c r="A25" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>mouse mTEC IV</v>
+      </c>
+      <c r="B25" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>mTEC IV</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>58</v>
+      </c>
       <c r="E25" s="3" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
@@ -3643,17 +3953,17 @@
     </row>
     <row r="26">
       <c r="A26" s="3" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>65</v>
+        <v>60</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>61</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" s="3" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
@@ -3676,18 +3986,18 @@
       <c r="X26" s="2"/>
     </row>
     <row r="27">
-      <c r="A27" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>65</v>
+      <c r="A27" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>61</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" s="3" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
@@ -3710,20 +4020,20 @@
       <c r="X27" s="2"/>
     </row>
     <row r="28">
-      <c r="A28" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="B28" s="3" t="s">
+      <c r="A28" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E28" s="4" t="s">
         <v>68</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="D28" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>66</v>
       </c>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
@@ -3746,20 +4056,18 @@
       <c r="X28" s="2"/>
     </row>
     <row r="29">
-      <c r="A29" s="3" t="str">
-        <f t="shared" ref="A29:A32" si="1">CONCAT("mouse ",A25)</f>
-        <v>mouse mTEC I</v>
-      </c>
-      <c r="B29" s="2" t="str">
-        <f t="shared" ref="B29:B32" si="2">A25</f>
-        <v>mTEC I</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>65</v>
+      <c r="A29" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>61</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" s="3" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
@@ -3782,20 +4090,18 @@
       <c r="X29" s="2"/>
     </row>
     <row r="30">
-      <c r="A30" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>mouse mTEC II</v>
-      </c>
-      <c r="B30" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>mTEC II</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>65</v>
+      <c r="A30" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>61</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" s="3" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
@@ -3818,20 +4124,18 @@
       <c r="X30" s="2"/>
     </row>
     <row r="31">
-      <c r="A31" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>mouse mTEC III</v>
-      </c>
-      <c r="B31" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>mTEC III</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>65</v>
+      <c r="A31" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>61</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" s="3" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
@@ -3855,24 +4159,20 @@
     </row>
     <row r="32">
       <c r="A32" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>mouse mTEC IV</v>
-      </c>
-      <c r="B32" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>mTEC IV</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>66</v>
-      </c>
+        <f t="shared" ref="A32:A37" si="3">CONCAT("mouse ",A26)</f>
+        <v>mouse renal pericyte</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
       <c r="I32" s="2"/>
       <c r="J32" s="2"/>
       <c r="K32" s="2"/>
@@ -3891,19 +4191,18 @@
       <c r="X32" s="2"/>
     </row>
     <row r="33">
-      <c r="A33" s="3" t="s">
-        <v>76</v>
+      <c r="A33" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>mouse medullary collecting duct cell</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>78</v>
+        <v>63</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>61</v>
       </c>
       <c r="D33" s="2"/>
-      <c r="E33" s="3" t="s">
-        <v>79</v>
-      </c>
+      <c r="E33" s="2"/>
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
@@ -3925,19 +4224,18 @@
       <c r="X33" s="2"/>
     </row>
     <row r="34">
-      <c r="A34" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="B34" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>78</v>
+      <c r="A34" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>mouse paranephric body adipocyte</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>61</v>
       </c>
       <c r="D34" s="2"/>
-      <c r="E34" s="3" t="s">
-        <v>79</v>
-      </c>
+      <c r="E34" s="2"/>
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
@@ -3959,21 +4257,18 @@
       <c r="X34" s="2"/>
     </row>
     <row r="35">
-      <c r="A35" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="B35" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="E35" s="6" t="s">
-        <v>85</v>
-      </c>
+      <c r="A35" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>mouse proximal tubule S1/S2 cell</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
       <c r="H35" s="2"/>
@@ -3995,19 +4290,18 @@
       <c r="X35" s="2"/>
     </row>
     <row r="36">
-      <c r="A36" s="3" t="s">
-        <v>86</v>
+      <c r="A36" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>mouse proximal tubule S3 type 1 cell </v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>78</v>
+        <v>72</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>61</v>
       </c>
       <c r="D36" s="2"/>
-      <c r="E36" s="3" t="s">
-        <v>88</v>
-      </c>
+      <c r="E36" s="2"/>
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
       <c r="H36" s="2"/>
@@ -4029,19 +4323,18 @@
       <c r="X36" s="2"/>
     </row>
     <row r="37">
-      <c r="A37" s="3" t="s">
-        <v>89</v>
+      <c r="A37" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>mouse proximal tubule S3 type 2 cell</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>78</v>
+        <v>73</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>61</v>
       </c>
       <c r="D37" s="2"/>
-      <c r="E37" s="3" t="s">
-        <v>88</v>
-      </c>
+      <c r="E37" s="2"/>
       <c r="F37" s="2"/>
       <c r="G37" s="2"/>
       <c r="H37" s="2"/>
@@ -4063,19 +4356,17 @@
       <c r="X37" s="2"/>
     </row>
     <row r="38">
-      <c r="A38" s="3" t="s">
-        <v>90</v>
+      <c r="A38" s="15" t="s">
+        <v>74</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>78</v>
+        <v>75</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>76</v>
       </c>
       <c r="D38" s="2"/>
-      <c r="E38" s="3" t="s">
-        <v>88</v>
-      </c>
+      <c r="E38" s="2"/>
       <c r="F38" s="2"/>
       <c r="G38" s="2"/>
       <c r="H38" s="2"/>
@@ -4097,15 +4388,14 @@
       <c r="X38" s="2"/>
     </row>
     <row r="39">
-      <c r="A39" s="3" t="str">
-        <f t="shared" ref="A39:A44" si="3">CONCAT("mouse ",A33)</f>
-        <v>mouse renal pericyte</v>
+      <c r="A39" s="3" t="s">
+        <v>77</v>
       </c>
       <c r="B39" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C39" s="5" t="s">
         <v>76</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>78</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
@@ -4130,15 +4420,14 @@
       <c r="X39" s="2"/>
     </row>
     <row r="40">
-      <c r="A40" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>mouse medullary collecting duct cell</v>
+      <c r="A40" s="3" t="s">
+        <v>78</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>76</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
@@ -4163,15 +4452,14 @@
       <c r="X40" s="2"/>
     </row>
     <row r="41">
-      <c r="A41" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>mouse paranephric body adipocyte</v>
+      <c r="A41" s="3" t="s">
+        <v>79</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>78</v>
+        <v>80</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>81</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
@@ -4196,17 +4484,16 @@
       <c r="X41" s="2"/>
     </row>
     <row r="42">
-      <c r="A42" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>mouse proximal tubule S1/S2 cell</v>
+      <c r="A42" s="3" t="s">
+        <v>82</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="D42" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D42" s="3"/>
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>
       <c r="G42" s="2"/>
@@ -4229,17 +4516,18 @@
       <c r="X42" s="2"/>
     </row>
     <row r="43">
-      <c r="A43" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>mouse proximal tubule S3 type 1 cell </v>
+      <c r="A43" s="6" t="s">
+        <v>83</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="D43" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>84</v>
+      </c>
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
       <c r="G43" s="2"/>
@@ -4262,17 +4550,18 @@
       <c r="X43" s="2"/>
     </row>
     <row r="44">
-      <c r="A44" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>mouse proximal tubule S3 type 2 cell</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="C44" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="D44" s="2"/>
+      <c r="A44" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>84</v>
+      </c>
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
       <c r="G44" s="2"/>
@@ -4295,14 +4584,14 @@
       <c r="X44" s="2"/>
     </row>
     <row r="45">
-      <c r="A45" s="16" t="s">
-        <v>91</v>
+      <c r="A45" s="3" t="s">
+        <v>86</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>93</v>
+        <v>87</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>81</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" s="2"/>
@@ -4328,13 +4617,13 @@
     </row>
     <row r="46">
       <c r="A46" s="3" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="C46" s="4" t="s">
-        <v>93</v>
+        <v>86</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>81</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" s="2"/>
@@ -4359,14 +4648,14 @@
       <c r="X46" s="2"/>
     </row>
     <row r="47">
-      <c r="A47" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="C47" s="4" t="s">
-        <v>93</v>
+      <c r="A47" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>91</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" s="2"/>
@@ -4392,13 +4681,13 @@
     </row>
     <row r="48">
       <c r="A48" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="B48" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C48" s="4" t="s">
-        <v>97</v>
+        <v>92</v>
+      </c>
+      <c r="B48" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>91</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" s="2"/>
@@ -4424,15 +4713,15 @@
     </row>
     <row r="49">
       <c r="A49" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="B49" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="C49" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="D49" s="3"/>
+        <v>93</v>
+      </c>
+      <c r="B49" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D49" s="2"/>
       <c r="E49" s="2"/>
       <c r="F49" s="2"/>
       <c r="G49" s="2"/>
@@ -4455,18 +4744,16 @@
       <c r="X49" s="2"/>
     </row>
     <row r="50">
-      <c r="A50" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="C50" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="D50" s="3" t="s">
-        <v>100</v>
-      </c>
+      <c r="A50" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B50" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D50" s="2"/>
       <c r="E50" s="2"/>
       <c r="F50" s="2"/>
       <c r="G50" s="2"/>
@@ -4489,18 +4776,16 @@
       <c r="X50" s="2"/>
     </row>
     <row r="51">
-      <c r="A51" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="B51" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="C51" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="D51" s="3" t="s">
-        <v>100</v>
-      </c>
+      <c r="A51" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B51" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D51" s="2"/>
       <c r="E51" s="2"/>
       <c r="F51" s="2"/>
       <c r="G51" s="2"/>
@@ -4524,13 +4809,13 @@
     </row>
     <row r="52">
       <c r="A52" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="B52" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C52" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
+      </c>
+      <c r="B52" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>91</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" s="2"/>
@@ -4556,13 +4841,13 @@
     </row>
     <row r="53">
       <c r="A53" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="B53" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="C53" s="4" t="s">
         <v>97</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>91</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" s="2"/>
@@ -4587,14 +4872,14 @@
       <c r="X53" s="2"/>
     </row>
     <row r="54">
-      <c r="A54" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="B54" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="C54" s="4" t="s">
-        <v>106</v>
+      <c r="A54" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>91</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" s="2"/>
@@ -4620,13 +4905,13 @@
     </row>
     <row r="55">
       <c r="A55" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="B55" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="C55" s="4" t="s">
-        <v>106</v>
+        <v>100</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>91</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" s="2"/>
@@ -4651,14 +4936,14 @@
       <c r="X55" s="2"/>
     </row>
     <row r="56">
-      <c r="A56" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="B56" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="C56" s="4" t="s">
-        <v>106</v>
+      <c r="A56" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>103</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" s="2"/>
@@ -4683,20 +4968,24 @@
       <c r="X56" s="2"/>
     </row>
     <row r="57">
-      <c r="A57" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="B57" s="15" t="s">
+      <c r="A57" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="C57" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="D57" s="2"/>
+      <c r="B57" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="D57" s="16" t="s">
+        <v>105</v>
+      </c>
       <c r="E57" s="2"/>
       <c r="F57" s="2"/>
       <c r="G57" s="2"/>
-      <c r="H57" s="2"/>
+      <c r="H57" s="5" t="s">
+        <v>103</v>
+      </c>
       <c r="I57" s="2"/>
       <c r="J57" s="2"/>
       <c r="K57" s="2"/>
@@ -4715,14 +5004,14 @@
       <c r="X57" s="2"/>
     </row>
     <row r="58">
-      <c r="A58" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="B58" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="C58" s="4" t="s">
+      <c r="A58" s="1" t="s">
         <v>106</v>
+      </c>
+      <c r="B58" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>103</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" s="2"/>
@@ -4748,17 +5037,21 @@
     </row>
     <row r="59">
       <c r="A59" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="B59" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="C59" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B59" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="D59" s="2"/>
+      <c r="C59" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>108</v>
+      </c>
       <c r="E59" s="2"/>
-      <c r="F59" s="2"/>
+      <c r="F59" s="1" t="s">
+        <v>109</v>
+      </c>
       <c r="G59" s="2"/>
       <c r="H59" s="2"/>
       <c r="I59" s="2"/>
@@ -4779,18 +5072,20 @@
       <c r="X59" s="2"/>
     </row>
     <row r="60">
-      <c r="A60" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="B60" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="C60" s="4" t="s">
+      <c r="A60" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="B60" s="1" t="s">
         <v>106</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>103</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" s="2"/>
-      <c r="F60" s="2"/>
+      <c r="F60" s="1" t="s">
+        <v>109</v>
+      </c>
       <c r="G60" s="2"/>
       <c r="H60" s="2"/>
       <c r="I60" s="2"/>
@@ -4811,14 +5106,15 @@
       <c r="X60" s="2"/>
     </row>
     <row r="61">
-      <c r="A61" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="B61" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="C61" s="4" t="s">
-        <v>106</v>
+      <c r="A61" s="2" t="str">
+        <f t="shared" ref="A61:A64" si="4">CONCAT("mouse ",A57)</f>
+        <v>mouse dipeptidyl peptidase–4–expressing (DPP4+) cell</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>103</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" s="2"/>
@@ -4843,14 +5139,15 @@
       <c r="X61" s="2"/>
     </row>
     <row r="62">
-      <c r="A62" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="B62" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="C62" s="4" t="s">
+      <c r="A62" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>mouse preadipocyte</v>
+      </c>
+      <c r="B62" s="1" t="s">
         <v>106</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>103</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" s="2"/>
@@ -4875,14 +5172,15 @@
       <c r="X62" s="2"/>
     </row>
     <row r="63">
-      <c r="A63" s="1" t="s">
-        <v>116</v>
+      <c r="A63" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>mouse ICAM1+ preadipocyte</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="C63" s="4" t="s">
-        <v>118</v>
+        <v>107</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>103</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" s="2"/>
@@ -4907,24 +5205,21 @@
       <c r="X63" s="2"/>
     </row>
     <row r="64">
-      <c r="A64" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="C64" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="D64" s="17" t="s">
-        <v>120</v>
-      </c>
+      <c r="A64" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>mouse CD142+ preadipocyte</v>
+      </c>
+      <c r="B64" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="D64" s="2"/>
       <c r="E64" s="2"/>
       <c r="F64" s="2"/>
       <c r="G64" s="2"/>
-      <c r="H64" s="4" t="s">
-        <v>118</v>
-      </c>
+      <c r="H64" s="2"/>
       <c r="I64" s="2"/>
       <c r="J64" s="2"/>
       <c r="K64" s="2"/>
@@ -4943,16 +5238,18 @@
       <c r="X64" s="2"/>
     </row>
     <row r="65">
-      <c r="A65" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="B65" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="C65" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="D65" s="2"/>
+      <c r="A65" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C65" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>113</v>
+      </c>
       <c r="E65" s="2"/>
       <c r="F65" s="2"/>
       <c r="G65" s="2"/>
@@ -4975,22 +5272,19 @@
       <c r="X65" s="2"/>
     </row>
     <row r="66">
-      <c r="A66" s="3" t="s">
-        <v>122</v>
+      <c r="A66" s="2" t="str">
+        <f t="shared" ref="A66:A69" si="5">CONCAT("human " ,A57)</f>
+        <v>human dipeptidyl peptidase–4–expressing (DPP4+) cell</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="C66" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="D66" s="3" t="s">
-        <v>123</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="C66" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="D66" s="2"/>
       <c r="E66" s="2"/>
-      <c r="F66" s="1" t="s">
-        <v>124</v>
-      </c>
+      <c r="F66" s="2"/>
       <c r="G66" s="2"/>
       <c r="H66" s="2"/>
       <c r="I66" s="2"/>
@@ -5011,20 +5305,19 @@
       <c r="X66" s="2"/>
     </row>
     <row r="67">
-      <c r="A67" s="16" t="s">
-        <v>125</v>
+      <c r="A67" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>human preadipocyte</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="C67" s="4" t="s">
-        <v>118</v>
+        <v>106</v>
+      </c>
+      <c r="C67" s="5" t="s">
+        <v>103</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" s="2"/>
-      <c r="F67" s="1" t="s">
-        <v>124</v>
-      </c>
+      <c r="F67" s="2"/>
       <c r="G67" s="2"/>
       <c r="H67" s="2"/>
       <c r="I67" s="2"/>
@@ -5046,14 +5339,14 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="str">
-        <f t="shared" ref="A68:A71" si="4">CONCAT("mouse ",A64)</f>
-        <v>mouse dipeptidyl peptidase–4–expressing (DPP4+) cell</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="C68" s="4" t="s">
-        <v>118</v>
+        <f t="shared" si="5"/>
+        <v>human ICAM1+ preadipocyte</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C68" s="5" t="s">
+        <v>103</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" s="2"/>
@@ -5079,14 +5372,14 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>mouse preadipocyte</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="C69" s="4" t="s">
-        <v>118</v>
+        <f t="shared" si="5"/>
+        <v>human CD142+ preadipocyte</v>
+      </c>
+      <c r="B69" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="C69" s="5" t="s">
+        <v>103</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" s="2"/>
@@ -5111,15 +5404,14 @@
       <c r="X69" s="2"/>
     </row>
     <row r="70">
-      <c r="A70" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>mouse ICAM1+ preadipocyte</v>
+      <c r="A70" s="3" t="s">
+        <v>114</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="C70" s="4" t="s">
-        <v>118</v>
+        <v>112</v>
+      </c>
+      <c r="C70" s="5" t="s">
+        <v>103</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" s="2"/>
@@ -5144,15 +5436,14 @@
       <c r="X70" s="2"/>
     </row>
     <row r="71">
-      <c r="A71" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>mouse CD142+ preadipocyte</v>
-      </c>
-      <c r="B71" s="16" t="s">
-        <v>126</v>
-      </c>
-      <c r="C71" s="4" t="s">
-        <v>118</v>
+      <c r="A71" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C71" s="17" t="s">
+        <v>116</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" s="2"/>
@@ -5178,16 +5469,16 @@
     </row>
     <row r="72">
       <c r="A72" s="3" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C72" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C72" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="D72" s="3" t="s">
         <v>118</v>
-      </c>
-      <c r="D72" s="3" t="s">
-        <v>128</v>
       </c>
       <c r="E72" s="2"/>
       <c r="F72" s="2"/>
@@ -5211,18 +5502,19 @@
       <c r="X72" s="2"/>
     </row>
     <row r="73">
-      <c r="A73" s="2" t="str">
-        <f t="shared" ref="A73:A76" si="5">CONCAT("human " ,A64)</f>
-        <v>human dipeptidyl peptidase–4–expressing (DPP4+) cell</v>
-      </c>
-      <c r="B73" s="1" t="s">
+      <c r="A73" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="C73" s="4" t="s">
-        <v>118</v>
+      <c r="B73" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C73" s="17" t="s">
+        <v>116</v>
       </c>
       <c r="D73" s="2"/>
-      <c r="E73" s="2"/>
+      <c r="E73" s="18" t="s">
+        <v>120</v>
+      </c>
       <c r="F73" s="2"/>
       <c r="G73" s="2"/>
       <c r="H73" s="2"/>
@@ -5244,18 +5536,19 @@
       <c r="X73" s="2"/>
     </row>
     <row r="74">
-      <c r="A74" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>human preadipocyte</v>
-      </c>
-      <c r="B74" s="1" t="s">
+      <c r="A74" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="C74" s="4" t="s">
-        <v>118</v>
+      <c r="B74" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C74" s="17" t="s">
+        <v>116</v>
       </c>
       <c r="D74" s="2"/>
-      <c r="E74" s="2"/>
+      <c r="E74" s="3" t="s">
+        <v>122</v>
+      </c>
       <c r="F74" s="2"/>
       <c r="G74" s="2"/>
       <c r="H74" s="2"/>
@@ -5277,18 +5570,21 @@
       <c r="X74" s="2"/>
     </row>
     <row r="75">
-      <c r="A75" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>human ICAM1+ preadipocyte</v>
+      <c r="A75" s="3" t="s">
+        <v>123</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="C75" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="D75" s="2"/>
-      <c r="E75" s="2"/>
+        <v>30</v>
+      </c>
+      <c r="C75" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="E75" s="3" t="s">
+        <v>125</v>
+      </c>
       <c r="F75" s="2"/>
       <c r="G75" s="2"/>
       <c r="H75" s="2"/>
@@ -5310,18 +5606,19 @@
       <c r="X75" s="2"/>
     </row>
     <row r="76">
-      <c r="A76" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>human CD142+ preadipocyte</v>
-      </c>
-      <c r="B76" s="16" t="s">
-        <v>125</v>
-      </c>
-      <c r="C76" s="4" t="s">
-        <v>118</v>
+      <c r="A76" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C76" s="17" t="s">
+        <v>116</v>
       </c>
       <c r="D76" s="2"/>
-      <c r="E76" s="2"/>
+      <c r="E76" s="18" t="s">
+        <v>127</v>
+      </c>
       <c r="F76" s="2"/>
       <c r="G76" s="2"/>
       <c r="H76" s="2"/>
@@ -5343,14 +5640,14 @@
       <c r="X76" s="2"/>
     </row>
     <row r="77">
-      <c r="A77" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="B77" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="C77" s="4" t="s">
-        <v>118</v>
+      <c r="A77" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B77" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="C77" s="17" t="s">
+        <v>116</v>
       </c>
       <c r="D77" s="2"/>
       <c r="E77" s="2"/>
@@ -5375,14 +5672,14 @@
       <c r="X77" s="2"/>
     </row>
     <row r="78">
-      <c r="A78" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="B78" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C78" s="18" t="s">
-        <v>131</v>
+      <c r="A78" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B78" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="C78" s="17" t="s">
+        <v>116</v>
       </c>
       <c r="D78" s="2"/>
       <c r="E78" s="2"/>
@@ -5408,17 +5705,15 @@
     </row>
     <row r="79">
       <c r="A79" s="3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C79" s="18" t="s">
-        <v>131</v>
-      </c>
-      <c r="D79" s="3" t="s">
-        <v>133</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="C79" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="D79" s="2"/>
       <c r="E79" s="2"/>
       <c r="F79" s="2"/>
       <c r="G79" s="2"/>
@@ -5441,19 +5736,17 @@
       <c r="X79" s="2"/>
     </row>
     <row r="80">
-      <c r="A80" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="B80" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C80" s="18" t="s">
+      <c r="A80" s="3" t="s">
         <v>131</v>
       </c>
+      <c r="B80" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="C80" s="17" t="s">
+        <v>116</v>
+      </c>
       <c r="D80" s="2"/>
-      <c r="E80" s="19" t="s">
-        <v>135</v>
-      </c>
+      <c r="E80" s="2"/>
       <c r="F80" s="2"/>
       <c r="G80" s="2"/>
       <c r="H80" s="2"/>
@@ -5475,19 +5768,19 @@
       <c r="X80" s="2"/>
     </row>
     <row r="81">
-      <c r="A81" s="1" t="s">
-        <v>136</v>
+      <c r="A81" s="3" t="s">
+        <v>132</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C81" s="18" t="s">
-        <v>131</v>
-      </c>
-      <c r="D81" s="2"/>
-      <c r="E81" s="3" t="s">
-        <v>137</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="C81" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="D81" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="E81" s="2"/>
       <c r="F81" s="2"/>
       <c r="G81" s="2"/>
       <c r="H81" s="2"/>
@@ -5509,21 +5802,17 @@
       <c r="X81" s="2"/>
     </row>
     <row r="82">
-      <c r="A82" s="3" t="s">
-        <v>138</v>
+      <c r="A82" s="1" t="s">
+        <v>134</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C82" s="18" t="s">
-        <v>131</v>
-      </c>
-      <c r="D82" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="E82" s="3" t="s">
-        <v>140</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="C82" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="D82" s="2"/>
+      <c r="E82" s="2"/>
       <c r="F82" s="2"/>
       <c r="G82" s="2"/>
       <c r="H82" s="2"/>
@@ -5545,19 +5834,17 @@
       <c r="X82" s="2"/>
     </row>
     <row r="83">
-      <c r="A83" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="B83" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C83" s="18" t="s">
-        <v>131</v>
+      <c r="A83" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B83" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="C83" s="17" t="s">
+        <v>137</v>
       </c>
       <c r="D83" s="2"/>
-      <c r="E83" s="19" t="s">
-        <v>142</v>
-      </c>
+      <c r="E83" s="2"/>
       <c r="F83" s="2"/>
       <c r="G83" s="2"/>
       <c r="H83" s="2"/>
@@ -5579,18 +5866,20 @@
       <c r="X83" s="2"/>
     </row>
     <row r="84">
-      <c r="A84" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="B84" s="20" t="s">
-        <v>130</v>
-      </c>
-      <c r="C84" s="18" t="s">
-        <v>131</v>
+      <c r="A84" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C84" s="17" t="s">
+        <v>137</v>
       </c>
       <c r="D84" s="2"/>
       <c r="E84" s="2"/>
-      <c r="F84" s="2"/>
+      <c r="F84" s="3" t="s">
+        <v>139</v>
+      </c>
       <c r="G84" s="2"/>
       <c r="H84" s="2"/>
       <c r="I84" s="2"/>
@@ -5611,14 +5900,14 @@
       <c r="X84" s="2"/>
     </row>
     <row r="85">
-      <c r="A85" s="1" t="s">
-        <v>144</v>
+      <c r="A85" s="3" t="s">
+        <v>140</v>
       </c>
       <c r="B85" s="20" t="s">
-        <v>130</v>
-      </c>
-      <c r="C85" s="18" t="s">
-        <v>131</v>
+        <v>141</v>
+      </c>
+      <c r="C85" s="17" t="s">
+        <v>137</v>
       </c>
       <c r="D85" s="2"/>
       <c r="E85" s="2"/>
@@ -5644,13 +5933,13 @@
     </row>
     <row r="86">
       <c r="A86" s="3" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="C86" s="18" t="s">
-        <v>131</v>
+        <v>22</v>
+      </c>
+      <c r="C86" s="17" t="s">
+        <v>143</v>
       </c>
       <c r="D86" s="2"/>
       <c r="E86" s="2"/>
@@ -5676,13 +5965,13 @@
     </row>
     <row r="87">
       <c r="A87" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="C87" s="17" t="s">
         <v>146</v>
-      </c>
-      <c r="B87" s="20" t="s">
-        <v>141</v>
-      </c>
-      <c r="C87" s="18" t="s">
-        <v>131</v>
       </c>
       <c r="D87" s="2"/>
       <c r="E87" s="2"/>
@@ -5711,14 +6000,12 @@
         <v>147</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C88" s="18" t="s">
-        <v>131</v>
-      </c>
-      <c r="D88" s="3" t="s">
-        <v>148</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="C88" s="17" t="s">
+        <v>146</v>
+      </c>
+      <c r="D88" s="2"/>
       <c r="E88" s="2"/>
       <c r="F88" s="2"/>
       <c r="G88" s="2"/>
@@ -5741,14 +6028,14 @@
       <c r="X88" s="2"/>
     </row>
     <row r="89">
-      <c r="A89" s="1" t="s">
+      <c r="A89" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C89" s="18" t="s">
         <v>149</v>
-      </c>
-      <c r="B89" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C89" s="18" t="s">
-        <v>131</v>
       </c>
       <c r="D89" s="2"/>
       <c r="E89" s="2"/>
@@ -5773,14 +6060,14 @@
       <c r="X89" s="2"/>
     </row>
     <row r="90">
-      <c r="A90" s="1" t="s">
+      <c r="A90" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="B90" s="19" t="s">
-        <v>151</v>
+      <c r="B90" s="3" t="s">
+        <v>148</v>
       </c>
       <c r="C90" s="18" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D90" s="2"/>
       <c r="E90" s="2"/>
@@ -5806,19 +6093,17 @@
     </row>
     <row r="91">
       <c r="A91" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="B91" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
+      </c>
+      <c r="B91" s="19" t="s">
+        <v>80</v>
       </c>
       <c r="C91" s="18" t="s">
         <v>152</v>
       </c>
       <c r="D91" s="2"/>
       <c r="E91" s="2"/>
-      <c r="F91" s="3" t="s">
-        <v>154</v>
-      </c>
+      <c r="F91" s="2"/>
       <c r="G91" s="2"/>
       <c r="H91" s="2"/>
       <c r="I91" s="2"/>
@@ -5840,10 +6125,10 @@
     </row>
     <row r="92">
       <c r="A92" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="B92" s="21" t="s">
-        <v>156</v>
+        <v>153</v>
+      </c>
+      <c r="B92" s="3" t="s">
+        <v>151</v>
       </c>
       <c r="C92" s="18" t="s">
         <v>152</v>
@@ -5871,14 +6156,14 @@
       <c r="X92" s="2"/>
     </row>
     <row r="93">
-      <c r="A93" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="B93" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C93" s="18" t="s">
-        <v>158</v>
+      <c r="A93" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C93" s="17" t="s">
+        <v>156</v>
       </c>
       <c r="D93" s="2"/>
       <c r="E93" s="2"/>
@@ -5903,14 +6188,14 @@
       <c r="X93" s="2"/>
     </row>
     <row r="94">
-      <c r="A94" s="3" t="s">
-        <v>159</v>
+      <c r="A94" s="1" t="s">
+        <v>157</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="C94" s="18" t="s">
-        <v>161</v>
+        <v>66</v>
+      </c>
+      <c r="C94" s="17" t="s">
+        <v>156</v>
       </c>
       <c r="D94" s="2"/>
       <c r="E94" s="2"/>
@@ -5936,13 +6221,13 @@
     </row>
     <row r="95">
       <c r="A95" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="B95" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="C95" s="18" t="s">
-        <v>161</v>
+        <v>158</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C95" s="17" t="s">
+        <v>156</v>
       </c>
       <c r="D95" s="2"/>
       <c r="E95" s="2"/>
@@ -5967,14 +6252,14 @@
       <c r="X95" s="2"/>
     </row>
     <row r="96">
-      <c r="A96" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="B96" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C96" s="19" t="s">
-        <v>164</v>
+      <c r="A96" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B96" s="19" t="s">
+        <v>160</v>
+      </c>
+      <c r="C96" s="17" t="s">
+        <v>156</v>
       </c>
       <c r="D96" s="2"/>
       <c r="E96" s="2"/>
@@ -5999,14 +6284,14 @@
       <c r="X96" s="2"/>
     </row>
     <row r="97">
-      <c r="A97" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="B97" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="C97" s="19" t="s">
-        <v>164</v>
+      <c r="A97" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C97" s="17" t="s">
+        <v>156</v>
       </c>
       <c r="D97" s="2"/>
       <c r="E97" s="2"/>
@@ -6032,13 +6317,13 @@
     </row>
     <row r="98">
       <c r="A98" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="B98" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="C98" s="19" t="s">
-        <v>167</v>
+        <v>162</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C98" s="17" t="s">
+        <v>156</v>
       </c>
       <c r="D98" s="2"/>
       <c r="E98" s="2"/>
@@ -6064,13 +6349,13 @@
     </row>
     <row r="99">
       <c r="A99" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="B99" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="C99" s="19" t="s">
-        <v>167</v>
+        <v>163</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C99" s="17" t="s">
+        <v>156</v>
       </c>
       <c r="D99" s="2"/>
       <c r="E99" s="2"/>
@@ -6095,16 +6380,18 @@
       <c r="X99" s="2"/>
     </row>
     <row r="100">
-      <c r="A100" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="B100" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="C100" s="18" t="s">
-        <v>171</v>
-      </c>
-      <c r="D100" s="2"/>
+      <c r="A100" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="B100" s="19" t="s">
+        <v>161</v>
+      </c>
+      <c r="C100" s="17" t="s">
+        <v>156</v>
+      </c>
+      <c r="D100" s="3" t="s">
+        <v>165</v>
+      </c>
       <c r="E100" s="2"/>
       <c r="F100" s="2"/>
       <c r="G100" s="2"/>
@@ -6127,16 +6414,18 @@
       <c r="X100" s="2"/>
     </row>
     <row r="101">
-      <c r="A101" s="1" t="s">
-        <v>172</v>
+      <c r="A101" s="3" t="s">
+        <v>166</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="C101" s="18" t="s">
-        <v>171</v>
-      </c>
-      <c r="D101" s="2"/>
+        <v>162</v>
+      </c>
+      <c r="C101" s="17" t="s">
+        <v>156</v>
+      </c>
+      <c r="D101" s="3" t="s">
+        <v>167</v>
+      </c>
       <c r="E101" s="2"/>
       <c r="F101" s="2"/>
       <c r="G101" s="2"/>
@@ -6160,15 +6449,17 @@
     </row>
     <row r="102">
       <c r="A102" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="B102" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="C102" s="18" t="s">
-        <v>171</v>
-      </c>
-      <c r="D102" s="2"/>
+        <v>168</v>
+      </c>
+      <c r="B102" s="19" t="s">
+        <v>160</v>
+      </c>
+      <c r="C102" s="17" t="s">
+        <v>156</v>
+      </c>
+      <c r="D102" s="3" t="s">
+        <v>169</v>
+      </c>
       <c r="E102" s="2"/>
       <c r="F102" s="2"/>
       <c r="G102" s="2"/>
@@ -6191,14 +6482,14 @@
       <c r="X102" s="2"/>
     </row>
     <row r="103">
-      <c r="A103" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="B103" s="20" t="s">
-        <v>175</v>
-      </c>
-      <c r="C103" s="18" t="s">
+      <c r="A103" s="21" t="s">
+        <v>170</v>
+      </c>
+      <c r="B103" s="3" t="s">
         <v>171</v>
+      </c>
+      <c r="C103" s="17" t="s">
+        <v>156</v>
       </c>
       <c r="D103" s="2"/>
       <c r="E103" s="2"/>
@@ -6224,13 +6515,13 @@
     </row>
     <row r="104">
       <c r="A104" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="B104" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="C104" s="18" t="s">
-        <v>171</v>
+        <v>172</v>
+      </c>
+      <c r="B104" s="19" t="s">
+        <v>160</v>
+      </c>
+      <c r="C104" s="17" t="s">
+        <v>156</v>
       </c>
       <c r="D104" s="2"/>
       <c r="E104" s="2"/>
@@ -6255,17 +6546,19 @@
       <c r="X104" s="2"/>
     </row>
     <row r="105">
-      <c r="A105" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="B105" s="1" t="s">
+      <c r="A105" s="21" t="s">
+        <v>173</v>
+      </c>
+      <c r="B105" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="C105" s="18" t="s">
-        <v>171</v>
+      <c r="C105" s="17" t="s">
+        <v>175</v>
       </c>
       <c r="D105" s="2"/>
-      <c r="E105" s="2"/>
+      <c r="E105" s="3" t="s">
+        <v>176</v>
+      </c>
       <c r="F105" s="2"/>
       <c r="G105" s="2"/>
       <c r="H105" s="2"/>
@@ -6288,16 +6581,18 @@
     </row>
     <row r="106">
       <c r="A106" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="B106" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B106" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="C106" s="18" t="s">
-        <v>171</v>
+      <c r="C106" s="17" t="s">
+        <v>175</v>
       </c>
       <c r="D106" s="2"/>
-      <c r="E106" s="2"/>
+      <c r="E106" s="3" t="s">
+        <v>176</v>
+      </c>
       <c r="F106" s="2"/>
       <c r="G106" s="2"/>
       <c r="H106" s="2"/>
@@ -6319,19 +6614,19 @@
       <c r="X106" s="2"/>
     </row>
     <row r="107">
-      <c r="A107" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="B107" s="20" t="s">
+      <c r="A107" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B107" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="C107" s="17" t="s">
+        <v>175</v>
+      </c>
+      <c r="D107" s="2"/>
+      <c r="E107" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="C107" s="18" t="s">
-        <v>171</v>
-      </c>
-      <c r="D107" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="E107" s="2"/>
       <c r="F107" s="2"/>
       <c r="G107" s="2"/>
       <c r="H107" s="2"/>
@@ -6353,19 +6648,19 @@
       <c r="X107" s="2"/>
     </row>
     <row r="108">
-      <c r="A108" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="B108" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="C108" s="18" t="s">
-        <v>171</v>
-      </c>
-      <c r="D108" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="E108" s="2"/>
+      <c r="A108" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B108" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="C108" s="17" t="s">
+        <v>175</v>
+      </c>
+      <c r="D108" s="2"/>
+      <c r="E108" s="3" t="s">
+        <v>176</v>
+      </c>
       <c r="F108" s="2"/>
       <c r="G108" s="2"/>
       <c r="H108" s="2"/>
@@ -6387,19 +6682,17 @@
       <c r="X108" s="2"/>
     </row>
     <row r="109">
-      <c r="A109" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="B109" s="20" t="s">
+      <c r="A109" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C109" s="17" t="s">
         <v>175</v>
       </c>
-      <c r="C109" s="18" t="s">
-        <v>171</v>
-      </c>
-      <c r="D109" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="E109" s="2"/>
+      <c r="D109" s="2"/>
+      <c r="E109" s="3"/>
       <c r="F109" s="2"/>
       <c r="G109" s="2"/>
       <c r="H109" s="2"/>
@@ -6421,17 +6714,19 @@
       <c r="X109" s="2"/>
     </row>
     <row r="110">
-      <c r="A110" s="22" t="s">
-        <v>185</v>
+      <c r="A110" s="3" t="s">
+        <v>181</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="C110" s="18" t="s">
-        <v>171</v>
+        <v>182</v>
+      </c>
+      <c r="C110" s="17" t="s">
+        <v>175</v>
       </c>
       <c r="D110" s="2"/>
-      <c r="E110" s="2"/>
+      <c r="E110" s="3" t="s">
+        <v>176</v>
+      </c>
       <c r="F110" s="2"/>
       <c r="G110" s="2"/>
       <c r="H110" s="2"/>
@@ -6453,17 +6748,19 @@
       <c r="X110" s="2"/>
     </row>
     <row r="111">
-      <c r="A111" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="B111" s="20" t="s">
+      <c r="A111" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="B111" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="C111" s="17" t="s">
         <v>175</v>
       </c>
-      <c r="C111" s="18" t="s">
-        <v>171</v>
-      </c>
       <c r="D111" s="2"/>
-      <c r="E111" s="2"/>
+      <c r="E111" s="3" t="s">
+        <v>176</v>
+      </c>
       <c r="F111" s="2"/>
       <c r="G111" s="2"/>
       <c r="H111" s="2"/>
@@ -6485,19 +6782,17 @@
       <c r="X111" s="2"/>
     </row>
     <row r="112">
-      <c r="A112" s="22" t="s">
-        <v>188</v>
+      <c r="A112" s="1" t="s">
+        <v>185</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="C112" s="18" t="s">
-        <v>190</v>
+        <v>87</v>
+      </c>
+      <c r="C112" s="17" t="s">
+        <v>175</v>
       </c>
       <c r="D112" s="2"/>
-      <c r="E112" s="3" t="s">
-        <v>191</v>
-      </c>
+      <c r="E112" s="2"/>
       <c r="F112" s="2"/>
       <c r="G112" s="2"/>
       <c r="H112" s="2"/>
@@ -6520,18 +6815,16 @@
     </row>
     <row r="113">
       <c r="A113" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="B113" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="C113" s="18" t="s">
-        <v>190</v>
+        <v>186</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C113" s="17" t="s">
+        <v>175</v>
       </c>
       <c r="D113" s="2"/>
-      <c r="E113" s="3" t="s">
-        <v>191</v>
-      </c>
+      <c r="E113" s="2"/>
       <c r="F113" s="2"/>
       <c r="G113" s="2"/>
       <c r="H113" s="2"/>
@@ -6553,19 +6846,19 @@
       <c r="X113" s="2"/>
     </row>
     <row r="114">
-      <c r="A114" s="1" t="s">
-        <v>193</v>
+      <c r="A114" s="3" t="s">
+        <v>187</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="C114" s="18" t="s">
-        <v>190</v>
-      </c>
-      <c r="D114" s="2"/>
-      <c r="E114" s="3" t="s">
-        <v>191</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="C114" s="17" t="s">
+        <v>175</v>
+      </c>
+      <c r="D114" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="E114" s="2"/>
       <c r="F114" s="2"/>
       <c r="G114" s="2"/>
       <c r="H114" s="2"/>
@@ -6588,18 +6881,16 @@
     </row>
     <row r="115">
       <c r="A115" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="B115" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="C115" s="18" t="s">
-        <v>190</v>
+        <v>189</v>
+      </c>
+      <c r="B115" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="C115" s="17" t="s">
+        <v>175</v>
       </c>
       <c r="D115" s="2"/>
-      <c r="E115" s="3" t="s">
-        <v>191</v>
-      </c>
+      <c r="E115" s="2"/>
       <c r="F115" s="2"/>
       <c r="G115" s="2"/>
       <c r="H115" s="2"/>
@@ -6621,17 +6912,17 @@
       <c r="X115" s="2"/>
     </row>
     <row r="116">
-      <c r="A116" s="1" t="s">
-        <v>195</v>
+      <c r="A116" s="3" t="s">
+        <v>190</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="C116" s="18" t="s">
-        <v>190</v>
+        <v>189</v>
+      </c>
+      <c r="C116" s="17" t="s">
+        <v>175</v>
       </c>
       <c r="D116" s="2"/>
-      <c r="E116" s="3"/>
+      <c r="E116" s="2"/>
       <c r="F116" s="2"/>
       <c r="G116" s="2"/>
       <c r="H116" s="2"/>
@@ -6654,17 +6945,17 @@
     </row>
     <row r="117">
       <c r="A117" s="3" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="C117" s="18" t="s">
-        <v>190</v>
+        <v>87</v>
+      </c>
+      <c r="C117" s="17" t="s">
+        <v>175</v>
       </c>
       <c r="D117" s="2"/>
       <c r="E117" s="3" t="s">
-        <v>191</v>
+        <v>176</v>
       </c>
       <c r="F117" s="2"/>
       <c r="G117" s="2"/>
@@ -6687,18 +6978,18 @@
       <c r="X117" s="2"/>
     </row>
     <row r="118">
-      <c r="A118" s="3" t="s">
-        <v>198</v>
+      <c r="A118" s="1" t="s">
+        <v>192</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="C118" s="18" t="s">
-        <v>190</v>
+        <v>193</v>
+      </c>
+      <c r="C118" s="17" t="s">
+        <v>175</v>
       </c>
       <c r="D118" s="2"/>
       <c r="E118" s="3" t="s">
-        <v>191</v>
+        <v>176</v>
       </c>
       <c r="F118" s="2"/>
       <c r="G118" s="2"/>
@@ -6722,16 +7013,20 @@
     </row>
     <row r="119">
       <c r="A119" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="B119" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C119" s="18" t="s">
-        <v>190</v>
-      </c>
-      <c r="D119" s="2"/>
-      <c r="E119" s="2"/>
+        <v>194</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C119" s="17" t="s">
+        <v>175</v>
+      </c>
+      <c r="D119" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="E119" s="3" t="s">
+        <v>176</v>
+      </c>
       <c r="F119" s="2"/>
       <c r="G119" s="2"/>
       <c r="H119" s="2"/>
@@ -6754,16 +7049,18 @@
     </row>
     <row r="120">
       <c r="A120" s="3" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="C120" s="18" t="s">
-        <v>190</v>
+        <v>192</v>
+      </c>
+      <c r="C120" s="17" t="s">
+        <v>175</v>
       </c>
       <c r="D120" s="2"/>
-      <c r="E120" s="2"/>
+      <c r="E120" s="3" t="s">
+        <v>176</v>
+      </c>
       <c r="F120" s="2"/>
       <c r="G120" s="2"/>
       <c r="H120" s="2"/>
@@ -6786,18 +7083,18 @@
     </row>
     <row r="121">
       <c r="A121" s="3" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C121" s="18" t="s">
-        <v>190</v>
-      </c>
-      <c r="D121" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="E121" s="2"/>
+        <v>196</v>
+      </c>
+      <c r="C121" s="17" t="s">
+        <v>175</v>
+      </c>
+      <c r="D121" s="2"/>
+      <c r="E121" s="3" t="s">
+        <v>176</v>
+      </c>
       <c r="F121" s="2"/>
       <c r="G121" s="2"/>
       <c r="H121" s="2"/>
@@ -6819,17 +7116,19 @@
       <c r="X121" s="2"/>
     </row>
     <row r="122">
-      <c r="A122" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="B122" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="C122" s="18" t="s">
-        <v>190</v>
+      <c r="A122" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C122" s="17" t="s">
+        <v>175</v>
       </c>
       <c r="D122" s="2"/>
-      <c r="E122" s="2"/>
+      <c r="E122" s="3" t="s">
+        <v>176</v>
+      </c>
       <c r="F122" s="2"/>
       <c r="G122" s="2"/>
       <c r="H122" s="2"/>
@@ -6852,16 +7151,18 @@
     </row>
     <row r="123">
       <c r="A123" s="3" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="C123" s="18" t="s">
-        <v>190</v>
+        <v>192</v>
+      </c>
+      <c r="C123" s="17" t="s">
+        <v>175</v>
       </c>
       <c r="D123" s="2"/>
-      <c r="E123" s="2"/>
+      <c r="E123" s="3" t="s">
+        <v>176</v>
+      </c>
       <c r="F123" s="2"/>
       <c r="G123" s="2"/>
       <c r="H123" s="2"/>
@@ -6883,18 +7184,18 @@
       <c r="X123" s="2"/>
     </row>
     <row r="124">
-      <c r="A124" s="3" t="s">
-        <v>206</v>
+      <c r="A124" s="19" t="s">
+        <v>200</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C124" s="18" t="s">
-        <v>190</v>
+        <v>201</v>
+      </c>
+      <c r="C124" s="17" t="s">
+        <v>175</v>
       </c>
       <c r="D124" s="2"/>
       <c r="E124" s="3" t="s">
-        <v>191</v>
+        <v>176</v>
       </c>
       <c r="F124" s="2"/>
       <c r="G124" s="2"/>
@@ -6917,18 +7218,18 @@
       <c r="X124" s="2"/>
     </row>
     <row r="125">
-      <c r="A125" s="1" t="s">
-        <v>207</v>
+      <c r="A125" s="3" t="s">
+        <v>202</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="C125" s="18" t="s">
-        <v>190</v>
+        <v>22</v>
+      </c>
+      <c r="C125" s="17" t="s">
+        <v>146</v>
       </c>
       <c r="D125" s="2"/>
-      <c r="E125" s="3" t="s">
-        <v>191</v>
+      <c r="E125" s="18" t="s">
+        <v>203</v>
       </c>
       <c r="F125" s="2"/>
       <c r="G125" s="2"/>
@@ -6951,21 +7252,19 @@
       <c r="X125" s="2"/>
     </row>
     <row r="126">
-      <c r="A126" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="B126" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="C126" s="18" t="s">
-        <v>190</v>
-      </c>
-      <c r="D126" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="E126" s="3" t="s">
-        <v>191</v>
-      </c>
+      <c r="A126" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="B126" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C126" s="17" t="s">
+        <v>205</v>
+      </c>
+      <c r="D126" s="22" t="s">
+        <v>206</v>
+      </c>
+      <c r="E126" s="2"/>
       <c r="F126" s="2"/>
       <c r="G126" s="2"/>
       <c r="H126" s="2"/>
@@ -6988,18 +7287,16 @@
     </row>
     <row r="127">
       <c r="A127" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="B127" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="C127" s="18" t="s">
-        <v>190</v>
+      <c r="B127" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="C127" s="17" t="s">
+        <v>209</v>
       </c>
       <c r="D127" s="2"/>
-      <c r="E127" s="3" t="s">
-        <v>191</v>
-      </c>
+      <c r="E127" s="2"/>
       <c r="F127" s="2"/>
       <c r="G127" s="2"/>
       <c r="H127" s="2"/>
@@ -7022,18 +7319,16 @@
     </row>
     <row r="128">
       <c r="A128" s="3" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="C128" s="18" t="s">
-        <v>190</v>
+        <v>208</v>
+      </c>
+      <c r="C128" s="17" t="s">
+        <v>209</v>
       </c>
       <c r="D128" s="2"/>
-      <c r="E128" s="3" t="s">
-        <v>191</v>
-      </c>
+      <c r="E128" s="2"/>
       <c r="F128" s="2"/>
       <c r="G128" s="2"/>
       <c r="H128" s="2"/>
@@ -7055,19 +7350,17 @@
       <c r="X128" s="2"/>
     </row>
     <row r="129">
-      <c r="A129" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="B129" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="C129" s="18" t="s">
-        <v>190</v>
+      <c r="A129" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B129" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C129" s="17" t="s">
+        <v>209</v>
       </c>
       <c r="D129" s="2"/>
-      <c r="E129" s="3" t="s">
-        <v>191</v>
-      </c>
+      <c r="E129" s="2"/>
       <c r="F129" s="2"/>
       <c r="G129" s="2"/>
       <c r="H129" s="2"/>
@@ -7090,19 +7383,19 @@
     </row>
     <row r="130">
       <c r="A130" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="B130" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="C130" s="18" t="s">
-        <v>190</v>
+        <v>212</v>
+      </c>
+      <c r="B130" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="C130" s="17" t="s">
+        <v>209</v>
       </c>
       <c r="D130" s="2"/>
       <c r="E130" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="F130" s="2"/>
+        <v>213</v>
+      </c>
+      <c r="F130" s="3"/>
       <c r="G130" s="2"/>
       <c r="H130" s="2"/>
       <c r="I130" s="2"/>
@@ -7123,18 +7416,18 @@
       <c r="X130" s="2"/>
     </row>
     <row r="131">
-      <c r="A131" s="20" t="s">
-        <v>215</v>
+      <c r="A131" s="3" t="s">
+        <v>214</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C131" s="18" t="s">
-        <v>190</v>
+        <v>208</v>
+      </c>
+      <c r="C131" s="17" t="s">
+        <v>209</v>
       </c>
       <c r="D131" s="2"/>
       <c r="E131" s="3" t="s">
-        <v>191</v>
+        <v>215</v>
       </c>
       <c r="F131" s="2"/>
       <c r="G131" s="2"/>
@@ -7157,19 +7450,17 @@
       <c r="X131" s="2"/>
     </row>
     <row r="132">
-      <c r="A132" s="3" t="s">
+      <c r="A132" s="21" t="s">
         <v>216</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C132" s="18" t="s">
-        <v>161</v>
+        <v>208</v>
+      </c>
+      <c r="C132" s="17" t="s">
+        <v>209</v>
       </c>
       <c r="D132" s="2"/>
-      <c r="E132" s="19" t="s">
-        <v>217</v>
-      </c>
+      <c r="E132" s="2"/>
       <c r="F132" s="2"/>
       <c r="G132" s="2"/>
       <c r="H132" s="2"/>
@@ -7191,18 +7482,16 @@
       <c r="X132" s="2"/>
     </row>
     <row r="133">
-      <c r="A133" s="3" t="s">
-        <v>218</v>
+      <c r="A133" s="21" t="s">
+        <v>217</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="C133" s="18" t="s">
-        <v>219</v>
-      </c>
-      <c r="D133" s="23" t="s">
-        <v>220</v>
-      </c>
+        <v>208</v>
+      </c>
+      <c r="C133" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="D133" s="2"/>
       <c r="E133" s="2"/>
       <c r="F133" s="2"/>
       <c r="G133" s="2"/>
@@ -7225,14 +7514,14 @@
       <c r="X133" s="2"/>
     </row>
     <row r="134">
-      <c r="A134" s="24" t="s">
-        <v>221</v>
-      </c>
-      <c r="B134" s="24" t="s">
-        <v>222</v>
-      </c>
-      <c r="C134" s="18" t="s">
-        <v>223</v>
+      <c r="A134" s="21" t="s">
+        <v>218</v>
+      </c>
+      <c r="B134" s="23" t="s">
+        <v>216</v>
+      </c>
+      <c r="C134" s="17" t="s">
+        <v>209</v>
       </c>
       <c r="D134" s="2"/>
       <c r="E134" s="2"/>
@@ -7257,14 +7546,14 @@
       <c r="X134" s="2"/>
     </row>
     <row r="135">
-      <c r="A135" s="24" t="s">
-        <v>224</v>
-      </c>
-      <c r="B135" s="24" t="s">
-        <v>222</v>
-      </c>
-      <c r="C135" s="18" t="s">
-        <v>223</v>
+      <c r="A135" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="B135" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="C135" s="17" t="s">
+        <v>209</v>
       </c>
       <c r="D135" s="2"/>
       <c r="E135" s="2"/>
@@ -7289,14 +7578,14 @@
       <c r="X135" s="2"/>
     </row>
     <row r="136">
-      <c r="A136" s="25" t="s">
-        <v>225</v>
-      </c>
-      <c r="B136" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="C136" s="18" t="s">
-        <v>223</v>
+      <c r="A136" s="21" t="s">
+        <v>220</v>
+      </c>
+      <c r="B136" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C136" s="17" t="s">
+        <v>221</v>
       </c>
       <c r="D136" s="2"/>
       <c r="E136" s="2"/>
@@ -7321,20 +7610,20 @@
       <c r="X136" s="2"/>
     </row>
     <row r="137">
-      <c r="A137" s="24" t="s">
-        <v>226</v>
-      </c>
-      <c r="B137" s="24" t="s">
+      <c r="A137" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="C137" s="18" t="s">
+      <c r="B137" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C137" s="17" t="s">
+        <v>221</v>
+      </c>
+      <c r="D137" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="D137" s="2"/>
-      <c r="E137" s="24" t="s">
-        <v>227</v>
-      </c>
-      <c r="F137" s="24"/>
+      <c r="E137" s="2"/>
+      <c r="F137" s="2"/>
       <c r="G137" s="2"/>
       <c r="H137" s="2"/>
       <c r="I137" s="2"/>
@@ -7355,19 +7644,19 @@
       <c r="X137" s="2"/>
     </row>
     <row r="138">
-      <c r="A138" s="24" t="s">
-        <v>228</v>
-      </c>
-      <c r="B138" s="24" t="s">
-        <v>222</v>
-      </c>
-      <c r="C138" s="18" t="s">
-        <v>223</v>
-      </c>
-      <c r="D138" s="2"/>
-      <c r="E138" s="24" t="s">
-        <v>229</v>
-      </c>
+      <c r="A138" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="B138" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C138" s="17" t="s">
+        <v>221</v>
+      </c>
+      <c r="D138" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="E138" s="2"/>
       <c r="F138" s="2"/>
       <c r="G138" s="2"/>
       <c r="H138" s="2"/>
@@ -7389,16 +7678,16 @@
       <c r="X138" s="2"/>
     </row>
     <row r="139">
-      <c r="A139" s="22" t="s">
-        <v>230</v>
-      </c>
-      <c r="B139" s="24" t="s">
-        <v>222</v>
-      </c>
-      <c r="C139" s="18" t="s">
-        <v>223</v>
-      </c>
-      <c r="D139" s="2"/>
+      <c r="A139" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B139" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C139" s="17" t="s">
+        <v>227</v>
+      </c>
+      <c r="D139" s="1"/>
       <c r="E139" s="2"/>
       <c r="F139" s="2"/>
       <c r="G139" s="2"/>
@@ -7421,17 +7710,21 @@
       <c r="X139" s="2"/>
     </row>
     <row r="140">
-      <c r="A140" s="22" t="s">
+      <c r="A140" s="24" t="s">
+        <v>228</v>
+      </c>
+      <c r="B140" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="C140" s="17" t="s">
+        <v>227</v>
+      </c>
+      <c r="D140" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="E140" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="B140" s="24" t="s">
-        <v>222</v>
-      </c>
-      <c r="C140" s="18" t="s">
-        <v>223</v>
-      </c>
-      <c r="D140" s="2"/>
-      <c r="E140" s="2"/>
       <c r="F140" s="2"/>
       <c r="G140" s="2"/>
       <c r="H140" s="2"/>
@@ -7453,17 +7746,21 @@
       <c r="X140" s="2"/>
     </row>
     <row r="141">
-      <c r="A141" s="22" t="s">
+      <c r="A141" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="B141" s="26" t="s">
-        <v>230</v>
-      </c>
-      <c r="C141" s="18" t="s">
-        <v>223</v>
-      </c>
-      <c r="D141" s="2"/>
-      <c r="E141" s="2"/>
+      <c r="B141" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="C141" s="17" t="s">
+        <v>233</v>
+      </c>
+      <c r="D141" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="E141" s="3" t="s">
+        <v>235</v>
+      </c>
       <c r="F141" s="2"/>
       <c r="G141" s="2"/>
       <c r="H141" s="2"/>
@@ -7485,14 +7782,14 @@
       <c r="X141" s="2"/>
     </row>
     <row r="142">
-      <c r="A142" s="24" t="s">
+      <c r="A142" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="B142" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="C142" s="17" t="s">
         <v>233</v>
-      </c>
-      <c r="B142" s="24" t="s">
-        <v>231</v>
-      </c>
-      <c r="C142" s="18" t="s">
-        <v>223</v>
       </c>
       <c r="D142" s="2"/>
       <c r="E142" s="2"/>
@@ -7517,17 +7814,19 @@
       <c r="X142" s="2"/>
     </row>
     <row r="143">
-      <c r="A143" s="22" t="s">
-        <v>234</v>
-      </c>
-      <c r="B143" s="24" t="s">
-        <v>57</v>
-      </c>
-      <c r="C143" s="18" t="s">
+      <c r="A143" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="B143" s="19" t="s">
+        <v>238</v>
+      </c>
+      <c r="C143" s="17" t="s">
+        <v>233</v>
+      </c>
+      <c r="D143" s="2"/>
+      <c r="E143" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="D143" s="2"/>
-      <c r="E143" s="2"/>
       <c r="F143" s="2"/>
       <c r="G143" s="2"/>
       <c r="H143" s="2"/>
@@ -7549,19 +7848,19 @@
       <c r="X143" s="2"/>
     </row>
     <row r="144">
-      <c r="A144" s="24" t="s">
-        <v>236</v>
-      </c>
-      <c r="B144" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="C144" s="18" t="s">
-        <v>235</v>
-      </c>
-      <c r="D144" s="24" t="s">
-        <v>237</v>
-      </c>
-      <c r="E144" s="2"/>
+      <c r="A144" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="B144" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="C144" s="17" t="s">
+        <v>233</v>
+      </c>
+      <c r="D144" s="2"/>
+      <c r="E144" s="3" t="s">
+        <v>240</v>
+      </c>
       <c r="F144" s="2"/>
       <c r="G144" s="2"/>
       <c r="H144" s="2"/>
@@ -7583,18 +7882,16 @@
       <c r="X144" s="2"/>
     </row>
     <row r="145">
-      <c r="A145" s="24" t="s">
-        <v>238</v>
-      </c>
-      <c r="B145" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="C145" s="18" t="s">
-        <v>235</v>
-      </c>
-      <c r="D145" s="25" t="s">
-        <v>239</v>
-      </c>
+      <c r="A145" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="B145" s="19" t="s">
+        <v>201</v>
+      </c>
+      <c r="C145" s="17" t="s">
+        <v>233</v>
+      </c>
+      <c r="D145" s="2"/>
       <c r="E145" s="2"/>
       <c r="F145" s="2"/>
       <c r="G145" s="2"/>
@@ -7617,11 +7914,19 @@
       <c r="X145" s="2"/>
     </row>
     <row r="146">
-      <c r="A146" s="2"/>
-      <c r="B146" s="2"/>
-      <c r="C146" s="2"/>
+      <c r="A146" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="B146" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C146" s="17" t="s">
+        <v>243</v>
+      </c>
       <c r="D146" s="2"/>
-      <c r="E146" s="2"/>
+      <c r="E146" s="18" t="s">
+        <v>244</v>
+      </c>
       <c r="F146" s="2"/>
       <c r="G146" s="2"/>
       <c r="H146" s="2"/>
@@ -7643,9 +7948,15 @@
       <c r="X146" s="2"/>
     </row>
     <row r="147">
-      <c r="A147" s="2"/>
-      <c r="B147" s="2"/>
-      <c r="C147" s="2"/>
+      <c r="A147" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="B147" s="19" t="s">
+        <v>242</v>
+      </c>
+      <c r="C147" s="17" t="s">
+        <v>243</v>
+      </c>
       <c r="D147" s="2"/>
       <c r="E147" s="2"/>
       <c r="F147" s="2"/>
@@ -7669,9 +7980,15 @@
       <c r="X147" s="2"/>
     </row>
     <row r="148">
-      <c r="A148" s="2"/>
-      <c r="B148" s="2"/>
-      <c r="C148" s="2"/>
+      <c r="A148" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="B148" s="19" t="s">
+        <v>242</v>
+      </c>
+      <c r="C148" s="17" t="s">
+        <v>243</v>
+      </c>
       <c r="D148" s="2"/>
       <c r="E148" s="2"/>
       <c r="F148" s="2"/>
@@ -7695,11 +8012,19 @@
       <c r="X148" s="2"/>
     </row>
     <row r="149">
-      <c r="A149" s="2"/>
-      <c r="B149" s="2"/>
-      <c r="C149" s="2"/>
+      <c r="A149" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="B149" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C149" s="17" t="s">
+        <v>243</v>
+      </c>
       <c r="D149" s="2"/>
-      <c r="E149" s="2"/>
+      <c r="E149" s="1" t="s">
+        <v>248</v>
+      </c>
       <c r="F149" s="2"/>
       <c r="G149" s="2"/>
       <c r="H149" s="2"/>
@@ -7721,9 +8046,15 @@
       <c r="X149" s="2"/>
     </row>
     <row r="150">
-      <c r="A150" s="2"/>
-      <c r="B150" s="2"/>
-      <c r="C150" s="2"/>
+      <c r="A150" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="B150" s="19" t="s">
+        <v>250</v>
+      </c>
+      <c r="C150" s="17" t="s">
+        <v>243</v>
+      </c>
       <c r="D150" s="2"/>
       <c r="E150" s="2"/>
       <c r="F150" s="2"/>
@@ -7747,10 +8078,18 @@
       <c r="X150" s="2"/>
     </row>
     <row r="151">
-      <c r="A151" s="2"/>
-      <c r="B151" s="2"/>
-      <c r="C151" s="2"/>
-      <c r="D151" s="2"/>
+      <c r="A151" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="B151" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C151" s="17" t="s">
+        <v>243</v>
+      </c>
+      <c r="D151" s="3" t="s">
+        <v>252</v>
+      </c>
       <c r="E151" s="2"/>
       <c r="F151" s="2"/>
       <c r="G151" s="2"/>
@@ -7773,9 +8112,15 @@
       <c r="X151" s="2"/>
     </row>
     <row r="152">
-      <c r="A152" s="2"/>
-      <c r="B152" s="2"/>
-      <c r="C152" s="2"/>
+      <c r="A152" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="B152" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="C152" s="17" t="s">
+        <v>243</v>
+      </c>
       <c r="D152" s="2"/>
       <c r="E152" s="2"/>
       <c r="F152" s="2"/>
@@ -7799,10 +8144,18 @@
       <c r="X152" s="2"/>
     </row>
     <row r="153">
-      <c r="A153" s="2"/>
-      <c r="B153" s="2"/>
-      <c r="C153" s="2"/>
-      <c r="D153" s="2"/>
+      <c r="A153" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="B153" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="C153" s="17" t="s">
+        <v>257</v>
+      </c>
+      <c r="D153" s="3" t="s">
+        <v>258</v>
+      </c>
       <c r="E153" s="2"/>
       <c r="F153" s="2"/>
       <c r="G153" s="2"/>
@@ -7825,10 +8178,18 @@
       <c r="X153" s="2"/>
     </row>
     <row r="154">
-      <c r="A154" s="2"/>
-      <c r="B154" s="2"/>
-      <c r="C154" s="2"/>
-      <c r="D154" s="2"/>
+      <c r="A154" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="C154" s="17" t="s">
+        <v>257</v>
+      </c>
+      <c r="D154" s="3" t="s">
+        <v>260</v>
+      </c>
       <c r="E154" s="2"/>
       <c r="F154" s="2"/>
       <c r="G154" s="2"/>
@@ -7851,9 +8212,15 @@
       <c r="X154" s="2"/>
     </row>
     <row r="155">
-      <c r="A155" s="2"/>
-      <c r="B155" s="2"/>
-      <c r="C155" s="2"/>
+      <c r="A155" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="B155" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="C155" s="17" t="s">
+        <v>257</v>
+      </c>
       <c r="D155" s="2"/>
       <c r="E155" s="2"/>
       <c r="F155" s="2"/>
@@ -7877,9 +8244,15 @@
       <c r="X155" s="2"/>
     </row>
     <row r="156">
-      <c r="A156" s="2"/>
-      <c r="B156" s="2"/>
-      <c r="C156" s="2"/>
+      <c r="A156" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="B156" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="C156" s="17" t="s">
+        <v>257</v>
+      </c>
       <c r="D156" s="2"/>
       <c r="E156" s="2"/>
       <c r="F156" s="2"/>
@@ -7903,9 +8276,15 @@
       <c r="X156" s="2"/>
     </row>
     <row r="157">
-      <c r="A157" s="2"/>
-      <c r="B157" s="2"/>
-      <c r="C157" s="2"/>
+      <c r="A157" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="B157" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="C157" s="17" t="s">
+        <v>257</v>
+      </c>
       <c r="D157" s="2"/>
       <c r="E157" s="2"/>
       <c r="F157" s="2"/>
@@ -7929,9 +8308,15 @@
       <c r="X157" s="2"/>
     </row>
     <row r="158">
-      <c r="A158" s="2"/>
-      <c r="B158" s="2"/>
-      <c r="C158" s="2"/>
+      <c r="A158" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="B158" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C158" s="17" t="s">
+        <v>257</v>
+      </c>
       <c r="D158" s="2"/>
       <c r="E158" s="2"/>
       <c r="F158" s="2"/>
@@ -7955,9 +8340,15 @@
       <c r="X158" s="2"/>
     </row>
     <row r="159">
-      <c r="A159" s="2"/>
-      <c r="B159" s="2"/>
-      <c r="C159" s="2"/>
+      <c r="A159" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="B159" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="C159" s="17" t="s">
+        <v>257</v>
+      </c>
       <c r="D159" s="2"/>
       <c r="E159" s="2"/>
       <c r="F159" s="2"/>
@@ -7981,9 +8372,15 @@
       <c r="X159" s="2"/>
     </row>
     <row r="160">
-      <c r="A160" s="2"/>
-      <c r="B160" s="2"/>
-      <c r="C160" s="2"/>
+      <c r="A160" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="B160" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="C160" s="17" t="s">
+        <v>257</v>
+      </c>
       <c r="D160" s="2"/>
       <c r="E160" s="2"/>
       <c r="F160" s="2"/>
@@ -8007,11 +8404,19 @@
       <c r="X160" s="2"/>
     </row>
     <row r="161">
-      <c r="A161" s="2"/>
-      <c r="B161" s="2"/>
-      <c r="C161" s="2"/>
+      <c r="A161" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="B161" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C161" s="17" t="s">
+        <v>269</v>
+      </c>
       <c r="D161" s="2"/>
-      <c r="E161" s="2"/>
+      <c r="E161" s="3" t="s">
+        <v>270</v>
+      </c>
       <c r="F161" s="2"/>
       <c r="G161" s="2"/>
       <c r="H161" s="2"/>
@@ -8033,9 +8438,15 @@
       <c r="X161" s="2"/>
     </row>
     <row r="162">
-      <c r="A162" s="2"/>
-      <c r="B162" s="2"/>
-      <c r="C162" s="2"/>
+      <c r="A162" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="B162" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C162" s="17" t="s">
+        <v>269</v>
+      </c>
       <c r="D162" s="2"/>
       <c r="E162" s="2"/>
       <c r="F162" s="2"/>
@@ -8059,10 +8470,18 @@
       <c r="X162" s="2"/>
     </row>
     <row r="163">
-      <c r="A163" s="2"/>
-      <c r="B163" s="2"/>
-      <c r="C163" s="2"/>
-      <c r="D163" s="2"/>
+      <c r="A163" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="B163" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C163" s="17" t="s">
+        <v>269</v>
+      </c>
+      <c r="D163" s="3" t="s">
+        <v>273</v>
+      </c>
       <c r="E163" s="2"/>
       <c r="F163" s="2"/>
       <c r="G163" s="2"/>
@@ -8085,9 +8504,15 @@
       <c r="X163" s="2"/>
     </row>
     <row r="164">
-      <c r="A164" s="2"/>
-      <c r="B164" s="2"/>
-      <c r="C164" s="2"/>
+      <c r="A164" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="B164" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C164" s="17" t="s">
+        <v>269</v>
+      </c>
       <c r="D164" s="2"/>
       <c r="E164" s="2"/>
       <c r="F164" s="2"/>
@@ -8111,9 +8536,15 @@
       <c r="X164" s="2"/>
     </row>
     <row r="165">
-      <c r="A165" s="2"/>
-      <c r="B165" s="2"/>
-      <c r="C165" s="2"/>
+      <c r="A165" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="B165" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C165" s="17" t="s">
+        <v>276</v>
+      </c>
       <c r="D165" s="2"/>
       <c r="E165" s="2"/>
       <c r="F165" s="2"/>
@@ -8137,9 +8568,15 @@
       <c r="X165" s="2"/>
     </row>
     <row r="166">
-      <c r="A166" s="2"/>
-      <c r="B166" s="2"/>
-      <c r="C166" s="2"/>
+      <c r="A166" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="B166" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C166" s="17" t="s">
+        <v>276</v>
+      </c>
       <c r="D166" s="2"/>
       <c r="E166" s="2"/>
       <c r="F166" s="2"/>
@@ -8163,11 +8600,21 @@
       <c r="X166" s="2"/>
     </row>
     <row r="167">
-      <c r="A167" s="2"/>
-      <c r="B167" s="2"/>
-      <c r="C167" s="2"/>
-      <c r="D167" s="2"/>
-      <c r="E167" s="2"/>
+      <c r="A167" s="25" t="s">
+        <v>278</v>
+      </c>
+      <c r="B167" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C167" s="17" t="s">
+        <v>279</v>
+      </c>
+      <c r="D167" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="E167" s="3" t="s">
+        <v>281</v>
+      </c>
       <c r="F167" s="2"/>
       <c r="G167" s="2"/>
       <c r="H167" s="2"/>
@@ -8189,9 +8636,15 @@
       <c r="X167" s="2"/>
     </row>
     <row r="168">
-      <c r="A168" s="2"/>
-      <c r="B168" s="2"/>
-      <c r="C168" s="2"/>
+      <c r="A168" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="B168" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="C168" s="17" t="s">
+        <v>279</v>
+      </c>
       <c r="D168" s="2"/>
       <c r="E168" s="2"/>
       <c r="F168" s="2"/>
@@ -8215,9 +8668,15 @@
       <c r="X168" s="2"/>
     </row>
     <row r="169">
-      <c r="A169" s="2"/>
-      <c r="B169" s="2"/>
-      <c r="C169" s="2"/>
+      <c r="A169" s="26" t="s">
+        <v>283</v>
+      </c>
+      <c r="B169" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="C169" s="17" t="s">
+        <v>279</v>
+      </c>
       <c r="D169" s="2"/>
       <c r="E169" s="2"/>
       <c r="F169" s="2"/>
@@ -8241,9 +8700,15 @@
       <c r="X169" s="2"/>
     </row>
     <row r="170">
-      <c r="A170" s="2"/>
-      <c r="B170" s="2"/>
-      <c r="C170" s="2"/>
+      <c r="A170" s="26" t="s">
+        <v>284</v>
+      </c>
+      <c r="B170" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C170" s="17" t="s">
+        <v>279</v>
+      </c>
       <c r="D170" s="2"/>
       <c r="E170" s="2"/>
       <c r="F170" s="2"/>
@@ -8267,9 +8732,15 @@
       <c r="X170" s="2"/>
     </row>
     <row r="171">
-      <c r="A171" s="2"/>
-      <c r="B171" s="2"/>
-      <c r="C171" s="2"/>
+      <c r="A171" s="27" t="s">
+        <v>285</v>
+      </c>
+      <c r="B171" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="C171" s="17" t="s">
+        <v>286</v>
+      </c>
       <c r="D171" s="2"/>
       <c r="E171" s="2"/>
       <c r="F171" s="2"/>
@@ -8293,9 +8764,15 @@
       <c r="X171" s="2"/>
     </row>
     <row r="172">
-      <c r="A172" s="2"/>
-      <c r="B172" s="2"/>
-      <c r="C172" s="2"/>
+      <c r="A172" s="26" t="s">
+        <v>287</v>
+      </c>
+      <c r="B172" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="C172" s="17" t="s">
+        <v>286</v>
+      </c>
       <c r="D172" s="2"/>
       <c r="E172" s="2"/>
       <c r="F172" s="2"/>
@@ -8319,10 +8796,18 @@
       <c r="X172" s="2"/>
     </row>
     <row r="173">
-      <c r="A173" s="2"/>
-      <c r="B173" s="2"/>
-      <c r="C173" s="2"/>
-      <c r="D173" s="2"/>
+      <c r="A173" s="26" t="s">
+        <v>288</v>
+      </c>
+      <c r="B173" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="C173" s="17" t="s">
+        <v>286</v>
+      </c>
+      <c r="D173" s="26" t="s">
+        <v>289</v>
+      </c>
       <c r="E173" s="2"/>
       <c r="F173" s="2"/>
       <c r="G173" s="2"/>
@@ -8345,11 +8830,18 @@
       <c r="X173" s="2"/>
     </row>
     <row r="174">
-      <c r="A174" s="2"/>
-      <c r="B174" s="2"/>
-      <c r="C174" s="2"/>
-      <c r="D174" s="2"/>
-      <c r="E174" s="2"/>
+      <c r="A174" s="28" t="s">
+        <v>290</v>
+      </c>
+      <c r="B174" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="C174" s="17" t="s">
+        <v>286</v>
+      </c>
+      <c r="E174" s="26" t="s">
+        <v>291</v>
+      </c>
       <c r="F174" s="2"/>
       <c r="G174" s="2"/>
       <c r="H174" s="2"/>
@@ -8371,10 +8863,18 @@
       <c r="X174" s="2"/>
     </row>
     <row r="175">
-      <c r="A175" s="2"/>
-      <c r="B175" s="2"/>
-      <c r="C175" s="2"/>
-      <c r="D175" s="2"/>
+      <c r="A175" s="26" t="s">
+        <v>292</v>
+      </c>
+      <c r="B175" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="C175" s="17" t="s">
+        <v>286</v>
+      </c>
+      <c r="D175" s="26" t="s">
+        <v>293</v>
+      </c>
       <c r="E175" s="2"/>
       <c r="F175" s="2"/>
       <c r="G175" s="2"/>
@@ -8397,11 +8897,19 @@
       <c r="X175" s="2"/>
     </row>
     <row r="176">
-      <c r="A176" s="2"/>
-      <c r="B176" s="2"/>
-      <c r="C176" s="2"/>
+      <c r="A176" s="29" t="s">
+        <v>294</v>
+      </c>
+      <c r="B176" s="26" t="s">
+        <v>295</v>
+      </c>
+      <c r="C176" s="17" t="s">
+        <v>296</v>
+      </c>
       <c r="D176" s="2"/>
-      <c r="E176" s="2"/>
+      <c r="E176" s="26" t="s">
+        <v>297</v>
+      </c>
       <c r="F176" s="2"/>
       <c r="G176" s="2"/>
       <c r="H176" s="2"/>
@@ -8423,9 +8931,15 @@
       <c r="X176" s="2"/>
     </row>
     <row r="177">
-      <c r="A177" s="2"/>
-      <c r="B177" s="2"/>
-      <c r="C177" s="2"/>
+      <c r="A177" s="29" t="s">
+        <v>298</v>
+      </c>
+      <c r="B177" s="29" t="s">
+        <v>294</v>
+      </c>
+      <c r="C177" s="17" t="s">
+        <v>296</v>
+      </c>
       <c r="D177" s="2"/>
       <c r="E177" s="2"/>
       <c r="F177" s="2"/>
@@ -8449,11 +8963,19 @@
       <c r="X177" s="2"/>
     </row>
     <row r="178">
-      <c r="A178" s="2"/>
-      <c r="B178" s="2"/>
-      <c r="C178" s="2"/>
+      <c r="A178" s="29" t="s">
+        <v>299</v>
+      </c>
+      <c r="B178" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="C178" s="17" t="s">
+        <v>300</v>
+      </c>
       <c r="D178" s="2"/>
-      <c r="E178" s="2"/>
+      <c r="E178" s="18" t="s">
+        <v>301</v>
+      </c>
       <c r="F178" s="2"/>
       <c r="G178" s="2"/>
       <c r="H178" s="2"/>
@@ -8475,11 +8997,19 @@
       <c r="X178" s="2"/>
     </row>
     <row r="179">
-      <c r="A179" s="2"/>
-      <c r="B179" s="2"/>
-      <c r="C179" s="2"/>
+      <c r="A179" s="29" t="s">
+        <v>302</v>
+      </c>
+      <c r="B179" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="C179" s="17" t="s">
+        <v>300</v>
+      </c>
       <c r="D179" s="2"/>
-      <c r="E179" s="2"/>
+      <c r="E179" s="26" t="s">
+        <v>303</v>
+      </c>
       <c r="F179" s="2"/>
       <c r="G179" s="2"/>
       <c r="H179" s="2"/>
@@ -8501,11 +9031,19 @@
       <c r="X179" s="2"/>
     </row>
     <row r="180">
-      <c r="A180" s="2"/>
-      <c r="B180" s="2"/>
-      <c r="C180" s="2"/>
+      <c r="A180" s="29" t="s">
+        <v>304</v>
+      </c>
+      <c r="B180" s="26" t="s">
+        <v>145</v>
+      </c>
+      <c r="C180" s="17" t="s">
+        <v>300</v>
+      </c>
       <c r="D180" s="2"/>
-      <c r="E180" s="2"/>
+      <c r="E180" s="18" t="s">
+        <v>305</v>
+      </c>
       <c r="F180" s="2"/>
       <c r="G180" s="2"/>
       <c r="H180" s="2"/>
@@ -8527,11 +9065,19 @@
       <c r="X180" s="2"/>
     </row>
     <row r="181">
-      <c r="A181" s="2"/>
-      <c r="B181" s="2"/>
-      <c r="C181" s="2"/>
+      <c r="A181" s="29" t="s">
+        <v>306</v>
+      </c>
+      <c r="B181" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C181" s="17" t="s">
+        <v>300</v>
+      </c>
       <c r="D181" s="2"/>
-      <c r="E181" s="2"/>
+      <c r="E181" s="26" t="s">
+        <v>301</v>
+      </c>
       <c r="F181" s="2"/>
       <c r="G181" s="2"/>
       <c r="H181" s="2"/>
@@ -8553,11 +9099,19 @@
       <c r="X181" s="2"/>
     </row>
     <row r="182">
-      <c r="A182" s="2"/>
-      <c r="B182" s="2"/>
-      <c r="C182" s="2"/>
+      <c r="A182" s="26" t="s">
+        <v>307</v>
+      </c>
+      <c r="B182" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C182" s="17" t="s">
+        <v>300</v>
+      </c>
       <c r="D182" s="2"/>
-      <c r="E182" s="2"/>
+      <c r="E182" s="26" t="s">
+        <v>301</v>
+      </c>
       <c r="F182" s="2"/>
       <c r="G182" s="2"/>
       <c r="H182" s="2"/>
@@ -8579,11 +9133,19 @@
       <c r="X182" s="2"/>
     </row>
     <row r="183">
-      <c r="A183" s="2"/>
-      <c r="B183" s="2"/>
-      <c r="C183" s="2"/>
+      <c r="A183" s="26" t="s">
+        <v>308</v>
+      </c>
+      <c r="B183" s="26" t="s">
+        <v>309</v>
+      </c>
+      <c r="C183" s="17" t="s">
+        <v>300</v>
+      </c>
       <c r="D183" s="2"/>
-      <c r="E183" s="2"/>
+      <c r="E183" s="26" t="s">
+        <v>301</v>
+      </c>
       <c r="F183" s="2"/>
       <c r="G183" s="2"/>
       <c r="H183" s="2"/>
@@ -8605,10 +9167,18 @@
       <c r="X183" s="2"/>
     </row>
     <row r="184">
-      <c r="A184" s="2"/>
-      <c r="B184" s="2"/>
-      <c r="C184" s="2"/>
-      <c r="D184" s="2"/>
+      <c r="A184" s="26" t="s">
+        <v>310</v>
+      </c>
+      <c r="B184" s="26" t="s">
+        <v>171</v>
+      </c>
+      <c r="C184" s="17" t="s">
+        <v>311</v>
+      </c>
+      <c r="D184" s="26" t="s">
+        <v>312</v>
+      </c>
       <c r="E184" s="2"/>
       <c r="F184" s="2"/>
       <c r="G184" s="2"/>
@@ -8631,10 +9201,18 @@
       <c r="X184" s="2"/>
     </row>
     <row r="185">
-      <c r="A185" s="2"/>
-      <c r="B185" s="2"/>
-      <c r="C185" s="2"/>
-      <c r="D185" s="2"/>
+      <c r="A185" s="29" t="s">
+        <v>313</v>
+      </c>
+      <c r="B185" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="C185" s="17" t="s">
+        <v>311</v>
+      </c>
+      <c r="D185" s="26" t="s">
+        <v>314</v>
+      </c>
       <c r="E185" s="2"/>
       <c r="F185" s="2"/>
       <c r="G185" s="2"/>
@@ -8657,10 +9235,18 @@
       <c r="X185" s="2"/>
     </row>
     <row r="186">
-      <c r="A186" s="2"/>
-      <c r="B186" s="2"/>
-      <c r="C186" s="2"/>
-      <c r="D186" s="2"/>
+      <c r="A186" s="29" t="s">
+        <v>315</v>
+      </c>
+      <c r="B186" s="18" t="s">
+        <v>316</v>
+      </c>
+      <c r="C186" s="17" t="s">
+        <v>311</v>
+      </c>
+      <c r="D186" s="29" t="s">
+        <v>317</v>
+      </c>
       <c r="E186" s="2"/>
       <c r="F186" s="2"/>
       <c r="G186" s="2"/>
@@ -8683,9 +9269,15 @@
       <c r="X186" s="2"/>
     </row>
     <row r="187">
-      <c r="A187" s="2"/>
-      <c r="B187" s="2"/>
-      <c r="C187" s="2"/>
+      <c r="A187" s="26" t="s">
+        <v>318</v>
+      </c>
+      <c r="B187" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="C187" s="17" t="s">
+        <v>311</v>
+      </c>
       <c r="D187" s="2"/>
       <c r="E187" s="2"/>
       <c r="F187" s="2"/>
@@ -8709,10 +9301,18 @@
       <c r="X187" s="2"/>
     </row>
     <row r="188">
-      <c r="A188" s="2"/>
-      <c r="B188" s="2"/>
-      <c r="C188" s="2"/>
-      <c r="D188" s="2"/>
+      <c r="A188" s="26" t="s">
+        <v>319</v>
+      </c>
+      <c r="B188" s="26" t="s">
+        <v>310</v>
+      </c>
+      <c r="C188" s="17" t="s">
+        <v>311</v>
+      </c>
+      <c r="D188" s="29" t="s">
+        <v>320</v>
+      </c>
       <c r="E188" s="2"/>
       <c r="F188" s="2"/>
       <c r="G188" s="2"/>
@@ -8735,10 +9335,18 @@
       <c r="X188" s="2"/>
     </row>
     <row r="189">
-      <c r="A189" s="2"/>
-      <c r="B189" s="2"/>
-      <c r="C189" s="2"/>
-      <c r="D189" s="2"/>
+      <c r="A189" s="26" t="s">
+        <v>321</v>
+      </c>
+      <c r="B189" s="26" t="s">
+        <v>310</v>
+      </c>
+      <c r="C189" s="17" t="s">
+        <v>311</v>
+      </c>
+      <c r="D189" s="26" t="s">
+        <v>322</v>
+      </c>
       <c r="E189" s="2"/>
       <c r="F189" s="2"/>
       <c r="G189" s="2"/>
@@ -8761,10 +9369,18 @@
       <c r="X189" s="2"/>
     </row>
     <row r="190">
-      <c r="A190" s="2"/>
-      <c r="B190" s="2"/>
-      <c r="C190" s="2"/>
-      <c r="D190" s="2"/>
+      <c r="A190" s="26" t="s">
+        <v>323</v>
+      </c>
+      <c r="B190" s="26" t="s">
+        <v>80</v>
+      </c>
+      <c r="C190" s="17" t="s">
+        <v>311</v>
+      </c>
+      <c r="D190" s="26" t="s">
+        <v>324</v>
+      </c>
       <c r="E190" s="2"/>
       <c r="F190" s="2"/>
       <c r="G190" s="2"/>
@@ -8787,9 +9403,15 @@
       <c r="X190" s="2"/>
     </row>
     <row r="191">
-      <c r="A191" s="2"/>
-      <c r="B191" s="2"/>
-      <c r="C191" s="2"/>
+      <c r="A191" s="29" t="s">
+        <v>325</v>
+      </c>
+      <c r="B191" s="26" t="s">
+        <v>80</v>
+      </c>
+      <c r="C191" s="17" t="s">
+        <v>311</v>
+      </c>
       <c r="D191" s="2"/>
       <c r="E191" s="2"/>
       <c r="F191" s="2"/>
@@ -17317,7 +17939,7 @@
     <row r="519">
       <c r="A519" s="2"/>
       <c r="B519" s="2"/>
-      <c r="C519" s="2"/>
+      <c r="C519" s="30"/>
       <c r="D519" s="2"/>
       <c r="E519" s="2"/>
       <c r="F519" s="2"/>
@@ -17340,162 +17962,6 @@
       <c r="W519" s="2"/>
       <c r="X519" s="2"/>
     </row>
-    <row r="520">
-      <c r="A520" s="2"/>
-      <c r="B520" s="2"/>
-      <c r="C520" s="2"/>
-      <c r="D520" s="2"/>
-      <c r="E520" s="2"/>
-      <c r="F520" s="2"/>
-      <c r="G520" s="2"/>
-      <c r="H520" s="2"/>
-      <c r="I520" s="2"/>
-      <c r="J520" s="2"/>
-      <c r="K520" s="2"/>
-      <c r="L520" s="2"/>
-      <c r="M520" s="2"/>
-      <c r="N520" s="2"/>
-      <c r="O520" s="2"/>
-      <c r="P520" s="2"/>
-      <c r="Q520" s="2"/>
-      <c r="R520" s="2"/>
-      <c r="S520" s="2"/>
-      <c r="T520" s="2"/>
-      <c r="U520" s="2"/>
-      <c r="V520" s="2"/>
-      <c r="W520" s="2"/>
-      <c r="X520" s="2"/>
-    </row>
-    <row r="521">
-      <c r="A521" s="2"/>
-      <c r="B521" s="2"/>
-      <c r="C521" s="2"/>
-      <c r="D521" s="2"/>
-      <c r="E521" s="2"/>
-      <c r="F521" s="2"/>
-      <c r="G521" s="2"/>
-      <c r="H521" s="2"/>
-      <c r="I521" s="2"/>
-      <c r="J521" s="2"/>
-      <c r="K521" s="2"/>
-      <c r="L521" s="2"/>
-      <c r="M521" s="2"/>
-      <c r="N521" s="2"/>
-      <c r="O521" s="2"/>
-      <c r="P521" s="2"/>
-      <c r="Q521" s="2"/>
-      <c r="R521" s="2"/>
-      <c r="S521" s="2"/>
-      <c r="T521" s="2"/>
-      <c r="U521" s="2"/>
-      <c r="V521" s="2"/>
-      <c r="W521" s="2"/>
-      <c r="X521" s="2"/>
-    </row>
-    <row r="522">
-      <c r="A522" s="2"/>
-      <c r="B522" s="2"/>
-      <c r="C522" s="2"/>
-      <c r="D522" s="2"/>
-      <c r="E522" s="2"/>
-      <c r="F522" s="2"/>
-      <c r="G522" s="2"/>
-      <c r="H522" s="2"/>
-      <c r="I522" s="2"/>
-      <c r="J522" s="2"/>
-      <c r="K522" s="2"/>
-      <c r="L522" s="2"/>
-      <c r="M522" s="2"/>
-      <c r="N522" s="2"/>
-      <c r="O522" s="2"/>
-      <c r="P522" s="2"/>
-      <c r="Q522" s="2"/>
-      <c r="R522" s="2"/>
-      <c r="S522" s="2"/>
-      <c r="T522" s="2"/>
-      <c r="U522" s="2"/>
-      <c r="V522" s="2"/>
-      <c r="W522" s="2"/>
-      <c r="X522" s="2"/>
-    </row>
-    <row r="523">
-      <c r="A523" s="2"/>
-      <c r="B523" s="2"/>
-      <c r="C523" s="2"/>
-      <c r="D523" s="2"/>
-      <c r="E523" s="2"/>
-      <c r="F523" s="2"/>
-      <c r="G523" s="2"/>
-      <c r="H523" s="2"/>
-      <c r="I523" s="2"/>
-      <c r="J523" s="2"/>
-      <c r="K523" s="2"/>
-      <c r="L523" s="2"/>
-      <c r="M523" s="2"/>
-      <c r="N523" s="2"/>
-      <c r="O523" s="2"/>
-      <c r="P523" s="2"/>
-      <c r="Q523" s="2"/>
-      <c r="R523" s="2"/>
-      <c r="S523" s="2"/>
-      <c r="T523" s="2"/>
-      <c r="U523" s="2"/>
-      <c r="V523" s="2"/>
-      <c r="W523" s="2"/>
-      <c r="X523" s="2"/>
-    </row>
-    <row r="524">
-      <c r="A524" s="2"/>
-      <c r="B524" s="2"/>
-      <c r="C524" s="2"/>
-      <c r="D524" s="2"/>
-      <c r="E524" s="2"/>
-      <c r="F524" s="2"/>
-      <c r="G524" s="2"/>
-      <c r="H524" s="2"/>
-      <c r="I524" s="2"/>
-      <c r="J524" s="2"/>
-      <c r="K524" s="2"/>
-      <c r="L524" s="2"/>
-      <c r="M524" s="2"/>
-      <c r="N524" s="2"/>
-      <c r="O524" s="2"/>
-      <c r="P524" s="2"/>
-      <c r="Q524" s="2"/>
-      <c r="R524" s="2"/>
-      <c r="S524" s="2"/>
-      <c r="T524" s="2"/>
-      <c r="U524" s="2"/>
-      <c r="V524" s="2"/>
-      <c r="W524" s="2"/>
-      <c r="X524" s="2"/>
-    </row>
-    <row r="525">
-      <c r="A525" s="2"/>
-      <c r="B525" s="2"/>
-      <c r="C525" s="27"/>
-      <c r="D525" s="2"/>
-      <c r="E525" s="2"/>
-      <c r="F525" s="2"/>
-      <c r="G525" s="2"/>
-      <c r="H525" s="2"/>
-      <c r="I525" s="2"/>
-      <c r="J525" s="2"/>
-      <c r="K525" s="2"/>
-      <c r="L525" s="2"/>
-      <c r="M525" s="2"/>
-      <c r="N525" s="2"/>
-      <c r="O525" s="2"/>
-      <c r="P525" s="2"/>
-      <c r="Q525" s="2"/>
-      <c r="R525" s="2"/>
-      <c r="S525" s="2"/>
-      <c r="T525" s="2"/>
-      <c r="U525" s="2"/>
-      <c r="V525" s="2"/>
-      <c r="W525" s="2"/>
-      <c r="X525" s="2"/>
-    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -17516,2324 +17982,2335 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>240</v>
+        <v>326</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>241</v>
+        <v>327</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>242</v>
+        <v>328</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="B2" s="20" t="s">
-        <v>244</v>
+        <v>329</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>330</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>245</v>
+        <v>331</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>246</v>
+        <v>332</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="B3" s="28" t="s">
-        <v>248</v>
+        <v>333</v>
+      </c>
+      <c r="B3" s="31" t="s">
+        <v>334</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>249</v>
+        <v>335</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>250</v>
+        <v>336</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="B4" s="29" t="s">
-        <v>251</v>
+        <v>333</v>
+      </c>
+      <c r="B4" s="32" t="s">
+        <v>337</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>249</v>
+        <v>335</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>250</v>
+        <v>336</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>247</v>
+        <v>333</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>252</v>
+        <v>338</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>249</v>
+        <v>335</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>250</v>
+        <v>336</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="B6" s="16" t="s">
-        <v>254</v>
+        <v>339</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>340</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>255</v>
+        <v>341</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>256</v>
+        <v>342</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>258</v>
+      <c r="A7" s="6" t="s">
+        <v>343</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>344</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>255</v>
+        <v>341</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>259</v>
+        <v>345</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>261</v>
+      <c r="A8" s="6" t="s">
+        <v>346</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>347</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>255</v>
+        <v>341</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>262</v>
+        <v>348</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>263</v>
+        <v>349</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>264</v>
+        <v>350</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>255</v>
+        <v>341</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>265</v>
+        <v>351</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>263</v>
+        <v>349</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>266</v>
+        <v>352</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>255</v>
+        <v>341</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>267</v>
+        <v>353</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>269</v>
+        <v>354</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>355</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>255</v>
+        <v>341</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>270</v>
+        <v>356</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>271</v>
+        <v>357</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="C12" s="30" t="s">
-        <v>273</v>
+        <v>358</v>
+      </c>
+      <c r="C12" s="33" t="s">
+        <v>359</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>274</v>
+        <v>360</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>275</v>
+        <v>361</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="C13" s="30" t="s">
-        <v>273</v>
+        <v>358</v>
+      </c>
+      <c r="C13" s="33" t="s">
+        <v>359</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>274</v>
+        <v>360</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>276</v>
+        <v>362</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="C14" s="30" t="s">
-        <v>273</v>
+        <v>363</v>
+      </c>
+      <c r="C14" s="33" t="s">
+        <v>359</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>278</v>
+        <v>364</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>279</v>
+        <v>365</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="C15" s="30" t="s">
-        <v>273</v>
+        <v>366</v>
+      </c>
+      <c r="C15" s="33" t="s">
+        <v>359</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>281</v>
+        <v>367</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="B16" s="16" t="s">
-        <v>283</v>
+      <c r="A16" s="6" t="s">
+        <v>368</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>369</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>284</v>
+        <v>370</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>285</v>
+        <v>371</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>286</v>
+        <v>372</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>287</v>
+        <v>373</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>284</v>
+        <v>370</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>288</v>
+        <v>374</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="B18" s="16" t="s">
-        <v>289</v>
+        <v>372</v>
+      </c>
+      <c r="B18" s="15" t="s">
+        <v>375</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>284</v>
+        <v>370</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>290</v>
+        <v>376</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="B19" s="16" t="s">
-        <v>292</v>
+      <c r="A19" s="6" t="s">
+        <v>377</v>
+      </c>
+      <c r="B19" s="15" t="s">
+        <v>378</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>284</v>
+        <v>370</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>293</v>
+        <v>379</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>294</v>
+        <v>380</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>295</v>
+        <v>381</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>284</v>
+        <v>370</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>296</v>
+        <v>382</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>298</v>
+        <v>383</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>384</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>299</v>
+        <v>385</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>300</v>
+        <v>386</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>301</v>
+        <v>387</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="C22" s="18" t="s">
-        <v>303</v>
+        <v>388</v>
+      </c>
+      <c r="C22" s="17" t="s">
+        <v>389</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>304</v>
+        <v>390</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>305</v>
+        <v>391</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="C23" s="18" t="s">
-        <v>303</v>
+        <v>392</v>
+      </c>
+      <c r="C23" s="17" t="s">
+        <v>389</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>307</v>
+        <v>393</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="20" t="s">
-        <v>75</v>
+      <c r="A24" s="19" t="s">
+        <v>58</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="C24" s="18" t="s">
-        <v>303</v>
+        <v>394</v>
+      </c>
+      <c r="C24" s="17" t="s">
+        <v>389</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>309</v>
+        <v>395</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>310</v>
+        <v>396</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="C25" s="18" t="s">
-        <v>303</v>
+        <v>397</v>
+      </c>
+      <c r="C25" s="17" t="s">
+        <v>389</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>312</v>
+        <v>398</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="20" t="s">
-        <v>313</v>
-      </c>
-      <c r="B26" s="31" t="s">
-        <v>314</v>
-      </c>
-      <c r="C26" s="18" t="s">
-        <v>315</v>
+      <c r="A26" s="19" t="s">
+        <v>399</v>
+      </c>
+      <c r="B26" s="34" t="s">
+        <v>400</v>
+      </c>
+      <c r="C26" s="17" t="s">
+        <v>401</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>316</v>
+        <v>402</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="B27" s="31" t="s">
-        <v>318</v>
-      </c>
-      <c r="C27" s="18" t="s">
-        <v>315</v>
+        <v>403</v>
+      </c>
+      <c r="B27" s="34" t="s">
+        <v>404</v>
+      </c>
+      <c r="C27" s="17" t="s">
+        <v>401</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>319</v>
+        <v>405</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="B28" s="32" t="s">
-        <v>321</v>
-      </c>
-      <c r="C28" s="18" t="s">
-        <v>315</v>
+        <v>406</v>
+      </c>
+      <c r="B28" s="35" t="s">
+        <v>407</v>
+      </c>
+      <c r="C28" s="17" t="s">
+        <v>401</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>322</v>
+        <v>408</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="B29" s="33" t="s">
-        <v>324</v>
+        <v>409</v>
+      </c>
+      <c r="B29" s="36" t="s">
+        <v>410</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>325</v>
+        <v>411</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="s">
-        <v>326</v>
+        <v>412</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>328</v>
+        <v>413</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>414</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>329</v>
+        <v>415</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="B31" s="34" t="s">
-        <v>331</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>328</v>
+        <v>416</v>
+      </c>
+      <c r="B31" s="37" t="s">
+        <v>417</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>414</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>332</v>
+        <v>418</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="B32" s="34" t="s">
-        <v>334</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>328</v>
+        <v>419</v>
+      </c>
+      <c r="B32" s="37" t="s">
+        <v>420</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>414</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>332</v>
+        <v>418</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="B33" s="34" t="s">
-        <v>336</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>328</v>
+        <v>421</v>
+      </c>
+      <c r="B33" s="37" t="s">
+        <v>422</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>414</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>337</v>
+        <v>423</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="s">
-        <v>338</v>
+        <v>424</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>328</v>
+        <v>425</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>414</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>340</v>
+        <v>426</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="B35" s="35" t="s">
-        <v>342</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>343</v>
+        <v>427</v>
+      </c>
+      <c r="B35" s="38" t="s">
+        <v>428</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>429</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>344</v>
+        <v>430</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="7" t="s">
-        <v>345</v>
+      <c r="A36" s="6" t="s">
+        <v>431</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>343</v>
+        <v>432</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>429</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>347</v>
+        <v>433</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="7" t="s">
-        <v>345</v>
-      </c>
-      <c r="B37" s="7" t="s">
-        <v>348</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>343</v>
+      <c r="A37" s="6" t="s">
+        <v>431</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>434</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>429</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>349</v>
+        <v>435</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="s">
-        <v>350</v>
+        <v>436</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>343</v>
+        <v>437</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>429</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="B39" s="7" t="s">
-        <v>352</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>343</v>
+        <v>427</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>438</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>429</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>353</v>
+        <v>439</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="36" t="s">
-        <v>354</v>
+      <c r="A40" s="39" t="s">
+        <v>440</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>356</v>
+        <v>441</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>442</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>357</v>
+        <v>443</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="36" t="s">
-        <v>354</v>
+      <c r="A41" s="39" t="s">
+        <v>440</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>356</v>
+        <v>444</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>442</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>359</v>
+        <v>445</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="B42" s="7" t="s">
-        <v>361</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>362</v>
+        <v>446</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>448</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>363</v>
+        <v>449</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="7" t="s">
-        <v>364</v>
+      <c r="A43" s="6" t="s">
+        <v>450</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>366</v>
+        <v>451</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>452</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>367</v>
+        <v>453</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="7" t="s">
-        <v>368</v>
+      <c r="A44" s="6" t="s">
+        <v>454</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="C44" s="4" t="s">
-        <v>366</v>
+        <v>455</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>452</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>370</v>
+        <v>456</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="7" t="s">
-        <v>371</v>
-      </c>
-      <c r="B45" s="7" t="s">
-        <v>372</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>366</v>
+      <c r="A45" s="6" t="s">
+        <v>457</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>458</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>452</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>373</v>
+        <v>459</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="7" t="s">
-        <v>374</v>
-      </c>
-      <c r="B46" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="C46" s="4" t="s">
-        <v>376</v>
+      <c r="A46" s="6" t="s">
+        <v>460</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>461</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>462</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>377</v>
+        <v>463</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="s">
-        <v>378</v>
+        <v>464</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="C47" s="4" t="s">
-        <v>376</v>
+        <v>465</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>462</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>380</v>
+        <v>466</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="s">
-        <v>381</v>
-      </c>
-      <c r="B48" s="8" t="s">
-        <v>382</v>
-      </c>
-      <c r="C48" s="4" t="s">
-        <v>376</v>
+        <v>467</v>
+      </c>
+      <c r="B48" s="7" t="s">
+        <v>468</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>462</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>383</v>
+        <v>469</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="s">
-        <v>384</v>
-      </c>
-      <c r="B49" s="7" t="s">
-        <v>385</v>
-      </c>
-      <c r="C49" s="4" t="s">
-        <v>386</v>
+        <v>470</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>471</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>472</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>387</v>
+        <v>473</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="s">
-        <v>388</v>
-      </c>
-      <c r="B50" s="7" t="s">
-        <v>389</v>
-      </c>
-      <c r="C50" s="4" t="s">
-        <v>386</v>
+        <v>474</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>475</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>472</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>390</v>
+        <v>476</v>
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="30" t="s">
-        <v>388</v>
-      </c>
-      <c r="B51" s="15" t="s">
-        <v>391</v>
-      </c>
-      <c r="C51" s="4" t="s">
-        <v>386</v>
+      <c r="A51" s="33" t="s">
+        <v>474</v>
+      </c>
+      <c r="B51" s="14" t="s">
+        <v>477</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>472</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>392</v>
+        <v>478</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="6" t="s">
-        <v>393</v>
-      </c>
-      <c r="B52" s="7" t="s">
-        <v>394</v>
-      </c>
-      <c r="C52" s="4" t="s">
-        <v>386</v>
+      <c r="A52" s="4" t="s">
+        <v>479</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>480</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>472</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>395</v>
+        <v>481</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="s">
-        <v>396</v>
+        <v>482</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>397</v>
-      </c>
-      <c r="C53" s="4" t="s">
-        <v>398</v>
+        <v>483</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>484</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>399</v>
+        <v>485</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="s">
-        <v>396</v>
-      </c>
-      <c r="B54" s="7" t="s">
-        <v>400</v>
-      </c>
-      <c r="C54" s="4" t="s">
-        <v>398</v>
+        <v>482</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>486</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>484</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>399</v>
+        <v>485</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="s">
-        <v>401</v>
-      </c>
-      <c r="B55" s="7" t="s">
-        <v>402</v>
-      </c>
-      <c r="C55" s="4" t="s">
-        <v>403</v>
+        <v>487</v>
+      </c>
+      <c r="B55" s="6" t="s">
+        <v>488</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>489</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>404</v>
+        <v>490</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="s">
-        <v>405</v>
-      </c>
-      <c r="B56" s="7" t="s">
-        <v>406</v>
-      </c>
-      <c r="C56" s="4" t="s">
-        <v>403</v>
+        <v>491</v>
+      </c>
+      <c r="B56" s="6" t="s">
+        <v>492</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>489</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>407</v>
+        <v>493</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="s">
-        <v>408</v>
-      </c>
-      <c r="B57" s="15" t="s">
-        <v>409</v>
-      </c>
-      <c r="C57" s="4" t="s">
-        <v>403</v>
+        <v>494</v>
+      </c>
+      <c r="B57" s="14" t="s">
+        <v>495</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>489</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>410</v>
+        <v>496</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="s">
-        <v>411</v>
+        <v>497</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>412</v>
-      </c>
-      <c r="C58" s="4" t="s">
-        <v>403</v>
+        <v>498</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>489</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>413</v>
+        <v>499</v>
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="6" t="s">
-        <v>414</v>
-      </c>
-      <c r="B59" s="15" t="s">
-        <v>415</v>
-      </c>
-      <c r="C59" s="4" t="s">
-        <v>403</v>
+      <c r="A59" s="4" t="s">
+        <v>500</v>
+      </c>
+      <c r="B59" s="14" t="s">
+        <v>501</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>489</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>416</v>
+        <v>502</v>
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="6" t="s">
-        <v>417</v>
-      </c>
-      <c r="B60" s="15" t="s">
-        <v>418</v>
-      </c>
-      <c r="C60" s="4" t="s">
-        <v>403</v>
-      </c>
-      <c r="D60" s="7" t="s">
-        <v>419</v>
+      <c r="A60" s="4" t="s">
+        <v>503</v>
+      </c>
+      <c r="B60" s="14" t="s">
+        <v>504</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>489</v>
+      </c>
+      <c r="D60" s="6" t="s">
+        <v>505</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="s">
-        <v>420</v>
-      </c>
-      <c r="B61" s="15" t="s">
-        <v>421</v>
+        <v>506</v>
+      </c>
+      <c r="B61" s="14" t="s">
+        <v>507</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>422</v>
-      </c>
-      <c r="D61" s="7" t="s">
-        <v>423</v>
+        <v>508</v>
+      </c>
+      <c r="D61" s="6" t="s">
+        <v>509</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="B62" s="7" t="s">
-        <v>425</v>
+        <v>510</v>
+      </c>
+      <c r="B62" s="6" t="s">
+        <v>511</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>422</v>
+        <v>508</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>426</v>
+        <v>512</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="s">
-        <v>427</v>
-      </c>
-      <c r="B63" s="7" t="s">
-        <v>428</v>
+        <v>513</v>
+      </c>
+      <c r="B63" s="6" t="s">
+        <v>514</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>422</v>
-      </c>
-      <c r="D63" s="7" t="s">
-        <v>426</v>
+        <v>508</v>
+      </c>
+      <c r="D63" s="6" t="s">
+        <v>512</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="s">
-        <v>429</v>
+        <v>515</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>430</v>
+        <v>516</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>422</v>
+        <v>508</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>431</v>
+        <v>517</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="s">
-        <v>408</v>
-      </c>
-      <c r="B65" s="7" t="s">
-        <v>432</v>
+        <v>494</v>
+      </c>
+      <c r="B65" s="6" t="s">
+        <v>518</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>422</v>
+        <v>508</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>433</v>
+        <v>519</v>
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="7" t="s">
-        <v>434</v>
-      </c>
-      <c r="B66" s="7" t="s">
-        <v>435</v>
+      <c r="A66" s="6" t="s">
+        <v>520</v>
+      </c>
+      <c r="B66" s="6" t="s">
+        <v>521</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>422</v>
+        <v>508</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>436</v>
+        <v>522</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="s">
-        <v>437</v>
-      </c>
-      <c r="B67" s="7" t="s">
-        <v>438</v>
+        <v>523</v>
+      </c>
+      <c r="B67" s="6" t="s">
+        <v>524</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>422</v>
+        <v>508</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>439</v>
+        <v>525</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="s">
-        <v>411</v>
+        <v>497</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>440</v>
+        <v>526</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>422</v>
+        <v>508</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>441</v>
+        <v>527</v>
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="6" t="s">
-        <v>442</v>
+      <c r="A69" s="4" t="s">
+        <v>528</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>440</v>
+        <v>526</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>422</v>
+        <v>508</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>441</v>
+        <v>527</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="s">
-        <v>443</v>
-      </c>
-      <c r="B70" s="35" t="s">
-        <v>444</v>
-      </c>
-      <c r="C70" s="4" t="s">
-        <v>445</v>
+        <v>529</v>
+      </c>
+      <c r="B70" s="38" t="s">
+        <v>530</v>
+      </c>
+      <c r="C70" s="5" t="s">
+        <v>531</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>446</v>
+        <v>532</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="s">
-        <v>447</v>
-      </c>
-      <c r="B71" s="35" t="s">
-        <v>448</v>
-      </c>
-      <c r="C71" s="4" t="s">
-        <v>445</v>
+        <v>533</v>
+      </c>
+      <c r="B71" s="38" t="s">
+        <v>534</v>
+      </c>
+      <c r="C71" s="5" t="s">
+        <v>531</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>449</v>
+        <v>535</v>
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="7" t="s">
-        <v>450</v>
-      </c>
-      <c r="B72" s="7" t="s">
-        <v>451</v>
-      </c>
-      <c r="C72" s="4" t="s">
-        <v>452</v>
+      <c r="A72" s="6" t="s">
+        <v>536</v>
+      </c>
+      <c r="B72" s="6" t="s">
+        <v>537</v>
+      </c>
+      <c r="C72" s="5" t="s">
+        <v>538</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>453</v>
+        <v>539</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="3" t="s">
-        <v>454</v>
+        <v>540</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>455</v>
-      </c>
-      <c r="C73" s="4" t="s">
-        <v>452</v>
+        <v>541</v>
+      </c>
+      <c r="C73" s="5" t="s">
+        <v>538</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="3" t="s">
-        <v>456</v>
-      </c>
-      <c r="B74" s="7" t="s">
-        <v>457</v>
-      </c>
-      <c r="C74" s="4" t="s">
-        <v>458</v>
-      </c>
-      <c r="D74" s="7" t="s">
-        <v>459</v>
+        <v>542</v>
+      </c>
+      <c r="B74" s="6" t="s">
+        <v>543</v>
+      </c>
+      <c r="C74" s="5" t="s">
+        <v>544</v>
+      </c>
+      <c r="D74" s="6" t="s">
+        <v>545</v>
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="6" t="s">
-        <v>460</v>
+      <c r="A75" s="4" t="s">
+        <v>546</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>461</v>
-      </c>
-      <c r="C75" s="4" t="s">
-        <v>462</v>
+        <v>547</v>
+      </c>
+      <c r="C75" s="5" t="s">
+        <v>548</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>463</v>
+        <v>549</v>
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="6" t="s">
-        <v>464</v>
+      <c r="A76" s="4" t="s">
+        <v>550</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>465</v>
+        <v>551</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>466</v>
+        <v>552</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>467</v>
+        <v>553</v>
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="37" t="s">
-        <v>468</v>
-      </c>
-      <c r="B77" s="7" t="s">
-        <v>469</v>
+      <c r="A77" s="40" t="s">
+        <v>554</v>
+      </c>
+      <c r="B77" s="6" t="s">
+        <v>555</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>466</v>
+        <v>552</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>470</v>
+        <v>556</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="3" t="s">
-        <v>471</v>
+        <v>557</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="C78" s="4" t="s">
-        <v>473</v>
+        <v>558</v>
+      </c>
+      <c r="C78" s="5" t="s">
+        <v>559</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>474</v>
+        <v>560</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="s">
-        <v>475</v>
-      </c>
-      <c r="B79" s="7" t="s">
-        <v>476</v>
-      </c>
-      <c r="C79" s="4" t="s">
-        <v>473</v>
-      </c>
-      <c r="D79" s="7" t="s">
-        <v>477</v>
+        <v>561</v>
+      </c>
+      <c r="B79" s="6" t="s">
+        <v>562</v>
+      </c>
+      <c r="C79" s="5" t="s">
+        <v>559</v>
+      </c>
+      <c r="D79" s="6" t="s">
+        <v>563</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="s">
-        <v>478</v>
+        <v>564</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>479</v>
-      </c>
-      <c r="C80" s="4" t="s">
-        <v>480</v>
+        <v>565</v>
+      </c>
+      <c r="C80" s="5" t="s">
+        <v>566</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>481</v>
+        <v>567</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="s">
-        <v>482</v>
+        <v>568</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>483</v>
-      </c>
-      <c r="C81" s="4" t="s">
-        <v>480</v>
+        <v>569</v>
+      </c>
+      <c r="C81" s="5" t="s">
+        <v>566</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>484</v>
+        <v>570</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="s">
-        <v>485</v>
-      </c>
-      <c r="B82" s="7" t="s">
-        <v>486</v>
-      </c>
-      <c r="C82" s="4" t="s">
-        <v>480</v>
+        <v>571</v>
+      </c>
+      <c r="B82" s="6" t="s">
+        <v>572</v>
+      </c>
+      <c r="C82" s="5" t="s">
+        <v>566</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>487</v>
+        <v>573</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="s">
-        <v>488</v>
-      </c>
-      <c r="B83" s="7" t="s">
-        <v>489</v>
-      </c>
-      <c r="C83" s="4" t="s">
-        <v>490</v>
+        <v>574</v>
+      </c>
+      <c r="B83" s="6" t="s">
+        <v>575</v>
+      </c>
+      <c r="C83" s="5" t="s">
+        <v>576</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>491</v>
+        <v>577</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="s">
-        <v>492</v>
-      </c>
-      <c r="B84" s="7" t="s">
-        <v>493</v>
-      </c>
-      <c r="C84" s="4" t="s">
-        <v>494</v>
+        <v>578</v>
+      </c>
+      <c r="B84" s="6" t="s">
+        <v>579</v>
+      </c>
+      <c r="C84" s="5" t="s">
+        <v>580</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>495</v>
+        <v>581</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="s">
-        <v>492</v>
-      </c>
-      <c r="B85" s="7" t="s">
-        <v>496</v>
-      </c>
-      <c r="C85" s="4" t="s">
-        <v>494</v>
+        <v>578</v>
+      </c>
+      <c r="B85" s="6" t="s">
+        <v>582</v>
+      </c>
+      <c r="C85" s="5" t="s">
+        <v>580</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>497</v>
+        <v>583</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="3" t="s">
-        <v>498</v>
-      </c>
-      <c r="B86" s="7" t="s">
-        <v>499</v>
-      </c>
-      <c r="C86" s="4" t="s">
-        <v>500</v>
+        <v>584</v>
+      </c>
+      <c r="B86" s="6" t="s">
+        <v>585</v>
+      </c>
+      <c r="C86" s="5" t="s">
+        <v>586</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>501</v>
+        <v>587</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="3" t="s">
-        <v>498</v>
+        <v>584</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>502</v>
-      </c>
-      <c r="C87" s="4" t="s">
-        <v>500</v>
+        <v>588</v>
+      </c>
+      <c r="C87" s="5" t="s">
+        <v>586</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>503</v>
+        <v>589</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="3" t="s">
-        <v>504</v>
-      </c>
-      <c r="B88" s="15" t="s">
-        <v>505</v>
-      </c>
-      <c r="C88" s="4" t="s">
-        <v>506</v>
+        <v>590</v>
+      </c>
+      <c r="B88" s="14" t="s">
+        <v>591</v>
+      </c>
+      <c r="C88" s="5" t="s">
+        <v>592</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="3" t="s">
-        <v>507</v>
-      </c>
-      <c r="B89" s="15" t="s">
-        <v>508</v>
-      </c>
-      <c r="C89" s="4" t="s">
-        <v>509</v>
+        <v>593</v>
+      </c>
+      <c r="B89" s="14" t="s">
+        <v>594</v>
+      </c>
+      <c r="C89" s="5" t="s">
+        <v>595</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>510</v>
+        <v>596</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="s">
-        <v>511</v>
+        <v>597</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>512</v>
-      </c>
-      <c r="C90" s="4" t="s">
-        <v>509</v>
+        <v>598</v>
+      </c>
+      <c r="C90" s="5" t="s">
+        <v>595</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>513</v>
+        <v>599</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="s">
-        <v>514</v>
+        <v>600</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>515</v>
+        <v>601</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>516</v>
+        <v>602</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="3" t="s">
-        <v>517</v>
-      </c>
-      <c r="B92" s="7" t="s">
-        <v>518</v>
-      </c>
-      <c r="C92" s="4" t="s">
-        <v>519</v>
+        <v>603</v>
+      </c>
+      <c r="B92" s="6" t="s">
+        <v>604</v>
+      </c>
+      <c r="C92" s="5" t="s">
+        <v>605</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>520</v>
+        <v>606</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="s">
-        <v>521</v>
-      </c>
-      <c r="B93" s="7" t="s">
-        <v>522</v>
-      </c>
-      <c r="C93" s="4" t="s">
-        <v>523</v>
+        <v>607</v>
+      </c>
+      <c r="B93" s="6" t="s">
+        <v>608</v>
+      </c>
+      <c r="C93" s="5" t="s">
+        <v>609</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>524</v>
+        <v>610</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="3" t="s">
-        <v>525</v>
-      </c>
-      <c r="B94" s="38" t="s">
-        <v>526</v>
+        <v>611</v>
+      </c>
+      <c r="B94" s="41" t="s">
+        <v>612</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>527</v>
-      </c>
-      <c r="D94" s="38" t="s">
-        <v>528</v>
+        <v>613</v>
+      </c>
+      <c r="D94" s="41" t="s">
+        <v>614</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="3" t="s">
-        <v>529</v>
-      </c>
-      <c r="B95" s="7" t="s">
-        <v>530</v>
-      </c>
-      <c r="C95" s="4" t="s">
-        <v>523</v>
+        <v>615</v>
+      </c>
+      <c r="B95" s="6" t="s">
+        <v>616</v>
+      </c>
+      <c r="C95" s="5" t="s">
+        <v>609</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>531</v>
+        <v>617</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="3" t="s">
-        <v>532</v>
-      </c>
-      <c r="B96" s="7" t="s">
-        <v>533</v>
-      </c>
-      <c r="C96" s="4" t="s">
-        <v>534</v>
+        <v>618</v>
+      </c>
+      <c r="B96" s="6" t="s">
+        <v>619</v>
+      </c>
+      <c r="C96" s="5" t="s">
+        <v>620</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>535</v>
+        <v>621</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="3" t="s">
-        <v>536</v>
-      </c>
-      <c r="B97" s="7" t="s">
-        <v>537</v>
-      </c>
-      <c r="C97" s="4" t="s">
-        <v>538</v>
+        <v>622</v>
+      </c>
+      <c r="B97" s="6" t="s">
+        <v>623</v>
+      </c>
+      <c r="C97" s="5" t="s">
+        <v>624</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>539</v>
+        <v>625</v>
       </c>
     </row>
     <row r="98">
-      <c r="A98" s="39" t="s">
-        <v>540</v>
-      </c>
-      <c r="B98" s="7" t="s">
-        <v>541</v>
-      </c>
-      <c r="C98" s="4" t="s">
-        <v>542</v>
+      <c r="A98" s="42" t="s">
+        <v>626</v>
+      </c>
+      <c r="B98" s="6" t="s">
+        <v>627</v>
+      </c>
+      <c r="C98" s="5" t="s">
+        <v>628</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>543</v>
+        <v>629</v>
       </c>
     </row>
     <row r="99">
-      <c r="A99" s="39" t="s">
-        <v>544</v>
-      </c>
-      <c r="B99" s="7" t="s">
-        <v>545</v>
-      </c>
-      <c r="C99" s="4" t="s">
-        <v>542</v>
+      <c r="A99" s="42" t="s">
+        <v>630</v>
+      </c>
+      <c r="B99" s="6" t="s">
+        <v>631</v>
+      </c>
+      <c r="C99" s="5" t="s">
+        <v>628</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>546</v>
+        <v>632</v>
       </c>
     </row>
     <row r="100">
-      <c r="A100" s="39" t="s">
-        <v>547</v>
-      </c>
-      <c r="B100" s="7" t="s">
-        <v>548</v>
-      </c>
-      <c r="C100" s="4" t="s">
-        <v>542</v>
+      <c r="A100" s="42" t="s">
+        <v>633</v>
+      </c>
+      <c r="B100" s="6" t="s">
+        <v>634</v>
+      </c>
+      <c r="C100" s="5" t="s">
+        <v>628</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>549</v>
+        <v>635</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="s">
-        <v>550</v>
+        <v>636</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>551</v>
-      </c>
-      <c r="C101" s="4" t="s">
-        <v>552</v>
+        <v>637</v>
+      </c>
+      <c r="C101" s="5" t="s">
+        <v>638</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>553</v>
+        <v>639</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="3" t="s">
-        <v>554</v>
+        <v>640</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>555</v>
-      </c>
-      <c r="C102" s="4" t="s">
-        <v>552</v>
+        <v>641</v>
+      </c>
+      <c r="C102" s="5" t="s">
+        <v>638</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="3" t="s">
-        <v>556</v>
-      </c>
-      <c r="B103" s="7" t="s">
-        <v>557</v>
-      </c>
-      <c r="C103" s="4" t="s">
-        <v>558</v>
+        <v>642</v>
+      </c>
+      <c r="B103" s="6" t="s">
+        <v>643</v>
+      </c>
+      <c r="C103" s="5" t="s">
+        <v>644</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>559</v>
+        <v>645</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="3" t="s">
-        <v>560</v>
-      </c>
-      <c r="B104" s="15" t="s">
-        <v>561</v>
-      </c>
-      <c r="C104" s="4" t="s">
-        <v>558</v>
+        <v>646</v>
+      </c>
+      <c r="B104" s="14" t="s">
+        <v>647</v>
+      </c>
+      <c r="C104" s="5" t="s">
+        <v>644</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>562</v>
+        <v>648</v>
       </c>
     </row>
     <row r="105">
-      <c r="A105" s="7" t="s">
-        <v>563</v>
-      </c>
-      <c r="B105" s="7" t="s">
-        <v>564</v>
-      </c>
-      <c r="C105" s="4" t="s">
-        <v>558</v>
+      <c r="A105" s="6" t="s">
+        <v>649</v>
+      </c>
+      <c r="B105" s="6" t="s">
+        <v>650</v>
+      </c>
+      <c r="C105" s="5" t="s">
+        <v>644</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>565</v>
+        <v>651</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="3" t="s">
-        <v>566</v>
-      </c>
-      <c r="B106" s="40" t="s">
-        <v>567</v>
-      </c>
-      <c r="C106" s="4" t="s">
-        <v>558</v>
+        <v>652</v>
+      </c>
+      <c r="B106" s="43" t="s">
+        <v>653</v>
+      </c>
+      <c r="C106" s="5" t="s">
+        <v>644</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="3" t="s">
-        <v>568</v>
-      </c>
-      <c r="B107" s="40" t="s">
-        <v>569</v>
-      </c>
-      <c r="C107" s="4" t="s">
-        <v>558</v>
+        <v>654</v>
+      </c>
+      <c r="B107" s="43" t="s">
+        <v>655</v>
+      </c>
+      <c r="C107" s="5" t="s">
+        <v>644</v>
       </c>
     </row>
     <row r="108">
-      <c r="A108" s="7" t="s">
-        <v>570</v>
+      <c r="A108" s="6" t="s">
+        <v>656</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>571</v>
-      </c>
-      <c r="C108" s="4" t="s">
-        <v>572</v>
+        <v>657</v>
+      </c>
+      <c r="C108" s="5" t="s">
+        <v>658</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>573</v>
+        <v>659</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="3" t="s">
-        <v>574</v>
+        <v>660</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>575</v>
-      </c>
-      <c r="C109" s="4" t="s">
-        <v>572</v>
+        <v>661</v>
+      </c>
+      <c r="C109" s="5" t="s">
+        <v>658</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>576</v>
+        <v>662</v>
       </c>
     </row>
     <row r="110">
-      <c r="A110" s="10" t="s">
-        <v>577</v>
+      <c r="A110" s="9" t="s">
+        <v>663</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>578</v>
-      </c>
-      <c r="C110" s="4" t="s">
-        <v>579</v>
+        <v>664</v>
+      </c>
+      <c r="C110" s="5" t="s">
+        <v>665</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>580</v>
+        <v>666</v>
       </c>
     </row>
     <row r="111">
-      <c r="A111" s="10" t="s">
-        <v>581</v>
+      <c r="A111" s="9" t="s">
+        <v>667</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>582</v>
-      </c>
-      <c r="C111" s="4" t="s">
-        <v>579</v>
+        <v>668</v>
+      </c>
+      <c r="C111" s="5" t="s">
+        <v>665</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>583</v>
+        <v>669</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="3" t="s">
-        <v>584</v>
-      </c>
-      <c r="B112" s="41" t="s">
-        <v>585</v>
-      </c>
-      <c r="C112" s="4" t="s">
-        <v>586</v>
+        <v>670</v>
+      </c>
+      <c r="B112" s="44" t="s">
+        <v>671</v>
+      </c>
+      <c r="C112" s="5" t="s">
+        <v>672</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>587</v>
+        <v>673</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="3" t="s">
-        <v>588</v>
+        <v>674</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>589</v>
-      </c>
-      <c r="C113" s="4" t="s">
-        <v>586</v>
+        <v>675</v>
+      </c>
+      <c r="C113" s="5" t="s">
+        <v>672</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>590</v>
+        <v>676</v>
       </c>
     </row>
     <row r="114">
-      <c r="A114" s="7" t="s">
-        <v>591</v>
-      </c>
-      <c r="B114" s="7" t="s">
-        <v>592</v>
-      </c>
-      <c r="C114" s="4" t="s">
-        <v>586</v>
+      <c r="A114" s="6" t="s">
+        <v>677</v>
+      </c>
+      <c r="B114" s="6" t="s">
+        <v>678</v>
+      </c>
+      <c r="C114" s="5" t="s">
+        <v>672</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>593</v>
+        <v>679</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="3" t="s">
-        <v>594</v>
-      </c>
-      <c r="B115" s="16" t="s">
-        <v>595</v>
-      </c>
-      <c r="C115" s="4" t="s">
-        <v>596</v>
+        <v>680</v>
+      </c>
+      <c r="B115" s="15" t="s">
+        <v>681</v>
+      </c>
+      <c r="C115" s="5" t="s">
+        <v>682</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>597</v>
+        <v>683</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="3" t="s">
-        <v>598</v>
+        <v>684</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>599</v>
-      </c>
-      <c r="C116" s="4" t="s">
-        <v>596</v>
+        <v>685</v>
+      </c>
+      <c r="C116" s="5" t="s">
+        <v>682</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>600</v>
+        <v>686</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="3" t="s">
-        <v>601</v>
-      </c>
-      <c r="B117" s="41" t="s">
-        <v>602</v>
-      </c>
-      <c r="C117" s="4" t="s">
-        <v>603</v>
+        <v>687</v>
+      </c>
+      <c r="B117" s="44" t="s">
+        <v>688</v>
+      </c>
+      <c r="C117" s="5" t="s">
+        <v>689</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>604</v>
+        <v>690</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="3" t="s">
-        <v>605</v>
+        <v>691</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>606</v>
-      </c>
-      <c r="C118" s="4" t="s">
-        <v>607</v>
+        <v>692</v>
+      </c>
+      <c r="C118" s="5" t="s">
+        <v>693</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>608</v>
+        <v>694</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="3" t="s">
-        <v>609</v>
+        <v>695</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>610</v>
-      </c>
-      <c r="C119" s="4" t="s">
-        <v>607</v>
+        <v>696</v>
+      </c>
+      <c r="C119" s="5" t="s">
+        <v>693</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>611</v>
+        <v>697</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="3" t="s">
-        <v>612</v>
+        <v>698</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>613</v>
-      </c>
-      <c r="C120" s="42" t="s">
-        <v>607</v>
+        <v>699</v>
+      </c>
+      <c r="C120" s="45" t="s">
+        <v>693</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>614</v>
+        <v>700</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="3" t="s">
-        <v>615</v>
-      </c>
-      <c r="B121" s="7" t="s">
-        <v>616</v>
-      </c>
-      <c r="C121" s="42" t="s">
-        <v>607</v>
+        <v>701</v>
+      </c>
+      <c r="B121" s="6" t="s">
+        <v>702</v>
+      </c>
+      <c r="C121" s="45" t="s">
+        <v>693</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>617</v>
+        <v>703</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="3" t="s">
-        <v>615</v>
-      </c>
-      <c r="B122" s="7" t="s">
-        <v>618</v>
-      </c>
-      <c r="C122" s="42" t="s">
-        <v>607</v>
+        <v>701</v>
+      </c>
+      <c r="B122" s="6" t="s">
+        <v>704</v>
+      </c>
+      <c r="C122" s="45" t="s">
+        <v>693</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>619</v>
+        <v>705</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="3" t="s">
-        <v>620</v>
-      </c>
-      <c r="B123" s="7" t="s">
-        <v>621</v>
-      </c>
-      <c r="C123" s="4" t="s">
-        <v>622</v>
+        <v>706</v>
+      </c>
+      <c r="B123" s="6" t="s">
+        <v>707</v>
+      </c>
+      <c r="C123" s="5" t="s">
+        <v>708</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>623</v>
+        <v>709</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="3" t="s">
-        <v>624</v>
+        <v>710</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>625</v>
-      </c>
-      <c r="C124" s="4" t="s">
-        <v>622</v>
+        <v>711</v>
+      </c>
+      <c r="C124" s="5" t="s">
+        <v>708</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>626</v>
+        <v>712</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="3" t="s">
-        <v>624</v>
-      </c>
-      <c r="B125" s="7" t="s">
-        <v>627</v>
-      </c>
-      <c r="C125" s="4" t="s">
-        <v>622</v>
+        <v>710</v>
+      </c>
+      <c r="B125" s="6" t="s">
+        <v>713</v>
+      </c>
+      <c r="C125" s="5" t="s">
+        <v>708</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>628</v>
+        <v>714</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="3" t="s">
-        <v>629</v>
+        <v>715</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>630</v>
-      </c>
-      <c r="C126" s="4" t="s">
-        <v>622</v>
+        <v>716</v>
+      </c>
+      <c r="C126" s="5" t="s">
+        <v>708</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>631</v>
+        <v>717</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="3" t="s">
-        <v>632</v>
-      </c>
-      <c r="B127" s="7" t="s">
-        <v>633</v>
-      </c>
-      <c r="C127" s="4" t="s">
-        <v>634</v>
+        <v>718</v>
+      </c>
+      <c r="B127" s="6" t="s">
+        <v>719</v>
+      </c>
+      <c r="C127" s="5" t="s">
+        <v>720</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>635</v>
+        <v>721</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="s">
-        <v>636</v>
+        <v>722</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>637</v>
-      </c>
-      <c r="C128" s="4" t="s">
-        <v>634</v>
+        <v>723</v>
+      </c>
+      <c r="C128" s="5" t="s">
+        <v>720</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>638</v>
+        <v>724</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="s">
-        <v>639</v>
-      </c>
-      <c r="B129" s="7" t="s">
-        <v>640</v>
-      </c>
-      <c r="C129" s="4" t="s">
-        <v>634</v>
+        <v>725</v>
+      </c>
+      <c r="B129" s="6" t="s">
+        <v>726</v>
+      </c>
+      <c r="C129" s="5" t="s">
+        <v>720</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>641</v>
+        <v>727</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="s">
-        <v>642</v>
-      </c>
-      <c r="B130" s="7" t="s">
-        <v>643</v>
-      </c>
-      <c r="C130" s="4" t="s">
-        <v>634</v>
+        <v>728</v>
+      </c>
+      <c r="B130" s="6" t="s">
+        <v>729</v>
+      </c>
+      <c r="C130" s="5" t="s">
+        <v>720</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>644</v>
+        <v>730</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="s">
-        <v>645</v>
-      </c>
-      <c r="B131" s="7" t="s">
-        <v>646</v>
-      </c>
-      <c r="C131" s="4" t="s">
-        <v>647</v>
+        <v>731</v>
+      </c>
+      <c r="B131" s="6" t="s">
+        <v>732</v>
+      </c>
+      <c r="C131" s="5" t="s">
+        <v>733</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>648</v>
+        <v>734</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="s">
-        <v>645</v>
+        <v>731</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>649</v>
-      </c>
-      <c r="C132" s="4" t="s">
-        <v>647</v>
+        <v>735</v>
+      </c>
+      <c r="C132" s="5" t="s">
+        <v>733</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>650</v>
+        <v>736</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="s">
-        <v>651</v>
+        <v>737</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>652</v>
-      </c>
-      <c r="C133" s="4" t="s">
-        <v>647</v>
+        <v>738</v>
+      </c>
+      <c r="C133" s="5" t="s">
+        <v>733</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>653</v>
+        <v>739</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="s">
-        <v>654</v>
-      </c>
-      <c r="B134" s="7" t="s">
-        <v>655</v>
-      </c>
-      <c r="C134" s="4" t="s">
-        <v>647</v>
+        <v>740</v>
+      </c>
+      <c r="B134" s="6" t="s">
+        <v>741</v>
+      </c>
+      <c r="C134" s="5" t="s">
+        <v>733</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>656</v>
+        <v>742</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="s">
-        <v>657</v>
-      </c>
-      <c r="B135" s="7" t="s">
-        <v>658</v>
-      </c>
-      <c r="C135" s="4" t="s">
-        <v>647</v>
+        <v>743</v>
+      </c>
+      <c r="B135" s="6" t="s">
+        <v>744</v>
+      </c>
+      <c r="C135" s="5" t="s">
+        <v>733</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>659</v>
+        <v>745</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="s">
-        <v>660</v>
+        <v>746</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>661</v>
-      </c>
-      <c r="C136" s="4" t="s">
-        <v>647</v>
+        <v>747</v>
+      </c>
+      <c r="C136" s="5" t="s">
+        <v>733</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>662</v>
+        <v>748</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="s">
-        <v>663</v>
-      </c>
-      <c r="B137" s="7" t="s">
-        <v>664</v>
-      </c>
-      <c r="C137" s="4" t="s">
-        <v>647</v>
+        <v>749</v>
+      </c>
+      <c r="B137" s="6" t="s">
+        <v>750</v>
+      </c>
+      <c r="C137" s="5" t="s">
+        <v>733</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>665</v>
+        <v>751</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="s">
-        <v>663</v>
+        <v>749</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>666</v>
-      </c>
-      <c r="C138" s="4" t="s">
-        <v>647</v>
+        <v>752</v>
+      </c>
+      <c r="C138" s="5" t="s">
+        <v>733</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>667</v>
+        <v>753</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="3" t="s">
-        <v>601</v>
+        <v>687</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>668</v>
-      </c>
-      <c r="C139" s="4" t="s">
-        <v>669</v>
+        <v>754</v>
+      </c>
+      <c r="C139" s="5" t="s">
+        <v>755</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>670</v>
+        <v>756</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="3" t="s">
-        <v>671</v>
+        <v>757</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>672</v>
-      </c>
-      <c r="C140" s="4" t="s">
-        <v>669</v>
+        <v>758</v>
+      </c>
+      <c r="C140" s="5" t="s">
+        <v>755</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>673</v>
+        <v>759</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B141" s="15" t="s">
-        <v>674</v>
-      </c>
-      <c r="C141" s="4" t="s">
-        <v>10</v>
+        <v>760</v>
+      </c>
+      <c r="B141" s="14" t="s">
+        <v>761</v>
+      </c>
+      <c r="C141" s="5" t="s">
+        <v>762</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>675</v>
+        <v>763</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="3" t="s">
-        <v>676</v>
-      </c>
-      <c r="B142" s="7" t="s">
-        <v>677</v>
-      </c>
-      <c r="C142" s="4" t="s">
-        <v>65</v>
+        <v>764</v>
+      </c>
+      <c r="B142" s="6" t="s">
+        <v>765</v>
+      </c>
+      <c r="C142" s="5" t="s">
+        <v>48</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>678</v>
+        <v>766</v>
       </c>
     </row>
     <row r="143">
-      <c r="A143" s="30" t="s">
-        <v>679</v>
+      <c r="A143" s="33" t="s">
+        <v>767</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>680</v>
-      </c>
-      <c r="C143" s="4" t="s">
-        <v>65</v>
+        <v>768</v>
+      </c>
+      <c r="C143" s="5" t="s">
+        <v>48</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>681</v>
+        <v>769</v>
       </c>
     </row>
     <row r="144">
-      <c r="A144" s="30" t="s">
-        <v>682</v>
+      <c r="A144" s="33" t="s">
+        <v>770</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>683</v>
-      </c>
-      <c r="C144" s="4" t="s">
-        <v>65</v>
+        <v>771</v>
+      </c>
+      <c r="C144" s="5" t="s">
+        <v>48</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>684</v>
+        <v>772</v>
       </c>
     </row>
     <row r="145">
-      <c r="A145" s="30" t="s">
-        <v>685</v>
+      <c r="A145" s="33" t="s">
+        <v>773</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>686</v>
-      </c>
-      <c r="C145" s="4" t="s">
-        <v>65</v>
+        <v>774</v>
+      </c>
+      <c r="C145" s="5" t="s">
+        <v>48</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>687</v>
+        <v>775</v>
       </c>
     </row>
     <row r="146">
-      <c r="A146" s="30" t="s">
-        <v>688</v>
-      </c>
-      <c r="C146" s="4" t="s">
-        <v>78</v>
+      <c r="A146" s="33" t="s">
+        <v>776</v>
+      </c>
+      <c r="C146" s="5" t="s">
+        <v>61</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>689</v>
+        <v>777</v>
       </c>
     </row>
     <row r="147">
-      <c r="A147" s="30" t="s">
-        <v>690</v>
+      <c r="A147" s="33" t="s">
+        <v>778</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>691</v>
-      </c>
-      <c r="C147" s="4" t="s">
-        <v>78</v>
+        <v>779</v>
+      </c>
+      <c r="C147" s="5" t="s">
+        <v>61</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>692</v>
+        <v>780</v>
       </c>
     </row>
     <row r="148">
-      <c r="A148" s="30" t="s">
-        <v>693</v>
-      </c>
-      <c r="B148" s="7" t="s">
-        <v>694</v>
-      </c>
-      <c r="C148" s="4" t="s">
-        <v>78</v>
+      <c r="A148" s="33" t="s">
+        <v>781</v>
+      </c>
+      <c r="B148" s="6" t="s">
+        <v>782</v>
+      </c>
+      <c r="C148" s="5" t="s">
+        <v>61</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>695</v>
+        <v>783</v>
       </c>
     </row>
     <row r="149">
-      <c r="A149" s="30" t="s">
-        <v>696</v>
+      <c r="A149" s="33" t="s">
+        <v>784</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>697</v>
-      </c>
-      <c r="C149" s="4" t="s">
-        <v>78</v>
+        <v>785</v>
+      </c>
+      <c r="C149" s="5" t="s">
+        <v>61</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>698</v>
+        <v>786</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="3" t="s">
-        <v>95</v>
+        <v>78</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>699</v>
-      </c>
-      <c r="C150" s="4" t="s">
-        <v>78</v>
+        <v>787</v>
+      </c>
+      <c r="C150" s="5" t="s">
+        <v>61</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>700</v>
+        <v>788</v>
       </c>
     </row>
     <row r="151">
-      <c r="A151" s="43" t="s">
-        <v>701</v>
-      </c>
-      <c r="B151" s="7" t="s">
-        <v>702</v>
-      </c>
-      <c r="C151" s="4" t="s">
-        <v>118</v>
+      <c r="A151" s="46" t="s">
+        <v>789</v>
+      </c>
+      <c r="B151" s="6" t="s">
+        <v>790</v>
+      </c>
+      <c r="C151" s="5" t="s">
+        <v>103</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>703</v>
+        <v>791</v>
       </c>
     </row>
     <row r="152">
-      <c r="A152" s="43" t="s">
-        <v>704</v>
-      </c>
-      <c r="B152" s="31" t="s">
-        <v>705</v>
-      </c>
-      <c r="C152" s="4" t="s">
-        <v>118</v>
+      <c r="A152" s="46" t="s">
+        <v>792</v>
+      </c>
+      <c r="B152" s="34" t="s">
+        <v>793</v>
+      </c>
+      <c r="C152" s="5" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="s">
-        <v>706</v>
+        <v>794</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>707</v>
+        <v>795</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>708</v>
+        <v>796</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="s">
-        <v>704</v>
-      </c>
-      <c r="B154" s="7" t="s">
-        <v>709</v>
-      </c>
-      <c r="C154" s="4" t="s">
-        <v>118</v>
+        <v>792</v>
+      </c>
+      <c r="B154" s="6" t="s">
+        <v>797</v>
+      </c>
+      <c r="C154" s="5" t="s">
+        <v>103</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>710</v>
+        <v>798</v>
       </c>
     </row>
     <row r="155">
-      <c r="A155" s="20" t="s">
-        <v>146</v>
-      </c>
-      <c r="B155" s="20" t="s">
-        <v>711</v>
-      </c>
-      <c r="C155" s="18" t="s">
+      <c r="A155" s="19" t="s">
         <v>131</v>
       </c>
+      <c r="B155" s="19" t="s">
+        <v>799</v>
+      </c>
+      <c r="C155" s="17" t="s">
+        <v>116</v>
+      </c>
       <c r="D155" s="1" t="s">
-        <v>712</v>
+        <v>800</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="B156" s="20" t="s">
-        <v>713</v>
-      </c>
-      <c r="C156" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="B156" s="19" t="s">
+        <v>801</v>
+      </c>
+      <c r="C156" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="D156" s="19" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="19" t="s">
         <v>131</v>
       </c>
-      <c r="D156" s="20" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" s="20" t="s">
-        <v>146</v>
-      </c>
-      <c r="B157" s="20" t="s">
-        <v>714</v>
-      </c>
-      <c r="C157" s="18" t="s">
-        <v>131</v>
+      <c r="B157" s="19" t="s">
+        <v>802</v>
+      </c>
+      <c r="C157" s="17" t="s">
+        <v>116</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>715</v>
+        <v>803</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="B158" s="20" t="s">
-        <v>714</v>
-      </c>
-      <c r="C158" s="18" t="s">
-        <v>131</v>
+        <v>130</v>
+      </c>
+      <c r="B158" s="19" t="s">
+        <v>802</v>
+      </c>
+      <c r="C158" s="17" t="s">
+        <v>116</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>715</v>
+        <v>803</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="B159" s="20" t="s">
-        <v>716</v>
-      </c>
-      <c r="C159" s="18" t="s">
-        <v>171</v>
+        <v>158</v>
+      </c>
+      <c r="B159" s="19" t="s">
+        <v>804</v>
+      </c>
+      <c r="C159" s="17" t="s">
+        <v>156</v>
       </c>
       <c r="D159" s="1" t="s">
-        <v>717</v>
+        <v>805</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="3" t="s">
-        <v>179</v>
+        <v>164</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>718</v>
-      </c>
-      <c r="C160" s="18" t="s">
-        <v>171</v>
+        <v>806</v>
+      </c>
+      <c r="C160" s="17" t="s">
+        <v>156</v>
       </c>
       <c r="D160" s="1" t="s">
-        <v>719</v>
+        <v>807</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="B161" s="20" t="s">
-        <v>720</v>
-      </c>
-      <c r="C161" s="18" t="s">
-        <v>171</v>
+        <v>166</v>
+      </c>
+      <c r="B161" s="19" t="s">
+        <v>808</v>
+      </c>
+      <c r="C161" s="17" t="s">
+        <v>156</v>
       </c>
       <c r="D161" s="1" t="s">
-        <v>721</v>
+        <v>809</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="B162" s="20" t="s">
-        <v>716</v>
-      </c>
-      <c r="C162" s="18" t="s">
-        <v>171</v>
+        <v>166</v>
+      </c>
+      <c r="B162" s="19" t="s">
+        <v>804</v>
+      </c>
+      <c r="C162" s="17" t="s">
+        <v>156</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>722</v>
+        <v>810</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="3" t="s">
-        <v>201</v>
+        <v>186</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>723</v>
-      </c>
-      <c r="C163" s="18" t="s">
-        <v>171</v>
+        <v>811</v>
+      </c>
+      <c r="C163" s="17" t="s">
+        <v>156</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>724</v>
+        <v>812</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="B164" s="20" t="s">
-        <v>725</v>
-      </c>
-      <c r="C164" s="18" t="s">
-        <v>171</v>
+        <v>190</v>
+      </c>
+      <c r="B164" s="19" t="s">
+        <v>813</v>
+      </c>
+      <c r="C164" s="17" t="s">
+        <v>156</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>726</v>
+        <v>814</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="B165" s="20" t="s">
-        <v>727</v>
-      </c>
-      <c r="C165" s="18" t="s">
-        <v>171</v>
+        <v>197</v>
+      </c>
+      <c r="B165" s="19" t="s">
+        <v>815</v>
+      </c>
+      <c r="C165" s="17" t="s">
+        <v>156</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>728</v>
+        <v>816</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="B166" s="20" t="s">
-        <v>729</v>
-      </c>
-      <c r="C166" s="18" t="s">
-        <v>171</v>
+        <v>199</v>
+      </c>
+      <c r="B166" s="19" t="s">
+        <v>817</v>
+      </c>
+      <c r="C166" s="17" t="s">
+        <v>156</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>730</v>
+        <v>818</v>
       </c>
     </row>
     <row r="167">
-      <c r="A167" s="22" t="s">
-        <v>232</v>
+      <c r="A167" s="21" t="s">
+        <v>218</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>731</v>
-      </c>
-      <c r="C167" s="18" t="s">
-        <v>223</v>
+        <v>819</v>
+      </c>
+      <c r="C167" s="17" t="s">
+        <v>209</v>
       </c>
       <c r="D167" s="1" t="s">
-        <v>732</v>
+        <v>820</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="3" t="s">
-        <v>233</v>
+        <v>219</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>733</v>
-      </c>
-      <c r="C168" s="18" t="s">
-        <v>223</v>
+        <v>821</v>
+      </c>
+      <c r="C168" s="17" t="s">
+        <v>209</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>732</v>
+        <v>820</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="C169" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="D169" s="1" t="s">
+        <v>822</v>
       </c>
     </row>
   </sheetData>

--- a/curation_of_classes/cell_classes.xlsx
+++ b/curation_of_classes/cell_classes.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1321" uniqueCount="823">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1297" uniqueCount="811">
   <si>
     <t>label</t>
   </si>
@@ -36,159 +36,6 @@
   </si>
   <si>
     <t>described by source</t>
-  </si>
-  <si>
-    <t>CD4 tissue-resident memory T cell</t>
-  </si>
-  <si>
-    <t>CD4 T cell</t>
-  </si>
-  <si>
-    <t>Q92691104</t>
-  </si>
-  <si>
-    <t>CD8 tissue-resident memory T cell</t>
-  </si>
-  <si>
-    <t>CD8 T cell</t>
-  </si>
-  <si>
-    <t>non-classical T cell</t>
-  </si>
-  <si>
-    <t>T cell</t>
-  </si>
-  <si>
-    <t>Q92365687</t>
-  </si>
-  <si>
-    <t>Vγ9+ γδ T cell</t>
-  </si>
-  <si>
-    <t>Q3077796</t>
-  </si>
-  <si>
-    <t>Vγ9– γδ T cell</t>
-  </si>
-  <si>
-    <t>lung interstitial CD4 T cell</t>
-  </si>
-  <si>
-    <t>lung</t>
-  </si>
-  <si>
-    <t>ventricular outflow tract cell</t>
-  </si>
-  <si>
-    <t>cell</t>
-  </si>
-  <si>
-    <t>Q92154155</t>
-  </si>
-  <si>
-    <t>Q7920318</t>
-  </si>
-  <si>
-    <t>stem-cell-derived β-cell</t>
-  </si>
-  <si>
-    <t>Q1767180</t>
-  </si>
-  <si>
-    <t>Q91865409</t>
-  </si>
-  <si>
-    <t>SC-βcell</t>
-  </si>
-  <si>
-    <t>intrinsic primary afferent neuron</t>
-  </si>
-  <si>
-    <t>neuron</t>
-  </si>
-  <si>
-    <t>Q108544696</t>
-  </si>
-  <si>
-    <t>intrinsic primary afferent neurons | INPA</t>
-  </si>
-  <si>
-    <t>excitatory motor neuron</t>
-  </si>
-  <si>
-    <t>Q1133903 | Q104519429</t>
-  </si>
-  <si>
-    <t>eMN</t>
-  </si>
-  <si>
-    <t>inhibitory motor neuron</t>
-  </si>
-  <si>
-    <t>Q1133903 | Q104519432</t>
-  </si>
-  <si>
-    <t>iMN</t>
-  </si>
-  <si>
-    <t>Innate lymphoid cell progenitor</t>
-  </si>
-  <si>
-    <t>progenitor cell</t>
-  </si>
-  <si>
-    <t>ILCPs</t>
-  </si>
-  <si>
-    <t>fetal liver ILCPs</t>
-  </si>
-  <si>
-    <t>lymphoid tissue inducer- like type 3 ILC</t>
-  </si>
-  <si>
-    <t>Q13418826</t>
-  </si>
-  <si>
-    <t>LTi-like ILC3</t>
-  </si>
-  <si>
-    <t>thymus-resident type-2 innate lymphoid cell</t>
-  </si>
-  <si>
-    <t>Q30314227</t>
-  </si>
-  <si>
-    <t>Q59066334</t>
-  </si>
-  <si>
-    <t>thymus</t>
-  </si>
-  <si>
-    <t>mouse medullary thymic epithelial cell</t>
-  </si>
-  <si>
-    <t>Q106355225</t>
-  </si>
-  <si>
-    <t>mouse mTEC</t>
-  </si>
-  <si>
-    <t>mTEC I</t>
-  </si>
-  <si>
-    <t>mTEC II</t>
-  </si>
-  <si>
-    <t>mTEC III</t>
-  </si>
-  <si>
-    <t>mTEC IV</t>
-  </si>
-  <si>
-    <t>tuft-like mTEC</t>
-  </si>
-  <si>
-    <t>mouse tuft-like mTEC</t>
   </si>
   <si>
     <t>renal pericyte</t>
@@ -336,6 +183,9 @@
     <t>preadipocyte</t>
   </si>
   <si>
+    <t>progenitor cell</t>
+  </si>
+  <si>
     <t>ICAM1+ preadipocyte</t>
   </si>
   <si>
@@ -355,6 +205,9 @@
     <t>stromal vascular cell</t>
   </si>
   <si>
+    <t>cell</t>
+  </si>
+  <si>
     <t>SVCs</t>
   </si>
   <si>
@@ -364,6 +217,9 @@
     <t>intratelencephalic neuron</t>
   </si>
   <si>
+    <t>neuron</t>
+  </si>
+  <si>
     <t>Q108840167</t>
   </si>
   <si>
@@ -556,6 +412,9 @@
     <t>WAT ILC</t>
   </si>
   <si>
+    <t>Q13418826</t>
+  </si>
+  <si>
     <t>WAT-resident ILC1</t>
   </si>
   <si>
@@ -655,13 +514,13 @@
     <t>striatal astrocyte</t>
   </si>
   <si>
-    <t>striatum</t>
+    <t>Q1319792</t>
   </si>
   <si>
     <t>subventricular zone astrocyte</t>
   </si>
   <si>
-    <t>subventricular zone</t>
+    <t>Q937403</t>
   </si>
   <si>
     <t>Timp1+ astrocyte</t>
@@ -809,6 +668,9 @@
   </si>
   <si>
     <t>MANA-specifc CD8 T cell</t>
+  </si>
+  <si>
+    <t>CD8 T cell</t>
   </si>
   <si>
     <t>HOBIT-high tissue-resident memory T cell</t>
@@ -872,6 +734,9 @@
     <t>virgin β cell</t>
   </si>
   <si>
+    <t>Q1767180</t>
+  </si>
+  <si>
     <t>spongiotrophoblast</t>
   </si>
   <si>
@@ -995,6 +860,99 @@
     <t>Cxcl12-expressing fibroblast</t>
   </si>
   <si>
+    <t>FAPα+ fibroblast</t>
+  </si>
+  <si>
+    <t>Q92382884</t>
+  </si>
+  <si>
+    <t>FAPα+ THY1+ immune effector fibroblast</t>
+  </si>
+  <si>
+    <t>PDPN+ FAPα+ THY1+ cell</t>
+  </si>
+  <si>
+    <t>FAPα+ THY1- destructive fibroblast</t>
+  </si>
+  <si>
+    <t>PDPN+ FAPα+ THY1- cell</t>
+  </si>
+  <si>
+    <t>SF | SFs</t>
+  </si>
+  <si>
+    <t>sub-lining layer fibroblast</t>
+  </si>
+  <si>
+    <t>SL fibroblast</t>
+  </si>
+  <si>
+    <t>lining layer fibroblast</t>
+  </si>
+  <si>
+    <t>LL fibroblast</t>
+  </si>
+  <si>
+    <t>tumor-specific CD8+ T cell</t>
+  </si>
+  <si>
+    <t>Q57814130</t>
+  </si>
+  <si>
+    <t>intratumoral regulatory T cell</t>
+  </si>
+  <si>
+    <t>Q1550619</t>
+  </si>
+  <si>
+    <t>KLRG1+ NK cell</t>
+  </si>
+  <si>
+    <t>monocyte/macrophage</t>
+  </si>
+  <si>
+    <t>intratumoral monocyte/macrophage</t>
+  </si>
+  <si>
+    <t>CX3CR1+ macrophage</t>
+  </si>
+  <si>
+    <t>CX3CR1+CD206+ macrophage</t>
+  </si>
+  <si>
+    <t>intratumoral myeloid cell</t>
+  </si>
+  <si>
+    <t>myeloid cell</t>
+  </si>
+  <si>
+    <t>CCR2+ monocyte</t>
+  </si>
+  <si>
+    <t>monocyte</t>
+  </si>
+  <si>
+    <t>intratumoral iNOS+ macrophage</t>
+  </si>
+  <si>
+    <t>iNOS-positive macrophage</t>
+  </si>
+  <si>
+    <t>myeloid regulatory cell</t>
+  </si>
+  <si>
+    <t>Q70203713</t>
+  </si>
+  <si>
+    <t>Q98388185</t>
+  </si>
+  <si>
+    <t>Mregs</t>
+  </si>
+  <si>
+    <t>Arg1+ Trem2+ regulatory myeloid cell</t>
+  </si>
+  <si>
     <t>cell class</t>
   </si>
   <si>
@@ -1197,6 +1155,9 @@
   </si>
   <si>
     <t>"fibroblast type 2 (Fb2) cells (PI16, FN1, FBN1)"</t>
+  </si>
+  <si>
+    <t>mouse tuft-like mTEC</t>
   </si>
   <si>
     <t>DCLK1 or POU2F3,</t>
@@ -2319,6 +2280,9 @@
   </si>
   <si>
     <t>Itga6 and Sca1</t>
+  </si>
+  <si>
+    <t>Q59066334</t>
   </si>
   <si>
     <t>" mTEC I is characterized by high expression of Itga6 and Sca1 (also known as Ly6a)"</t>
@@ -2514,7 +2478,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="39">
+  <fonts count="33">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -2529,64 +2493,29 @@
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="11.0"/>
+      <color rgb="FFCE9178"/>
+      <name val="&quot;Droid Sans Mono&quot;"/>
+    </font>
+    <font>
       <b/>
       <sz val="24.0"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="11.0"/>
-      <color rgb="FFCE9178"/>
-      <name val="&quot;Droid Sans Mono&quot;"/>
-    </font>
-    <font>
       <color rgb="FF000000"/>
       <name val="&quot;Arial&quot;"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <i/>
       <color theme="1"/>
       <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="14.0"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="17.0"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="17.0"/>
-      <color rgb="FF000000"/>
-      <name val="&quot;Arial&quot;"/>
-    </font>
-    <font>
-      <sz val="20.0"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="20.0"/>
-      <color rgb="FF000000"/>
-      <name val="&quot;Arial&quot;"/>
-    </font>
-    <font>
-      <sz val="20.0"/>
-      <color theme="1"/>
-      <name val="Serif"/>
     </font>
     <font>
       <sz val="11.0"/>
       <color rgb="FFD4D4D4"/>
       <name val="&quot;Droid Sans Mono&quot;"/>
-    </font>
-    <font>
-      <i/>
-      <color theme="1"/>
-      <name val="Arial"/>
     </font>
     <font>
       <sz val="11.0"/>
@@ -2617,9 +2546,6 @@
       <name val="Docs-Helvetica"/>
     </font>
     <font>
-      <color rgb="FF000000"/>
-    </font>
-    <font>
       <sz val="12.0"/>
       <color rgb="FF212121"/>
       <name val="&quot;Noto Serif&quot;"/>
@@ -2629,7 +2555,11 @@
       <color rgb="FF212121"/>
       <name val="&quot;Noto Sans&quot;"/>
     </font>
-    <font/>
+    <font>
+      <sz val="14.0"/>
+      <color rgb="FF505050"/>
+      <name val="Helvetica"/>
+    </font>
     <font>
       <sz val="11.0"/>
       <color rgb="FF000000"/>
@@ -2671,6 +2601,11 @@
       <name val="Serif"/>
     </font>
     <font>
+      <sz val="11.0"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
       <sz val="9.0"/>
       <color theme="1"/>
       <name val="Arial"/>
@@ -2689,6 +2624,11 @@
       <sz val="12.0"/>
       <color theme="1"/>
       <name val="Serif"/>
+    </font>
+    <font>
+      <sz val="17.0"/>
+      <color theme="1"/>
+      <name val="Arial"/>
     </font>
     <font>
       <sz val="13.0"/>
@@ -2727,7 +2667,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="41">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -2738,10 +2678,10 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -2750,87 +2690,88 @@
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="3" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="3" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="23" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="23" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="24" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="25" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="26" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="27" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="26" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="28" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="27" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="28" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="29" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
@@ -2841,25 +2782,6 @@
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="32" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="33" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="34" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="35" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="36" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="37" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="38" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
@@ -3138,14 +3060,16 @@
       <c r="A2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
+      <c r="E2" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
@@ -3167,17 +3091,19 @@
       <c r="X2" s="2"/>
     </row>
     <row r="3">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
@@ -3200,16 +3126,20 @@
     </row>
     <row r="4">
       <c r="A4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="B4" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
+      <c r="C4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
@@ -3232,16 +3162,18 @@
     </row>
     <row r="5">
       <c r="A5" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>15</v>
+        <v>18</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
+      <c r="E5" s="3" t="s">
+        <v>20</v>
+      </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
@@ -3263,17 +3195,19 @@
       <c r="X5" s="2"/>
     </row>
     <row r="6">
-      <c r="A6" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>15</v>
+      <c r="A6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
+      <c r="E6" s="3" t="s">
+        <v>20</v>
+      </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
@@ -3295,14 +3229,14 @@
       <c r="X6" s="2"/>
     </row>
     <row r="7">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>15</v>
+      <c r="C7" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="3" t="s">
@@ -3329,19 +3263,18 @@
       <c r="X7" s="2"/>
     </row>
     <row r="8">
-      <c r="A8" s="3" t="s">
-        <v>21</v>
+      <c r="A8" s="3" t="str">
+        <f t="shared" ref="A8:A13" si="1">CONCAT("mouse ",A2)</f>
+        <v>mouse renal pericyte</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>23</v>
+        <v>8</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="D8" s="2"/>
-      <c r="E8" s="3" t="s">
-        <v>24</v>
-      </c>
+      <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
@@ -3363,18 +3296,17 @@
       <c r="X8" s="2"/>
     </row>
     <row r="9">
-      <c r="A9" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>28</v>
-      </c>
+      <c r="A9" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>mouse medullary collecting duct cell</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
@@ -3397,18 +3329,17 @@
       <c r="X9" s="2"/>
     </row>
     <row r="10">
-      <c r="A10" s="11" t="s">
-        <v>29</v>
+      <c r="A10" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>mouse paranephric body adipocyte</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>32</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
@@ -3431,18 +3362,17 @@
       <c r="X10" s="2"/>
     </row>
     <row r="11">
-      <c r="A11" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>35</v>
-      </c>
+      <c r="A11" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>mouse proximal tubule S1/S2 cell</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
@@ -3465,18 +3395,17 @@
       <c r="X11" s="2"/>
     </row>
     <row r="12">
-      <c r="A12" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>38</v>
-      </c>
+      <c r="A12" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>mouse proximal tubule S3 type 1 cell </v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
@@ -3499,18 +3428,17 @@
       <c r="X12" s="2"/>
     </row>
     <row r="13">
-      <c r="A13" s="3" t="s">
-        <v>39</v>
+      <c r="A13" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>mouse proximal tubule S3 type 2 cell</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D13" s="13" t="s">
-        <v>41</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
@@ -3533,14 +3461,14 @@
       <c r="X13" s="2"/>
     </row>
     <row r="14">
-      <c r="A14" s="3" t="s">
-        <v>42</v>
+      <c r="A14" s="7" t="s">
+        <v>23</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>31</v>
+        <v>24</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>25</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
@@ -3565,18 +3493,16 @@
       <c r="X14" s="2"/>
     </row>
     <row r="15">
-      <c r="A15" s="12" t="s">
-        <v>43</v>
+      <c r="A15" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D15" s="11" t="s">
-        <v>45</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
@@ -3599,19 +3525,17 @@
       <c r="X15" s="2"/>
     </row>
     <row r="16">
-      <c r="A16" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>48</v>
+      <c r="A16" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>25</v>
       </c>
       <c r="D16" s="2"/>
-      <c r="E16" s="3" t="s">
-        <v>49</v>
-      </c>
+      <c r="E16" s="2"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
@@ -3633,21 +3557,17 @@
       <c r="X16" s="2"/>
     </row>
     <row r="17">
-      <c r="A17" s="14" t="s">
-        <v>50</v>
+      <c r="A17" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>49</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
@@ -3669,19 +3589,17 @@
       <c r="X17" s="2"/>
     </row>
     <row r="18">
-      <c r="A18" s="1" t="s">
-        <v>53</v>
+      <c r="A18" s="3" t="s">
+        <v>31</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="D18" s="2"/>
-      <c r="E18" s="3" t="s">
-        <v>49</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D18" s="3"/>
+      <c r="E18" s="2"/>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
@@ -3703,19 +3621,19 @@
       <c r="X18" s="2"/>
     </row>
     <row r="19">
-      <c r="A19" s="3" t="s">
-        <v>54</v>
+      <c r="A19" s="6" t="s">
+        <v>32</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="D19" s="2"/>
-      <c r="E19" s="3" t="s">
-        <v>49</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E19" s="2"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
@@ -3738,18 +3656,18 @@
     </row>
     <row r="20">
       <c r="A20" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="D20" s="2"/>
-      <c r="E20" s="3" t="s">
-        <v>49</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E20" s="2"/>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
@@ -3771,21 +3689,17 @@
       <c r="X20" s="2"/>
     </row>
     <row r="21">
-      <c r="A21" s="6" t="s">
-        <v>56</v>
+      <c r="A21" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>49</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
@@ -3807,21 +3721,17 @@
       <c r="X21" s="2"/>
     </row>
     <row r="22">
-      <c r="A22" s="3" t="str">
-        <f t="shared" ref="A22:A25" si="1">CONCAT("mouse ",A18)</f>
-        <v>mouse mTEC I</v>
-      </c>
-      <c r="B22" s="2" t="str">
-        <f t="shared" ref="B22:B25" si="2">A18</f>
-        <v>mTEC I</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>48</v>
+      <c r="A22" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>30</v>
       </c>
       <c r="D22" s="2"/>
-      <c r="E22" s="3" t="s">
-        <v>49</v>
-      </c>
+      <c r="E22" s="2"/>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
@@ -3843,21 +3753,17 @@
       <c r="X22" s="2"/>
     </row>
     <row r="23">
-      <c r="A23" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>mouse mTEC II</v>
-      </c>
-      <c r="B23" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>mTEC II</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>48</v>
+      <c r="A23" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>40</v>
       </c>
       <c r="D23" s="2"/>
-      <c r="E23" s="3" t="s">
-        <v>49</v>
-      </c>
+      <c r="E23" s="2"/>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
@@ -3879,21 +3785,17 @@
       <c r="X23" s="2"/>
     </row>
     <row r="24">
-      <c r="A24" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>mouse mTEC III</v>
-      </c>
-      <c r="B24" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>mTEC III</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>48</v>
+      <c r="A24" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>40</v>
       </c>
       <c r="D24" s="2"/>
-      <c r="E24" s="3" t="s">
-        <v>49</v>
-      </c>
+      <c r="E24" s="2"/>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
@@ -3915,25 +3817,20 @@
       <c r="X24" s="2"/>
     </row>
     <row r="25">
-      <c r="A25" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>mouse mTEC IV</v>
-      </c>
-      <c r="B25" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>mTEC IV</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>49</v>
-      </c>
+      <c r="A25" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
@@ -3953,18 +3850,16 @@
     </row>
     <row r="26">
       <c r="A26" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>61</v>
+        <v>43</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>40</v>
       </c>
       <c r="D26" s="2"/>
-      <c r="E26" s="3" t="s">
-        <v>62</v>
-      </c>
+      <c r="E26" s="2"/>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
@@ -3987,18 +3882,16 @@
     </row>
     <row r="27">
       <c r="A27" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>61</v>
+        <v>44</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>40</v>
       </c>
       <c r="D27" s="2"/>
-      <c r="E27" s="3" t="s">
-        <v>62</v>
-      </c>
+      <c r="E27" s="2"/>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
@@ -4021,20 +3914,16 @@
     </row>
     <row r="28">
       <c r="A28" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="E28" s="4" t="s">
-        <v>68</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
@@ -4057,18 +3946,16 @@
     </row>
     <row r="29">
       <c r="A29" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>61</v>
+        <v>46</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>40</v>
       </c>
       <c r="D29" s="2"/>
-      <c r="E29" s="3" t="s">
-        <v>71</v>
-      </c>
+      <c r="E29" s="2"/>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
@@ -4091,18 +3978,16 @@
     </row>
     <row r="30">
       <c r="A30" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>61</v>
+        <v>48</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>40</v>
       </c>
       <c r="D30" s="2"/>
-      <c r="E30" s="3" t="s">
-        <v>71</v>
-      </c>
+      <c r="E30" s="2"/>
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
@@ -4125,18 +4010,16 @@
     </row>
     <row r="31">
       <c r="A31" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>61</v>
+        <v>49</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>40</v>
       </c>
       <c r="D31" s="2"/>
-      <c r="E31" s="3" t="s">
-        <v>71</v>
-      </c>
+      <c r="E31" s="2"/>
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
@@ -4158,15 +4041,14 @@
       <c r="X31" s="2"/>
     </row>
     <row r="32">
-      <c r="A32" s="3" t="str">
-        <f t="shared" ref="A32:A37" si="3">CONCAT("mouse ",A26)</f>
-        <v>mouse renal pericyte</v>
+      <c r="A32" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>61</v>
+        <v>51</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>52</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
@@ -4191,21 +4073,24 @@
       <c r="X32" s="2"/>
     </row>
     <row r="33">
-      <c r="A33" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>mouse medullary collecting duct cell</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="D33" s="2"/>
+      <c r="A33" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D33" s="9" t="s">
+        <v>54</v>
+      </c>
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
-      <c r="H33" s="2"/>
+      <c r="H33" s="4" t="s">
+        <v>52</v>
+      </c>
       <c r="I33" s="2"/>
       <c r="J33" s="2"/>
       <c r="K33" s="2"/>
@@ -4224,15 +4109,14 @@
       <c r="X33" s="2"/>
     </row>
     <row r="34">
-      <c r="A34" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>mouse paranephric body adipocyte</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>61</v>
+      <c r="A34" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>52</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
@@ -4257,19 +4141,22 @@
       <c r="X34" s="2"/>
     </row>
     <row r="35">
-      <c r="A35" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>mouse proximal tubule S1/S2 cell</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="C35" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="D35" s="2"/>
+      <c r="A35" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>58</v>
+      </c>
       <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
+      <c r="F35" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="G35" s="2"/>
       <c r="H35" s="2"/>
       <c r="I35" s="2"/>
@@ -4290,19 +4177,20 @@
       <c r="X35" s="2"/>
     </row>
     <row r="36">
-      <c r="A36" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>mouse proximal tubule S3 type 1 cell </v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>61</v>
+      <c r="A36" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>52</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
+      <c r="F36" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="G36" s="2"/>
       <c r="H36" s="2"/>
       <c r="I36" s="2"/>
@@ -4323,15 +4211,15 @@
       <c r="X36" s="2"/>
     </row>
     <row r="37">
-      <c r="A37" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>mouse proximal tubule S3 type 2 cell</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="C37" s="5" t="s">
-        <v>61</v>
+      <c r="A37" s="2" t="str">
+        <f t="shared" ref="A37:A40" si="2">CONCAT("mouse ",A33)</f>
+        <v>mouse dipeptidyl peptidase–4–expressing (DPP4+) cell</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>52</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
@@ -4356,14 +4244,15 @@
       <c r="X37" s="2"/>
     </row>
     <row r="38">
-      <c r="A38" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="C38" s="5" t="s">
-        <v>76</v>
+      <c r="A38" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>mouse preadipocyte</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>52</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
@@ -4388,14 +4277,15 @@
       <c r="X38" s="2"/>
     </row>
     <row r="39">
-      <c r="A39" s="3" t="s">
-        <v>77</v>
+      <c r="A39" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>mouse ICAM1+ preadipocyte</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="C39" s="5" t="s">
-        <v>76</v>
+        <v>57</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>52</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
@@ -4420,14 +4310,15 @@
       <c r="X39" s="2"/>
     </row>
     <row r="40">
-      <c r="A40" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="C40" s="5" t="s">
-        <v>76</v>
+      <c r="A40" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>mouse CD142+ preadipocyte</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>52</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
@@ -4453,15 +4344,17 @@
     </row>
     <row r="41">
       <c r="A41" s="3" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="C41" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="D41" s="2"/>
+        <v>63</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>64</v>
+      </c>
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
       <c r="G41" s="2"/>
@@ -4484,16 +4377,17 @@
       <c r="X41" s="2"/>
     </row>
     <row r="42">
-      <c r="A42" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="C42" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="D42" s="3"/>
+      <c r="A42" s="2" t="str">
+        <f t="shared" ref="A42:A45" si="3">CONCAT("human " ,A33)</f>
+        <v>human dipeptidyl peptidase–4–expressing (DPP4+) cell</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D42" s="2"/>
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>
       <c r="G42" s="2"/>
@@ -4516,18 +4410,17 @@
       <c r="X42" s="2"/>
     </row>
     <row r="43">
-      <c r="A43" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="C43" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>84</v>
-      </c>
+      <c r="A43" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>human preadipocyte</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D43" s="2"/>
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
       <c r="G43" s="2"/>
@@ -4550,18 +4443,17 @@
       <c r="X43" s="2"/>
     </row>
     <row r="44">
-      <c r="A44" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="B44" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="C44" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="D44" s="3" t="s">
-        <v>84</v>
-      </c>
+      <c r="A44" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>human ICAM1+ preadipocyte</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D44" s="2"/>
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
       <c r="G44" s="2"/>
@@ -4584,14 +4476,15 @@
       <c r="X44" s="2"/>
     </row>
     <row r="45">
-      <c r="A45" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="C45" s="5" t="s">
-        <v>81</v>
+      <c r="A45" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>human CD142+ preadipocyte</v>
+      </c>
+      <c r="B45" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>52</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" s="2"/>
@@ -4617,13 +4510,13 @@
     </row>
     <row r="46">
       <c r="A46" s="3" t="s">
-        <v>88</v>
+        <v>65</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="C46" s="5" t="s">
-        <v>81</v>
+        <v>62</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>52</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" s="2"/>
@@ -4648,14 +4541,14 @@
       <c r="X46" s="2"/>
     </row>
     <row r="47">
-      <c r="A47" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="B47" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="C47" s="5" t="s">
-        <v>91</v>
+      <c r="A47" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C47" s="10" t="s">
+        <v>68</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" s="2"/>
@@ -4681,15 +4574,17 @@
     </row>
     <row r="48">
       <c r="A48" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="B48" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="C48" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="D48" s="2"/>
+        <v>69</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C48" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>70</v>
+      </c>
       <c r="E48" s="2"/>
       <c r="F48" s="2"/>
       <c r="G48" s="2"/>
@@ -4712,17 +4607,19 @@
       <c r="X48" s="2"/>
     </row>
     <row r="49">
-      <c r="A49" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="B49" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="C49" s="5" t="s">
-        <v>91</v>
+      <c r="A49" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C49" s="10" t="s">
+        <v>68</v>
       </c>
       <c r="D49" s="2"/>
-      <c r="E49" s="2"/>
+      <c r="E49" s="11" t="s">
+        <v>72</v>
+      </c>
       <c r="F49" s="2"/>
       <c r="G49" s="2"/>
       <c r="H49" s="2"/>
@@ -4744,17 +4641,19 @@
       <c r="X49" s="2"/>
     </row>
     <row r="50">
-      <c r="A50" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="B50" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="C50" s="5" t="s">
-        <v>91</v>
+      <c r="A50" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C50" s="10" t="s">
+        <v>68</v>
       </c>
       <c r="D50" s="2"/>
-      <c r="E50" s="2"/>
+      <c r="E50" s="3" t="s">
+        <v>74</v>
+      </c>
       <c r="F50" s="2"/>
       <c r="G50" s="2"/>
       <c r="H50" s="2"/>
@@ -4777,16 +4676,20 @@
     </row>
     <row r="51">
       <c r="A51" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="B51" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="C51" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="D51" s="2"/>
-      <c r="E51" s="2"/>
+        <v>75</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C51" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>77</v>
+      </c>
       <c r="F51" s="2"/>
       <c r="G51" s="2"/>
       <c r="H51" s="2"/>
@@ -4809,16 +4712,18 @@
     </row>
     <row r="52">
       <c r="A52" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="B52" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="C52" s="5" t="s">
-        <v>91</v>
+        <v>78</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C52" s="10" t="s">
+        <v>68</v>
       </c>
       <c r="D52" s="2"/>
-      <c r="E52" s="2"/>
+      <c r="E52" s="11" t="s">
+        <v>79</v>
+      </c>
       <c r="F52" s="2"/>
       <c r="G52" s="2"/>
       <c r="H52" s="2"/>
@@ -4840,14 +4745,14 @@
       <c r="X52" s="2"/>
     </row>
     <row r="53">
-      <c r="A53" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="B53" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="C53" s="5" t="s">
-        <v>91</v>
+      <c r="A53" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B53" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="C53" s="10" t="s">
+        <v>68</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" s="2"/>
@@ -4872,14 +4777,14 @@
       <c r="X53" s="2"/>
     </row>
     <row r="54">
-      <c r="A54" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="B54" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="C54" s="5" t="s">
-        <v>91</v>
+      <c r="A54" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B54" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="C54" s="10" t="s">
+        <v>68</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" s="2"/>
@@ -4905,13 +4810,13 @@
     </row>
     <row r="55">
       <c r="A55" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="B55" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="C55" s="5" t="s">
-        <v>91</v>
+        <v>82</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C55" s="10" t="s">
+        <v>68</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" s="2"/>
@@ -4936,14 +4841,14 @@
       <c r="X55" s="2"/>
     </row>
     <row r="56">
-      <c r="A56" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B56" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="C56" s="5" t="s">
-        <v>103</v>
+      <c r="A56" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B56" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="C56" s="10" t="s">
+        <v>68</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" s="2"/>
@@ -4968,24 +4873,22 @@
       <c r="X56" s="2"/>
     </row>
     <row r="57">
-      <c r="A57" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="C57" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="D57" s="16" t="s">
-        <v>105</v>
+      <c r="A57" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C57" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>85</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" s="2"/>
       <c r="G57" s="2"/>
-      <c r="H57" s="5" t="s">
-        <v>103</v>
-      </c>
+      <c r="H57" s="2"/>
       <c r="I57" s="2"/>
       <c r="J57" s="2"/>
       <c r="K57" s="2"/>
@@ -5005,13 +4908,13 @@
     </row>
     <row r="58">
       <c r="A58" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="B58" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C58" s="5" t="s">
-        <v>103</v>
+        <v>86</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C58" s="10" t="s">
+        <v>68</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" s="2"/>
@@ -5036,22 +4939,18 @@
       <c r="X58" s="2"/>
     </row>
     <row r="59">
-      <c r="A59" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C59" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="D59" s="3" t="s">
-        <v>108</v>
-      </c>
+      <c r="A59" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B59" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="C59" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="D59" s="2"/>
       <c r="E59" s="2"/>
-      <c r="F59" s="1" t="s">
-        <v>109</v>
-      </c>
+      <c r="F59" s="2"/>
       <c r="G59" s="2"/>
       <c r="H59" s="2"/>
       <c r="I59" s="2"/>
@@ -5072,19 +4971,19 @@
       <c r="X59" s="2"/>
     </row>
     <row r="60">
-      <c r="A60" s="15" t="s">
-        <v>110</v>
+      <c r="A60" s="3" t="s">
+        <v>90</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C60" s="5" t="s">
-        <v>103</v>
+        <v>87</v>
+      </c>
+      <c r="C60" s="10" t="s">
+        <v>89</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" s="2"/>
-      <c r="F60" s="1" t="s">
-        <v>109</v>
+      <c r="F60" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="G60" s="2"/>
       <c r="H60" s="2"/>
@@ -5106,15 +5005,14 @@
       <c r="X60" s="2"/>
     </row>
     <row r="61">
-      <c r="A61" s="2" t="str">
-        <f t="shared" ref="A61:A64" si="4">CONCAT("mouse ",A57)</f>
-        <v>mouse dipeptidyl peptidase–4–expressing (DPP4+) cell</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C61" s="5" t="s">
-        <v>103</v>
+      <c r="A61" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B61" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="C61" s="10" t="s">
+        <v>89</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" s="2"/>
@@ -5139,15 +5037,14 @@
       <c r="X61" s="2"/>
     </row>
     <row r="62">
-      <c r="A62" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>mouse preadipocyte</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C62" s="5" t="s">
-        <v>103</v>
+      <c r="A62" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C62" s="10" t="s">
+        <v>95</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" s="2"/>
@@ -5172,15 +5069,14 @@
       <c r="X62" s="2"/>
     </row>
     <row r="63">
-      <c r="A63" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>mouse ICAM1+ preadipocyte</v>
+      <c r="A63" s="3" t="s">
+        <v>96</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="C63" s="5" t="s">
-        <v>103</v>
+        <v>97</v>
+      </c>
+      <c r="C63" s="10" t="s">
+        <v>98</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" s="2"/>
@@ -5205,15 +5101,14 @@
       <c r="X63" s="2"/>
     </row>
     <row r="64">
-      <c r="A64" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>mouse CD142+ preadipocyte</v>
-      </c>
-      <c r="B64" s="15" t="s">
-        <v>111</v>
-      </c>
-      <c r="C64" s="5" t="s">
-        <v>103</v>
+      <c r="A64" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C64" s="10" t="s">
+        <v>98</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" s="2"/>
@@ -5239,17 +5134,15 @@
     </row>
     <row r="65">
       <c r="A65" s="3" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C65" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="D65" s="3" t="s">
-        <v>113</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="C65" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="D65" s="2"/>
       <c r="E65" s="2"/>
       <c r="F65" s="2"/>
       <c r="G65" s="2"/>
@@ -5272,15 +5165,14 @@
       <c r="X65" s="2"/>
     </row>
     <row r="66">
-      <c r="A66" s="2" t="str">
-        <f t="shared" ref="A66:A69" si="5">CONCAT("human " ,A57)</f>
-        <v>human dipeptidyl peptidase–4–expressing (DPP4+) cell</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C66" s="5" t="s">
-        <v>103</v>
+      <c r="A66" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C66" s="11" t="s">
+        <v>101</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" s="2"/>
@@ -5305,15 +5197,14 @@
       <c r="X66" s="2"/>
     </row>
     <row r="67">
-      <c r="A67" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>human preadipocyte</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C67" s="5" t="s">
+      <c r="A67" s="3" t="s">
         <v>103</v>
+      </c>
+      <c r="B67" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C67" s="11" t="s">
+        <v>104</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" s="2"/>
@@ -5338,15 +5229,14 @@
       <c r="X67" s="2"/>
     </row>
     <row r="68">
-      <c r="A68" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>human ICAM1+ preadipocyte</v>
+      <c r="A68" s="3" t="s">
+        <v>105</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="C68" s="5" t="s">
         <v>103</v>
+      </c>
+      <c r="C68" s="11" t="s">
+        <v>104</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" s="2"/>
@@ -5371,15 +5261,14 @@
       <c r="X68" s="2"/>
     </row>
     <row r="69">
-      <c r="A69" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>human CD142+ preadipocyte</v>
-      </c>
-      <c r="B69" s="15" t="s">
-        <v>110</v>
-      </c>
-      <c r="C69" s="5" t="s">
-        <v>103</v>
+      <c r="A69" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C69" s="10" t="s">
+        <v>108</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" s="2"/>
@@ -5404,14 +5293,14 @@
       <c r="X69" s="2"/>
     </row>
     <row r="70">
-      <c r="A70" s="3" t="s">
-        <v>114</v>
+      <c r="A70" s="1" t="s">
+        <v>109</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="C70" s="5" t="s">
-        <v>103</v>
+        <v>15</v>
+      </c>
+      <c r="C70" s="10" t="s">
+        <v>108</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" s="2"/>
@@ -5437,13 +5326,13 @@
     </row>
     <row r="71">
       <c r="A71" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="B71" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C71" s="17" t="s">
-        <v>116</v>
+        <v>110</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C71" s="10" t="s">
+        <v>108</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" s="2"/>
@@ -5468,18 +5357,16 @@
       <c r="X71" s="2"/>
     </row>
     <row r="72">
-      <c r="A72" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="B72" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C72" s="17" t="s">
-        <v>116</v>
-      </c>
-      <c r="D72" s="3" t="s">
-        <v>118</v>
-      </c>
+      <c r="A72" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B72" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="C72" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="D72" s="2"/>
       <c r="E72" s="2"/>
       <c r="F72" s="2"/>
       <c r="G72" s="2"/>
@@ -5503,18 +5390,16 @@
     </row>
     <row r="73">
       <c r="A73" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="B73" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C73" s="17" t="s">
-        <v>116</v>
+        <v>113</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C73" s="10" t="s">
+        <v>108</v>
       </c>
       <c r="D73" s="2"/>
-      <c r="E73" s="18" t="s">
-        <v>120</v>
-      </c>
+      <c r="E73" s="2"/>
       <c r="F73" s="2"/>
       <c r="G73" s="2"/>
       <c r="H73" s="2"/>
@@ -5536,19 +5421,17 @@
       <c r="X73" s="2"/>
     </row>
     <row r="74">
-      <c r="A74" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="B74" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C74" s="17" t="s">
-        <v>116</v>
+      <c r="A74" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C74" s="10" t="s">
+        <v>108</v>
       </c>
       <c r="D74" s="2"/>
-      <c r="E74" s="3" t="s">
-        <v>122</v>
-      </c>
+      <c r="E74" s="2"/>
       <c r="F74" s="2"/>
       <c r="G74" s="2"/>
       <c r="H74" s="2"/>
@@ -5571,20 +5454,16 @@
     </row>
     <row r="75">
       <c r="A75" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="B75" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C75" s="17" t="s">
-        <v>116</v>
-      </c>
-      <c r="D75" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="E75" s="3" t="s">
-        <v>125</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C75" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="D75" s="2"/>
+      <c r="E75" s="2"/>
       <c r="F75" s="2"/>
       <c r="G75" s="2"/>
       <c r="H75" s="2"/>
@@ -5607,18 +5486,18 @@
     </row>
     <row r="76">
       <c r="A76" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="B76" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C76" s="17" t="s">
         <v>116</v>
       </c>
-      <c r="D76" s="2"/>
-      <c r="E76" s="18" t="s">
-        <v>127</v>
-      </c>
+      <c r="B76" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="C76" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="E76" s="2"/>
       <c r="F76" s="2"/>
       <c r="G76" s="2"/>
       <c r="H76" s="2"/>
@@ -5640,16 +5519,18 @@
       <c r="X76" s="2"/>
     </row>
     <row r="77">
-      <c r="A77" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="B77" s="19" t="s">
-        <v>115</v>
-      </c>
-      <c r="C77" s="17" t="s">
-        <v>116</v>
-      </c>
-      <c r="D77" s="2"/>
+      <c r="A77" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C77" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>119</v>
+      </c>
       <c r="E77" s="2"/>
       <c r="F77" s="2"/>
       <c r="G77" s="2"/>
@@ -5672,16 +5553,18 @@
       <c r="X77" s="2"/>
     </row>
     <row r="78">
-      <c r="A78" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="B78" s="19" t="s">
-        <v>115</v>
-      </c>
-      <c r="C78" s="17" t="s">
-        <v>116</v>
-      </c>
-      <c r="D78" s="2"/>
+      <c r="A78" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B78" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="C78" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="D78" s="3" t="s">
+        <v>121</v>
+      </c>
       <c r="E78" s="2"/>
       <c r="F78" s="2"/>
       <c r="G78" s="2"/>
@@ -5704,14 +5587,14 @@
       <c r="X78" s="2"/>
     </row>
     <row r="79">
-      <c r="A79" s="3" t="s">
-        <v>130</v>
+      <c r="A79" s="14" t="s">
+        <v>122</v>
       </c>
       <c r="B79" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="C79" s="17" t="s">
-        <v>116</v>
+      <c r="C79" s="10" t="s">
+        <v>108</v>
       </c>
       <c r="D79" s="2"/>
       <c r="E79" s="2"/>
@@ -5736,14 +5619,14 @@
       <c r="X79" s="2"/>
     </row>
     <row r="80">
-      <c r="A80" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="B80" s="19" t="s">
-        <v>126</v>
-      </c>
-      <c r="C80" s="17" t="s">
-        <v>116</v>
+      <c r="A80" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B80" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="C80" s="10" t="s">
+        <v>108</v>
       </c>
       <c r="D80" s="2"/>
       <c r="E80" s="2"/>
@@ -5768,19 +5651,19 @@
       <c r="X80" s="2"/>
     </row>
     <row r="81">
-      <c r="A81" s="3" t="s">
-        <v>132</v>
+      <c r="A81" s="14" t="s">
+        <v>125</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C81" s="17" t="s">
-        <v>116</v>
-      </c>
-      <c r="D81" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="E81" s="2"/>
+        <v>126</v>
+      </c>
+      <c r="C81" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="D81" s="2"/>
+      <c r="E81" s="3" t="s">
+        <v>128</v>
+      </c>
       <c r="F81" s="2"/>
       <c r="G81" s="2"/>
       <c r="H81" s="2"/>
@@ -5802,17 +5685,19 @@
       <c r="X81" s="2"/>
     </row>
     <row r="82">
-      <c r="A82" s="1" t="s">
-        <v>134</v>
+      <c r="A82" s="3" t="s">
+        <v>129</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C82" s="17" t="s">
-        <v>116</v>
+        <v>126</v>
+      </c>
+      <c r="C82" s="10" t="s">
+        <v>127</v>
       </c>
       <c r="D82" s="2"/>
-      <c r="E82" s="2"/>
+      <c r="E82" s="3" t="s">
+        <v>128</v>
+      </c>
       <c r="F82" s="2"/>
       <c r="G82" s="2"/>
       <c r="H82" s="2"/>
@@ -5835,16 +5720,18 @@
     </row>
     <row r="83">
       <c r="A83" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="B83" s="18" t="s">
-        <v>136</v>
-      </c>
-      <c r="C83" s="17" t="s">
-        <v>137</v>
+        <v>130</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C83" s="10" t="s">
+        <v>127</v>
       </c>
       <c r="D83" s="2"/>
-      <c r="E83" s="2"/>
+      <c r="E83" s="3" t="s">
+        <v>128</v>
+      </c>
       <c r="F83" s="2"/>
       <c r="G83" s="2"/>
       <c r="H83" s="2"/>
@@ -5866,20 +5753,20 @@
       <c r="X83" s="2"/>
     </row>
     <row r="84">
-      <c r="A84" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="B84" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="C84" s="17" t="s">
-        <v>137</v>
+      <c r="A84" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B84" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="C84" s="10" t="s">
+        <v>127</v>
       </c>
       <c r="D84" s="2"/>
-      <c r="E84" s="2"/>
-      <c r="F84" s="3" t="s">
-        <v>139</v>
-      </c>
+      <c r="E84" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="F84" s="2"/>
       <c r="G84" s="2"/>
       <c r="H84" s="2"/>
       <c r="I84" s="2"/>
@@ -5900,17 +5787,17 @@
       <c r="X84" s="2"/>
     </row>
     <row r="85">
-      <c r="A85" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="B85" s="20" t="s">
-        <v>141</v>
-      </c>
-      <c r="C85" s="17" t="s">
-        <v>137</v>
+      <c r="A85" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C85" s="10" t="s">
+        <v>127</v>
       </c>
       <c r="D85" s="2"/>
-      <c r="E85" s="2"/>
+      <c r="E85" s="3"/>
       <c r="F85" s="2"/>
       <c r="G85" s="2"/>
       <c r="H85" s="2"/>
@@ -5933,16 +5820,18 @@
     </row>
     <row r="86">
       <c r="A86" s="3" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C86" s="17" t="s">
-        <v>143</v>
+        <v>135</v>
+      </c>
+      <c r="C86" s="10" t="s">
+        <v>127</v>
       </c>
       <c r="D86" s="2"/>
-      <c r="E86" s="2"/>
+      <c r="E86" s="3" t="s">
+        <v>128</v>
+      </c>
       <c r="F86" s="2"/>
       <c r="G86" s="2"/>
       <c r="H86" s="2"/>
@@ -5965,16 +5854,18 @@
     </row>
     <row r="87">
       <c r="A87" s="3" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="C87" s="17" t="s">
-        <v>146</v>
+        <v>137</v>
+      </c>
+      <c r="C87" s="10" t="s">
+        <v>127</v>
       </c>
       <c r="D87" s="2"/>
-      <c r="E87" s="2"/>
+      <c r="E87" s="3" t="s">
+        <v>128</v>
+      </c>
       <c r="F87" s="2"/>
       <c r="G87" s="2"/>
       <c r="H87" s="2"/>
@@ -5996,14 +5887,14 @@
       <c r="X87" s="2"/>
     </row>
     <row r="88">
-      <c r="A88" s="3" t="s">
-        <v>147</v>
+      <c r="A88" s="1" t="s">
+        <v>138</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="C88" s="17" t="s">
-        <v>146</v>
+        <v>36</v>
+      </c>
+      <c r="C88" s="10" t="s">
+        <v>127</v>
       </c>
       <c r="D88" s="2"/>
       <c r="E88" s="2"/>
@@ -6029,13 +5920,13 @@
     </row>
     <row r="89">
       <c r="A89" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="B89" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="C89" s="18" t="s">
-        <v>149</v>
+        <v>139</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C89" s="10" t="s">
+        <v>127</v>
       </c>
       <c r="D89" s="2"/>
       <c r="E89" s="2"/>
@@ -6061,15 +5952,17 @@
     </row>
     <row r="90">
       <c r="A90" s="3" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="C90" s="18" t="s">
-        <v>149</v>
-      </c>
-      <c r="D90" s="2"/>
+        <v>36</v>
+      </c>
+      <c r="C90" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="D90" s="3" t="s">
+        <v>141</v>
+      </c>
       <c r="E90" s="2"/>
       <c r="F90" s="2"/>
       <c r="G90" s="2"/>
@@ -6092,14 +5985,14 @@
       <c r="X90" s="2"/>
     </row>
     <row r="91">
-      <c r="A91" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="B91" s="19" t="s">
-        <v>80</v>
-      </c>
-      <c r="C91" s="18" t="s">
-        <v>152</v>
+      <c r="A91" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B91" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="C91" s="10" t="s">
+        <v>127</v>
       </c>
       <c r="D91" s="2"/>
       <c r="E91" s="2"/>
@@ -6125,13 +6018,13 @@
     </row>
     <row r="92">
       <c r="A92" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="B92" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="C92" s="18" t="s">
-        <v>152</v>
+        <v>143</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C92" s="10" t="s">
+        <v>127</v>
       </c>
       <c r="D92" s="2"/>
       <c r="E92" s="2"/>
@@ -6156,17 +6049,19 @@
       <c r="X92" s="2"/>
     </row>
     <row r="93">
-      <c r="A93" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="B93" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="C93" s="17" t="s">
-        <v>156</v>
+      <c r="A93" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="B93" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C93" s="10" t="s">
+        <v>127</v>
       </c>
       <c r="D93" s="2"/>
-      <c r="E93" s="2"/>
+      <c r="E93" s="3" t="s">
+        <v>128</v>
+      </c>
       <c r="F93" s="2"/>
       <c r="G93" s="2"/>
       <c r="H93" s="2"/>
@@ -6189,16 +6084,18 @@
     </row>
     <row r="94">
       <c r="A94" s="1" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="C94" s="17" t="s">
-        <v>156</v>
+        <v>146</v>
+      </c>
+      <c r="C94" s="10" t="s">
+        <v>127</v>
       </c>
       <c r="D94" s="2"/>
-      <c r="E94" s="2"/>
+      <c r="E94" s="3" t="s">
+        <v>128</v>
+      </c>
       <c r="F94" s="2"/>
       <c r="G94" s="2"/>
       <c r="H94" s="2"/>
@@ -6220,17 +6117,21 @@
       <c r="X94" s="2"/>
     </row>
     <row r="95">
-      <c r="A95" s="3" t="s">
-        <v>158</v>
+      <c r="A95" s="1" t="s">
+        <v>147</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="C95" s="17" t="s">
-        <v>156</v>
-      </c>
-      <c r="D95" s="2"/>
-      <c r="E95" s="2"/>
+        <v>145</v>
+      </c>
+      <c r="C95" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="D95" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="E95" s="3" t="s">
+        <v>128</v>
+      </c>
       <c r="F95" s="2"/>
       <c r="G95" s="2"/>
       <c r="H95" s="2"/>
@@ -6252,17 +6153,19 @@
       <c r="X95" s="2"/>
     </row>
     <row r="96">
-      <c r="A96" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="B96" s="19" t="s">
-        <v>160</v>
-      </c>
-      <c r="C96" s="17" t="s">
-        <v>156</v>
+      <c r="A96" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C96" s="10" t="s">
+        <v>127</v>
       </c>
       <c r="D96" s="2"/>
-      <c r="E96" s="2"/>
+      <c r="E96" s="3" t="s">
+        <v>128</v>
+      </c>
       <c r="F96" s="2"/>
       <c r="G96" s="2"/>
       <c r="H96" s="2"/>
@@ -6284,17 +6187,19 @@
       <c r="X96" s="2"/>
     </row>
     <row r="97">
-      <c r="A97" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="B97" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="C97" s="17" t="s">
-        <v>156</v>
+      <c r="A97" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="B97" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="C97" s="10" t="s">
+        <v>127</v>
       </c>
       <c r="D97" s="2"/>
-      <c r="E97" s="2"/>
+      <c r="E97" s="3" t="s">
+        <v>128</v>
+      </c>
       <c r="F97" s="2"/>
       <c r="G97" s="2"/>
       <c r="H97" s="2"/>
@@ -6317,16 +6222,18 @@
     </row>
     <row r="98">
       <c r="A98" s="3" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="C98" s="17" t="s">
-        <v>156</v>
+        <v>145</v>
+      </c>
+      <c r="C98" s="10" t="s">
+        <v>127</v>
       </c>
       <c r="D98" s="2"/>
-      <c r="E98" s="2"/>
+      <c r="E98" s="3" t="s">
+        <v>128</v>
+      </c>
       <c r="F98" s="2"/>
       <c r="G98" s="2"/>
       <c r="H98" s="2"/>
@@ -6349,16 +6256,18 @@
     </row>
     <row r="99">
       <c r="A99" s="3" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="C99" s="17" t="s">
-        <v>156</v>
+        <v>145</v>
+      </c>
+      <c r="C99" s="10" t="s">
+        <v>127</v>
       </c>
       <c r="D99" s="2"/>
-      <c r="E99" s="2"/>
+      <c r="E99" s="3" t="s">
+        <v>128</v>
+      </c>
       <c r="F99" s="2"/>
       <c r="G99" s="2"/>
       <c r="H99" s="2"/>
@@ -6380,19 +6289,19 @@
       <c r="X99" s="2"/>
     </row>
     <row r="100">
-      <c r="A100" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="B100" s="19" t="s">
-        <v>161</v>
-      </c>
-      <c r="C100" s="17" t="s">
-        <v>156</v>
-      </c>
-      <c r="D100" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="E100" s="2"/>
+      <c r="A100" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="B100" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="C100" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="D100" s="2"/>
+      <c r="E100" s="3" t="s">
+        <v>128</v>
+      </c>
       <c r="F100" s="2"/>
       <c r="G100" s="2"/>
       <c r="H100" s="2"/>
@@ -6415,18 +6324,18 @@
     </row>
     <row r="101">
       <c r="A101" s="3" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="C101" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="C101" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="D101" s="2"/>
+      <c r="E101" s="11" t="s">
         <v>156</v>
       </c>
-      <c r="D101" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="E101" s="2"/>
       <c r="F101" s="2"/>
       <c r="G101" s="2"/>
       <c r="H101" s="2"/>
@@ -6449,16 +6358,16 @@
     </row>
     <row r="102">
       <c r="A102" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="B102" s="19" t="s">
-        <v>160</v>
-      </c>
-      <c r="C102" s="17" t="s">
-        <v>156</v>
-      </c>
-      <c r="D102" s="3" t="s">
-        <v>169</v>
+        <v>157</v>
+      </c>
+      <c r="B102" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C102" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="D102" s="15" t="s">
+        <v>159</v>
       </c>
       <c r="E102" s="2"/>
       <c r="F102" s="2"/>
@@ -6482,14 +6391,14 @@
       <c r="X102" s="2"/>
     </row>
     <row r="103">
-      <c r="A103" s="21" t="s">
-        <v>170</v>
+      <c r="A103" s="3" t="s">
+        <v>160</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="C103" s="17" t="s">
-        <v>156</v>
+        <v>161</v>
+      </c>
+      <c r="C103" s="10" t="s">
+        <v>162</v>
       </c>
       <c r="D103" s="2"/>
       <c r="E103" s="2"/>
@@ -6514,14 +6423,14 @@
       <c r="X103" s="2"/>
     </row>
     <row r="104">
-      <c r="A104" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="B104" s="19" t="s">
-        <v>160</v>
-      </c>
-      <c r="C104" s="17" t="s">
-        <v>156</v>
+      <c r="A104" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="B104" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="C104" s="10" t="s">
+        <v>162</v>
       </c>
       <c r="D104" s="2"/>
       <c r="E104" s="2"/>
@@ -6546,19 +6455,17 @@
       <c r="X104" s="2"/>
     </row>
     <row r="105">
-      <c r="A105" s="21" t="s">
-        <v>173</v>
+      <c r="A105" s="1" t="s">
+        <v>164</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="C105" s="17" t="s">
-        <v>175</v>
+        <v>63</v>
+      </c>
+      <c r="C105" s="10" t="s">
+        <v>162</v>
       </c>
       <c r="D105" s="2"/>
-      <c r="E105" s="3" t="s">
-        <v>176</v>
-      </c>
+      <c r="E105" s="2"/>
       <c r="F105" s="2"/>
       <c r="G105" s="2"/>
       <c r="H105" s="2"/>
@@ -6581,19 +6488,19 @@
     </row>
     <row r="106">
       <c r="A106" s="3" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="C106" s="17" t="s">
-        <v>175</v>
+        <v>161</v>
+      </c>
+      <c r="C106" s="10" t="s">
+        <v>162</v>
       </c>
       <c r="D106" s="2"/>
-      <c r="E106" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="F106" s="2"/>
+      <c r="E106" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="F106" s="3"/>
       <c r="G106" s="2"/>
       <c r="H106" s="2"/>
       <c r="I106" s="2"/>
@@ -6614,18 +6521,18 @@
       <c r="X106" s="2"/>
     </row>
     <row r="107">
-      <c r="A107" s="1" t="s">
-        <v>178</v>
+      <c r="A107" s="3" t="s">
+        <v>167</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="C107" s="17" t="s">
-        <v>175</v>
+        <v>161</v>
+      </c>
+      <c r="C107" s="10" t="s">
+        <v>162</v>
       </c>
       <c r="D107" s="2"/>
       <c r="E107" s="3" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="F107" s="2"/>
       <c r="G107" s="2"/>
@@ -6648,19 +6555,17 @@
       <c r="X107" s="2"/>
     </row>
     <row r="108">
-      <c r="A108" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="B108" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="C108" s="17" t="s">
-        <v>175</v>
+      <c r="A108" s="14" t="s">
+        <v>169</v>
+      </c>
+      <c r="B108" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="C108" s="10" t="s">
+        <v>162</v>
       </c>
       <c r="D108" s="2"/>
-      <c r="E108" s="3" t="s">
-        <v>176</v>
-      </c>
+      <c r="E108" s="2"/>
       <c r="F108" s="2"/>
       <c r="G108" s="2"/>
       <c r="H108" s="2"/>
@@ -6682,17 +6587,17 @@
       <c r="X108" s="2"/>
     </row>
     <row r="109">
-      <c r="A109" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="B109" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="C109" s="17" t="s">
-        <v>175</v>
+      <c r="A109" s="14" t="s">
+        <v>170</v>
+      </c>
+      <c r="B109" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="C109" s="10" t="s">
+        <v>162</v>
       </c>
       <c r="D109" s="2"/>
-      <c r="E109" s="3"/>
+      <c r="E109" s="2"/>
       <c r="F109" s="2"/>
       <c r="G109" s="2"/>
       <c r="H109" s="2"/>
@@ -6714,19 +6619,17 @@
       <c r="X109" s="2"/>
     </row>
     <row r="110">
-      <c r="A110" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="B110" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="C110" s="17" t="s">
-        <v>175</v>
+      <c r="A110" s="14" t="s">
+        <v>171</v>
+      </c>
+      <c r="B110" s="16" t="s">
+        <v>169</v>
+      </c>
+      <c r="C110" s="10" t="s">
+        <v>162</v>
       </c>
       <c r="D110" s="2"/>
-      <c r="E110" s="3" t="s">
-        <v>176</v>
-      </c>
+      <c r="E110" s="2"/>
       <c r="F110" s="2"/>
       <c r="G110" s="2"/>
       <c r="H110" s="2"/>
@@ -6749,18 +6652,16 @@
     </row>
     <row r="111">
       <c r="A111" s="3" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="C111" s="17" t="s">
-        <v>175</v>
+        <v>170</v>
+      </c>
+      <c r="C111" s="10" t="s">
+        <v>162</v>
       </c>
       <c r="D111" s="2"/>
-      <c r="E111" s="3" t="s">
-        <v>176</v>
-      </c>
+      <c r="E111" s="2"/>
       <c r="F111" s="2"/>
       <c r="G111" s="2"/>
       <c r="H111" s="2"/>
@@ -6782,14 +6683,14 @@
       <c r="X111" s="2"/>
     </row>
     <row r="112">
-      <c r="A112" s="1" t="s">
-        <v>185</v>
+      <c r="A112" s="14" t="s">
+        <v>173</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="C112" s="17" t="s">
-        <v>175</v>
+        <v>56</v>
+      </c>
+      <c r="C112" s="10" t="s">
+        <v>174</v>
       </c>
       <c r="D112" s="2"/>
       <c r="E112" s="2"/>
@@ -6815,15 +6716,17 @@
     </row>
     <row r="113">
       <c r="A113" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="B113" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="C113" s="17" t="s">
         <v>175</v>
       </c>
-      <c r="D113" s="2"/>
+      <c r="B113" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C113" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="D113" s="3" t="s">
+        <v>176</v>
+      </c>
       <c r="E113" s="2"/>
       <c r="F113" s="2"/>
       <c r="G113" s="2"/>
@@ -6847,16 +6750,16 @@
     </row>
     <row r="114">
       <c r="A114" s="3" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="C114" s="17" t="s">
-        <v>175</v>
-      </c>
-      <c r="D114" s="3" t="s">
-        <v>188</v>
+        <v>63</v>
+      </c>
+      <c r="C114" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="D114" s="1" t="s">
+        <v>178</v>
       </c>
       <c r="E114" s="2"/>
       <c r="F114" s="2"/>
@@ -6881,15 +6784,15 @@
     </row>
     <row r="115">
       <c r="A115" s="1" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="C115" s="17" t="s">
-        <v>175</v>
-      </c>
-      <c r="D115" s="2"/>
+        <v>67</v>
+      </c>
+      <c r="C115" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="D115" s="1"/>
       <c r="E115" s="2"/>
       <c r="F115" s="2"/>
       <c r="G115" s="2"/>
@@ -6912,17 +6815,21 @@
       <c r="X115" s="2"/>
     </row>
     <row r="116">
-      <c r="A116" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="B116" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="C116" s="17" t="s">
-        <v>175</v>
-      </c>
-      <c r="D116" s="2"/>
-      <c r="E116" s="2"/>
+      <c r="A116" s="17" t="s">
+        <v>181</v>
+      </c>
+      <c r="B116" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="C116" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="D116" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="E116" s="3" t="s">
+        <v>184</v>
+      </c>
       <c r="F116" s="2"/>
       <c r="G116" s="2"/>
       <c r="H116" s="2"/>
@@ -6945,17 +6852,19 @@
     </row>
     <row r="117">
       <c r="A117" s="3" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="C117" s="17" t="s">
-        <v>175</v>
-      </c>
-      <c r="D117" s="2"/>
+        <v>154</v>
+      </c>
+      <c r="C117" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="D117" s="1" t="s">
+        <v>187</v>
+      </c>
       <c r="E117" s="3" t="s">
-        <v>176</v>
+        <v>188</v>
       </c>
       <c r="F117" s="2"/>
       <c r="G117" s="2"/>
@@ -6978,19 +6887,17 @@
       <c r="X117" s="2"/>
     </row>
     <row r="118">
-      <c r="A118" s="1" t="s">
-        <v>192</v>
+      <c r="A118" s="3" t="s">
+        <v>189</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="C118" s="17" t="s">
-        <v>175</v>
+        <v>154</v>
+      </c>
+      <c r="C118" s="10" t="s">
+        <v>186</v>
       </c>
       <c r="D118" s="2"/>
-      <c r="E118" s="3" t="s">
-        <v>176</v>
-      </c>
+      <c r="E118" s="2"/>
       <c r="F118" s="2"/>
       <c r="G118" s="2"/>
       <c r="H118" s="2"/>
@@ -7012,20 +6919,18 @@
       <c r="X118" s="2"/>
     </row>
     <row r="119">
-      <c r="A119" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="B119" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="C119" s="17" t="s">
-        <v>175</v>
-      </c>
-      <c r="D119" s="3" t="s">
-        <v>195</v>
-      </c>
+      <c r="A119" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="B119" s="12" t="s">
+        <v>191</v>
+      </c>
+      <c r="C119" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="D119" s="2"/>
       <c r="E119" s="3" t="s">
-        <v>176</v>
+        <v>188</v>
       </c>
       <c r="F119" s="2"/>
       <c r="G119" s="2"/>
@@ -7048,18 +6953,18 @@
       <c r="X119" s="2"/>
     </row>
     <row r="120">
-      <c r="A120" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="B120" s="1" t="s">
+      <c r="A120" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="C120" s="17" t="s">
-        <v>175</v>
+      <c r="B120" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="C120" s="10" t="s">
+        <v>186</v>
       </c>
       <c r="D120" s="2"/>
       <c r="E120" s="3" t="s">
-        <v>176</v>
+        <v>193</v>
       </c>
       <c r="F120" s="2"/>
       <c r="G120" s="2"/>
@@ -7083,18 +6988,16 @@
     </row>
     <row r="121">
       <c r="A121" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="B121" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="C121" s="17" t="s">
-        <v>175</v>
+        <v>194</v>
+      </c>
+      <c r="B121" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="C121" s="10" t="s">
+        <v>186</v>
       </c>
       <c r="D121" s="2"/>
-      <c r="E121" s="3" t="s">
-        <v>176</v>
-      </c>
+      <c r="E121" s="2"/>
       <c r="F121" s="2"/>
       <c r="G121" s="2"/>
       <c r="H121" s="2"/>
@@ -7117,17 +7020,17 @@
     </row>
     <row r="122">
       <c r="A122" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="B122" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="C122" s="17" t="s">
-        <v>175</v>
+        <v>195</v>
+      </c>
+      <c r="B122" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C122" s="10" t="s">
+        <v>196</v>
       </c>
       <c r="D122" s="2"/>
-      <c r="E122" s="3" t="s">
-        <v>176</v>
+      <c r="E122" s="11" t="s">
+        <v>197</v>
       </c>
       <c r="F122" s="2"/>
       <c r="G122" s="2"/>
@@ -7151,18 +7054,16 @@
     </row>
     <row r="123">
       <c r="A123" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="B123" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="C123" s="17" t="s">
-        <v>175</v>
+        <v>198</v>
+      </c>
+      <c r="B123" s="12" t="s">
+        <v>195</v>
+      </c>
+      <c r="C123" s="10" t="s">
+        <v>196</v>
       </c>
       <c r="D123" s="2"/>
-      <c r="E123" s="3" t="s">
-        <v>176</v>
-      </c>
+      <c r="E123" s="2"/>
       <c r="F123" s="2"/>
       <c r="G123" s="2"/>
       <c r="H123" s="2"/>
@@ -7184,19 +7085,17 @@
       <c r="X123" s="2"/>
     </row>
     <row r="124">
-      <c r="A124" s="19" t="s">
-        <v>200</v>
-      </c>
-      <c r="B124" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="C124" s="17" t="s">
-        <v>175</v>
+      <c r="A124" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="B124" s="12" t="s">
+        <v>195</v>
+      </c>
+      <c r="C124" s="10" t="s">
+        <v>196</v>
       </c>
       <c r="D124" s="2"/>
-      <c r="E124" s="3" t="s">
-        <v>176</v>
-      </c>
+      <c r="E124" s="2"/>
       <c r="F124" s="2"/>
       <c r="G124" s="2"/>
       <c r="H124" s="2"/>
@@ -7219,17 +7118,17 @@
     </row>
     <row r="125">
       <c r="A125" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C125" s="17" t="s">
-        <v>146</v>
+        <v>63</v>
+      </c>
+      <c r="C125" s="10" t="s">
+        <v>196</v>
       </c>
       <c r="D125" s="2"/>
-      <c r="E125" s="18" t="s">
-        <v>203</v>
+      <c r="E125" s="1" t="s">
+        <v>201</v>
       </c>
       <c r="F125" s="2"/>
       <c r="G125" s="2"/>
@@ -7253,17 +7152,15 @@
     </row>
     <row r="126">
       <c r="A126" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="B126" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="C126" s="17" t="s">
-        <v>205</v>
-      </c>
-      <c r="D126" s="22" t="s">
-        <v>206</v>
-      </c>
+        <v>202</v>
+      </c>
+      <c r="B126" s="12" t="s">
+        <v>203</v>
+      </c>
+      <c r="C126" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="D126" s="2"/>
       <c r="E126" s="2"/>
       <c r="F126" s="2"/>
       <c r="G126" s="2"/>
@@ -7287,15 +7184,17 @@
     </row>
     <row r="127">
       <c r="A127" s="3" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="C127" s="17" t="s">
-        <v>209</v>
-      </c>
-      <c r="D127" s="2"/>
+        <v>36</v>
+      </c>
+      <c r="C127" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="D127" s="3" t="s">
+        <v>205</v>
+      </c>
       <c r="E127" s="2"/>
       <c r="F127" s="2"/>
       <c r="G127" s="2"/>
@@ -7318,14 +7217,14 @@
       <c r="X127" s="2"/>
     </row>
     <row r="128">
-      <c r="A128" s="3" t="s">
-        <v>210</v>
+      <c r="A128" s="1" t="s">
+        <v>206</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="C128" s="17" t="s">
-        <v>209</v>
+        <v>207</v>
+      </c>
+      <c r="C128" s="10" t="s">
+        <v>196</v>
       </c>
       <c r="D128" s="2"/>
       <c r="E128" s="2"/>
@@ -7351,15 +7250,17 @@
     </row>
     <row r="129">
       <c r="A129" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B129" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="C129" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="D129" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="B129" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C129" s="17" t="s">
-        <v>209</v>
-      </c>
-      <c r="D129" s="2"/>
       <c r="E129" s="2"/>
       <c r="F129" s="2"/>
       <c r="G129" s="2"/>
@@ -7385,17 +7286,17 @@
       <c r="A130" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="B130" s="3" t="s">
+      <c r="B130" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="C130" s="17" t="s">
-        <v>209</v>
-      </c>
-      <c r="D130" s="2"/>
-      <c r="E130" s="3" t="s">
+      <c r="C130" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="D130" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="F130" s="3"/>
+      <c r="E130" s="2"/>
+      <c r="F130" s="2"/>
       <c r="G130" s="2"/>
       <c r="H130" s="2"/>
       <c r="I130" s="2"/>
@@ -7420,15 +7321,13 @@
         <v>214</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="C131" s="17" t="s">
         <v>209</v>
       </c>
+      <c r="C131" s="10" t="s">
+        <v>210</v>
+      </c>
       <c r="D131" s="2"/>
-      <c r="E131" s="3" t="s">
-        <v>215</v>
-      </c>
+      <c r="E131" s="2"/>
       <c r="F131" s="2"/>
       <c r="G131" s="2"/>
       <c r="H131" s="2"/>
@@ -7450,14 +7349,14 @@
       <c r="X131" s="2"/>
     </row>
     <row r="132">
-      <c r="A132" s="21" t="s">
-        <v>216</v>
+      <c r="A132" s="3" t="s">
+        <v>215</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="C132" s="17" t="s">
-        <v>209</v>
+        <v>214</v>
+      </c>
+      <c r="C132" s="10" t="s">
+        <v>210</v>
       </c>
       <c r="D132" s="2"/>
       <c r="E132" s="2"/>
@@ -7482,14 +7381,14 @@
       <c r="X132" s="2"/>
     </row>
     <row r="133">
-      <c r="A133" s="21" t="s">
-        <v>217</v>
+      <c r="A133" s="3" t="s">
+        <v>216</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="C133" s="17" t="s">
-        <v>209</v>
+        <v>214</v>
+      </c>
+      <c r="C133" s="10" t="s">
+        <v>210</v>
       </c>
       <c r="D133" s="2"/>
       <c r="E133" s="2"/>
@@ -7514,14 +7413,14 @@
       <c r="X133" s="2"/>
     </row>
     <row r="134">
-      <c r="A134" s="21" t="s">
+      <c r="A134" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="B134" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="B134" s="23" t="s">
-        <v>216</v>
-      </c>
-      <c r="C134" s="17" t="s">
-        <v>209</v>
+      <c r="C134" s="10" t="s">
+        <v>210</v>
       </c>
       <c r="D134" s="2"/>
       <c r="E134" s="2"/>
@@ -7550,10 +7449,10 @@
         <v>219</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="C135" s="17" t="s">
-        <v>209</v>
+        <v>220</v>
+      </c>
+      <c r="C135" s="10" t="s">
+        <v>210</v>
       </c>
       <c r="D135" s="2"/>
       <c r="E135" s="2"/>
@@ -7578,14 +7477,14 @@
       <c r="X135" s="2"/>
     </row>
     <row r="136">
-      <c r="A136" s="21" t="s">
+      <c r="A136" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="B136" s="12" t="s">
         <v>220</v>
       </c>
-      <c r="B136" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C136" s="17" t="s">
-        <v>221</v>
+      <c r="C136" s="10" t="s">
+        <v>210</v>
       </c>
       <c r="D136" s="2"/>
       <c r="E136" s="2"/>
@@ -7614,15 +7513,15 @@
         <v>222</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C137" s="17" t="s">
-        <v>221</v>
-      </c>
-      <c r="D137" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C137" s="10" t="s">
         <v>223</v>
       </c>
-      <c r="E137" s="2"/>
+      <c r="D137" s="2"/>
+      <c r="E137" s="3" t="s">
+        <v>224</v>
+      </c>
       <c r="F137" s="2"/>
       <c r="G137" s="2"/>
       <c r="H137" s="2"/>
@@ -7644,18 +7543,16 @@
       <c r="X137" s="2"/>
     </row>
     <row r="138">
-      <c r="A138" s="3" t="s">
-        <v>224</v>
+      <c r="A138" s="1" t="s">
+        <v>225</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C138" s="17" t="s">
-        <v>221</v>
-      </c>
-      <c r="D138" s="1" t="s">
-        <v>225</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="C138" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="D138" s="2"/>
       <c r="E138" s="2"/>
       <c r="F138" s="2"/>
       <c r="G138" s="2"/>
@@ -7678,16 +7575,18 @@
       <c r="X138" s="2"/>
     </row>
     <row r="139">
-      <c r="A139" s="1" t="s">
+      <c r="A139" s="3" t="s">
         <v>226</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C139" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="C139" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="D139" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="D139" s="1"/>
       <c r="E139" s="2"/>
       <c r="F139" s="2"/>
       <c r="G139" s="2"/>
@@ -7710,21 +7609,17 @@
       <c r="X139" s="2"/>
     </row>
     <row r="140">
-      <c r="A140" s="24" t="s">
+      <c r="A140" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="B140" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="C140" s="17" t="s">
-        <v>227</v>
-      </c>
-      <c r="D140" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="E140" s="3" t="s">
-        <v>231</v>
-      </c>
+      <c r="B140" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="C140" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="D140" s="2"/>
+      <c r="E140" s="2"/>
       <c r="F140" s="2"/>
       <c r="G140" s="2"/>
       <c r="H140" s="2"/>
@@ -7747,20 +7642,16 @@
     </row>
     <row r="141">
       <c r="A141" s="3" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="C141" s="17" t="s">
-        <v>233</v>
-      </c>
-      <c r="D141" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="E141" s="3" t="s">
-        <v>235</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="C141" s="10" t="s">
+        <v>230</v>
+      </c>
+      <c r="D141" s="2"/>
+      <c r="E141" s="2"/>
       <c r="F141" s="2"/>
       <c r="G141" s="2"/>
       <c r="H141" s="2"/>
@@ -7783,13 +7674,13 @@
     </row>
     <row r="142">
       <c r="A142" s="3" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="C142" s="17" t="s">
-        <v>233</v>
+        <v>67</v>
+      </c>
+      <c r="C142" s="10" t="s">
+        <v>230</v>
       </c>
       <c r="D142" s="2"/>
       <c r="E142" s="2"/>
@@ -7814,16 +7705,18 @@
       <c r="X142" s="2"/>
     </row>
     <row r="143">
-      <c r="A143" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="B143" s="19" t="s">
-        <v>238</v>
-      </c>
-      <c r="C143" s="17" t="s">
+      <c r="A143" s="18" t="s">
+        <v>232</v>
+      </c>
+      <c r="B143" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C143" s="10" t="s">
         <v>233</v>
       </c>
-      <c r="D143" s="2"/>
+      <c r="D143" s="3" t="s">
+        <v>234</v>
+      </c>
       <c r="E143" s="3" t="s">
         <v>235</v>
       </c>
@@ -7848,19 +7741,17 @@
       <c r="X143" s="2"/>
     </row>
     <row r="144">
-      <c r="A144" s="1" t="s">
-        <v>239</v>
+      <c r="A144" s="3" t="s">
+        <v>236</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="C144" s="17" t="s">
+        <v>232</v>
+      </c>
+      <c r="C144" s="10" t="s">
         <v>233</v>
       </c>
       <c r="D144" s="2"/>
-      <c r="E144" s="3" t="s">
-        <v>240</v>
-      </c>
+      <c r="E144" s="2"/>
       <c r="F144" s="2"/>
       <c r="G144" s="2"/>
       <c r="H144" s="2"/>
@@ -7883,12 +7774,12 @@
     </row>
     <row r="145">
       <c r="A145" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="B145" s="19" t="s">
-        <v>201</v>
-      </c>
-      <c r="C145" s="17" t="s">
+        <v>237</v>
+      </c>
+      <c r="B145" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="C145" s="10" t="s">
         <v>233</v>
       </c>
       <c r="D145" s="2"/>
@@ -7915,18 +7806,16 @@
     </row>
     <row r="146">
       <c r="A146" s="3" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C146" s="17" t="s">
-        <v>243</v>
+        <v>239</v>
+      </c>
+      <c r="C146" s="10" t="s">
+        <v>233</v>
       </c>
       <c r="D146" s="2"/>
-      <c r="E146" s="18" t="s">
-        <v>244</v>
-      </c>
+      <c r="E146" s="2"/>
       <c r="F146" s="2"/>
       <c r="G146" s="2"/>
       <c r="H146" s="2"/>
@@ -7948,14 +7837,14 @@
       <c r="X146" s="2"/>
     </row>
     <row r="147">
-      <c r="A147" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="B147" s="19" t="s">
-        <v>242</v>
-      </c>
-      <c r="C147" s="17" t="s">
-        <v>243</v>
+      <c r="A147" s="19" t="s">
+        <v>240</v>
+      </c>
+      <c r="B147" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C147" s="10" t="s">
+        <v>241</v>
       </c>
       <c r="D147" s="2"/>
       <c r="E147" s="2"/>
@@ -7981,13 +7870,13 @@
     </row>
     <row r="148">
       <c r="A148" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="B148" s="19" t="s">
         <v>242</v>
       </c>
-      <c r="C148" s="17" t="s">
-        <v>243</v>
+      <c r="B148" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C148" s="10" t="s">
+        <v>241</v>
       </c>
       <c r="D148" s="2"/>
       <c r="E148" s="2"/>
@@ -8013,18 +7902,18 @@
     </row>
     <row r="149">
       <c r="A149" s="3" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C149" s="17" t="s">
-        <v>243</v>
-      </c>
-      <c r="D149" s="2"/>
-      <c r="E149" s="1" t="s">
-        <v>248</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="C149" s="10" t="s">
+        <v>241</v>
+      </c>
+      <c r="D149" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="E149" s="2"/>
       <c r="F149" s="2"/>
       <c r="G149" s="2"/>
       <c r="H149" s="2"/>
@@ -8046,17 +7935,18 @@
       <c r="X149" s="2"/>
     </row>
     <row r="150">
-      <c r="A150" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="B150" s="19" t="s">
-        <v>250</v>
-      </c>
-      <c r="C150" s="17" t="s">
-        <v>243</v>
-      </c>
-      <c r="D150" s="2"/>
-      <c r="E150" s="2"/>
+      <c r="A150" s="20" t="s">
+        <v>245</v>
+      </c>
+      <c r="B150" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C150" s="10" t="s">
+        <v>241</v>
+      </c>
+      <c r="E150" s="3" t="s">
+        <v>246</v>
+      </c>
       <c r="F150" s="2"/>
       <c r="G150" s="2"/>
       <c r="H150" s="2"/>
@@ -8079,16 +7969,16 @@
     </row>
     <row r="151">
       <c r="A151" s="3" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="C151" s="17" t="s">
-        <v>243</v>
+        <v>56</v>
+      </c>
+      <c r="C151" s="10" t="s">
+        <v>241</v>
       </c>
       <c r="D151" s="3" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="E151" s="2"/>
       <c r="F151" s="2"/>
@@ -8113,16 +8003,18 @@
     </row>
     <row r="152">
       <c r="A152" s="1" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="B152" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="C152" s="17" t="s">
-        <v>243</v>
+        <v>250</v>
+      </c>
+      <c r="C152" s="10" t="s">
+        <v>251</v>
       </c>
       <c r="D152" s="2"/>
-      <c r="E152" s="2"/>
+      <c r="E152" s="3" t="s">
+        <v>252</v>
+      </c>
       <c r="F152" s="2"/>
       <c r="G152" s="2"/>
       <c r="H152" s="2"/>
@@ -8145,17 +8037,15 @@
     </row>
     <row r="153">
       <c r="A153" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="B153" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="C153" s="17" t="s">
-        <v>257</v>
-      </c>
-      <c r="D153" s="3" t="s">
-        <v>258</v>
-      </c>
+        <v>253</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="C153" s="10" t="s">
+        <v>251</v>
+      </c>
+      <c r="D153" s="2"/>
       <c r="E153" s="2"/>
       <c r="F153" s="2"/>
       <c r="G153" s="2"/>
@@ -8178,19 +8068,19 @@
       <c r="X153" s="2"/>
     </row>
     <row r="154">
-      <c r="A154" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="B154" s="1" t="s">
+      <c r="A154" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="B154" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C154" s="10" t="s">
         <v>255</v>
       </c>
-      <c r="C154" s="17" t="s">
-        <v>257</v>
-      </c>
-      <c r="D154" s="3" t="s">
-        <v>260</v>
-      </c>
-      <c r="E154" s="2"/>
+      <c r="D154" s="2"/>
+      <c r="E154" s="11" t="s">
+        <v>256</v>
+      </c>
       <c r="F154" s="2"/>
       <c r="G154" s="2"/>
       <c r="H154" s="2"/>
@@ -8212,17 +8102,19 @@
       <c r="X154" s="2"/>
     </row>
     <row r="155">
-      <c r="A155" s="3" t="s">
-        <v>261</v>
+      <c r="A155" s="1" t="s">
+        <v>257</v>
       </c>
       <c r="B155" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="C155" s="17" t="s">
-        <v>257</v>
+        <v>63</v>
+      </c>
+      <c r="C155" s="10" t="s">
+        <v>255</v>
       </c>
       <c r="D155" s="2"/>
-      <c r="E155" s="2"/>
+      <c r="E155" s="3" t="s">
+        <v>258</v>
+      </c>
       <c r="F155" s="2"/>
       <c r="G155" s="2"/>
       <c r="H155" s="2"/>
@@ -8244,17 +8136,19 @@
       <c r="X155" s="2"/>
     </row>
     <row r="156">
-      <c r="A156" s="3" t="s">
-        <v>262</v>
+      <c r="A156" s="1" t="s">
+        <v>259</v>
       </c>
       <c r="B156" s="3" t="s">
-        <v>261</v>
-      </c>
-      <c r="C156" s="17" t="s">
-        <v>257</v>
+        <v>97</v>
+      </c>
+      <c r="C156" s="10" t="s">
+        <v>255</v>
       </c>
       <c r="D156" s="2"/>
-      <c r="E156" s="2"/>
+      <c r="E156" s="11" t="s">
+        <v>260</v>
+      </c>
       <c r="F156" s="2"/>
       <c r="G156" s="2"/>
       <c r="H156" s="2"/>
@@ -8276,17 +8170,19 @@
       <c r="X156" s="2"/>
     </row>
     <row r="157">
-      <c r="A157" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="B157" s="3" t="s">
+      <c r="A157" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="C157" s="17" t="s">
-        <v>257</v>
+      <c r="B157" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="C157" s="10" t="s">
+        <v>255</v>
       </c>
       <c r="D157" s="2"/>
-      <c r="E157" s="2"/>
+      <c r="E157" s="3" t="s">
+        <v>256</v>
+      </c>
       <c r="F157" s="2"/>
       <c r="G157" s="2"/>
       <c r="H157" s="2"/>
@@ -8309,16 +8205,18 @@
     </row>
     <row r="158">
       <c r="A158" s="3" t="s">
-        <v>264</v>
-      </c>
-      <c r="B158" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C158" s="17" t="s">
-        <v>257</v>
+        <v>262</v>
+      </c>
+      <c r="B158" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="C158" s="10" t="s">
+        <v>255</v>
       </c>
       <c r="D158" s="2"/>
-      <c r="E158" s="2"/>
+      <c r="E158" s="3" t="s">
+        <v>256</v>
+      </c>
       <c r="F158" s="2"/>
       <c r="G158" s="2"/>
       <c r="H158" s="2"/>
@@ -8341,16 +8239,18 @@
     </row>
     <row r="159">
       <c r="A159" s="3" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B159" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="C159" s="17" t="s">
-        <v>257</v>
+        <v>264</v>
+      </c>
+      <c r="C159" s="10" t="s">
+        <v>255</v>
       </c>
       <c r="D159" s="2"/>
-      <c r="E159" s="2"/>
+      <c r="E159" s="3" t="s">
+        <v>256</v>
+      </c>
       <c r="F159" s="2"/>
       <c r="G159" s="2"/>
       <c r="H159" s="2"/>
@@ -8373,15 +8273,17 @@
     </row>
     <row r="160">
       <c r="A160" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="B160" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="C160" s="10" t="s">
+        <v>266</v>
+      </c>
+      <c r="D160" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="B160" s="19" t="s">
-        <v>266</v>
-      </c>
-      <c r="C160" s="17" t="s">
-        <v>257</v>
-      </c>
-      <c r="D160" s="2"/>
       <c r="E160" s="2"/>
       <c r="F160" s="2"/>
       <c r="G160" s="2"/>
@@ -8404,19 +8306,19 @@
       <c r="X160" s="2"/>
     </row>
     <row r="161">
-      <c r="A161" s="3" t="s">
+      <c r="A161" s="1" t="s">
         <v>268</v>
       </c>
       <c r="B161" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C161" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="C161" s="10" t="s">
+        <v>266</v>
+      </c>
+      <c r="D161" s="3" t="s">
         <v>269</v>
       </c>
-      <c r="D161" s="2"/>
-      <c r="E161" s="3" t="s">
-        <v>270</v>
-      </c>
+      <c r="E161" s="2"/>
       <c r="F161" s="2"/>
       <c r="G161" s="2"/>
       <c r="H161" s="2"/>
@@ -8439,15 +8341,17 @@
     </row>
     <row r="162">
       <c r="A162" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B162" s="11" t="s">
         <v>271</v>
       </c>
-      <c r="B162" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C162" s="17" t="s">
-        <v>269</v>
-      </c>
-      <c r="D162" s="2"/>
+      <c r="C162" s="10" t="s">
+        <v>266</v>
+      </c>
+      <c r="D162" s="1" t="s">
+        <v>272</v>
+      </c>
       <c r="E162" s="2"/>
       <c r="F162" s="2"/>
       <c r="G162" s="2"/>
@@ -8471,17 +8375,15 @@
     </row>
     <row r="163">
       <c r="A163" s="3" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B163" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C163" s="17" t="s">
-        <v>269</v>
-      </c>
-      <c r="D163" s="3" t="s">
-        <v>273</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="C163" s="10" t="s">
+        <v>266</v>
+      </c>
+      <c r="D163" s="2"/>
       <c r="E163" s="2"/>
       <c r="F163" s="2"/>
       <c r="G163" s="2"/>
@@ -8507,13 +8409,15 @@
       <c r="A164" s="3" t="s">
         <v>274</v>
       </c>
-      <c r="B164" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="C164" s="17" t="s">
-        <v>269</v>
-      </c>
-      <c r="D164" s="2"/>
+      <c r="B164" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="C164" s="10" t="s">
+        <v>266</v>
+      </c>
+      <c r="D164" s="1" t="s">
+        <v>275</v>
+      </c>
       <c r="E164" s="2"/>
       <c r="F164" s="2"/>
       <c r="G164" s="2"/>
@@ -8537,15 +8441,17 @@
     </row>
     <row r="165">
       <c r="A165" s="3" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B165" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C165" s="17" t="s">
-        <v>276</v>
-      </c>
-      <c r="D165" s="2"/>
+        <v>265</v>
+      </c>
+      <c r="C165" s="10" t="s">
+        <v>266</v>
+      </c>
+      <c r="D165" s="3" t="s">
+        <v>277</v>
+      </c>
       <c r="E165" s="2"/>
       <c r="F165" s="2"/>
       <c r="G165" s="2"/>
@@ -8569,15 +8475,17 @@
     </row>
     <row r="166">
       <c r="A166" s="3" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B166" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C166" s="17" t="s">
-        <v>276</v>
-      </c>
-      <c r="D166" s="2"/>
+        <v>29</v>
+      </c>
+      <c r="C166" s="10" t="s">
+        <v>266</v>
+      </c>
+      <c r="D166" s="3" t="s">
+        <v>279</v>
+      </c>
       <c r="E166" s="2"/>
       <c r="F166" s="2"/>
       <c r="G166" s="2"/>
@@ -8600,21 +8508,17 @@
       <c r="X166" s="2"/>
     </row>
     <row r="167">
-      <c r="A167" s="25" t="s">
-        <v>278</v>
+      <c r="A167" s="1" t="s">
+        <v>280</v>
       </c>
       <c r="B167" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C167" s="17" t="s">
-        <v>279</v>
-      </c>
-      <c r="D167" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="E167" s="3" t="s">
-        <v>281</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="C167" s="10" t="s">
+        <v>266</v>
+      </c>
+      <c r="D167" s="2"/>
+      <c r="E167" s="2"/>
       <c r="F167" s="2"/>
       <c r="G167" s="2"/>
       <c r="H167" s="2"/>
@@ -8636,14 +8540,14 @@
       <c r="X167" s="2"/>
     </row>
     <row r="168">
-      <c r="A168" s="3" t="s">
+      <c r="A168" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="B168" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C168" s="10" t="s">
         <v>282</v>
-      </c>
-      <c r="B168" s="3" t="s">
-        <v>278</v>
-      </c>
-      <c r="C168" s="17" t="s">
-        <v>279</v>
       </c>
       <c r="D168" s="2"/>
       <c r="E168" s="2"/>
@@ -8668,16 +8572,18 @@
       <c r="X168" s="2"/>
     </row>
     <row r="169">
-      <c r="A169" s="26" t="s">
+      <c r="A169" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="B169" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="C169" s="17" t="s">
-        <v>279</v>
-      </c>
-      <c r="D169" s="2"/>
+      <c r="B169" s="12" t="s">
+        <v>281</v>
+      </c>
+      <c r="C169" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="D169" s="1" t="s">
+        <v>284</v>
+      </c>
       <c r="E169" s="2"/>
       <c r="F169" s="2"/>
       <c r="G169" s="2"/>
@@ -8700,16 +8606,18 @@
       <c r="X169" s="2"/>
     </row>
     <row r="170">
-      <c r="A170" s="26" t="s">
-        <v>284</v>
-      </c>
-      <c r="B170" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="C170" s="17" t="s">
-        <v>279</v>
-      </c>
-      <c r="D170" s="2"/>
+      <c r="A170" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="B170" s="12" t="s">
+        <v>281</v>
+      </c>
+      <c r="C170" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="D170" s="3" t="s">
+        <v>286</v>
+      </c>
       <c r="E170" s="2"/>
       <c r="F170" s="2"/>
       <c r="G170" s="2"/>
@@ -8732,16 +8640,18 @@
       <c r="X170" s="2"/>
     </row>
     <row r="171">
-      <c r="A171" s="27" t="s">
-        <v>285</v>
-      </c>
-      <c r="B171" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="C171" s="17" t="s">
-        <v>286</v>
-      </c>
-      <c r="D171" s="2"/>
+      <c r="A171" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B171" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C171" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="D171" s="1" t="s">
+        <v>287</v>
+      </c>
       <c r="E171" s="2"/>
       <c r="F171" s="2"/>
       <c r="G171" s="2"/>
@@ -8764,16 +8674,18 @@
       <c r="X171" s="2"/>
     </row>
     <row r="172">
-      <c r="A172" s="26" t="s">
-        <v>287</v>
-      </c>
-      <c r="B172" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="C172" s="17" t="s">
-        <v>286</v>
-      </c>
-      <c r="D172" s="2"/>
+      <c r="A172" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="B172" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C172" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="D172" s="3" t="s">
+        <v>289</v>
+      </c>
       <c r="E172" s="2"/>
       <c r="F172" s="2"/>
       <c r="G172" s="2"/>
@@ -8796,17 +8708,17 @@
       <c r="X172" s="2"/>
     </row>
     <row r="173">
-      <c r="A173" s="26" t="s">
-        <v>288</v>
-      </c>
-      <c r="B173" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="C173" s="17" t="s">
-        <v>286</v>
-      </c>
-      <c r="D173" s="26" t="s">
-        <v>289</v>
+      <c r="A173" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="B173" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C173" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="D173" s="1" t="s">
+        <v>291</v>
       </c>
       <c r="E173" s="2"/>
       <c r="F173" s="2"/>
@@ -8830,18 +8742,17 @@
       <c r="X173" s="2"/>
     </row>
     <row r="174">
-      <c r="A174" s="28" t="s">
-        <v>290</v>
-      </c>
-      <c r="B174" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="C174" s="17" t="s">
-        <v>286</v>
-      </c>
-      <c r="E174" s="26" t="s">
-        <v>291</v>
-      </c>
+      <c r="A174" s="21" t="s">
+        <v>292</v>
+      </c>
+      <c r="B174" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C174" s="10" t="s">
+        <v>293</v>
+      </c>
+      <c r="D174" s="2"/>
+      <c r="E174" s="2"/>
       <c r="F174" s="2"/>
       <c r="G174" s="2"/>
       <c r="H174" s="2"/>
@@ -8863,18 +8774,16 @@
       <c r="X174" s="2"/>
     </row>
     <row r="175">
-      <c r="A175" s="26" t="s">
-        <v>292</v>
-      </c>
-      <c r="B175" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="C175" s="17" t="s">
-        <v>286</v>
-      </c>
-      <c r="D175" s="26" t="s">
+      <c r="A175" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="B175" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="C175" s="10" t="s">
         <v>293</v>
       </c>
+      <c r="D175" s="2"/>
       <c r="E175" s="2"/>
       <c r="F175" s="2"/>
       <c r="G175" s="2"/>
@@ -8897,19 +8806,17 @@
       <c r="X175" s="2"/>
     </row>
     <row r="176">
-      <c r="A176" s="29" t="s">
-        <v>294</v>
-      </c>
-      <c r="B176" s="26" t="s">
-        <v>295</v>
-      </c>
-      <c r="C176" s="17" t="s">
+      <c r="A176" s="21" t="s">
         <v>296</v>
       </c>
+      <c r="B176" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="C176" s="10" t="s">
+        <v>293</v>
+      </c>
       <c r="D176" s="2"/>
-      <c r="E176" s="26" t="s">
-        <v>297</v>
-      </c>
+      <c r="E176" s="2"/>
       <c r="F176" s="2"/>
       <c r="G176" s="2"/>
       <c r="H176" s="2"/>
@@ -8931,14 +8838,14 @@
       <c r="X176" s="2"/>
     </row>
     <row r="177">
-      <c r="A177" s="29" t="s">
-        <v>298</v>
-      </c>
-      <c r="B177" s="29" t="s">
-        <v>294</v>
-      </c>
-      <c r="C177" s="17" t="s">
-        <v>296</v>
+      <c r="A177" s="21" t="s">
+        <v>297</v>
+      </c>
+      <c r="B177" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C177" s="10" t="s">
+        <v>293</v>
       </c>
       <c r="D177" s="2"/>
       <c r="E177" s="2"/>
@@ -8963,19 +8870,17 @@
       <c r="X177" s="2"/>
     </row>
     <row r="178">
-      <c r="A178" s="29" t="s">
-        <v>299</v>
-      </c>
-      <c r="B178" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="C178" s="17" t="s">
-        <v>300</v>
+      <c r="A178" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="B178" s="21" t="s">
+        <v>297</v>
+      </c>
+      <c r="C178" s="10" t="s">
+        <v>293</v>
       </c>
       <c r="D178" s="2"/>
-      <c r="E178" s="18" t="s">
-        <v>301</v>
-      </c>
+      <c r="E178" s="2"/>
       <c r="F178" s="2"/>
       <c r="G178" s="2"/>
       <c r="H178" s="2"/>
@@ -8997,19 +8902,17 @@
       <c r="X178" s="2"/>
     </row>
     <row r="179">
-      <c r="A179" s="29" t="s">
-        <v>302</v>
-      </c>
-      <c r="B179" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="C179" s="17" t="s">
-        <v>300</v>
+      <c r="A179" s="21" t="s">
+        <v>299</v>
+      </c>
+      <c r="B179" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C179" s="10" t="s">
+        <v>293</v>
       </c>
       <c r="D179" s="2"/>
-      <c r="E179" s="26" t="s">
-        <v>303</v>
-      </c>
+      <c r="E179" s="2"/>
       <c r="F179" s="2"/>
       <c r="G179" s="2"/>
       <c r="H179" s="2"/>
@@ -9031,19 +8934,17 @@
       <c r="X179" s="2"/>
     </row>
     <row r="180">
-      <c r="A180" s="29" t="s">
-        <v>304</v>
-      </c>
-      <c r="B180" s="26" t="s">
-        <v>145</v>
-      </c>
-      <c r="C180" s="17" t="s">
+      <c r="A180" s="21" t="s">
         <v>300</v>
       </c>
+      <c r="B180" s="21" t="s">
+        <v>299</v>
+      </c>
+      <c r="C180" s="10" t="s">
+        <v>293</v>
+      </c>
       <c r="D180" s="2"/>
-      <c r="E180" s="18" t="s">
-        <v>305</v>
-      </c>
+      <c r="E180" s="2"/>
       <c r="F180" s="2"/>
       <c r="G180" s="2"/>
       <c r="H180" s="2"/>
@@ -9065,19 +8966,17 @@
       <c r="X180" s="2"/>
     </row>
     <row r="181">
-      <c r="A181" s="29" t="s">
-        <v>306</v>
-      </c>
-      <c r="B181" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="C181" s="17" t="s">
-        <v>300</v>
+      <c r="A181" s="21" t="s">
+        <v>301</v>
+      </c>
+      <c r="B181" s="18" t="s">
+        <v>302</v>
+      </c>
+      <c r="C181" s="10" t="s">
+        <v>293</v>
       </c>
       <c r="D181" s="2"/>
-      <c r="E181" s="26" t="s">
-        <v>301</v>
-      </c>
+      <c r="E181" s="2"/>
       <c r="F181" s="2"/>
       <c r="G181" s="2"/>
       <c r="H181" s="2"/>
@@ -9099,19 +8998,17 @@
       <c r="X181" s="2"/>
     </row>
     <row r="182">
-      <c r="A182" s="26" t="s">
-        <v>307</v>
-      </c>
-      <c r="B182" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="C182" s="17" t="s">
-        <v>300</v>
+      <c r="A182" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="B182" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="C182" s="10" t="s">
+        <v>293</v>
       </c>
       <c r="D182" s="2"/>
-      <c r="E182" s="26" t="s">
-        <v>301</v>
-      </c>
+      <c r="E182" s="2"/>
       <c r="F182" s="2"/>
       <c r="G182" s="2"/>
       <c r="H182" s="2"/>
@@ -9133,19 +9030,19 @@
       <c r="X182" s="2"/>
     </row>
     <row r="183">
-      <c r="A183" s="26" t="s">
-        <v>308</v>
-      </c>
-      <c r="B183" s="26" t="s">
-        <v>309</v>
-      </c>
-      <c r="C183" s="17" t="s">
-        <v>300</v>
-      </c>
-      <c r="D183" s="2"/>
-      <c r="E183" s="26" t="s">
-        <v>301</v>
-      </c>
+      <c r="A183" s="21" t="s">
+        <v>305</v>
+      </c>
+      <c r="B183" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="C183" s="10" t="s">
+        <v>293</v>
+      </c>
+      <c r="D183" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="E183" s="2"/>
       <c r="F183" s="2"/>
       <c r="G183" s="2"/>
       <c r="H183" s="2"/>
@@ -9167,17 +9064,17 @@
       <c r="X183" s="2"/>
     </row>
     <row r="184">
-      <c r="A184" s="26" t="s">
+      <c r="A184" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="B184" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="C184" s="10" t="s">
+        <v>309</v>
+      </c>
+      <c r="D184" s="3" t="s">
         <v>310</v>
-      </c>
-      <c r="B184" s="26" t="s">
-        <v>171</v>
-      </c>
-      <c r="C184" s="17" t="s">
-        <v>311</v>
-      </c>
-      <c r="D184" s="26" t="s">
-        <v>312</v>
       </c>
       <c r="E184" s="2"/>
       <c r="F184" s="2"/>
@@ -9201,18 +9098,16 @@
       <c r="X184" s="2"/>
     </row>
     <row r="185">
-      <c r="A185" s="29" t="s">
-        <v>313</v>
-      </c>
-      <c r="B185" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="C185" s="17" t="s">
+      <c r="A185" s="14" t="s">
         <v>311</v>
       </c>
-      <c r="D185" s="26" t="s">
-        <v>314</v>
-      </c>
+      <c r="B185" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="C185" s="10" t="s">
+        <v>309</v>
+      </c>
+      <c r="D185" s="2"/>
       <c r="E185" s="2"/>
       <c r="F185" s="2"/>
       <c r="G185" s="2"/>
@@ -9235,18 +9130,10 @@
       <c r="X185" s="2"/>
     </row>
     <row r="186">
-      <c r="A186" s="29" t="s">
-        <v>315</v>
-      </c>
-      <c r="B186" s="18" t="s">
-        <v>316</v>
-      </c>
-      <c r="C186" s="17" t="s">
-        <v>311</v>
-      </c>
-      <c r="D186" s="29" t="s">
-        <v>317</v>
-      </c>
+      <c r="A186" s="2"/>
+      <c r="B186" s="2"/>
+      <c r="C186" s="2"/>
+      <c r="D186" s="2"/>
       <c r="E186" s="2"/>
       <c r="F186" s="2"/>
       <c r="G186" s="2"/>
@@ -9269,15 +9156,9 @@
       <c r="X186" s="2"/>
     </row>
     <row r="187">
-      <c r="A187" s="26" t="s">
-        <v>318</v>
-      </c>
-      <c r="B187" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="C187" s="17" t="s">
-        <v>311</v>
-      </c>
+      <c r="A187" s="2"/>
+      <c r="B187" s="2"/>
+      <c r="C187" s="2"/>
       <c r="D187" s="2"/>
       <c r="E187" s="2"/>
       <c r="F187" s="2"/>
@@ -9301,18 +9182,10 @@
       <c r="X187" s="2"/>
     </row>
     <row r="188">
-      <c r="A188" s="26" t="s">
-        <v>319</v>
-      </c>
-      <c r="B188" s="26" t="s">
-        <v>310</v>
-      </c>
-      <c r="C188" s="17" t="s">
-        <v>311</v>
-      </c>
-      <c r="D188" s="29" t="s">
-        <v>320</v>
-      </c>
+      <c r="A188" s="2"/>
+      <c r="B188" s="2"/>
+      <c r="C188" s="2"/>
+      <c r="D188" s="2"/>
       <c r="E188" s="2"/>
       <c r="F188" s="2"/>
       <c r="G188" s="2"/>
@@ -9335,18 +9208,10 @@
       <c r="X188" s="2"/>
     </row>
     <row r="189">
-      <c r="A189" s="26" t="s">
-        <v>321</v>
-      </c>
-      <c r="B189" s="26" t="s">
-        <v>310</v>
-      </c>
-      <c r="C189" s="17" t="s">
-        <v>311</v>
-      </c>
-      <c r="D189" s="26" t="s">
-        <v>322</v>
-      </c>
+      <c r="A189" s="2"/>
+      <c r="B189" s="2"/>
+      <c r="C189" s="2"/>
+      <c r="D189" s="2"/>
       <c r="E189" s="2"/>
       <c r="F189" s="2"/>
       <c r="G189" s="2"/>
@@ -9369,18 +9234,10 @@
       <c r="X189" s="2"/>
     </row>
     <row r="190">
-      <c r="A190" s="26" t="s">
-        <v>323</v>
-      </c>
-      <c r="B190" s="26" t="s">
-        <v>80</v>
-      </c>
-      <c r="C190" s="17" t="s">
-        <v>311</v>
-      </c>
-      <c r="D190" s="26" t="s">
-        <v>324</v>
-      </c>
+      <c r="A190" s="2"/>
+      <c r="B190" s="2"/>
+      <c r="C190" s="2"/>
+      <c r="D190" s="2"/>
       <c r="E190" s="2"/>
       <c r="F190" s="2"/>
       <c r="G190" s="2"/>
@@ -9403,15 +9260,9 @@
       <c r="X190" s="2"/>
     </row>
     <row r="191">
-      <c r="A191" s="29" t="s">
-        <v>325</v>
-      </c>
-      <c r="B191" s="26" t="s">
-        <v>80</v>
-      </c>
-      <c r="C191" s="17" t="s">
-        <v>311</v>
-      </c>
+      <c r="A191" s="2"/>
+      <c r="B191" s="2"/>
+      <c r="C191" s="2"/>
       <c r="D191" s="2"/>
       <c r="E191" s="2"/>
       <c r="F191" s="2"/>
@@ -17315,7 +17166,7 @@
     <row r="495">
       <c r="A495" s="2"/>
       <c r="B495" s="2"/>
-      <c r="C495" s="2"/>
+      <c r="C495" s="22"/>
       <c r="D495" s="2"/>
       <c r="E495" s="2"/>
       <c r="F495" s="2"/>
@@ -17338,630 +17189,6 @@
       <c r="W495" s="2"/>
       <c r="X495" s="2"/>
     </row>
-    <row r="496">
-      <c r="A496" s="2"/>
-      <c r="B496" s="2"/>
-      <c r="C496" s="2"/>
-      <c r="D496" s="2"/>
-      <c r="E496" s="2"/>
-      <c r="F496" s="2"/>
-      <c r="G496" s="2"/>
-      <c r="H496" s="2"/>
-      <c r="I496" s="2"/>
-      <c r="J496" s="2"/>
-      <c r="K496" s="2"/>
-      <c r="L496" s="2"/>
-      <c r="M496" s="2"/>
-      <c r="N496" s="2"/>
-      <c r="O496" s="2"/>
-      <c r="P496" s="2"/>
-      <c r="Q496" s="2"/>
-      <c r="R496" s="2"/>
-      <c r="S496" s="2"/>
-      <c r="T496" s="2"/>
-      <c r="U496" s="2"/>
-      <c r="V496" s="2"/>
-      <c r="W496" s="2"/>
-      <c r="X496" s="2"/>
-    </row>
-    <row r="497">
-      <c r="A497" s="2"/>
-      <c r="B497" s="2"/>
-      <c r="C497" s="2"/>
-      <c r="D497" s="2"/>
-      <c r="E497" s="2"/>
-      <c r="F497" s="2"/>
-      <c r="G497" s="2"/>
-      <c r="H497" s="2"/>
-      <c r="I497" s="2"/>
-      <c r="J497" s="2"/>
-      <c r="K497" s="2"/>
-      <c r="L497" s="2"/>
-      <c r="M497" s="2"/>
-      <c r="N497" s="2"/>
-      <c r="O497" s="2"/>
-      <c r="P497" s="2"/>
-      <c r="Q497" s="2"/>
-      <c r="R497" s="2"/>
-      <c r="S497" s="2"/>
-      <c r="T497" s="2"/>
-      <c r="U497" s="2"/>
-      <c r="V497" s="2"/>
-      <c r="W497" s="2"/>
-      <c r="X497" s="2"/>
-    </row>
-    <row r="498">
-      <c r="A498" s="2"/>
-      <c r="B498" s="2"/>
-      <c r="C498" s="2"/>
-      <c r="D498" s="2"/>
-      <c r="E498" s="2"/>
-      <c r="F498" s="2"/>
-      <c r="G498" s="2"/>
-      <c r="H498" s="2"/>
-      <c r="I498" s="2"/>
-      <c r="J498" s="2"/>
-      <c r="K498" s="2"/>
-      <c r="L498" s="2"/>
-      <c r="M498" s="2"/>
-      <c r="N498" s="2"/>
-      <c r="O498" s="2"/>
-      <c r="P498" s="2"/>
-      <c r="Q498" s="2"/>
-      <c r="R498" s="2"/>
-      <c r="S498" s="2"/>
-      <c r="T498" s="2"/>
-      <c r="U498" s="2"/>
-      <c r="V498" s="2"/>
-      <c r="W498" s="2"/>
-      <c r="X498" s="2"/>
-    </row>
-    <row r="499">
-      <c r="A499" s="2"/>
-      <c r="B499" s="2"/>
-      <c r="C499" s="2"/>
-      <c r="D499" s="2"/>
-      <c r="E499" s="2"/>
-      <c r="F499" s="2"/>
-      <c r="G499" s="2"/>
-      <c r="H499" s="2"/>
-      <c r="I499" s="2"/>
-      <c r="J499" s="2"/>
-      <c r="K499" s="2"/>
-      <c r="L499" s="2"/>
-      <c r="M499" s="2"/>
-      <c r="N499" s="2"/>
-      <c r="O499" s="2"/>
-      <c r="P499" s="2"/>
-      <c r="Q499" s="2"/>
-      <c r="R499" s="2"/>
-      <c r="S499" s="2"/>
-      <c r="T499" s="2"/>
-      <c r="U499" s="2"/>
-      <c r="V499" s="2"/>
-      <c r="W499" s="2"/>
-      <c r="X499" s="2"/>
-    </row>
-    <row r="500">
-      <c r="A500" s="2"/>
-      <c r="B500" s="2"/>
-      <c r="C500" s="2"/>
-      <c r="D500" s="2"/>
-      <c r="E500" s="2"/>
-      <c r="F500" s="2"/>
-      <c r="G500" s="2"/>
-      <c r="H500" s="2"/>
-      <c r="I500" s="2"/>
-      <c r="J500" s="2"/>
-      <c r="K500" s="2"/>
-      <c r="L500" s="2"/>
-      <c r="M500" s="2"/>
-      <c r="N500" s="2"/>
-      <c r="O500" s="2"/>
-      <c r="P500" s="2"/>
-      <c r="Q500" s="2"/>
-      <c r="R500" s="2"/>
-      <c r="S500" s="2"/>
-      <c r="T500" s="2"/>
-      <c r="U500" s="2"/>
-      <c r="V500" s="2"/>
-      <c r="W500" s="2"/>
-      <c r="X500" s="2"/>
-    </row>
-    <row r="501">
-      <c r="A501" s="2"/>
-      <c r="B501" s="2"/>
-      <c r="C501" s="2"/>
-      <c r="D501" s="2"/>
-      <c r="E501" s="2"/>
-      <c r="F501" s="2"/>
-      <c r="G501" s="2"/>
-      <c r="H501" s="2"/>
-      <c r="I501" s="2"/>
-      <c r="J501" s="2"/>
-      <c r="K501" s="2"/>
-      <c r="L501" s="2"/>
-      <c r="M501" s="2"/>
-      <c r="N501" s="2"/>
-      <c r="O501" s="2"/>
-      <c r="P501" s="2"/>
-      <c r="Q501" s="2"/>
-      <c r="R501" s="2"/>
-      <c r="S501" s="2"/>
-      <c r="T501" s="2"/>
-      <c r="U501" s="2"/>
-      <c r="V501" s="2"/>
-      <c r="W501" s="2"/>
-      <c r="X501" s="2"/>
-    </row>
-    <row r="502">
-      <c r="A502" s="2"/>
-      <c r="B502" s="2"/>
-      <c r="C502" s="2"/>
-      <c r="D502" s="2"/>
-      <c r="E502" s="2"/>
-      <c r="F502" s="2"/>
-      <c r="G502" s="2"/>
-      <c r="H502" s="2"/>
-      <c r="I502" s="2"/>
-      <c r="J502" s="2"/>
-      <c r="K502" s="2"/>
-      <c r="L502" s="2"/>
-      <c r="M502" s="2"/>
-      <c r="N502" s="2"/>
-      <c r="O502" s="2"/>
-      <c r="P502" s="2"/>
-      <c r="Q502" s="2"/>
-      <c r="R502" s="2"/>
-      <c r="S502" s="2"/>
-      <c r="T502" s="2"/>
-      <c r="U502" s="2"/>
-      <c r="V502" s="2"/>
-      <c r="W502" s="2"/>
-      <c r="X502" s="2"/>
-    </row>
-    <row r="503">
-      <c r="A503" s="2"/>
-      <c r="B503" s="2"/>
-      <c r="C503" s="2"/>
-      <c r="D503" s="2"/>
-      <c r="E503" s="2"/>
-      <c r="F503" s="2"/>
-      <c r="G503" s="2"/>
-      <c r="H503" s="2"/>
-      <c r="I503" s="2"/>
-      <c r="J503" s="2"/>
-      <c r="K503" s="2"/>
-      <c r="L503" s="2"/>
-      <c r="M503" s="2"/>
-      <c r="N503" s="2"/>
-      <c r="O503" s="2"/>
-      <c r="P503" s="2"/>
-      <c r="Q503" s="2"/>
-      <c r="R503" s="2"/>
-      <c r="S503" s="2"/>
-      <c r="T503" s="2"/>
-      <c r="U503" s="2"/>
-      <c r="V503" s="2"/>
-      <c r="W503" s="2"/>
-      <c r="X503" s="2"/>
-    </row>
-    <row r="504">
-      <c r="A504" s="2"/>
-      <c r="B504" s="2"/>
-      <c r="C504" s="2"/>
-      <c r="D504" s="2"/>
-      <c r="E504" s="2"/>
-      <c r="F504" s="2"/>
-      <c r="G504" s="2"/>
-      <c r="H504" s="2"/>
-      <c r="I504" s="2"/>
-      <c r="J504" s="2"/>
-      <c r="K504" s="2"/>
-      <c r="L504" s="2"/>
-      <c r="M504" s="2"/>
-      <c r="N504" s="2"/>
-      <c r="O504" s="2"/>
-      <c r="P504" s="2"/>
-      <c r="Q504" s="2"/>
-      <c r="R504" s="2"/>
-      <c r="S504" s="2"/>
-      <c r="T504" s="2"/>
-      <c r="U504" s="2"/>
-      <c r="V504" s="2"/>
-      <c r="W504" s="2"/>
-      <c r="X504" s="2"/>
-    </row>
-    <row r="505">
-      <c r="A505" s="2"/>
-      <c r="B505" s="2"/>
-      <c r="C505" s="2"/>
-      <c r="D505" s="2"/>
-      <c r="E505" s="2"/>
-      <c r="F505" s="2"/>
-      <c r="G505" s="2"/>
-      <c r="H505" s="2"/>
-      <c r="I505" s="2"/>
-      <c r="J505" s="2"/>
-      <c r="K505" s="2"/>
-      <c r="L505" s="2"/>
-      <c r="M505" s="2"/>
-      <c r="N505" s="2"/>
-      <c r="O505" s="2"/>
-      <c r="P505" s="2"/>
-      <c r="Q505" s="2"/>
-      <c r="R505" s="2"/>
-      <c r="S505" s="2"/>
-      <c r="T505" s="2"/>
-      <c r="U505" s="2"/>
-      <c r="V505" s="2"/>
-      <c r="W505" s="2"/>
-      <c r="X505" s="2"/>
-    </row>
-    <row r="506">
-      <c r="A506" s="2"/>
-      <c r="B506" s="2"/>
-      <c r="C506" s="2"/>
-      <c r="D506" s="2"/>
-      <c r="E506" s="2"/>
-      <c r="F506" s="2"/>
-      <c r="G506" s="2"/>
-      <c r="H506" s="2"/>
-      <c r="I506" s="2"/>
-      <c r="J506" s="2"/>
-      <c r="K506" s="2"/>
-      <c r="L506" s="2"/>
-      <c r="M506" s="2"/>
-      <c r="N506" s="2"/>
-      <c r="O506" s="2"/>
-      <c r="P506" s="2"/>
-      <c r="Q506" s="2"/>
-      <c r="R506" s="2"/>
-      <c r="S506" s="2"/>
-      <c r="T506" s="2"/>
-      <c r="U506" s="2"/>
-      <c r="V506" s="2"/>
-      <c r="W506" s="2"/>
-      <c r="X506" s="2"/>
-    </row>
-    <row r="507">
-      <c r="A507" s="2"/>
-      <c r="B507" s="2"/>
-      <c r="C507" s="2"/>
-      <c r="D507" s="2"/>
-      <c r="E507" s="2"/>
-      <c r="F507" s="2"/>
-      <c r="G507" s="2"/>
-      <c r="H507" s="2"/>
-      <c r="I507" s="2"/>
-      <c r="J507" s="2"/>
-      <c r="K507" s="2"/>
-      <c r="L507" s="2"/>
-      <c r="M507" s="2"/>
-      <c r="N507" s="2"/>
-      <c r="O507" s="2"/>
-      <c r="P507" s="2"/>
-      <c r="Q507" s="2"/>
-      <c r="R507" s="2"/>
-      <c r="S507" s="2"/>
-      <c r="T507" s="2"/>
-      <c r="U507" s="2"/>
-      <c r="V507" s="2"/>
-      <c r="W507" s="2"/>
-      <c r="X507" s="2"/>
-    </row>
-    <row r="508">
-      <c r="A508" s="2"/>
-      <c r="B508" s="2"/>
-      <c r="C508" s="2"/>
-      <c r="D508" s="2"/>
-      <c r="E508" s="2"/>
-      <c r="F508" s="2"/>
-      <c r="G508" s="2"/>
-      <c r="H508" s="2"/>
-      <c r="I508" s="2"/>
-      <c r="J508" s="2"/>
-      <c r="K508" s="2"/>
-      <c r="L508" s="2"/>
-      <c r="M508" s="2"/>
-      <c r="N508" s="2"/>
-      <c r="O508" s="2"/>
-      <c r="P508" s="2"/>
-      <c r="Q508" s="2"/>
-      <c r="R508" s="2"/>
-      <c r="S508" s="2"/>
-      <c r="T508" s="2"/>
-      <c r="U508" s="2"/>
-      <c r="V508" s="2"/>
-      <c r="W508" s="2"/>
-      <c r="X508" s="2"/>
-    </row>
-    <row r="509">
-      <c r="A509" s="2"/>
-      <c r="B509" s="2"/>
-      <c r="C509" s="2"/>
-      <c r="D509" s="2"/>
-      <c r="E509" s="2"/>
-      <c r="F509" s="2"/>
-      <c r="G509" s="2"/>
-      <c r="H509" s="2"/>
-      <c r="I509" s="2"/>
-      <c r="J509" s="2"/>
-      <c r="K509" s="2"/>
-      <c r="L509" s="2"/>
-      <c r="M509" s="2"/>
-      <c r="N509" s="2"/>
-      <c r="O509" s="2"/>
-      <c r="P509" s="2"/>
-      <c r="Q509" s="2"/>
-      <c r="R509" s="2"/>
-      <c r="S509" s="2"/>
-      <c r="T509" s="2"/>
-      <c r="U509" s="2"/>
-      <c r="V509" s="2"/>
-      <c r="W509" s="2"/>
-      <c r="X509" s="2"/>
-    </row>
-    <row r="510">
-      <c r="A510" s="2"/>
-      <c r="B510" s="2"/>
-      <c r="C510" s="2"/>
-      <c r="D510" s="2"/>
-      <c r="E510" s="2"/>
-      <c r="F510" s="2"/>
-      <c r="G510" s="2"/>
-      <c r="H510" s="2"/>
-      <c r="I510" s="2"/>
-      <c r="J510" s="2"/>
-      <c r="K510" s="2"/>
-      <c r="L510" s="2"/>
-      <c r="M510" s="2"/>
-      <c r="N510" s="2"/>
-      <c r="O510" s="2"/>
-      <c r="P510" s="2"/>
-      <c r="Q510" s="2"/>
-      <c r="R510" s="2"/>
-      <c r="S510" s="2"/>
-      <c r="T510" s="2"/>
-      <c r="U510" s="2"/>
-      <c r="V510" s="2"/>
-      <c r="W510" s="2"/>
-      <c r="X510" s="2"/>
-    </row>
-    <row r="511">
-      <c r="A511" s="2"/>
-      <c r="B511" s="2"/>
-      <c r="C511" s="2"/>
-      <c r="D511" s="2"/>
-      <c r="E511" s="2"/>
-      <c r="F511" s="2"/>
-      <c r="G511" s="2"/>
-      <c r="H511" s="2"/>
-      <c r="I511" s="2"/>
-      <c r="J511" s="2"/>
-      <c r="K511" s="2"/>
-      <c r="L511" s="2"/>
-      <c r="M511" s="2"/>
-      <c r="N511" s="2"/>
-      <c r="O511" s="2"/>
-      <c r="P511" s="2"/>
-      <c r="Q511" s="2"/>
-      <c r="R511" s="2"/>
-      <c r="S511" s="2"/>
-      <c r="T511" s="2"/>
-      <c r="U511" s="2"/>
-      <c r="V511" s="2"/>
-      <c r="W511" s="2"/>
-      <c r="X511" s="2"/>
-    </row>
-    <row r="512">
-      <c r="A512" s="2"/>
-      <c r="B512" s="2"/>
-      <c r="C512" s="2"/>
-      <c r="D512" s="2"/>
-      <c r="E512" s="2"/>
-      <c r="F512" s="2"/>
-      <c r="G512" s="2"/>
-      <c r="H512" s="2"/>
-      <c r="I512" s="2"/>
-      <c r="J512" s="2"/>
-      <c r="K512" s="2"/>
-      <c r="L512" s="2"/>
-      <c r="M512" s="2"/>
-      <c r="N512" s="2"/>
-      <c r="O512" s="2"/>
-      <c r="P512" s="2"/>
-      <c r="Q512" s="2"/>
-      <c r="R512" s="2"/>
-      <c r="S512" s="2"/>
-      <c r="T512" s="2"/>
-      <c r="U512" s="2"/>
-      <c r="V512" s="2"/>
-      <c r="W512" s="2"/>
-      <c r="X512" s="2"/>
-    </row>
-    <row r="513">
-      <c r="A513" s="2"/>
-      <c r="B513" s="2"/>
-      <c r="C513" s="2"/>
-      <c r="D513" s="2"/>
-      <c r="E513" s="2"/>
-      <c r="F513" s="2"/>
-      <c r="G513" s="2"/>
-      <c r="H513" s="2"/>
-      <c r="I513" s="2"/>
-      <c r="J513" s="2"/>
-      <c r="K513" s="2"/>
-      <c r="L513" s="2"/>
-      <c r="M513" s="2"/>
-      <c r="N513" s="2"/>
-      <c r="O513" s="2"/>
-      <c r="P513" s="2"/>
-      <c r="Q513" s="2"/>
-      <c r="R513" s="2"/>
-      <c r="S513" s="2"/>
-      <c r="T513" s="2"/>
-      <c r="U513" s="2"/>
-      <c r="V513" s="2"/>
-      <c r="W513" s="2"/>
-      <c r="X513" s="2"/>
-    </row>
-    <row r="514">
-      <c r="A514" s="2"/>
-      <c r="B514" s="2"/>
-      <c r="C514" s="2"/>
-      <c r="D514" s="2"/>
-      <c r="E514" s="2"/>
-      <c r="F514" s="2"/>
-      <c r="G514" s="2"/>
-      <c r="H514" s="2"/>
-      <c r="I514" s="2"/>
-      <c r="J514" s="2"/>
-      <c r="K514" s="2"/>
-      <c r="L514" s="2"/>
-      <c r="M514" s="2"/>
-      <c r="N514" s="2"/>
-      <c r="O514" s="2"/>
-      <c r="P514" s="2"/>
-      <c r="Q514" s="2"/>
-      <c r="R514" s="2"/>
-      <c r="S514" s="2"/>
-      <c r="T514" s="2"/>
-      <c r="U514" s="2"/>
-      <c r="V514" s="2"/>
-      <c r="W514" s="2"/>
-      <c r="X514" s="2"/>
-    </row>
-    <row r="515">
-      <c r="A515" s="2"/>
-      <c r="B515" s="2"/>
-      <c r="C515" s="2"/>
-      <c r="D515" s="2"/>
-      <c r="E515" s="2"/>
-      <c r="F515" s="2"/>
-      <c r="G515" s="2"/>
-      <c r="H515" s="2"/>
-      <c r="I515" s="2"/>
-      <c r="J515" s="2"/>
-      <c r="K515" s="2"/>
-      <c r="L515" s="2"/>
-      <c r="M515" s="2"/>
-      <c r="N515" s="2"/>
-      <c r="O515" s="2"/>
-      <c r="P515" s="2"/>
-      <c r="Q515" s="2"/>
-      <c r="R515" s="2"/>
-      <c r="S515" s="2"/>
-      <c r="T515" s="2"/>
-      <c r="U515" s="2"/>
-      <c r="V515" s="2"/>
-      <c r="W515" s="2"/>
-      <c r="X515" s="2"/>
-    </row>
-    <row r="516">
-      <c r="A516" s="2"/>
-      <c r="B516" s="2"/>
-      <c r="C516" s="2"/>
-      <c r="D516" s="2"/>
-      <c r="E516" s="2"/>
-      <c r="F516" s="2"/>
-      <c r="G516" s="2"/>
-      <c r="H516" s="2"/>
-      <c r="I516" s="2"/>
-      <c r="J516" s="2"/>
-      <c r="K516" s="2"/>
-      <c r="L516" s="2"/>
-      <c r="M516" s="2"/>
-      <c r="N516" s="2"/>
-      <c r="O516" s="2"/>
-      <c r="P516" s="2"/>
-      <c r="Q516" s="2"/>
-      <c r="R516" s="2"/>
-      <c r="S516" s="2"/>
-      <c r="T516" s="2"/>
-      <c r="U516" s="2"/>
-      <c r="V516" s="2"/>
-      <c r="W516" s="2"/>
-      <c r="X516" s="2"/>
-    </row>
-    <row r="517">
-      <c r="A517" s="2"/>
-      <c r="B517" s="2"/>
-      <c r="C517" s="2"/>
-      <c r="D517" s="2"/>
-      <c r="E517" s="2"/>
-      <c r="F517" s="2"/>
-      <c r="G517" s="2"/>
-      <c r="H517" s="2"/>
-      <c r="I517" s="2"/>
-      <c r="J517" s="2"/>
-      <c r="K517" s="2"/>
-      <c r="L517" s="2"/>
-      <c r="M517" s="2"/>
-      <c r="N517" s="2"/>
-      <c r="O517" s="2"/>
-      <c r="P517" s="2"/>
-      <c r="Q517" s="2"/>
-      <c r="R517" s="2"/>
-      <c r="S517" s="2"/>
-      <c r="T517" s="2"/>
-      <c r="U517" s="2"/>
-      <c r="V517" s="2"/>
-      <c r="W517" s="2"/>
-      <c r="X517" s="2"/>
-    </row>
-    <row r="518">
-      <c r="A518" s="2"/>
-      <c r="B518" s="2"/>
-      <c r="C518" s="2"/>
-      <c r="D518" s="2"/>
-      <c r="E518" s="2"/>
-      <c r="F518" s="2"/>
-      <c r="G518" s="2"/>
-      <c r="H518" s="2"/>
-      <c r="I518" s="2"/>
-      <c r="J518" s="2"/>
-      <c r="K518" s="2"/>
-      <c r="L518" s="2"/>
-      <c r="M518" s="2"/>
-      <c r="N518" s="2"/>
-      <c r="O518" s="2"/>
-      <c r="P518" s="2"/>
-      <c r="Q518" s="2"/>
-      <c r="R518" s="2"/>
-      <c r="S518" s="2"/>
-      <c r="T518" s="2"/>
-      <c r="U518" s="2"/>
-      <c r="V518" s="2"/>
-      <c r="W518" s="2"/>
-      <c r="X518" s="2"/>
-    </row>
-    <row r="519">
-      <c r="A519" s="2"/>
-      <c r="B519" s="2"/>
-      <c r="C519" s="30"/>
-      <c r="D519" s="2"/>
-      <c r="E519" s="2"/>
-      <c r="F519" s="2"/>
-      <c r="G519" s="2"/>
-      <c r="H519" s="2"/>
-      <c r="I519" s="2"/>
-      <c r="J519" s="2"/>
-      <c r="K519" s="2"/>
-      <c r="L519" s="2"/>
-      <c r="M519" s="2"/>
-      <c r="N519" s="2"/>
-      <c r="O519" s="2"/>
-      <c r="P519" s="2"/>
-      <c r="Q519" s="2"/>
-      <c r="R519" s="2"/>
-      <c r="S519" s="2"/>
-      <c r="T519" s="2"/>
-      <c r="U519" s="2"/>
-      <c r="V519" s="2"/>
-      <c r="W519" s="2"/>
-      <c r="X519" s="2"/>
-    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -17982,2335 +17209,2335 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>326</v>
+        <v>312</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>327</v>
+        <v>313</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>328</v>
+        <v>314</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="B2" s="19" t="s">
-        <v>330</v>
+        <v>315</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>316</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>331</v>
+        <v>317</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>332</v>
+        <v>318</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="B3" s="31" t="s">
-        <v>334</v>
+        <v>319</v>
+      </c>
+      <c r="B3" s="23" t="s">
+        <v>320</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>335</v>
+        <v>321</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>336</v>
+        <v>322</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="B4" s="32" t="s">
-        <v>337</v>
+        <v>319</v>
+      </c>
+      <c r="B4" s="24" t="s">
+        <v>323</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>335</v>
+        <v>321</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>336</v>
+        <v>322</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>333</v>
+        <v>319</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>338</v>
+        <v>324</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>335</v>
+        <v>321</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>336</v>
+        <v>322</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="B6" s="15" t="s">
-        <v>340</v>
+        <v>325</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>326</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>341</v>
+        <v>327</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>342</v>
+        <v>328</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="6" t="s">
-        <v>343</v>
+        <v>329</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>344</v>
+        <v>330</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>341</v>
+        <v>327</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>345</v>
+        <v>331</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="6" t="s">
-        <v>346</v>
+        <v>332</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>347</v>
+        <v>333</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>341</v>
+        <v>327</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>348</v>
+        <v>334</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>349</v>
+        <v>335</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>350</v>
+        <v>336</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>341</v>
+        <v>327</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>351</v>
+        <v>337</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>349</v>
+        <v>335</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>352</v>
+        <v>338</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>341</v>
+        <v>327</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>353</v>
+        <v>339</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>354</v>
+        <v>340</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>355</v>
+        <v>341</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>341</v>
+        <v>327</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>356</v>
+        <v>342</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>357</v>
+        <v>343</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="C12" s="33" t="s">
-        <v>359</v>
+        <v>344</v>
+      </c>
+      <c r="C12" s="25" t="s">
+        <v>345</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>360</v>
+        <v>346</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>361</v>
+        <v>347</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="C13" s="33" t="s">
-        <v>359</v>
+        <v>344</v>
+      </c>
+      <c r="C13" s="25" t="s">
+        <v>345</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>360</v>
+        <v>346</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>362</v>
+        <v>348</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>363</v>
-      </c>
-      <c r="C14" s="33" t="s">
-        <v>359</v>
+        <v>349</v>
+      </c>
+      <c r="C14" s="25" t="s">
+        <v>345</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>364</v>
+        <v>350</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>365</v>
+        <v>351</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>366</v>
-      </c>
-      <c r="C15" s="33" t="s">
-        <v>359</v>
+        <v>352</v>
+      </c>
+      <c r="C15" s="25" t="s">
+        <v>345</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>367</v>
+        <v>353</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="6" t="s">
-        <v>368</v>
-      </c>
-      <c r="B16" s="15" t="s">
-        <v>369</v>
+        <v>354</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>355</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>370</v>
+        <v>356</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>371</v>
+        <v>357</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>372</v>
+        <v>358</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>373</v>
+        <v>359</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>370</v>
+        <v>356</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>374</v>
+        <v>360</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>372</v>
-      </c>
-      <c r="B18" s="15" t="s">
-        <v>375</v>
+        <v>358</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>361</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>370</v>
+        <v>356</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>376</v>
+        <v>362</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="6" t="s">
-        <v>377</v>
-      </c>
-      <c r="B19" s="15" t="s">
-        <v>378</v>
+        <v>363</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>364</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>370</v>
+        <v>356</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>380</v>
+        <v>366</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>381</v>
+        <v>367</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>370</v>
+        <v>356</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>382</v>
+        <v>368</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>383</v>
+        <v>369</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>384</v>
+        <v>370</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>385</v>
+        <v>371</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>386</v>
+        <v>372</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>387</v>
+        <v>373</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>388</v>
-      </c>
-      <c r="C22" s="17" t="s">
-        <v>389</v>
+        <v>374</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>375</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>390</v>
+        <v>376</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>391</v>
+        <v>377</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="C23" s="17" t="s">
-        <v>389</v>
+        <v>378</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>375</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>393</v>
+        <v>379</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="19" t="s">
-        <v>58</v>
+      <c r="A24" s="12" t="s">
+        <v>380</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="C24" s="17" t="s">
-        <v>389</v>
+        <v>381</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>375</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>395</v>
+        <v>382</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>396</v>
+        <v>383</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>397</v>
-      </c>
-      <c r="C25" s="17" t="s">
+        <v>384</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>375</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="12" t="s">
+        <v>386</v>
+      </c>
+      <c r="B26" s="26" t="s">
+        <v>387</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>388</v>
+      </c>
+      <c r="D26" s="1" t="s">
         <v>389</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="19" t="s">
-        <v>399</v>
-      </c>
-      <c r="B26" s="34" t="s">
-        <v>400</v>
-      </c>
-      <c r="C26" s="17" t="s">
-        <v>401</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>402</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>403</v>
-      </c>
-      <c r="B27" s="34" t="s">
-        <v>404</v>
-      </c>
-      <c r="C27" s="17" t="s">
-        <v>401</v>
+        <v>390</v>
+      </c>
+      <c r="B27" s="26" t="s">
+        <v>391</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>388</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>405</v>
+        <v>392</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
-        <v>406</v>
-      </c>
-      <c r="B28" s="35" t="s">
-        <v>407</v>
-      </c>
-      <c r="C28" s="17" t="s">
-        <v>401</v>
+        <v>393</v>
+      </c>
+      <c r="B28" s="27" t="s">
+        <v>394</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>388</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>408</v>
+        <v>395</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
-        <v>409</v>
-      </c>
-      <c r="B29" s="36" t="s">
-        <v>410</v>
+        <v>396</v>
+      </c>
+      <c r="B29" s="28" t="s">
+        <v>397</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="s">
-        <v>412</v>
+        <v>399</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>413</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>414</v>
+        <v>400</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>401</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>415</v>
+        <v>402</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="s">
-        <v>416</v>
-      </c>
-      <c r="B31" s="37" t="s">
-        <v>417</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>414</v>
+        <v>403</v>
+      </c>
+      <c r="B31" s="29" t="s">
+        <v>404</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>401</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>418</v>
+        <v>405</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="s">
-        <v>419</v>
-      </c>
-      <c r="B32" s="37" t="s">
-        <v>420</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>414</v>
+        <v>406</v>
+      </c>
+      <c r="B32" s="29" t="s">
+        <v>407</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>401</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>418</v>
+        <v>405</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="s">
-        <v>421</v>
-      </c>
-      <c r="B33" s="37" t="s">
-        <v>422</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>414</v>
+        <v>408</v>
+      </c>
+      <c r="B33" s="29" t="s">
+        <v>409</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>401</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>423</v>
+        <v>410</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="s">
-        <v>424</v>
+        <v>411</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>425</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>414</v>
+        <v>412</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>401</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>426</v>
+        <v>413</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="s">
-        <v>427</v>
-      </c>
-      <c r="B35" s="38" t="s">
-        <v>428</v>
-      </c>
-      <c r="C35" s="5" t="s">
-        <v>429</v>
+        <v>414</v>
+      </c>
+      <c r="B35" s="30" t="s">
+        <v>415</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>416</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>430</v>
+        <v>417</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="6" t="s">
-        <v>431</v>
+        <v>418</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>432</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>429</v>
+        <v>419</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>416</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>433</v>
+        <v>420</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="6" t="s">
-        <v>431</v>
+        <v>418</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>434</v>
-      </c>
-      <c r="C37" s="5" t="s">
-        <v>429</v>
+        <v>421</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>416</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="s">
-        <v>436</v>
+        <v>423</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>437</v>
-      </c>
-      <c r="C38" s="5" t="s">
-        <v>429</v>
+        <v>424</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>416</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>425</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>416</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="31" t="s">
         <v>427</v>
       </c>
-      <c r="B39" s="6" t="s">
-        <v>438</v>
-      </c>
-      <c r="C39" s="5" t="s">
+      <c r="B40" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="C40" s="4" t="s">
         <v>429</v>
       </c>
-      <c r="D39" s="1" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="39" t="s">
-        <v>440</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>441</v>
-      </c>
-      <c r="C40" s="5" t="s">
-        <v>442</v>
-      </c>
       <c r="D40" s="1" t="s">
-        <v>443</v>
+        <v>430</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="39" t="s">
-        <v>440</v>
+      <c r="A41" s="31" t="s">
+        <v>427</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>444</v>
-      </c>
-      <c r="C41" s="5" t="s">
-        <v>442</v>
+        <v>431</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>429</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>445</v>
+        <v>432</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="s">
-        <v>446</v>
+        <v>433</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>447</v>
-      </c>
-      <c r="C42" s="5" t="s">
-        <v>448</v>
+        <v>434</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>435</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>449</v>
+        <v>436</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="6" t="s">
-        <v>450</v>
+        <v>437</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>451</v>
-      </c>
-      <c r="C43" s="5" t="s">
-        <v>452</v>
+        <v>438</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>439</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>453</v>
+        <v>440</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="6" t="s">
-        <v>454</v>
+        <v>441</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>455</v>
-      </c>
-      <c r="C44" s="5" t="s">
-        <v>452</v>
+        <v>442</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>439</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>456</v>
+        <v>443</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="6" t="s">
-        <v>457</v>
+        <v>444</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>458</v>
-      </c>
-      <c r="C45" s="5" t="s">
-        <v>452</v>
+        <v>445</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>439</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>459</v>
+        <v>446</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="6" t="s">
-        <v>460</v>
+        <v>447</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>461</v>
-      </c>
-      <c r="C46" s="5" t="s">
-        <v>462</v>
+        <v>448</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>449</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>463</v>
+        <v>450</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="s">
-        <v>464</v>
+        <v>451</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>465</v>
-      </c>
-      <c r="C47" s="5" t="s">
-        <v>462</v>
+        <v>452</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>449</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>466</v>
+        <v>453</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="s">
-        <v>467</v>
-      </c>
-      <c r="B48" s="7" t="s">
-        <v>468</v>
-      </c>
-      <c r="C48" s="5" t="s">
-        <v>462</v>
+        <v>454</v>
+      </c>
+      <c r="B48" s="32" t="s">
+        <v>455</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>449</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>469</v>
+        <v>456</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="s">
-        <v>470</v>
+        <v>457</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>471</v>
-      </c>
-      <c r="C49" s="5" t="s">
-        <v>472</v>
+        <v>458</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>459</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>473</v>
+        <v>460</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="s">
-        <v>474</v>
+        <v>461</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>475</v>
-      </c>
-      <c r="C50" s="5" t="s">
-        <v>472</v>
+        <v>462</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>459</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>476</v>
+        <v>463</v>
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="33" t="s">
-        <v>474</v>
-      </c>
-      <c r="B51" s="14" t="s">
-        <v>477</v>
-      </c>
-      <c r="C51" s="5" t="s">
-        <v>472</v>
+      <c r="A51" s="25" t="s">
+        <v>461</v>
+      </c>
+      <c r="B51" s="8" t="s">
+        <v>464</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>459</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>478</v>
+        <v>465</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="4" t="s">
-        <v>479</v>
+      <c r="A52" s="5" t="s">
+        <v>466</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>480</v>
-      </c>
-      <c r="C52" s="5" t="s">
-        <v>472</v>
+        <v>467</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>459</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>481</v>
+        <v>468</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="s">
-        <v>482</v>
+        <v>469</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>483</v>
-      </c>
-      <c r="C53" s="5" t="s">
-        <v>484</v>
+        <v>470</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>471</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>485</v>
+        <v>472</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="s">
-        <v>482</v>
+        <v>469</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>486</v>
-      </c>
-      <c r="C54" s="5" t="s">
-        <v>484</v>
+        <v>473</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>471</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>485</v>
+        <v>472</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="s">
-        <v>487</v>
+        <v>474</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>488</v>
-      </c>
-      <c r="C55" s="5" t="s">
-        <v>489</v>
+        <v>475</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>476</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>490</v>
+        <v>477</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="s">
-        <v>491</v>
+        <v>478</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>492</v>
-      </c>
-      <c r="C56" s="5" t="s">
-        <v>489</v>
+        <v>479</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>476</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>493</v>
+        <v>480</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="s">
-        <v>494</v>
-      </c>
-      <c r="B57" s="14" t="s">
-        <v>495</v>
-      </c>
-      <c r="C57" s="5" t="s">
-        <v>489</v>
+        <v>481</v>
+      </c>
+      <c r="B57" s="8" t="s">
+        <v>482</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>476</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>496</v>
+        <v>483</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="s">
-        <v>497</v>
+        <v>484</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>498</v>
-      </c>
-      <c r="C58" s="5" t="s">
+        <v>485</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>476</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="5" t="s">
+        <v>487</v>
+      </c>
+      <c r="B59" s="8" t="s">
+        <v>488</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>476</v>
+      </c>
+      <c r="D59" s="1" t="s">
         <v>489</v>
       </c>
-      <c r="D58" s="1" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="4" t="s">
-        <v>500</v>
-      </c>
-      <c r="B59" s="14" t="s">
-        <v>501</v>
-      </c>
-      <c r="C59" s="5" t="s">
-        <v>489</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>502</v>
-      </c>
     </row>
     <row r="60">
-      <c r="A60" s="4" t="s">
-        <v>503</v>
-      </c>
-      <c r="B60" s="14" t="s">
-        <v>504</v>
-      </c>
-      <c r="C60" s="5" t="s">
-        <v>489</v>
+      <c r="A60" s="5" t="s">
+        <v>490</v>
+      </c>
+      <c r="B60" s="8" t="s">
+        <v>491</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>476</v>
       </c>
       <c r="D60" s="6" t="s">
-        <v>505</v>
+        <v>492</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="s">
-        <v>506</v>
-      </c>
-      <c r="B61" s="14" t="s">
-        <v>507</v>
+        <v>493</v>
+      </c>
+      <c r="B61" s="8" t="s">
+        <v>494</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>508</v>
+        <v>495</v>
       </c>
       <c r="D61" s="6" t="s">
-        <v>509</v>
+        <v>496</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="s">
-        <v>510</v>
+        <v>497</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>511</v>
+        <v>498</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>508</v>
+        <v>495</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>512</v>
+        <v>499</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="s">
-        <v>513</v>
+        <v>500</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>514</v>
+        <v>501</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>508</v>
+        <v>495</v>
       </c>
       <c r="D63" s="6" t="s">
-        <v>512</v>
+        <v>499</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="s">
-        <v>515</v>
+        <v>502</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>516</v>
+        <v>503</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>508</v>
+        <v>495</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>517</v>
+        <v>504</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="s">
-        <v>494</v>
+        <v>481</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>518</v>
+        <v>505</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>508</v>
+        <v>495</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>519</v>
+        <v>506</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="6" t="s">
-        <v>520</v>
+        <v>507</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>521</v>
+        <v>508</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>508</v>
+        <v>495</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>522</v>
+        <v>509</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="s">
-        <v>523</v>
+        <v>510</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>524</v>
+        <v>511</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>508</v>
+        <v>495</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>525</v>
+        <v>512</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="s">
-        <v>497</v>
+        <v>484</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>526</v>
+        <v>513</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>508</v>
+        <v>495</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>527</v>
+        <v>514</v>
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="4" t="s">
-        <v>528</v>
+      <c r="A69" s="5" t="s">
+        <v>515</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>526</v>
+        <v>513</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>508</v>
+        <v>495</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>527</v>
+        <v>514</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="s">
-        <v>529</v>
-      </c>
-      <c r="B70" s="38" t="s">
-        <v>530</v>
-      </c>
-      <c r="C70" s="5" t="s">
-        <v>531</v>
+        <v>516</v>
+      </c>
+      <c r="B70" s="30" t="s">
+        <v>517</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>518</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>532</v>
+        <v>519</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="s">
-        <v>533</v>
-      </c>
-      <c r="B71" s="38" t="s">
-        <v>534</v>
-      </c>
-      <c r="C71" s="5" t="s">
-        <v>531</v>
+        <v>520</v>
+      </c>
+      <c r="B71" s="30" t="s">
+        <v>521</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>518</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>535</v>
+        <v>522</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="6" t="s">
-        <v>536</v>
+        <v>523</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>537</v>
-      </c>
-      <c r="C72" s="5" t="s">
-        <v>538</v>
+        <v>524</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>525</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>539</v>
+        <v>526</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="3" t="s">
-        <v>540</v>
+        <v>527</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="C73" s="5" t="s">
-        <v>538</v>
+        <v>528</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>525</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="3" t="s">
+        <v>529</v>
+      </c>
+      <c r="B74" s="6" t="s">
+        <v>530</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>531</v>
+      </c>
+      <c r="D74" s="6" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="5" t="s">
+        <v>533</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>535</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="5" t="s">
+        <v>537</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="33" t="s">
+        <v>541</v>
+      </c>
+      <c r="B77" s="6" t="s">
         <v>542</v>
       </c>
-      <c r="B74" s="6" t="s">
+      <c r="C77" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="D77" s="1" t="s">
         <v>543</v>
-      </c>
-      <c r="C74" s="5" t="s">
-        <v>544</v>
-      </c>
-      <c r="D74" s="6" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="4" t="s">
-        <v>546</v>
-      </c>
-      <c r="B75" s="1" t="s">
-        <v>547</v>
-      </c>
-      <c r="C75" s="5" t="s">
-        <v>548</v>
-      </c>
-      <c r="D75" s="1" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="4" t="s">
-        <v>550</v>
-      </c>
-      <c r="B76" s="1" t="s">
-        <v>551</v>
-      </c>
-      <c r="C76" s="1" t="s">
-        <v>552</v>
-      </c>
-      <c r="D76" s="1" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="40" t="s">
-        <v>554</v>
-      </c>
-      <c r="B77" s="6" t="s">
-        <v>555</v>
-      </c>
-      <c r="C77" s="1" t="s">
-        <v>552</v>
-      </c>
-      <c r="D77" s="1" t="s">
-        <v>556</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="3" t="s">
-        <v>557</v>
+        <v>544</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>558</v>
-      </c>
-      <c r="C78" s="5" t="s">
-        <v>559</v>
+        <v>545</v>
+      </c>
+      <c r="C78" s="4" t="s">
+        <v>546</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>560</v>
+        <v>547</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="s">
-        <v>561</v>
+        <v>548</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>562</v>
-      </c>
-      <c r="C79" s="5" t="s">
-        <v>559</v>
+        <v>549</v>
+      </c>
+      <c r="C79" s="4" t="s">
+        <v>546</v>
       </c>
       <c r="D79" s="6" t="s">
-        <v>563</v>
+        <v>550</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="s">
-        <v>564</v>
+        <v>551</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>565</v>
-      </c>
-      <c r="C80" s="5" t="s">
-        <v>566</v>
+        <v>552</v>
+      </c>
+      <c r="C80" s="4" t="s">
+        <v>553</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>567</v>
+        <v>554</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="s">
-        <v>568</v>
+        <v>555</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>569</v>
-      </c>
-      <c r="C81" s="5" t="s">
-        <v>566</v>
+        <v>556</v>
+      </c>
+      <c r="C81" s="4" t="s">
+        <v>553</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>570</v>
+        <v>557</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="s">
-        <v>571</v>
+        <v>558</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>572</v>
-      </c>
-      <c r="C82" s="5" t="s">
-        <v>566</v>
+        <v>559</v>
+      </c>
+      <c r="C82" s="4" t="s">
+        <v>553</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>573</v>
+        <v>560</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="s">
-        <v>574</v>
+        <v>561</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>575</v>
-      </c>
-      <c r="C83" s="5" t="s">
-        <v>576</v>
+        <v>562</v>
+      </c>
+      <c r="C83" s="4" t="s">
+        <v>563</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>577</v>
+        <v>564</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="s">
-        <v>578</v>
+        <v>565</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>579</v>
-      </c>
-      <c r="C84" s="5" t="s">
-        <v>580</v>
+        <v>566</v>
+      </c>
+      <c r="C84" s="4" t="s">
+        <v>567</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>581</v>
+        <v>568</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="s">
-        <v>578</v>
+        <v>565</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>582</v>
-      </c>
-      <c r="C85" s="5" t="s">
-        <v>580</v>
+        <v>569</v>
+      </c>
+      <c r="C85" s="4" t="s">
+        <v>567</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>583</v>
+        <v>570</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="3" t="s">
-        <v>584</v>
+        <v>571</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>585</v>
-      </c>
-      <c r="C86" s="5" t="s">
-        <v>586</v>
+        <v>572</v>
+      </c>
+      <c r="C86" s="4" t="s">
+        <v>573</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>587</v>
+        <v>574</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="3" t="s">
-        <v>584</v>
+        <v>571</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>588</v>
-      </c>
-      <c r="C87" s="5" t="s">
-        <v>586</v>
+        <v>575</v>
+      </c>
+      <c r="C87" s="4" t="s">
+        <v>573</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>589</v>
+        <v>576</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="3" t="s">
-        <v>590</v>
-      </c>
-      <c r="B88" s="14" t="s">
-        <v>591</v>
-      </c>
-      <c r="C88" s="5" t="s">
-        <v>592</v>
+        <v>577</v>
+      </c>
+      <c r="B88" s="8" t="s">
+        <v>578</v>
+      </c>
+      <c r="C88" s="4" t="s">
+        <v>579</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="3" t="s">
-        <v>593</v>
-      </c>
-      <c r="B89" s="14" t="s">
-        <v>594</v>
-      </c>
-      <c r="C89" s="5" t="s">
-        <v>595</v>
+        <v>580</v>
+      </c>
+      <c r="B89" s="8" t="s">
+        <v>581</v>
+      </c>
+      <c r="C89" s="4" t="s">
+        <v>582</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>596</v>
+        <v>583</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="s">
-        <v>597</v>
+        <v>584</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>598</v>
-      </c>
-      <c r="C90" s="5" t="s">
-        <v>595</v>
+        <v>585</v>
+      </c>
+      <c r="C90" s="4" t="s">
+        <v>582</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>599</v>
+        <v>586</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="s">
-        <v>600</v>
+        <v>587</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>601</v>
+        <v>588</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>602</v>
+        <v>589</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="3" t="s">
-        <v>603</v>
+        <v>590</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>604</v>
-      </c>
-      <c r="C92" s="5" t="s">
-        <v>605</v>
+        <v>591</v>
+      </c>
+      <c r="C92" s="4" t="s">
+        <v>592</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>606</v>
+        <v>593</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="s">
-        <v>607</v>
+        <v>594</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>608</v>
-      </c>
-      <c r="C93" s="5" t="s">
-        <v>609</v>
+        <v>595</v>
+      </c>
+      <c r="C93" s="4" t="s">
+        <v>596</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>610</v>
+        <v>597</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="3" t="s">
-        <v>611</v>
-      </c>
-      <c r="B94" s="41" t="s">
-        <v>612</v>
+        <v>598</v>
+      </c>
+      <c r="B94" s="34" t="s">
+        <v>599</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>613</v>
-      </c>
-      <c r="D94" s="41" t="s">
-        <v>614</v>
+        <v>600</v>
+      </c>
+      <c r="D94" s="34" t="s">
+        <v>601</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="3" t="s">
-        <v>615</v>
+        <v>602</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>616</v>
-      </c>
-      <c r="C95" s="5" t="s">
-        <v>609</v>
+        <v>603</v>
+      </c>
+      <c r="C95" s="4" t="s">
+        <v>596</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>617</v>
+        <v>604</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="3" t="s">
-        <v>618</v>
+        <v>605</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>619</v>
-      </c>
-      <c r="C96" s="5" t="s">
-        <v>620</v>
+        <v>606</v>
+      </c>
+      <c r="C96" s="4" t="s">
+        <v>607</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>621</v>
+        <v>608</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="3" t="s">
+        <v>609</v>
+      </c>
+      <c r="B97" s="6" t="s">
+        <v>610</v>
+      </c>
+      <c r="C97" s="4" t="s">
+        <v>611</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="35" t="s">
+        <v>613</v>
+      </c>
+      <c r="B98" s="6" t="s">
+        <v>614</v>
+      </c>
+      <c r="C98" s="4" t="s">
+        <v>615</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="35" t="s">
+        <v>617</v>
+      </c>
+      <c r="B99" s="6" t="s">
+        <v>618</v>
+      </c>
+      <c r="C99" s="4" t="s">
+        <v>615</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="35" t="s">
+        <v>620</v>
+      </c>
+      <c r="B100" s="6" t="s">
+        <v>621</v>
+      </c>
+      <c r="C100" s="4" t="s">
+        <v>615</v>
+      </c>
+      <c r="D100" s="1" t="s">
         <v>622</v>
-      </c>
-      <c r="B97" s="6" t="s">
-        <v>623</v>
-      </c>
-      <c r="C97" s="5" t="s">
-        <v>624</v>
-      </c>
-      <c r="D97" s="1" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" s="42" t="s">
-        <v>626</v>
-      </c>
-      <c r="B98" s="6" t="s">
-        <v>627</v>
-      </c>
-      <c r="C98" s="5" t="s">
-        <v>628</v>
-      </c>
-      <c r="D98" s="1" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" s="42" t="s">
-        <v>630</v>
-      </c>
-      <c r="B99" s="6" t="s">
-        <v>631</v>
-      </c>
-      <c r="C99" s="5" t="s">
-        <v>628</v>
-      </c>
-      <c r="D99" s="1" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" s="42" t="s">
-        <v>633</v>
-      </c>
-      <c r="B100" s="6" t="s">
-        <v>634</v>
-      </c>
-      <c r="C100" s="5" t="s">
-        <v>628</v>
-      </c>
-      <c r="D100" s="1" t="s">
-        <v>635</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="s">
-        <v>636</v>
+        <v>623</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>637</v>
-      </c>
-      <c r="C101" s="5" t="s">
-        <v>638</v>
+        <v>624</v>
+      </c>
+      <c r="C101" s="4" t="s">
+        <v>625</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>639</v>
+        <v>626</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="3" t="s">
-        <v>640</v>
+        <v>627</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>641</v>
-      </c>
-      <c r="C102" s="5" t="s">
-        <v>638</v>
+        <v>628</v>
+      </c>
+      <c r="C102" s="4" t="s">
+        <v>625</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="3" t="s">
-        <v>642</v>
+        <v>629</v>
       </c>
       <c r="B103" s="6" t="s">
-        <v>643</v>
-      </c>
-      <c r="C103" s="5" t="s">
-        <v>644</v>
+        <v>630</v>
+      </c>
+      <c r="C103" s="4" t="s">
+        <v>631</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>645</v>
+        <v>632</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="3" t="s">
-        <v>646</v>
-      </c>
-      <c r="B104" s="14" t="s">
-        <v>647</v>
-      </c>
-      <c r="C104" s="5" t="s">
-        <v>644</v>
+        <v>633</v>
+      </c>
+      <c r="B104" s="8" t="s">
+        <v>634</v>
+      </c>
+      <c r="C104" s="4" t="s">
+        <v>631</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>648</v>
+        <v>635</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="6" t="s">
-        <v>649</v>
+        <v>636</v>
       </c>
       <c r="B105" s="6" t="s">
-        <v>650</v>
-      </c>
-      <c r="C105" s="5" t="s">
-        <v>644</v>
+        <v>637</v>
+      </c>
+      <c r="C105" s="4" t="s">
+        <v>631</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>651</v>
+        <v>638</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="3" t="s">
-        <v>652</v>
-      </c>
-      <c r="B106" s="43" t="s">
-        <v>653</v>
-      </c>
-      <c r="C106" s="5" t="s">
-        <v>644</v>
+        <v>639</v>
+      </c>
+      <c r="B106" s="36" t="s">
+        <v>640</v>
+      </c>
+      <c r="C106" s="4" t="s">
+        <v>631</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="3" t="s">
-        <v>654</v>
-      </c>
-      <c r="B107" s="43" t="s">
-        <v>655</v>
-      </c>
-      <c r="C107" s="5" t="s">
-        <v>644</v>
+        <v>641</v>
+      </c>
+      <c r="B107" s="36" t="s">
+        <v>642</v>
+      </c>
+      <c r="C107" s="4" t="s">
+        <v>631</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="6" t="s">
-        <v>656</v>
+        <v>643</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>657</v>
-      </c>
-      <c r="C108" s="5" t="s">
-        <v>658</v>
+        <v>644</v>
+      </c>
+      <c r="C108" s="4" t="s">
+        <v>645</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>659</v>
+        <v>646</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="3" t="s">
-        <v>660</v>
+        <v>647</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>661</v>
-      </c>
-      <c r="C109" s="5" t="s">
-        <v>658</v>
+        <v>648</v>
+      </c>
+      <c r="C109" s="4" t="s">
+        <v>645</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>662</v>
+        <v>649</v>
       </c>
     </row>
     <row r="110">
-      <c r="A110" s="9" t="s">
-        <v>663</v>
+      <c r="A110" s="37" t="s">
+        <v>650</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>664</v>
-      </c>
-      <c r="C110" s="5" t="s">
-        <v>665</v>
+        <v>651</v>
+      </c>
+      <c r="C110" s="4" t="s">
+        <v>652</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>666</v>
+        <v>653</v>
       </c>
     </row>
     <row r="111">
-      <c r="A111" s="9" t="s">
-        <v>667</v>
+      <c r="A111" s="37" t="s">
+        <v>654</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>668</v>
-      </c>
-      <c r="C111" s="5" t="s">
-        <v>665</v>
+        <v>655</v>
+      </c>
+      <c r="C111" s="4" t="s">
+        <v>652</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>669</v>
+        <v>656</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="3" t="s">
-        <v>670</v>
-      </c>
-      <c r="B112" s="44" t="s">
-        <v>671</v>
-      </c>
-      <c r="C112" s="5" t="s">
-        <v>672</v>
+        <v>657</v>
+      </c>
+      <c r="B112" s="38" t="s">
+        <v>658</v>
+      </c>
+      <c r="C112" s="4" t="s">
+        <v>659</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>673</v>
+        <v>660</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="3" t="s">
-        <v>674</v>
+        <v>661</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>675</v>
-      </c>
-      <c r="C113" s="5" t="s">
-        <v>672</v>
+        <v>662</v>
+      </c>
+      <c r="C113" s="4" t="s">
+        <v>659</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>676</v>
+        <v>663</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="6" t="s">
-        <v>677</v>
+        <v>664</v>
       </c>
       <c r="B114" s="6" t="s">
-        <v>678</v>
-      </c>
-      <c r="C114" s="5" t="s">
-        <v>672</v>
+        <v>665</v>
+      </c>
+      <c r="C114" s="4" t="s">
+        <v>659</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>679</v>
+        <v>666</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="3" t="s">
-        <v>680</v>
-      </c>
-      <c r="B115" s="15" t="s">
-        <v>681</v>
-      </c>
-      <c r="C115" s="5" t="s">
-        <v>682</v>
+        <v>667</v>
+      </c>
+      <c r="B115" s="7" t="s">
+        <v>668</v>
+      </c>
+      <c r="C115" s="4" t="s">
+        <v>669</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>683</v>
+        <v>670</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="3" t="s">
-        <v>684</v>
+        <v>671</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>685</v>
-      </c>
-      <c r="C116" s="5" t="s">
-        <v>682</v>
+        <v>672</v>
+      </c>
+      <c r="C116" s="4" t="s">
+        <v>669</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>686</v>
+        <v>673</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="3" t="s">
-        <v>687</v>
-      </c>
-      <c r="B117" s="44" t="s">
-        <v>688</v>
-      </c>
-      <c r="C117" s="5" t="s">
-        <v>689</v>
+        <v>674</v>
+      </c>
+      <c r="B117" s="38" t="s">
+        <v>675</v>
+      </c>
+      <c r="C117" s="4" t="s">
+        <v>676</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>690</v>
+        <v>677</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="3" t="s">
-        <v>691</v>
+        <v>678</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>692</v>
-      </c>
-      <c r="C118" s="5" t="s">
-        <v>693</v>
+        <v>679</v>
+      </c>
+      <c r="C118" s="4" t="s">
+        <v>680</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>694</v>
+        <v>681</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="3" t="s">
-        <v>695</v>
+        <v>682</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>696</v>
-      </c>
-      <c r="C119" s="5" t="s">
-        <v>693</v>
+        <v>683</v>
+      </c>
+      <c r="C119" s="4" t="s">
+        <v>680</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>697</v>
+        <v>684</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="3" t="s">
-        <v>698</v>
+        <v>685</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>699</v>
-      </c>
-      <c r="C120" s="45" t="s">
-        <v>693</v>
+        <v>686</v>
+      </c>
+      <c r="C120" s="39" t="s">
+        <v>680</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>700</v>
+        <v>687</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="3" t="s">
-        <v>701</v>
+        <v>688</v>
       </c>
       <c r="B121" s="6" t="s">
-        <v>702</v>
-      </c>
-      <c r="C121" s="45" t="s">
-        <v>693</v>
+        <v>689</v>
+      </c>
+      <c r="C121" s="39" t="s">
+        <v>680</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>703</v>
+        <v>690</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="3" t="s">
-        <v>701</v>
+        <v>688</v>
       </c>
       <c r="B122" s="6" t="s">
-        <v>704</v>
-      </c>
-      <c r="C122" s="45" t="s">
-        <v>693</v>
+        <v>691</v>
+      </c>
+      <c r="C122" s="39" t="s">
+        <v>680</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>705</v>
+        <v>692</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="3" t="s">
-        <v>706</v>
+        <v>693</v>
       </c>
       <c r="B123" s="6" t="s">
-        <v>707</v>
-      </c>
-      <c r="C123" s="5" t="s">
-        <v>708</v>
+        <v>694</v>
+      </c>
+      <c r="C123" s="4" t="s">
+        <v>695</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>709</v>
+        <v>696</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="3" t="s">
-        <v>710</v>
+        <v>697</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>711</v>
-      </c>
-      <c r="C124" s="5" t="s">
-        <v>708</v>
+        <v>698</v>
+      </c>
+      <c r="C124" s="4" t="s">
+        <v>695</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>712</v>
+        <v>699</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="3" t="s">
-        <v>710</v>
+        <v>697</v>
       </c>
       <c r="B125" s="6" t="s">
-        <v>713</v>
-      </c>
-      <c r="C125" s="5" t="s">
-        <v>708</v>
+        <v>700</v>
+      </c>
+      <c r="C125" s="4" t="s">
+        <v>695</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>714</v>
+        <v>701</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="3" t="s">
-        <v>715</v>
+        <v>702</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>716</v>
-      </c>
-      <c r="C126" s="5" t="s">
-        <v>708</v>
+        <v>703</v>
+      </c>
+      <c r="C126" s="4" t="s">
+        <v>695</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>717</v>
+        <v>704</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="3" t="s">
-        <v>718</v>
+        <v>705</v>
       </c>
       <c r="B127" s="6" t="s">
-        <v>719</v>
-      </c>
-      <c r="C127" s="5" t="s">
-        <v>720</v>
+        <v>706</v>
+      </c>
+      <c r="C127" s="4" t="s">
+        <v>707</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>721</v>
+        <v>708</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="s">
-        <v>722</v>
+        <v>709</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>723</v>
-      </c>
-      <c r="C128" s="5" t="s">
-        <v>720</v>
+        <v>710</v>
+      </c>
+      <c r="C128" s="4" t="s">
+        <v>707</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>724</v>
+        <v>711</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="s">
-        <v>725</v>
+        <v>712</v>
       </c>
       <c r="B129" s="6" t="s">
-        <v>726</v>
-      </c>
-      <c r="C129" s="5" t="s">
-        <v>720</v>
+        <v>713</v>
+      </c>
+      <c r="C129" s="4" t="s">
+        <v>707</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>727</v>
+        <v>714</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="s">
-        <v>728</v>
+        <v>715</v>
       </c>
       <c r="B130" s="6" t="s">
-        <v>729</v>
-      </c>
-      <c r="C130" s="5" t="s">
-        <v>720</v>
+        <v>716</v>
+      </c>
+      <c r="C130" s="4" t="s">
+        <v>707</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>730</v>
+        <v>717</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="s">
-        <v>731</v>
+        <v>718</v>
       </c>
       <c r="B131" s="6" t="s">
-        <v>732</v>
-      </c>
-      <c r="C131" s="5" t="s">
-        <v>733</v>
+        <v>719</v>
+      </c>
+      <c r="C131" s="4" t="s">
+        <v>720</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>734</v>
+        <v>721</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="s">
-        <v>731</v>
+        <v>718</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="C132" s="5" t="s">
-        <v>733</v>
+        <v>722</v>
+      </c>
+      <c r="C132" s="4" t="s">
+        <v>720</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>736</v>
+        <v>723</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="s">
-        <v>737</v>
+        <v>724</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>738</v>
-      </c>
-      <c r="C133" s="5" t="s">
-        <v>733</v>
+        <v>725</v>
+      </c>
+      <c r="C133" s="4" t="s">
+        <v>720</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>739</v>
+        <v>726</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="s">
-        <v>740</v>
+        <v>727</v>
       </c>
       <c r="B134" s="6" t="s">
-        <v>741</v>
-      </c>
-      <c r="C134" s="5" t="s">
-        <v>733</v>
+        <v>728</v>
+      </c>
+      <c r="C134" s="4" t="s">
+        <v>720</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>742</v>
+        <v>729</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="s">
-        <v>743</v>
+        <v>730</v>
       </c>
       <c r="B135" s="6" t="s">
-        <v>744</v>
-      </c>
-      <c r="C135" s="5" t="s">
-        <v>733</v>
+        <v>731</v>
+      </c>
+      <c r="C135" s="4" t="s">
+        <v>720</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>745</v>
+        <v>732</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="s">
-        <v>746</v>
+        <v>733</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>747</v>
-      </c>
-      <c r="C136" s="5" t="s">
-        <v>733</v>
+        <v>734</v>
+      </c>
+      <c r="C136" s="4" t="s">
+        <v>720</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>748</v>
+        <v>735</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="s">
-        <v>749</v>
+        <v>736</v>
       </c>
       <c r="B137" s="6" t="s">
-        <v>750</v>
-      </c>
-      <c r="C137" s="5" t="s">
-        <v>733</v>
+        <v>737</v>
+      </c>
+      <c r="C137" s="4" t="s">
+        <v>720</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>751</v>
+        <v>738</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="s">
-        <v>749</v>
+        <v>736</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>752</v>
-      </c>
-      <c r="C138" s="5" t="s">
-        <v>733</v>
+        <v>739</v>
+      </c>
+      <c r="C138" s="4" t="s">
+        <v>720</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>753</v>
+        <v>740</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="3" t="s">
-        <v>687</v>
+        <v>674</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>754</v>
-      </c>
-      <c r="C139" s="5" t="s">
-        <v>755</v>
+        <v>741</v>
+      </c>
+      <c r="C139" s="4" t="s">
+        <v>742</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>756</v>
+        <v>743</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="3" t="s">
-        <v>757</v>
+        <v>744</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>758</v>
-      </c>
-      <c r="C140" s="5" t="s">
-        <v>755</v>
+        <v>745</v>
+      </c>
+      <c r="C140" s="4" t="s">
+        <v>742</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>759</v>
+        <v>746</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="3" t="s">
-        <v>760</v>
-      </c>
-      <c r="B141" s="14" t="s">
-        <v>761</v>
-      </c>
-      <c r="C141" s="5" t="s">
-        <v>762</v>
+        <v>747</v>
+      </c>
+      <c r="B141" s="8" t="s">
+        <v>748</v>
+      </c>
+      <c r="C141" s="4" t="s">
+        <v>749</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>763</v>
+        <v>750</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="3" t="s">
+        <v>751</v>
+      </c>
+      <c r="B142" s="6" t="s">
+        <v>752</v>
+      </c>
+      <c r="C142" s="4" t="s">
+        <v>753</v>
+      </c>
+      <c r="D142" s="1" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="25" t="s">
+        <v>755</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="C143" s="4" t="s">
+        <v>753</v>
+      </c>
+      <c r="D143" s="1" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="25" t="s">
+        <v>758</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>759</v>
+      </c>
+      <c r="C144" s="4" t="s">
+        <v>753</v>
+      </c>
+      <c r="D144" s="1" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="25" t="s">
+        <v>761</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>762</v>
+      </c>
+      <c r="C145" s="4" t="s">
+        <v>753</v>
+      </c>
+      <c r="D145" s="1" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="25" t="s">
         <v>764</v>
       </c>
-      <c r="B142" s="6" t="s">
+      <c r="C146" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D146" s="1" t="s">
         <v>765</v>
       </c>
-      <c r="C142" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="D142" s="1" t="s">
+    </row>
+    <row r="147">
+      <c r="A147" s="25" t="s">
         <v>766</v>
       </c>
-    </row>
-    <row r="143">
-      <c r="A143" s="33" t="s">
+      <c r="B147" s="1" t="s">
         <v>767</v>
       </c>
-      <c r="B143" s="1" t="s">
+      <c r="C147" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D147" s="1" t="s">
         <v>768</v>
       </c>
-      <c r="C143" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="D143" s="1" t="s">
+    </row>
+    <row r="148">
+      <c r="A148" s="25" t="s">
         <v>769</v>
       </c>
-    </row>
-    <row r="144">
-      <c r="A144" s="33" t="s">
+      <c r="B148" s="6" t="s">
         <v>770</v>
       </c>
-      <c r="B144" s="1" t="s">
+      <c r="C148" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D148" s="1" t="s">
         <v>771</v>
       </c>
-      <c r="C144" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="D144" s="1" t="s">
+    </row>
+    <row r="149">
+      <c r="A149" s="25" t="s">
         <v>772</v>
       </c>
-    </row>
-    <row r="145">
-      <c r="A145" s="33" t="s">
+      <c r="B149" s="1" t="s">
         <v>773</v>
       </c>
-      <c r="B145" s="1" t="s">
+      <c r="C149" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D149" s="1" t="s">
         <v>774</v>
-      </c>
-      <c r="C145" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="D145" s="1" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" s="33" t="s">
-        <v>776</v>
-      </c>
-      <c r="C146" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="D146" s="1" t="s">
-        <v>777</v>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" s="33" t="s">
-        <v>778</v>
-      </c>
-      <c r="B147" s="1" t="s">
-        <v>779</v>
-      </c>
-      <c r="C147" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="D147" s="1" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" s="33" t="s">
-        <v>781</v>
-      </c>
-      <c r="B148" s="6" t="s">
-        <v>782</v>
-      </c>
-      <c r="C148" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="D148" s="1" t="s">
-        <v>783</v>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" s="33" t="s">
-        <v>784</v>
-      </c>
-      <c r="B149" s="1" t="s">
-        <v>785</v>
-      </c>
-      <c r="C149" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="D149" s="1" t="s">
-        <v>786</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="3" t="s">
-        <v>78</v>
+        <v>27</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>787</v>
-      </c>
-      <c r="C150" s="5" t="s">
-        <v>61</v>
+        <v>775</v>
+      </c>
+      <c r="C150" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>788</v>
+        <v>776</v>
       </c>
     </row>
     <row r="151">
-      <c r="A151" s="46" t="s">
-        <v>789</v>
+      <c r="A151" s="40" t="s">
+        <v>777</v>
       </c>
       <c r="B151" s="6" t="s">
-        <v>790</v>
-      </c>
-      <c r="C151" s="5" t="s">
-        <v>103</v>
+        <v>778</v>
+      </c>
+      <c r="C151" s="4" t="s">
+        <v>52</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>791</v>
+        <v>779</v>
       </c>
     </row>
     <row r="152">
-      <c r="A152" s="46" t="s">
-        <v>792</v>
-      </c>
-      <c r="B152" s="34" t="s">
-        <v>793</v>
-      </c>
-      <c r="C152" s="5" t="s">
-        <v>103</v>
+      <c r="A152" s="40" t="s">
+        <v>780</v>
+      </c>
+      <c r="B152" s="26" t="s">
+        <v>781</v>
+      </c>
+      <c r="C152" s="4" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="s">
-        <v>794</v>
+        <v>782</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>795</v>
+        <v>783</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>103</v>
+        <v>52</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>796</v>
+        <v>784</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="s">
-        <v>792</v>
+        <v>780</v>
       </c>
       <c r="B154" s="6" t="s">
-        <v>797</v>
-      </c>
-      <c r="C154" s="5" t="s">
-        <v>103</v>
+        <v>785</v>
+      </c>
+      <c r="C154" s="4" t="s">
+        <v>52</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>798</v>
+        <v>786</v>
       </c>
     </row>
     <row r="155">
-      <c r="A155" s="19" t="s">
-        <v>131</v>
-      </c>
-      <c r="B155" s="19" t="s">
-        <v>799</v>
-      </c>
-      <c r="C155" s="17" t="s">
-        <v>116</v>
+      <c r="A155" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="B155" s="12" t="s">
+        <v>787</v>
+      </c>
+      <c r="C155" s="10" t="s">
+        <v>68</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>800</v>
+        <v>788</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="B156" s="19" t="s">
-        <v>801</v>
-      </c>
-      <c r="C156" s="17" t="s">
-        <v>116</v>
-      </c>
-      <c r="D156" s="19" t="s">
-        <v>800</v>
+        <v>82</v>
+      </c>
+      <c r="B156" s="12" t="s">
+        <v>789</v>
+      </c>
+      <c r="C156" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="D156" s="12" t="s">
+        <v>788</v>
       </c>
     </row>
     <row r="157">
-      <c r="A157" s="19" t="s">
-        <v>131</v>
-      </c>
-      <c r="B157" s="19" t="s">
-        <v>802</v>
-      </c>
-      <c r="C157" s="17" t="s">
-        <v>116</v>
+      <c r="A157" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="B157" s="12" t="s">
+        <v>790</v>
+      </c>
+      <c r="C157" s="10" t="s">
+        <v>68</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>803</v>
+        <v>791</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="B158" s="19" t="s">
-        <v>802</v>
-      </c>
-      <c r="C158" s="17" t="s">
-        <v>116</v>
+        <v>82</v>
+      </c>
+      <c r="B158" s="12" t="s">
+        <v>790</v>
+      </c>
+      <c r="C158" s="10" t="s">
+        <v>68</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>803</v>
+        <v>791</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="B159" s="19" t="s">
-        <v>804</v>
-      </c>
-      <c r="C159" s="17" t="s">
-        <v>156</v>
+        <v>110</v>
+      </c>
+      <c r="B159" s="12" t="s">
+        <v>792</v>
+      </c>
+      <c r="C159" s="10" t="s">
+        <v>108</v>
       </c>
       <c r="D159" s="1" t="s">
-        <v>805</v>
+        <v>793</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="3" t="s">
-        <v>164</v>
+        <v>116</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>806</v>
-      </c>
-      <c r="C160" s="17" t="s">
-        <v>156</v>
+        <v>794</v>
+      </c>
+      <c r="C160" s="10" t="s">
+        <v>108</v>
       </c>
       <c r="D160" s="1" t="s">
-        <v>807</v>
+        <v>795</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="B161" s="19" t="s">
-        <v>808</v>
-      </c>
-      <c r="C161" s="17" t="s">
-        <v>156</v>
+        <v>118</v>
+      </c>
+      <c r="B161" s="12" t="s">
+        <v>796</v>
+      </c>
+      <c r="C161" s="10" t="s">
+        <v>108</v>
       </c>
       <c r="D161" s="1" t="s">
-        <v>809</v>
+        <v>797</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="B162" s="19" t="s">
-        <v>804</v>
-      </c>
-      <c r="C162" s="17" t="s">
-        <v>156</v>
+        <v>118</v>
+      </c>
+      <c r="B162" s="12" t="s">
+        <v>792</v>
+      </c>
+      <c r="C162" s="10" t="s">
+        <v>108</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>810</v>
+        <v>798</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="3" t="s">
-        <v>186</v>
+        <v>139</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>811</v>
-      </c>
-      <c r="C163" s="17" t="s">
-        <v>156</v>
+        <v>799</v>
+      </c>
+      <c r="C163" s="10" t="s">
+        <v>108</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>812</v>
+        <v>800</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="B164" s="19" t="s">
-        <v>813</v>
-      </c>
-      <c r="C164" s="17" t="s">
-        <v>156</v>
+        <v>143</v>
+      </c>
+      <c r="B164" s="12" t="s">
+        <v>801</v>
+      </c>
+      <c r="C164" s="10" t="s">
+        <v>108</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>814</v>
+        <v>802</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="B165" s="19" t="s">
-        <v>815</v>
-      </c>
-      <c r="C165" s="17" t="s">
-        <v>156</v>
+        <v>150</v>
+      </c>
+      <c r="B165" s="12" t="s">
+        <v>803</v>
+      </c>
+      <c r="C165" s="10" t="s">
+        <v>108</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>816</v>
+        <v>804</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="B166" s="19" t="s">
-        <v>817</v>
-      </c>
-      <c r="C166" s="17" t="s">
-        <v>156</v>
+        <v>152</v>
+      </c>
+      <c r="B166" s="12" t="s">
+        <v>805</v>
+      </c>
+      <c r="C166" s="10" t="s">
+        <v>108</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>818</v>
+        <v>806</v>
       </c>
     </row>
     <row r="167">
-      <c r="A167" s="21" t="s">
-        <v>218</v>
+      <c r="A167" s="14" t="s">
+        <v>171</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>819</v>
-      </c>
-      <c r="C167" s="17" t="s">
-        <v>209</v>
+        <v>807</v>
+      </c>
+      <c r="C167" s="10" t="s">
+        <v>162</v>
       </c>
       <c r="D167" s="1" t="s">
-        <v>820</v>
+        <v>808</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="3" t="s">
-        <v>219</v>
+        <v>172</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>821</v>
-      </c>
-      <c r="C168" s="17" t="s">
-        <v>209</v>
+        <v>809</v>
+      </c>
+      <c r="C168" s="10" t="s">
+        <v>162</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>820</v>
+        <v>808</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="3" t="s">
-        <v>282</v>
+        <v>236</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>279</v>
+        <v>233</v>
       </c>
       <c r="D169" s="1" t="s">
-        <v>822</v>
+        <v>810</v>
       </c>
     </row>
   </sheetData>

--- a/curation_of_classes/cell_classes.xlsx
+++ b/curation_of_classes/cell_classes.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1297" uniqueCount="811">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1228" uniqueCount="786">
   <si>
     <t>label</t>
   </si>
@@ -38,107 +38,13 @@
     <t>described by source</t>
   </si>
   <si>
-    <t>renal pericyte</t>
-  </si>
-  <si>
-    <t>pericyte</t>
-  </si>
-  <si>
-    <t>Q59770869</t>
-  </si>
-  <si>
-    <t>kidney</t>
-  </si>
-  <si>
-    <t>medullary collecting duct cell</t>
-  </si>
-  <si>
-    <t>Q11706252</t>
-  </si>
-  <si>
-    <t>paranephric body adipocyte</t>
-  </si>
-  <si>
-    <t>adipocyte</t>
-  </si>
-  <si>
-    <t>PBA</t>
-  </si>
-  <si>
-    <t>Q7135465</t>
-  </si>
-  <si>
-    <t>proximal tubule S1/S2 cell</t>
-  </si>
-  <si>
-    <t>Q101062469</t>
-  </si>
-  <si>
-    <t>Q2916078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">proximal tubule S3 type 1 cell </t>
-  </si>
-  <si>
-    <t>proximal tubule S3 type 2 cell</t>
-  </si>
-  <si>
-    <t>excitatory CUX2-expressing projection neuron</t>
-  </si>
-  <si>
-    <t xml:space="preserve">neuron </t>
-  </si>
-  <si>
-    <t>Q91969373</t>
-  </si>
-  <si>
-    <t>stressed CUX2-expressing neuron</t>
-  </si>
-  <si>
-    <t>human stressed CUX2-expressing neuron</t>
-  </si>
-  <si>
-    <t>synovial fibroblast</t>
-  </si>
-  <si>
-    <t>fibroblast</t>
-  </si>
-  <si>
-    <t>Q36433286</t>
-  </si>
-  <si>
-    <t>human synovial fibroblast</t>
-  </si>
-  <si>
-    <t>rheumatoid arthritis synovial fibroblast</t>
-  </si>
-  <si>
-    <t>rheumatoid arthritis synovial fibroblast | RASF</t>
-  </si>
-  <si>
-    <t>human rheumatoid arthritis synovial fibroblast</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-synovial macrophage</t>
-  </si>
-  <si>
-    <t>macrophage</t>
-  </si>
-  <si>
-    <t>human synovial macrophage</t>
+    <t>human aortic smooth muscle cell</t>
   </si>
   <si>
     <t>aortic smooth muscle cell</t>
   </si>
   <si>
-    <t>Q66508979</t>
-  </si>
-  <si>
     <t>Q97903250</t>
-  </si>
-  <si>
-    <t>human aortic smooth muscle cell</t>
   </si>
   <si>
     <t>mouse aortic smooth muscle cell</t>
@@ -319,6 +225,9 @@
     <t>skin fibroblast</t>
   </si>
   <si>
+    <t>fibroblast</t>
+  </si>
+  <si>
     <t>Q37050327</t>
   </si>
   <si>
@@ -346,6 +255,9 @@
     <t>mesothelial adipocyte</t>
   </si>
   <si>
+    <t>adipocyte</t>
+  </si>
+  <si>
     <t xml:space="preserve">human mesothelial adipocyte </t>
   </si>
   <si>
@@ -431,6 +343,9 @@
   </si>
   <si>
     <t>TREM2, CD9 and LPL expressing lipid-associated macrophage</t>
+  </si>
+  <si>
+    <t>macrophage</t>
   </si>
   <si>
     <t>human TREM2, CD9 and LPL expressing lipid-associated macrophage</t>
@@ -878,6 +793,9 @@
     <t>PDPN+ FAPα+ THY1- cell</t>
   </si>
   <si>
+    <t>synovial fibroblast</t>
+  </si>
+  <si>
     <t>SF | SFs</t>
   </si>
   <si>
@@ -2318,6 +2236,9 @@
     <t>mouse proximal tubule S1/S2 cell</t>
   </si>
   <si>
+    <t>Q59770869</t>
+  </si>
+  <si>
     <t>" S1/S2 cells (Slc5a12+, Gatm+, Alpl+, and Slc34a1+)"</t>
   </si>
   <si>
@@ -2346,6 +2267,9 @@
   </si>
   <si>
     <t>"New marker gene s were identified, such as Daam2 for renal pericytes"</t>
+  </si>
+  <si>
+    <t>human stressed CUX2-expressing neuron</t>
   </si>
   <si>
     <t>PPIA and NORAD</t>
@@ -2494,6 +2418,11 @@
     </font>
     <font>
       <sz val="11.0"/>
+      <color rgb="FFD4D4D4"/>
+      <name val="&quot;Droid Sans Mono&quot;"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
       <color rgb="FFCE9178"/>
       <name val="&quot;Droid Sans Mono&quot;"/>
     </font>
@@ -2504,6 +2433,11 @@
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="11.0"/>
+      <color rgb="FFD4D4D4"/>
+      <name val="Droid Sans Mono"/>
+    </font>
+    <font>
       <color rgb="FF000000"/>
       <name val="&quot;Arial&quot;"/>
     </font>
@@ -2511,16 +2445,6 @@
       <i/>
       <color theme="1"/>
       <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="11.0"/>
-      <color rgb="FFD4D4D4"/>
-      <name val="&quot;Droid Sans Mono&quot;"/>
-    </font>
-    <font>
-      <sz val="11.0"/>
-      <color rgb="FFD4D4D4"/>
-      <name val="Droid Sans Mono"/>
     </font>
     <font>
       <color rgb="FF72777D"/>
@@ -2681,7 +2605,7 @@
     <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -2690,13 +2614,13 @@
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -2708,7 +2632,7 @@
     <xf borderId="0" fillId="3" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -2759,7 +2683,7 @@
     <xf borderId="0" fillId="0" fontId="24" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="25" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -3060,16 +2984,14 @@
       <c r="A2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="5" t="s">
         <v>10</v>
       </c>
       <c r="D2" s="2"/>
-      <c r="E2" s="3" t="s">
-        <v>11</v>
-      </c>
+      <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
@@ -3092,18 +3014,16 @@
     </row>
     <row r="3">
       <c r="A3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>10</v>
       </c>
       <c r="D3" s="2"/>
-      <c r="E3" s="3" t="s">
-        <v>11</v>
-      </c>
+      <c r="E3" s="2"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
@@ -3126,20 +3046,16 @@
     </row>
     <row r="4">
       <c r="A4" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>17</v>
-      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
@@ -3162,18 +3078,16 @@
     </row>
     <row r="5">
       <c r="A5" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>10</v>
       </c>
       <c r="D5" s="2"/>
-      <c r="E5" s="3" t="s">
-        <v>20</v>
-      </c>
+      <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
@@ -3196,18 +3110,16 @@
     </row>
     <row r="6">
       <c r="A6" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>10</v>
       </c>
       <c r="D6" s="2"/>
-      <c r="E6" s="3" t="s">
-        <v>20</v>
-      </c>
+      <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
@@ -3230,18 +3142,16 @@
     </row>
     <row r="7">
       <c r="A7" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="D7" s="2"/>
-      <c r="E7" s="3" t="s">
-        <v>20</v>
-      </c>
+      <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
@@ -3263,14 +3173,13 @@
       <c r="X7" s="2"/>
     </row>
     <row r="8">
-      <c r="A8" s="3" t="str">
-        <f t="shared" ref="A8:A13" si="1">CONCAT("mouse ",A2)</f>
-        <v>mouse renal pericyte</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="4" t="s">
+      <c r="A8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="5" t="s">
         <v>10</v>
       </c>
       <c r="D8" s="2"/>
@@ -3296,14 +3205,13 @@
       <c r="X8" s="2"/>
     </row>
     <row r="9">
-      <c r="A9" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>mouse medullary collecting duct cell</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="4" t="s">
+      <c r="A9" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="5" t="s">
         <v>10</v>
       </c>
       <c r="D9" s="2"/>
@@ -3329,15 +3237,14 @@
       <c r="X9" s="2"/>
     </row>
     <row r="10">
-      <c r="A10" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>mouse paranephric body adipocyte</v>
+      <c r="A10" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>10</v>
+        <v>20</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>21</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -3362,21 +3269,24 @@
       <c r="X10" s="2"/>
     </row>
     <row r="11">
-      <c r="A11" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>mouse proximal tubule S1/S2 cell</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" s="2"/>
+      <c r="A11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>23</v>
+      </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
+      <c r="H11" s="5" t="s">
+        <v>21</v>
+      </c>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
@@ -3395,15 +3305,14 @@
       <c r="X11" s="2"/>
     </row>
     <row r="12">
-      <c r="A12" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>mouse proximal tubule S3 type 1 cell </v>
-      </c>
-      <c r="B12" s="3" t="s">
+      <c r="A12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="5" t="s">
         <v>21</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>10</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
@@ -3428,19 +3337,22 @@
       <c r="X12" s="2"/>
     </row>
     <row r="13">
-      <c r="A13" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>mouse proximal tubule S3 type 2 cell</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D13" s="2"/>
+      <c r="A13" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
+      <c r="F13" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
@@ -3461,18 +3373,20 @@
       <c r="X13" s="2"/>
     </row>
     <row r="14">
-      <c r="A14" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" s="3" t="s">
+      <c r="A14" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="4" t="s">
-        <v>25</v>
+      <c r="C14" s="5" t="s">
+        <v>21</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
+      <c r="F14" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
@@ -3493,14 +3407,15 @@
       <c r="X14" s="2"/>
     </row>
     <row r="15">
-      <c r="A15" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>25</v>
+      <c r="A15" s="2" t="str">
+        <f t="shared" ref="A15:A18" si="1">CONCAT("mouse ",A11)</f>
+        <v>mouse dipeptidyl peptidase–4–expressing (DPP4+) cell</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>21</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
@@ -3525,14 +3440,15 @@
       <c r="X15" s="2"/>
     </row>
     <row r="16">
-      <c r="A16" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>25</v>
+      <c r="A16" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>mouse preadipocyte</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>21</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
@@ -3557,14 +3473,15 @@
       <c r="X16" s="2"/>
     </row>
     <row r="17">
-      <c r="A17" s="3" t="s">
-        <v>28</v>
+      <c r="A17" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>mouse ICAM1+ preadipocyte</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>30</v>
+        <v>26</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>21</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
@@ -3589,16 +3506,17 @@
       <c r="X17" s="2"/>
     </row>
     <row r="18">
-      <c r="A18" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C18" s="4" t="s">
+      <c r="A18" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>mouse CD142+ preadipocyte</v>
+      </c>
+      <c r="B18" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D18" s="3"/>
+      <c r="C18" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
@@ -3621,14 +3539,14 @@
       <c r="X18" s="2"/>
     </row>
     <row r="19">
-      <c r="A19" s="6" t="s">
+      <c r="A19" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B19" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>30</v>
+      <c r="C19" s="5" t="s">
+        <v>21</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>33</v>
@@ -3655,18 +3573,17 @@
       <c r="X19" s="2"/>
     </row>
     <row r="20">
-      <c r="A20" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>33</v>
-      </c>
+      <c r="A20" s="2" t="str">
+        <f t="shared" ref="A20:A23" si="2">CONCAT("human " ,A11)</f>
+        <v>human dipeptidyl peptidase–4–expressing (DPP4+) cell</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
@@ -3689,14 +3606,15 @@
       <c r="X20" s="2"/>
     </row>
     <row r="21">
-      <c r="A21" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>30</v>
+      <c r="A21" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>human preadipocyte</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>21</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
@@ -3721,14 +3639,15 @@
       <c r="X21" s="2"/>
     </row>
     <row r="22">
-      <c r="A22" s="3" t="s">
-        <v>37</v>
+      <c r="A22" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>human ICAM1+ preadipocyte</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>30</v>
+        <v>26</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>21</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
@@ -3753,14 +3672,15 @@
       <c r="X22" s="2"/>
     </row>
     <row r="23">
-      <c r="A23" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>40</v>
+      <c r="A23" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>human CD142+ preadipocyte</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>21</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
@@ -3786,13 +3706,13 @@
     </row>
     <row r="24">
       <c r="A24" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B24" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>40</v>
+        <v>34</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>21</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
@@ -3818,13 +3738,13 @@
     </row>
     <row r="25">
       <c r="A25" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B25" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>40</v>
+        <v>35</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>37</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
@@ -3850,15 +3770,17 @@
     </row>
     <row r="26">
       <c r="A26" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B26" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C26" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D26" s="2"/>
+      <c r="B26" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>39</v>
+      </c>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
@@ -3881,17 +3803,19 @@
       <c r="X26" s="2"/>
     </row>
     <row r="27">
-      <c r="A27" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B27" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="C27" s="4" t="s">
+      <c r="A27" s="1" t="s">
         <v>40</v>
       </c>
+      <c r="B27" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>37</v>
+      </c>
       <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
+      <c r="E27" s="11" t="s">
+        <v>41</v>
+      </c>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
@@ -3913,17 +3837,19 @@
       <c r="X27" s="2"/>
     </row>
     <row r="28">
-      <c r="A28" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B28" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>40</v>
+      <c r="A28" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>37</v>
       </c>
       <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
+      <c r="E28" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
@@ -3946,16 +3872,20 @@
     </row>
     <row r="29">
       <c r="A29" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E29" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B29" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
@@ -3978,16 +3908,18 @@
     </row>
     <row r="30">
       <c r="A30" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D30" s="2"/>
+      <c r="E30" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="B30" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
@@ -4009,14 +3941,14 @@
       <c r="X30" s="2"/>
     </row>
     <row r="31">
-      <c r="A31" s="3" t="s">
+      <c r="A31" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B31" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>40</v>
+      <c r="B31" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>37</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
@@ -4044,11 +3976,11 @@
       <c r="A32" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B32" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>52</v>
+      <c r="B32" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>37</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
@@ -4073,24 +4005,20 @@
       <c r="X32" s="2"/>
     </row>
     <row r="33">
-      <c r="A33" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="D33" s="9" t="s">
-        <v>54</v>
-      </c>
+      <c r="A33" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D33" s="2"/>
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
-      <c r="H33" s="4" t="s">
-        <v>52</v>
-      </c>
+      <c r="H33" s="2"/>
       <c r="I33" s="2"/>
       <c r="J33" s="2"/>
       <c r="K33" s="2"/>
@@ -4109,14 +4037,14 @@
       <c r="X33" s="2"/>
     </row>
     <row r="34">
-      <c r="A34" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B34" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="C34" s="4" t="s">
+      <c r="A34" s="3" t="s">
         <v>52</v>
+      </c>
+      <c r="B34" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>37</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
@@ -4142,21 +4070,19 @@
     </row>
     <row r="35">
       <c r="A35" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C35" s="10" t="s">
+        <v>37</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="E35" s="2"/>
-      <c r="F35" s="1" t="s">
-        <v>59</v>
-      </c>
+      <c r="F35" s="2"/>
       <c r="G35" s="2"/>
       <c r="H35" s="2"/>
       <c r="I35" s="2"/>
@@ -4177,20 +4103,18 @@
       <c r="X35" s="2"/>
     </row>
     <row r="36">
-      <c r="A36" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="B36" s="1" t="s">
+      <c r="A36" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C36" s="4" t="s">
-        <v>52</v>
+      <c r="B36" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C36" s="10" t="s">
+        <v>37</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
-      <c r="F36" s="1" t="s">
-        <v>59</v>
-      </c>
+      <c r="F36" s="2"/>
       <c r="G36" s="2"/>
       <c r="H36" s="2"/>
       <c r="I36" s="2"/>
@@ -4211,15 +4135,14 @@
       <c r="X36" s="2"/>
     </row>
     <row r="37">
-      <c r="A37" s="2" t="str">
-        <f t="shared" ref="A37:A40" si="2">CONCAT("mouse ",A33)</f>
-        <v>mouse dipeptidyl peptidase–4–expressing (DPP4+) cell</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>52</v>
+      <c r="A37" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B37" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="C37" s="10" t="s">
+        <v>58</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
@@ -4244,19 +4167,20 @@
       <c r="X37" s="2"/>
     </row>
     <row r="38">
-      <c r="A38" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>mouse preadipocyte</v>
+      <c r="A38" s="3" t="s">
+        <v>59</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>52</v>
+        <v>56</v>
+      </c>
+      <c r="C38" s="10" t="s">
+        <v>58</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
+      <c r="F38" s="3" t="s">
+        <v>60</v>
+      </c>
       <c r="G38" s="2"/>
       <c r="H38" s="2"/>
       <c r="I38" s="2"/>
@@ -4277,15 +4201,14 @@
       <c r="X38" s="2"/>
     </row>
     <row r="39">
-      <c r="A39" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>mouse ICAM1+ preadipocyte</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>52</v>
+      <c r="A39" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B39" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="C39" s="10" t="s">
+        <v>58</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
@@ -4310,15 +4233,14 @@
       <c r="X39" s="2"/>
     </row>
     <row r="40">
-      <c r="A40" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>mouse CD142+ preadipocyte</v>
-      </c>
-      <c r="B40" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>52</v>
+      <c r="A40" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C40" s="10" t="s">
+        <v>64</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
@@ -4344,17 +4266,15 @@
     </row>
     <row r="41">
       <c r="A41" s="3" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>64</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="C41" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="D41" s="2"/>
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
       <c r="G41" s="2"/>
@@ -4377,15 +4297,14 @@
       <c r="X41" s="2"/>
     </row>
     <row r="42">
-      <c r="A42" s="2" t="str">
-        <f t="shared" ref="A42:A45" si="3">CONCAT("human " ,A33)</f>
-        <v>human dipeptidyl peptidase–4–expressing (DPP4+) cell</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>52</v>
+      <c r="A42" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C42" s="10" t="s">
+        <v>67</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
@@ -4410,15 +4329,14 @@
       <c r="X42" s="2"/>
     </row>
     <row r="43">
-      <c r="A43" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>human preadipocyte</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>52</v>
+      <c r="A43" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C43" s="11" t="s">
+        <v>71</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" s="2"/>
@@ -4443,15 +4361,14 @@
       <c r="X43" s="2"/>
     </row>
     <row r="44">
-      <c r="A44" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>human ICAM1+ preadipocyte</v>
+      <c r="A44" s="3" t="s">
+        <v>72</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C44" s="4" t="s">
-        <v>52</v>
+        <v>69</v>
+      </c>
+      <c r="C44" s="11" t="s">
+        <v>71</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" s="2"/>
@@ -4476,15 +4393,14 @@
       <c r="X44" s="2"/>
     </row>
     <row r="45">
-      <c r="A45" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>human CD142+ preadipocyte</v>
-      </c>
-      <c r="B45" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>52</v>
+      <c r="A45" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B45" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="C45" s="11" t="s">
+        <v>74</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" s="2"/>
@@ -4510,13 +4426,13 @@
     </row>
     <row r="46">
       <c r="A46" s="3" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="C46" s="4" t="s">
-        <v>52</v>
+        <v>73</v>
+      </c>
+      <c r="C46" s="11" t="s">
+        <v>74</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" s="2"/>
@@ -4541,14 +4457,14 @@
       <c r="X46" s="2"/>
     </row>
     <row r="47">
-      <c r="A47" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>67</v>
+      <c r="A47" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>77</v>
       </c>
       <c r="C47" s="10" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" s="2"/>
@@ -4573,18 +4489,16 @@
       <c r="X47" s="2"/>
     </row>
     <row r="48">
-      <c r="A48" s="3" t="s">
-        <v>69</v>
+      <c r="A48" s="1" t="s">
+        <v>79</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="C48" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="D48" s="3" t="s">
-        <v>70</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="D48" s="2"/>
       <c r="E48" s="2"/>
       <c r="F48" s="2"/>
       <c r="G48" s="2"/>
@@ -4607,19 +4521,17 @@
       <c r="X48" s="2"/>
     </row>
     <row r="49">
-      <c r="A49" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B49" s="3" t="s">
-        <v>67</v>
+      <c r="A49" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>79</v>
       </c>
       <c r="C49" s="10" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="D49" s="2"/>
-      <c r="E49" s="11" t="s">
-        <v>72</v>
-      </c>
+      <c r="E49" s="2"/>
       <c r="F49" s="2"/>
       <c r="G49" s="2"/>
       <c r="H49" s="2"/>
@@ -4642,18 +4554,16 @@
     </row>
     <row r="50">
       <c r="A50" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>67</v>
+        <v>82</v>
+      </c>
+      <c r="B50" s="12" t="s">
+        <v>83</v>
       </c>
       <c r="C50" s="10" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="D50" s="2"/>
-      <c r="E50" s="3" t="s">
-        <v>74</v>
-      </c>
+      <c r="E50" s="2"/>
       <c r="F50" s="2"/>
       <c r="G50" s="2"/>
       <c r="H50" s="2"/>
@@ -4675,21 +4585,17 @@
       <c r="X50" s="2"/>
     </row>
     <row r="51">
-      <c r="A51" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="B51" s="3" t="s">
-        <v>67</v>
+      <c r="A51" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>82</v>
       </c>
       <c r="C51" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="D51" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="E51" s="3" t="s">
-        <v>77</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="D51" s="2"/>
+      <c r="E51" s="2"/>
       <c r="F51" s="2"/>
       <c r="G51" s="2"/>
       <c r="H51" s="2"/>
@@ -4712,18 +4618,16 @@
     </row>
     <row r="52">
       <c r="A52" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C52" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="B52" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C52" s="10" t="s">
-        <v>68</v>
-      </c>
       <c r="D52" s="2"/>
-      <c r="E52" s="11" t="s">
-        <v>79</v>
-      </c>
+      <c r="E52" s="2"/>
       <c r="F52" s="2"/>
       <c r="G52" s="2"/>
       <c r="H52" s="2"/>
@@ -4745,14 +4649,14 @@
       <c r="X52" s="2"/>
     </row>
     <row r="53">
-      <c r="A53" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B53" s="12" t="s">
-        <v>66</v>
+      <c r="A53" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>82</v>
       </c>
       <c r="C53" s="10" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" s="2"/>
@@ -4777,16 +4681,18 @@
       <c r="X53" s="2"/>
     </row>
     <row r="54">
-      <c r="A54" s="1" t="s">
-        <v>81</v>
+      <c r="A54" s="3" t="s">
+        <v>87</v>
       </c>
       <c r="B54" s="12" t="s">
-        <v>66</v>
+        <v>84</v>
       </c>
       <c r="C54" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="D54" s="2"/>
+        <v>78</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>88</v>
+      </c>
       <c r="E54" s="2"/>
       <c r="F54" s="2"/>
       <c r="G54" s="2"/>
@@ -4810,15 +4716,17 @@
     </row>
     <row r="55">
       <c r="A55" s="3" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="C55" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="D55" s="2"/>
+        <v>78</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>90</v>
+      </c>
       <c r="E55" s="2"/>
       <c r="F55" s="2"/>
       <c r="G55" s="2"/>
@@ -4842,15 +4750,17 @@
     </row>
     <row r="56">
       <c r="A56" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B56" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="B56" s="12" t="s">
+      <c r="C56" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="C56" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="D56" s="2"/>
+      <c r="D56" s="3" t="s">
+        <v>92</v>
+      </c>
       <c r="E56" s="2"/>
       <c r="F56" s="2"/>
       <c r="G56" s="2"/>
@@ -4873,18 +4783,16 @@
       <c r="X56" s="2"/>
     </row>
     <row r="57">
-      <c r="A57" s="3" t="s">
-        <v>84</v>
+      <c r="A57" s="14" t="s">
+        <v>93</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>67</v>
+        <v>94</v>
       </c>
       <c r="C57" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="D57" s="3" t="s">
-        <v>85</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="D57" s="2"/>
       <c r="E57" s="2"/>
       <c r="F57" s="2"/>
       <c r="G57" s="2"/>
@@ -4908,13 +4816,13 @@
     </row>
     <row r="58">
       <c r="A58" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B58" s="3" t="s">
-        <v>67</v>
+        <v>95</v>
+      </c>
+      <c r="B58" s="12" t="s">
+        <v>83</v>
       </c>
       <c r="C58" s="10" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" s="2"/>
@@ -4939,17 +4847,19 @@
       <c r="X58" s="2"/>
     </row>
     <row r="59">
-      <c r="A59" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="B59" s="11" t="s">
-        <v>88</v>
+      <c r="A59" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>97</v>
       </c>
       <c r="C59" s="10" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="D59" s="2"/>
-      <c r="E59" s="2"/>
+      <c r="E59" s="3" t="s">
+        <v>99</v>
+      </c>
       <c r="F59" s="2"/>
       <c r="G59" s="2"/>
       <c r="H59" s="2"/>
@@ -4972,19 +4882,19 @@
     </row>
     <row r="60">
       <c r="A60" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>87</v>
+        <v>100</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>97</v>
       </c>
       <c r="C60" s="10" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="D60" s="2"/>
-      <c r="E60" s="2"/>
-      <c r="F60" s="3" t="s">
-        <v>91</v>
-      </c>
+      <c r="E60" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="F60" s="2"/>
       <c r="G60" s="2"/>
       <c r="H60" s="2"/>
       <c r="I60" s="2"/>
@@ -5005,17 +4915,19 @@
       <c r="X60" s="2"/>
     </row>
     <row r="61">
-      <c r="A61" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="B61" s="13" t="s">
-        <v>93</v>
+      <c r="A61" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>97</v>
       </c>
       <c r="C61" s="10" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="D61" s="2"/>
-      <c r="E61" s="2"/>
+      <c r="E61" s="3" t="s">
+        <v>99</v>
+      </c>
       <c r="F61" s="2"/>
       <c r="G61" s="2"/>
       <c r="H61" s="2"/>
@@ -5037,17 +4949,19 @@
       <c r="X61" s="2"/>
     </row>
     <row r="62">
-      <c r="A62" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="B62" s="3" t="s">
-        <v>63</v>
+      <c r="A62" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B62" s="11" t="s">
+        <v>103</v>
       </c>
       <c r="C62" s="10" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D62" s="2"/>
-      <c r="E62" s="2"/>
+      <c r="E62" s="3" t="s">
+        <v>99</v>
+      </c>
       <c r="F62" s="2"/>
       <c r="G62" s="2"/>
       <c r="H62" s="2"/>
@@ -5069,17 +4983,17 @@
       <c r="X62" s="2"/>
     </row>
     <row r="63">
-      <c r="A63" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="B63" s="3" t="s">
-        <v>97</v>
+      <c r="A63" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>102</v>
       </c>
       <c r="C63" s="10" t="s">
         <v>98</v>
       </c>
       <c r="D63" s="2"/>
-      <c r="E63" s="2"/>
+      <c r="E63" s="3"/>
       <c r="F63" s="2"/>
       <c r="G63" s="2"/>
       <c r="H63" s="2"/>
@@ -5102,16 +5016,18 @@
     </row>
     <row r="64">
       <c r="A64" s="3" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="C64" s="10" t="s">
         <v>98</v>
       </c>
       <c r="D64" s="2"/>
-      <c r="E64" s="2"/>
+      <c r="E64" s="3" t="s">
+        <v>99</v>
+      </c>
       <c r="F64" s="2"/>
       <c r="G64" s="2"/>
       <c r="H64" s="2"/>
@@ -5134,16 +5050,18 @@
     </row>
     <row r="65">
       <c r="A65" s="3" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C65" s="11" t="s">
-        <v>101</v>
+        <v>108</v>
+      </c>
+      <c r="C65" s="10" t="s">
+        <v>98</v>
       </c>
       <c r="D65" s="2"/>
-      <c r="E65" s="2"/>
+      <c r="E65" s="3" t="s">
+        <v>99</v>
+      </c>
       <c r="F65" s="2"/>
       <c r="G65" s="2"/>
       <c r="H65" s="2"/>
@@ -5165,14 +5083,14 @@
       <c r="X65" s="2"/>
     </row>
     <row r="66">
-      <c r="A66" s="3" t="s">
-        <v>102</v>
+      <c r="A66" s="1" t="s">
+        <v>109</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="C66" s="11" t="s">
-        <v>101</v>
+        <v>110</v>
+      </c>
+      <c r="C66" s="10" t="s">
+        <v>98</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" s="2"/>
@@ -5198,13 +5116,13 @@
     </row>
     <row r="67">
       <c r="A67" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="B67" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="C67" s="11" t="s">
-        <v>104</v>
+        <v>111</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C67" s="10" t="s">
+        <v>98</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" s="2"/>
@@ -5230,15 +5148,17 @@
     </row>
     <row r="68">
       <c r="A68" s="3" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="C68" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="D68" s="2"/>
+        <v>110</v>
+      </c>
+      <c r="C68" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>113</v>
+      </c>
       <c r="E68" s="2"/>
       <c r="F68" s="2"/>
       <c r="G68" s="2"/>
@@ -5262,13 +5182,13 @@
     </row>
     <row r="69">
       <c r="A69" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>107</v>
+        <v>114</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>112</v>
       </c>
       <c r="C69" s="10" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" s="2"/>
@@ -5293,14 +5213,14 @@
       <c r="X69" s="2"/>
     </row>
     <row r="70">
-      <c r="A70" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="B70" s="3" t="s">
-        <v>15</v>
+      <c r="A70" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>114</v>
       </c>
       <c r="C70" s="10" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" s="2"/>
@@ -5326,16 +5246,18 @@
     </row>
     <row r="71">
       <c r="A71" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B71" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="B71" s="1" t="s">
-        <v>109</v>
-      </c>
       <c r="C71" s="10" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="D71" s="2"/>
-      <c r="E71" s="2"/>
+      <c r="E71" s="3" t="s">
+        <v>99</v>
+      </c>
       <c r="F71" s="2"/>
       <c r="G71" s="2"/>
       <c r="H71" s="2"/>
@@ -5358,16 +5280,18 @@
     </row>
     <row r="72">
       <c r="A72" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="B72" s="12" t="s">
-        <v>112</v>
+        <v>117</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>118</v>
       </c>
       <c r="C72" s="10" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="D72" s="2"/>
-      <c r="E72" s="2"/>
+      <c r="E72" s="3" t="s">
+        <v>99</v>
+      </c>
       <c r="F72" s="2"/>
       <c r="G72" s="2"/>
       <c r="H72" s="2"/>
@@ -5390,16 +5314,20 @@
     </row>
     <row r="73">
       <c r="A73" s="1" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="C73" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="D73" s="2"/>
-      <c r="E73" s="2"/>
+        <v>98</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="E73" s="3" t="s">
+        <v>99</v>
+      </c>
       <c r="F73" s="2"/>
       <c r="G73" s="2"/>
       <c r="H73" s="2"/>
@@ -5422,16 +5350,18 @@
     </row>
     <row r="74">
       <c r="A74" s="3" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="C74" s="10" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="D74" s="2"/>
-      <c r="E74" s="2"/>
+      <c r="E74" s="3" t="s">
+        <v>99</v>
+      </c>
       <c r="F74" s="2"/>
       <c r="G74" s="2"/>
       <c r="H74" s="2"/>
@@ -5454,16 +5384,18 @@
     </row>
     <row r="75">
       <c r="A75" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="B75" s="1" t="s">
-        <v>111</v>
+        <v>122</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>121</v>
       </c>
       <c r="C75" s="10" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="D75" s="2"/>
-      <c r="E75" s="2"/>
+      <c r="E75" s="3" t="s">
+        <v>99</v>
+      </c>
       <c r="F75" s="2"/>
       <c r="G75" s="2"/>
       <c r="H75" s="2"/>
@@ -5486,18 +5418,18 @@
     </row>
     <row r="76">
       <c r="A76" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="B76" s="12" t="s">
-        <v>113</v>
+        <v>123</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>117</v>
       </c>
       <c r="C76" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="D76" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="E76" s="2"/>
+        <v>98</v>
+      </c>
+      <c r="D76" s="2"/>
+      <c r="E76" s="3" t="s">
+        <v>99</v>
+      </c>
       <c r="F76" s="2"/>
       <c r="G76" s="2"/>
       <c r="H76" s="2"/>
@@ -5520,18 +5452,18 @@
     </row>
     <row r="77">
       <c r="A77" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="B77" s="3" t="s">
-        <v>114</v>
+        <v>124</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>117</v>
       </c>
       <c r="C77" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="D77" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="E77" s="2"/>
+        <v>98</v>
+      </c>
+      <c r="D77" s="2"/>
+      <c r="E77" s="3" t="s">
+        <v>99</v>
+      </c>
       <c r="F77" s="2"/>
       <c r="G77" s="2"/>
       <c r="H77" s="2"/>
@@ -5553,19 +5485,19 @@
       <c r="X77" s="2"/>
     </row>
     <row r="78">
-      <c r="A78" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="B78" s="12" t="s">
-        <v>112</v>
+      <c r="A78" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>126</v>
       </c>
       <c r="C78" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="D78" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="E78" s="2"/>
+        <v>98</v>
+      </c>
+      <c r="D78" s="2"/>
+      <c r="E78" s="3" t="s">
+        <v>99</v>
+      </c>
       <c r="F78" s="2"/>
       <c r="G78" s="2"/>
       <c r="H78" s="2"/>
@@ -5587,17 +5519,19 @@
       <c r="X78" s="2"/>
     </row>
     <row r="79">
-      <c r="A79" s="14" t="s">
-        <v>122</v>
+      <c r="A79" s="3" t="s">
+        <v>127</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>123</v>
+        <v>32</v>
       </c>
       <c r="C79" s="10" t="s">
-        <v>108</v>
+        <v>67</v>
       </c>
       <c r="D79" s="2"/>
-      <c r="E79" s="2"/>
+      <c r="E79" s="11" t="s">
+        <v>128</v>
+      </c>
       <c r="F79" s="2"/>
       <c r="G79" s="2"/>
       <c r="H79" s="2"/>
@@ -5619,16 +5553,18 @@
       <c r="X79" s="2"/>
     </row>
     <row r="80">
-      <c r="A80" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="B80" s="12" t="s">
-        <v>112</v>
+      <c r="A80" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>20</v>
       </c>
       <c r="C80" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="D80" s="2"/>
+        <v>130</v>
+      </c>
+      <c r="D80" s="15" t="s">
+        <v>131</v>
+      </c>
       <c r="E80" s="2"/>
       <c r="F80" s="2"/>
       <c r="G80" s="2"/>
@@ -5651,19 +5587,17 @@
       <c r="X80" s="2"/>
     </row>
     <row r="81">
-      <c r="A81" s="14" t="s">
-        <v>125</v>
+      <c r="A81" s="3" t="s">
+        <v>132</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="C81" s="10" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="D81" s="2"/>
-      <c r="E81" s="3" t="s">
-        <v>128</v>
-      </c>
+      <c r="E81" s="2"/>
       <c r="F81" s="2"/>
       <c r="G81" s="2"/>
       <c r="H81" s="2"/>
@@ -5686,18 +5620,16 @@
     </row>
     <row r="82">
       <c r="A82" s="3" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="C82" s="10" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="D82" s="2"/>
-      <c r="E82" s="3" t="s">
-        <v>128</v>
-      </c>
+      <c r="E82" s="2"/>
       <c r="F82" s="2"/>
       <c r="G82" s="2"/>
       <c r="H82" s="2"/>
@@ -5720,18 +5652,16 @@
     </row>
     <row r="83">
       <c r="A83" s="1" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>126</v>
+        <v>32</v>
       </c>
       <c r="C83" s="10" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="D83" s="2"/>
-      <c r="E83" s="3" t="s">
-        <v>128</v>
-      </c>
+      <c r="E83" s="2"/>
       <c r="F83" s="2"/>
       <c r="G83" s="2"/>
       <c r="H83" s="2"/>
@@ -5753,20 +5683,20 @@
       <c r="X83" s="2"/>
     </row>
     <row r="84">
-      <c r="A84" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="B84" s="11" t="s">
-        <v>132</v>
+      <c r="A84" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>133</v>
       </c>
       <c r="C84" s="10" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="D84" s="2"/>
-      <c r="E84" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="F84" s="2"/>
+      <c r="E84" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="F84" s="3"/>
       <c r="G84" s="2"/>
       <c r="H84" s="2"/>
       <c r="I84" s="2"/>
@@ -5787,17 +5717,19 @@
       <c r="X84" s="2"/>
     </row>
     <row r="85">
-      <c r="A85" s="1" t="s">
+      <c r="A85" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B85" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="B85" s="1" t="s">
-        <v>131</v>
-      </c>
       <c r="C85" s="10" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="D85" s="2"/>
-      <c r="E85" s="3"/>
+      <c r="E85" s="3" t="s">
+        <v>140</v>
+      </c>
       <c r="F85" s="2"/>
       <c r="G85" s="2"/>
       <c r="H85" s="2"/>
@@ -5819,19 +5751,17 @@
       <c r="X85" s="2"/>
     </row>
     <row r="86">
-      <c r="A86" s="3" t="s">
+      <c r="A86" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="C86" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="B86" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="C86" s="10" t="s">
-        <v>127</v>
-      </c>
       <c r="D86" s="2"/>
-      <c r="E86" s="3" t="s">
-        <v>128</v>
-      </c>
+      <c r="E86" s="2"/>
       <c r="F86" s="2"/>
       <c r="G86" s="2"/>
       <c r="H86" s="2"/>
@@ -5853,19 +5783,17 @@
       <c r="X86" s="2"/>
     </row>
     <row r="87">
-      <c r="A87" s="3" t="s">
-        <v>136</v>
+      <c r="A87" s="14" t="s">
+        <v>142</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C87" s="10" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="D87" s="2"/>
-      <c r="E87" s="3" t="s">
-        <v>128</v>
-      </c>
+      <c r="E87" s="2"/>
       <c r="F87" s="2"/>
       <c r="G87" s="2"/>
       <c r="H87" s="2"/>
@@ -5887,14 +5815,14 @@
       <c r="X87" s="2"/>
     </row>
     <row r="88">
-      <c r="A88" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="B88" s="3" t="s">
-        <v>36</v>
+      <c r="A88" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="B88" s="16" t="s">
+        <v>141</v>
       </c>
       <c r="C88" s="10" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="D88" s="2"/>
       <c r="E88" s="2"/>
@@ -5920,13 +5848,13 @@
     </row>
     <row r="89">
       <c r="A89" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="B89" s="1" t="s">
-        <v>138</v>
+        <v>144</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>142</v>
       </c>
       <c r="C89" s="10" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="D89" s="2"/>
       <c r="E89" s="2"/>
@@ -5951,18 +5879,16 @@
       <c r="X89" s="2"/>
     </row>
     <row r="90">
-      <c r="A90" s="3" t="s">
-        <v>140</v>
+      <c r="A90" s="14" t="s">
+        <v>145</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="C90" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="D90" s="3" t="s">
-        <v>141</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="D90" s="2"/>
       <c r="E90" s="2"/>
       <c r="F90" s="2"/>
       <c r="G90" s="2"/>
@@ -5985,16 +5911,18 @@
       <c r="X90" s="2"/>
     </row>
     <row r="91">
-      <c r="A91" s="1" t="s">
-        <v>142</v>
+      <c r="A91" s="3" t="s">
+        <v>147</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>140</v>
+        <v>32</v>
       </c>
       <c r="C91" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="D91" s="2"/>
+        <v>146</v>
+      </c>
+      <c r="D91" s="3" t="s">
+        <v>148</v>
+      </c>
       <c r="E91" s="2"/>
       <c r="F91" s="2"/>
       <c r="G91" s="2"/>
@@ -6018,15 +5946,17 @@
     </row>
     <row r="92">
       <c r="A92" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="B92" s="1" t="s">
-        <v>142</v>
+        <v>149</v>
+      </c>
+      <c r="B92" s="3" t="s">
+        <v>32</v>
       </c>
       <c r="C92" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="D92" s="2"/>
+        <v>146</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>150</v>
+      </c>
       <c r="E92" s="2"/>
       <c r="F92" s="2"/>
       <c r="G92" s="2"/>
@@ -6049,19 +5979,17 @@
       <c r="X92" s="2"/>
     </row>
     <row r="93">
-      <c r="A93" s="3" t="s">
-        <v>144</v>
+      <c r="A93" s="1" t="s">
+        <v>151</v>
       </c>
       <c r="B93" s="3" t="s">
         <v>36</v>
       </c>
       <c r="C93" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="D93" s="2"/>
-      <c r="E93" s="3" t="s">
-        <v>128</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="D93" s="1"/>
+      <c r="E93" s="2"/>
       <c r="F93" s="2"/>
       <c r="G93" s="2"/>
       <c r="H93" s="2"/>
@@ -6083,18 +6011,20 @@
       <c r="X93" s="2"/>
     </row>
     <row r="94">
-      <c r="A94" s="1" t="s">
-        <v>145</v>
+      <c r="A94" s="17" t="s">
+        <v>153</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="C94" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="D94" s="2"/>
+        <v>152</v>
+      </c>
+      <c r="D94" s="3" t="s">
+        <v>155</v>
+      </c>
       <c r="E94" s="3" t="s">
-        <v>128</v>
+        <v>156</v>
       </c>
       <c r="F94" s="2"/>
       <c r="G94" s="2"/>
@@ -6117,20 +6047,20 @@
       <c r="X94" s="2"/>
     </row>
     <row r="95">
-      <c r="A95" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="B95" s="1" t="s">
-        <v>145</v>
+      <c r="A95" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="B95" s="3" t="s">
+        <v>126</v>
       </c>
       <c r="C95" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="D95" s="3" t="s">
-        <v>148</v>
+        <v>158</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>159</v>
       </c>
       <c r="E95" s="3" t="s">
-        <v>128</v>
+        <v>160</v>
       </c>
       <c r="F95" s="2"/>
       <c r="G95" s="2"/>
@@ -6154,18 +6084,16 @@
     </row>
     <row r="96">
       <c r="A96" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="B96" s="1" t="s">
-        <v>145</v>
+        <v>161</v>
+      </c>
+      <c r="B96" s="3" t="s">
+        <v>126</v>
       </c>
       <c r="C96" s="10" t="s">
-        <v>127</v>
+        <v>158</v>
       </c>
       <c r="D96" s="2"/>
-      <c r="E96" s="3" t="s">
-        <v>128</v>
-      </c>
+      <c r="E96" s="2"/>
       <c r="F96" s="2"/>
       <c r="G96" s="2"/>
       <c r="H96" s="2"/>
@@ -6188,17 +6116,17 @@
     </row>
     <row r="97">
       <c r="A97" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="B97" s="3" t="s">
-        <v>149</v>
+        <v>162</v>
+      </c>
+      <c r="B97" s="12" t="s">
+        <v>163</v>
       </c>
       <c r="C97" s="10" t="s">
-        <v>127</v>
+        <v>158</v>
       </c>
       <c r="D97" s="2"/>
       <c r="E97" s="3" t="s">
-        <v>128</v>
+        <v>160</v>
       </c>
       <c r="F97" s="2"/>
       <c r="G97" s="2"/>
@@ -6221,18 +6149,18 @@
       <c r="X97" s="2"/>
     </row>
     <row r="98">
-      <c r="A98" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="B98" s="1" t="s">
-        <v>145</v>
+      <c r="A98" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B98" s="3" t="s">
+        <v>126</v>
       </c>
       <c r="C98" s="10" t="s">
-        <v>127</v>
+        <v>158</v>
       </c>
       <c r="D98" s="2"/>
       <c r="E98" s="3" t="s">
-        <v>128</v>
+        <v>165</v>
       </c>
       <c r="F98" s="2"/>
       <c r="G98" s="2"/>
@@ -6256,18 +6184,16 @@
     </row>
     <row r="99">
       <c r="A99" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="B99" s="1" t="s">
-        <v>145</v>
+        <v>166</v>
+      </c>
+      <c r="B99" s="12" t="s">
+        <v>126</v>
       </c>
       <c r="C99" s="10" t="s">
-        <v>127</v>
+        <v>158</v>
       </c>
       <c r="D99" s="2"/>
-      <c r="E99" s="3" t="s">
-        <v>128</v>
-      </c>
+      <c r="E99" s="2"/>
       <c r="F99" s="2"/>
       <c r="G99" s="2"/>
       <c r="H99" s="2"/>
@@ -6289,18 +6215,18 @@
       <c r="X99" s="2"/>
     </row>
     <row r="100">
-      <c r="A100" s="12" t="s">
-        <v>153</v>
+      <c r="A100" s="3" t="s">
+        <v>167</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>154</v>
+        <v>32</v>
       </c>
       <c r="C100" s="10" t="s">
-        <v>127</v>
+        <v>168</v>
       </c>
       <c r="D100" s="2"/>
-      <c r="E100" s="3" t="s">
-        <v>128</v>
+      <c r="E100" s="11" t="s">
+        <v>169</v>
       </c>
       <c r="F100" s="2"/>
       <c r="G100" s="2"/>
@@ -6324,18 +6250,16 @@
     </row>
     <row r="101">
       <c r="A101" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="B101" s="3" t="s">
-        <v>63</v>
+        <v>170</v>
+      </c>
+      <c r="B101" s="12" t="s">
+        <v>167</v>
       </c>
       <c r="C101" s="10" t="s">
-        <v>98</v>
+        <v>168</v>
       </c>
       <c r="D101" s="2"/>
-      <c r="E101" s="11" t="s">
-        <v>156</v>
-      </c>
+      <c r="E101" s="2"/>
       <c r="F101" s="2"/>
       <c r="G101" s="2"/>
       <c r="H101" s="2"/>
@@ -6358,17 +6282,15 @@
     </row>
     <row r="102">
       <c r="A102" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="B102" s="3" t="s">
-        <v>51</v>
+        <v>171</v>
+      </c>
+      <c r="B102" s="12" t="s">
+        <v>167</v>
       </c>
       <c r="C102" s="10" t="s">
-        <v>158</v>
-      </c>
-      <c r="D102" s="15" t="s">
-        <v>159</v>
-      </c>
+        <v>168</v>
+      </c>
+      <c r="D102" s="2"/>
       <c r="E102" s="2"/>
       <c r="F102" s="2"/>
       <c r="G102" s="2"/>
@@ -6392,16 +6314,18 @@
     </row>
     <row r="103">
       <c r="A103" s="3" t="s">
-        <v>160</v>
+        <v>172</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>161</v>
+        <v>32</v>
       </c>
       <c r="C103" s="10" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="D103" s="2"/>
-      <c r="E103" s="2"/>
+      <c r="E103" s="1" t="s">
+        <v>173</v>
+      </c>
       <c r="F103" s="2"/>
       <c r="G103" s="2"/>
       <c r="H103" s="2"/>
@@ -6424,13 +6348,13 @@
     </row>
     <row r="104">
       <c r="A104" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="B104" s="3" t="s">
-        <v>161</v>
+        <v>174</v>
+      </c>
+      <c r="B104" s="12" t="s">
+        <v>175</v>
       </c>
       <c r="C104" s="10" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="D104" s="2"/>
       <c r="E104" s="2"/>
@@ -6455,16 +6379,18 @@
       <c r="X104" s="2"/>
     </row>
     <row r="105">
-      <c r="A105" s="1" t="s">
-        <v>164</v>
+      <c r="A105" s="3" t="s">
+        <v>176</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>63</v>
+        <v>110</v>
       </c>
       <c r="C105" s="10" t="s">
-        <v>162</v>
-      </c>
-      <c r="D105" s="2"/>
+        <v>168</v>
+      </c>
+      <c r="D105" s="3" t="s">
+        <v>177</v>
+      </c>
       <c r="E105" s="2"/>
       <c r="F105" s="2"/>
       <c r="G105" s="2"/>
@@ -6487,20 +6413,18 @@
       <c r="X105" s="2"/>
     </row>
     <row r="106">
-      <c r="A106" s="3" t="s">
-        <v>165</v>
+      <c r="A106" s="1" t="s">
+        <v>178</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>161</v>
+        <v>179</v>
       </c>
       <c r="C106" s="10" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="D106" s="2"/>
-      <c r="E106" s="11" t="s">
-        <v>166</v>
-      </c>
-      <c r="F106" s="3"/>
+      <c r="E106" s="2"/>
+      <c r="F106" s="2"/>
       <c r="G106" s="2"/>
       <c r="H106" s="2"/>
       <c r="I106" s="2"/>
@@ -6521,19 +6445,19 @@
       <c r="X106" s="2"/>
     </row>
     <row r="107">
-      <c r="A107" s="3" t="s">
-        <v>167</v>
+      <c r="A107" s="1" t="s">
+        <v>180</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>161</v>
+        <v>181</v>
       </c>
       <c r="C107" s="10" t="s">
-        <v>162</v>
-      </c>
-      <c r="D107" s="2"/>
-      <c r="E107" s="3" t="s">
-        <v>168</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="D107" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="E107" s="2"/>
       <c r="F107" s="2"/>
       <c r="G107" s="2"/>
       <c r="H107" s="2"/>
@@ -6555,16 +6479,18 @@
       <c r="X107" s="2"/>
     </row>
     <row r="108">
-      <c r="A108" s="14" t="s">
-        <v>169</v>
-      </c>
-      <c r="B108" s="3" t="s">
-        <v>161</v>
+      <c r="A108" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>180</v>
       </c>
       <c r="C108" s="10" t="s">
-        <v>162</v>
-      </c>
-      <c r="D108" s="2"/>
+        <v>182</v>
+      </c>
+      <c r="D108" s="3" t="s">
+        <v>185</v>
+      </c>
       <c r="E108" s="2"/>
       <c r="F108" s="2"/>
       <c r="G108" s="2"/>
@@ -6587,14 +6513,14 @@
       <c r="X108" s="2"/>
     </row>
     <row r="109">
-      <c r="A109" s="14" t="s">
-        <v>170</v>
+      <c r="A109" s="3" t="s">
+        <v>186</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>161</v>
+        <v>181</v>
       </c>
       <c r="C109" s="10" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="D109" s="2"/>
       <c r="E109" s="2"/>
@@ -6619,14 +6545,14 @@
       <c r="X109" s="2"/>
     </row>
     <row r="110">
-      <c r="A110" s="14" t="s">
-        <v>171</v>
-      </c>
-      <c r="B110" s="16" t="s">
-        <v>169</v>
+      <c r="A110" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="B110" s="3" t="s">
+        <v>186</v>
       </c>
       <c r="C110" s="10" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="D110" s="2"/>
       <c r="E110" s="2"/>
@@ -6652,13 +6578,13 @@
     </row>
     <row r="111">
       <c r="A111" s="3" t="s">
-        <v>172</v>
+        <v>188</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>170</v>
+        <v>186</v>
       </c>
       <c r="C111" s="10" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="D111" s="2"/>
       <c r="E111" s="2"/>
@@ -6683,14 +6609,14 @@
       <c r="X111" s="2"/>
     </row>
     <row r="112">
-      <c r="A112" s="14" t="s">
-        <v>173</v>
+      <c r="A112" s="3" t="s">
+        <v>189</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>56</v>
+        <v>190</v>
       </c>
       <c r="C112" s="10" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="D112" s="2"/>
       <c r="E112" s="2"/>
@@ -6716,17 +6642,15 @@
     </row>
     <row r="113">
       <c r="A113" s="3" t="s">
-        <v>175</v>
+        <v>191</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>63</v>
+        <v>192</v>
       </c>
       <c r="C113" s="10" t="s">
-        <v>174</v>
-      </c>
-      <c r="D113" s="3" t="s">
-        <v>176</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="D113" s="2"/>
       <c r="E113" s="2"/>
       <c r="F113" s="2"/>
       <c r="G113" s="2"/>
@@ -6750,17 +6674,15 @@
     </row>
     <row r="114">
       <c r="A114" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="B114" s="3" t="s">
-        <v>63</v>
+        <v>193</v>
+      </c>
+      <c r="B114" s="12" t="s">
+        <v>192</v>
       </c>
       <c r="C114" s="10" t="s">
-        <v>174</v>
-      </c>
-      <c r="D114" s="1" t="s">
-        <v>178</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="D114" s="2"/>
       <c r="E114" s="2"/>
       <c r="F114" s="2"/>
       <c r="G114" s="2"/>
@@ -6783,17 +6705,19 @@
       <c r="X114" s="2"/>
     </row>
     <row r="115">
-      <c r="A115" s="1" t="s">
-        <v>179</v>
+      <c r="A115" s="3" t="s">
+        <v>194</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>67</v>
+        <v>32</v>
       </c>
       <c r="C115" s="10" t="s">
-        <v>180</v>
-      </c>
-      <c r="D115" s="1"/>
-      <c r="E115" s="2"/>
+        <v>195</v>
+      </c>
+      <c r="D115" s="2"/>
+      <c r="E115" s="3" t="s">
+        <v>196</v>
+      </c>
       <c r="F115" s="2"/>
       <c r="G115" s="2"/>
       <c r="H115" s="2"/>
@@ -6815,21 +6739,17 @@
       <c r="X115" s="2"/>
     </row>
     <row r="116">
-      <c r="A116" s="17" t="s">
-        <v>181</v>
+      <c r="A116" s="1" t="s">
+        <v>197</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>182</v>
+        <v>32</v>
       </c>
       <c r="C116" s="10" t="s">
-        <v>180</v>
-      </c>
-      <c r="D116" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="E116" s="3" t="s">
-        <v>184</v>
-      </c>
+        <v>195</v>
+      </c>
+      <c r="D116" s="2"/>
+      <c r="E116" s="2"/>
       <c r="F116" s="2"/>
       <c r="G116" s="2"/>
       <c r="H116" s="2"/>
@@ -6852,20 +6772,18 @@
     </row>
     <row r="117">
       <c r="A117" s="3" t="s">
-        <v>185</v>
+        <v>198</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>154</v>
+        <v>25</v>
       </c>
       <c r="C117" s="10" t="s">
-        <v>186</v>
-      </c>
-      <c r="D117" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="E117" s="3" t="s">
-        <v>188</v>
-      </c>
+        <v>195</v>
+      </c>
+      <c r="D117" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="E117" s="2"/>
       <c r="F117" s="2"/>
       <c r="G117" s="2"/>
       <c r="H117" s="2"/>
@@ -6888,13 +6806,13 @@
     </row>
     <row r="118">
       <c r="A118" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="B118" s="3" t="s">
-        <v>154</v>
+        <v>200</v>
+      </c>
+      <c r="B118" s="12" t="s">
+        <v>32</v>
       </c>
       <c r="C118" s="10" t="s">
-        <v>186</v>
+        <v>195</v>
       </c>
       <c r="D118" s="2"/>
       <c r="E118" s="2"/>
@@ -6920,18 +6838,16 @@
     </row>
     <row r="119">
       <c r="A119" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="B119" s="12" t="s">
-        <v>191</v>
+        <v>201</v>
+      </c>
+      <c r="B119" s="3" t="s">
+        <v>36</v>
       </c>
       <c r="C119" s="10" t="s">
-        <v>186</v>
+        <v>202</v>
       </c>
       <c r="D119" s="2"/>
-      <c r="E119" s="3" t="s">
-        <v>188</v>
-      </c>
+      <c r="E119" s="2"/>
       <c r="F119" s="2"/>
       <c r="G119" s="2"/>
       <c r="H119" s="2"/>
@@ -6953,19 +6869,17 @@
       <c r="X119" s="2"/>
     </row>
     <row r="120">
-      <c r="A120" s="1" t="s">
-        <v>192</v>
+      <c r="A120" s="3" t="s">
+        <v>203</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>154</v>
+        <v>36</v>
       </c>
       <c r="C120" s="10" t="s">
-        <v>186</v>
+        <v>202</v>
       </c>
       <c r="D120" s="2"/>
-      <c r="E120" s="3" t="s">
-        <v>193</v>
-      </c>
+      <c r="E120" s="2"/>
       <c r="F120" s="2"/>
       <c r="G120" s="2"/>
       <c r="H120" s="2"/>
@@ -6987,17 +6901,21 @@
       <c r="X120" s="2"/>
     </row>
     <row r="121">
-      <c r="A121" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="B121" s="12" t="s">
-        <v>154</v>
+      <c r="A121" s="18" t="s">
+        <v>204</v>
+      </c>
+      <c r="B121" s="3" t="s">
+        <v>25</v>
       </c>
       <c r="C121" s="10" t="s">
-        <v>186</v>
-      </c>
-      <c r="D121" s="2"/>
-      <c r="E121" s="2"/>
+        <v>205</v>
+      </c>
+      <c r="D121" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="E121" s="3" t="s">
+        <v>207</v>
+      </c>
       <c r="F121" s="2"/>
       <c r="G121" s="2"/>
       <c r="H121" s="2"/>
@@ -7020,18 +6938,16 @@
     </row>
     <row r="122">
       <c r="A122" s="3" t="s">
-        <v>195</v>
+        <v>208</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>63</v>
+        <v>204</v>
       </c>
       <c r="C122" s="10" t="s">
-        <v>196</v>
+        <v>205</v>
       </c>
       <c r="D122" s="2"/>
-      <c r="E122" s="11" t="s">
-        <v>197</v>
-      </c>
+      <c r="E122" s="2"/>
       <c r="F122" s="2"/>
       <c r="G122" s="2"/>
       <c r="H122" s="2"/>
@@ -7054,13 +6970,13 @@
     </row>
     <row r="123">
       <c r="A123" s="3" t="s">
-        <v>198</v>
+        <v>209</v>
       </c>
       <c r="B123" s="12" t="s">
-        <v>195</v>
+        <v>25</v>
       </c>
       <c r="C123" s="10" t="s">
-        <v>196</v>
+        <v>205</v>
       </c>
       <c r="D123" s="2"/>
       <c r="E123" s="2"/>
@@ -7086,13 +7002,13 @@
     </row>
     <row r="124">
       <c r="A124" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="B124" s="12" t="s">
-        <v>195</v>
+        <v>210</v>
+      </c>
+      <c r="B124" s="3" t="s">
+        <v>211</v>
       </c>
       <c r="C124" s="10" t="s">
-        <v>196</v>
+        <v>205</v>
       </c>
       <c r="D124" s="2"/>
       <c r="E124" s="2"/>
@@ -7117,19 +7033,17 @@
       <c r="X124" s="2"/>
     </row>
     <row r="125">
-      <c r="A125" s="3" t="s">
-        <v>200</v>
+      <c r="A125" s="19" t="s">
+        <v>212</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>63</v>
+        <v>32</v>
       </c>
       <c r="C125" s="10" t="s">
-        <v>196</v>
+        <v>213</v>
       </c>
       <c r="D125" s="2"/>
-      <c r="E125" s="1" t="s">
-        <v>201</v>
-      </c>
+      <c r="E125" s="2"/>
       <c r="F125" s="2"/>
       <c r="G125" s="2"/>
       <c r="H125" s="2"/>
@@ -7152,13 +7066,13 @@
     </row>
     <row r="126">
       <c r="A126" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="B126" s="12" t="s">
-        <v>203</v>
+        <v>214</v>
+      </c>
+      <c r="B126" s="3" t="s">
+        <v>32</v>
       </c>
       <c r="C126" s="10" t="s">
-        <v>196</v>
+        <v>213</v>
       </c>
       <c r="D126" s="2"/>
       <c r="E126" s="2"/>
@@ -7184,16 +7098,16 @@
     </row>
     <row r="127">
       <c r="A127" s="3" t="s">
-        <v>204</v>
+        <v>215</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C127" s="10" t="s">
-        <v>196</v>
+        <v>213</v>
       </c>
       <c r="D127" s="3" t="s">
-        <v>205</v>
+        <v>216</v>
       </c>
       <c r="E127" s="2"/>
       <c r="F127" s="2"/>
@@ -7217,17 +7131,18 @@
       <c r="X127" s="2"/>
     </row>
     <row r="128">
-      <c r="A128" s="1" t="s">
-        <v>206</v>
+      <c r="A128" s="20" t="s">
+        <v>217</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>207</v>
+        <v>32</v>
       </c>
       <c r="C128" s="10" t="s">
-        <v>196</v>
-      </c>
-      <c r="D128" s="2"/>
-      <c r="E128" s="2"/>
+        <v>213</v>
+      </c>
+      <c r="E128" s="3" t="s">
+        <v>218</v>
+      </c>
       <c r="F128" s="2"/>
       <c r="G128" s="2"/>
       <c r="H128" s="2"/>
@@ -7249,17 +7164,17 @@
       <c r="X128" s="2"/>
     </row>
     <row r="129">
-      <c r="A129" s="1" t="s">
-        <v>208</v>
+      <c r="A129" s="3" t="s">
+        <v>219</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>209</v>
+        <v>25</v>
       </c>
       <c r="C129" s="10" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="D129" s="3" t="s">
-        <v>211</v>
+        <v>220</v>
       </c>
       <c r="E129" s="2"/>
       <c r="F129" s="2"/>
@@ -7283,19 +7198,19 @@
       <c r="X129" s="2"/>
     </row>
     <row r="130">
-      <c r="A130" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="B130" s="1" t="s">
-        <v>208</v>
+      <c r="A130" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="B130" s="3" t="s">
+        <v>222</v>
       </c>
       <c r="C130" s="10" t="s">
-        <v>210</v>
-      </c>
-      <c r="D130" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="E130" s="2"/>
+        <v>223</v>
+      </c>
+      <c r="D130" s="2"/>
+      <c r="E130" s="3" t="s">
+        <v>224</v>
+      </c>
       <c r="F130" s="2"/>
       <c r="G130" s="2"/>
       <c r="H130" s="2"/>
@@ -7317,14 +7232,14 @@
       <c r="X130" s="2"/>
     </row>
     <row r="131">
-      <c r="A131" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="B131" s="3" t="s">
-        <v>209</v>
+      <c r="A131" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>221</v>
       </c>
       <c r="C131" s="10" t="s">
-        <v>210</v>
+        <v>223</v>
       </c>
       <c r="D131" s="2"/>
       <c r="E131" s="2"/>
@@ -7349,17 +7264,19 @@
       <c r="X131" s="2"/>
     </row>
     <row r="132">
-      <c r="A132" s="3" t="s">
-        <v>215</v>
+      <c r="A132" s="1" t="s">
+        <v>226</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>214</v>
+        <v>32</v>
       </c>
       <c r="C132" s="10" t="s">
-        <v>210</v>
+        <v>227</v>
       </c>
       <c r="D132" s="2"/>
-      <c r="E132" s="2"/>
+      <c r="E132" s="11" t="s">
+        <v>228</v>
+      </c>
       <c r="F132" s="2"/>
       <c r="G132" s="2"/>
       <c r="H132" s="2"/>
@@ -7381,17 +7298,19 @@
       <c r="X132" s="2"/>
     </row>
     <row r="133">
-      <c r="A133" s="3" t="s">
-        <v>216</v>
+      <c r="A133" s="1" t="s">
+        <v>229</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>214</v>
+        <v>32</v>
       </c>
       <c r="C133" s="10" t="s">
-        <v>210</v>
+        <v>227</v>
       </c>
       <c r="D133" s="2"/>
-      <c r="E133" s="2"/>
+      <c r="E133" s="3" t="s">
+        <v>230</v>
+      </c>
       <c r="F133" s="2"/>
       <c r="G133" s="2"/>
       <c r="H133" s="2"/>
@@ -7413,17 +7332,19 @@
       <c r="X133" s="2"/>
     </row>
     <row r="134">
-      <c r="A134" s="3" t="s">
-        <v>217</v>
+      <c r="A134" s="1" t="s">
+        <v>231</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>218</v>
+        <v>66</v>
       </c>
       <c r="C134" s="10" t="s">
-        <v>210</v>
+        <v>227</v>
       </c>
       <c r="D134" s="2"/>
-      <c r="E134" s="2"/>
+      <c r="E134" s="11" t="s">
+        <v>232</v>
+      </c>
       <c r="F134" s="2"/>
       <c r="G134" s="2"/>
       <c r="H134" s="2"/>
@@ -7445,17 +7366,19 @@
       <c r="X134" s="2"/>
     </row>
     <row r="135">
-      <c r="A135" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="B135" s="3" t="s">
-        <v>220</v>
+      <c r="A135" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B135" s="12" t="s">
+        <v>32</v>
       </c>
       <c r="C135" s="10" t="s">
-        <v>210</v>
+        <v>227</v>
       </c>
       <c r="D135" s="2"/>
-      <c r="E135" s="2"/>
+      <c r="E135" s="3" t="s">
+        <v>228</v>
+      </c>
       <c r="F135" s="2"/>
       <c r="G135" s="2"/>
       <c r="H135" s="2"/>
@@ -7478,16 +7401,18 @@
     </row>
     <row r="136">
       <c r="A136" s="3" t="s">
-        <v>221</v>
+        <v>234</v>
       </c>
       <c r="B136" s="12" t="s">
-        <v>220</v>
+        <v>32</v>
       </c>
       <c r="C136" s="10" t="s">
-        <v>210</v>
+        <v>227</v>
       </c>
       <c r="D136" s="2"/>
-      <c r="E136" s="2"/>
+      <c r="E136" s="3" t="s">
+        <v>228</v>
+      </c>
       <c r="F136" s="2"/>
       <c r="G136" s="2"/>
       <c r="H136" s="2"/>
@@ -7510,17 +7435,17 @@
     </row>
     <row r="137">
       <c r="A137" s="3" t="s">
-        <v>222</v>
+        <v>235</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>63</v>
+        <v>236</v>
       </c>
       <c r="C137" s="10" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="D137" s="2"/>
       <c r="E137" s="3" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="F137" s="2"/>
       <c r="G137" s="2"/>
@@ -7543,16 +7468,18 @@
       <c r="X137" s="2"/>
     </row>
     <row r="138">
-      <c r="A138" s="1" t="s">
-        <v>225</v>
+      <c r="A138" s="3" t="s">
+        <v>237</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>63</v>
+        <v>94</v>
       </c>
       <c r="C138" s="10" t="s">
-        <v>223</v>
-      </c>
-      <c r="D138" s="2"/>
+        <v>238</v>
+      </c>
+      <c r="D138" s="3" t="s">
+        <v>239</v>
+      </c>
       <c r="E138" s="2"/>
       <c r="F138" s="2"/>
       <c r="G138" s="2"/>
@@ -7575,17 +7502,17 @@
       <c r="X138" s="2"/>
     </row>
     <row r="139">
-      <c r="A139" s="3" t="s">
-        <v>226</v>
+      <c r="A139" s="1" t="s">
+        <v>240</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>56</v>
+        <v>32</v>
       </c>
       <c r="C139" s="10" t="s">
-        <v>223</v>
+        <v>238</v>
       </c>
       <c r="D139" s="3" t="s">
-        <v>227</v>
+        <v>241</v>
       </c>
       <c r="E139" s="2"/>
       <c r="F139" s="2"/>
@@ -7609,16 +7536,18 @@
       <c r="X139" s="2"/>
     </row>
     <row r="140">
-      <c r="A140" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="B140" s="12" t="s">
-        <v>63</v>
+      <c r="A140" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B140" s="11" t="s">
+        <v>243</v>
       </c>
       <c r="C140" s="10" t="s">
-        <v>223</v>
-      </c>
-      <c r="D140" s="2"/>
+        <v>238</v>
+      </c>
+      <c r="D140" s="1" t="s">
+        <v>244</v>
+      </c>
       <c r="E140" s="2"/>
       <c r="F140" s="2"/>
       <c r="G140" s="2"/>
@@ -7642,13 +7571,13 @@
     </row>
     <row r="141">
       <c r="A141" s="3" t="s">
-        <v>229</v>
+        <v>245</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>67</v>
+        <v>25</v>
       </c>
       <c r="C141" s="10" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="D141" s="2"/>
       <c r="E141" s="2"/>
@@ -7674,15 +7603,17 @@
     </row>
     <row r="142">
       <c r="A142" s="3" t="s">
-        <v>231</v>
+        <v>246</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>67</v>
+        <v>237</v>
       </c>
       <c r="C142" s="10" t="s">
-        <v>230</v>
-      </c>
-      <c r="D142" s="2"/>
+        <v>238</v>
+      </c>
+      <c r="D142" s="1" t="s">
+        <v>247</v>
+      </c>
       <c r="E142" s="2"/>
       <c r="F142" s="2"/>
       <c r="G142" s="2"/>
@@ -7705,21 +7636,19 @@
       <c r="X142" s="2"/>
     </row>
     <row r="143">
-      <c r="A143" s="18" t="s">
-        <v>232</v>
+      <c r="A143" s="3" t="s">
+        <v>248</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>56</v>
+        <v>237</v>
       </c>
       <c r="C143" s="10" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="D143" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="E143" s="3" t="s">
-        <v>235</v>
-      </c>
+        <v>249</v>
+      </c>
+      <c r="E143" s="2"/>
       <c r="F143" s="2"/>
       <c r="G143" s="2"/>
       <c r="H143" s="2"/>
@@ -7742,15 +7671,17 @@
     </row>
     <row r="144">
       <c r="A144" s="3" t="s">
-        <v>236</v>
+        <v>250</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>232</v>
+        <v>70</v>
       </c>
       <c r="C144" s="10" t="s">
-        <v>233</v>
-      </c>
-      <c r="D144" s="2"/>
+        <v>238</v>
+      </c>
+      <c r="D144" s="3" t="s">
+        <v>251</v>
+      </c>
       <c r="E144" s="2"/>
       <c r="F144" s="2"/>
       <c r="G144" s="2"/>
@@ -7773,14 +7704,14 @@
       <c r="X144" s="2"/>
     </row>
     <row r="145">
-      <c r="A145" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="B145" s="12" t="s">
-        <v>56</v>
+      <c r="A145" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="B145" s="3" t="s">
+        <v>70</v>
       </c>
       <c r="C145" s="10" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="D145" s="2"/>
       <c r="E145" s="2"/>
@@ -7805,14 +7736,14 @@
       <c r="X145" s="2"/>
     </row>
     <row r="146">
-      <c r="A146" s="3" t="s">
-        <v>238</v>
+      <c r="A146" s="1" t="s">
+        <v>253</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>239</v>
+        <v>70</v>
       </c>
       <c r="C146" s="10" t="s">
-        <v>233</v>
+        <v>254</v>
       </c>
       <c r="D146" s="2"/>
       <c r="E146" s="2"/>
@@ -7837,16 +7768,18 @@
       <c r="X146" s="2"/>
     </row>
     <row r="147">
-      <c r="A147" s="19" t="s">
-        <v>240</v>
-      </c>
-      <c r="B147" s="3" t="s">
-        <v>63</v>
+      <c r="A147" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="B147" s="12" t="s">
+        <v>253</v>
       </c>
       <c r="C147" s="10" t="s">
-        <v>241</v>
-      </c>
-      <c r="D147" s="2"/>
+        <v>254</v>
+      </c>
+      <c r="D147" s="1" t="s">
+        <v>256</v>
+      </c>
       <c r="E147" s="2"/>
       <c r="F147" s="2"/>
       <c r="G147" s="2"/>
@@ -7869,16 +7802,18 @@
       <c r="X147" s="2"/>
     </row>
     <row r="148">
-      <c r="A148" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="B148" s="3" t="s">
-        <v>63</v>
+      <c r="A148" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="B148" s="12" t="s">
+        <v>253</v>
       </c>
       <c r="C148" s="10" t="s">
-        <v>241</v>
-      </c>
-      <c r="D148" s="2"/>
+        <v>254</v>
+      </c>
+      <c r="D148" s="3" t="s">
+        <v>258</v>
+      </c>
       <c r="E148" s="2"/>
       <c r="F148" s="2"/>
       <c r="G148" s="2"/>
@@ -7901,17 +7836,17 @@
       <c r="X148" s="2"/>
     </row>
     <row r="149">
-      <c r="A149" s="3" t="s">
-        <v>243</v>
+      <c r="A149" s="1" t="s">
+        <v>259</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="C149" s="10" t="s">
-        <v>241</v>
-      </c>
-      <c r="D149" s="3" t="s">
-        <v>244</v>
+        <v>254</v>
+      </c>
+      <c r="D149" s="1" t="s">
+        <v>260</v>
       </c>
       <c r="E149" s="2"/>
       <c r="F149" s="2"/>
@@ -7935,18 +7870,19 @@
       <c r="X149" s="2"/>
     </row>
     <row r="150">
-      <c r="A150" s="20" t="s">
-        <v>245</v>
+      <c r="A150" s="3" t="s">
+        <v>261</v>
       </c>
       <c r="B150" s="3" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="C150" s="10" t="s">
-        <v>241</v>
-      </c>
-      <c r="E150" s="3" t="s">
-        <v>246</v>
-      </c>
+        <v>254</v>
+      </c>
+      <c r="D150" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="E150" s="2"/>
       <c r="F150" s="2"/>
       <c r="G150" s="2"/>
       <c r="H150" s="2"/>
@@ -7969,16 +7905,16 @@
     </row>
     <row r="151">
       <c r="A151" s="3" t="s">
-        <v>247</v>
+        <v>263</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="C151" s="10" t="s">
-        <v>241</v>
-      </c>
-      <c r="D151" s="3" t="s">
-        <v>248</v>
+        <v>254</v>
+      </c>
+      <c r="D151" s="1" t="s">
+        <v>264</v>
       </c>
       <c r="E151" s="2"/>
       <c r="F151" s="2"/>
@@ -8002,19 +7938,17 @@
       <c r="X151" s="2"/>
     </row>
     <row r="152">
-      <c r="A152" s="1" t="s">
-        <v>249</v>
+      <c r="A152" s="21" t="s">
+        <v>265</v>
       </c>
       <c r="B152" s="3" t="s">
-        <v>250</v>
+        <v>77</v>
       </c>
       <c r="C152" s="10" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="D152" s="2"/>
-      <c r="E152" s="3" t="s">
-        <v>252</v>
-      </c>
+      <c r="E152" s="2"/>
       <c r="F152" s="2"/>
       <c r="G152" s="2"/>
       <c r="H152" s="2"/>
@@ -8036,14 +7970,14 @@
       <c r="X152" s="2"/>
     </row>
     <row r="153">
-      <c r="A153" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="B153" s="1" t="s">
-        <v>249</v>
+      <c r="A153" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="B153" s="3" t="s">
+        <v>268</v>
       </c>
       <c r="C153" s="10" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="D153" s="2"/>
       <c r="E153" s="2"/>
@@ -8068,19 +8002,17 @@
       <c r="X153" s="2"/>
     </row>
     <row r="154">
-      <c r="A154" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="B154" s="3" t="s">
-        <v>63</v>
+      <c r="A154" s="21" t="s">
+        <v>269</v>
+      </c>
+      <c r="B154" s="18" t="s">
+        <v>97</v>
       </c>
       <c r="C154" s="10" t="s">
-        <v>255</v>
+        <v>266</v>
       </c>
       <c r="D154" s="2"/>
-      <c r="E154" s="11" t="s">
-        <v>256</v>
-      </c>
+      <c r="E154" s="2"/>
       <c r="F154" s="2"/>
       <c r="G154" s="2"/>
       <c r="H154" s="2"/>
@@ -8102,19 +8034,17 @@
       <c r="X154" s="2"/>
     </row>
     <row r="155">
-      <c r="A155" s="1" t="s">
-        <v>257</v>
+      <c r="A155" s="21" t="s">
+        <v>270</v>
       </c>
       <c r="B155" s="3" t="s">
-        <v>63</v>
+        <v>32</v>
       </c>
       <c r="C155" s="10" t="s">
-        <v>255</v>
+        <v>266</v>
       </c>
       <c r="D155" s="2"/>
-      <c r="E155" s="3" t="s">
-        <v>258</v>
-      </c>
+      <c r="E155" s="2"/>
       <c r="F155" s="2"/>
       <c r="G155" s="2"/>
       <c r="H155" s="2"/>
@@ -8136,19 +8066,17 @@
       <c r="X155" s="2"/>
     </row>
     <row r="156">
-      <c r="A156" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="B156" s="3" t="s">
-        <v>97</v>
+      <c r="A156" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="B156" s="21" t="s">
+        <v>270</v>
       </c>
       <c r="C156" s="10" t="s">
-        <v>255</v>
+        <v>266</v>
       </c>
       <c r="D156" s="2"/>
-      <c r="E156" s="11" t="s">
-        <v>260</v>
-      </c>
+      <c r="E156" s="2"/>
       <c r="F156" s="2"/>
       <c r="G156" s="2"/>
       <c r="H156" s="2"/>
@@ -8170,19 +8098,17 @@
       <c r="X156" s="2"/>
     </row>
     <row r="157">
-      <c r="A157" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="B157" s="12" t="s">
-        <v>63</v>
+      <c r="A157" s="21" t="s">
+        <v>272</v>
+      </c>
+      <c r="B157" s="3" t="s">
+        <v>110</v>
       </c>
       <c r="C157" s="10" t="s">
-        <v>255</v>
+        <v>266</v>
       </c>
       <c r="D157" s="2"/>
-      <c r="E157" s="3" t="s">
-        <v>256</v>
-      </c>
+      <c r="E157" s="2"/>
       <c r="F157" s="2"/>
       <c r="G157" s="2"/>
       <c r="H157" s="2"/>
@@ -8204,19 +8130,17 @@
       <c r="X157" s="2"/>
     </row>
     <row r="158">
-      <c r="A158" s="3" t="s">
-        <v>262</v>
-      </c>
-      <c r="B158" s="12" t="s">
-        <v>63</v>
+      <c r="A158" s="21" t="s">
+        <v>273</v>
+      </c>
+      <c r="B158" s="21" t="s">
+        <v>272</v>
       </c>
       <c r="C158" s="10" t="s">
-        <v>255</v>
+        <v>266</v>
       </c>
       <c r="D158" s="2"/>
-      <c r="E158" s="3" t="s">
-        <v>256</v>
-      </c>
+      <c r="E158" s="2"/>
       <c r="F158" s="2"/>
       <c r="G158" s="2"/>
       <c r="H158" s="2"/>
@@ -8238,19 +8162,17 @@
       <c r="X158" s="2"/>
     </row>
     <row r="159">
-      <c r="A159" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="B159" s="3" t="s">
-        <v>264</v>
+      <c r="A159" s="21" t="s">
+        <v>274</v>
+      </c>
+      <c r="B159" s="18" t="s">
+        <v>275</v>
       </c>
       <c r="C159" s="10" t="s">
-        <v>255</v>
+        <v>266</v>
       </c>
       <c r="D159" s="2"/>
-      <c r="E159" s="3" t="s">
-        <v>256</v>
-      </c>
+      <c r="E159" s="2"/>
       <c r="F159" s="2"/>
       <c r="G159" s="2"/>
       <c r="H159" s="2"/>
@@ -8273,17 +8195,15 @@
     </row>
     <row r="160">
       <c r="A160" s="3" t="s">
-        <v>265</v>
+        <v>276</v>
       </c>
       <c r="B160" s="3" t="s">
-        <v>123</v>
+        <v>277</v>
       </c>
       <c r="C160" s="10" t="s">
         <v>266</v>
       </c>
-      <c r="D160" s="3" t="s">
-        <v>267</v>
-      </c>
+      <c r="D160" s="2"/>
       <c r="E160" s="2"/>
       <c r="F160" s="2"/>
       <c r="G160" s="2"/>
@@ -8306,17 +8226,17 @@
       <c r="X160" s="2"/>
     </row>
     <row r="161">
-      <c r="A161" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="B161" s="3" t="s">
-        <v>63</v>
+      <c r="A161" s="21" t="s">
+        <v>278</v>
+      </c>
+      <c r="B161" s="18" t="s">
+        <v>110</v>
       </c>
       <c r="C161" s="10" t="s">
         <v>266</v>
       </c>
       <c r="D161" s="3" t="s">
-        <v>269</v>
+        <v>279</v>
       </c>
       <c r="E161" s="2"/>
       <c r="F161" s="2"/>
@@ -8340,17 +8260,17 @@
       <c r="X161" s="2"/>
     </row>
     <row r="162">
-      <c r="A162" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="B162" s="11" t="s">
-        <v>271</v>
+      <c r="A162" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="B162" s="3" t="s">
+        <v>281</v>
       </c>
       <c r="C162" s="10" t="s">
-        <v>266</v>
-      </c>
-      <c r="D162" s="1" t="s">
-        <v>272</v>
+        <v>282</v>
+      </c>
+      <c r="D162" s="3" t="s">
+        <v>283</v>
       </c>
       <c r="E162" s="2"/>
       <c r="F162" s="2"/>
@@ -8374,14 +8294,14 @@
       <c r="X162" s="2"/>
     </row>
     <row r="163">
-      <c r="A163" s="3" t="s">
-        <v>273</v>
+      <c r="A163" s="14" t="s">
+        <v>284</v>
       </c>
       <c r="B163" s="3" t="s">
-        <v>56</v>
+        <v>280</v>
       </c>
       <c r="C163" s="10" t="s">
-        <v>266</v>
+        <v>282</v>
       </c>
       <c r="D163" s="2"/>
       <c r="E163" s="2"/>
@@ -8406,18 +8326,10 @@
       <c r="X163" s="2"/>
     </row>
     <row r="164">
-      <c r="A164" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="B164" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="C164" s="10" t="s">
-        <v>266</v>
-      </c>
-      <c r="D164" s="1" t="s">
-        <v>275</v>
-      </c>
+      <c r="A164" s="2"/>
+      <c r="B164" s="2"/>
+      <c r="C164" s="2"/>
+      <c r="D164" s="2"/>
       <c r="E164" s="2"/>
       <c r="F164" s="2"/>
       <c r="G164" s="2"/>
@@ -8440,18 +8352,10 @@
       <c r="X164" s="2"/>
     </row>
     <row r="165">
-      <c r="A165" s="3" t="s">
-        <v>276</v>
-      </c>
-      <c r="B165" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="C165" s="10" t="s">
-        <v>266</v>
-      </c>
-      <c r="D165" s="3" t="s">
-        <v>277</v>
-      </c>
+      <c r="A165" s="2"/>
+      <c r="B165" s="2"/>
+      <c r="C165" s="2"/>
+      <c r="D165" s="2"/>
       <c r="E165" s="2"/>
       <c r="F165" s="2"/>
       <c r="G165" s="2"/>
@@ -8474,18 +8378,10 @@
       <c r="X165" s="2"/>
     </row>
     <row r="166">
-      <c r="A166" s="3" t="s">
-        <v>278</v>
-      </c>
-      <c r="B166" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C166" s="10" t="s">
-        <v>266</v>
-      </c>
-      <c r="D166" s="3" t="s">
-        <v>279</v>
-      </c>
+      <c r="A166" s="2"/>
+      <c r="B166" s="2"/>
+      <c r="C166" s="2"/>
+      <c r="D166" s="2"/>
       <c r="E166" s="2"/>
       <c r="F166" s="2"/>
       <c r="G166" s="2"/>
@@ -8508,15 +8404,9 @@
       <c r="X166" s="2"/>
     </row>
     <row r="167">
-      <c r="A167" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="B167" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C167" s="10" t="s">
-        <v>266</v>
-      </c>
+      <c r="A167" s="2"/>
+      <c r="B167" s="2"/>
+      <c r="C167" s="2"/>
       <c r="D167" s="2"/>
       <c r="E167" s="2"/>
       <c r="F167" s="2"/>
@@ -8540,15 +8430,9 @@
       <c r="X167" s="2"/>
     </row>
     <row r="168">
-      <c r="A168" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="B168" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C168" s="10" t="s">
-        <v>282</v>
-      </c>
+      <c r="A168" s="2"/>
+      <c r="B168" s="2"/>
+      <c r="C168" s="2"/>
       <c r="D168" s="2"/>
       <c r="E168" s="2"/>
       <c r="F168" s="2"/>
@@ -8572,18 +8456,10 @@
       <c r="X168" s="2"/>
     </row>
     <row r="169">
-      <c r="A169" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="B169" s="12" t="s">
-        <v>281</v>
-      </c>
-      <c r="C169" s="10" t="s">
-        <v>282</v>
-      </c>
-      <c r="D169" s="1" t="s">
-        <v>284</v>
-      </c>
+      <c r="A169" s="2"/>
+      <c r="B169" s="2"/>
+      <c r="C169" s="2"/>
+      <c r="D169" s="2"/>
       <c r="E169" s="2"/>
       <c r="F169" s="2"/>
       <c r="G169" s="2"/>
@@ -8606,18 +8482,10 @@
       <c r="X169" s="2"/>
     </row>
     <row r="170">
-      <c r="A170" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="B170" s="12" t="s">
-        <v>281</v>
-      </c>
-      <c r="C170" s="10" t="s">
-        <v>282</v>
-      </c>
-      <c r="D170" s="3" t="s">
-        <v>286</v>
-      </c>
+      <c r="A170" s="2"/>
+      <c r="B170" s="2"/>
+      <c r="C170" s="2"/>
+      <c r="D170" s="2"/>
       <c r="E170" s="2"/>
       <c r="F170" s="2"/>
       <c r="G170" s="2"/>
@@ -8640,18 +8508,10 @@
       <c r="X170" s="2"/>
     </row>
     <row r="171">
-      <c r="A171" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B171" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C171" s="10" t="s">
-        <v>282</v>
-      </c>
-      <c r="D171" s="1" t="s">
-        <v>287</v>
-      </c>
+      <c r="A171" s="2"/>
+      <c r="B171" s="2"/>
+      <c r="C171" s="2"/>
+      <c r="D171" s="2"/>
       <c r="E171" s="2"/>
       <c r="F171" s="2"/>
       <c r="G171" s="2"/>
@@ -8674,18 +8534,10 @@
       <c r="X171" s="2"/>
     </row>
     <row r="172">
-      <c r="A172" s="3" t="s">
-        <v>288</v>
-      </c>
-      <c r="B172" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C172" s="10" t="s">
-        <v>282</v>
-      </c>
-      <c r="D172" s="3" t="s">
-        <v>289</v>
-      </c>
+      <c r="A172" s="2"/>
+      <c r="B172" s="2"/>
+      <c r="C172" s="2"/>
+      <c r="D172" s="2"/>
       <c r="E172" s="2"/>
       <c r="F172" s="2"/>
       <c r="G172" s="2"/>
@@ -8708,18 +8560,10 @@
       <c r="X172" s="2"/>
     </row>
     <row r="173">
-      <c r="A173" s="3" t="s">
-        <v>290</v>
-      </c>
-      <c r="B173" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C173" s="10" t="s">
-        <v>282</v>
-      </c>
-      <c r="D173" s="1" t="s">
-        <v>291</v>
-      </c>
+      <c r="A173" s="2"/>
+      <c r="B173" s="2"/>
+      <c r="C173" s="2"/>
+      <c r="D173" s="2"/>
       <c r="E173" s="2"/>
       <c r="F173" s="2"/>
       <c r="G173" s="2"/>
@@ -8742,15 +8586,9 @@
       <c r="X173" s="2"/>
     </row>
     <row r="174">
-      <c r="A174" s="21" t="s">
-        <v>292</v>
-      </c>
-      <c r="B174" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="C174" s="10" t="s">
-        <v>293</v>
-      </c>
+      <c r="A174" s="2"/>
+      <c r="B174" s="2"/>
+      <c r="C174" s="2"/>
       <c r="D174" s="2"/>
       <c r="E174" s="2"/>
       <c r="F174" s="2"/>
@@ -8774,15 +8612,9 @@
       <c r="X174" s="2"/>
     </row>
     <row r="175">
-      <c r="A175" s="3" t="s">
-        <v>294</v>
-      </c>
-      <c r="B175" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="C175" s="10" t="s">
-        <v>293</v>
-      </c>
+      <c r="A175" s="2"/>
+      <c r="B175" s="2"/>
+      <c r="C175" s="2"/>
       <c r="D175" s="2"/>
       <c r="E175" s="2"/>
       <c r="F175" s="2"/>
@@ -8806,15 +8638,9 @@
       <c r="X175" s="2"/>
     </row>
     <row r="176">
-      <c r="A176" s="21" t="s">
-        <v>296</v>
-      </c>
-      <c r="B176" s="18" t="s">
-        <v>126</v>
-      </c>
-      <c r="C176" s="10" t="s">
-        <v>293</v>
-      </c>
+      <c r="A176" s="2"/>
+      <c r="B176" s="2"/>
+      <c r="C176" s="2"/>
       <c r="D176" s="2"/>
       <c r="E176" s="2"/>
       <c r="F176" s="2"/>
@@ -8838,15 +8664,9 @@
       <c r="X176" s="2"/>
     </row>
     <row r="177">
-      <c r="A177" s="21" t="s">
-        <v>297</v>
-      </c>
-      <c r="B177" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="C177" s="10" t="s">
-        <v>293</v>
-      </c>
+      <c r="A177" s="2"/>
+      <c r="B177" s="2"/>
+      <c r="C177" s="2"/>
       <c r="D177" s="2"/>
       <c r="E177" s="2"/>
       <c r="F177" s="2"/>
@@ -8870,15 +8690,9 @@
       <c r="X177" s="2"/>
     </row>
     <row r="178">
-      <c r="A178" s="3" t="s">
-        <v>298</v>
-      </c>
-      <c r="B178" s="21" t="s">
-        <v>297</v>
-      </c>
-      <c r="C178" s="10" t="s">
-        <v>293</v>
-      </c>
+      <c r="A178" s="2"/>
+      <c r="B178" s="2"/>
+      <c r="C178" s="2"/>
       <c r="D178" s="2"/>
       <c r="E178" s="2"/>
       <c r="F178" s="2"/>
@@ -8902,15 +8716,9 @@
       <c r="X178" s="2"/>
     </row>
     <row r="179">
-      <c r="A179" s="21" t="s">
-        <v>299</v>
-      </c>
-      <c r="B179" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C179" s="10" t="s">
-        <v>293</v>
-      </c>
+      <c r="A179" s="2"/>
+      <c r="B179" s="2"/>
+      <c r="C179" s="2"/>
       <c r="D179" s="2"/>
       <c r="E179" s="2"/>
       <c r="F179" s="2"/>
@@ -8934,15 +8742,9 @@
       <c r="X179" s="2"/>
     </row>
     <row r="180">
-      <c r="A180" s="21" t="s">
-        <v>300</v>
-      </c>
-      <c r="B180" s="21" t="s">
-        <v>299</v>
-      </c>
-      <c r="C180" s="10" t="s">
-        <v>293</v>
-      </c>
+      <c r="A180" s="2"/>
+      <c r="B180" s="2"/>
+      <c r="C180" s="2"/>
       <c r="D180" s="2"/>
       <c r="E180" s="2"/>
       <c r="F180" s="2"/>
@@ -8966,15 +8768,9 @@
       <c r="X180" s="2"/>
     </row>
     <row r="181">
-      <c r="A181" s="21" t="s">
-        <v>301</v>
-      </c>
-      <c r="B181" s="18" t="s">
-        <v>302</v>
-      </c>
-      <c r="C181" s="10" t="s">
-        <v>293</v>
-      </c>
+      <c r="A181" s="2"/>
+      <c r="B181" s="2"/>
+      <c r="C181" s="2"/>
       <c r="D181" s="2"/>
       <c r="E181" s="2"/>
       <c r="F181" s="2"/>
@@ -8998,15 +8794,9 @@
       <c r="X181" s="2"/>
     </row>
     <row r="182">
-      <c r="A182" s="3" t="s">
-        <v>303</v>
-      </c>
-      <c r="B182" s="3" t="s">
-        <v>304</v>
-      </c>
-      <c r="C182" s="10" t="s">
-        <v>293</v>
-      </c>
+      <c r="A182" s="2"/>
+      <c r="B182" s="2"/>
+      <c r="C182" s="2"/>
       <c r="D182" s="2"/>
       <c r="E182" s="2"/>
       <c r="F182" s="2"/>
@@ -9030,18 +8820,10 @@
       <c r="X182" s="2"/>
     </row>
     <row r="183">
-      <c r="A183" s="21" t="s">
-        <v>305</v>
-      </c>
-      <c r="B183" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="C183" s="10" t="s">
-        <v>293</v>
-      </c>
-      <c r="D183" s="3" t="s">
-        <v>306</v>
-      </c>
+      <c r="A183" s="2"/>
+      <c r="B183" s="2"/>
+      <c r="C183" s="2"/>
+      <c r="D183" s="2"/>
       <c r="E183" s="2"/>
       <c r="F183" s="2"/>
       <c r="G183" s="2"/>
@@ -9064,18 +8846,10 @@
       <c r="X183" s="2"/>
     </row>
     <row r="184">
-      <c r="A184" s="3" t="s">
-        <v>307</v>
-      </c>
-      <c r="B184" s="3" t="s">
-        <v>308</v>
-      </c>
-      <c r="C184" s="10" t="s">
-        <v>309</v>
-      </c>
-      <c r="D184" s="3" t="s">
-        <v>310</v>
-      </c>
+      <c r="A184" s="2"/>
+      <c r="B184" s="2"/>
+      <c r="C184" s="2"/>
+      <c r="D184" s="2"/>
       <c r="E184" s="2"/>
       <c r="F184" s="2"/>
       <c r="G184" s="2"/>
@@ -9098,15 +8872,9 @@
       <c r="X184" s="2"/>
     </row>
     <row r="185">
-      <c r="A185" s="14" t="s">
-        <v>311</v>
-      </c>
-      <c r="B185" s="3" t="s">
-        <v>307</v>
-      </c>
-      <c r="C185" s="10" t="s">
-        <v>309</v>
-      </c>
+      <c r="A185" s="2"/>
+      <c r="B185" s="2"/>
+      <c r="C185" s="2"/>
       <c r="D185" s="2"/>
       <c r="E185" s="2"/>
       <c r="F185" s="2"/>
@@ -16594,7 +16362,7 @@
     <row r="473">
       <c r="A473" s="2"/>
       <c r="B473" s="2"/>
-      <c r="C473" s="2"/>
+      <c r="C473" s="22"/>
       <c r="D473" s="2"/>
       <c r="E473" s="2"/>
       <c r="F473" s="2"/>
@@ -16617,578 +16385,6 @@
       <c r="W473" s="2"/>
       <c r="X473" s="2"/>
     </row>
-    <row r="474">
-      <c r="A474" s="2"/>
-      <c r="B474" s="2"/>
-      <c r="C474" s="2"/>
-      <c r="D474" s="2"/>
-      <c r="E474" s="2"/>
-      <c r="F474" s="2"/>
-      <c r="G474" s="2"/>
-      <c r="H474" s="2"/>
-      <c r="I474" s="2"/>
-      <c r="J474" s="2"/>
-      <c r="K474" s="2"/>
-      <c r="L474" s="2"/>
-      <c r="M474" s="2"/>
-      <c r="N474" s="2"/>
-      <c r="O474" s="2"/>
-      <c r="P474" s="2"/>
-      <c r="Q474" s="2"/>
-      <c r="R474" s="2"/>
-      <c r="S474" s="2"/>
-      <c r="T474" s="2"/>
-      <c r="U474" s="2"/>
-      <c r="V474" s="2"/>
-      <c r="W474" s="2"/>
-      <c r="X474" s="2"/>
-    </row>
-    <row r="475">
-      <c r="A475" s="2"/>
-      <c r="B475" s="2"/>
-      <c r="C475" s="2"/>
-      <c r="D475" s="2"/>
-      <c r="E475" s="2"/>
-      <c r="F475" s="2"/>
-      <c r="G475" s="2"/>
-      <c r="H475" s="2"/>
-      <c r="I475" s="2"/>
-      <c r="J475" s="2"/>
-      <c r="K475" s="2"/>
-      <c r="L475" s="2"/>
-      <c r="M475" s="2"/>
-      <c r="N475" s="2"/>
-      <c r="O475" s="2"/>
-      <c r="P475" s="2"/>
-      <c r="Q475" s="2"/>
-      <c r="R475" s="2"/>
-      <c r="S475" s="2"/>
-      <c r="T475" s="2"/>
-      <c r="U475" s="2"/>
-      <c r="V475" s="2"/>
-      <c r="W475" s="2"/>
-      <c r="X475" s="2"/>
-    </row>
-    <row r="476">
-      <c r="A476" s="2"/>
-      <c r="B476" s="2"/>
-      <c r="C476" s="2"/>
-      <c r="D476" s="2"/>
-      <c r="E476" s="2"/>
-      <c r="F476" s="2"/>
-      <c r="G476" s="2"/>
-      <c r="H476" s="2"/>
-      <c r="I476" s="2"/>
-      <c r="J476" s="2"/>
-      <c r="K476" s="2"/>
-      <c r="L476" s="2"/>
-      <c r="M476" s="2"/>
-      <c r="N476" s="2"/>
-      <c r="O476" s="2"/>
-      <c r="P476" s="2"/>
-      <c r="Q476" s="2"/>
-      <c r="R476" s="2"/>
-      <c r="S476" s="2"/>
-      <c r="T476" s="2"/>
-      <c r="U476" s="2"/>
-      <c r="V476" s="2"/>
-      <c r="W476" s="2"/>
-      <c r="X476" s="2"/>
-    </row>
-    <row r="477">
-      <c r="A477" s="2"/>
-      <c r="B477" s="2"/>
-      <c r="C477" s="2"/>
-      <c r="D477" s="2"/>
-      <c r="E477" s="2"/>
-      <c r="F477" s="2"/>
-      <c r="G477" s="2"/>
-      <c r="H477" s="2"/>
-      <c r="I477" s="2"/>
-      <c r="J477" s="2"/>
-      <c r="K477" s="2"/>
-      <c r="L477" s="2"/>
-      <c r="M477" s="2"/>
-      <c r="N477" s="2"/>
-      <c r="O477" s="2"/>
-      <c r="P477" s="2"/>
-      <c r="Q477" s="2"/>
-      <c r="R477" s="2"/>
-      <c r="S477" s="2"/>
-      <c r="T477" s="2"/>
-      <c r="U477" s="2"/>
-      <c r="V477" s="2"/>
-      <c r="W477" s="2"/>
-      <c r="X477" s="2"/>
-    </row>
-    <row r="478">
-      <c r="A478" s="2"/>
-      <c r="B478" s="2"/>
-      <c r="C478" s="2"/>
-      <c r="D478" s="2"/>
-      <c r="E478" s="2"/>
-      <c r="F478" s="2"/>
-      <c r="G478" s="2"/>
-      <c r="H478" s="2"/>
-      <c r="I478" s="2"/>
-      <c r="J478" s="2"/>
-      <c r="K478" s="2"/>
-      <c r="L478" s="2"/>
-      <c r="M478" s="2"/>
-      <c r="N478" s="2"/>
-      <c r="O478" s="2"/>
-      <c r="P478" s="2"/>
-      <c r="Q478" s="2"/>
-      <c r="R478" s="2"/>
-      <c r="S478" s="2"/>
-      <c r="T478" s="2"/>
-      <c r="U478" s="2"/>
-      <c r="V478" s="2"/>
-      <c r="W478" s="2"/>
-      <c r="X478" s="2"/>
-    </row>
-    <row r="479">
-      <c r="A479" s="2"/>
-      <c r="B479" s="2"/>
-      <c r="C479" s="2"/>
-      <c r="D479" s="2"/>
-      <c r="E479" s="2"/>
-      <c r="F479" s="2"/>
-      <c r="G479" s="2"/>
-      <c r="H479" s="2"/>
-      <c r="I479" s="2"/>
-      <c r="J479" s="2"/>
-      <c r="K479" s="2"/>
-      <c r="L479" s="2"/>
-      <c r="M479" s="2"/>
-      <c r="N479" s="2"/>
-      <c r="O479" s="2"/>
-      <c r="P479" s="2"/>
-      <c r="Q479" s="2"/>
-      <c r="R479" s="2"/>
-      <c r="S479" s="2"/>
-      <c r="T479" s="2"/>
-      <c r="U479" s="2"/>
-      <c r="V479" s="2"/>
-      <c r="W479" s="2"/>
-      <c r="X479" s="2"/>
-    </row>
-    <row r="480">
-      <c r="A480" s="2"/>
-      <c r="B480" s="2"/>
-      <c r="C480" s="2"/>
-      <c r="D480" s="2"/>
-      <c r="E480" s="2"/>
-      <c r="F480" s="2"/>
-      <c r="G480" s="2"/>
-      <c r="H480" s="2"/>
-      <c r="I480" s="2"/>
-      <c r="J480" s="2"/>
-      <c r="K480" s="2"/>
-      <c r="L480" s="2"/>
-      <c r="M480" s="2"/>
-      <c r="N480" s="2"/>
-      <c r="O480" s="2"/>
-      <c r="P480" s="2"/>
-      <c r="Q480" s="2"/>
-      <c r="R480" s="2"/>
-      <c r="S480" s="2"/>
-      <c r="T480" s="2"/>
-      <c r="U480" s="2"/>
-      <c r="V480" s="2"/>
-      <c r="W480" s="2"/>
-      <c r="X480" s="2"/>
-    </row>
-    <row r="481">
-      <c r="A481" s="2"/>
-      <c r="B481" s="2"/>
-      <c r="C481" s="2"/>
-      <c r="D481" s="2"/>
-      <c r="E481" s="2"/>
-      <c r="F481" s="2"/>
-      <c r="G481" s="2"/>
-      <c r="H481" s="2"/>
-      <c r="I481" s="2"/>
-      <c r="J481" s="2"/>
-      <c r="K481" s="2"/>
-      <c r="L481" s="2"/>
-      <c r="M481" s="2"/>
-      <c r="N481" s="2"/>
-      <c r="O481" s="2"/>
-      <c r="P481" s="2"/>
-      <c r="Q481" s="2"/>
-      <c r="R481" s="2"/>
-      <c r="S481" s="2"/>
-      <c r="T481" s="2"/>
-      <c r="U481" s="2"/>
-      <c r="V481" s="2"/>
-      <c r="W481" s="2"/>
-      <c r="X481" s="2"/>
-    </row>
-    <row r="482">
-      <c r="A482" s="2"/>
-      <c r="B482" s="2"/>
-      <c r="C482" s="2"/>
-      <c r="D482" s="2"/>
-      <c r="E482" s="2"/>
-      <c r="F482" s="2"/>
-      <c r="G482" s="2"/>
-      <c r="H482" s="2"/>
-      <c r="I482" s="2"/>
-      <c r="J482" s="2"/>
-      <c r="K482" s="2"/>
-      <c r="L482" s="2"/>
-      <c r="M482" s="2"/>
-      <c r="N482" s="2"/>
-      <c r="O482" s="2"/>
-      <c r="P482" s="2"/>
-      <c r="Q482" s="2"/>
-      <c r="R482" s="2"/>
-      <c r="S482" s="2"/>
-      <c r="T482" s="2"/>
-      <c r="U482" s="2"/>
-      <c r="V482" s="2"/>
-      <c r="W482" s="2"/>
-      <c r="X482" s="2"/>
-    </row>
-    <row r="483">
-      <c r="A483" s="2"/>
-      <c r="B483" s="2"/>
-      <c r="C483" s="2"/>
-      <c r="D483" s="2"/>
-      <c r="E483" s="2"/>
-      <c r="F483" s="2"/>
-      <c r="G483" s="2"/>
-      <c r="H483" s="2"/>
-      <c r="I483" s="2"/>
-      <c r="J483" s="2"/>
-      <c r="K483" s="2"/>
-      <c r="L483" s="2"/>
-      <c r="M483" s="2"/>
-      <c r="N483" s="2"/>
-      <c r="O483" s="2"/>
-      <c r="P483" s="2"/>
-      <c r="Q483" s="2"/>
-      <c r="R483" s="2"/>
-      <c r="S483" s="2"/>
-      <c r="T483" s="2"/>
-      <c r="U483" s="2"/>
-      <c r="V483" s="2"/>
-      <c r="W483" s="2"/>
-      <c r="X483" s="2"/>
-    </row>
-    <row r="484">
-      <c r="A484" s="2"/>
-      <c r="B484" s="2"/>
-      <c r="C484" s="2"/>
-      <c r="D484" s="2"/>
-      <c r="E484" s="2"/>
-      <c r="F484" s="2"/>
-      <c r="G484" s="2"/>
-      <c r="H484" s="2"/>
-      <c r="I484" s="2"/>
-      <c r="J484" s="2"/>
-      <c r="K484" s="2"/>
-      <c r="L484" s="2"/>
-      <c r="M484" s="2"/>
-      <c r="N484" s="2"/>
-      <c r="O484" s="2"/>
-      <c r="P484" s="2"/>
-      <c r="Q484" s="2"/>
-      <c r="R484" s="2"/>
-      <c r="S484" s="2"/>
-      <c r="T484" s="2"/>
-      <c r="U484" s="2"/>
-      <c r="V484" s="2"/>
-      <c r="W484" s="2"/>
-      <c r="X484" s="2"/>
-    </row>
-    <row r="485">
-      <c r="A485" s="2"/>
-      <c r="B485" s="2"/>
-      <c r="C485" s="2"/>
-      <c r="D485" s="2"/>
-      <c r="E485" s="2"/>
-      <c r="F485" s="2"/>
-      <c r="G485" s="2"/>
-      <c r="H485" s="2"/>
-      <c r="I485" s="2"/>
-      <c r="J485" s="2"/>
-      <c r="K485" s="2"/>
-      <c r="L485" s="2"/>
-      <c r="M485" s="2"/>
-      <c r="N485" s="2"/>
-      <c r="O485" s="2"/>
-      <c r="P485" s="2"/>
-      <c r="Q485" s="2"/>
-      <c r="R485" s="2"/>
-      <c r="S485" s="2"/>
-      <c r="T485" s="2"/>
-      <c r="U485" s="2"/>
-      <c r="V485" s="2"/>
-      <c r="W485" s="2"/>
-      <c r="X485" s="2"/>
-    </row>
-    <row r="486">
-      <c r="A486" s="2"/>
-      <c r="B486" s="2"/>
-      <c r="C486" s="2"/>
-      <c r="D486" s="2"/>
-      <c r="E486" s="2"/>
-      <c r="F486" s="2"/>
-      <c r="G486" s="2"/>
-      <c r="H486" s="2"/>
-      <c r="I486" s="2"/>
-      <c r="J486" s="2"/>
-      <c r="K486" s="2"/>
-      <c r="L486" s="2"/>
-      <c r="M486" s="2"/>
-      <c r="N486" s="2"/>
-      <c r="O486" s="2"/>
-      <c r="P486" s="2"/>
-      <c r="Q486" s="2"/>
-      <c r="R486" s="2"/>
-      <c r="S486" s="2"/>
-      <c r="T486" s="2"/>
-      <c r="U486" s="2"/>
-      <c r="V486" s="2"/>
-      <c r="W486" s="2"/>
-      <c r="X486" s="2"/>
-    </row>
-    <row r="487">
-      <c r="A487" s="2"/>
-      <c r="B487" s="2"/>
-      <c r="C487" s="2"/>
-      <c r="D487" s="2"/>
-      <c r="E487" s="2"/>
-      <c r="F487" s="2"/>
-      <c r="G487" s="2"/>
-      <c r="H487" s="2"/>
-      <c r="I487" s="2"/>
-      <c r="J487" s="2"/>
-      <c r="K487" s="2"/>
-      <c r="L487" s="2"/>
-      <c r="M487" s="2"/>
-      <c r="N487" s="2"/>
-      <c r="O487" s="2"/>
-      <c r="P487" s="2"/>
-      <c r="Q487" s="2"/>
-      <c r="R487" s="2"/>
-      <c r="S487" s="2"/>
-      <c r="T487" s="2"/>
-      <c r="U487" s="2"/>
-      <c r="V487" s="2"/>
-      <c r="W487" s="2"/>
-      <c r="X487" s="2"/>
-    </row>
-    <row r="488">
-      <c r="A488" s="2"/>
-      <c r="B488" s="2"/>
-      <c r="C488" s="2"/>
-      <c r="D488" s="2"/>
-      <c r="E488" s="2"/>
-      <c r="F488" s="2"/>
-      <c r="G488" s="2"/>
-      <c r="H488" s="2"/>
-      <c r="I488" s="2"/>
-      <c r="J488" s="2"/>
-      <c r="K488" s="2"/>
-      <c r="L488" s="2"/>
-      <c r="M488" s="2"/>
-      <c r="N488" s="2"/>
-      <c r="O488" s="2"/>
-      <c r="P488" s="2"/>
-      <c r="Q488" s="2"/>
-      <c r="R488" s="2"/>
-      <c r="S488" s="2"/>
-      <c r="T488" s="2"/>
-      <c r="U488" s="2"/>
-      <c r="V488" s="2"/>
-      <c r="W488" s="2"/>
-      <c r="X488" s="2"/>
-    </row>
-    <row r="489">
-      <c r="A489" s="2"/>
-      <c r="B489" s="2"/>
-      <c r="C489" s="2"/>
-      <c r="D489" s="2"/>
-      <c r="E489" s="2"/>
-      <c r="F489" s="2"/>
-      <c r="G489" s="2"/>
-      <c r="H489" s="2"/>
-      <c r="I489" s="2"/>
-      <c r="J489" s="2"/>
-      <c r="K489" s="2"/>
-      <c r="L489" s="2"/>
-      <c r="M489" s="2"/>
-      <c r="N489" s="2"/>
-      <c r="O489" s="2"/>
-      <c r="P489" s="2"/>
-      <c r="Q489" s="2"/>
-      <c r="R489" s="2"/>
-      <c r="S489" s="2"/>
-      <c r="T489" s="2"/>
-      <c r="U489" s="2"/>
-      <c r="V489" s="2"/>
-      <c r="W489" s="2"/>
-      <c r="X489" s="2"/>
-    </row>
-    <row r="490">
-      <c r="A490" s="2"/>
-      <c r="B490" s="2"/>
-      <c r="C490" s="2"/>
-      <c r="D490" s="2"/>
-      <c r="E490" s="2"/>
-      <c r="F490" s="2"/>
-      <c r="G490" s="2"/>
-      <c r="H490" s="2"/>
-      <c r="I490" s="2"/>
-      <c r="J490" s="2"/>
-      <c r="K490" s="2"/>
-      <c r="L490" s="2"/>
-      <c r="M490" s="2"/>
-      <c r="N490" s="2"/>
-      <c r="O490" s="2"/>
-      <c r="P490" s="2"/>
-      <c r="Q490" s="2"/>
-      <c r="R490" s="2"/>
-      <c r="S490" s="2"/>
-      <c r="T490" s="2"/>
-      <c r="U490" s="2"/>
-      <c r="V490" s="2"/>
-      <c r="W490" s="2"/>
-      <c r="X490" s="2"/>
-    </row>
-    <row r="491">
-      <c r="A491" s="2"/>
-      <c r="B491" s="2"/>
-      <c r="C491" s="2"/>
-      <c r="D491" s="2"/>
-      <c r="E491" s="2"/>
-      <c r="F491" s="2"/>
-      <c r="G491" s="2"/>
-      <c r="H491" s="2"/>
-      <c r="I491" s="2"/>
-      <c r="J491" s="2"/>
-      <c r="K491" s="2"/>
-      <c r="L491" s="2"/>
-      <c r="M491" s="2"/>
-      <c r="N491" s="2"/>
-      <c r="O491" s="2"/>
-      <c r="P491" s="2"/>
-      <c r="Q491" s="2"/>
-      <c r="R491" s="2"/>
-      <c r="S491" s="2"/>
-      <c r="T491" s="2"/>
-      <c r="U491" s="2"/>
-      <c r="V491" s="2"/>
-      <c r="W491" s="2"/>
-      <c r="X491" s="2"/>
-    </row>
-    <row r="492">
-      <c r="A492" s="2"/>
-      <c r="B492" s="2"/>
-      <c r="C492" s="2"/>
-      <c r="D492" s="2"/>
-      <c r="E492" s="2"/>
-      <c r="F492" s="2"/>
-      <c r="G492" s="2"/>
-      <c r="H492" s="2"/>
-      <c r="I492" s="2"/>
-      <c r="J492" s="2"/>
-      <c r="K492" s="2"/>
-      <c r="L492" s="2"/>
-      <c r="M492" s="2"/>
-      <c r="N492" s="2"/>
-      <c r="O492" s="2"/>
-      <c r="P492" s="2"/>
-      <c r="Q492" s="2"/>
-      <c r="R492" s="2"/>
-      <c r="S492" s="2"/>
-      <c r="T492" s="2"/>
-      <c r="U492" s="2"/>
-      <c r="V492" s="2"/>
-      <c r="W492" s="2"/>
-      <c r="X492" s="2"/>
-    </row>
-    <row r="493">
-      <c r="A493" s="2"/>
-      <c r="B493" s="2"/>
-      <c r="C493" s="2"/>
-      <c r="D493" s="2"/>
-      <c r="E493" s="2"/>
-      <c r="F493" s="2"/>
-      <c r="G493" s="2"/>
-      <c r="H493" s="2"/>
-      <c r="I493" s="2"/>
-      <c r="J493" s="2"/>
-      <c r="K493" s="2"/>
-      <c r="L493" s="2"/>
-      <c r="M493" s="2"/>
-      <c r="N493" s="2"/>
-      <c r="O493" s="2"/>
-      <c r="P493" s="2"/>
-      <c r="Q493" s="2"/>
-      <c r="R493" s="2"/>
-      <c r="S493" s="2"/>
-      <c r="T493" s="2"/>
-      <c r="U493" s="2"/>
-      <c r="V493" s="2"/>
-      <c r="W493" s="2"/>
-      <c r="X493" s="2"/>
-    </row>
-    <row r="494">
-      <c r="A494" s="2"/>
-      <c r="B494" s="2"/>
-      <c r="C494" s="2"/>
-      <c r="D494" s="2"/>
-      <c r="E494" s="2"/>
-      <c r="F494" s="2"/>
-      <c r="G494" s="2"/>
-      <c r="H494" s="2"/>
-      <c r="I494" s="2"/>
-      <c r="J494" s="2"/>
-      <c r="K494" s="2"/>
-      <c r="L494" s="2"/>
-      <c r="M494" s="2"/>
-      <c r="N494" s="2"/>
-      <c r="O494" s="2"/>
-      <c r="P494" s="2"/>
-      <c r="Q494" s="2"/>
-      <c r="R494" s="2"/>
-      <c r="S494" s="2"/>
-      <c r="T494" s="2"/>
-      <c r="U494" s="2"/>
-      <c r="V494" s="2"/>
-      <c r="W494" s="2"/>
-      <c r="X494" s="2"/>
-    </row>
-    <row r="495">
-      <c r="A495" s="2"/>
-      <c r="B495" s="2"/>
-      <c r="C495" s="22"/>
-      <c r="D495" s="2"/>
-      <c r="E495" s="2"/>
-      <c r="F495" s="2"/>
-      <c r="G495" s="2"/>
-      <c r="H495" s="2"/>
-      <c r="I495" s="2"/>
-      <c r="J495" s="2"/>
-      <c r="K495" s="2"/>
-      <c r="L495" s="2"/>
-      <c r="M495" s="2"/>
-      <c r="N495" s="2"/>
-      <c r="O495" s="2"/>
-      <c r="P495" s="2"/>
-      <c r="Q495" s="2"/>
-      <c r="R495" s="2"/>
-      <c r="S495" s="2"/>
-      <c r="T495" s="2"/>
-      <c r="U495" s="2"/>
-      <c r="V495" s="2"/>
-      <c r="W495" s="2"/>
-      <c r="X495" s="2"/>
-    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -17209,2335 +16405,2335 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>312</v>
+        <v>285</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>313</v>
+        <v>286</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>314</v>
+        <v>287</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>315</v>
+        <v>288</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>316</v>
+        <v>289</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>317</v>
+        <v>290</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>318</v>
+        <v>291</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>319</v>
+        <v>292</v>
       </c>
       <c r="B3" s="23" t="s">
-        <v>320</v>
+        <v>293</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>321</v>
+        <v>294</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>322</v>
+        <v>295</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>319</v>
+        <v>292</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>323</v>
+        <v>296</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>321</v>
+        <v>294</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>322</v>
+        <v>295</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>319</v>
+        <v>292</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>324</v>
+        <v>297</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>321</v>
+        <v>294</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>322</v>
+        <v>295</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>326</v>
+        <v>298</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>299</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>327</v>
+        <v>300</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>328</v>
+        <v>301</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="6" t="s">
-        <v>329</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>330</v>
+      <c r="A7" s="8" t="s">
+        <v>302</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>303</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>327</v>
+        <v>300</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>331</v>
+        <v>304</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="6" t="s">
-        <v>332</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>333</v>
+      <c r="A8" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>306</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>327</v>
+        <v>300</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>334</v>
+        <v>307</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>335</v>
+        <v>308</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>336</v>
+        <v>309</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>327</v>
+        <v>300</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>337</v>
+        <v>310</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>335</v>
+        <v>308</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>338</v>
+        <v>311</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>327</v>
+        <v>300</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>339</v>
+        <v>312</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>341</v>
+        <v>313</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>314</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>327</v>
+        <v>300</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>342</v>
+        <v>315</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>343</v>
+        <v>316</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>344</v>
+        <v>317</v>
       </c>
       <c r="C12" s="25" t="s">
-        <v>345</v>
+        <v>318</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>346</v>
+        <v>319</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>347</v>
+        <v>320</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>344</v>
+        <v>317</v>
       </c>
       <c r="C13" s="25" t="s">
-        <v>345</v>
+        <v>318</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>346</v>
+        <v>319</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>348</v>
+        <v>321</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>349</v>
+        <v>322</v>
       </c>
       <c r="C14" s="25" t="s">
-        <v>345</v>
+        <v>318</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>350</v>
+        <v>323</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>351</v>
+        <v>324</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>352</v>
+        <v>325</v>
       </c>
       <c r="C15" s="25" t="s">
-        <v>345</v>
+        <v>318</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>353</v>
+        <v>326</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="6" t="s">
-        <v>354</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>355</v>
+      <c r="A16" s="8" t="s">
+        <v>327</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>328</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>356</v>
+        <v>329</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>357</v>
+        <v>330</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>358</v>
+        <v>331</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>359</v>
+        <v>332</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>356</v>
+        <v>329</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>360</v>
+        <v>333</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>361</v>
+        <v>331</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>334</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>356</v>
+        <v>329</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>362</v>
+        <v>335</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="6" t="s">
-        <v>363</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>364</v>
+      <c r="A19" s="8" t="s">
+        <v>336</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>337</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>356</v>
+        <v>329</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>365</v>
+        <v>338</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>366</v>
+        <v>339</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>367</v>
+        <v>340</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>356</v>
+        <v>329</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>368</v>
+        <v>341</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>370</v>
+        <v>342</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>343</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>371</v>
+        <v>344</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>372</v>
+        <v>345</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>373</v>
+        <v>346</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>374</v>
+        <v>347</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>375</v>
+        <v>348</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>376</v>
+        <v>349</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>377</v>
+        <v>350</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>378</v>
+        <v>351</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>375</v>
+        <v>348</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>379</v>
+        <v>352</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="12" t="s">
-        <v>380</v>
+        <v>353</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>381</v>
+        <v>354</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>375</v>
+        <v>348</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>382</v>
+        <v>355</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>383</v>
+        <v>356</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>384</v>
+        <v>357</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>375</v>
+        <v>348</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>385</v>
+        <v>358</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="12" t="s">
-        <v>386</v>
+        <v>359</v>
       </c>
       <c r="B26" s="26" t="s">
-        <v>387</v>
+        <v>360</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>388</v>
+        <v>361</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>389</v>
+        <v>362</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>390</v>
+        <v>363</v>
       </c>
       <c r="B27" s="26" t="s">
-        <v>391</v>
+        <v>364</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>388</v>
+        <v>361</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>392</v>
+        <v>365</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
-        <v>393</v>
+        <v>366</v>
       </c>
       <c r="B28" s="27" t="s">
-        <v>394</v>
+        <v>367</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>388</v>
+        <v>361</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>395</v>
+        <v>368</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
-        <v>396</v>
+        <v>369</v>
       </c>
       <c r="B29" s="28" t="s">
-        <v>397</v>
+        <v>370</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>398</v>
+        <v>371</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="s">
-        <v>399</v>
+        <v>372</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>400</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>401</v>
+        <v>373</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>374</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>402</v>
+        <v>375</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="s">
-        <v>403</v>
+        <v>376</v>
       </c>
       <c r="B31" s="29" t="s">
-        <v>404</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>401</v>
+        <v>377</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>374</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>405</v>
+        <v>378</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="s">
-        <v>406</v>
+        <v>379</v>
       </c>
       <c r="B32" s="29" t="s">
-        <v>407</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>401</v>
+        <v>380</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>374</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>405</v>
+        <v>378</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="s">
-        <v>408</v>
+        <v>381</v>
       </c>
       <c r="B33" s="29" t="s">
-        <v>409</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>401</v>
+        <v>382</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>374</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>410</v>
+        <v>383</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="s">
-        <v>411</v>
+        <v>384</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>412</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>401</v>
+        <v>385</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>374</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>413</v>
+        <v>386</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="s">
-        <v>414</v>
+        <v>387</v>
       </c>
       <c r="B35" s="30" t="s">
-        <v>415</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>416</v>
+        <v>388</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>389</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>417</v>
+        <v>390</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="6" t="s">
-        <v>418</v>
+      <c r="A36" s="8" t="s">
+        <v>391</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>419</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>416</v>
+        <v>392</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>389</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>420</v>
+        <v>393</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="6" t="s">
-        <v>418</v>
-      </c>
-      <c r="B37" s="6" t="s">
-        <v>421</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>416</v>
+      <c r="A37" s="8" t="s">
+        <v>391</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>394</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>389</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>422</v>
+        <v>395</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="s">
-        <v>423</v>
+        <v>396</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>416</v>
+        <v>397</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>389</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="s">
-        <v>414</v>
-      </c>
-      <c r="B39" s="6" t="s">
-        <v>425</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>416</v>
+        <v>387</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>398</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>389</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>426</v>
+        <v>399</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="31" t="s">
-        <v>427</v>
+        <v>400</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>428</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>429</v>
+        <v>401</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>402</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>430</v>
+        <v>403</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="31" t="s">
-        <v>427</v>
+        <v>400</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>431</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>429</v>
+        <v>404</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>402</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>432</v>
+        <v>405</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="s">
-        <v>433</v>
-      </c>
-      <c r="B42" s="6" t="s">
-        <v>434</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>435</v>
+        <v>406</v>
+      </c>
+      <c r="B42" s="8" t="s">
+        <v>407</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>408</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>436</v>
+        <v>409</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="6" t="s">
-        <v>437</v>
+      <c r="A43" s="8" t="s">
+        <v>410</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>438</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>439</v>
+        <v>411</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>412</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>440</v>
+        <v>413</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="6" t="s">
-        <v>441</v>
+      <c r="A44" s="8" t="s">
+        <v>414</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="C44" s="4" t="s">
-        <v>439</v>
+        <v>415</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>412</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>443</v>
+        <v>416</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="6" t="s">
-        <v>444</v>
-      </c>
-      <c r="B45" s="6" t="s">
-        <v>445</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>439</v>
+      <c r="A45" s="8" t="s">
+        <v>417</v>
+      </c>
+      <c r="B45" s="8" t="s">
+        <v>418</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>412</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>446</v>
+        <v>419</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="6" t="s">
-        <v>447</v>
-      </c>
-      <c r="B46" s="6" t="s">
-        <v>448</v>
-      </c>
-      <c r="C46" s="4" t="s">
-        <v>449</v>
+      <c r="A46" s="8" t="s">
+        <v>420</v>
+      </c>
+      <c r="B46" s="8" t="s">
+        <v>421</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>422</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>450</v>
+        <v>423</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="s">
-        <v>451</v>
+        <v>424</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>452</v>
-      </c>
-      <c r="C47" s="4" t="s">
-        <v>449</v>
+        <v>425</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>422</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>453</v>
+        <v>426</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="s">
-        <v>454</v>
+        <v>427</v>
       </c>
       <c r="B48" s="32" t="s">
-        <v>455</v>
-      </c>
-      <c r="C48" s="4" t="s">
-        <v>449</v>
+        <v>428</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>422</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>456</v>
+        <v>429</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="s">
-        <v>457</v>
-      </c>
-      <c r="B49" s="6" t="s">
-        <v>458</v>
-      </c>
-      <c r="C49" s="4" t="s">
-        <v>459</v>
+        <v>430</v>
+      </c>
+      <c r="B49" s="8" t="s">
+        <v>431</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>432</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>460</v>
+        <v>433</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="s">
-        <v>461</v>
-      </c>
-      <c r="B50" s="6" t="s">
-        <v>462</v>
-      </c>
-      <c r="C50" s="4" t="s">
-        <v>459</v>
+        <v>434</v>
+      </c>
+      <c r="B50" s="8" t="s">
+        <v>435</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>432</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>463</v>
+        <v>436</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="25" t="s">
-        <v>461</v>
-      </c>
-      <c r="B51" s="8" t="s">
-        <v>464</v>
-      </c>
-      <c r="C51" s="4" t="s">
-        <v>459</v>
+        <v>434</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>437</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>432</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>465</v>
+        <v>438</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="5" t="s">
-        <v>466</v>
-      </c>
-      <c r="B52" s="6" t="s">
-        <v>467</v>
-      </c>
-      <c r="C52" s="4" t="s">
-        <v>459</v>
+      <c r="A52" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="B52" s="8" t="s">
+        <v>440</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>432</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>468</v>
+        <v>441</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="s">
-        <v>469</v>
+        <v>442</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>470</v>
-      </c>
-      <c r="C53" s="4" t="s">
-        <v>471</v>
+        <v>443</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>444</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>472</v>
+        <v>445</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="s">
-        <v>469</v>
-      </c>
-      <c r="B54" s="6" t="s">
-        <v>473</v>
-      </c>
-      <c r="C54" s="4" t="s">
-        <v>471</v>
+        <v>442</v>
+      </c>
+      <c r="B54" s="8" t="s">
+        <v>446</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>444</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>472</v>
+        <v>445</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="B55" s="6" t="s">
-        <v>475</v>
-      </c>
-      <c r="C55" s="4" t="s">
-        <v>476</v>
+        <v>447</v>
+      </c>
+      <c r="B55" s="8" t="s">
+        <v>448</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>449</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>477</v>
+        <v>450</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="s">
-        <v>478</v>
-      </c>
-      <c r="B56" s="6" t="s">
-        <v>479</v>
-      </c>
-      <c r="C56" s="4" t="s">
-        <v>476</v>
+        <v>451</v>
+      </c>
+      <c r="B56" s="8" t="s">
+        <v>452</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>449</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>480</v>
+        <v>453</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="s">
-        <v>481</v>
-      </c>
-      <c r="B57" s="8" t="s">
-        <v>482</v>
-      </c>
-      <c r="C57" s="4" t="s">
-        <v>476</v>
+        <v>454</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>455</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>449</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>483</v>
+        <v>456</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="s">
-        <v>484</v>
+        <v>457</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>485</v>
-      </c>
-      <c r="C58" s="4" t="s">
-        <v>476</v>
+        <v>458</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>449</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>486</v>
+        <v>459</v>
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="5" t="s">
-        <v>487</v>
-      </c>
-      <c r="B59" s="8" t="s">
-        <v>488</v>
-      </c>
-      <c r="C59" s="4" t="s">
-        <v>476</v>
+      <c r="A59" s="6" t="s">
+        <v>460</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>461</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>449</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>489</v>
+        <v>462</v>
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="5" t="s">
-        <v>490</v>
-      </c>
-      <c r="B60" s="8" t="s">
-        <v>491</v>
-      </c>
-      <c r="C60" s="4" t="s">
-        <v>476</v>
-      </c>
-      <c r="D60" s="6" t="s">
-        <v>492</v>
+      <c r="A60" s="6" t="s">
+        <v>463</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>464</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="D60" s="8" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="s">
-        <v>493</v>
-      </c>
-      <c r="B61" s="8" t="s">
-        <v>494</v>
+        <v>466</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>467</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>495</v>
-      </c>
-      <c r="D61" s="6" t="s">
-        <v>496</v>
+        <v>468</v>
+      </c>
+      <c r="D61" s="8" t="s">
+        <v>469</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="s">
-        <v>497</v>
-      </c>
-      <c r="B62" s="6" t="s">
-        <v>498</v>
+        <v>470</v>
+      </c>
+      <c r="B62" s="8" t="s">
+        <v>471</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>495</v>
+        <v>468</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>499</v>
+        <v>472</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="s">
-        <v>500</v>
-      </c>
-      <c r="B63" s="6" t="s">
-        <v>501</v>
+        <v>473</v>
+      </c>
+      <c r="B63" s="8" t="s">
+        <v>474</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>495</v>
-      </c>
-      <c r="D63" s="6" t="s">
-        <v>499</v>
+        <v>468</v>
+      </c>
+      <c r="D63" s="8" t="s">
+        <v>472</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="s">
-        <v>502</v>
+        <v>475</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>503</v>
+        <v>476</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>495</v>
+        <v>468</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>504</v>
+        <v>477</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="B65" s="8" t="s">
+        <v>478</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="8" t="s">
+        <v>480</v>
+      </c>
+      <c r="B66" s="8" t="s">
         <v>481</v>
       </c>
-      <c r="B65" s="6" t="s">
-        <v>505</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>495</v>
-      </c>
-      <c r="D65" s="1" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="6" t="s">
-        <v>507</v>
-      </c>
-      <c r="B66" s="6" t="s">
-        <v>508</v>
-      </c>
       <c r="C66" s="1" t="s">
-        <v>495</v>
+        <v>468</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>509</v>
+        <v>482</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="B67" s="6" t="s">
-        <v>511</v>
+        <v>483</v>
+      </c>
+      <c r="B67" s="8" t="s">
+        <v>484</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>495</v>
+        <v>468</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>512</v>
+        <v>485</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="s">
-        <v>484</v>
+        <v>457</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>513</v>
+        <v>486</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>495</v>
+        <v>468</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>514</v>
+        <v>487</v>
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="5" t="s">
-        <v>515</v>
+      <c r="A69" s="6" t="s">
+        <v>488</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>513</v>
+        <v>486</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>495</v>
+        <v>468</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>514</v>
+        <v>487</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="s">
-        <v>516</v>
+        <v>489</v>
       </c>
       <c r="B70" s="30" t="s">
-        <v>517</v>
-      </c>
-      <c r="C70" s="4" t="s">
-        <v>518</v>
+        <v>490</v>
+      </c>
+      <c r="C70" s="5" t="s">
+        <v>491</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>519</v>
+        <v>492</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="s">
-        <v>520</v>
+        <v>493</v>
       </c>
       <c r="B71" s="30" t="s">
-        <v>521</v>
-      </c>
-      <c r="C71" s="4" t="s">
-        <v>518</v>
+        <v>494</v>
+      </c>
+      <c r="C71" s="5" t="s">
+        <v>491</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>522</v>
+        <v>495</v>
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="6" t="s">
-        <v>523</v>
-      </c>
-      <c r="B72" s="6" t="s">
-        <v>524</v>
-      </c>
-      <c r="C72" s="4" t="s">
-        <v>525</v>
+      <c r="A72" s="8" t="s">
+        <v>496</v>
+      </c>
+      <c r="B72" s="8" t="s">
+        <v>497</v>
+      </c>
+      <c r="C72" s="5" t="s">
+        <v>498</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>526</v>
+        <v>499</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="3" t="s">
-        <v>527</v>
+        <v>500</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>528</v>
-      </c>
-      <c r="C73" s="4" t="s">
-        <v>525</v>
+        <v>501</v>
+      </c>
+      <c r="C73" s="5" t="s">
+        <v>498</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="3" t="s">
-        <v>529</v>
-      </c>
-      <c r="B74" s="6" t="s">
-        <v>530</v>
-      </c>
-      <c r="C74" s="4" t="s">
-        <v>531</v>
-      </c>
-      <c r="D74" s="6" t="s">
-        <v>532</v>
+        <v>502</v>
+      </c>
+      <c r="B74" s="8" t="s">
+        <v>503</v>
+      </c>
+      <c r="C74" s="5" t="s">
+        <v>504</v>
+      </c>
+      <c r="D74" s="8" t="s">
+        <v>505</v>
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="5" t="s">
-        <v>533</v>
+      <c r="A75" s="6" t="s">
+        <v>506</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>534</v>
-      </c>
-      <c r="C75" s="4" t="s">
-        <v>535</v>
+        <v>507</v>
+      </c>
+      <c r="C75" s="5" t="s">
+        <v>508</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>536</v>
+        <v>509</v>
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="5" t="s">
-        <v>537</v>
+      <c r="A76" s="6" t="s">
+        <v>510</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>538</v>
+        <v>511</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>539</v>
+        <v>512</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>540</v>
+        <v>513</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="33" t="s">
-        <v>541</v>
-      </c>
-      <c r="B77" s="6" t="s">
-        <v>542</v>
+        <v>514</v>
+      </c>
+      <c r="B77" s="8" t="s">
+        <v>515</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>539</v>
+        <v>512</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>543</v>
+        <v>516</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="3" t="s">
-        <v>544</v>
+        <v>517</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>545</v>
-      </c>
-      <c r="C78" s="4" t="s">
-        <v>546</v>
+        <v>518</v>
+      </c>
+      <c r="C78" s="5" t="s">
+        <v>519</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>547</v>
+        <v>520</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="s">
-        <v>548</v>
-      </c>
-      <c r="B79" s="6" t="s">
-        <v>549</v>
-      </c>
-      <c r="C79" s="4" t="s">
-        <v>546</v>
-      </c>
-      <c r="D79" s="6" t="s">
-        <v>550</v>
+        <v>521</v>
+      </c>
+      <c r="B79" s="8" t="s">
+        <v>522</v>
+      </c>
+      <c r="C79" s="5" t="s">
+        <v>519</v>
+      </c>
+      <c r="D79" s="8" t="s">
+        <v>523</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="s">
-        <v>551</v>
+        <v>524</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>552</v>
-      </c>
-      <c r="C80" s="4" t="s">
-        <v>553</v>
+        <v>525</v>
+      </c>
+      <c r="C80" s="5" t="s">
+        <v>526</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>554</v>
+        <v>527</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="s">
-        <v>555</v>
+        <v>528</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>556</v>
-      </c>
-      <c r="C81" s="4" t="s">
-        <v>553</v>
+        <v>529</v>
+      </c>
+      <c r="C81" s="5" t="s">
+        <v>526</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>557</v>
+        <v>530</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="s">
-        <v>558</v>
-      </c>
-      <c r="B82" s="6" t="s">
-        <v>559</v>
-      </c>
-      <c r="C82" s="4" t="s">
-        <v>553</v>
+        <v>531</v>
+      </c>
+      <c r="B82" s="8" t="s">
+        <v>532</v>
+      </c>
+      <c r="C82" s="5" t="s">
+        <v>526</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>560</v>
+        <v>533</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="s">
-        <v>561</v>
-      </c>
-      <c r="B83" s="6" t="s">
-        <v>562</v>
-      </c>
-      <c r="C83" s="4" t="s">
-        <v>563</v>
+        <v>534</v>
+      </c>
+      <c r="B83" s="8" t="s">
+        <v>535</v>
+      </c>
+      <c r="C83" s="5" t="s">
+        <v>536</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>564</v>
+        <v>537</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="s">
-        <v>565</v>
-      </c>
-      <c r="B84" s="6" t="s">
-        <v>566</v>
-      </c>
-      <c r="C84" s="4" t="s">
-        <v>567</v>
+        <v>538</v>
+      </c>
+      <c r="B84" s="8" t="s">
+        <v>539</v>
+      </c>
+      <c r="C84" s="5" t="s">
+        <v>540</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>568</v>
+        <v>541</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="s">
-        <v>565</v>
-      </c>
-      <c r="B85" s="6" t="s">
-        <v>569</v>
-      </c>
-      <c r="C85" s="4" t="s">
-        <v>567</v>
+        <v>538</v>
+      </c>
+      <c r="B85" s="8" t="s">
+        <v>542</v>
+      </c>
+      <c r="C85" s="5" t="s">
+        <v>540</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>570</v>
+        <v>543</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="3" t="s">
-        <v>571</v>
-      </c>
-      <c r="B86" s="6" t="s">
-        <v>572</v>
-      </c>
-      <c r="C86" s="4" t="s">
-        <v>573</v>
+        <v>544</v>
+      </c>
+      <c r="B86" s="8" t="s">
+        <v>545</v>
+      </c>
+      <c r="C86" s="5" t="s">
+        <v>546</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>574</v>
+        <v>547</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="3" t="s">
-        <v>571</v>
+        <v>544</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>575</v>
-      </c>
-      <c r="C87" s="4" t="s">
-        <v>573</v>
+        <v>548</v>
+      </c>
+      <c r="C87" s="5" t="s">
+        <v>546</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>576</v>
+        <v>549</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="3" t="s">
-        <v>577</v>
-      </c>
-      <c r="B88" s="8" t="s">
-        <v>578</v>
-      </c>
-      <c r="C88" s="4" t="s">
-        <v>579</v>
+        <v>550</v>
+      </c>
+      <c r="B88" s="4" t="s">
+        <v>551</v>
+      </c>
+      <c r="C88" s="5" t="s">
+        <v>552</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="3" t="s">
-        <v>580</v>
-      </c>
-      <c r="B89" s="8" t="s">
-        <v>581</v>
-      </c>
-      <c r="C89" s="4" t="s">
-        <v>582</v>
+        <v>553</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>554</v>
+      </c>
+      <c r="C89" s="5" t="s">
+        <v>555</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>583</v>
+        <v>556</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="s">
-        <v>584</v>
+        <v>557</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>585</v>
-      </c>
-      <c r="C90" s="4" t="s">
-        <v>582</v>
+        <v>558</v>
+      </c>
+      <c r="C90" s="5" t="s">
+        <v>555</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>586</v>
+        <v>559</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="s">
-        <v>587</v>
+        <v>560</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>588</v>
+        <v>561</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>589</v>
+        <v>562</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="3" t="s">
-        <v>590</v>
-      </c>
-      <c r="B92" s="6" t="s">
-        <v>591</v>
-      </c>
-      <c r="C92" s="4" t="s">
-        <v>592</v>
+        <v>563</v>
+      </c>
+      <c r="B92" s="8" t="s">
+        <v>564</v>
+      </c>
+      <c r="C92" s="5" t="s">
+        <v>565</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>593</v>
+        <v>566</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="s">
-        <v>594</v>
-      </c>
-      <c r="B93" s="6" t="s">
-        <v>595</v>
-      </c>
-      <c r="C93" s="4" t="s">
-        <v>596</v>
+        <v>567</v>
+      </c>
+      <c r="B93" s="8" t="s">
+        <v>568</v>
+      </c>
+      <c r="C93" s="5" t="s">
+        <v>569</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>597</v>
+        <v>570</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="3" t="s">
-        <v>598</v>
+        <v>571</v>
       </c>
       <c r="B94" s="34" t="s">
-        <v>599</v>
+        <v>572</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>600</v>
+        <v>573</v>
       </c>
       <c r="D94" s="34" t="s">
-        <v>601</v>
+        <v>574</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="3" t="s">
-        <v>602</v>
-      </c>
-      <c r="B95" s="6" t="s">
-        <v>603</v>
-      </c>
-      <c r="C95" s="4" t="s">
-        <v>596</v>
+        <v>575</v>
+      </c>
+      <c r="B95" s="8" t="s">
+        <v>576</v>
+      </c>
+      <c r="C95" s="5" t="s">
+        <v>569</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>604</v>
+        <v>577</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="3" t="s">
-        <v>605</v>
-      </c>
-      <c r="B96" s="6" t="s">
-        <v>606</v>
-      </c>
-      <c r="C96" s="4" t="s">
-        <v>607</v>
+        <v>578</v>
+      </c>
+      <c r="B96" s="8" t="s">
+        <v>579</v>
+      </c>
+      <c r="C96" s="5" t="s">
+        <v>580</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>608</v>
+        <v>581</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="3" t="s">
-        <v>609</v>
-      </c>
-      <c r="B97" s="6" t="s">
-        <v>610</v>
-      </c>
-      <c r="C97" s="4" t="s">
-        <v>611</v>
+        <v>582</v>
+      </c>
+      <c r="B97" s="8" t="s">
+        <v>583</v>
+      </c>
+      <c r="C97" s="5" t="s">
+        <v>584</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>612</v>
+        <v>585</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="35" t="s">
-        <v>613</v>
-      </c>
-      <c r="B98" s="6" t="s">
-        <v>614</v>
-      </c>
-      <c r="C98" s="4" t="s">
-        <v>615</v>
+        <v>586</v>
+      </c>
+      <c r="B98" s="8" t="s">
+        <v>587</v>
+      </c>
+      <c r="C98" s="5" t="s">
+        <v>588</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>616</v>
+        <v>589</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="35" t="s">
-        <v>617</v>
-      </c>
-      <c r="B99" s="6" t="s">
-        <v>618</v>
-      </c>
-      <c r="C99" s="4" t="s">
-        <v>615</v>
+        <v>590</v>
+      </c>
+      <c r="B99" s="8" t="s">
+        <v>591</v>
+      </c>
+      <c r="C99" s="5" t="s">
+        <v>588</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>619</v>
+        <v>592</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="35" t="s">
-        <v>620</v>
-      </c>
-      <c r="B100" s="6" t="s">
-        <v>621</v>
-      </c>
-      <c r="C100" s="4" t="s">
-        <v>615</v>
+        <v>593</v>
+      </c>
+      <c r="B100" s="8" t="s">
+        <v>594</v>
+      </c>
+      <c r="C100" s="5" t="s">
+        <v>588</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>622</v>
+        <v>595</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="s">
-        <v>623</v>
+        <v>596</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>624</v>
-      </c>
-      <c r="C101" s="4" t="s">
-        <v>625</v>
+        <v>597</v>
+      </c>
+      <c r="C101" s="5" t="s">
+        <v>598</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>626</v>
+        <v>599</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="3" t="s">
-        <v>627</v>
+        <v>600</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>628</v>
-      </c>
-      <c r="C102" s="4" t="s">
-        <v>625</v>
+        <v>601</v>
+      </c>
+      <c r="C102" s="5" t="s">
+        <v>598</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="3" t="s">
-        <v>629</v>
-      </c>
-      <c r="B103" s="6" t="s">
-        <v>630</v>
-      </c>
-      <c r="C103" s="4" t="s">
-        <v>631</v>
+        <v>602</v>
+      </c>
+      <c r="B103" s="8" t="s">
+        <v>603</v>
+      </c>
+      <c r="C103" s="5" t="s">
+        <v>604</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>632</v>
+        <v>605</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="3" t="s">
-        <v>633</v>
-      </c>
-      <c r="B104" s="8" t="s">
-        <v>634</v>
-      </c>
-      <c r="C104" s="4" t="s">
-        <v>631</v>
+        <v>606</v>
+      </c>
+      <c r="B104" s="4" t="s">
+        <v>607</v>
+      </c>
+      <c r="C104" s="5" t="s">
+        <v>604</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>635</v>
+        <v>608</v>
       </c>
     </row>
     <row r="105">
-      <c r="A105" s="6" t="s">
-        <v>636</v>
-      </c>
-      <c r="B105" s="6" t="s">
-        <v>637</v>
-      </c>
-      <c r="C105" s="4" t="s">
-        <v>631</v>
+      <c r="A105" s="8" t="s">
+        <v>609</v>
+      </c>
+      <c r="B105" s="8" t="s">
+        <v>610</v>
+      </c>
+      <c r="C105" s="5" t="s">
+        <v>604</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>638</v>
+        <v>611</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="3" t="s">
-        <v>639</v>
+        <v>612</v>
       </c>
       <c r="B106" s="36" t="s">
-        <v>640</v>
-      </c>
-      <c r="C106" s="4" t="s">
-        <v>631</v>
+        <v>613</v>
+      </c>
+      <c r="C106" s="5" t="s">
+        <v>604</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="3" t="s">
-        <v>641</v>
+        <v>614</v>
       </c>
       <c r="B107" s="36" t="s">
-        <v>642</v>
-      </c>
-      <c r="C107" s="4" t="s">
-        <v>631</v>
+        <v>615</v>
+      </c>
+      <c r="C107" s="5" t="s">
+        <v>604</v>
       </c>
     </row>
     <row r="108">
-      <c r="A108" s="6" t="s">
-        <v>643</v>
+      <c r="A108" s="8" t="s">
+        <v>616</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>644</v>
-      </c>
-      <c r="C108" s="4" t="s">
-        <v>645</v>
+        <v>617</v>
+      </c>
+      <c r="C108" s="5" t="s">
+        <v>618</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>646</v>
+        <v>619</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="3" t="s">
-        <v>647</v>
+        <v>620</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>648</v>
-      </c>
-      <c r="C109" s="4" t="s">
-        <v>645</v>
+        <v>621</v>
+      </c>
+      <c r="C109" s="5" t="s">
+        <v>618</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>649</v>
+        <v>622</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="37" t="s">
-        <v>650</v>
+        <v>623</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>651</v>
-      </c>
-      <c r="C110" s="4" t="s">
-        <v>652</v>
+        <v>624</v>
+      </c>
+      <c r="C110" s="5" t="s">
+        <v>625</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>653</v>
+        <v>626</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="37" t="s">
-        <v>654</v>
+        <v>627</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>655</v>
-      </c>
-      <c r="C111" s="4" t="s">
-        <v>652</v>
+        <v>628</v>
+      </c>
+      <c r="C111" s="5" t="s">
+        <v>625</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>656</v>
+        <v>629</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="3" t="s">
-        <v>657</v>
+        <v>630</v>
       </c>
       <c r="B112" s="38" t="s">
-        <v>658</v>
-      </c>
-      <c r="C112" s="4" t="s">
-        <v>659</v>
+        <v>631</v>
+      </c>
+      <c r="C112" s="5" t="s">
+        <v>632</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>660</v>
+        <v>633</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="3" t="s">
-        <v>661</v>
+        <v>634</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>662</v>
-      </c>
-      <c r="C113" s="4" t="s">
-        <v>659</v>
+        <v>635</v>
+      </c>
+      <c r="C113" s="5" t="s">
+        <v>632</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>663</v>
+        <v>636</v>
       </c>
     </row>
     <row r="114">
-      <c r="A114" s="6" t="s">
-        <v>664</v>
-      </c>
-      <c r="B114" s="6" t="s">
-        <v>665</v>
-      </c>
-      <c r="C114" s="4" t="s">
-        <v>659</v>
+      <c r="A114" s="8" t="s">
+        <v>637</v>
+      </c>
+      <c r="B114" s="8" t="s">
+        <v>638</v>
+      </c>
+      <c r="C114" s="5" t="s">
+        <v>632</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>666</v>
+        <v>639</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="3" t="s">
-        <v>667</v>
-      </c>
-      <c r="B115" s="7" t="s">
-        <v>668</v>
-      </c>
-      <c r="C115" s="4" t="s">
-        <v>669</v>
+        <v>640</v>
+      </c>
+      <c r="B115" s="9" t="s">
+        <v>641</v>
+      </c>
+      <c r="C115" s="5" t="s">
+        <v>642</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>670</v>
+        <v>643</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="3" t="s">
-        <v>671</v>
+        <v>644</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>672</v>
-      </c>
-      <c r="C116" s="4" t="s">
-        <v>669</v>
+        <v>645</v>
+      </c>
+      <c r="C116" s="5" t="s">
+        <v>642</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>673</v>
+        <v>646</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="3" t="s">
-        <v>674</v>
+        <v>647</v>
       </c>
       <c r="B117" s="38" t="s">
-        <v>675</v>
-      </c>
-      <c r="C117" s="4" t="s">
-        <v>676</v>
+        <v>648</v>
+      </c>
+      <c r="C117" s="5" t="s">
+        <v>649</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>677</v>
+        <v>650</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="3" t="s">
-        <v>678</v>
+        <v>651</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>679</v>
-      </c>
-      <c r="C118" s="4" t="s">
-        <v>680</v>
+        <v>652</v>
+      </c>
+      <c r="C118" s="5" t="s">
+        <v>653</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>681</v>
+        <v>654</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="3" t="s">
-        <v>682</v>
+        <v>655</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>683</v>
-      </c>
-      <c r="C119" s="4" t="s">
-        <v>680</v>
+        <v>656</v>
+      </c>
+      <c r="C119" s="5" t="s">
+        <v>653</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>684</v>
+        <v>657</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="3" t="s">
-        <v>685</v>
+        <v>658</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>686</v>
+        <v>659</v>
       </c>
       <c r="C120" s="39" t="s">
-        <v>680</v>
+        <v>653</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>687</v>
+        <v>660</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="3" t="s">
-        <v>688</v>
-      </c>
-      <c r="B121" s="6" t="s">
-        <v>689</v>
+        <v>661</v>
+      </c>
+      <c r="B121" s="8" t="s">
+        <v>662</v>
       </c>
       <c r="C121" s="39" t="s">
-        <v>680</v>
+        <v>653</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>690</v>
+        <v>663</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="3" t="s">
-        <v>688</v>
-      </c>
-      <c r="B122" s="6" t="s">
-        <v>691</v>
+        <v>661</v>
+      </c>
+      <c r="B122" s="8" t="s">
+        <v>664</v>
       </c>
       <c r="C122" s="39" t="s">
-        <v>680</v>
+        <v>653</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>692</v>
+        <v>665</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="3" t="s">
-        <v>693</v>
-      </c>
-      <c r="B123" s="6" t="s">
-        <v>694</v>
-      </c>
-      <c r="C123" s="4" t="s">
-        <v>695</v>
+        <v>666</v>
+      </c>
+      <c r="B123" s="8" t="s">
+        <v>667</v>
+      </c>
+      <c r="C123" s="5" t="s">
+        <v>668</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>696</v>
+        <v>669</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="3" t="s">
-        <v>697</v>
+        <v>670</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>698</v>
-      </c>
-      <c r="C124" s="4" t="s">
-        <v>695</v>
+        <v>671</v>
+      </c>
+      <c r="C124" s="5" t="s">
+        <v>668</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>699</v>
+        <v>672</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="3" t="s">
-        <v>697</v>
-      </c>
-      <c r="B125" s="6" t="s">
-        <v>700</v>
-      </c>
-      <c r="C125" s="4" t="s">
-        <v>695</v>
+        <v>670</v>
+      </c>
+      <c r="B125" s="8" t="s">
+        <v>673</v>
+      </c>
+      <c r="C125" s="5" t="s">
+        <v>668</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>701</v>
+        <v>674</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="3" t="s">
-        <v>702</v>
+        <v>675</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>703</v>
-      </c>
-      <c r="C126" s="4" t="s">
-        <v>695</v>
+        <v>676</v>
+      </c>
+      <c r="C126" s="5" t="s">
+        <v>668</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>704</v>
+        <v>677</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="3" t="s">
-        <v>705</v>
-      </c>
-      <c r="B127" s="6" t="s">
-        <v>706</v>
-      </c>
-      <c r="C127" s="4" t="s">
-        <v>707</v>
+        <v>678</v>
+      </c>
+      <c r="B127" s="8" t="s">
+        <v>679</v>
+      </c>
+      <c r="C127" s="5" t="s">
+        <v>680</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>708</v>
+        <v>681</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="s">
-        <v>709</v>
+        <v>682</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>710</v>
-      </c>
-      <c r="C128" s="4" t="s">
-        <v>707</v>
+        <v>683</v>
+      </c>
+      <c r="C128" s="5" t="s">
+        <v>680</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>711</v>
+        <v>684</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="s">
-        <v>712</v>
-      </c>
-      <c r="B129" s="6" t="s">
-        <v>713</v>
-      </c>
-      <c r="C129" s="4" t="s">
-        <v>707</v>
+        <v>685</v>
+      </c>
+      <c r="B129" s="8" t="s">
+        <v>686</v>
+      </c>
+      <c r="C129" s="5" t="s">
+        <v>680</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>714</v>
+        <v>687</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="s">
-        <v>715</v>
-      </c>
-      <c r="B130" s="6" t="s">
-        <v>716</v>
-      </c>
-      <c r="C130" s="4" t="s">
-        <v>707</v>
+        <v>688</v>
+      </c>
+      <c r="B130" s="8" t="s">
+        <v>689</v>
+      </c>
+      <c r="C130" s="5" t="s">
+        <v>680</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>717</v>
+        <v>690</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="s">
-        <v>718</v>
-      </c>
-      <c r="B131" s="6" t="s">
-        <v>719</v>
-      </c>
-      <c r="C131" s="4" t="s">
-        <v>720</v>
+        <v>691</v>
+      </c>
+      <c r="B131" s="8" t="s">
+        <v>692</v>
+      </c>
+      <c r="C131" s="5" t="s">
+        <v>693</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>721</v>
+        <v>694</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="s">
-        <v>718</v>
+        <v>691</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>722</v>
-      </c>
-      <c r="C132" s="4" t="s">
-        <v>720</v>
+        <v>695</v>
+      </c>
+      <c r="C132" s="5" t="s">
+        <v>693</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>723</v>
+        <v>696</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="s">
-        <v>724</v>
+        <v>697</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>725</v>
-      </c>
-      <c r="C133" s="4" t="s">
-        <v>720</v>
+        <v>698</v>
+      </c>
+      <c r="C133" s="5" t="s">
+        <v>693</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>726</v>
+        <v>699</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="s">
-        <v>727</v>
-      </c>
-      <c r="B134" s="6" t="s">
-        <v>728</v>
-      </c>
-      <c r="C134" s="4" t="s">
-        <v>720</v>
+        <v>700</v>
+      </c>
+      <c r="B134" s="8" t="s">
+        <v>701</v>
+      </c>
+      <c r="C134" s="5" t="s">
+        <v>693</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>729</v>
+        <v>702</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="s">
-        <v>730</v>
-      </c>
-      <c r="B135" s="6" t="s">
-        <v>731</v>
-      </c>
-      <c r="C135" s="4" t="s">
-        <v>720</v>
+        <v>703</v>
+      </c>
+      <c r="B135" s="8" t="s">
+        <v>704</v>
+      </c>
+      <c r="C135" s="5" t="s">
+        <v>693</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>732</v>
+        <v>705</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="s">
-        <v>733</v>
+        <v>706</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>734</v>
-      </c>
-      <c r="C136" s="4" t="s">
-        <v>720</v>
+        <v>707</v>
+      </c>
+      <c r="C136" s="5" t="s">
+        <v>693</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>735</v>
+        <v>708</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="s">
-        <v>736</v>
-      </c>
-      <c r="B137" s="6" t="s">
-        <v>737</v>
-      </c>
-      <c r="C137" s="4" t="s">
-        <v>720</v>
+        <v>709</v>
+      </c>
+      <c r="B137" s="8" t="s">
+        <v>710</v>
+      </c>
+      <c r="C137" s="5" t="s">
+        <v>693</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>738</v>
+        <v>711</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="s">
-        <v>736</v>
+        <v>709</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>739</v>
-      </c>
-      <c r="C138" s="4" t="s">
-        <v>720</v>
+        <v>712</v>
+      </c>
+      <c r="C138" s="5" t="s">
+        <v>693</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>740</v>
+        <v>713</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="3" t="s">
-        <v>674</v>
+        <v>647</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>741</v>
-      </c>
-      <c r="C139" s="4" t="s">
-        <v>742</v>
+        <v>714</v>
+      </c>
+      <c r="C139" s="5" t="s">
+        <v>715</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>743</v>
+        <v>716</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="3" t="s">
-        <v>744</v>
+        <v>717</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>745</v>
-      </c>
-      <c r="C140" s="4" t="s">
-        <v>742</v>
+        <v>718</v>
+      </c>
+      <c r="C140" s="5" t="s">
+        <v>715</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>746</v>
+        <v>719</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="3" t="s">
-        <v>747</v>
-      </c>
-      <c r="B141" s="8" t="s">
-        <v>748</v>
-      </c>
-      <c r="C141" s="4" t="s">
-        <v>749</v>
+        <v>720</v>
+      </c>
+      <c r="B141" s="4" t="s">
+        <v>721</v>
+      </c>
+      <c r="C141" s="5" t="s">
+        <v>722</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>750</v>
+        <v>723</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="3" t="s">
-        <v>751</v>
-      </c>
-      <c r="B142" s="6" t="s">
-        <v>752</v>
-      </c>
-      <c r="C142" s="4" t="s">
-        <v>753</v>
+        <v>724</v>
+      </c>
+      <c r="B142" s="8" t="s">
+        <v>725</v>
+      </c>
+      <c r="C142" s="5" t="s">
+        <v>726</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>754</v>
+        <v>727</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="25" t="s">
-        <v>755</v>
+        <v>728</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>756</v>
-      </c>
-      <c r="C143" s="4" t="s">
-        <v>753</v>
+        <v>729</v>
+      </c>
+      <c r="C143" s="5" t="s">
+        <v>726</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>757</v>
+        <v>730</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="25" t="s">
-        <v>758</v>
+        <v>731</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>759</v>
-      </c>
-      <c r="C144" s="4" t="s">
-        <v>753</v>
+        <v>732</v>
+      </c>
+      <c r="C144" s="5" t="s">
+        <v>726</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>760</v>
+        <v>733</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="25" t="s">
-        <v>761</v>
+        <v>734</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>762</v>
-      </c>
-      <c r="C145" s="4" t="s">
-        <v>753</v>
+        <v>735</v>
+      </c>
+      <c r="C145" s="5" t="s">
+        <v>726</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>763</v>
+        <v>736</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="25" t="s">
-        <v>764</v>
-      </c>
-      <c r="C146" s="4" t="s">
-        <v>10</v>
+        <v>737</v>
+      </c>
+      <c r="C146" s="5" t="s">
+        <v>738</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>765</v>
+        <v>739</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="25" t="s">
-        <v>766</v>
+        <v>740</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>767</v>
-      </c>
-      <c r="C147" s="4" t="s">
-        <v>10</v>
+        <v>741</v>
+      </c>
+      <c r="C147" s="5" t="s">
+        <v>738</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>768</v>
+        <v>742</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="25" t="s">
-        <v>769</v>
-      </c>
-      <c r="B148" s="6" t="s">
-        <v>770</v>
-      </c>
-      <c r="C148" s="4" t="s">
-        <v>10</v>
+        <v>743</v>
+      </c>
+      <c r="B148" s="8" t="s">
+        <v>744</v>
+      </c>
+      <c r="C148" s="5" t="s">
+        <v>738</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>771</v>
+        <v>745</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="25" t="s">
-        <v>772</v>
+        <v>746</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>773</v>
-      </c>
-      <c r="C149" s="4" t="s">
-        <v>10</v>
+        <v>747</v>
+      </c>
+      <c r="C149" s="5" t="s">
+        <v>738</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>774</v>
+        <v>748</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="3" t="s">
-        <v>27</v>
+        <v>749</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>775</v>
-      </c>
-      <c r="C150" s="4" t="s">
-        <v>10</v>
+        <v>750</v>
+      </c>
+      <c r="C150" s="5" t="s">
+        <v>738</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>776</v>
+        <v>751</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="40" t="s">
-        <v>777</v>
-      </c>
-      <c r="B151" s="6" t="s">
-        <v>778</v>
-      </c>
-      <c r="C151" s="4" t="s">
-        <v>52</v>
+        <v>752</v>
+      </c>
+      <c r="B151" s="8" t="s">
+        <v>753</v>
+      </c>
+      <c r="C151" s="5" t="s">
+        <v>21</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>779</v>
+        <v>754</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="40" t="s">
-        <v>780</v>
+        <v>755</v>
       </c>
       <c r="B152" s="26" t="s">
-        <v>781</v>
-      </c>
-      <c r="C152" s="4" t="s">
-        <v>52</v>
+        <v>756</v>
+      </c>
+      <c r="C152" s="5" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="s">
-        <v>782</v>
+        <v>757</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>783</v>
+        <v>758</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>52</v>
+        <v>21</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>784</v>
+        <v>759</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="s">
-        <v>780</v>
-      </c>
-      <c r="B154" s="6" t="s">
-        <v>785</v>
-      </c>
-      <c r="C154" s="4" t="s">
-        <v>52</v>
+        <v>755</v>
+      </c>
+      <c r="B154" s="8" t="s">
+        <v>760</v>
+      </c>
+      <c r="C154" s="5" t="s">
+        <v>21</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>786</v>
+        <v>761</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="12" t="s">
-        <v>83</v>
+        <v>52</v>
       </c>
       <c r="B155" s="12" t="s">
-        <v>787</v>
+        <v>762</v>
       </c>
       <c r="C155" s="10" t="s">
-        <v>68</v>
+        <v>37</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>788</v>
+        <v>763</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="3" t="s">
-        <v>82</v>
+        <v>51</v>
       </c>
       <c r="B156" s="12" t="s">
-        <v>789</v>
+        <v>764</v>
       </c>
       <c r="C156" s="10" t="s">
-        <v>68</v>
+        <v>37</v>
       </c>
       <c r="D156" s="12" t="s">
-        <v>788</v>
+        <v>763</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="12" t="s">
-        <v>83</v>
+        <v>52</v>
       </c>
       <c r="B157" s="12" t="s">
-        <v>790</v>
+        <v>765</v>
       </c>
       <c r="C157" s="10" t="s">
-        <v>68</v>
+        <v>37</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>791</v>
+        <v>766</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="3" t="s">
-        <v>82</v>
+        <v>51</v>
       </c>
       <c r="B158" s="12" t="s">
-        <v>790</v>
+        <v>765</v>
       </c>
       <c r="C158" s="10" t="s">
-        <v>68</v>
+        <v>37</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>791</v>
+        <v>766</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="3" t="s">
-        <v>110</v>
+        <v>81</v>
       </c>
       <c r="B159" s="12" t="s">
-        <v>792</v>
+        <v>767</v>
       </c>
       <c r="C159" s="10" t="s">
-        <v>108</v>
+        <v>78</v>
       </c>
       <c r="D159" s="1" t="s">
-        <v>793</v>
+        <v>768</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="3" t="s">
-        <v>116</v>
+        <v>87</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>794</v>
+        <v>769</v>
       </c>
       <c r="C160" s="10" t="s">
-        <v>108</v>
+        <v>78</v>
       </c>
       <c r="D160" s="1" t="s">
-        <v>795</v>
+        <v>770</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="3" t="s">
-        <v>118</v>
+        <v>89</v>
       </c>
       <c r="B161" s="12" t="s">
-        <v>796</v>
+        <v>771</v>
       </c>
       <c r="C161" s="10" t="s">
-        <v>108</v>
+        <v>78</v>
       </c>
       <c r="D161" s="1" t="s">
-        <v>797</v>
+        <v>772</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="3" t="s">
-        <v>118</v>
+        <v>89</v>
       </c>
       <c r="B162" s="12" t="s">
-        <v>792</v>
+        <v>767</v>
       </c>
       <c r="C162" s="10" t="s">
-        <v>108</v>
+        <v>78</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>798</v>
+        <v>773</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="3" t="s">
-        <v>139</v>
+        <v>111</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>799</v>
+        <v>774</v>
       </c>
       <c r="C163" s="10" t="s">
-        <v>108</v>
+        <v>78</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>800</v>
+        <v>775</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="3" t="s">
-        <v>143</v>
+        <v>115</v>
       </c>
       <c r="B164" s="12" t="s">
-        <v>801</v>
+        <v>776</v>
       </c>
       <c r="C164" s="10" t="s">
-        <v>108</v>
+        <v>78</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>802</v>
+        <v>777</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="3" t="s">
-        <v>150</v>
+        <v>122</v>
       </c>
       <c r="B165" s="12" t="s">
-        <v>803</v>
+        <v>778</v>
       </c>
       <c r="C165" s="10" t="s">
-        <v>108</v>
+        <v>78</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>804</v>
+        <v>779</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="3" t="s">
-        <v>152</v>
+        <v>124</v>
       </c>
       <c r="B166" s="12" t="s">
-        <v>805</v>
+        <v>780</v>
       </c>
       <c r="C166" s="10" t="s">
-        <v>108</v>
+        <v>78</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>806</v>
+        <v>781</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="14" t="s">
-        <v>171</v>
+        <v>143</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>807</v>
+        <v>782</v>
       </c>
       <c r="C167" s="10" t="s">
-        <v>162</v>
+        <v>134</v>
       </c>
       <c r="D167" s="1" t="s">
-        <v>808</v>
+        <v>783</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="3" t="s">
-        <v>172</v>
+        <v>144</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>809</v>
+        <v>784</v>
       </c>
       <c r="C168" s="10" t="s">
-        <v>162</v>
+        <v>134</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>808</v>
+        <v>783</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="3" t="s">
-        <v>236</v>
+        <v>208</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>233</v>
+        <v>205</v>
       </c>
       <c r="D169" s="1" t="s">
-        <v>810</v>
+        <v>785</v>
       </c>
     </row>
   </sheetData>
